--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/02.Design Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EC0611-AE63-6F49-A3A3-EEEDB8073040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90977B08-6333-4E4F-BDFB-907134CD8952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1040" windowWidth="32100" windowHeight="21060" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="32100" windowHeight="19360" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -2850,37 +2850,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2896,13 +2878,79 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2910,23 +2958,44 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2964,80 +3033,11 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -20467,7 +20467,7 @@
       <c r="L64" s="261"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20612,7 +20612,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -22059,8 +22059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:P292"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A258" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D277" sqref="D277:E277"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A250" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D286" sqref="D275:E286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22123,7 +22123,7 @@
       </c>
       <c r="O2" s="280">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="P2" s="281"/>
     </row>
@@ -22231,10 +22231,10 @@
       <c r="C8" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="362" t="s">
+      <c r="D8" s="385" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="363"/>
+      <c r="E8" s="386"/>
       <c r="F8" s="221" t="s">
         <v>31</v>
       </c>
@@ -22253,12 +22253,12 @@
       <c r="K8" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="364" t="s">
+      <c r="L8" s="387" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="364"/>
-      <c r="N8" s="364"/>
-      <c r="O8" s="365"/>
+      <c r="M8" s="387"/>
+      <c r="N8" s="387"/>
+      <c r="O8" s="388"/>
       <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22269,10 +22269,10 @@
       <c r="C9" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="354" t="s">
+      <c r="D9" s="377" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="355"/>
+      <c r="E9" s="378"/>
       <c r="F9" s="224" t="s">
         <v>191</v>
       </c>
@@ -22287,10 +22287,10 @@
       </c>
       <c r="J9" s="224"/>
       <c r="K9" s="224"/>
-      <c r="L9" s="356"/>
-      <c r="M9" s="356"/>
-      <c r="N9" s="356"/>
-      <c r="O9" s="357"/>
+      <c r="L9" s="379"/>
+      <c r="M9" s="379"/>
+      <c r="N9" s="379"/>
+      <c r="O9" s="380"/>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22301,10 +22301,10 @@
       <c r="C10" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="354" t="s">
+      <c r="D10" s="377" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="355"/>
+      <c r="E10" s="378"/>
       <c r="F10" s="224"/>
       <c r="G10" s="224"/>
       <c r="H10" s="224" t="s">
@@ -22315,12 +22315,12 @@
       </c>
       <c r="J10" s="224"/>
       <c r="K10" s="224"/>
-      <c r="L10" s="356" t="s">
+      <c r="L10" s="379" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="356"/>
-      <c r="N10" s="356"/>
-      <c r="O10" s="357"/>
+      <c r="M10" s="379"/>
+      <c r="N10" s="379"/>
+      <c r="O10" s="380"/>
       <c r="P10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22331,10 +22331,10 @@
       <c r="C11" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="354" t="s">
+      <c r="D11" s="377" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="355"/>
+      <c r="E11" s="378"/>
       <c r="F11" s="224"/>
       <c r="G11" s="224"/>
       <c r="H11" s="224" t="s">
@@ -22345,10 +22345,10 @@
       </c>
       <c r="J11" s="224"/>
       <c r="K11" s="224"/>
-      <c r="L11" s="356"/>
-      <c r="M11" s="356"/>
-      <c r="N11" s="356"/>
-      <c r="O11" s="357"/>
+      <c r="L11" s="379"/>
+      <c r="M11" s="379"/>
+      <c r="N11" s="379"/>
+      <c r="O11" s="380"/>
       <c r="P11" s="110"/>
     </row>
     <row r="12" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -22359,10 +22359,10 @@
       <c r="C12" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="358" t="s">
+      <c r="D12" s="381" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="359"/>
+      <c r="E12" s="382"/>
       <c r="F12" s="228"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
@@ -22371,10 +22371,10 @@
       </c>
       <c r="J12" s="228"/>
       <c r="K12" s="228"/>
-      <c r="L12" s="360"/>
-      <c r="M12" s="360"/>
-      <c r="N12" s="360"/>
-      <c r="O12" s="361"/>
+      <c r="L12" s="383"/>
+      <c r="M12" s="383"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="384"/>
       <c r="P12" s="110"/>
     </row>
     <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22461,10 +22461,10 @@
       <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="328" t="s">
+      <c r="D17" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="329"/>
+      <c r="E17" s="344"/>
       <c r="F17" s="25" t="s">
         <v>31</v>
       </c>
@@ -22483,12 +22483,12 @@
       <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="330" t="s">
+      <c r="L17" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="330"/>
-      <c r="N17" s="330"/>
-      <c r="O17" s="331"/>
+      <c r="M17" s="345"/>
+      <c r="N17" s="345"/>
+      <c r="O17" s="346"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22499,10 +22499,10 @@
       <c r="C18" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="332" t="s">
+      <c r="D18" s="337" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="333"/>
+      <c r="E18" s="338"/>
       <c r="F18" s="214"/>
       <c r="G18" s="214"/>
       <c r="H18" s="214" t="s">
@@ -22515,10 +22515,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="214"/>
-      <c r="L18" s="334"/>
-      <c r="M18" s="334"/>
-      <c r="N18" s="334"/>
-      <c r="O18" s="335"/>
+      <c r="L18" s="328"/>
+      <c r="M18" s="328"/>
+      <c r="N18" s="328"/>
+      <c r="O18" s="329"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22529,10 +22529,10 @@
       <c r="C19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="332" t="s">
+      <c r="D19" s="337" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="333"/>
+      <c r="E19" s="338"/>
       <c r="F19" s="214"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214" t="s">
@@ -22545,10 +22545,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="214"/>
-      <c r="L19" s="334"/>
-      <c r="M19" s="334"/>
-      <c r="N19" s="334"/>
-      <c r="O19" s="335"/>
+      <c r="L19" s="328"/>
+      <c r="M19" s="328"/>
+      <c r="N19" s="328"/>
+      <c r="O19" s="329"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -22559,10 +22559,10 @@
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="343" t="s">
+      <c r="D20" s="347" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="344"/>
+      <c r="E20" s="348"/>
       <c r="F20" s="214"/>
       <c r="G20" s="214"/>
       <c r="H20" s="214" t="s">
@@ -22575,12 +22575,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="214"/>
-      <c r="L20" s="345" t="s">
+      <c r="L20" s="342" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="334"/>
-      <c r="N20" s="334"/>
-      <c r="O20" s="335"/>
+      <c r="M20" s="328"/>
+      <c r="N20" s="328"/>
+      <c r="O20" s="329"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22591,10 +22591,10 @@
       <c r="C21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="332" t="s">
+      <c r="D21" s="337" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="333"/>
+      <c r="E21" s="338"/>
       <c r="F21" s="214"/>
       <c r="G21" s="214"/>
       <c r="H21" s="214" t="s">
@@ -22605,12 +22605,12 @@
       </c>
       <c r="J21" s="214"/>
       <c r="K21" s="214"/>
-      <c r="L21" s="334" t="s">
+      <c r="L21" s="328" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="334"/>
-      <c r="N21" s="334"/>
-      <c r="O21" s="335"/>
+      <c r="M21" s="328"/>
+      <c r="N21" s="328"/>
+      <c r="O21" s="329"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22621,10 +22621,10 @@
       <c r="C22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="332" t="s">
+      <c r="D22" s="337" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="333"/>
+      <c r="E22" s="338"/>
       <c r="F22" s="214"/>
       <c r="G22" s="214"/>
       <c r="H22" s="214"/>
@@ -22633,28 +22633,28 @@
       </c>
       <c r="J22" s="214"/>
       <c r="K22" s="214"/>
-      <c r="L22" s="334"/>
-      <c r="M22" s="334"/>
-      <c r="N22" s="334"/>
-      <c r="O22" s="335"/>
+      <c r="L22" s="328"/>
+      <c r="M22" s="328"/>
+      <c r="N22" s="328"/>
+      <c r="O22" s="329"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="339"/>
-      <c r="E23" s="340"/>
+      <c r="D23" s="333"/>
+      <c r="E23" s="334"/>
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
       <c r="I23" s="31"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="341"/>
-      <c r="M23" s="341"/>
-      <c r="N23" s="341"/>
-      <c r="O23" s="342"/>
+      <c r="L23" s="335"/>
+      <c r="M23" s="335"/>
+      <c r="N23" s="335"/>
+      <c r="O23" s="336"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -22759,10 +22759,10 @@
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="328" t="s">
+      <c r="D29" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="329"/>
+      <c r="E29" s="344"/>
       <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
@@ -22781,12 +22781,12 @@
       <c r="K29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="330" t="s">
+      <c r="L29" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="330"/>
-      <c r="N29" s="330"/>
-      <c r="O29" s="331"/>
+      <c r="M29" s="345"/>
+      <c r="N29" s="345"/>
+      <c r="O29" s="346"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22797,10 +22797,10 @@
       <c r="C30" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="332" t="s">
+      <c r="D30" s="337" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="333"/>
+      <c r="E30" s="338"/>
       <c r="F30" s="214"/>
       <c r="G30" s="214"/>
       <c r="H30" s="214" t="s">
@@ -22811,12 +22811,12 @@
       </c>
       <c r="J30" s="214"/>
       <c r="K30" s="214"/>
-      <c r="L30" s="334" t="s">
+      <c r="L30" s="328" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="334"/>
-      <c r="N30" s="334"/>
-      <c r="O30" s="335"/>
+      <c r="M30" s="328"/>
+      <c r="N30" s="328"/>
+      <c r="O30" s="329"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22827,10 +22827,10 @@
       <c r="C31" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="332" t="s">
+      <c r="D31" s="337" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="333"/>
+      <c r="E31" s="338"/>
       <c r="F31" s="214"/>
       <c r="G31" s="214"/>
       <c r="H31" s="214" t="s">
@@ -22841,82 +22841,82 @@
       </c>
       <c r="J31" s="214"/>
       <c r="K31" s="214"/>
-      <c r="L31" s="334"/>
-      <c r="M31" s="334"/>
-      <c r="N31" s="334"/>
-      <c r="O31" s="335"/>
+      <c r="L31" s="328"/>
+      <c r="M31" s="328"/>
+      <c r="N31" s="328"/>
+      <c r="O31" s="329"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="348"/>
-      <c r="E32" s="349"/>
+      <c r="D32" s="389"/>
+      <c r="E32" s="390"/>
       <c r="F32" s="214"/>
       <c r="G32" s="214"/>
       <c r="H32" s="214"/>
       <c r="I32" s="28"/>
       <c r="J32" s="214"/>
       <c r="K32" s="214"/>
-      <c r="L32" s="334"/>
-      <c r="M32" s="334"/>
-      <c r="N32" s="334"/>
-      <c r="O32" s="335"/>
+      <c r="L32" s="328"/>
+      <c r="M32" s="328"/>
+      <c r="N32" s="328"/>
+      <c r="O32" s="329"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="348"/>
-      <c r="E33" s="349"/>
+      <c r="D33" s="389"/>
+      <c r="E33" s="390"/>
       <c r="F33" s="214"/>
       <c r="G33" s="214"/>
       <c r="H33" s="214"/>
       <c r="I33" s="28"/>
       <c r="J33" s="214"/>
       <c r="K33" s="214"/>
-      <c r="L33" s="334"/>
-      <c r="M33" s="334"/>
-      <c r="N33" s="334"/>
-      <c r="O33" s="335"/>
+      <c r="L33" s="328"/>
+      <c r="M33" s="328"/>
+      <c r="N33" s="328"/>
+      <c r="O33" s="329"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="348"/>
-      <c r="E34" s="349"/>
+      <c r="D34" s="389"/>
+      <c r="E34" s="390"/>
       <c r="F34" s="214"/>
       <c r="G34" s="214"/>
       <c r="H34" s="214"/>
       <c r="I34" s="28"/>
       <c r="J34" s="214"/>
       <c r="K34" s="214"/>
-      <c r="L34" s="334"/>
-      <c r="M34" s="334"/>
-      <c r="N34" s="334"/>
-      <c r="O34" s="335"/>
+      <c r="L34" s="328"/>
+      <c r="M34" s="328"/>
+      <c r="N34" s="328"/>
+      <c r="O34" s="329"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="339"/>
-      <c r="E35" s="340"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="334"/>
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
       <c r="I35" s="31"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="341"/>
-      <c r="M35" s="341"/>
-      <c r="N35" s="341"/>
-      <c r="O35" s="342"/>
+      <c r="L35" s="335"/>
+      <c r="M35" s="335"/>
+      <c r="N35" s="335"/>
+      <c r="O35" s="336"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -23003,10 +23003,10 @@
       <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="328" t="s">
+      <c r="D40" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="329"/>
+      <c r="E40" s="344"/>
       <c r="F40" s="25" t="s">
         <v>31</v>
       </c>
@@ -23025,12 +23025,12 @@
       <c r="K40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="330" t="s">
+      <c r="L40" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="330"/>
-      <c r="N40" s="330"/>
-      <c r="O40" s="331"/>
+      <c r="M40" s="345"/>
+      <c r="N40" s="345"/>
+      <c r="O40" s="346"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23041,10 +23041,10 @@
       <c r="C41" s="257" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="350" t="s">
+      <c r="D41" s="375" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="351"/>
+      <c r="E41" s="376"/>
       <c r="F41" s="258"/>
       <c r="G41" s="258"/>
       <c r="H41" s="258" t="s">
@@ -23055,12 +23055,12 @@
       </c>
       <c r="J41" s="258"/>
       <c r="K41" s="258"/>
-      <c r="L41" s="352" t="s">
+      <c r="L41" s="373" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="352"/>
-      <c r="N41" s="352"/>
-      <c r="O41" s="353"/>
+      <c r="M41" s="373"/>
+      <c r="N41" s="373"/>
+      <c r="O41" s="374"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23071,10 +23071,10 @@
       <c r="C42" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="350" t="s">
+      <c r="D42" s="375" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="351"/>
+      <c r="E42" s="376"/>
       <c r="F42" s="258"/>
       <c r="G42" s="258"/>
       <c r="H42" s="258" t="s">
@@ -23085,10 +23085,10 @@
       </c>
       <c r="J42" s="258"/>
       <c r="K42" s="258"/>
-      <c r="L42" s="352"/>
-      <c r="M42" s="352"/>
-      <c r="N42" s="352"/>
-      <c r="O42" s="353"/>
+      <c r="L42" s="373"/>
+      <c r="M42" s="373"/>
+      <c r="N42" s="373"/>
+      <c r="O42" s="374"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23099,10 +23099,10 @@
       <c r="C43" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="332" t="s">
+      <c r="D43" s="337" t="s">
         <v>224</v>
       </c>
-      <c r="E43" s="333"/>
+      <c r="E43" s="338"/>
       <c r="F43" s="214"/>
       <c r="G43" s="214"/>
       <c r="H43" s="214" t="s">
@@ -23113,10 +23113,10 @@
       </c>
       <c r="J43" s="214"/>
       <c r="K43" s="214"/>
-      <c r="L43" s="334"/>
-      <c r="M43" s="334"/>
-      <c r="N43" s="334"/>
-      <c r="O43" s="335"/>
+      <c r="L43" s="328"/>
+      <c r="M43" s="328"/>
+      <c r="N43" s="328"/>
+      <c r="O43" s="329"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23127,10 +23127,10 @@
       <c r="C44" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="332" t="s">
+      <c r="D44" s="337" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="333"/>
+      <c r="E44" s="338"/>
       <c r="F44" s="214"/>
       <c r="G44" s="214"/>
       <c r="H44" s="214" t="s">
@@ -23141,10 +23141,10 @@
       </c>
       <c r="J44" s="214"/>
       <c r="K44" s="214"/>
-      <c r="L44" s="334"/>
-      <c r="M44" s="334"/>
-      <c r="N44" s="334"/>
-      <c r="O44" s="335"/>
+      <c r="L44" s="328"/>
+      <c r="M44" s="328"/>
+      <c r="N44" s="328"/>
+      <c r="O44" s="329"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23155,10 +23155,10 @@
       <c r="C45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="332" t="s">
+      <c r="D45" s="337" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="333"/>
+      <c r="E45" s="338"/>
       <c r="F45" s="214"/>
       <c r="G45" s="214"/>
       <c r="H45" s="214" t="s">
@@ -23171,12 +23171,12 @@
       <c r="K45" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="334" t="s">
+      <c r="L45" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M45" s="334"/>
-      <c r="N45" s="334"/>
-      <c r="O45" s="335"/>
+      <c r="M45" s="328"/>
+      <c r="N45" s="328"/>
+      <c r="O45" s="329"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23201,28 +23201,28 @@
       </c>
       <c r="J46" s="237"/>
       <c r="K46" s="237"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="334"/>
-      <c r="N46" s="334"/>
-      <c r="O46" s="335"/>
+      <c r="L46" s="328"/>
+      <c r="M46" s="328"/>
+      <c r="N46" s="328"/>
+      <c r="O46" s="329"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="339"/>
-      <c r="E47" s="340"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="334"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
       <c r="H47" s="215"/>
       <c r="I47" s="31"/>
       <c r="J47" s="215"/>
       <c r="K47" s="215"/>
-      <c r="L47" s="341"/>
-      <c r="M47" s="341"/>
-      <c r="N47" s="341"/>
-      <c r="O47" s="342"/>
+      <c r="L47" s="335"/>
+      <c r="M47" s="335"/>
+      <c r="N47" s="335"/>
+      <c r="O47" s="336"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -23309,10 +23309,10 @@
       <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="328" t="s">
+      <c r="D52" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="329"/>
+      <c r="E52" s="344"/>
       <c r="F52" s="25" t="s">
         <v>31</v>
       </c>
@@ -23331,12 +23331,12 @@
       <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="330" t="s">
+      <c r="L52" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="330"/>
-      <c r="N52" s="330"/>
-      <c r="O52" s="331"/>
+      <c r="M52" s="345"/>
+      <c r="N52" s="345"/>
+      <c r="O52" s="346"/>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23347,10 +23347,10 @@
       <c r="C53" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="333"/>
+      <c r="E53" s="338"/>
       <c r="F53" s="214"/>
       <c r="G53" s="214"/>
       <c r="H53" s="214" t="s">
@@ -23363,12 +23363,12 @@
       <c r="K53" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="334" t="s">
+      <c r="L53" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M53" s="334"/>
-      <c r="N53" s="334"/>
-      <c r="O53" s="335"/>
+      <c r="M53" s="328"/>
+      <c r="N53" s="328"/>
+      <c r="O53" s="329"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23393,12 +23393,12 @@
       </c>
       <c r="J54" s="214"/>
       <c r="K54" s="214"/>
-      <c r="L54" s="369" t="s">
+      <c r="L54" s="330" t="s">
         <v>246</v>
       </c>
-      <c r="M54" s="370"/>
-      <c r="N54" s="370"/>
-      <c r="O54" s="371"/>
+      <c r="M54" s="331"/>
+      <c r="N54" s="331"/>
+      <c r="O54" s="332"/>
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23423,12 +23423,12 @@
       </c>
       <c r="J55" s="214"/>
       <c r="K55" s="214"/>
-      <c r="L55" s="375" t="s">
+      <c r="L55" s="351" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="376"/>
-      <c r="N55" s="376"/>
-      <c r="O55" s="377"/>
+      <c r="M55" s="352"/>
+      <c r="N55" s="352"/>
+      <c r="O55" s="353"/>
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23451,12 +23451,12 @@
       </c>
       <c r="J56" s="214"/>
       <c r="K56" s="214"/>
-      <c r="L56" s="366" t="s">
+      <c r="L56" s="367" t="s">
         <v>243</v>
       </c>
-      <c r="M56" s="367"/>
-      <c r="N56" s="367"/>
-      <c r="O56" s="368"/>
+      <c r="M56" s="368"/>
+      <c r="N56" s="368"/>
+      <c r="O56" s="369"/>
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23479,10 +23479,10 @@
       </c>
       <c r="J57" s="214"/>
       <c r="K57" s="214"/>
-      <c r="L57" s="372"/>
-      <c r="M57" s="373"/>
-      <c r="N57" s="373"/>
-      <c r="O57" s="374"/>
+      <c r="L57" s="370"/>
+      <c r="M57" s="371"/>
+      <c r="N57" s="371"/>
+      <c r="O57" s="372"/>
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -23493,10 +23493,10 @@
       <c r="C58" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="343" t="s">
+      <c r="D58" s="347" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="344"/>
+      <c r="E58" s="348"/>
       <c r="F58" s="214"/>
       <c r="G58" s="214"/>
       <c r="H58" s="214" t="s">
@@ -23507,12 +23507,12 @@
       </c>
       <c r="J58" s="214"/>
       <c r="K58" s="214"/>
-      <c r="L58" s="345" t="s">
+      <c r="L58" s="342" t="s">
         <v>409</v>
       </c>
-      <c r="M58" s="334"/>
-      <c r="N58" s="334"/>
-      <c r="O58" s="335"/>
+      <c r="M58" s="328"/>
+      <c r="N58" s="328"/>
+      <c r="O58" s="329"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23523,10 +23523,10 @@
       <c r="C59" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="332" t="s">
+      <c r="D59" s="337" t="s">
         <v>228</v>
       </c>
-      <c r="E59" s="333"/>
+      <c r="E59" s="338"/>
       <c r="F59" s="214"/>
       <c r="G59" s="214"/>
       <c r="H59" s="214" t="s">
@@ -23537,10 +23537,10 @@
       </c>
       <c r="J59" s="214"/>
       <c r="K59" s="214"/>
-      <c r="L59" s="334"/>
-      <c r="M59" s="334"/>
-      <c r="N59" s="334"/>
-      <c r="O59" s="335"/>
+      <c r="L59" s="328"/>
+      <c r="M59" s="328"/>
+      <c r="N59" s="328"/>
+      <c r="O59" s="329"/>
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23551,10 +23551,10 @@
       <c r="C60" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D60" s="332" t="s">
+      <c r="D60" s="337" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="333"/>
+      <c r="E60" s="338"/>
       <c r="F60" s="214"/>
       <c r="G60" s="214"/>
       <c r="H60" s="214" t="s">
@@ -23567,30 +23567,30 @@
       <c r="K60" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L60" s="334" t="s">
+      <c r="L60" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M60" s="334"/>
-      <c r="N60" s="334"/>
-      <c r="O60" s="335"/>
+      <c r="M60" s="328"/>
+      <c r="N60" s="328"/>
+      <c r="O60" s="329"/>
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="339"/>
-      <c r="E61" s="340"/>
+      <c r="D61" s="333"/>
+      <c r="E61" s="334"/>
       <c r="F61" s="215"/>
       <c r="G61" s="215"/>
       <c r="H61" s="215"/>
       <c r="I61" s="31"/>
       <c r="J61" s="215"/>
       <c r="K61" s="215"/>
-      <c r="L61" s="341"/>
-      <c r="M61" s="341"/>
-      <c r="N61" s="341"/>
-      <c r="O61" s="342"/>
+      <c r="L61" s="335"/>
+      <c r="M61" s="335"/>
+      <c r="N61" s="335"/>
+      <c r="O61" s="336"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -23677,10 +23677,10 @@
       <c r="C66" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="328" t="s">
+      <c r="D66" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="329"/>
+      <c r="E66" s="344"/>
       <c r="F66" s="25" t="s">
         <v>31</v>
       </c>
@@ -23699,12 +23699,12 @@
       <c r="K66" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L66" s="330" t="s">
+      <c r="L66" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="330"/>
-      <c r="N66" s="330"/>
-      <c r="O66" s="331"/>
+      <c r="M66" s="345"/>
+      <c r="N66" s="345"/>
+      <c r="O66" s="346"/>
       <c r="P66" s="10"/>
     </row>
     <row r="67" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23715,10 +23715,10 @@
       <c r="C67" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D67" s="332" t="s">
+      <c r="D67" s="337" t="s">
         <v>267</v>
       </c>
-      <c r="E67" s="333"/>
+      <c r="E67" s="338"/>
       <c r="F67" s="214"/>
       <c r="G67" s="214"/>
       <c r="H67" s="214" t="s">
@@ -23731,12 +23731,12 @@
       <c r="K67" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L67" s="334" t="s">
+      <c r="L67" s="328" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="334"/>
-      <c r="N67" s="334"/>
-      <c r="O67" s="335"/>
+      <c r="M67" s="328"/>
+      <c r="N67" s="328"/>
+      <c r="O67" s="329"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23747,10 +23747,10 @@
       <c r="C68" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="332" t="s">
+      <c r="D68" s="337" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="333"/>
+      <c r="E68" s="338"/>
       <c r="F68" s="214"/>
       <c r="G68" s="214"/>
       <c r="H68" s="214" t="s">
@@ -23761,10 +23761,10 @@
       </c>
       <c r="J68" s="214"/>
       <c r="K68" s="214"/>
-      <c r="L68" s="334"/>
-      <c r="M68" s="334"/>
-      <c r="N68" s="334"/>
-      <c r="O68" s="335"/>
+      <c r="L68" s="328"/>
+      <c r="M68" s="328"/>
+      <c r="N68" s="328"/>
+      <c r="O68" s="329"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23775,10 +23775,10 @@
       <c r="C69" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D69" s="332" t="s">
+      <c r="D69" s="337" t="s">
         <v>249</v>
       </c>
-      <c r="E69" s="333"/>
+      <c r="E69" s="338"/>
       <c r="F69" s="214"/>
       <c r="G69" s="214"/>
       <c r="H69" s="214" t="s">
@@ -23789,10 +23789,10 @@
       </c>
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
-      <c r="L69" s="334"/>
-      <c r="M69" s="334"/>
-      <c r="N69" s="334"/>
-      <c r="O69" s="335"/>
+      <c r="L69" s="328"/>
+      <c r="M69" s="328"/>
+      <c r="N69" s="328"/>
+      <c r="O69" s="329"/>
       <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23815,12 +23815,12 @@
       </c>
       <c r="J70" s="214"/>
       <c r="K70" s="214"/>
-      <c r="L70" s="366" t="s">
+      <c r="L70" s="367" t="s">
         <v>243</v>
       </c>
-      <c r="M70" s="367"/>
-      <c r="N70" s="367"/>
-      <c r="O70" s="368"/>
+      <c r="M70" s="368"/>
+      <c r="N70" s="368"/>
+      <c r="O70" s="369"/>
       <c r="P70" s="10"/>
     </row>
     <row r="71" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23843,10 +23843,10 @@
       </c>
       <c r="J71" s="214"/>
       <c r="K71" s="214"/>
-      <c r="L71" s="372"/>
-      <c r="M71" s="373"/>
-      <c r="N71" s="373"/>
-      <c r="O71" s="374"/>
+      <c r="L71" s="370"/>
+      <c r="M71" s="371"/>
+      <c r="N71" s="371"/>
+      <c r="O71" s="372"/>
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23857,10 +23857,10 @@
       <c r="C72" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D72" s="332" t="s">
+      <c r="D72" s="337" t="s">
         <v>250</v>
       </c>
-      <c r="E72" s="333"/>
+      <c r="E72" s="338"/>
       <c r="F72" s="214"/>
       <c r="G72" s="214"/>
       <c r="H72" s="214"/>
@@ -23871,28 +23871,28 @@
         <v>255</v>
       </c>
       <c r="K72" s="214"/>
-      <c r="L72" s="345"/>
-      <c r="M72" s="334"/>
-      <c r="N72" s="334"/>
-      <c r="O72" s="335"/>
+      <c r="L72" s="342"/>
+      <c r="M72" s="328"/>
+      <c r="N72" s="328"/>
+      <c r="O72" s="329"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="29"/>
       <c r="C73" s="30"/>
-      <c r="D73" s="339"/>
-      <c r="E73" s="340"/>
+      <c r="D73" s="333"/>
+      <c r="E73" s="334"/>
       <c r="F73" s="215"/>
       <c r="G73" s="215"/>
       <c r="H73" s="215"/>
       <c r="I73" s="31"/>
       <c r="J73" s="215"/>
       <c r="K73" s="215"/>
-      <c r="L73" s="341"/>
-      <c r="M73" s="341"/>
-      <c r="N73" s="341"/>
-      <c r="O73" s="342"/>
+      <c r="L73" s="335"/>
+      <c r="M73" s="335"/>
+      <c r="N73" s="335"/>
+      <c r="O73" s="336"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -23979,10 +23979,10 @@
       <c r="C78" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="328" t="s">
+      <c r="D78" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="329"/>
+      <c r="E78" s="344"/>
       <c r="F78" s="25" t="s">
         <v>31</v>
       </c>
@@ -24001,12 +24001,12 @@
       <c r="K78" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="330" t="s">
+      <c r="L78" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M78" s="330"/>
-      <c r="N78" s="330"/>
-      <c r="O78" s="331"/>
+      <c r="M78" s="345"/>
+      <c r="N78" s="345"/>
+      <c r="O78" s="346"/>
       <c r="P78" s="10"/>
     </row>
     <row r="79" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24017,10 +24017,10 @@
       <c r="C79" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="332" t="s">
+      <c r="D79" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="338"/>
       <c r="F79" s="214"/>
       <c r="G79" s="214"/>
       <c r="H79" s="214" t="s">
@@ -24033,12 +24033,12 @@
       <c r="K79" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L79" s="334" t="s">
+      <c r="L79" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M79" s="334"/>
-      <c r="N79" s="334"/>
-      <c r="O79" s="335"/>
+      <c r="M79" s="328"/>
+      <c r="N79" s="328"/>
+      <c r="O79" s="329"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24049,10 +24049,10 @@
       <c r="C80" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="332" t="s">
+      <c r="D80" s="337" t="s">
         <v>259</v>
       </c>
-      <c r="E80" s="333"/>
+      <c r="E80" s="338"/>
       <c r="F80" s="214"/>
       <c r="G80" s="214"/>
       <c r="H80" s="214" t="s">
@@ -24063,10 +24063,10 @@
       </c>
       <c r="J80" s="214"/>
       <c r="K80" s="214"/>
-      <c r="L80" s="334"/>
-      <c r="M80" s="334"/>
-      <c r="N80" s="334"/>
-      <c r="O80" s="335"/>
+      <c r="L80" s="328"/>
+      <c r="M80" s="328"/>
+      <c r="N80" s="328"/>
+      <c r="O80" s="329"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24077,10 +24077,10 @@
       <c r="C81" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="332" t="s">
+      <c r="D81" s="337" t="s">
         <v>260</v>
       </c>
-      <c r="E81" s="333"/>
+      <c r="E81" s="338"/>
       <c r="F81" s="214"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214" t="s">
@@ -24093,12 +24093,12 @@
       <c r="K81" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L81" s="366" t="s">
+      <c r="L81" s="367" t="s">
         <v>410</v>
       </c>
-      <c r="M81" s="367"/>
-      <c r="N81" s="367"/>
-      <c r="O81" s="368"/>
+      <c r="M81" s="368"/>
+      <c r="N81" s="368"/>
+      <c r="O81" s="369"/>
       <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24109,10 +24109,10 @@
       <c r="C82" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D82" s="332" t="s">
+      <c r="D82" s="337" t="s">
         <v>261</v>
       </c>
-      <c r="E82" s="333"/>
+      <c r="E82" s="338"/>
       <c r="F82" s="214"/>
       <c r="G82" s="214"/>
       <c r="H82" s="214" t="s">
@@ -24123,10 +24123,10 @@
       </c>
       <c r="J82" s="214"/>
       <c r="K82" s="241"/>
-      <c r="L82" s="334"/>
-      <c r="M82" s="334"/>
-      <c r="N82" s="334"/>
-      <c r="O82" s="335"/>
+      <c r="L82" s="328"/>
+      <c r="M82" s="328"/>
+      <c r="N82" s="328"/>
+      <c r="O82" s="329"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24137,10 +24137,10 @@
       <c r="C83" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="332" t="s">
+      <c r="D83" s="337" t="s">
         <v>262</v>
       </c>
-      <c r="E83" s="333"/>
+      <c r="E83" s="338"/>
       <c r="F83" s="214"/>
       <c r="G83" s="214"/>
       <c r="H83" s="214" t="s">
@@ -24151,12 +24151,12 @@
       </c>
       <c r="J83" s="214"/>
       <c r="K83" s="241"/>
-      <c r="L83" s="334" t="s">
+      <c r="L83" s="328" t="s">
         <v>360</v>
       </c>
-      <c r="M83" s="334"/>
-      <c r="N83" s="334"/>
-      <c r="O83" s="335"/>
+      <c r="M83" s="328"/>
+      <c r="N83" s="328"/>
+      <c r="O83" s="329"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24167,10 +24167,10 @@
       <c r="C84" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="332" t="s">
+      <c r="D84" s="337" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="333"/>
+      <c r="E84" s="338"/>
       <c r="F84" s="214"/>
       <c r="G84" s="214"/>
       <c r="H84" s="214" t="s">
@@ -24181,12 +24181,12 @@
       </c>
       <c r="J84" s="214"/>
       <c r="K84" s="241"/>
-      <c r="L84" s="334" t="s">
+      <c r="L84" s="328" t="s">
         <v>254</v>
       </c>
-      <c r="M84" s="334"/>
-      <c r="N84" s="334"/>
-      <c r="O84" s="335"/>
+      <c r="M84" s="328"/>
+      <c r="N84" s="328"/>
+      <c r="O84" s="329"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24197,10 +24197,10 @@
       <c r="C85" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D85" s="332" t="s">
+      <c r="D85" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="E85" s="333"/>
+      <c r="E85" s="338"/>
       <c r="F85" s="214"/>
       <c r="G85" s="214"/>
       <c r="H85" s="214" t="s">
@@ -24213,48 +24213,48 @@
       <c r="K85" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L85" s="336" t="s">
+      <c r="L85" s="364" t="s">
         <v>270</v>
       </c>
-      <c r="M85" s="337"/>
-      <c r="N85" s="337"/>
-      <c r="O85" s="338"/>
+      <c r="M85" s="365"/>
+      <c r="N85" s="365"/>
+      <c r="O85" s="366"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="26"/>
       <c r="C86" s="27"/>
-      <c r="D86" s="332"/>
-      <c r="E86" s="333"/>
+      <c r="D86" s="337"/>
+      <c r="E86" s="338"/>
       <c r="F86" s="214"/>
       <c r="G86" s="214"/>
       <c r="H86" s="214"/>
       <c r="I86" s="28"/>
       <c r="J86" s="214"/>
       <c r="K86" s="214"/>
-      <c r="L86" s="334"/>
-      <c r="M86" s="334"/>
-      <c r="N86" s="334"/>
-      <c r="O86" s="335"/>
+      <c r="L86" s="328"/>
+      <c r="M86" s="328"/>
+      <c r="N86" s="328"/>
+      <c r="O86" s="329"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="29"/>
       <c r="C87" s="30"/>
-      <c r="D87" s="339"/>
-      <c r="E87" s="340"/>
+      <c r="D87" s="333"/>
+      <c r="E87" s="334"/>
       <c r="F87" s="215"/>
       <c r="G87" s="215"/>
       <c r="H87" s="215"/>
       <c r="I87" s="31"/>
       <c r="J87" s="215"/>
       <c r="K87" s="215"/>
-      <c r="L87" s="341"/>
-      <c r="M87" s="341"/>
-      <c r="N87" s="341"/>
-      <c r="O87" s="342"/>
+      <c r="L87" s="335"/>
+      <c r="M87" s="335"/>
+      <c r="N87" s="335"/>
+      <c r="O87" s="336"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24341,10 +24341,10 @@
       <c r="C92" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D92" s="328" t="s">
+      <c r="D92" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="329"/>
+      <c r="E92" s="344"/>
       <c r="F92" s="25" t="s">
         <v>31</v>
       </c>
@@ -24363,12 +24363,12 @@
       <c r="K92" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L92" s="330" t="s">
+      <c r="L92" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="330"/>
-      <c r="N92" s="330"/>
-      <c r="O92" s="331"/>
+      <c r="M92" s="345"/>
+      <c r="N92" s="345"/>
+      <c r="O92" s="346"/>
       <c r="P92" s="10"/>
     </row>
     <row r="93" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24379,10 +24379,10 @@
       <c r="C93" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="332" t="s">
+      <c r="D93" s="337" t="s">
         <v>269</v>
       </c>
-      <c r="E93" s="333"/>
+      <c r="E93" s="338"/>
       <c r="F93" s="214"/>
       <c r="G93" s="214"/>
       <c r="H93" s="214" t="s">
@@ -24395,12 +24395,12 @@
       <c r="K93" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L93" s="334" t="s">
+      <c r="L93" s="328" t="s">
         <v>265</v>
       </c>
-      <c r="M93" s="334"/>
-      <c r="N93" s="334"/>
-      <c r="O93" s="335"/>
+      <c r="M93" s="328"/>
+      <c r="N93" s="328"/>
+      <c r="O93" s="329"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24411,10 +24411,10 @@
       <c r="C94" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D94" s="332" t="s">
+      <c r="D94" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="333"/>
+      <c r="E94" s="338"/>
       <c r="F94" s="214"/>
       <c r="G94" s="214"/>
       <c r="H94" s="214" t="s">
@@ -24427,12 +24427,12 @@
       <c r="K94" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L94" s="336" t="s">
+      <c r="L94" s="364" t="s">
         <v>270</v>
       </c>
-      <c r="M94" s="337"/>
-      <c r="N94" s="337"/>
-      <c r="O94" s="338"/>
+      <c r="M94" s="365"/>
+      <c r="N94" s="365"/>
+      <c r="O94" s="366"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24443,10 +24443,10 @@
       <c r="C95" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D95" s="332" t="s">
+      <c r="D95" s="337" t="s">
         <v>271</v>
       </c>
-      <c r="E95" s="333"/>
+      <c r="E95" s="338"/>
       <c r="F95" s="214"/>
       <c r="G95" s="214"/>
       <c r="H95" s="214" t="s">
@@ -24457,10 +24457,10 @@
       </c>
       <c r="J95" s="214"/>
       <c r="K95" s="214"/>
-      <c r="L95" s="366"/>
-      <c r="M95" s="367"/>
-      <c r="N95" s="367"/>
-      <c r="O95" s="368"/>
+      <c r="L95" s="367"/>
+      <c r="M95" s="368"/>
+      <c r="N95" s="368"/>
+      <c r="O95" s="369"/>
       <c r="P95" s="10"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24471,10 +24471,10 @@
       <c r="C96" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D96" s="332" t="s">
+      <c r="D96" s="337" t="s">
         <v>272</v>
       </c>
-      <c r="E96" s="333"/>
+      <c r="E96" s="338"/>
       <c r="F96" s="214"/>
       <c r="G96" s="214"/>
       <c r="H96" s="214" t="s">
@@ -24485,10 +24485,10 @@
       </c>
       <c r="J96" s="214"/>
       <c r="K96" s="241"/>
-      <c r="L96" s="334"/>
-      <c r="M96" s="334"/>
-      <c r="N96" s="334"/>
-      <c r="O96" s="335"/>
+      <c r="L96" s="328"/>
+      <c r="M96" s="328"/>
+      <c r="N96" s="328"/>
+      <c r="O96" s="329"/>
       <c r="P96" s="10"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24499,10 +24499,10 @@
       <c r="C97" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D97" s="332" t="s">
+      <c r="D97" s="337" t="s">
         <v>311</v>
       </c>
-      <c r="E97" s="333"/>
+      <c r="E97" s="338"/>
       <c r="F97" s="214"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214"/>
@@ -24513,28 +24513,28 @@
         <v>255</v>
       </c>
       <c r="K97" s="241"/>
-      <c r="L97" s="334"/>
-      <c r="M97" s="334"/>
-      <c r="N97" s="334"/>
-      <c r="O97" s="335"/>
+      <c r="L97" s="328"/>
+      <c r="M97" s="328"/>
+      <c r="N97" s="328"/>
+      <c r="O97" s="329"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="29"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="346"/>
-      <c r="E98" s="347"/>
+      <c r="D98" s="362"/>
+      <c r="E98" s="363"/>
       <c r="F98" s="215"/>
       <c r="G98" s="215"/>
       <c r="H98" s="215"/>
       <c r="I98" s="31"/>
       <c r="J98" s="215"/>
       <c r="K98" s="215"/>
-      <c r="L98" s="341"/>
-      <c r="M98" s="341"/>
-      <c r="N98" s="341"/>
-      <c r="O98" s="342"/>
+      <c r="L98" s="335"/>
+      <c r="M98" s="335"/>
+      <c r="N98" s="335"/>
+      <c r="O98" s="336"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24621,10 +24621,10 @@
       <c r="C103" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="328" t="s">
+      <c r="D103" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="329"/>
+      <c r="E103" s="344"/>
       <c r="F103" s="25" t="s">
         <v>31</v>
       </c>
@@ -24643,12 +24643,12 @@
       <c r="K103" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L103" s="330" t="s">
+      <c r="L103" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M103" s="330"/>
-      <c r="N103" s="330"/>
-      <c r="O103" s="331"/>
+      <c r="M103" s="345"/>
+      <c r="N103" s="345"/>
+      <c r="O103" s="346"/>
       <c r="P103" s="10"/>
     </row>
     <row r="104" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24659,10 +24659,10 @@
       <c r="C104" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D104" s="332" t="s">
+      <c r="D104" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E104" s="333"/>
+      <c r="E104" s="338"/>
       <c r="F104" s="214"/>
       <c r="G104" s="214"/>
       <c r="H104" s="214" t="s">
@@ -24675,12 +24675,12 @@
       <c r="K104" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L104" s="334" t="s">
+      <c r="L104" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M104" s="334"/>
-      <c r="N104" s="334"/>
-      <c r="O104" s="335"/>
+      <c r="M104" s="328"/>
+      <c r="N104" s="328"/>
+      <c r="O104" s="329"/>
       <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24691,10 +24691,10 @@
       <c r="C105" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="332" t="s">
+      <c r="D105" s="337" t="s">
         <v>406</v>
       </c>
-      <c r="E105" s="333"/>
+      <c r="E105" s="338"/>
       <c r="F105" s="214"/>
       <c r="G105" s="214"/>
       <c r="H105" s="214" t="s">
@@ -24705,10 +24705,10 @@
       </c>
       <c r="J105" s="214"/>
       <c r="K105" s="214"/>
-      <c r="L105" s="334"/>
-      <c r="M105" s="334"/>
-      <c r="N105" s="334"/>
-      <c r="O105" s="335"/>
+      <c r="L105" s="328"/>
+      <c r="M105" s="328"/>
+      <c r="N105" s="328"/>
+      <c r="O105" s="329"/>
       <c r="P105" s="10"/>
     </row>
     <row r="106" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24733,30 +24733,30 @@
       </c>
       <c r="J106" s="237"/>
       <c r="K106" s="237"/>
-      <c r="L106" s="336" t="s">
+      <c r="L106" s="364" t="s">
         <v>270</v>
       </c>
-      <c r="M106" s="337"/>
-      <c r="N106" s="337"/>
-      <c r="O106" s="338"/>
+      <c r="M106" s="365"/>
+      <c r="N106" s="365"/>
+      <c r="O106" s="366"/>
       <c r="P106" s="10"/>
     </row>
     <row r="107" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="29"/>
       <c r="C107" s="30"/>
-      <c r="D107" s="339"/>
-      <c r="E107" s="340"/>
+      <c r="D107" s="333"/>
+      <c r="E107" s="334"/>
       <c r="F107" s="215"/>
       <c r="G107" s="215"/>
       <c r="H107" s="215"/>
       <c r="I107" s="31"/>
       <c r="J107" s="215"/>
       <c r="K107" s="215"/>
-      <c r="L107" s="341"/>
-      <c r="M107" s="341"/>
-      <c r="N107" s="341"/>
-      <c r="O107" s="342"/>
+      <c r="L107" s="335"/>
+      <c r="M107" s="335"/>
+      <c r="N107" s="335"/>
+      <c r="O107" s="336"/>
       <c r="P107" s="10"/>
     </row>
     <row r="108" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24843,10 +24843,10 @@
       <c r="C112" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="328" t="s">
+      <c r="D112" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="329"/>
+      <c r="E112" s="344"/>
       <c r="F112" s="25" t="s">
         <v>31</v>
       </c>
@@ -24865,12 +24865,12 @@
       <c r="K112" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L112" s="330" t="s">
+      <c r="L112" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M112" s="330"/>
-      <c r="N112" s="330"/>
-      <c r="O112" s="331"/>
+      <c r="M112" s="345"/>
+      <c r="N112" s="345"/>
+      <c r="O112" s="346"/>
       <c r="P112" s="10"/>
     </row>
     <row r="113" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24881,10 +24881,10 @@
       <c r="C113" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="332" t="s">
+      <c r="D113" s="337" t="s">
         <v>269</v>
       </c>
-      <c r="E113" s="333"/>
+      <c r="E113" s="338"/>
       <c r="F113" s="214"/>
       <c r="G113" s="214"/>
       <c r="H113" s="214" t="s">
@@ -24897,12 +24897,12 @@
       <c r="K113" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L113" s="334" t="s">
+      <c r="L113" s="328" t="s">
         <v>265</v>
       </c>
-      <c r="M113" s="334"/>
-      <c r="N113" s="334"/>
-      <c r="O113" s="335"/>
+      <c r="M113" s="328"/>
+      <c r="N113" s="328"/>
+      <c r="O113" s="329"/>
       <c r="P113" s="10"/>
     </row>
     <row r="114" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24913,10 +24913,10 @@
       <c r="C114" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="D114" s="332" t="s">
+      <c r="D114" s="337" t="s">
         <v>245</v>
       </c>
-      <c r="E114" s="333"/>
+      <c r="E114" s="338"/>
       <c r="F114" s="214"/>
       <c r="G114" s="214"/>
       <c r="H114" s="214" t="s">
@@ -24927,12 +24927,12 @@
       </c>
       <c r="J114" s="214"/>
       <c r="K114" s="214"/>
-      <c r="L114" s="334" t="s">
+      <c r="L114" s="328" t="s">
         <v>346</v>
       </c>
-      <c r="M114" s="334"/>
-      <c r="N114" s="334"/>
-      <c r="O114" s="335"/>
+      <c r="M114" s="328"/>
+      <c r="N114" s="328"/>
+      <c r="O114" s="329"/>
       <c r="P114" s="10"/>
     </row>
     <row r="115" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24957,28 +24957,28 @@
       </c>
       <c r="J115" s="237"/>
       <c r="K115" s="237"/>
-      <c r="L115" s="383"/>
-      <c r="M115" s="384"/>
-      <c r="N115" s="384"/>
-      <c r="O115" s="385"/>
+      <c r="L115" s="339"/>
+      <c r="M115" s="340"/>
+      <c r="N115" s="340"/>
+      <c r="O115" s="341"/>
       <c r="P115" s="10"/>
     </row>
     <row r="116" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="29"/>
       <c r="C116" s="30"/>
-      <c r="D116" s="339"/>
-      <c r="E116" s="340"/>
+      <c r="D116" s="333"/>
+      <c r="E116" s="334"/>
       <c r="F116" s="215"/>
       <c r="G116" s="215"/>
       <c r="H116" s="215"/>
       <c r="I116" s="31"/>
       <c r="J116" s="215"/>
       <c r="K116" s="215"/>
-      <c r="L116" s="341"/>
-      <c r="M116" s="341"/>
-      <c r="N116" s="341"/>
-      <c r="O116" s="342"/>
+      <c r="L116" s="335"/>
+      <c r="M116" s="335"/>
+      <c r="N116" s="335"/>
+      <c r="O116" s="336"/>
       <c r="P116" s="10"/>
     </row>
     <row r="117" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25047,10 +25047,10 @@
       <c r="C120" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="328" t="s">
+      <c r="D120" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E120" s="329"/>
+      <c r="E120" s="344"/>
       <c r="F120" s="25" t="s">
         <v>31</v>
       </c>
@@ -25069,12 +25069,12 @@
       <c r="K120" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L120" s="330" t="s">
+      <c r="L120" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M120" s="330"/>
-      <c r="N120" s="330"/>
-      <c r="O120" s="331"/>
+      <c r="M120" s="345"/>
+      <c r="N120" s="345"/>
+      <c r="O120" s="346"/>
       <c r="P120" s="10"/>
     </row>
     <row r="121" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25085,10 +25085,10 @@
       <c r="C121" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D121" s="332" t="s">
+      <c r="D121" s="337" t="s">
         <v>302</v>
       </c>
-      <c r="E121" s="333"/>
+      <c r="E121" s="338"/>
       <c r="F121" s="214" t="s">
         <v>191</v>
       </c>
@@ -25103,10 +25103,10 @@
         <v>128</v>
       </c>
       <c r="K121" s="214"/>
-      <c r="L121" s="336"/>
-      <c r="M121" s="337"/>
-      <c r="N121" s="337"/>
-      <c r="O121" s="338"/>
+      <c r="L121" s="364"/>
+      <c r="M121" s="365"/>
+      <c r="N121" s="365"/>
+      <c r="O121" s="366"/>
       <c r="P121" s="10"/>
     </row>
     <row r="122" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25117,10 +25117,10 @@
       <c r="C122" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D122" s="332" t="s">
+      <c r="D122" s="337" t="s">
         <v>185</v>
       </c>
-      <c r="E122" s="333"/>
+      <c r="E122" s="338"/>
       <c r="F122" s="214"/>
       <c r="G122" s="214"/>
       <c r="H122" s="214" t="s">
@@ -25133,10 +25133,10 @@
       <c r="K122" s="214">
         <v>128</v>
       </c>
-      <c r="L122" s="334"/>
-      <c r="M122" s="334"/>
-      <c r="N122" s="334"/>
-      <c r="O122" s="335"/>
+      <c r="L122" s="328"/>
+      <c r="M122" s="328"/>
+      <c r="N122" s="328"/>
+      <c r="O122" s="329"/>
       <c r="P122" s="10"/>
     </row>
     <row r="123" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25161,12 +25161,12 @@
       </c>
       <c r="J123" s="237"/>
       <c r="K123" s="237"/>
-      <c r="L123" s="369" t="s">
+      <c r="L123" s="330" t="s">
         <v>367</v>
       </c>
-      <c r="M123" s="370"/>
-      <c r="N123" s="370"/>
-      <c r="O123" s="371"/>
+      <c r="M123" s="331"/>
+      <c r="N123" s="331"/>
+      <c r="O123" s="332"/>
       <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25193,12 +25193,12 @@
         <v>128</v>
       </c>
       <c r="K124" s="237"/>
-      <c r="L124" s="369" t="s">
+      <c r="L124" s="330" t="s">
         <v>369</v>
       </c>
-      <c r="M124" s="370"/>
-      <c r="N124" s="370"/>
-      <c r="O124" s="371"/>
+      <c r="M124" s="331"/>
+      <c r="N124" s="331"/>
+      <c r="O124" s="332"/>
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25209,10 +25209,10 @@
       <c r="C125" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D125" s="332" t="s">
+      <c r="D125" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E125" s="333"/>
+      <c r="E125" s="338"/>
       <c r="F125" s="214"/>
       <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
@@ -25225,12 +25225,12 @@
       <c r="K125" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L125" s="334" t="s">
+      <c r="L125" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M125" s="334"/>
-      <c r="N125" s="334"/>
-      <c r="O125" s="335"/>
+      <c r="M125" s="328"/>
+      <c r="N125" s="328"/>
+      <c r="O125" s="329"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25255,28 +25255,28 @@
       </c>
       <c r="J126" s="237"/>
       <c r="K126" s="237"/>
-      <c r="L126" s="383"/>
-      <c r="M126" s="384"/>
-      <c r="N126" s="384"/>
-      <c r="O126" s="385"/>
+      <c r="L126" s="339"/>
+      <c r="M126" s="340"/>
+      <c r="N126" s="340"/>
+      <c r="O126" s="341"/>
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="29"/>
       <c r="C127" s="30"/>
-      <c r="D127" s="339"/>
-      <c r="E127" s="340"/>
+      <c r="D127" s="333"/>
+      <c r="E127" s="334"/>
       <c r="F127" s="215"/>
       <c r="G127" s="215"/>
       <c r="H127" s="215"/>
       <c r="I127" s="31"/>
       <c r="J127" s="215"/>
       <c r="K127" s="215"/>
-      <c r="L127" s="341"/>
-      <c r="M127" s="341"/>
-      <c r="N127" s="341"/>
-      <c r="O127" s="342"/>
+      <c r="L127" s="335"/>
+      <c r="M127" s="335"/>
+      <c r="N127" s="335"/>
+      <c r="O127" s="336"/>
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25363,10 +25363,10 @@
       <c r="C132" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D132" s="328" t="s">
+      <c r="D132" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="329"/>
+      <c r="E132" s="344"/>
       <c r="F132" s="25" t="s">
         <v>31</v>
       </c>
@@ -25385,12 +25385,12 @@
       <c r="K132" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L132" s="330" t="s">
+      <c r="L132" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M132" s="330"/>
-      <c r="N132" s="330"/>
-      <c r="O132" s="331"/>
+      <c r="M132" s="345"/>
+      <c r="N132" s="345"/>
+      <c r="O132" s="346"/>
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
@@ -25401,10 +25401,10 @@
       <c r="C133" s="233" t="s">
         <v>291</v>
       </c>
-      <c r="D133" s="343" t="s">
+      <c r="D133" s="347" t="s">
         <v>299</v>
       </c>
-      <c r="E133" s="344"/>
+      <c r="E133" s="348"/>
       <c r="F133" s="214" t="s">
         <v>191</v>
       </c>
@@ -25419,12 +25419,12 @@
         <v>12</v>
       </c>
       <c r="K133" s="214"/>
-      <c r="L133" s="380" t="s">
+      <c r="L133" s="359" t="s">
         <v>292</v>
       </c>
-      <c r="M133" s="381"/>
-      <c r="N133" s="381"/>
-      <c r="O133" s="382"/>
+      <c r="M133" s="360"/>
+      <c r="N133" s="360"/>
+      <c r="O133" s="361"/>
       <c r="P133" s="10"/>
     </row>
     <row r="134" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25435,10 +25435,10 @@
       <c r="C134" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D134" s="332" t="s">
+      <c r="D134" s="337" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="333"/>
+      <c r="E134" s="338"/>
       <c r="F134" s="214"/>
       <c r="G134" s="214"/>
       <c r="H134" s="214"/>
@@ -25449,10 +25449,10 @@
         <v>255</v>
       </c>
       <c r="K134" s="214"/>
-      <c r="L134" s="378"/>
-      <c r="M134" s="378"/>
-      <c r="N134" s="378"/>
-      <c r="O134" s="379"/>
+      <c r="L134" s="354"/>
+      <c r="M134" s="354"/>
+      <c r="N134" s="354"/>
+      <c r="O134" s="355"/>
       <c r="P134" s="10"/>
     </row>
     <row r="135" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25463,10 +25463,10 @@
       <c r="C135" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="332" t="s">
+      <c r="D135" s="337" t="s">
         <v>301</v>
       </c>
-      <c r="E135" s="333"/>
+      <c r="E135" s="338"/>
       <c r="F135" s="214"/>
       <c r="G135" s="214"/>
       <c r="H135" s="214" t="s">
@@ -25479,10 +25479,10 @@
         <v>30</v>
       </c>
       <c r="K135" s="214"/>
-      <c r="L135" s="378"/>
-      <c r="M135" s="378"/>
-      <c r="N135" s="378"/>
-      <c r="O135" s="379"/>
+      <c r="L135" s="354"/>
+      <c r="M135" s="354"/>
+      <c r="N135" s="354"/>
+      <c r="O135" s="355"/>
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25493,10 +25493,10 @@
       <c r="C136" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D136" s="332" t="s">
+      <c r="D136" s="337" t="s">
         <v>303</v>
       </c>
-      <c r="E136" s="333"/>
+      <c r="E136" s="338"/>
       <c r="F136" s="214"/>
       <c r="G136" s="214"/>
       <c r="H136" s="214"/>
@@ -25505,10 +25505,10 @@
       </c>
       <c r="J136" s="214"/>
       <c r="K136" s="214"/>
-      <c r="L136" s="388"/>
-      <c r="M136" s="389"/>
-      <c r="N136" s="389"/>
-      <c r="O136" s="390"/>
+      <c r="L136" s="356"/>
+      <c r="M136" s="357"/>
+      <c r="N136" s="357"/>
+      <c r="O136" s="358"/>
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25519,10 +25519,10 @@
       <c r="C137" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="332" t="s">
+      <c r="D137" s="337" t="s">
         <v>304</v>
       </c>
-      <c r="E137" s="333"/>
+      <c r="E137" s="338"/>
       <c r="F137" s="214"/>
       <c r="G137" s="214"/>
       <c r="H137" s="214"/>
@@ -25531,12 +25531,12 @@
       </c>
       <c r="J137" s="214"/>
       <c r="K137" s="241"/>
-      <c r="L137" s="375" t="s">
+      <c r="L137" s="351" t="s">
         <v>294</v>
       </c>
-      <c r="M137" s="376"/>
-      <c r="N137" s="376"/>
-      <c r="O137" s="377"/>
+      <c r="M137" s="352"/>
+      <c r="N137" s="352"/>
+      <c r="O137" s="353"/>
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25547,10 +25547,10 @@
       <c r="C138" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D138" s="332" t="s">
+      <c r="D138" s="337" t="s">
         <v>304</v>
       </c>
-      <c r="E138" s="333"/>
+      <c r="E138" s="338"/>
       <c r="F138" s="214"/>
       <c r="G138" s="214"/>
       <c r="H138" s="214"/>
@@ -25559,12 +25559,12 @@
       </c>
       <c r="J138" s="214"/>
       <c r="K138" s="241"/>
-      <c r="L138" s="375" t="s">
+      <c r="L138" s="351" t="s">
         <v>293</v>
       </c>
-      <c r="M138" s="376"/>
-      <c r="N138" s="376"/>
-      <c r="O138" s="377"/>
+      <c r="M138" s="352"/>
+      <c r="N138" s="352"/>
+      <c r="O138" s="353"/>
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25575,10 +25575,10 @@
       <c r="C139" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D139" s="332" t="s">
+      <c r="D139" s="337" t="s">
         <v>304</v>
       </c>
-      <c r="E139" s="333"/>
+      <c r="E139" s="338"/>
       <c r="F139" s="214"/>
       <c r="G139" s="214"/>
       <c r="H139" s="214"/>
@@ -25589,10 +25589,10 @@
         <v>128</v>
       </c>
       <c r="K139" s="241"/>
-      <c r="L139" s="375"/>
-      <c r="M139" s="376"/>
-      <c r="N139" s="376"/>
-      <c r="O139" s="377"/>
+      <c r="L139" s="351"/>
+      <c r="M139" s="352"/>
+      <c r="N139" s="352"/>
+      <c r="O139" s="353"/>
       <c r="P139" s="10"/>
     </row>
     <row r="140" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25603,10 +25603,10 @@
       <c r="C140" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D140" s="332" t="s">
+      <c r="D140" s="337" t="s">
         <v>305</v>
       </c>
-      <c r="E140" s="333"/>
+      <c r="E140" s="338"/>
       <c r="F140" s="214"/>
       <c r="G140" s="214"/>
       <c r="H140" s="214"/>
@@ -25617,12 +25617,12 @@
         <v>255</v>
       </c>
       <c r="K140" s="241"/>
-      <c r="L140" s="375" t="s">
+      <c r="L140" s="351" t="s">
         <v>295</v>
       </c>
-      <c r="M140" s="376"/>
-      <c r="N140" s="376"/>
-      <c r="O140" s="377"/>
+      <c r="M140" s="352"/>
+      <c r="N140" s="352"/>
+      <c r="O140" s="353"/>
       <c r="P140" s="10"/>
     </row>
     <row r="141" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25633,10 +25633,10 @@
       <c r="C141" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D141" s="332" t="s">
+      <c r="D141" s="337" t="s">
         <v>306</v>
       </c>
-      <c r="E141" s="333"/>
+      <c r="E141" s="338"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
@@ -25647,12 +25647,12 @@
         <v>255</v>
       </c>
       <c r="K141" s="241"/>
-      <c r="L141" s="375" t="s">
+      <c r="L141" s="351" t="s">
         <v>296</v>
       </c>
-      <c r="M141" s="376"/>
-      <c r="N141" s="376"/>
-      <c r="O141" s="377"/>
+      <c r="M141" s="352"/>
+      <c r="N141" s="352"/>
+      <c r="O141" s="353"/>
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25689,10 +25689,10 @@
       <c r="C143" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D143" s="332" t="s">
+      <c r="D143" s="337" t="s">
         <v>307</v>
       </c>
-      <c r="E143" s="333"/>
+      <c r="E143" s="338"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
@@ -25701,12 +25701,12 @@
       </c>
       <c r="J143" s="214"/>
       <c r="K143" s="241"/>
-      <c r="L143" s="378" t="s">
+      <c r="L143" s="354" t="s">
         <v>297</v>
       </c>
-      <c r="M143" s="378"/>
-      <c r="N143" s="378"/>
-      <c r="O143" s="379"/>
+      <c r="M143" s="354"/>
+      <c r="N143" s="354"/>
+      <c r="O143" s="355"/>
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25717,10 +25717,10 @@
       <c r="C144" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D144" s="332" t="s">
+      <c r="D144" s="337" t="s">
         <v>309</v>
       </c>
-      <c r="E144" s="333"/>
+      <c r="E144" s="338"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
@@ -25731,12 +25731,12 @@
         <v>10</v>
       </c>
       <c r="K144" s="241"/>
-      <c r="L144" s="378" t="s">
+      <c r="L144" s="354" t="s">
         <v>354</v>
       </c>
-      <c r="M144" s="378"/>
-      <c r="N144" s="378"/>
-      <c r="O144" s="379"/>
+      <c r="M144" s="354"/>
+      <c r="N144" s="354"/>
+      <c r="O144" s="355"/>
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25747,10 +25747,10 @@
       <c r="C145" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D145" s="332" t="s">
+      <c r="D145" s="337" t="s">
         <v>308</v>
       </c>
-      <c r="E145" s="333"/>
+      <c r="E145" s="338"/>
       <c r="F145" s="214"/>
       <c r="G145" s="214"/>
       <c r="H145" s="214"/>
@@ -25761,12 +25761,12 @@
         <v>10</v>
       </c>
       <c r="K145" s="241"/>
-      <c r="L145" s="378" t="s">
+      <c r="L145" s="354" t="s">
         <v>350</v>
       </c>
-      <c r="M145" s="378"/>
-      <c r="N145" s="378"/>
-      <c r="O145" s="379"/>
+      <c r="M145" s="354"/>
+      <c r="N145" s="354"/>
+      <c r="O145" s="355"/>
       <c r="P145" s="10"/>
     </row>
     <row r="146" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25777,10 +25777,10 @@
       <c r="C146" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="D146" s="332" t="s">
+      <c r="D146" s="337" t="s">
         <v>310</v>
       </c>
-      <c r="E146" s="333"/>
+      <c r="E146" s="338"/>
       <c r="F146" s="237"/>
       <c r="G146" s="237"/>
       <c r="H146" s="237"/>
@@ -25791,28 +25791,28 @@
         <v>255</v>
       </c>
       <c r="K146" s="242"/>
-      <c r="L146" s="378"/>
-      <c r="M146" s="378"/>
-      <c r="N146" s="378"/>
-      <c r="O146" s="379"/>
+      <c r="L146" s="354"/>
+      <c r="M146" s="354"/>
+      <c r="N146" s="354"/>
+      <c r="O146" s="355"/>
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="9"/>
       <c r="B147" s="29"/>
       <c r="C147" s="30"/>
-      <c r="D147" s="339"/>
-      <c r="E147" s="340"/>
+      <c r="D147" s="333"/>
+      <c r="E147" s="334"/>
       <c r="F147" s="215"/>
       <c r="G147" s="215"/>
       <c r="H147" s="215"/>
       <c r="I147" s="31"/>
       <c r="J147" s="215"/>
       <c r="K147" s="215"/>
-      <c r="L147" s="386"/>
-      <c r="M147" s="386"/>
-      <c r="N147" s="386"/>
-      <c r="O147" s="387"/>
+      <c r="L147" s="349"/>
+      <c r="M147" s="349"/>
+      <c r="N147" s="349"/>
+      <c r="O147" s="350"/>
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -25917,10 +25917,10 @@
       <c r="C153" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D153" s="328" t="s">
+      <c r="D153" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="329"/>
+      <c r="E153" s="344"/>
       <c r="F153" s="25" t="s">
         <v>31</v>
       </c>
@@ -25939,12 +25939,12 @@
       <c r="K153" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L153" s="330" t="s">
+      <c r="L153" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M153" s="330"/>
-      <c r="N153" s="330"/>
-      <c r="O153" s="331"/>
+      <c r="M153" s="345"/>
+      <c r="N153" s="345"/>
+      <c r="O153" s="346"/>
       <c r="P153" s="10"/>
     </row>
     <row r="154" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25955,10 +25955,10 @@
       <c r="C154" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D154" s="332" t="s">
+      <c r="D154" s="337" t="s">
         <v>315</v>
       </c>
-      <c r="E154" s="333"/>
+      <c r="E154" s="338"/>
       <c r="F154" s="214"/>
       <c r="G154" s="214"/>
       <c r="H154" s="214" t="s">
@@ -25969,10 +25969,10 @@
       </c>
       <c r="J154" s="214"/>
       <c r="K154" s="214"/>
-      <c r="L154" s="334"/>
-      <c r="M154" s="334"/>
-      <c r="N154" s="334"/>
-      <c r="O154" s="335"/>
+      <c r="L154" s="328"/>
+      <c r="M154" s="328"/>
+      <c r="N154" s="328"/>
+      <c r="O154" s="329"/>
       <c r="P154" s="10"/>
     </row>
     <row r="155" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25983,10 +25983,10 @@
       <c r="C155" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D155" s="332" t="s">
+      <c r="D155" s="337" t="s">
         <v>316</v>
       </c>
-      <c r="E155" s="333"/>
+      <c r="E155" s="338"/>
       <c r="F155" s="214"/>
       <c r="G155" s="214"/>
       <c r="H155" s="214"/>
@@ -25995,10 +25995,10 @@
       </c>
       <c r="J155" s="214"/>
       <c r="K155" s="214"/>
-      <c r="L155" s="334"/>
-      <c r="M155" s="334"/>
-      <c r="N155" s="334"/>
-      <c r="O155" s="335"/>
+      <c r="L155" s="328"/>
+      <c r="M155" s="328"/>
+      <c r="N155" s="328"/>
+      <c r="O155" s="329"/>
       <c r="P155" s="10"/>
     </row>
     <row r="156" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26021,10 +26021,10 @@
       </c>
       <c r="J156" s="214"/>
       <c r="K156" s="214"/>
-      <c r="L156" s="334"/>
-      <c r="M156" s="334"/>
-      <c r="N156" s="334"/>
-      <c r="O156" s="335"/>
+      <c r="L156" s="328"/>
+      <c r="M156" s="328"/>
+      <c r="N156" s="328"/>
+      <c r="O156" s="329"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26035,10 +26035,10 @@
       <c r="C157" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D157" s="332" t="s">
+      <c r="D157" s="337" t="s">
         <v>317</v>
       </c>
-      <c r="E157" s="333"/>
+      <c r="E157" s="338"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
       <c r="H157" s="214" t="s">
@@ -26049,12 +26049,12 @@
       </c>
       <c r="J157" s="214"/>
       <c r="K157" s="214"/>
-      <c r="L157" s="334" t="s">
+      <c r="L157" s="328" t="s">
         <v>347</v>
       </c>
-      <c r="M157" s="334"/>
-      <c r="N157" s="334"/>
-      <c r="O157" s="335"/>
+      <c r="M157" s="328"/>
+      <c r="N157" s="328"/>
+      <c r="O157" s="329"/>
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26065,10 +26065,10 @@
       <c r="C158" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D158" s="332" t="s">
+      <c r="D158" s="337" t="s">
         <v>319</v>
       </c>
-      <c r="E158" s="333"/>
+      <c r="E158" s="338"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
       <c r="H158" s="214" t="s">
@@ -26081,30 +26081,30 @@
       <c r="K158" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L158" s="334" t="s">
+      <c r="L158" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M158" s="334"/>
-      <c r="N158" s="334"/>
-      <c r="O158" s="335"/>
+      <c r="M158" s="328"/>
+      <c r="N158" s="328"/>
+      <c r="O158" s="329"/>
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="9"/>
       <c r="B159" s="29"/>
       <c r="C159" s="30"/>
-      <c r="D159" s="339"/>
-      <c r="E159" s="340"/>
+      <c r="D159" s="333"/>
+      <c r="E159" s="334"/>
       <c r="F159" s="215"/>
       <c r="G159" s="215"/>
       <c r="H159" s="215"/>
       <c r="I159" s="31"/>
       <c r="J159" s="215"/>
       <c r="K159" s="215"/>
-      <c r="L159" s="341"/>
-      <c r="M159" s="341"/>
-      <c r="N159" s="341"/>
-      <c r="O159" s="342"/>
+      <c r="L159" s="335"/>
+      <c r="M159" s="335"/>
+      <c r="N159" s="335"/>
+      <c r="O159" s="336"/>
       <c r="P159" s="10"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
@@ -26191,10 +26191,10 @@
       <c r="C164" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="328" t="s">
+      <c r="D164" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E164" s="329"/>
+      <c r="E164" s="344"/>
       <c r="F164" s="25" t="s">
         <v>31</v>
       </c>
@@ -26213,12 +26213,12 @@
       <c r="K164" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L164" s="330" t="s">
+      <c r="L164" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M164" s="330"/>
-      <c r="N164" s="330"/>
-      <c r="O164" s="331"/>
+      <c r="M164" s="345"/>
+      <c r="N164" s="345"/>
+      <c r="O164" s="346"/>
       <c r="P164" s="10"/>
     </row>
     <row r="165" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26229,10 +26229,10 @@
       <c r="C165" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D165" s="332" t="s">
+      <c r="D165" s="337" t="s">
         <v>320</v>
       </c>
-      <c r="E165" s="333"/>
+      <c r="E165" s="338"/>
       <c r="F165" s="214"/>
       <c r="G165" s="214"/>
       <c r="H165" s="214" t="s">
@@ -26243,10 +26243,10 @@
       </c>
       <c r="J165" s="214"/>
       <c r="K165" s="214"/>
-      <c r="L165" s="334"/>
-      <c r="M165" s="334"/>
-      <c r="N165" s="334"/>
-      <c r="O165" s="335"/>
+      <c r="L165" s="328"/>
+      <c r="M165" s="328"/>
+      <c r="N165" s="328"/>
+      <c r="O165" s="329"/>
       <c r="P165" s="10"/>
     </row>
     <row r="166" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26257,10 +26257,10 @@
       <c r="C166" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D166" s="332" t="s">
+      <c r="D166" s="337" t="s">
         <v>321</v>
       </c>
-      <c r="E166" s="333"/>
+      <c r="E166" s="338"/>
       <c r="F166" s="214"/>
       <c r="G166" s="214"/>
       <c r="H166" s="214"/>
@@ -26269,10 +26269,10 @@
       </c>
       <c r="J166" s="214"/>
       <c r="K166" s="214"/>
-      <c r="L166" s="334"/>
-      <c r="M166" s="334"/>
-      <c r="N166" s="334"/>
-      <c r="O166" s="335"/>
+      <c r="L166" s="328"/>
+      <c r="M166" s="328"/>
+      <c r="N166" s="328"/>
+      <c r="O166" s="329"/>
       <c r="P166" s="10"/>
     </row>
     <row r="167" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26297,30 +26297,30 @@
       <c r="K167" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L167" s="334" t="s">
+      <c r="L167" s="328" t="s">
         <v>323</v>
       </c>
-      <c r="M167" s="334"/>
-      <c r="N167" s="334"/>
-      <c r="O167" s="335"/>
+      <c r="M167" s="328"/>
+      <c r="N167" s="328"/>
+      <c r="O167" s="329"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="29"/>
       <c r="C168" s="30"/>
-      <c r="D168" s="339"/>
-      <c r="E168" s="340"/>
+      <c r="D168" s="333"/>
+      <c r="E168" s="334"/>
       <c r="F168" s="215"/>
       <c r="G168" s="215"/>
       <c r="H168" s="215"/>
       <c r="I168" s="31"/>
       <c r="J168" s="215"/>
       <c r="K168" s="215"/>
-      <c r="L168" s="341"/>
-      <c r="M168" s="341"/>
-      <c r="N168" s="341"/>
-      <c r="O168" s="342"/>
+      <c r="L168" s="335"/>
+      <c r="M168" s="335"/>
+      <c r="N168" s="335"/>
+      <c r="O168" s="336"/>
       <c r="P168" s="10"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
@@ -26407,10 +26407,10 @@
       <c r="C173" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="328" t="s">
+      <c r="D173" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E173" s="329"/>
+      <c r="E173" s="344"/>
       <c r="F173" s="25" t="s">
         <v>31</v>
       </c>
@@ -26429,12 +26429,12 @@
       <c r="K173" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L173" s="330" t="s">
+      <c r="L173" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M173" s="330"/>
-      <c r="N173" s="330"/>
-      <c r="O173" s="331"/>
+      <c r="M173" s="345"/>
+      <c r="N173" s="345"/>
+      <c r="O173" s="346"/>
       <c r="P173" s="10"/>
     </row>
     <row r="174" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26445,10 +26445,10 @@
       <c r="C174" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="332" t="s">
+      <c r="D174" s="337" t="s">
         <v>320</v>
       </c>
-      <c r="E174" s="333"/>
+      <c r="E174" s="338"/>
       <c r="F174" s="214"/>
       <c r="G174" s="214"/>
       <c r="H174" s="214" t="s">
@@ -26459,10 +26459,10 @@
       </c>
       <c r="J174" s="214"/>
       <c r="K174" s="214"/>
-      <c r="L174" s="334"/>
-      <c r="M174" s="334"/>
-      <c r="N174" s="334"/>
-      <c r="O174" s="335"/>
+      <c r="L174" s="328"/>
+      <c r="M174" s="328"/>
+      <c r="N174" s="328"/>
+      <c r="O174" s="329"/>
       <c r="P174" s="10"/>
     </row>
     <row r="175" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26473,10 +26473,10 @@
       <c r="C175" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D175" s="332" t="s">
+      <c r="D175" s="337" t="s">
         <v>321</v>
       </c>
-      <c r="E175" s="333"/>
+      <c r="E175" s="338"/>
       <c r="F175" s="214"/>
       <c r="G175" s="214"/>
       <c r="H175" s="214"/>
@@ -26485,10 +26485,10 @@
       </c>
       <c r="J175" s="214"/>
       <c r="K175" s="214"/>
-      <c r="L175" s="334"/>
-      <c r="M175" s="334"/>
-      <c r="N175" s="334"/>
-      <c r="O175" s="335"/>
+      <c r="L175" s="328"/>
+      <c r="M175" s="328"/>
+      <c r="N175" s="328"/>
+      <c r="O175" s="329"/>
       <c r="P175" s="10"/>
     </row>
     <row r="176" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26513,30 +26513,30 @@
       <c r="K176" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L176" s="334" t="s">
+      <c r="L176" s="328" t="s">
         <v>268</v>
       </c>
-      <c r="M176" s="334"/>
-      <c r="N176" s="334"/>
-      <c r="O176" s="335"/>
+      <c r="M176" s="328"/>
+      <c r="N176" s="328"/>
+      <c r="O176" s="329"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="29"/>
       <c r="C177" s="30"/>
-      <c r="D177" s="339"/>
-      <c r="E177" s="340"/>
+      <c r="D177" s="333"/>
+      <c r="E177" s="334"/>
       <c r="F177" s="215"/>
       <c r="G177" s="215"/>
       <c r="H177" s="215"/>
       <c r="I177" s="31"/>
       <c r="J177" s="215"/>
       <c r="K177" s="215"/>
-      <c r="L177" s="341"/>
-      <c r="M177" s="341"/>
-      <c r="N177" s="341"/>
-      <c r="O177" s="342"/>
+      <c r="L177" s="335"/>
+      <c r="M177" s="335"/>
+      <c r="N177" s="335"/>
+      <c r="O177" s="336"/>
       <c r="P177" s="10"/>
     </row>
     <row r="178" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26623,10 +26623,10 @@
       <c r="C182" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D182" s="328" t="s">
+      <c r="D182" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E182" s="329"/>
+      <c r="E182" s="344"/>
       <c r="F182" s="25" t="s">
         <v>31</v>
       </c>
@@ -26645,12 +26645,12 @@
       <c r="K182" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L182" s="330" t="s">
+      <c r="L182" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M182" s="330"/>
-      <c r="N182" s="330"/>
-      <c r="O182" s="331"/>
+      <c r="M182" s="345"/>
+      <c r="N182" s="345"/>
+      <c r="O182" s="346"/>
       <c r="P182" s="10"/>
     </row>
     <row r="183" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26661,10 +26661,10 @@
       <c r="C183" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D183" s="332" t="s">
+      <c r="D183" s="337" t="s">
         <v>328</v>
       </c>
-      <c r="E183" s="333"/>
+      <c r="E183" s="338"/>
       <c r="F183" s="214"/>
       <c r="G183" s="214"/>
       <c r="H183" s="214" t="s">
@@ -26677,10 +26677,10 @@
         <v>255</v>
       </c>
       <c r="K183" s="214"/>
-      <c r="L183" s="334"/>
-      <c r="M183" s="334"/>
-      <c r="N183" s="334"/>
-      <c r="O183" s="335"/>
+      <c r="L183" s="328"/>
+      <c r="M183" s="328"/>
+      <c r="N183" s="328"/>
+      <c r="O183" s="329"/>
       <c r="P183" s="10"/>
     </row>
     <row r="184" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26691,10 +26691,10 @@
       <c r="C184" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D184" s="332" t="s">
+      <c r="D184" s="337" t="s">
         <v>411</v>
       </c>
-      <c r="E184" s="333"/>
+      <c r="E184" s="338"/>
       <c r="F184" s="214"/>
       <c r="G184" s="214"/>
       <c r="H184" s="214"/>
@@ -26705,28 +26705,28 @@
         <v>255</v>
       </c>
       <c r="K184" s="214"/>
-      <c r="L184" s="334"/>
-      <c r="M184" s="334"/>
-      <c r="N184" s="334"/>
-      <c r="O184" s="335"/>
+      <c r="L184" s="328"/>
+      <c r="M184" s="328"/>
+      <c r="N184" s="328"/>
+      <c r="O184" s="329"/>
       <c r="P184" s="10"/>
     </row>
     <row r="185" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="9"/>
       <c r="B185" s="29"/>
       <c r="C185" s="30"/>
-      <c r="D185" s="339"/>
-      <c r="E185" s="340"/>
+      <c r="D185" s="333"/>
+      <c r="E185" s="334"/>
       <c r="F185" s="215"/>
       <c r="G185" s="215"/>
       <c r="H185" s="215"/>
       <c r="I185" s="31"/>
       <c r="J185" s="215"/>
       <c r="K185" s="215"/>
-      <c r="L185" s="341"/>
-      <c r="M185" s="341"/>
-      <c r="N185" s="341"/>
-      <c r="O185" s="342"/>
+      <c r="L185" s="335"/>
+      <c r="M185" s="335"/>
+      <c r="N185" s="335"/>
+      <c r="O185" s="336"/>
       <c r="P185" s="10"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
@@ -26831,10 +26831,10 @@
       <c r="C191" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D191" s="328" t="s">
+      <c r="D191" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="329"/>
+      <c r="E191" s="344"/>
       <c r="F191" s="25" t="s">
         <v>31</v>
       </c>
@@ -26853,12 +26853,12 @@
       <c r="K191" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L191" s="330" t="s">
+      <c r="L191" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M191" s="330"/>
-      <c r="N191" s="330"/>
-      <c r="O191" s="331"/>
+      <c r="M191" s="345"/>
+      <c r="N191" s="345"/>
+      <c r="O191" s="346"/>
       <c r="P191" s="10"/>
     </row>
     <row r="192" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26869,10 +26869,10 @@
       <c r="C192" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D192" s="332" t="s">
+      <c r="D192" s="337" t="s">
         <v>340</v>
       </c>
-      <c r="E192" s="333"/>
+      <c r="E192" s="338"/>
       <c r="F192" s="214"/>
       <c r="G192" s="214"/>
       <c r="H192" s="214" t="s">
@@ -26885,10 +26885,10 @@
         <v>255</v>
       </c>
       <c r="K192" s="214"/>
-      <c r="L192" s="334"/>
-      <c r="M192" s="334"/>
-      <c r="N192" s="334"/>
-      <c r="O192" s="335"/>
+      <c r="L192" s="328"/>
+      <c r="M192" s="328"/>
+      <c r="N192" s="328"/>
+      <c r="O192" s="329"/>
       <c r="P192" s="10"/>
     </row>
     <row r="193" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26899,10 +26899,10 @@
       <c r="C193" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D193" s="332" t="s">
+      <c r="D193" s="337" t="s">
         <v>341</v>
       </c>
-      <c r="E193" s="333"/>
+      <c r="E193" s="338"/>
       <c r="F193" s="214"/>
       <c r="G193" s="214"/>
       <c r="H193" s="214" t="s">
@@ -26913,12 +26913,12 @@
       </c>
       <c r="J193" s="214"/>
       <c r="K193" s="214"/>
-      <c r="L193" s="334" t="s">
+      <c r="L193" s="328" t="s">
         <v>342</v>
       </c>
-      <c r="M193" s="334"/>
-      <c r="N193" s="334"/>
-      <c r="O193" s="335"/>
+      <c r="M193" s="328"/>
+      <c r="N193" s="328"/>
+      <c r="O193" s="329"/>
       <c r="P193" s="10"/>
     </row>
     <row r="194" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -26929,10 +26929,10 @@
       <c r="C194" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D194" s="346" t="s">
+      <c r="D194" s="362" t="s">
         <v>247</v>
       </c>
-      <c r="E194" s="347"/>
+      <c r="E194" s="363"/>
       <c r="F194" s="215"/>
       <c r="G194" s="215"/>
       <c r="H194" s="215"/>
@@ -26943,10 +26943,10 @@
         <v>255</v>
       </c>
       <c r="K194" s="215"/>
-      <c r="L194" s="341"/>
-      <c r="M194" s="341"/>
-      <c r="N194" s="341"/>
-      <c r="O194" s="342"/>
+      <c r="L194" s="335"/>
+      <c r="M194" s="335"/>
+      <c r="N194" s="335"/>
+      <c r="O194" s="336"/>
       <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
@@ -27033,10 +27033,10 @@
       <c r="C199" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D199" s="328" t="s">
+      <c r="D199" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E199" s="329"/>
+      <c r="E199" s="344"/>
       <c r="F199" s="25" t="s">
         <v>31</v>
       </c>
@@ -27055,12 +27055,12 @@
       <c r="K199" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L199" s="330" t="s">
+      <c r="L199" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M199" s="330"/>
-      <c r="N199" s="330"/>
-      <c r="O199" s="331"/>
+      <c r="M199" s="345"/>
+      <c r="N199" s="345"/>
+      <c r="O199" s="346"/>
       <c r="P199" s="10"/>
     </row>
     <row r="200" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27071,10 +27071,10 @@
       <c r="C200" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D200" s="332" t="s">
+      <c r="D200" s="337" t="s">
         <v>412</v>
       </c>
-      <c r="E200" s="333"/>
+      <c r="E200" s="338"/>
       <c r="F200" s="214"/>
       <c r="G200" s="214"/>
       <c r="H200" s="214" t="s">
@@ -27087,12 +27087,12 @@
         <v>255</v>
       </c>
       <c r="K200" s="214"/>
-      <c r="L200" s="334" t="s">
+      <c r="L200" s="328" t="s">
         <v>364</v>
       </c>
-      <c r="M200" s="334"/>
-      <c r="N200" s="334"/>
-      <c r="O200" s="335"/>
+      <c r="M200" s="328"/>
+      <c r="N200" s="328"/>
+      <c r="O200" s="329"/>
       <c r="P200" s="10"/>
     </row>
     <row r="201" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27103,10 +27103,10 @@
       <c r="C201" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="D201" s="332" t="s">
+      <c r="D201" s="337" t="s">
         <v>341</v>
       </c>
-      <c r="E201" s="333"/>
+      <c r="E201" s="338"/>
       <c r="F201" s="214"/>
       <c r="G201" s="214"/>
       <c r="H201" s="214" t="s">
@@ -27117,10 +27117,10 @@
       </c>
       <c r="J201" s="214"/>
       <c r="K201" s="214"/>
-      <c r="L201" s="334"/>
-      <c r="M201" s="334"/>
-      <c r="N201" s="334"/>
-      <c r="O201" s="335"/>
+      <c r="L201" s="328"/>
+      <c r="M201" s="328"/>
+      <c r="N201" s="328"/>
+      <c r="O201" s="329"/>
       <c r="P201" s="10"/>
     </row>
     <row r="202" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27145,28 +27145,28 @@
         <v>255</v>
       </c>
       <c r="K202" s="237"/>
-      <c r="L202" s="334"/>
-      <c r="M202" s="334"/>
-      <c r="N202" s="334"/>
-      <c r="O202" s="335"/>
+      <c r="L202" s="328"/>
+      <c r="M202" s="328"/>
+      <c r="N202" s="328"/>
+      <c r="O202" s="329"/>
       <c r="P202" s="10"/>
     </row>
     <row r="203" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9"/>
       <c r="B203" s="29"/>
       <c r="C203" s="30"/>
-      <c r="D203" s="339"/>
-      <c r="E203" s="340"/>
+      <c r="D203" s="333"/>
+      <c r="E203" s="334"/>
       <c r="F203" s="215"/>
       <c r="G203" s="215"/>
       <c r="H203" s="215"/>
       <c r="I203" s="31"/>
       <c r="J203" s="215"/>
       <c r="K203" s="215"/>
-      <c r="L203" s="341"/>
-      <c r="M203" s="341"/>
-      <c r="N203" s="341"/>
-      <c r="O203" s="342"/>
+      <c r="L203" s="335"/>
+      <c r="M203" s="335"/>
+      <c r="N203" s="335"/>
+      <c r="O203" s="336"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
@@ -27253,10 +27253,10 @@
       <c r="C208" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D208" s="328" t="s">
+      <c r="D208" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E208" s="329"/>
+      <c r="E208" s="344"/>
       <c r="F208" s="25" t="s">
         <v>31</v>
       </c>
@@ -27275,12 +27275,12 @@
       <c r="K208" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L208" s="330" t="s">
+      <c r="L208" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M208" s="330"/>
-      <c r="N208" s="330"/>
-      <c r="O208" s="331"/>
+      <c r="M208" s="345"/>
+      <c r="N208" s="345"/>
+      <c r="O208" s="346"/>
       <c r="P208" s="10"/>
     </row>
     <row r="209" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27291,10 +27291,10 @@
       <c r="C209" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D209" s="332" t="s">
+      <c r="D209" s="337" t="s">
         <v>414</v>
       </c>
-      <c r="E209" s="333"/>
+      <c r="E209" s="338"/>
       <c r="F209" s="214"/>
       <c r="G209" s="214"/>
       <c r="H209" s="214" t="s">
@@ -27307,12 +27307,12 @@
         <v>255</v>
       </c>
       <c r="K209" s="214"/>
-      <c r="L209" s="334" t="s">
+      <c r="L209" s="328" t="s">
         <v>349</v>
       </c>
-      <c r="M209" s="334"/>
-      <c r="N209" s="334"/>
-      <c r="O209" s="335"/>
+      <c r="M209" s="328"/>
+      <c r="N209" s="328"/>
+      <c r="O209" s="329"/>
       <c r="P209" s="10"/>
     </row>
     <row r="210" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27337,28 +27337,28 @@
         <v>255</v>
       </c>
       <c r="K210" s="237"/>
-      <c r="L210" s="334"/>
-      <c r="M210" s="334"/>
-      <c r="N210" s="334"/>
-      <c r="O210" s="335"/>
+      <c r="L210" s="328"/>
+      <c r="M210" s="328"/>
+      <c r="N210" s="328"/>
+      <c r="O210" s="329"/>
       <c r="P210" s="10"/>
     </row>
     <row r="211" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="9"/>
       <c r="B211" s="29"/>
       <c r="C211" s="30"/>
-      <c r="D211" s="339"/>
-      <c r="E211" s="340"/>
+      <c r="D211" s="333"/>
+      <c r="E211" s="334"/>
       <c r="F211" s="215"/>
       <c r="G211" s="215"/>
       <c r="H211" s="215"/>
       <c r="I211" s="31"/>
       <c r="J211" s="215"/>
       <c r="K211" s="215"/>
-      <c r="L211" s="341"/>
-      <c r="M211" s="341"/>
-      <c r="N211" s="341"/>
-      <c r="O211" s="342"/>
+      <c r="L211" s="335"/>
+      <c r="M211" s="335"/>
+      <c r="N211" s="335"/>
+      <c r="O211" s="336"/>
       <c r="P211" s="10"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
@@ -27445,10 +27445,10 @@
       <c r="C216" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D216" s="328" t="s">
+      <c r="D216" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E216" s="329"/>
+      <c r="E216" s="344"/>
       <c r="F216" s="25" t="s">
         <v>31</v>
       </c>
@@ -27467,12 +27467,12 @@
       <c r="K216" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L216" s="330" t="s">
+      <c r="L216" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M216" s="330"/>
-      <c r="N216" s="330"/>
-      <c r="O216" s="331"/>
+      <c r="M216" s="345"/>
+      <c r="N216" s="345"/>
+      <c r="O216" s="346"/>
       <c r="P216" s="10"/>
     </row>
     <row r="217" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27483,10 +27483,10 @@
       <c r="C217" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D217" s="332" t="s">
+      <c r="D217" s="337" t="s">
         <v>352</v>
       </c>
-      <c r="E217" s="333"/>
+      <c r="E217" s="338"/>
       <c r="F217" s="214"/>
       <c r="G217" s="214"/>
       <c r="H217" s="214" t="s">
@@ -27499,12 +27499,12 @@
         <v>255</v>
       </c>
       <c r="K217" s="214"/>
-      <c r="L217" s="334" t="s">
+      <c r="L217" s="328" t="s">
         <v>353</v>
       </c>
-      <c r="M217" s="334"/>
-      <c r="N217" s="334"/>
-      <c r="O217" s="335"/>
+      <c r="M217" s="328"/>
+      <c r="N217" s="328"/>
+      <c r="O217" s="329"/>
       <c r="P217" s="10"/>
     </row>
     <row r="218" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27529,28 +27529,28 @@
         <v>255</v>
       </c>
       <c r="K218" s="237"/>
-      <c r="L218" s="334"/>
-      <c r="M218" s="334"/>
-      <c r="N218" s="334"/>
-      <c r="O218" s="335"/>
+      <c r="L218" s="328"/>
+      <c r="M218" s="328"/>
+      <c r="N218" s="328"/>
+      <c r="O218" s="329"/>
       <c r="P218" s="10"/>
     </row>
     <row r="219" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="9"/>
       <c r="B219" s="29"/>
       <c r="C219" s="30"/>
-      <c r="D219" s="339"/>
-      <c r="E219" s="340"/>
+      <c r="D219" s="333"/>
+      <c r="E219" s="334"/>
       <c r="F219" s="215"/>
       <c r="G219" s="215"/>
       <c r="H219" s="215"/>
       <c r="I219" s="31"/>
       <c r="J219" s="215"/>
       <c r="K219" s="215"/>
-      <c r="L219" s="341"/>
-      <c r="M219" s="341"/>
-      <c r="N219" s="341"/>
-      <c r="O219" s="342"/>
+      <c r="L219" s="335"/>
+      <c r="M219" s="335"/>
+      <c r="N219" s="335"/>
+      <c r="O219" s="336"/>
       <c r="P219" s="10"/>
     </row>
     <row r="220" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27637,10 +27637,10 @@
       <c r="C224" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="328" t="s">
+      <c r="D224" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E224" s="329"/>
+      <c r="E224" s="344"/>
       <c r="F224" s="25" t="s">
         <v>31</v>
       </c>
@@ -27659,12 +27659,12 @@
       <c r="K224" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L224" s="330" t="s">
+      <c r="L224" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M224" s="330"/>
-      <c r="N224" s="330"/>
-      <c r="O224" s="331"/>
+      <c r="M224" s="345"/>
+      <c r="N224" s="345"/>
+      <c r="O224" s="346"/>
       <c r="P224" s="10"/>
     </row>
     <row r="225" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27675,10 +27675,10 @@
       <c r="C225" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D225" s="332" t="s">
+      <c r="D225" s="337" t="s">
         <v>390</v>
       </c>
-      <c r="E225" s="333"/>
+      <c r="E225" s="338"/>
       <c r="F225" s="214"/>
       <c r="G225" s="214"/>
       <c r="H225" s="214" t="s">
@@ -27691,12 +27691,12 @@
         <v>255</v>
       </c>
       <c r="K225" s="214"/>
-      <c r="L225" s="334" t="s">
+      <c r="L225" s="328" t="s">
         <v>391</v>
       </c>
-      <c r="M225" s="334"/>
-      <c r="N225" s="334"/>
-      <c r="O225" s="335"/>
+      <c r="M225" s="328"/>
+      <c r="N225" s="328"/>
+      <c r="O225" s="329"/>
       <c r="P225" s="10"/>
     </row>
     <row r="226" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27721,28 +27721,28 @@
         <v>255</v>
       </c>
       <c r="K226" s="237"/>
-      <c r="L226" s="334"/>
-      <c r="M226" s="334"/>
-      <c r="N226" s="334"/>
-      <c r="O226" s="335"/>
+      <c r="L226" s="328"/>
+      <c r="M226" s="328"/>
+      <c r="N226" s="328"/>
+      <c r="O226" s="329"/>
       <c r="P226" s="10"/>
     </row>
     <row r="227" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="9"/>
       <c r="B227" s="29"/>
       <c r="C227" s="30"/>
-      <c r="D227" s="339"/>
-      <c r="E227" s="340"/>
+      <c r="D227" s="333"/>
+      <c r="E227" s="334"/>
       <c r="F227" s="215"/>
       <c r="G227" s="215"/>
       <c r="H227" s="215"/>
       <c r="I227" s="31"/>
       <c r="J227" s="215"/>
       <c r="K227" s="215"/>
-      <c r="L227" s="341"/>
-      <c r="M227" s="341"/>
-      <c r="N227" s="341"/>
-      <c r="O227" s="342"/>
+      <c r="L227" s="335"/>
+      <c r="M227" s="335"/>
+      <c r="N227" s="335"/>
+      <c r="O227" s="336"/>
       <c r="P227" s="10"/>
     </row>
     <row r="228" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27829,10 +27829,10 @@
       <c r="C232" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D232" s="328" t="s">
+      <c r="D232" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E232" s="329"/>
+      <c r="E232" s="344"/>
       <c r="F232" s="25" t="s">
         <v>31</v>
       </c>
@@ -27851,12 +27851,12 @@
       <c r="K232" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L232" s="330" t="s">
+      <c r="L232" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M232" s="330"/>
-      <c r="N232" s="330"/>
-      <c r="O232" s="331"/>
+      <c r="M232" s="345"/>
+      <c r="N232" s="345"/>
+      <c r="O232" s="346"/>
       <c r="P232" s="10"/>
     </row>
     <row r="233" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27867,10 +27867,10 @@
       <c r="C233" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D233" s="332" t="s">
+      <c r="D233" s="337" t="s">
         <v>352</v>
       </c>
-      <c r="E233" s="333"/>
+      <c r="E233" s="338"/>
       <c r="F233" s="214"/>
       <c r="G233" s="214"/>
       <c r="H233" s="214" t="s">
@@ -27883,12 +27883,12 @@
         <v>255</v>
       </c>
       <c r="K233" s="214"/>
-      <c r="L233" s="334" t="s">
+      <c r="L233" s="328" t="s">
         <v>357</v>
       </c>
-      <c r="M233" s="334"/>
-      <c r="N233" s="334"/>
-      <c r="O233" s="335"/>
+      <c r="M233" s="328"/>
+      <c r="N233" s="328"/>
+      <c r="O233" s="329"/>
       <c r="P233" s="10"/>
     </row>
     <row r="234" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27913,28 +27913,28 @@
         <v>255</v>
       </c>
       <c r="K234" s="237"/>
-      <c r="L234" s="345"/>
-      <c r="M234" s="334"/>
-      <c r="N234" s="334"/>
-      <c r="O234" s="335"/>
+      <c r="L234" s="342"/>
+      <c r="M234" s="328"/>
+      <c r="N234" s="328"/>
+      <c r="O234" s="329"/>
       <c r="P234" s="10"/>
     </row>
     <row r="235" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="9"/>
       <c r="B235" s="29"/>
       <c r="C235" s="30"/>
-      <c r="D235" s="339"/>
-      <c r="E235" s="340"/>
+      <c r="D235" s="333"/>
+      <c r="E235" s="334"/>
       <c r="F235" s="215"/>
       <c r="G235" s="215"/>
       <c r="H235" s="215"/>
       <c r="I235" s="31"/>
       <c r="J235" s="215"/>
       <c r="K235" s="215"/>
-      <c r="L235" s="341"/>
-      <c r="M235" s="341"/>
-      <c r="N235" s="341"/>
-      <c r="O235" s="342"/>
+      <c r="L235" s="335"/>
+      <c r="M235" s="335"/>
+      <c r="N235" s="335"/>
+      <c r="O235" s="336"/>
       <c r="P235" s="10"/>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
@@ -28021,10 +28021,10 @@
       <c r="C240" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D240" s="328" t="s">
+      <c r="D240" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E240" s="329"/>
+      <c r="E240" s="344"/>
       <c r="F240" s="25" t="s">
         <v>31</v>
       </c>
@@ -28043,12 +28043,12 @@
       <c r="K240" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L240" s="330" t="s">
+      <c r="L240" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M240" s="330"/>
-      <c r="N240" s="330"/>
-      <c r="O240" s="331"/>
+      <c r="M240" s="345"/>
+      <c r="N240" s="345"/>
+      <c r="O240" s="346"/>
       <c r="P240" s="10"/>
     </row>
     <row r="241" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -28059,10 +28059,10 @@
       <c r="C241" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D241" s="343" t="s">
+      <c r="D241" s="347" t="s">
         <v>227</v>
       </c>
-      <c r="E241" s="344"/>
+      <c r="E241" s="348"/>
       <c r="F241" s="214"/>
       <c r="G241" s="214"/>
       <c r="H241" s="214" t="s">
@@ -28075,12 +28075,12 @@
         <v>255</v>
       </c>
       <c r="K241" s="214"/>
-      <c r="L241" s="345" t="s">
+      <c r="L241" s="342" t="s">
         <v>417</v>
       </c>
-      <c r="M241" s="334"/>
-      <c r="N241" s="334"/>
-      <c r="O241" s="335"/>
+      <c r="M241" s="328"/>
+      <c r="N241" s="328"/>
+      <c r="O241" s="329"/>
       <c r="P241" s="10"/>
     </row>
     <row r="242" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28105,28 +28105,28 @@
         <v>255</v>
       </c>
       <c r="K242" s="237"/>
-      <c r="L242" s="345"/>
-      <c r="M242" s="334"/>
-      <c r="N242" s="334"/>
-      <c r="O242" s="335"/>
+      <c r="L242" s="342"/>
+      <c r="M242" s="328"/>
+      <c r="N242" s="328"/>
+      <c r="O242" s="329"/>
       <c r="P242" s="10"/>
     </row>
     <row r="243" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="9"/>
       <c r="B243" s="29"/>
       <c r="C243" s="30"/>
-      <c r="D243" s="339"/>
-      <c r="E243" s="340"/>
+      <c r="D243" s="333"/>
+      <c r="E243" s="334"/>
       <c r="F243" s="215"/>
       <c r="G243" s="215"/>
       <c r="H243" s="215"/>
       <c r="I243" s="31"/>
       <c r="J243" s="215"/>
       <c r="K243" s="215"/>
-      <c r="L243" s="341"/>
-      <c r="M243" s="341"/>
-      <c r="N243" s="341"/>
-      <c r="O243" s="342"/>
+      <c r="L243" s="335"/>
+      <c r="M243" s="335"/>
+      <c r="N243" s="335"/>
+      <c r="O243" s="336"/>
       <c r="P243" s="10"/>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
@@ -28213,10 +28213,10 @@
       <c r="C248" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D248" s="328" t="s">
+      <c r="D248" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E248" s="329"/>
+      <c r="E248" s="344"/>
       <c r="F248" s="25" t="s">
         <v>31</v>
       </c>
@@ -28235,12 +28235,12 @@
       <c r="K248" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L248" s="330" t="s">
+      <c r="L248" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M248" s="330"/>
-      <c r="N248" s="330"/>
-      <c r="O248" s="331"/>
+      <c r="M248" s="345"/>
+      <c r="N248" s="345"/>
+      <c r="O248" s="346"/>
       <c r="P248" s="10"/>
     </row>
     <row r="249" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -28251,10 +28251,10 @@
       <c r="C249" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D249" s="343" t="s">
+      <c r="D249" s="347" t="s">
         <v>362</v>
       </c>
-      <c r="E249" s="344"/>
+      <c r="E249" s="348"/>
       <c r="F249" s="214"/>
       <c r="G249" s="214"/>
       <c r="H249" s="214" t="s">
@@ -28267,12 +28267,12 @@
         <v>255</v>
       </c>
       <c r="K249" s="214"/>
-      <c r="L249" s="345" t="s">
+      <c r="L249" s="342" t="s">
         <v>363</v>
       </c>
-      <c r="M249" s="334"/>
-      <c r="N249" s="334"/>
-      <c r="O249" s="335"/>
+      <c r="M249" s="328"/>
+      <c r="N249" s="328"/>
+      <c r="O249" s="329"/>
       <c r="P249" s="10"/>
     </row>
     <row r="250" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28297,28 +28297,28 @@
         <v>255</v>
       </c>
       <c r="K250" s="237"/>
-      <c r="L250" s="345"/>
-      <c r="M250" s="334"/>
-      <c r="N250" s="334"/>
-      <c r="O250" s="335"/>
+      <c r="L250" s="342"/>
+      <c r="M250" s="328"/>
+      <c r="N250" s="328"/>
+      <c r="O250" s="329"/>
       <c r="P250" s="10"/>
     </row>
     <row r="251" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="9"/>
       <c r="B251" s="29"/>
       <c r="C251" s="30"/>
-      <c r="D251" s="339"/>
-      <c r="E251" s="340"/>
+      <c r="D251" s="333"/>
+      <c r="E251" s="334"/>
       <c r="F251" s="215"/>
       <c r="G251" s="215"/>
       <c r="H251" s="215"/>
       <c r="I251" s="31"/>
       <c r="J251" s="215"/>
       <c r="K251" s="215"/>
-      <c r="L251" s="341"/>
-      <c r="M251" s="341"/>
-      <c r="N251" s="341"/>
-      <c r="O251" s="342"/>
+      <c r="L251" s="335"/>
+      <c r="M251" s="335"/>
+      <c r="N251" s="335"/>
+      <c r="O251" s="336"/>
       <c r="P251" s="10"/>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -28407,10 +28407,10 @@
       <c r="C256" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D256" s="328" t="s">
+      <c r="D256" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E256" s="329"/>
+      <c r="E256" s="344"/>
       <c r="F256" s="25" t="s">
         <v>31</v>
       </c>
@@ -28429,12 +28429,12 @@
       <c r="K256" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L256" s="330" t="s">
+      <c r="L256" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M256" s="330"/>
-      <c r="N256" s="330"/>
-      <c r="O256" s="331"/>
+      <c r="M256" s="345"/>
+      <c r="N256" s="345"/>
+      <c r="O256" s="346"/>
       <c r="P256" s="10"/>
     </row>
     <row r="257" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28445,10 +28445,10 @@
       <c r="C257" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D257" s="332" t="s">
+      <c r="D257" s="337" t="s">
         <v>267</v>
       </c>
-      <c r="E257" s="333"/>
+      <c r="E257" s="338"/>
       <c r="F257" s="214"/>
       <c r="G257" s="214"/>
       <c r="H257" s="214" t="s">
@@ -28463,12 +28463,12 @@
       <c r="K257" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L257" s="334" t="s">
+      <c r="L257" s="328" t="s">
         <v>268</v>
       </c>
-      <c r="M257" s="334"/>
-      <c r="N257" s="334"/>
-      <c r="O257" s="335"/>
+      <c r="M257" s="328"/>
+      <c r="N257" s="328"/>
+      <c r="O257" s="329"/>
       <c r="P257" s="10"/>
     </row>
     <row r="258" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28479,10 +28479,10 @@
       <c r="C258" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="D258" s="332" t="s">
+      <c r="D258" s="337" t="s">
         <v>378</v>
       </c>
-      <c r="E258" s="333"/>
+      <c r="E258" s="338"/>
       <c r="F258" s="214"/>
       <c r="G258" s="214"/>
       <c r="H258" s="214" t="s">
@@ -28495,10 +28495,10 @@
         <v>255</v>
       </c>
       <c r="K258" s="214"/>
-      <c r="L258" s="334"/>
-      <c r="M258" s="334"/>
-      <c r="N258" s="334"/>
-      <c r="O258" s="335"/>
+      <c r="L258" s="328"/>
+      <c r="M258" s="328"/>
+      <c r="N258" s="328"/>
+      <c r="O258" s="329"/>
       <c r="P258" s="10"/>
     </row>
     <row r="259" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28509,10 +28509,10 @@
       <c r="C259" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D259" s="332" t="s">
+      <c r="D259" s="337" t="s">
         <v>379</v>
       </c>
-      <c r="E259" s="333"/>
+      <c r="E259" s="338"/>
       <c r="F259" s="214"/>
       <c r="G259" s="214"/>
       <c r="H259" s="214"/>
@@ -28523,28 +28523,28 @@
         <v>255</v>
       </c>
       <c r="K259" s="214"/>
-      <c r="L259" s="334"/>
-      <c r="M259" s="334"/>
-      <c r="N259" s="334"/>
-      <c r="O259" s="335"/>
+      <c r="L259" s="328"/>
+      <c r="M259" s="328"/>
+      <c r="N259" s="328"/>
+      <c r="O259" s="329"/>
       <c r="P259" s="10"/>
     </row>
     <row r="260" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="9"/>
       <c r="B260" s="29"/>
       <c r="C260" s="30"/>
-      <c r="D260" s="339"/>
-      <c r="E260" s="340"/>
+      <c r="D260" s="333"/>
+      <c r="E260" s="334"/>
       <c r="F260" s="215"/>
       <c r="G260" s="215"/>
       <c r="H260" s="215"/>
       <c r="I260" s="31"/>
       <c r="J260" s="215"/>
       <c r="K260" s="215"/>
-      <c r="L260" s="341"/>
-      <c r="M260" s="341"/>
-      <c r="N260" s="341"/>
-      <c r="O260" s="342"/>
+      <c r="L260" s="335"/>
+      <c r="M260" s="335"/>
+      <c r="N260" s="335"/>
+      <c r="O260" s="336"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.2">
@@ -28633,10 +28633,10 @@
       <c r="C265" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D265" s="328" t="s">
+      <c r="D265" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E265" s="329"/>
+      <c r="E265" s="344"/>
       <c r="F265" s="25" t="s">
         <v>31</v>
       </c>
@@ -28655,12 +28655,12 @@
       <c r="K265" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L265" s="330" t="s">
+      <c r="L265" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M265" s="330"/>
-      <c r="N265" s="330"/>
-      <c r="O265" s="331"/>
+      <c r="M265" s="345"/>
+      <c r="N265" s="345"/>
+      <c r="O265" s="346"/>
       <c r="P265" s="10"/>
     </row>
     <row r="266" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28671,10 +28671,10 @@
       <c r="C266" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D266" s="332" t="s">
+      <c r="D266" s="337" t="s">
         <v>381</v>
       </c>
-      <c r="E266" s="333"/>
+      <c r="E266" s="338"/>
       <c r="F266" s="214"/>
       <c r="G266" s="214"/>
       <c r="H266" s="214" t="s">
@@ -28687,10 +28687,10 @@
         <v>255</v>
       </c>
       <c r="K266" s="214"/>
-      <c r="L266" s="334"/>
-      <c r="M266" s="334"/>
-      <c r="N266" s="334"/>
-      <c r="O266" s="335"/>
+      <c r="L266" s="328"/>
+      <c r="M266" s="328"/>
+      <c r="N266" s="328"/>
+      <c r="O266" s="329"/>
       <c r="P266" s="10"/>
     </row>
     <row r="267" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28701,10 +28701,10 @@
       <c r="C267" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D267" s="332" t="s">
+      <c r="D267" s="337" t="s">
         <v>382</v>
       </c>
-      <c r="E267" s="333"/>
+      <c r="E267" s="338"/>
       <c r="F267" s="214"/>
       <c r="G267" s="214"/>
       <c r="H267" s="214"/>
@@ -28715,10 +28715,10 @@
         <v>255</v>
       </c>
       <c r="K267" s="214"/>
-      <c r="L267" s="334"/>
-      <c r="M267" s="334"/>
-      <c r="N267" s="334"/>
-      <c r="O267" s="335"/>
+      <c r="L267" s="328"/>
+      <c r="M267" s="328"/>
+      <c r="N267" s="328"/>
+      <c r="O267" s="329"/>
       <c r="P267" s="10"/>
     </row>
     <row r="268" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28741,30 +28741,30 @@
       </c>
       <c r="J268" s="214"/>
       <c r="K268" s="214"/>
-      <c r="L268" s="334" t="s">
+      <c r="L268" s="328" t="s">
         <v>416</v>
       </c>
-      <c r="M268" s="334"/>
-      <c r="N268" s="334"/>
-      <c r="O268" s="335"/>
+      <c r="M268" s="328"/>
+      <c r="N268" s="328"/>
+      <c r="O268" s="329"/>
       <c r="P268" s="10"/>
     </row>
     <row r="269" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="9"/>
       <c r="B269" s="29"/>
       <c r="C269" s="30"/>
-      <c r="D269" s="339"/>
-      <c r="E269" s="340"/>
+      <c r="D269" s="333"/>
+      <c r="E269" s="334"/>
       <c r="F269" s="215"/>
       <c r="G269" s="215"/>
       <c r="H269" s="215"/>
       <c r="I269" s="31"/>
       <c r="J269" s="215"/>
       <c r="K269" s="215"/>
-      <c r="L269" s="341"/>
-      <c r="M269" s="341"/>
-      <c r="N269" s="341"/>
-      <c r="O269" s="342"/>
+      <c r="L269" s="335"/>
+      <c r="M269" s="335"/>
+      <c r="N269" s="335"/>
+      <c r="O269" s="336"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28853,10 +28853,10 @@
       <c r="C274" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D274" s="328" t="s">
+      <c r="D274" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E274" s="329"/>
+      <c r="E274" s="344"/>
       <c r="F274" s="25" t="s">
         <v>31</v>
       </c>
@@ -28875,12 +28875,12 @@
       <c r="K274" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L274" s="330" t="s">
+      <c r="L274" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M274" s="330"/>
-      <c r="N274" s="330"/>
-      <c r="O274" s="331"/>
+      <c r="M274" s="345"/>
+      <c r="N274" s="345"/>
+      <c r="O274" s="346"/>
       <c r="P274" s="10"/>
     </row>
     <row r="275" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28891,10 +28891,10 @@
       <c r="C275" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D275" s="332" t="s">
+      <c r="D275" s="337" t="s">
         <v>386</v>
       </c>
-      <c r="E275" s="333"/>
+      <c r="E275" s="338"/>
       <c r="F275" s="214"/>
       <c r="G275" s="214"/>
       <c r="H275" s="214" t="s">
@@ -28905,12 +28905,12 @@
       </c>
       <c r="J275" s="214"/>
       <c r="K275" s="214"/>
-      <c r="L275" s="334" t="s">
+      <c r="L275" s="328" t="s">
         <v>387</v>
       </c>
-      <c r="M275" s="334"/>
-      <c r="N275" s="334"/>
-      <c r="O275" s="335"/>
+      <c r="M275" s="328"/>
+      <c r="N275" s="328"/>
+      <c r="O275" s="329"/>
       <c r="P275" s="10"/>
     </row>
     <row r="276" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28921,10 +28921,10 @@
       <c r="C276" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D276" s="332" t="s">
+      <c r="D276" s="337" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="333"/>
+      <c r="E276" s="338"/>
       <c r="F276" s="214"/>
       <c r="G276" s="214"/>
       <c r="H276" s="214" t="s">
@@ -28937,10 +28937,10 @@
         <v>255</v>
       </c>
       <c r="K276" s="214"/>
-      <c r="L276" s="334"/>
-      <c r="M276" s="334"/>
-      <c r="N276" s="334"/>
-      <c r="O276" s="335"/>
+      <c r="L276" s="328"/>
+      <c r="M276" s="328"/>
+      <c r="N276" s="328"/>
+      <c r="O276" s="329"/>
       <c r="P276" s="10"/>
     </row>
     <row r="277" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28965,10 +28965,10 @@
         <v>255</v>
       </c>
       <c r="K277" s="214"/>
-      <c r="L277" s="334"/>
-      <c r="M277" s="334"/>
-      <c r="N277" s="334"/>
-      <c r="O277" s="335"/>
+      <c r="L277" s="328"/>
+      <c r="M277" s="328"/>
+      <c r="N277" s="328"/>
+      <c r="O277" s="329"/>
       <c r="P277" s="10"/>
     </row>
     <row r="278" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -28979,10 +28979,10 @@
       <c r="C278" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D278" s="346" t="s">
+      <c r="D278" s="362" t="s">
         <v>415</v>
       </c>
-      <c r="E278" s="347"/>
+      <c r="E278" s="363"/>
       <c r="F278" s="215"/>
       <c r="G278" s="215"/>
       <c r="H278" s="215" t="s">
@@ -28993,12 +28993,12 @@
       </c>
       <c r="J278" s="215"/>
       <c r="K278" s="215"/>
-      <c r="L278" s="341" t="s">
+      <c r="L278" s="335" t="s">
         <v>416</v>
       </c>
-      <c r="M278" s="341"/>
-      <c r="N278" s="341"/>
-      <c r="O278" s="342"/>
+      <c r="M278" s="335"/>
+      <c r="N278" s="335"/>
+      <c r="O278" s="336"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
@@ -29085,10 +29085,10 @@
       <c r="C283" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D283" s="328" t="s">
+      <c r="D283" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E283" s="329"/>
+      <c r="E283" s="344"/>
       <c r="F283" s="25" t="s">
         <v>31</v>
       </c>
@@ -29107,12 +29107,12 @@
       <c r="K283" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L283" s="330" t="s">
+      <c r="L283" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M283" s="330"/>
-      <c r="N283" s="330"/>
-      <c r="O283" s="331"/>
+      <c r="M283" s="345"/>
+      <c r="N283" s="345"/>
+      <c r="O283" s="346"/>
       <c r="P283" s="10"/>
     </row>
     <row r="284" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29123,10 +29123,10 @@
       <c r="C284" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="D284" s="332" t="s">
+      <c r="D284" s="337" t="s">
         <v>403</v>
       </c>
-      <c r="E284" s="333"/>
+      <c r="E284" s="338"/>
       <c r="F284" s="214"/>
       <c r="G284" s="214"/>
       <c r="H284" s="214" t="s">
@@ -29139,10 +29139,10 @@
         <v>255</v>
       </c>
       <c r="K284" s="214"/>
-      <c r="L284" s="334"/>
-      <c r="M284" s="334"/>
-      <c r="N284" s="334"/>
-      <c r="O284" s="335"/>
+      <c r="L284" s="328"/>
+      <c r="M284" s="328"/>
+      <c r="N284" s="328"/>
+      <c r="O284" s="329"/>
       <c r="P284" s="10"/>
     </row>
     <row r="285" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29153,10 +29153,10 @@
       <c r="C285" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D285" s="332" t="s">
+      <c r="D285" s="337" t="s">
         <v>396</v>
       </c>
-      <c r="E285" s="333"/>
+      <c r="E285" s="338"/>
       <c r="F285" s="214"/>
       <c r="G285" s="214"/>
       <c r="H285" s="214" t="s">
@@ -29169,12 +29169,12 @@
         <v>255</v>
       </c>
       <c r="K285" s="214"/>
-      <c r="L285" s="334" t="s">
+      <c r="L285" s="328" t="s">
         <v>395</v>
       </c>
-      <c r="M285" s="334"/>
-      <c r="N285" s="334"/>
-      <c r="O285" s="335"/>
+      <c r="M285" s="328"/>
+      <c r="N285" s="328"/>
+      <c r="O285" s="329"/>
       <c r="P285" s="10"/>
     </row>
     <row r="286" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29185,10 +29185,10 @@
       <c r="C286" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="D286" s="343" t="s">
+      <c r="D286" s="347" t="s">
         <v>402</v>
       </c>
-      <c r="E286" s="344"/>
+      <c r="E286" s="348"/>
       <c r="F286" s="214"/>
       <c r="G286" s="214"/>
       <c r="H286" s="214" t="s">
@@ -29201,10 +29201,10 @@
         <v>255</v>
       </c>
       <c r="K286" s="214"/>
-      <c r="L286" s="345"/>
-      <c r="M286" s="334"/>
-      <c r="N286" s="334"/>
-      <c r="O286" s="335"/>
+      <c r="L286" s="342"/>
+      <c r="M286" s="328"/>
+      <c r="N286" s="328"/>
+      <c r="O286" s="329"/>
       <c r="P286" s="10"/>
     </row>
     <row r="287" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29215,10 +29215,10 @@
       <c r="C287" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="D287" s="332" t="s">
+      <c r="D287" s="337" t="s">
         <v>401</v>
       </c>
-      <c r="E287" s="333"/>
+      <c r="E287" s="338"/>
       <c r="F287" s="214"/>
       <c r="G287" s="214"/>
       <c r="H287" s="214" t="s">
@@ -29229,12 +29229,12 @@
       </c>
       <c r="J287" s="214"/>
       <c r="K287" s="214"/>
-      <c r="L287" s="334" t="s">
+      <c r="L287" s="328" t="s">
         <v>254</v>
       </c>
-      <c r="M287" s="334"/>
-      <c r="N287" s="334"/>
-      <c r="O287" s="335"/>
+      <c r="M287" s="328"/>
+      <c r="N287" s="328"/>
+      <c r="O287" s="329"/>
       <c r="P287" s="10"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29245,10 +29245,10 @@
       <c r="C288" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="D288" s="332" t="s">
+      <c r="D288" s="337" t="s">
         <v>400</v>
       </c>
-      <c r="E288" s="333"/>
+      <c r="E288" s="338"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214"/>
@@ -29259,30 +29259,30 @@
       <c r="K288" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L288" s="334" t="s">
+      <c r="L288" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M288" s="334"/>
-      <c r="N288" s="334"/>
-      <c r="O288" s="335"/>
+      <c r="M288" s="328"/>
+      <c r="N288" s="328"/>
+      <c r="O288" s="329"/>
       <c r="P288" s="10"/>
     </row>
     <row r="289" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9"/>
       <c r="B289" s="29"/>
       <c r="C289" s="30"/>
-      <c r="D289" s="339"/>
-      <c r="E289" s="340"/>
+      <c r="D289" s="333"/>
+      <c r="E289" s="334"/>
       <c r="F289" s="215"/>
       <c r="G289" s="215"/>
       <c r="H289" s="215"/>
       <c r="I289" s="31"/>
       <c r="J289" s="215"/>
       <c r="K289" s="215"/>
-      <c r="L289" s="341"/>
-      <c r="M289" s="341"/>
-      <c r="N289" s="341"/>
-      <c r="O289" s="342"/>
+      <c r="L289" s="335"/>
+      <c r="M289" s="335"/>
+      <c r="N289" s="335"/>
+      <c r="O289" s="336"/>
       <c r="P289" s="10"/>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
@@ -29341,6 +29341,303 @@
     </row>
   </sheetData>
   <mergeCells count="321">
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="L103:O103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="L107:O107"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="L288:O288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="L289:O289"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="L283:O283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="L284:O284"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="L285:O285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="L286:O286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="L287:O287"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="L276:O276"/>
+    <mergeCell ref="L277:O277"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="L278:O278"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="L265:O265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="L266:O266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="L267:O267"/>
+    <mergeCell ref="L268:O268"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="L269:O269"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="L256:O256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="L257:O257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="L258:O258"/>
+    <mergeCell ref="L259:O259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="L260:O260"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="L200:O200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="L201:O201"/>
+    <mergeCell ref="L210:O210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="L211:O211"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="L203:O203"/>
+    <mergeCell ref="L202:O202"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="L208:O208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="L209:O209"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="L153:O153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="L154:O154"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="L199:O199"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="L191:O191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="L184:O184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="L185:O185"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="L182:O182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="L183:O183"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="L175:O175"/>
+    <mergeCell ref="L176:O176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="L177:O177"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="L156:O156"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="L173:O173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="L174:O174"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="L164:O164"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="L155:O155"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L70:O71"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O57"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="L133:O133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="L120:O120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="L121:O121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="L232:O232"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="L224:O224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="L225:O225"/>
+    <mergeCell ref="L226:O226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="L227:O227"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="L243:O243"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="L250:O250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="L251:O251"/>
     <mergeCell ref="L122:O122"/>
     <mergeCell ref="L123:O123"/>
     <mergeCell ref="D127:E127"/>
@@ -29365,303 +29662,6 @@
     <mergeCell ref="L217:O217"/>
     <mergeCell ref="L218:O218"/>
     <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="L243:O243"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="L250:O250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="L251:O251"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="L232:O232"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="L224:O224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="L225:O225"/>
-    <mergeCell ref="L226:O226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="L227:O227"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="L133:O133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="L112:O112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="L120:O120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="L121:O121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L70:O71"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L56:O57"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:O155"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="L176:O176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="L177:O177"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="L156:O156"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="L173:O173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="L174:O174"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="L153:O153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="L154:O154"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="L199:O199"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="L191:O191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="L184:O184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="L185:O185"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="L182:O182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="L183:O183"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="L175:O175"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="L200:O200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="L201:O201"/>
-    <mergeCell ref="L210:O210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="L211:O211"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="L203:O203"/>
-    <mergeCell ref="L202:O202"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="L208:O208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="L209:O209"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="L256:O256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="L257:O257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="L258:O258"/>
-    <mergeCell ref="L259:O259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="L260:O260"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="L265:O265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="L266:O266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="L267:O267"/>
-    <mergeCell ref="L268:O268"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="L269:O269"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="L276:O276"/>
-    <mergeCell ref="L277:O277"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="L278:O278"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="L288:O288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="L289:O289"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="L283:O283"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="L284:O284"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="L285:O285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="L286:O286"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="L287:O287"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="L103:O103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="L106:O106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="L107:O107"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29736,7 +29736,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -30731,7 +30731,7 @@
       </c>
       <c r="N2" s="280">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="O2" s="281"/>
       <c r="P2" s="61"/>
@@ -32002,7 +32002,7 @@
       </c>
       <c r="AK2" s="280">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="AL2" s="281"/>
       <c r="AM2" s="61"/>
@@ -32519,7 +32519,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -33932,7 +33932,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -39535,7 +39535,7 @@
       </c>
       <c r="S2" s="280">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="T2" s="281"/>
     </row>
@@ -46310,7 +46310,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -48560,7 +48560,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44570.933172800927</v>
+        <v>44571.602518171298</v>
       </c>
       <c r="Q2" s="281"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90977B08-6333-4E4F-BDFB-907134CD8952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918AFE40-0870-4043-8998-5B556A0F993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="32100" windowHeight="19360" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="18840" windowHeight="21100" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -2850,19 +2850,37 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2878,79 +2896,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2958,44 +2910,25 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3033,14 +2966,81 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -20467,7 +20467,7 @@
       <c r="L64" s="261"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20612,7 +20612,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -22059,8 +22059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:P292"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A250" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D286" sqref="D275:E286"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A120" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22123,7 +22123,7 @@
       </c>
       <c r="O2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="P2" s="281"/>
     </row>
@@ -22231,10 +22231,10 @@
       <c r="C8" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="385" t="s">
+      <c r="D8" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="386"/>
+      <c r="E8" s="365"/>
       <c r="F8" s="221" t="s">
         <v>31</v>
       </c>
@@ -22253,12 +22253,12 @@
       <c r="K8" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="387" t="s">
+      <c r="L8" s="366" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="387"/>
-      <c r="N8" s="387"/>
-      <c r="O8" s="388"/>
+      <c r="M8" s="366"/>
+      <c r="N8" s="366"/>
+      <c r="O8" s="367"/>
       <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22269,10 +22269,10 @@
       <c r="C9" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="377" t="s">
+      <c r="D9" s="356" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="378"/>
+      <c r="E9" s="357"/>
       <c r="F9" s="224" t="s">
         <v>191</v>
       </c>
@@ -22287,10 +22287,10 @@
       </c>
       <c r="J9" s="224"/>
       <c r="K9" s="224"/>
-      <c r="L9" s="379"/>
-      <c r="M9" s="379"/>
-      <c r="N9" s="379"/>
-      <c r="O9" s="380"/>
+      <c r="L9" s="358"/>
+      <c r="M9" s="358"/>
+      <c r="N9" s="358"/>
+      <c r="O9" s="359"/>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22301,10 +22301,10 @@
       <c r="C10" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="377" t="s">
+      <c r="D10" s="356" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="378"/>
+      <c r="E10" s="357"/>
       <c r="F10" s="224"/>
       <c r="G10" s="224"/>
       <c r="H10" s="224" t="s">
@@ -22315,12 +22315,12 @@
       </c>
       <c r="J10" s="224"/>
       <c r="K10" s="224"/>
-      <c r="L10" s="379" t="s">
+      <c r="L10" s="358" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="379"/>
-      <c r="N10" s="379"/>
-      <c r="O10" s="380"/>
+      <c r="M10" s="358"/>
+      <c r="N10" s="358"/>
+      <c r="O10" s="359"/>
       <c r="P10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22331,10 +22331,10 @@
       <c r="C11" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="377" t="s">
+      <c r="D11" s="356" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="378"/>
+      <c r="E11" s="357"/>
       <c r="F11" s="224"/>
       <c r="G11" s="224"/>
       <c r="H11" s="224" t="s">
@@ -22345,10 +22345,10 @@
       </c>
       <c r="J11" s="224"/>
       <c r="K11" s="224"/>
-      <c r="L11" s="379"/>
-      <c r="M11" s="379"/>
-      <c r="N11" s="379"/>
-      <c r="O11" s="380"/>
+      <c r="L11" s="358"/>
+      <c r="M11" s="358"/>
+      <c r="N11" s="358"/>
+      <c r="O11" s="359"/>
       <c r="P11" s="110"/>
     </row>
     <row r="12" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -22359,10 +22359,10 @@
       <c r="C12" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="381" t="s">
+      <c r="D12" s="360" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="382"/>
+      <c r="E12" s="361"/>
       <c r="F12" s="228"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
@@ -22371,10 +22371,10 @@
       </c>
       <c r="J12" s="228"/>
       <c r="K12" s="228"/>
-      <c r="L12" s="383"/>
-      <c r="M12" s="383"/>
-      <c r="N12" s="383"/>
-      <c r="O12" s="384"/>
+      <c r="L12" s="362"/>
+      <c r="M12" s="362"/>
+      <c r="N12" s="362"/>
+      <c r="O12" s="363"/>
       <c r="P12" s="110"/>
     </row>
     <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22461,10 +22461,10 @@
       <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="343" t="s">
+      <c r="D17" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="344"/>
+      <c r="E17" s="329"/>
       <c r="F17" s="25" t="s">
         <v>31</v>
       </c>
@@ -22483,12 +22483,12 @@
       <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="345" t="s">
+      <c r="L17" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="345"/>
-      <c r="N17" s="345"/>
-      <c r="O17" s="346"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="331"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22499,10 +22499,10 @@
       <c r="C18" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="337" t="s">
+      <c r="D18" s="332" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="338"/>
+      <c r="E18" s="333"/>
       <c r="F18" s="214"/>
       <c r="G18" s="214"/>
       <c r="H18" s="214" t="s">
@@ -22515,10 +22515,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="214"/>
-      <c r="L18" s="328"/>
-      <c r="M18" s="328"/>
-      <c r="N18" s="328"/>
-      <c r="O18" s="329"/>
+      <c r="L18" s="334"/>
+      <c r="M18" s="334"/>
+      <c r="N18" s="334"/>
+      <c r="O18" s="335"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22529,10 +22529,10 @@
       <c r="C19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="337" t="s">
+      <c r="D19" s="332" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="338"/>
+      <c r="E19" s="333"/>
       <c r="F19" s="214"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214" t="s">
@@ -22545,10 +22545,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="214"/>
-      <c r="L19" s="328"/>
-      <c r="M19" s="328"/>
-      <c r="N19" s="328"/>
-      <c r="O19" s="329"/>
+      <c r="L19" s="334"/>
+      <c r="M19" s="334"/>
+      <c r="N19" s="334"/>
+      <c r="O19" s="335"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -22559,10 +22559,10 @@
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="347" t="s">
+      <c r="D20" s="343" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="348"/>
+      <c r="E20" s="344"/>
       <c r="F20" s="214"/>
       <c r="G20" s="214"/>
       <c r="H20" s="214" t="s">
@@ -22575,12 +22575,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="214"/>
-      <c r="L20" s="342" t="s">
+      <c r="L20" s="345" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="328"/>
-      <c r="N20" s="328"/>
-      <c r="O20" s="329"/>
+      <c r="M20" s="334"/>
+      <c r="N20" s="334"/>
+      <c r="O20" s="335"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22591,10 +22591,10 @@
       <c r="C21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="337" t="s">
+      <c r="D21" s="332" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="338"/>
+      <c r="E21" s="333"/>
       <c r="F21" s="214"/>
       <c r="G21" s="214"/>
       <c r="H21" s="214" t="s">
@@ -22605,12 +22605,12 @@
       </c>
       <c r="J21" s="214"/>
       <c r="K21" s="214"/>
-      <c r="L21" s="328" t="s">
+      <c r="L21" s="334" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="328"/>
-      <c r="N21" s="328"/>
-      <c r="O21" s="329"/>
+      <c r="M21" s="334"/>
+      <c r="N21" s="334"/>
+      <c r="O21" s="335"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22621,10 +22621,10 @@
       <c r="C22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="337" t="s">
+      <c r="D22" s="332" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="338"/>
+      <c r="E22" s="333"/>
       <c r="F22" s="214"/>
       <c r="G22" s="214"/>
       <c r="H22" s="214"/>
@@ -22633,28 +22633,28 @@
       </c>
       <c r="J22" s="214"/>
       <c r="K22" s="214"/>
-      <c r="L22" s="328"/>
-      <c r="M22" s="328"/>
-      <c r="N22" s="328"/>
-      <c r="O22" s="329"/>
+      <c r="L22" s="334"/>
+      <c r="M22" s="334"/>
+      <c r="N22" s="334"/>
+      <c r="O22" s="335"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="333"/>
-      <c r="E23" s="334"/>
+      <c r="D23" s="339"/>
+      <c r="E23" s="340"/>
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
       <c r="I23" s="31"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="335"/>
-      <c r="M23" s="335"/>
-      <c r="N23" s="335"/>
-      <c r="O23" s="336"/>
+      <c r="L23" s="341"/>
+      <c r="M23" s="341"/>
+      <c r="N23" s="341"/>
+      <c r="O23" s="342"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -22759,10 +22759,10 @@
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="343" t="s">
+      <c r="D29" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="344"/>
+      <c r="E29" s="329"/>
       <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
@@ -22781,12 +22781,12 @@
       <c r="K29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="345" t="s">
+      <c r="L29" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="345"/>
-      <c r="N29" s="345"/>
-      <c r="O29" s="346"/>
+      <c r="M29" s="330"/>
+      <c r="N29" s="330"/>
+      <c r="O29" s="331"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22797,10 +22797,10 @@
       <c r="C30" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="337" t="s">
+      <c r="D30" s="332" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="338"/>
+      <c r="E30" s="333"/>
       <c r="F30" s="214"/>
       <c r="G30" s="214"/>
       <c r="H30" s="214" t="s">
@@ -22811,12 +22811,12 @@
       </c>
       <c r="J30" s="214"/>
       <c r="K30" s="214"/>
-      <c r="L30" s="328" t="s">
+      <c r="L30" s="334" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="328"/>
-      <c r="N30" s="328"/>
-      <c r="O30" s="329"/>
+      <c r="M30" s="334"/>
+      <c r="N30" s="334"/>
+      <c r="O30" s="335"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22827,10 +22827,10 @@
       <c r="C31" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="337" t="s">
+      <c r="D31" s="332" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="338"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="214"/>
       <c r="G31" s="214"/>
       <c r="H31" s="214" t="s">
@@ -22841,82 +22841,82 @@
       </c>
       <c r="J31" s="214"/>
       <c r="K31" s="214"/>
-      <c r="L31" s="328"/>
-      <c r="M31" s="328"/>
-      <c r="N31" s="328"/>
-      <c r="O31" s="329"/>
+      <c r="L31" s="334"/>
+      <c r="M31" s="334"/>
+      <c r="N31" s="334"/>
+      <c r="O31" s="335"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="389"/>
-      <c r="E32" s="390"/>
+      <c r="D32" s="350"/>
+      <c r="E32" s="351"/>
       <c r="F32" s="214"/>
       <c r="G32" s="214"/>
       <c r="H32" s="214"/>
       <c r="I32" s="28"/>
       <c r="J32" s="214"/>
       <c r="K32" s="214"/>
-      <c r="L32" s="328"/>
-      <c r="M32" s="328"/>
-      <c r="N32" s="328"/>
-      <c r="O32" s="329"/>
+      <c r="L32" s="334"/>
+      <c r="M32" s="334"/>
+      <c r="N32" s="334"/>
+      <c r="O32" s="335"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="389"/>
-      <c r="E33" s="390"/>
+      <c r="D33" s="350"/>
+      <c r="E33" s="351"/>
       <c r="F33" s="214"/>
       <c r="G33" s="214"/>
       <c r="H33" s="214"/>
       <c r="I33" s="28"/>
       <c r="J33" s="214"/>
       <c r="K33" s="214"/>
-      <c r="L33" s="328"/>
-      <c r="M33" s="328"/>
-      <c r="N33" s="328"/>
-      <c r="O33" s="329"/>
+      <c r="L33" s="334"/>
+      <c r="M33" s="334"/>
+      <c r="N33" s="334"/>
+      <c r="O33" s="335"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="389"/>
-      <c r="E34" s="390"/>
+      <c r="D34" s="350"/>
+      <c r="E34" s="351"/>
       <c r="F34" s="214"/>
       <c r="G34" s="214"/>
       <c r="H34" s="214"/>
       <c r="I34" s="28"/>
       <c r="J34" s="214"/>
       <c r="K34" s="214"/>
-      <c r="L34" s="328"/>
-      <c r="M34" s="328"/>
-      <c r="N34" s="328"/>
-      <c r="O34" s="329"/>
+      <c r="L34" s="334"/>
+      <c r="M34" s="334"/>
+      <c r="N34" s="334"/>
+      <c r="O34" s="335"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="333"/>
-      <c r="E35" s="334"/>
+      <c r="D35" s="339"/>
+      <c r="E35" s="340"/>
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
       <c r="I35" s="31"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="335"/>
-      <c r="M35" s="335"/>
-      <c r="N35" s="335"/>
-      <c r="O35" s="336"/>
+      <c r="L35" s="341"/>
+      <c r="M35" s="341"/>
+      <c r="N35" s="341"/>
+      <c r="O35" s="342"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -23003,10 +23003,10 @@
       <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="343" t="s">
+      <c r="D40" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="344"/>
+      <c r="E40" s="329"/>
       <c r="F40" s="25" t="s">
         <v>31</v>
       </c>
@@ -23025,12 +23025,12 @@
       <c r="K40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="345" t="s">
+      <c r="L40" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="345"/>
-      <c r="N40" s="345"/>
-      <c r="O40" s="346"/>
+      <c r="M40" s="330"/>
+      <c r="N40" s="330"/>
+      <c r="O40" s="331"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23041,10 +23041,10 @@
       <c r="C41" s="257" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="375" t="s">
+      <c r="D41" s="352" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="376"/>
+      <c r="E41" s="353"/>
       <c r="F41" s="258"/>
       <c r="G41" s="258"/>
       <c r="H41" s="258" t="s">
@@ -23055,12 +23055,12 @@
       </c>
       <c r="J41" s="258"/>
       <c r="K41" s="258"/>
-      <c r="L41" s="373" t="s">
+      <c r="L41" s="354" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="373"/>
-      <c r="N41" s="373"/>
-      <c r="O41" s="374"/>
+      <c r="M41" s="354"/>
+      <c r="N41" s="354"/>
+      <c r="O41" s="355"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23071,10 +23071,10 @@
       <c r="C42" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="375" t="s">
+      <c r="D42" s="352" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="376"/>
+      <c r="E42" s="353"/>
       <c r="F42" s="258"/>
       <c r="G42" s="258"/>
       <c r="H42" s="258" t="s">
@@ -23085,10 +23085,10 @@
       </c>
       <c r="J42" s="258"/>
       <c r="K42" s="258"/>
-      <c r="L42" s="373"/>
-      <c r="M42" s="373"/>
-      <c r="N42" s="373"/>
-      <c r="O42" s="374"/>
+      <c r="L42" s="354"/>
+      <c r="M42" s="354"/>
+      <c r="N42" s="354"/>
+      <c r="O42" s="355"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23099,10 +23099,10 @@
       <c r="C43" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="337" t="s">
+      <c r="D43" s="332" t="s">
         <v>224</v>
       </c>
-      <c r="E43" s="338"/>
+      <c r="E43" s="333"/>
       <c r="F43" s="214"/>
       <c r="G43" s="214"/>
       <c r="H43" s="214" t="s">
@@ -23113,10 +23113,10 @@
       </c>
       <c r="J43" s="214"/>
       <c r="K43" s="214"/>
-      <c r="L43" s="328"/>
-      <c r="M43" s="328"/>
-      <c r="N43" s="328"/>
-      <c r="O43" s="329"/>
+      <c r="L43" s="334"/>
+      <c r="M43" s="334"/>
+      <c r="N43" s="334"/>
+      <c r="O43" s="335"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23127,10 +23127,10 @@
       <c r="C44" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="337" t="s">
+      <c r="D44" s="332" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="338"/>
+      <c r="E44" s="333"/>
       <c r="F44" s="214"/>
       <c r="G44" s="214"/>
       <c r="H44" s="214" t="s">
@@ -23141,10 +23141,10 @@
       </c>
       <c r="J44" s="214"/>
       <c r="K44" s="214"/>
-      <c r="L44" s="328"/>
-      <c r="M44" s="328"/>
-      <c r="N44" s="328"/>
-      <c r="O44" s="329"/>
+      <c r="L44" s="334"/>
+      <c r="M44" s="334"/>
+      <c r="N44" s="334"/>
+      <c r="O44" s="335"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23155,10 +23155,10 @@
       <c r="C45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="337" t="s">
+      <c r="D45" s="332" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="338"/>
+      <c r="E45" s="333"/>
       <c r="F45" s="214"/>
       <c r="G45" s="214"/>
       <c r="H45" s="214" t="s">
@@ -23171,12 +23171,12 @@
       <c r="K45" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="328" t="s">
+      <c r="L45" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="M45" s="328"/>
-      <c r="N45" s="328"/>
-      <c r="O45" s="329"/>
+      <c r="M45" s="334"/>
+      <c r="N45" s="334"/>
+      <c r="O45" s="335"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23201,28 +23201,28 @@
       </c>
       <c r="J46" s="237"/>
       <c r="K46" s="237"/>
-      <c r="L46" s="328"/>
-      <c r="M46" s="328"/>
-      <c r="N46" s="328"/>
-      <c r="O46" s="329"/>
+      <c r="L46" s="334"/>
+      <c r="M46" s="334"/>
+      <c r="N46" s="334"/>
+      <c r="O46" s="335"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="333"/>
-      <c r="E47" s="334"/>
+      <c r="D47" s="339"/>
+      <c r="E47" s="340"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
       <c r="H47" s="215"/>
       <c r="I47" s="31"/>
       <c r="J47" s="215"/>
       <c r="K47" s="215"/>
-      <c r="L47" s="335"/>
-      <c r="M47" s="335"/>
-      <c r="N47" s="335"/>
-      <c r="O47" s="336"/>
+      <c r="L47" s="341"/>
+      <c r="M47" s="341"/>
+      <c r="N47" s="341"/>
+      <c r="O47" s="342"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -23309,10 +23309,10 @@
       <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="343" t="s">
+      <c r="D52" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="344"/>
+      <c r="E52" s="329"/>
       <c r="F52" s="25" t="s">
         <v>31</v>
       </c>
@@ -23331,12 +23331,12 @@
       <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="345" t="s">
+      <c r="L52" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="345"/>
-      <c r="N52" s="345"/>
-      <c r="O52" s="346"/>
+      <c r="M52" s="330"/>
+      <c r="N52" s="330"/>
+      <c r="O52" s="331"/>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23347,10 +23347,10 @@
       <c r="C53" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="337" t="s">
+      <c r="D53" s="332" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="338"/>
+      <c r="E53" s="333"/>
       <c r="F53" s="214"/>
       <c r="G53" s="214"/>
       <c r="H53" s="214" t="s">
@@ -23363,12 +23363,12 @@
       <c r="K53" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="328" t="s">
+      <c r="L53" s="334" t="s">
         <v>329</v>
       </c>
-      <c r="M53" s="328"/>
-      <c r="N53" s="328"/>
-      <c r="O53" s="329"/>
+      <c r="M53" s="334"/>
+      <c r="N53" s="334"/>
+      <c r="O53" s="335"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23393,12 +23393,12 @@
       </c>
       <c r="J54" s="214"/>
       <c r="K54" s="214"/>
-      <c r="L54" s="330" t="s">
+      <c r="L54" s="371" t="s">
         <v>246</v>
       </c>
-      <c r="M54" s="331"/>
-      <c r="N54" s="331"/>
-      <c r="O54" s="332"/>
+      <c r="M54" s="372"/>
+      <c r="N54" s="372"/>
+      <c r="O54" s="373"/>
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23423,12 +23423,12 @@
       </c>
       <c r="J55" s="214"/>
       <c r="K55" s="214"/>
-      <c r="L55" s="351" t="s">
+      <c r="L55" s="377" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="352"/>
-      <c r="N55" s="352"/>
-      <c r="O55" s="353"/>
+      <c r="M55" s="378"/>
+      <c r="N55" s="378"/>
+      <c r="O55" s="379"/>
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23451,12 +23451,12 @@
       </c>
       <c r="J56" s="214"/>
       <c r="K56" s="214"/>
-      <c r="L56" s="367" t="s">
+      <c r="L56" s="368" t="s">
         <v>243</v>
       </c>
-      <c r="M56" s="368"/>
-      <c r="N56" s="368"/>
-      <c r="O56" s="369"/>
+      <c r="M56" s="369"/>
+      <c r="N56" s="369"/>
+      <c r="O56" s="370"/>
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23479,10 +23479,10 @@
       </c>
       <c r="J57" s="214"/>
       <c r="K57" s="214"/>
-      <c r="L57" s="370"/>
-      <c r="M57" s="371"/>
-      <c r="N57" s="371"/>
-      <c r="O57" s="372"/>
+      <c r="L57" s="374"/>
+      <c r="M57" s="375"/>
+      <c r="N57" s="375"/>
+      <c r="O57" s="376"/>
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -23493,10 +23493,10 @@
       <c r="C58" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="347" t="s">
+      <c r="D58" s="343" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="348"/>
+      <c r="E58" s="344"/>
       <c r="F58" s="214"/>
       <c r="G58" s="214"/>
       <c r="H58" s="214" t="s">
@@ -23507,12 +23507,12 @@
       </c>
       <c r="J58" s="214"/>
       <c r="K58" s="214"/>
-      <c r="L58" s="342" t="s">
+      <c r="L58" s="345" t="s">
         <v>409</v>
       </c>
-      <c r="M58" s="328"/>
-      <c r="N58" s="328"/>
-      <c r="O58" s="329"/>
+      <c r="M58" s="334"/>
+      <c r="N58" s="334"/>
+      <c r="O58" s="335"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23523,10 +23523,10 @@
       <c r="C59" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="337" t="s">
+      <c r="D59" s="332" t="s">
         <v>228</v>
       </c>
-      <c r="E59" s="338"/>
+      <c r="E59" s="333"/>
       <c r="F59" s="214"/>
       <c r="G59" s="214"/>
       <c r="H59" s="214" t="s">
@@ -23537,10 +23537,10 @@
       </c>
       <c r="J59" s="214"/>
       <c r="K59" s="214"/>
-      <c r="L59" s="328"/>
-      <c r="M59" s="328"/>
-      <c r="N59" s="328"/>
-      <c r="O59" s="329"/>
+      <c r="L59" s="334"/>
+      <c r="M59" s="334"/>
+      <c r="N59" s="334"/>
+      <c r="O59" s="335"/>
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23551,10 +23551,10 @@
       <c r="C60" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D60" s="337" t="s">
+      <c r="D60" s="332" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="338"/>
+      <c r="E60" s="333"/>
       <c r="F60" s="214"/>
       <c r="G60" s="214"/>
       <c r="H60" s="214" t="s">
@@ -23567,30 +23567,30 @@
       <c r="K60" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L60" s="328" t="s">
+      <c r="L60" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="M60" s="328"/>
-      <c r="N60" s="328"/>
-      <c r="O60" s="329"/>
+      <c r="M60" s="334"/>
+      <c r="N60" s="334"/>
+      <c r="O60" s="335"/>
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="333"/>
-      <c r="E61" s="334"/>
+      <c r="D61" s="339"/>
+      <c r="E61" s="340"/>
       <c r="F61" s="215"/>
       <c r="G61" s="215"/>
       <c r="H61" s="215"/>
       <c r="I61" s="31"/>
       <c r="J61" s="215"/>
       <c r="K61" s="215"/>
-      <c r="L61" s="335"/>
-      <c r="M61" s="335"/>
-      <c r="N61" s="335"/>
-      <c r="O61" s="336"/>
+      <c r="L61" s="341"/>
+      <c r="M61" s="341"/>
+      <c r="N61" s="341"/>
+      <c r="O61" s="342"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -23677,10 +23677,10 @@
       <c r="C66" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="343" t="s">
+      <c r="D66" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="344"/>
+      <c r="E66" s="329"/>
       <c r="F66" s="25" t="s">
         <v>31</v>
       </c>
@@ -23699,12 +23699,12 @@
       <c r="K66" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L66" s="345" t="s">
+      <c r="L66" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="345"/>
-      <c r="N66" s="345"/>
-      <c r="O66" s="346"/>
+      <c r="M66" s="330"/>
+      <c r="N66" s="330"/>
+      <c r="O66" s="331"/>
       <c r="P66" s="10"/>
     </row>
     <row r="67" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23715,10 +23715,10 @@
       <c r="C67" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D67" s="337" t="s">
+      <c r="D67" s="332" t="s">
         <v>267</v>
       </c>
-      <c r="E67" s="338"/>
+      <c r="E67" s="333"/>
       <c r="F67" s="214"/>
       <c r="G67" s="214"/>
       <c r="H67" s="214" t="s">
@@ -23731,12 +23731,12 @@
       <c r="K67" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L67" s="328" t="s">
+      <c r="L67" s="334" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="328"/>
-      <c r="N67" s="328"/>
-      <c r="O67" s="329"/>
+      <c r="M67" s="334"/>
+      <c r="N67" s="334"/>
+      <c r="O67" s="335"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23747,10 +23747,10 @@
       <c r="C68" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="337" t="s">
+      <c r="D68" s="332" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="338"/>
+      <c r="E68" s="333"/>
       <c r="F68" s="214"/>
       <c r="G68" s="214"/>
       <c r="H68" s="214" t="s">
@@ -23761,10 +23761,10 @@
       </c>
       <c r="J68" s="214"/>
       <c r="K68" s="214"/>
-      <c r="L68" s="328"/>
-      <c r="M68" s="328"/>
-      <c r="N68" s="328"/>
-      <c r="O68" s="329"/>
+      <c r="L68" s="334"/>
+      <c r="M68" s="334"/>
+      <c r="N68" s="334"/>
+      <c r="O68" s="335"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23775,10 +23775,10 @@
       <c r="C69" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D69" s="337" t="s">
+      <c r="D69" s="332" t="s">
         <v>249</v>
       </c>
-      <c r="E69" s="338"/>
+      <c r="E69" s="333"/>
       <c r="F69" s="214"/>
       <c r="G69" s="214"/>
       <c r="H69" s="214" t="s">
@@ -23789,10 +23789,10 @@
       </c>
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
-      <c r="L69" s="328"/>
-      <c r="M69" s="328"/>
-      <c r="N69" s="328"/>
-      <c r="O69" s="329"/>
+      <c r="L69" s="334"/>
+      <c r="M69" s="334"/>
+      <c r="N69" s="334"/>
+      <c r="O69" s="335"/>
       <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23815,12 +23815,12 @@
       </c>
       <c r="J70" s="214"/>
       <c r="K70" s="214"/>
-      <c r="L70" s="367" t="s">
+      <c r="L70" s="368" t="s">
         <v>243</v>
       </c>
-      <c r="M70" s="368"/>
-      <c r="N70" s="368"/>
-      <c r="O70" s="369"/>
+      <c r="M70" s="369"/>
+      <c r="N70" s="369"/>
+      <c r="O70" s="370"/>
       <c r="P70" s="10"/>
     </row>
     <row r="71" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23843,10 +23843,10 @@
       </c>
       <c r="J71" s="214"/>
       <c r="K71" s="214"/>
-      <c r="L71" s="370"/>
-      <c r="M71" s="371"/>
-      <c r="N71" s="371"/>
-      <c r="O71" s="372"/>
+      <c r="L71" s="374"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="375"/>
+      <c r="O71" s="376"/>
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23857,10 +23857,10 @@
       <c r="C72" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D72" s="337" t="s">
+      <c r="D72" s="332" t="s">
         <v>250</v>
       </c>
-      <c r="E72" s="338"/>
+      <c r="E72" s="333"/>
       <c r="F72" s="214"/>
       <c r="G72" s="214"/>
       <c r="H72" s="214"/>
@@ -23871,28 +23871,28 @@
         <v>255</v>
       </c>
       <c r="K72" s="214"/>
-      <c r="L72" s="342"/>
-      <c r="M72" s="328"/>
-      <c r="N72" s="328"/>
-      <c r="O72" s="329"/>
+      <c r="L72" s="345"/>
+      <c r="M72" s="334"/>
+      <c r="N72" s="334"/>
+      <c r="O72" s="335"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="29"/>
       <c r="C73" s="30"/>
-      <c r="D73" s="333"/>
-      <c r="E73" s="334"/>
+      <c r="D73" s="339"/>
+      <c r="E73" s="340"/>
       <c r="F73" s="215"/>
       <c r="G73" s="215"/>
       <c r="H73" s="215"/>
       <c r="I73" s="31"/>
       <c r="J73" s="215"/>
       <c r="K73" s="215"/>
-      <c r="L73" s="335"/>
-      <c r="M73" s="335"/>
-      <c r="N73" s="335"/>
-      <c r="O73" s="336"/>
+      <c r="L73" s="341"/>
+      <c r="M73" s="341"/>
+      <c r="N73" s="341"/>
+      <c r="O73" s="342"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -23979,10 +23979,10 @@
       <c r="C78" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="343" t="s">
+      <c r="D78" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="344"/>
+      <c r="E78" s="329"/>
       <c r="F78" s="25" t="s">
         <v>31</v>
       </c>
@@ -24001,12 +24001,12 @@
       <c r="K78" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="345" t="s">
+      <c r="L78" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M78" s="345"/>
-      <c r="N78" s="345"/>
-      <c r="O78" s="346"/>
+      <c r="M78" s="330"/>
+      <c r="N78" s="330"/>
+      <c r="O78" s="331"/>
       <c r="P78" s="10"/>
     </row>
     <row r="79" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24017,10 +24017,10 @@
       <c r="C79" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="337" t="s">
+      <c r="D79" s="332" t="s">
         <v>218</v>
       </c>
-      <c r="E79" s="338"/>
+      <c r="E79" s="333"/>
       <c r="F79" s="214"/>
       <c r="G79" s="214"/>
       <c r="H79" s="214" t="s">
@@ -24033,12 +24033,12 @@
       <c r="K79" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L79" s="328" t="s">
+      <c r="L79" s="334" t="s">
         <v>329</v>
       </c>
-      <c r="M79" s="328"/>
-      <c r="N79" s="328"/>
-      <c r="O79" s="329"/>
+      <c r="M79" s="334"/>
+      <c r="N79" s="334"/>
+      <c r="O79" s="335"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24049,10 +24049,10 @@
       <c r="C80" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="337" t="s">
+      <c r="D80" s="332" t="s">
         <v>259</v>
       </c>
-      <c r="E80" s="338"/>
+      <c r="E80" s="333"/>
       <c r="F80" s="214"/>
       <c r="G80" s="214"/>
       <c r="H80" s="214" t="s">
@@ -24063,10 +24063,10 @@
       </c>
       <c r="J80" s="214"/>
       <c r="K80" s="214"/>
-      <c r="L80" s="328"/>
-      <c r="M80" s="328"/>
-      <c r="N80" s="328"/>
-      <c r="O80" s="329"/>
+      <c r="L80" s="334"/>
+      <c r="M80" s="334"/>
+      <c r="N80" s="334"/>
+      <c r="O80" s="335"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24077,10 +24077,10 @@
       <c r="C81" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="337" t="s">
+      <c r="D81" s="332" t="s">
         <v>260</v>
       </c>
-      <c r="E81" s="338"/>
+      <c r="E81" s="333"/>
       <c r="F81" s="214"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214" t="s">
@@ -24093,12 +24093,12 @@
       <c r="K81" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L81" s="367" t="s">
+      <c r="L81" s="368" t="s">
         <v>410</v>
       </c>
-      <c r="M81" s="368"/>
-      <c r="N81" s="368"/>
-      <c r="O81" s="369"/>
+      <c r="M81" s="369"/>
+      <c r="N81" s="369"/>
+      <c r="O81" s="370"/>
       <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24109,10 +24109,10 @@
       <c r="C82" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D82" s="337" t="s">
+      <c r="D82" s="332" t="s">
         <v>261</v>
       </c>
-      <c r="E82" s="338"/>
+      <c r="E82" s="333"/>
       <c r="F82" s="214"/>
       <c r="G82" s="214"/>
       <c r="H82" s="214" t="s">
@@ -24123,10 +24123,10 @@
       </c>
       <c r="J82" s="214"/>
       <c r="K82" s="241"/>
-      <c r="L82" s="328"/>
-      <c r="M82" s="328"/>
-      <c r="N82" s="328"/>
-      <c r="O82" s="329"/>
+      <c r="L82" s="334"/>
+      <c r="M82" s="334"/>
+      <c r="N82" s="334"/>
+      <c r="O82" s="335"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24137,10 +24137,10 @@
       <c r="C83" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="337" t="s">
+      <c r="D83" s="332" t="s">
         <v>262</v>
       </c>
-      <c r="E83" s="338"/>
+      <c r="E83" s="333"/>
       <c r="F83" s="214"/>
       <c r="G83" s="214"/>
       <c r="H83" s="214" t="s">
@@ -24151,12 +24151,12 @@
       </c>
       <c r="J83" s="214"/>
       <c r="K83" s="241"/>
-      <c r="L83" s="328" t="s">
+      <c r="L83" s="334" t="s">
         <v>360</v>
       </c>
-      <c r="M83" s="328"/>
-      <c r="N83" s="328"/>
-      <c r="O83" s="329"/>
+      <c r="M83" s="334"/>
+      <c r="N83" s="334"/>
+      <c r="O83" s="335"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24167,10 +24167,10 @@
       <c r="C84" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="337" t="s">
+      <c r="D84" s="332" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="338"/>
+      <c r="E84" s="333"/>
       <c r="F84" s="214"/>
       <c r="G84" s="214"/>
       <c r="H84" s="214" t="s">
@@ -24181,12 +24181,12 @@
       </c>
       <c r="J84" s="214"/>
       <c r="K84" s="241"/>
-      <c r="L84" s="328" t="s">
+      <c r="L84" s="334" t="s">
         <v>254</v>
       </c>
-      <c r="M84" s="328"/>
-      <c r="N84" s="328"/>
-      <c r="O84" s="329"/>
+      <c r="M84" s="334"/>
+      <c r="N84" s="334"/>
+      <c r="O84" s="335"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24197,10 +24197,10 @@
       <c r="C85" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D85" s="337" t="s">
+      <c r="D85" s="332" t="s">
         <v>264</v>
       </c>
-      <c r="E85" s="338"/>
+      <c r="E85" s="333"/>
       <c r="F85" s="214"/>
       <c r="G85" s="214"/>
       <c r="H85" s="214" t="s">
@@ -24213,48 +24213,48 @@
       <c r="K85" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L85" s="364" t="s">
+      <c r="L85" s="336" t="s">
         <v>270</v>
       </c>
-      <c r="M85" s="365"/>
-      <c r="N85" s="365"/>
-      <c r="O85" s="366"/>
+      <c r="M85" s="337"/>
+      <c r="N85" s="337"/>
+      <c r="O85" s="338"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="26"/>
       <c r="C86" s="27"/>
-      <c r="D86" s="337"/>
-      <c r="E86" s="338"/>
+      <c r="D86" s="332"/>
+      <c r="E86" s="333"/>
       <c r="F86" s="214"/>
       <c r="G86" s="214"/>
       <c r="H86" s="214"/>
       <c r="I86" s="28"/>
       <c r="J86" s="214"/>
       <c r="K86" s="214"/>
-      <c r="L86" s="328"/>
-      <c r="M86" s="328"/>
-      <c r="N86" s="328"/>
-      <c r="O86" s="329"/>
+      <c r="L86" s="334"/>
+      <c r="M86" s="334"/>
+      <c r="N86" s="334"/>
+      <c r="O86" s="335"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="29"/>
       <c r="C87" s="30"/>
-      <c r="D87" s="333"/>
-      <c r="E87" s="334"/>
+      <c r="D87" s="339"/>
+      <c r="E87" s="340"/>
       <c r="F87" s="215"/>
       <c r="G87" s="215"/>
       <c r="H87" s="215"/>
       <c r="I87" s="31"/>
       <c r="J87" s="215"/>
       <c r="K87" s="215"/>
-      <c r="L87" s="335"/>
-      <c r="M87" s="335"/>
-      <c r="N87" s="335"/>
-      <c r="O87" s="336"/>
+      <c r="L87" s="341"/>
+      <c r="M87" s="341"/>
+      <c r="N87" s="341"/>
+      <c r="O87" s="342"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24341,10 +24341,10 @@
       <c r="C92" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D92" s="343" t="s">
+      <c r="D92" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="344"/>
+      <c r="E92" s="329"/>
       <c r="F92" s="25" t="s">
         <v>31</v>
       </c>
@@ -24363,12 +24363,12 @@
       <c r="K92" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L92" s="345" t="s">
+      <c r="L92" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="345"/>
-      <c r="N92" s="345"/>
-      <c r="O92" s="346"/>
+      <c r="M92" s="330"/>
+      <c r="N92" s="330"/>
+      <c r="O92" s="331"/>
       <c r="P92" s="10"/>
     </row>
     <row r="93" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24379,10 +24379,10 @@
       <c r="C93" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="337" t="s">
+      <c r="D93" s="332" t="s">
         <v>269</v>
       </c>
-      <c r="E93" s="338"/>
+      <c r="E93" s="333"/>
       <c r="F93" s="214"/>
       <c r="G93" s="214"/>
       <c r="H93" s="214" t="s">
@@ -24395,12 +24395,12 @@
       <c r="K93" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L93" s="328" t="s">
+      <c r="L93" s="334" t="s">
         <v>265</v>
       </c>
-      <c r="M93" s="328"/>
-      <c r="N93" s="328"/>
-      <c r="O93" s="329"/>
+      <c r="M93" s="334"/>
+      <c r="N93" s="334"/>
+      <c r="O93" s="335"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24411,10 +24411,10 @@
       <c r="C94" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D94" s="337" t="s">
+      <c r="D94" s="332" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="338"/>
+      <c r="E94" s="333"/>
       <c r="F94" s="214"/>
       <c r="G94" s="214"/>
       <c r="H94" s="214" t="s">
@@ -24427,12 +24427,12 @@
       <c r="K94" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L94" s="364" t="s">
+      <c r="L94" s="336" t="s">
         <v>270</v>
       </c>
-      <c r="M94" s="365"/>
-      <c r="N94" s="365"/>
-      <c r="O94" s="366"/>
+      <c r="M94" s="337"/>
+      <c r="N94" s="337"/>
+      <c r="O94" s="338"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24443,10 +24443,10 @@
       <c r="C95" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D95" s="337" t="s">
+      <c r="D95" s="332" t="s">
         <v>271</v>
       </c>
-      <c r="E95" s="338"/>
+      <c r="E95" s="333"/>
       <c r="F95" s="214"/>
       <c r="G95" s="214"/>
       <c r="H95" s="214" t="s">
@@ -24457,10 +24457,10 @@
       </c>
       <c r="J95" s="214"/>
       <c r="K95" s="214"/>
-      <c r="L95" s="367"/>
-      <c r="M95" s="368"/>
-      <c r="N95" s="368"/>
-      <c r="O95" s="369"/>
+      <c r="L95" s="368"/>
+      <c r="M95" s="369"/>
+      <c r="N95" s="369"/>
+      <c r="O95" s="370"/>
       <c r="P95" s="10"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24471,10 +24471,10 @@
       <c r="C96" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D96" s="337" t="s">
+      <c r="D96" s="332" t="s">
         <v>272</v>
       </c>
-      <c r="E96" s="338"/>
+      <c r="E96" s="333"/>
       <c r="F96" s="214"/>
       <c r="G96" s="214"/>
       <c r="H96" s="214" t="s">
@@ -24485,10 +24485,10 @@
       </c>
       <c r="J96" s="214"/>
       <c r="K96" s="241"/>
-      <c r="L96" s="328"/>
-      <c r="M96" s="328"/>
-      <c r="N96" s="328"/>
-      <c r="O96" s="329"/>
+      <c r="L96" s="334"/>
+      <c r="M96" s="334"/>
+      <c r="N96" s="334"/>
+      <c r="O96" s="335"/>
       <c r="P96" s="10"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24499,10 +24499,10 @@
       <c r="C97" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D97" s="337" t="s">
+      <c r="D97" s="332" t="s">
         <v>311</v>
       </c>
-      <c r="E97" s="338"/>
+      <c r="E97" s="333"/>
       <c r="F97" s="214"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214"/>
@@ -24513,28 +24513,28 @@
         <v>255</v>
       </c>
       <c r="K97" s="241"/>
-      <c r="L97" s="328"/>
-      <c r="M97" s="328"/>
-      <c r="N97" s="328"/>
-      <c r="O97" s="329"/>
+      <c r="L97" s="334"/>
+      <c r="M97" s="334"/>
+      <c r="N97" s="334"/>
+      <c r="O97" s="335"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="29"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="362"/>
-      <c r="E98" s="363"/>
+      <c r="D98" s="346"/>
+      <c r="E98" s="347"/>
       <c r="F98" s="215"/>
       <c r="G98" s="215"/>
       <c r="H98" s="215"/>
       <c r="I98" s="31"/>
       <c r="J98" s="215"/>
       <c r="K98" s="215"/>
-      <c r="L98" s="335"/>
-      <c r="M98" s="335"/>
-      <c r="N98" s="335"/>
-      <c r="O98" s="336"/>
+      <c r="L98" s="341"/>
+      <c r="M98" s="341"/>
+      <c r="N98" s="341"/>
+      <c r="O98" s="342"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24621,10 +24621,10 @@
       <c r="C103" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="343" t="s">
+      <c r="D103" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="344"/>
+      <c r="E103" s="329"/>
       <c r="F103" s="25" t="s">
         <v>31</v>
       </c>
@@ -24643,12 +24643,12 @@
       <c r="K103" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L103" s="345" t="s">
+      <c r="L103" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M103" s="345"/>
-      <c r="N103" s="345"/>
-      <c r="O103" s="346"/>
+      <c r="M103" s="330"/>
+      <c r="N103" s="330"/>
+      <c r="O103" s="331"/>
       <c r="P103" s="10"/>
     </row>
     <row r="104" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24659,10 +24659,10 @@
       <c r="C104" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D104" s="337" t="s">
+      <c r="D104" s="332" t="s">
         <v>218</v>
       </c>
-      <c r="E104" s="338"/>
+      <c r="E104" s="333"/>
       <c r="F104" s="214"/>
       <c r="G104" s="214"/>
       <c r="H104" s="214" t="s">
@@ -24675,12 +24675,12 @@
       <c r="K104" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L104" s="328" t="s">
+      <c r="L104" s="334" t="s">
         <v>329</v>
       </c>
-      <c r="M104" s="328"/>
-      <c r="N104" s="328"/>
-      <c r="O104" s="329"/>
+      <c r="M104" s="334"/>
+      <c r="N104" s="334"/>
+      <c r="O104" s="335"/>
       <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24691,10 +24691,10 @@
       <c r="C105" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="337" t="s">
+      <c r="D105" s="332" t="s">
         <v>406</v>
       </c>
-      <c r="E105" s="338"/>
+      <c r="E105" s="333"/>
       <c r="F105" s="214"/>
       <c r="G105" s="214"/>
       <c r="H105" s="214" t="s">
@@ -24705,10 +24705,10 @@
       </c>
       <c r="J105" s="214"/>
       <c r="K105" s="214"/>
-      <c r="L105" s="328"/>
-      <c r="M105" s="328"/>
-      <c r="N105" s="328"/>
-      <c r="O105" s="329"/>
+      <c r="L105" s="334"/>
+      <c r="M105" s="334"/>
+      <c r="N105" s="334"/>
+      <c r="O105" s="335"/>
       <c r="P105" s="10"/>
     </row>
     <row r="106" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24733,30 +24733,30 @@
       </c>
       <c r="J106" s="237"/>
       <c r="K106" s="237"/>
-      <c r="L106" s="364" t="s">
+      <c r="L106" s="336" t="s">
         <v>270</v>
       </c>
-      <c r="M106" s="365"/>
-      <c r="N106" s="365"/>
-      <c r="O106" s="366"/>
+      <c r="M106" s="337"/>
+      <c r="N106" s="337"/>
+      <c r="O106" s="338"/>
       <c r="P106" s="10"/>
     </row>
     <row r="107" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="29"/>
       <c r="C107" s="30"/>
-      <c r="D107" s="333"/>
-      <c r="E107" s="334"/>
+      <c r="D107" s="339"/>
+      <c r="E107" s="340"/>
       <c r="F107" s="215"/>
       <c r="G107" s="215"/>
       <c r="H107" s="215"/>
       <c r="I107" s="31"/>
       <c r="J107" s="215"/>
       <c r="K107" s="215"/>
-      <c r="L107" s="335"/>
-      <c r="M107" s="335"/>
-      <c r="N107" s="335"/>
-      <c r="O107" s="336"/>
+      <c r="L107" s="341"/>
+      <c r="M107" s="341"/>
+      <c r="N107" s="341"/>
+      <c r="O107" s="342"/>
       <c r="P107" s="10"/>
     </row>
     <row r="108" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24843,10 +24843,10 @@
       <c r="C112" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="343" t="s">
+      <c r="D112" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="344"/>
+      <c r="E112" s="329"/>
       <c r="F112" s="25" t="s">
         <v>31</v>
       </c>
@@ -24865,12 +24865,12 @@
       <c r="K112" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L112" s="345" t="s">
+      <c r="L112" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M112" s="345"/>
-      <c r="N112" s="345"/>
-      <c r="O112" s="346"/>
+      <c r="M112" s="330"/>
+      <c r="N112" s="330"/>
+      <c r="O112" s="331"/>
       <c r="P112" s="10"/>
     </row>
     <row r="113" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24881,10 +24881,10 @@
       <c r="C113" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="337" t="s">
+      <c r="D113" s="332" t="s">
         <v>269</v>
       </c>
-      <c r="E113" s="338"/>
+      <c r="E113" s="333"/>
       <c r="F113" s="214"/>
       <c r="G113" s="214"/>
       <c r="H113" s="214" t="s">
@@ -24897,12 +24897,12 @@
       <c r="K113" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L113" s="328" t="s">
+      <c r="L113" s="334" t="s">
         <v>265</v>
       </c>
-      <c r="M113" s="328"/>
-      <c r="N113" s="328"/>
-      <c r="O113" s="329"/>
+      <c r="M113" s="334"/>
+      <c r="N113" s="334"/>
+      <c r="O113" s="335"/>
       <c r="P113" s="10"/>
     </row>
     <row r="114" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24913,10 +24913,10 @@
       <c r="C114" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="D114" s="337" t="s">
+      <c r="D114" s="332" t="s">
         <v>245</v>
       </c>
-      <c r="E114" s="338"/>
+      <c r="E114" s="333"/>
       <c r="F114" s="214"/>
       <c r="G114" s="214"/>
       <c r="H114" s="214" t="s">
@@ -24927,12 +24927,12 @@
       </c>
       <c r="J114" s="214"/>
       <c r="K114" s="214"/>
-      <c r="L114" s="328" t="s">
+      <c r="L114" s="334" t="s">
         <v>346</v>
       </c>
-      <c r="M114" s="328"/>
-      <c r="N114" s="328"/>
-      <c r="O114" s="329"/>
+      <c r="M114" s="334"/>
+      <c r="N114" s="334"/>
+      <c r="O114" s="335"/>
       <c r="P114" s="10"/>
     </row>
     <row r="115" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24957,28 +24957,28 @@
       </c>
       <c r="J115" s="237"/>
       <c r="K115" s="237"/>
-      <c r="L115" s="339"/>
-      <c r="M115" s="340"/>
-      <c r="N115" s="340"/>
-      <c r="O115" s="341"/>
+      <c r="L115" s="385"/>
+      <c r="M115" s="386"/>
+      <c r="N115" s="386"/>
+      <c r="O115" s="387"/>
       <c r="P115" s="10"/>
     </row>
     <row r="116" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="29"/>
       <c r="C116" s="30"/>
-      <c r="D116" s="333"/>
-      <c r="E116" s="334"/>
+      <c r="D116" s="339"/>
+      <c r="E116" s="340"/>
       <c r="F116" s="215"/>
       <c r="G116" s="215"/>
       <c r="H116" s="215"/>
       <c r="I116" s="31"/>
       <c r="J116" s="215"/>
       <c r="K116" s="215"/>
-      <c r="L116" s="335"/>
-      <c r="M116" s="335"/>
-      <c r="N116" s="335"/>
-      <c r="O116" s="336"/>
+      <c r="L116" s="341"/>
+      <c r="M116" s="341"/>
+      <c r="N116" s="341"/>
+      <c r="O116" s="342"/>
       <c r="P116" s="10"/>
     </row>
     <row r="117" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25047,10 +25047,10 @@
       <c r="C120" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="343" t="s">
+      <c r="D120" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E120" s="344"/>
+      <c r="E120" s="329"/>
       <c r="F120" s="25" t="s">
         <v>31</v>
       </c>
@@ -25069,12 +25069,12 @@
       <c r="K120" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L120" s="345" t="s">
+      <c r="L120" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M120" s="345"/>
-      <c r="N120" s="345"/>
-      <c r="O120" s="346"/>
+      <c r="M120" s="330"/>
+      <c r="N120" s="330"/>
+      <c r="O120" s="331"/>
       <c r="P120" s="10"/>
     </row>
     <row r="121" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25085,10 +25085,10 @@
       <c r="C121" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D121" s="337" t="s">
+      <c r="D121" s="332" t="s">
         <v>302</v>
       </c>
-      <c r="E121" s="338"/>
+      <c r="E121" s="333"/>
       <c r="F121" s="214" t="s">
         <v>191</v>
       </c>
@@ -25103,10 +25103,10 @@
         <v>128</v>
       </c>
       <c r="K121" s="214"/>
-      <c r="L121" s="364"/>
-      <c r="M121" s="365"/>
-      <c r="N121" s="365"/>
-      <c r="O121" s="366"/>
+      <c r="L121" s="336"/>
+      <c r="M121" s="337"/>
+      <c r="N121" s="337"/>
+      <c r="O121" s="338"/>
       <c r="P121" s="10"/>
     </row>
     <row r="122" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25117,10 +25117,10 @@
       <c r="C122" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D122" s="337" t="s">
+      <c r="D122" s="332" t="s">
         <v>185</v>
       </c>
-      <c r="E122" s="338"/>
+      <c r="E122" s="333"/>
       <c r="F122" s="214"/>
       <c r="G122" s="214"/>
       <c r="H122" s="214" t="s">
@@ -25129,14 +25129,16 @@
       <c r="I122" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J122" s="214"/>
+      <c r="J122" s="214">
+        <v>128</v>
+      </c>
       <c r="K122" s="214">
         <v>128</v>
       </c>
-      <c r="L122" s="328"/>
-      <c r="M122" s="328"/>
-      <c r="N122" s="328"/>
-      <c r="O122" s="329"/>
+      <c r="L122" s="334"/>
+      <c r="M122" s="334"/>
+      <c r="N122" s="334"/>
+      <c r="O122" s="335"/>
       <c r="P122" s="10"/>
     </row>
     <row r="123" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25161,12 +25163,12 @@
       </c>
       <c r="J123" s="237"/>
       <c r="K123" s="237"/>
-      <c r="L123" s="330" t="s">
+      <c r="L123" s="371" t="s">
         <v>367</v>
       </c>
-      <c r="M123" s="331"/>
-      <c r="N123" s="331"/>
-      <c r="O123" s="332"/>
+      <c r="M123" s="372"/>
+      <c r="N123" s="372"/>
+      <c r="O123" s="373"/>
       <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25193,12 +25195,12 @@
         <v>128</v>
       </c>
       <c r="K124" s="237"/>
-      <c r="L124" s="330" t="s">
+      <c r="L124" s="371" t="s">
         <v>369</v>
       </c>
-      <c r="M124" s="331"/>
-      <c r="N124" s="331"/>
-      <c r="O124" s="332"/>
+      <c r="M124" s="372"/>
+      <c r="N124" s="372"/>
+      <c r="O124" s="373"/>
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25209,10 +25211,10 @@
       <c r="C125" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D125" s="337" t="s">
+      <c r="D125" s="332" t="s">
         <v>218</v>
       </c>
-      <c r="E125" s="338"/>
+      <c r="E125" s="333"/>
       <c r="F125" s="214"/>
       <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
@@ -25225,12 +25227,12 @@
       <c r="K125" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L125" s="328" t="s">
+      <c r="L125" s="334" t="s">
         <v>329</v>
       </c>
-      <c r="M125" s="328"/>
-      <c r="N125" s="328"/>
-      <c r="O125" s="329"/>
+      <c r="M125" s="334"/>
+      <c r="N125" s="334"/>
+      <c r="O125" s="335"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25255,28 +25257,28 @@
       </c>
       <c r="J126" s="237"/>
       <c r="K126" s="237"/>
-      <c r="L126" s="339"/>
-      <c r="M126" s="340"/>
-      <c r="N126" s="340"/>
-      <c r="O126" s="341"/>
+      <c r="L126" s="385"/>
+      <c r="M126" s="386"/>
+      <c r="N126" s="386"/>
+      <c r="O126" s="387"/>
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="29"/>
       <c r="C127" s="30"/>
-      <c r="D127" s="333"/>
-      <c r="E127" s="334"/>
+      <c r="D127" s="339"/>
+      <c r="E127" s="340"/>
       <c r="F127" s="215"/>
       <c r="G127" s="215"/>
       <c r="H127" s="215"/>
       <c r="I127" s="31"/>
       <c r="J127" s="215"/>
       <c r="K127" s="215"/>
-      <c r="L127" s="335"/>
-      <c r="M127" s="335"/>
-      <c r="N127" s="335"/>
-      <c r="O127" s="336"/>
+      <c r="L127" s="341"/>
+      <c r="M127" s="341"/>
+      <c r="N127" s="341"/>
+      <c r="O127" s="342"/>
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25363,10 +25365,10 @@
       <c r="C132" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D132" s="343" t="s">
+      <c r="D132" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="344"/>
+      <c r="E132" s="329"/>
       <c r="F132" s="25" t="s">
         <v>31</v>
       </c>
@@ -25385,12 +25387,12 @@
       <c r="K132" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L132" s="345" t="s">
+      <c r="L132" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M132" s="345"/>
-      <c r="N132" s="345"/>
-      <c r="O132" s="346"/>
+      <c r="M132" s="330"/>
+      <c r="N132" s="330"/>
+      <c r="O132" s="331"/>
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
@@ -25401,10 +25403,10 @@
       <c r="C133" s="233" t="s">
         <v>291</v>
       </c>
-      <c r="D133" s="347" t="s">
+      <c r="D133" s="343" t="s">
         <v>299</v>
       </c>
-      <c r="E133" s="348"/>
+      <c r="E133" s="344"/>
       <c r="F133" s="214" t="s">
         <v>191</v>
       </c>
@@ -25419,12 +25421,12 @@
         <v>12</v>
       </c>
       <c r="K133" s="214"/>
-      <c r="L133" s="359" t="s">
+      <c r="L133" s="382" t="s">
         <v>292</v>
       </c>
-      <c r="M133" s="360"/>
-      <c r="N133" s="360"/>
-      <c r="O133" s="361"/>
+      <c r="M133" s="383"/>
+      <c r="N133" s="383"/>
+      <c r="O133" s="384"/>
       <c r="P133" s="10"/>
     </row>
     <row r="134" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25435,10 +25437,10 @@
       <c r="C134" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D134" s="337" t="s">
+      <c r="D134" s="332" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="338"/>
+      <c r="E134" s="333"/>
       <c r="F134" s="214"/>
       <c r="G134" s="214"/>
       <c r="H134" s="214"/>
@@ -25449,10 +25451,10 @@
         <v>255</v>
       </c>
       <c r="K134" s="214"/>
-      <c r="L134" s="354"/>
-      <c r="M134" s="354"/>
-      <c r="N134" s="354"/>
-      <c r="O134" s="355"/>
+      <c r="L134" s="380"/>
+      <c r="M134" s="380"/>
+      <c r="N134" s="380"/>
+      <c r="O134" s="381"/>
       <c r="P134" s="10"/>
     </row>
     <row r="135" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25463,10 +25465,10 @@
       <c r="C135" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="337" t="s">
+      <c r="D135" s="332" t="s">
         <v>301</v>
       </c>
-      <c r="E135" s="338"/>
+      <c r="E135" s="333"/>
       <c r="F135" s="214"/>
       <c r="G135" s="214"/>
       <c r="H135" s="214" t="s">
@@ -25479,10 +25481,10 @@
         <v>30</v>
       </c>
       <c r="K135" s="214"/>
-      <c r="L135" s="354"/>
-      <c r="M135" s="354"/>
-      <c r="N135" s="354"/>
-      <c r="O135" s="355"/>
+      <c r="L135" s="380"/>
+      <c r="M135" s="380"/>
+      <c r="N135" s="380"/>
+      <c r="O135" s="381"/>
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25493,10 +25495,10 @@
       <c r="C136" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D136" s="337" t="s">
+      <c r="D136" s="332" t="s">
         <v>303</v>
       </c>
-      <c r="E136" s="338"/>
+      <c r="E136" s="333"/>
       <c r="F136" s="214"/>
       <c r="G136" s="214"/>
       <c r="H136" s="214"/>
@@ -25505,10 +25507,10 @@
       </c>
       <c r="J136" s="214"/>
       <c r="K136" s="214"/>
-      <c r="L136" s="356"/>
-      <c r="M136" s="357"/>
-      <c r="N136" s="357"/>
-      <c r="O136" s="358"/>
+      <c r="L136" s="390"/>
+      <c r="M136" s="391"/>
+      <c r="N136" s="391"/>
+      <c r="O136" s="392"/>
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25519,10 +25521,10 @@
       <c r="C137" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="337" t="s">
+      <c r="D137" s="332" t="s">
         <v>304</v>
       </c>
-      <c r="E137" s="338"/>
+      <c r="E137" s="333"/>
       <c r="F137" s="214"/>
       <c r="G137" s="214"/>
       <c r="H137" s="214"/>
@@ -25531,12 +25533,12 @@
       </c>
       <c r="J137" s="214"/>
       <c r="K137" s="241"/>
-      <c r="L137" s="351" t="s">
+      <c r="L137" s="377" t="s">
         <v>294</v>
       </c>
-      <c r="M137" s="352"/>
-      <c r="N137" s="352"/>
-      <c r="O137" s="353"/>
+      <c r="M137" s="378"/>
+      <c r="N137" s="378"/>
+      <c r="O137" s="379"/>
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25547,10 +25549,10 @@
       <c r="C138" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D138" s="337" t="s">
+      <c r="D138" s="332" t="s">
         <v>304</v>
       </c>
-      <c r="E138" s="338"/>
+      <c r="E138" s="333"/>
       <c r="F138" s="214"/>
       <c r="G138" s="214"/>
       <c r="H138" s="214"/>
@@ -25559,12 +25561,12 @@
       </c>
       <c r="J138" s="214"/>
       <c r="K138" s="241"/>
-      <c r="L138" s="351" t="s">
+      <c r="L138" s="377" t="s">
         <v>293</v>
       </c>
-      <c r="M138" s="352"/>
-      <c r="N138" s="352"/>
-      <c r="O138" s="353"/>
+      <c r="M138" s="378"/>
+      <c r="N138" s="378"/>
+      <c r="O138" s="379"/>
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25575,10 +25577,10 @@
       <c r="C139" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D139" s="337" t="s">
+      <c r="D139" s="332" t="s">
         <v>304</v>
       </c>
-      <c r="E139" s="338"/>
+      <c r="E139" s="333"/>
       <c r="F139" s="214"/>
       <c r="G139" s="214"/>
       <c r="H139" s="214"/>
@@ -25589,10 +25591,10 @@
         <v>128</v>
       </c>
       <c r="K139" s="241"/>
-      <c r="L139" s="351"/>
-      <c r="M139" s="352"/>
-      <c r="N139" s="352"/>
-      <c r="O139" s="353"/>
+      <c r="L139" s="377"/>
+      <c r="M139" s="378"/>
+      <c r="N139" s="378"/>
+      <c r="O139" s="379"/>
       <c r="P139" s="10"/>
     </row>
     <row r="140" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25603,10 +25605,10 @@
       <c r="C140" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D140" s="337" t="s">
+      <c r="D140" s="332" t="s">
         <v>305</v>
       </c>
-      <c r="E140" s="338"/>
+      <c r="E140" s="333"/>
       <c r="F140" s="214"/>
       <c r="G140" s="214"/>
       <c r="H140" s="214"/>
@@ -25617,12 +25619,12 @@
         <v>255</v>
       </c>
       <c r="K140" s="241"/>
-      <c r="L140" s="351" t="s">
+      <c r="L140" s="377" t="s">
         <v>295</v>
       </c>
-      <c r="M140" s="352"/>
-      <c r="N140" s="352"/>
-      <c r="O140" s="353"/>
+      <c r="M140" s="378"/>
+      <c r="N140" s="378"/>
+      <c r="O140" s="379"/>
       <c r="P140" s="10"/>
     </row>
     <row r="141" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25633,10 +25635,10 @@
       <c r="C141" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D141" s="337" t="s">
+      <c r="D141" s="332" t="s">
         <v>306</v>
       </c>
-      <c r="E141" s="338"/>
+      <c r="E141" s="333"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
@@ -25647,12 +25649,12 @@
         <v>255</v>
       </c>
       <c r="K141" s="241"/>
-      <c r="L141" s="351" t="s">
+      <c r="L141" s="377" t="s">
         <v>296</v>
       </c>
-      <c r="M141" s="352"/>
-      <c r="N141" s="352"/>
-      <c r="O141" s="353"/>
+      <c r="M141" s="378"/>
+      <c r="N141" s="378"/>
+      <c r="O141" s="379"/>
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25689,10 +25691,10 @@
       <c r="C143" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D143" s="337" t="s">
+      <c r="D143" s="332" t="s">
         <v>307</v>
       </c>
-      <c r="E143" s="338"/>
+      <c r="E143" s="333"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
@@ -25701,12 +25703,12 @@
       </c>
       <c r="J143" s="214"/>
       <c r="K143" s="241"/>
-      <c r="L143" s="354" t="s">
+      <c r="L143" s="380" t="s">
         <v>297</v>
       </c>
-      <c r="M143" s="354"/>
-      <c r="N143" s="354"/>
-      <c r="O143" s="355"/>
+      <c r="M143" s="380"/>
+      <c r="N143" s="380"/>
+      <c r="O143" s="381"/>
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25717,26 +25719,24 @@
       <c r="C144" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D144" s="337" t="s">
+      <c r="D144" s="332" t="s">
         <v>309</v>
       </c>
-      <c r="E144" s="338"/>
+      <c r="E144" s="333"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
       <c r="I144" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J144" s="214">
-        <v>10</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J144" s="214"/>
       <c r="K144" s="241"/>
-      <c r="L144" s="354" t="s">
+      <c r="L144" s="380" t="s">
         <v>354</v>
       </c>
-      <c r="M144" s="354"/>
-      <c r="N144" s="354"/>
-      <c r="O144" s="355"/>
+      <c r="M144" s="380"/>
+      <c r="N144" s="380"/>
+      <c r="O144" s="381"/>
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25747,26 +25747,24 @@
       <c r="C145" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D145" s="337" t="s">
+      <c r="D145" s="332" t="s">
         <v>308</v>
       </c>
-      <c r="E145" s="338"/>
+      <c r="E145" s="333"/>
       <c r="F145" s="214"/>
       <c r="G145" s="214"/>
       <c r="H145" s="214"/>
       <c r="I145" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J145" s="214">
-        <v>10</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J145" s="214"/>
       <c r="K145" s="241"/>
-      <c r="L145" s="354" t="s">
+      <c r="L145" s="380" t="s">
         <v>350</v>
       </c>
-      <c r="M145" s="354"/>
-      <c r="N145" s="354"/>
-      <c r="O145" s="355"/>
+      <c r="M145" s="380"/>
+      <c r="N145" s="380"/>
+      <c r="O145" s="381"/>
       <c r="P145" s="10"/>
     </row>
     <row r="146" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25777,10 +25775,10 @@
       <c r="C146" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="D146" s="337" t="s">
+      <c r="D146" s="332" t="s">
         <v>310</v>
       </c>
-      <c r="E146" s="338"/>
+      <c r="E146" s="333"/>
       <c r="F146" s="237"/>
       <c r="G146" s="237"/>
       <c r="H146" s="237"/>
@@ -25791,28 +25789,28 @@
         <v>255</v>
       </c>
       <c r="K146" s="242"/>
-      <c r="L146" s="354"/>
-      <c r="M146" s="354"/>
-      <c r="N146" s="354"/>
-      <c r="O146" s="355"/>
+      <c r="L146" s="380"/>
+      <c r="M146" s="380"/>
+      <c r="N146" s="380"/>
+      <c r="O146" s="381"/>
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="9"/>
       <c r="B147" s="29"/>
       <c r="C147" s="30"/>
-      <c r="D147" s="333"/>
-      <c r="E147" s="334"/>
+      <c r="D147" s="339"/>
+      <c r="E147" s="340"/>
       <c r="F147" s="215"/>
       <c r="G147" s="215"/>
       <c r="H147" s="215"/>
       <c r="I147" s="31"/>
       <c r="J147" s="215"/>
       <c r="K147" s="215"/>
-      <c r="L147" s="349"/>
-      <c r="M147" s="349"/>
-      <c r="N147" s="349"/>
-      <c r="O147" s="350"/>
+      <c r="L147" s="388"/>
+      <c r="M147" s="388"/>
+      <c r="N147" s="388"/>
+      <c r="O147" s="389"/>
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -25917,10 +25915,10 @@
       <c r="C153" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D153" s="343" t="s">
+      <c r="D153" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="344"/>
+      <c r="E153" s="329"/>
       <c r="F153" s="25" t="s">
         <v>31</v>
       </c>
@@ -25939,12 +25937,12 @@
       <c r="K153" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L153" s="345" t="s">
+      <c r="L153" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M153" s="345"/>
-      <c r="N153" s="345"/>
-      <c r="O153" s="346"/>
+      <c r="M153" s="330"/>
+      <c r="N153" s="330"/>
+      <c r="O153" s="331"/>
       <c r="P153" s="10"/>
     </row>
     <row r="154" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25955,10 +25953,10 @@
       <c r="C154" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D154" s="337" t="s">
+      <c r="D154" s="332" t="s">
         <v>315</v>
       </c>
-      <c r="E154" s="338"/>
+      <c r="E154" s="333"/>
       <c r="F154" s="214"/>
       <c r="G154" s="214"/>
       <c r="H154" s="214" t="s">
@@ -25967,12 +25965,14 @@
       <c r="I154" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J154" s="214"/>
+      <c r="J154" s="214">
+        <v>255</v>
+      </c>
       <c r="K154" s="214"/>
-      <c r="L154" s="328"/>
-      <c r="M154" s="328"/>
-      <c r="N154" s="328"/>
-      <c r="O154" s="329"/>
+      <c r="L154" s="334"/>
+      <c r="M154" s="334"/>
+      <c r="N154" s="334"/>
+      <c r="O154" s="335"/>
       <c r="P154" s="10"/>
     </row>
     <row r="155" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25983,22 +25983,24 @@
       <c r="C155" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D155" s="337" t="s">
+      <c r="D155" s="332" t="s">
         <v>316</v>
       </c>
-      <c r="E155" s="338"/>
+      <c r="E155" s="333"/>
       <c r="F155" s="214"/>
       <c r="G155" s="214"/>
       <c r="H155" s="214"/>
       <c r="I155" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J155" s="214"/>
+      <c r="J155" s="214">
+        <v>255</v>
+      </c>
       <c r="K155" s="214"/>
-      <c r="L155" s="328"/>
-      <c r="M155" s="328"/>
-      <c r="N155" s="328"/>
-      <c r="O155" s="329"/>
+      <c r="L155" s="334"/>
+      <c r="M155" s="334"/>
+      <c r="N155" s="334"/>
+      <c r="O155" s="335"/>
       <c r="P155" s="10"/>
     </row>
     <row r="156" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26019,12 +26021,14 @@
       <c r="I156" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J156" s="214"/>
+      <c r="J156" s="214">
+        <v>255</v>
+      </c>
       <c r="K156" s="214"/>
-      <c r="L156" s="328"/>
-      <c r="M156" s="328"/>
-      <c r="N156" s="328"/>
-      <c r="O156" s="329"/>
+      <c r="L156" s="334"/>
+      <c r="M156" s="334"/>
+      <c r="N156" s="334"/>
+      <c r="O156" s="335"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26035,10 +26039,10 @@
       <c r="C157" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D157" s="337" t="s">
+      <c r="D157" s="332" t="s">
         <v>317</v>
       </c>
-      <c r="E157" s="338"/>
+      <c r="E157" s="333"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
       <c r="H157" s="214" t="s">
@@ -26049,12 +26053,12 @@
       </c>
       <c r="J157" s="214"/>
       <c r="K157" s="214"/>
-      <c r="L157" s="328" t="s">
+      <c r="L157" s="334" t="s">
         <v>347</v>
       </c>
-      <c r="M157" s="328"/>
-      <c r="N157" s="328"/>
-      <c r="O157" s="329"/>
+      <c r="M157" s="334"/>
+      <c r="N157" s="334"/>
+      <c r="O157" s="335"/>
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26065,10 +26069,10 @@
       <c r="C158" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D158" s="337" t="s">
+      <c r="D158" s="332" t="s">
         <v>319</v>
       </c>
-      <c r="E158" s="338"/>
+      <c r="E158" s="333"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
       <c r="H158" s="214" t="s">
@@ -26081,30 +26085,30 @@
       <c r="K158" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L158" s="328" t="s">
+      <c r="L158" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="M158" s="328"/>
-      <c r="N158" s="328"/>
-      <c r="O158" s="329"/>
+      <c r="M158" s="334"/>
+      <c r="N158" s="334"/>
+      <c r="O158" s="335"/>
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="9"/>
       <c r="B159" s="29"/>
       <c r="C159" s="30"/>
-      <c r="D159" s="333"/>
-      <c r="E159" s="334"/>
+      <c r="D159" s="339"/>
+      <c r="E159" s="340"/>
       <c r="F159" s="215"/>
       <c r="G159" s="215"/>
       <c r="H159" s="215"/>
       <c r="I159" s="31"/>
       <c r="J159" s="215"/>
       <c r="K159" s="215"/>
-      <c r="L159" s="335"/>
-      <c r="M159" s="335"/>
-      <c r="N159" s="335"/>
-      <c r="O159" s="336"/>
+      <c r="L159" s="341"/>
+      <c r="M159" s="341"/>
+      <c r="N159" s="341"/>
+      <c r="O159" s="342"/>
       <c r="P159" s="10"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
@@ -26191,10 +26195,10 @@
       <c r="C164" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="343" t="s">
+      <c r="D164" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E164" s="344"/>
+      <c r="E164" s="329"/>
       <c r="F164" s="25" t="s">
         <v>31</v>
       </c>
@@ -26213,12 +26217,12 @@
       <c r="K164" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L164" s="345" t="s">
+      <c r="L164" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M164" s="345"/>
-      <c r="N164" s="345"/>
-      <c r="O164" s="346"/>
+      <c r="M164" s="330"/>
+      <c r="N164" s="330"/>
+      <c r="O164" s="331"/>
       <c r="P164" s="10"/>
     </row>
     <row r="165" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26229,10 +26233,10 @@
       <c r="C165" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D165" s="337" t="s">
+      <c r="D165" s="332" t="s">
         <v>320</v>
       </c>
-      <c r="E165" s="338"/>
+      <c r="E165" s="333"/>
       <c r="F165" s="214"/>
       <c r="G165" s="214"/>
       <c r="H165" s="214" t="s">
@@ -26241,12 +26245,14 @@
       <c r="I165" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J165" s="214"/>
+      <c r="J165" s="214">
+        <v>255</v>
+      </c>
       <c r="K165" s="214"/>
-      <c r="L165" s="328"/>
-      <c r="M165" s="328"/>
-      <c r="N165" s="328"/>
-      <c r="O165" s="329"/>
+      <c r="L165" s="334"/>
+      <c r="M165" s="334"/>
+      <c r="N165" s="334"/>
+      <c r="O165" s="335"/>
       <c r="P165" s="10"/>
     </row>
     <row r="166" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26257,22 +26263,24 @@
       <c r="C166" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D166" s="337" t="s">
+      <c r="D166" s="332" t="s">
         <v>321</v>
       </c>
-      <c r="E166" s="338"/>
+      <c r="E166" s="333"/>
       <c r="F166" s="214"/>
       <c r="G166" s="214"/>
       <c r="H166" s="214"/>
       <c r="I166" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J166" s="214"/>
+      <c r="J166" s="214">
+        <v>255</v>
+      </c>
       <c r="K166" s="214"/>
-      <c r="L166" s="328"/>
-      <c r="M166" s="328"/>
-      <c r="N166" s="328"/>
-      <c r="O166" s="329"/>
+      <c r="L166" s="334"/>
+      <c r="M166" s="334"/>
+      <c r="N166" s="334"/>
+      <c r="O166" s="335"/>
       <c r="P166" s="10"/>
     </row>
     <row r="167" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26297,30 +26305,30 @@
       <c r="K167" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L167" s="328" t="s">
+      <c r="L167" s="334" t="s">
         <v>323</v>
       </c>
-      <c r="M167" s="328"/>
-      <c r="N167" s="328"/>
-      <c r="O167" s="329"/>
+      <c r="M167" s="334"/>
+      <c r="N167" s="334"/>
+      <c r="O167" s="335"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="29"/>
       <c r="C168" s="30"/>
-      <c r="D168" s="333"/>
-      <c r="E168" s="334"/>
+      <c r="D168" s="339"/>
+      <c r="E168" s="340"/>
       <c r="F168" s="215"/>
       <c r="G168" s="215"/>
       <c r="H168" s="215"/>
       <c r="I168" s="31"/>
       <c r="J168" s="215"/>
       <c r="K168" s="215"/>
-      <c r="L168" s="335"/>
-      <c r="M168" s="335"/>
-      <c r="N168" s="335"/>
-      <c r="O168" s="336"/>
+      <c r="L168" s="341"/>
+      <c r="M168" s="341"/>
+      <c r="N168" s="341"/>
+      <c r="O168" s="342"/>
       <c r="P168" s="10"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
@@ -26407,10 +26415,10 @@
       <c r="C173" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="343" t="s">
+      <c r="D173" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E173" s="344"/>
+      <c r="E173" s="329"/>
       <c r="F173" s="25" t="s">
         <v>31</v>
       </c>
@@ -26429,12 +26437,12 @@
       <c r="K173" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L173" s="345" t="s">
+      <c r="L173" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M173" s="345"/>
-      <c r="N173" s="345"/>
-      <c r="O173" s="346"/>
+      <c r="M173" s="330"/>
+      <c r="N173" s="330"/>
+      <c r="O173" s="331"/>
       <c r="P173" s="10"/>
     </row>
     <row r="174" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26445,10 +26453,10 @@
       <c r="C174" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="337" t="s">
+      <c r="D174" s="332" t="s">
         <v>320</v>
       </c>
-      <c r="E174" s="338"/>
+      <c r="E174" s="333"/>
       <c r="F174" s="214"/>
       <c r="G174" s="214"/>
       <c r="H174" s="214" t="s">
@@ -26457,12 +26465,14 @@
       <c r="I174" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J174" s="214"/>
+      <c r="J174" s="214">
+        <v>255</v>
+      </c>
       <c r="K174" s="214"/>
-      <c r="L174" s="328"/>
-      <c r="M174" s="328"/>
-      <c r="N174" s="328"/>
-      <c r="O174" s="329"/>
+      <c r="L174" s="334"/>
+      <c r="M174" s="334"/>
+      <c r="N174" s="334"/>
+      <c r="O174" s="335"/>
       <c r="P174" s="10"/>
     </row>
     <row r="175" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26473,22 +26483,24 @@
       <c r="C175" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D175" s="337" t="s">
+      <c r="D175" s="332" t="s">
         <v>321</v>
       </c>
-      <c r="E175" s="338"/>
+      <c r="E175" s="333"/>
       <c r="F175" s="214"/>
       <c r="G175" s="214"/>
       <c r="H175" s="214"/>
       <c r="I175" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J175" s="214"/>
+      <c r="J175" s="214">
+        <v>255</v>
+      </c>
       <c r="K175" s="214"/>
-      <c r="L175" s="328"/>
-      <c r="M175" s="328"/>
-      <c r="N175" s="328"/>
-      <c r="O175" s="329"/>
+      <c r="L175" s="334"/>
+      <c r="M175" s="334"/>
+      <c r="N175" s="334"/>
+      <c r="O175" s="335"/>
       <c r="P175" s="10"/>
     </row>
     <row r="176" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26513,30 +26525,30 @@
       <c r="K176" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L176" s="328" t="s">
+      <c r="L176" s="334" t="s">
         <v>268</v>
       </c>
-      <c r="M176" s="328"/>
-      <c r="N176" s="328"/>
-      <c r="O176" s="329"/>
+      <c r="M176" s="334"/>
+      <c r="N176" s="334"/>
+      <c r="O176" s="335"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="29"/>
       <c r="C177" s="30"/>
-      <c r="D177" s="333"/>
-      <c r="E177" s="334"/>
+      <c r="D177" s="339"/>
+      <c r="E177" s="340"/>
       <c r="F177" s="215"/>
       <c r="G177" s="215"/>
       <c r="H177" s="215"/>
       <c r="I177" s="31"/>
       <c r="J177" s="215"/>
       <c r="K177" s="215"/>
-      <c r="L177" s="335"/>
-      <c r="M177" s="335"/>
-      <c r="N177" s="335"/>
-      <c r="O177" s="336"/>
+      <c r="L177" s="341"/>
+      <c r="M177" s="341"/>
+      <c r="N177" s="341"/>
+      <c r="O177" s="342"/>
       <c r="P177" s="10"/>
     </row>
     <row r="178" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26623,10 +26635,10 @@
       <c r="C182" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D182" s="343" t="s">
+      <c r="D182" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E182" s="344"/>
+      <c r="E182" s="329"/>
       <c r="F182" s="25" t="s">
         <v>31</v>
       </c>
@@ -26645,12 +26657,12 @@
       <c r="K182" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L182" s="345" t="s">
+      <c r="L182" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M182" s="345"/>
-      <c r="N182" s="345"/>
-      <c r="O182" s="346"/>
+      <c r="M182" s="330"/>
+      <c r="N182" s="330"/>
+      <c r="O182" s="331"/>
       <c r="P182" s="10"/>
     </row>
     <row r="183" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26661,10 +26673,10 @@
       <c r="C183" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D183" s="337" t="s">
+      <c r="D183" s="332" t="s">
         <v>328</v>
       </c>
-      <c r="E183" s="338"/>
+      <c r="E183" s="333"/>
       <c r="F183" s="214"/>
       <c r="G183" s="214"/>
       <c r="H183" s="214" t="s">
@@ -26677,10 +26689,10 @@
         <v>255</v>
       </c>
       <c r="K183" s="214"/>
-      <c r="L183" s="328"/>
-      <c r="M183" s="328"/>
-      <c r="N183" s="328"/>
-      <c r="O183" s="329"/>
+      <c r="L183" s="334"/>
+      <c r="M183" s="334"/>
+      <c r="N183" s="334"/>
+      <c r="O183" s="335"/>
       <c r="P183" s="10"/>
     </row>
     <row r="184" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26691,10 +26703,10 @@
       <c r="C184" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D184" s="337" t="s">
+      <c r="D184" s="332" t="s">
         <v>411</v>
       </c>
-      <c r="E184" s="338"/>
+      <c r="E184" s="333"/>
       <c r="F184" s="214"/>
       <c r="G184" s="214"/>
       <c r="H184" s="214"/>
@@ -26705,28 +26717,28 @@
         <v>255</v>
       </c>
       <c r="K184" s="214"/>
-      <c r="L184" s="328"/>
-      <c r="M184" s="328"/>
-      <c r="N184" s="328"/>
-      <c r="O184" s="329"/>
+      <c r="L184" s="334"/>
+      <c r="M184" s="334"/>
+      <c r="N184" s="334"/>
+      <c r="O184" s="335"/>
       <c r="P184" s="10"/>
     </row>
     <row r="185" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="9"/>
       <c r="B185" s="29"/>
       <c r="C185" s="30"/>
-      <c r="D185" s="333"/>
-      <c r="E185" s="334"/>
+      <c r="D185" s="339"/>
+      <c r="E185" s="340"/>
       <c r="F185" s="215"/>
       <c r="G185" s="215"/>
       <c r="H185" s="215"/>
       <c r="I185" s="31"/>
       <c r="J185" s="215"/>
       <c r="K185" s="215"/>
-      <c r="L185" s="335"/>
-      <c r="M185" s="335"/>
-      <c r="N185" s="335"/>
-      <c r="O185" s="336"/>
+      <c r="L185" s="341"/>
+      <c r="M185" s="341"/>
+      <c r="N185" s="341"/>
+      <c r="O185" s="342"/>
       <c r="P185" s="10"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
@@ -26831,10 +26843,10 @@
       <c r="C191" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D191" s="343" t="s">
+      <c r="D191" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="344"/>
+      <c r="E191" s="329"/>
       <c r="F191" s="25" t="s">
         <v>31</v>
       </c>
@@ -26853,12 +26865,12 @@
       <c r="K191" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L191" s="345" t="s">
+      <c r="L191" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M191" s="345"/>
-      <c r="N191" s="345"/>
-      <c r="O191" s="346"/>
+      <c r="M191" s="330"/>
+      <c r="N191" s="330"/>
+      <c r="O191" s="331"/>
       <c r="P191" s="10"/>
     </row>
     <row r="192" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26869,10 +26881,10 @@
       <c r="C192" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D192" s="337" t="s">
+      <c r="D192" s="332" t="s">
         <v>340</v>
       </c>
-      <c r="E192" s="338"/>
+      <c r="E192" s="333"/>
       <c r="F192" s="214"/>
       <c r="G192" s="214"/>
       <c r="H192" s="214" t="s">
@@ -26885,10 +26897,10 @@
         <v>255</v>
       </c>
       <c r="K192" s="214"/>
-      <c r="L192" s="328"/>
-      <c r="M192" s="328"/>
-      <c r="N192" s="328"/>
-      <c r="O192" s="329"/>
+      <c r="L192" s="334"/>
+      <c r="M192" s="334"/>
+      <c r="N192" s="334"/>
+      <c r="O192" s="335"/>
       <c r="P192" s="10"/>
     </row>
     <row r="193" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26899,10 +26911,10 @@
       <c r="C193" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D193" s="337" t="s">
+      <c r="D193" s="332" t="s">
         <v>341</v>
       </c>
-      <c r="E193" s="338"/>
+      <c r="E193" s="333"/>
       <c r="F193" s="214"/>
       <c r="G193" s="214"/>
       <c r="H193" s="214" t="s">
@@ -26913,12 +26925,12 @@
       </c>
       <c r="J193" s="214"/>
       <c r="K193" s="214"/>
-      <c r="L193" s="328" t="s">
+      <c r="L193" s="334" t="s">
         <v>342</v>
       </c>
-      <c r="M193" s="328"/>
-      <c r="N193" s="328"/>
-      <c r="O193" s="329"/>
+      <c r="M193" s="334"/>
+      <c r="N193" s="334"/>
+      <c r="O193" s="335"/>
       <c r="P193" s="10"/>
     </row>
     <row r="194" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -26929,10 +26941,10 @@
       <c r="C194" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D194" s="362" t="s">
+      <c r="D194" s="346" t="s">
         <v>247</v>
       </c>
-      <c r="E194" s="363"/>
+      <c r="E194" s="347"/>
       <c r="F194" s="215"/>
       <c r="G194" s="215"/>
       <c r="H194" s="215"/>
@@ -26943,10 +26955,10 @@
         <v>255</v>
       </c>
       <c r="K194" s="215"/>
-      <c r="L194" s="335"/>
-      <c r="M194" s="335"/>
-      <c r="N194" s="335"/>
-      <c r="O194" s="336"/>
+      <c r="L194" s="341"/>
+      <c r="M194" s="341"/>
+      <c r="N194" s="341"/>
+      <c r="O194" s="342"/>
       <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
@@ -27033,10 +27045,10 @@
       <c r="C199" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D199" s="343" t="s">
+      <c r="D199" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E199" s="344"/>
+      <c r="E199" s="329"/>
       <c r="F199" s="25" t="s">
         <v>31</v>
       </c>
@@ -27055,12 +27067,12 @@
       <c r="K199" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L199" s="345" t="s">
+      <c r="L199" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M199" s="345"/>
-      <c r="N199" s="345"/>
-      <c r="O199" s="346"/>
+      <c r="M199" s="330"/>
+      <c r="N199" s="330"/>
+      <c r="O199" s="331"/>
       <c r="P199" s="10"/>
     </row>
     <row r="200" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27071,10 +27083,10 @@
       <c r="C200" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D200" s="337" t="s">
+      <c r="D200" s="332" t="s">
         <v>412</v>
       </c>
-      <c r="E200" s="338"/>
+      <c r="E200" s="333"/>
       <c r="F200" s="214"/>
       <c r="G200" s="214"/>
       <c r="H200" s="214" t="s">
@@ -27087,12 +27099,12 @@
         <v>255</v>
       </c>
       <c r="K200" s="214"/>
-      <c r="L200" s="328" t="s">
+      <c r="L200" s="334" t="s">
         <v>364</v>
       </c>
-      <c r="M200" s="328"/>
-      <c r="N200" s="328"/>
-      <c r="O200" s="329"/>
+      <c r="M200" s="334"/>
+      <c r="N200" s="334"/>
+      <c r="O200" s="335"/>
       <c r="P200" s="10"/>
     </row>
     <row r="201" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27103,10 +27115,10 @@
       <c r="C201" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="D201" s="337" t="s">
+      <c r="D201" s="332" t="s">
         <v>341</v>
       </c>
-      <c r="E201" s="338"/>
+      <c r="E201" s="333"/>
       <c r="F201" s="214"/>
       <c r="G201" s="214"/>
       <c r="H201" s="214" t="s">
@@ -27117,10 +27129,10 @@
       </c>
       <c r="J201" s="214"/>
       <c r="K201" s="214"/>
-      <c r="L201" s="328"/>
-      <c r="M201" s="328"/>
-      <c r="N201" s="328"/>
-      <c r="O201" s="329"/>
+      <c r="L201" s="334"/>
+      <c r="M201" s="334"/>
+      <c r="N201" s="334"/>
+      <c r="O201" s="335"/>
       <c r="P201" s="10"/>
     </row>
     <row r="202" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27145,28 +27157,28 @@
         <v>255</v>
       </c>
       <c r="K202" s="237"/>
-      <c r="L202" s="328"/>
-      <c r="M202" s="328"/>
-      <c r="N202" s="328"/>
-      <c r="O202" s="329"/>
+      <c r="L202" s="334"/>
+      <c r="M202" s="334"/>
+      <c r="N202" s="334"/>
+      <c r="O202" s="335"/>
       <c r="P202" s="10"/>
     </row>
     <row r="203" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9"/>
       <c r="B203" s="29"/>
       <c r="C203" s="30"/>
-      <c r="D203" s="333"/>
-      <c r="E203" s="334"/>
+      <c r="D203" s="339"/>
+      <c r="E203" s="340"/>
       <c r="F203" s="215"/>
       <c r="G203" s="215"/>
       <c r="H203" s="215"/>
       <c r="I203" s="31"/>
       <c r="J203" s="215"/>
       <c r="K203" s="215"/>
-      <c r="L203" s="335"/>
-      <c r="M203" s="335"/>
-      <c r="N203" s="335"/>
-      <c r="O203" s="336"/>
+      <c r="L203" s="341"/>
+      <c r="M203" s="341"/>
+      <c r="N203" s="341"/>
+      <c r="O203" s="342"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
@@ -27253,10 +27265,10 @@
       <c r="C208" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D208" s="343" t="s">
+      <c r="D208" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E208" s="344"/>
+      <c r="E208" s="329"/>
       <c r="F208" s="25" t="s">
         <v>31</v>
       </c>
@@ -27275,12 +27287,12 @@
       <c r="K208" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L208" s="345" t="s">
+      <c r="L208" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M208" s="345"/>
-      <c r="N208" s="345"/>
-      <c r="O208" s="346"/>
+      <c r="M208" s="330"/>
+      <c r="N208" s="330"/>
+      <c r="O208" s="331"/>
       <c r="P208" s="10"/>
     </row>
     <row r="209" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27291,10 +27303,10 @@
       <c r="C209" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D209" s="337" t="s">
+      <c r="D209" s="332" t="s">
         <v>414</v>
       </c>
-      <c r="E209" s="338"/>
+      <c r="E209" s="333"/>
       <c r="F209" s="214"/>
       <c r="G209" s="214"/>
       <c r="H209" s="214" t="s">
@@ -27307,12 +27319,12 @@
         <v>255</v>
       </c>
       <c r="K209" s="214"/>
-      <c r="L209" s="328" t="s">
+      <c r="L209" s="334" t="s">
         <v>349</v>
       </c>
-      <c r="M209" s="328"/>
-      <c r="N209" s="328"/>
-      <c r="O209" s="329"/>
+      <c r="M209" s="334"/>
+      <c r="N209" s="334"/>
+      <c r="O209" s="335"/>
       <c r="P209" s="10"/>
     </row>
     <row r="210" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27337,28 +27349,28 @@
         <v>255</v>
       </c>
       <c r="K210" s="237"/>
-      <c r="L210" s="328"/>
-      <c r="M210" s="328"/>
-      <c r="N210" s="328"/>
-      <c r="O210" s="329"/>
+      <c r="L210" s="334"/>
+      <c r="M210" s="334"/>
+      <c r="N210" s="334"/>
+      <c r="O210" s="335"/>
       <c r="P210" s="10"/>
     </row>
     <row r="211" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="9"/>
       <c r="B211" s="29"/>
       <c r="C211" s="30"/>
-      <c r="D211" s="333"/>
-      <c r="E211" s="334"/>
+      <c r="D211" s="339"/>
+      <c r="E211" s="340"/>
       <c r="F211" s="215"/>
       <c r="G211" s="215"/>
       <c r="H211" s="215"/>
       <c r="I211" s="31"/>
       <c r="J211" s="215"/>
       <c r="K211" s="215"/>
-      <c r="L211" s="335"/>
-      <c r="M211" s="335"/>
-      <c r="N211" s="335"/>
-      <c r="O211" s="336"/>
+      <c r="L211" s="341"/>
+      <c r="M211" s="341"/>
+      <c r="N211" s="341"/>
+      <c r="O211" s="342"/>
       <c r="P211" s="10"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
@@ -27445,10 +27457,10 @@
       <c r="C216" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D216" s="343" t="s">
+      <c r="D216" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E216" s="344"/>
+      <c r="E216" s="329"/>
       <c r="F216" s="25" t="s">
         <v>31</v>
       </c>
@@ -27467,12 +27479,12 @@
       <c r="K216" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L216" s="345" t="s">
+      <c r="L216" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M216" s="345"/>
-      <c r="N216" s="345"/>
-      <c r="O216" s="346"/>
+      <c r="M216" s="330"/>
+      <c r="N216" s="330"/>
+      <c r="O216" s="331"/>
       <c r="P216" s="10"/>
     </row>
     <row r="217" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27483,10 +27495,10 @@
       <c r="C217" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D217" s="337" t="s">
+      <c r="D217" s="332" t="s">
         <v>352</v>
       </c>
-      <c r="E217" s="338"/>
+      <c r="E217" s="333"/>
       <c r="F217" s="214"/>
       <c r="G217" s="214"/>
       <c r="H217" s="214" t="s">
@@ -27499,12 +27511,12 @@
         <v>255</v>
       </c>
       <c r="K217" s="214"/>
-      <c r="L217" s="328" t="s">
+      <c r="L217" s="334" t="s">
         <v>353</v>
       </c>
-      <c r="M217" s="328"/>
-      <c r="N217" s="328"/>
-      <c r="O217" s="329"/>
+      <c r="M217" s="334"/>
+      <c r="N217" s="334"/>
+      <c r="O217" s="335"/>
       <c r="P217" s="10"/>
     </row>
     <row r="218" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27529,28 +27541,28 @@
         <v>255</v>
       </c>
       <c r="K218" s="237"/>
-      <c r="L218" s="328"/>
-      <c r="M218" s="328"/>
-      <c r="N218" s="328"/>
-      <c r="O218" s="329"/>
+      <c r="L218" s="334"/>
+      <c r="M218" s="334"/>
+      <c r="N218" s="334"/>
+      <c r="O218" s="335"/>
       <c r="P218" s="10"/>
     </row>
     <row r="219" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="9"/>
       <c r="B219" s="29"/>
       <c r="C219" s="30"/>
-      <c r="D219" s="333"/>
-      <c r="E219" s="334"/>
+      <c r="D219" s="339"/>
+      <c r="E219" s="340"/>
       <c r="F219" s="215"/>
       <c r="G219" s="215"/>
       <c r="H219" s="215"/>
       <c r="I219" s="31"/>
       <c r="J219" s="215"/>
       <c r="K219" s="215"/>
-      <c r="L219" s="335"/>
-      <c r="M219" s="335"/>
-      <c r="N219" s="335"/>
-      <c r="O219" s="336"/>
+      <c r="L219" s="341"/>
+      <c r="M219" s="341"/>
+      <c r="N219" s="341"/>
+      <c r="O219" s="342"/>
       <c r="P219" s="10"/>
     </row>
     <row r="220" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27637,10 +27649,10 @@
       <c r="C224" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="343" t="s">
+      <c r="D224" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E224" s="344"/>
+      <c r="E224" s="329"/>
       <c r="F224" s="25" t="s">
         <v>31</v>
       </c>
@@ -27659,12 +27671,12 @@
       <c r="K224" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L224" s="345" t="s">
+      <c r="L224" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M224" s="345"/>
-      <c r="N224" s="345"/>
-      <c r="O224" s="346"/>
+      <c r="M224" s="330"/>
+      <c r="N224" s="330"/>
+      <c r="O224" s="331"/>
       <c r="P224" s="10"/>
     </row>
     <row r="225" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27675,10 +27687,10 @@
       <c r="C225" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D225" s="337" t="s">
+      <c r="D225" s="332" t="s">
         <v>390</v>
       </c>
-      <c r="E225" s="338"/>
+      <c r="E225" s="333"/>
       <c r="F225" s="214"/>
       <c r="G225" s="214"/>
       <c r="H225" s="214" t="s">
@@ -27691,12 +27703,12 @@
         <v>255</v>
       </c>
       <c r="K225" s="214"/>
-      <c r="L225" s="328" t="s">
+      <c r="L225" s="334" t="s">
         <v>391</v>
       </c>
-      <c r="M225" s="328"/>
-      <c r="N225" s="328"/>
-      <c r="O225" s="329"/>
+      <c r="M225" s="334"/>
+      <c r="N225" s="334"/>
+      <c r="O225" s="335"/>
       <c r="P225" s="10"/>
     </row>
     <row r="226" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27721,28 +27733,28 @@
         <v>255</v>
       </c>
       <c r="K226" s="237"/>
-      <c r="L226" s="328"/>
-      <c r="M226" s="328"/>
-      <c r="N226" s="328"/>
-      <c r="O226" s="329"/>
+      <c r="L226" s="334"/>
+      <c r="M226" s="334"/>
+      <c r="N226" s="334"/>
+      <c r="O226" s="335"/>
       <c r="P226" s="10"/>
     </row>
     <row r="227" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="9"/>
       <c r="B227" s="29"/>
       <c r="C227" s="30"/>
-      <c r="D227" s="333"/>
-      <c r="E227" s="334"/>
+      <c r="D227" s="339"/>
+      <c r="E227" s="340"/>
       <c r="F227" s="215"/>
       <c r="G227" s="215"/>
       <c r="H227" s="215"/>
       <c r="I227" s="31"/>
       <c r="J227" s="215"/>
       <c r="K227" s="215"/>
-      <c r="L227" s="335"/>
-      <c r="M227" s="335"/>
-      <c r="N227" s="335"/>
-      <c r="O227" s="336"/>
+      <c r="L227" s="341"/>
+      <c r="M227" s="341"/>
+      <c r="N227" s="341"/>
+      <c r="O227" s="342"/>
       <c r="P227" s="10"/>
     </row>
     <row r="228" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27829,10 +27841,10 @@
       <c r="C232" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D232" s="343" t="s">
+      <c r="D232" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E232" s="344"/>
+      <c r="E232" s="329"/>
       <c r="F232" s="25" t="s">
         <v>31</v>
       </c>
@@ -27851,12 +27863,12 @@
       <c r="K232" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L232" s="345" t="s">
+      <c r="L232" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M232" s="345"/>
-      <c r="N232" s="345"/>
-      <c r="O232" s="346"/>
+      <c r="M232" s="330"/>
+      <c r="N232" s="330"/>
+      <c r="O232" s="331"/>
       <c r="P232" s="10"/>
     </row>
     <row r="233" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27867,10 +27879,10 @@
       <c r="C233" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D233" s="337" t="s">
+      <c r="D233" s="332" t="s">
         <v>352</v>
       </c>
-      <c r="E233" s="338"/>
+      <c r="E233" s="333"/>
       <c r="F233" s="214"/>
       <c r="G233" s="214"/>
       <c r="H233" s="214" t="s">
@@ -27883,12 +27895,12 @@
         <v>255</v>
       </c>
       <c r="K233" s="214"/>
-      <c r="L233" s="328" t="s">
+      <c r="L233" s="334" t="s">
         <v>357</v>
       </c>
-      <c r="M233" s="328"/>
-      <c r="N233" s="328"/>
-      <c r="O233" s="329"/>
+      <c r="M233" s="334"/>
+      <c r="N233" s="334"/>
+      <c r="O233" s="335"/>
       <c r="P233" s="10"/>
     </row>
     <row r="234" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27913,28 +27925,28 @@
         <v>255</v>
       </c>
       <c r="K234" s="237"/>
-      <c r="L234" s="342"/>
-      <c r="M234" s="328"/>
-      <c r="N234" s="328"/>
-      <c r="O234" s="329"/>
+      <c r="L234" s="345"/>
+      <c r="M234" s="334"/>
+      <c r="N234" s="334"/>
+      <c r="O234" s="335"/>
       <c r="P234" s="10"/>
     </row>
     <row r="235" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="9"/>
       <c r="B235" s="29"/>
       <c r="C235" s="30"/>
-      <c r="D235" s="333"/>
-      <c r="E235" s="334"/>
+      <c r="D235" s="339"/>
+      <c r="E235" s="340"/>
       <c r="F235" s="215"/>
       <c r="G235" s="215"/>
       <c r="H235" s="215"/>
       <c r="I235" s="31"/>
       <c r="J235" s="215"/>
       <c r="K235" s="215"/>
-      <c r="L235" s="335"/>
-      <c r="M235" s="335"/>
-      <c r="N235" s="335"/>
-      <c r="O235" s="336"/>
+      <c r="L235" s="341"/>
+      <c r="M235" s="341"/>
+      <c r="N235" s="341"/>
+      <c r="O235" s="342"/>
       <c r="P235" s="10"/>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
@@ -28021,10 +28033,10 @@
       <c r="C240" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D240" s="343" t="s">
+      <c r="D240" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E240" s="344"/>
+      <c r="E240" s="329"/>
       <c r="F240" s="25" t="s">
         <v>31</v>
       </c>
@@ -28043,12 +28055,12 @@
       <c r="K240" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L240" s="345" t="s">
+      <c r="L240" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M240" s="345"/>
-      <c r="N240" s="345"/>
-      <c r="O240" s="346"/>
+      <c r="M240" s="330"/>
+      <c r="N240" s="330"/>
+      <c r="O240" s="331"/>
       <c r="P240" s="10"/>
     </row>
     <row r="241" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -28059,10 +28071,10 @@
       <c r="C241" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D241" s="347" t="s">
+      <c r="D241" s="343" t="s">
         <v>227</v>
       </c>
-      <c r="E241" s="348"/>
+      <c r="E241" s="344"/>
       <c r="F241" s="214"/>
       <c r="G241" s="214"/>
       <c r="H241" s="214" t="s">
@@ -28075,12 +28087,12 @@
         <v>255</v>
       </c>
       <c r="K241" s="214"/>
-      <c r="L241" s="342" t="s">
+      <c r="L241" s="345" t="s">
         <v>417</v>
       </c>
-      <c r="M241" s="328"/>
-      <c r="N241" s="328"/>
-      <c r="O241" s="329"/>
+      <c r="M241" s="334"/>
+      <c r="N241" s="334"/>
+      <c r="O241" s="335"/>
       <c r="P241" s="10"/>
     </row>
     <row r="242" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28105,28 +28117,28 @@
         <v>255</v>
       </c>
       <c r="K242" s="237"/>
-      <c r="L242" s="342"/>
-      <c r="M242" s="328"/>
-      <c r="N242" s="328"/>
-      <c r="O242" s="329"/>
+      <c r="L242" s="345"/>
+      <c r="M242" s="334"/>
+      <c r="N242" s="334"/>
+      <c r="O242" s="335"/>
       <c r="P242" s="10"/>
     </row>
     <row r="243" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="9"/>
       <c r="B243" s="29"/>
       <c r="C243" s="30"/>
-      <c r="D243" s="333"/>
-      <c r="E243" s="334"/>
+      <c r="D243" s="339"/>
+      <c r="E243" s="340"/>
       <c r="F243" s="215"/>
       <c r="G243" s="215"/>
       <c r="H243" s="215"/>
       <c r="I243" s="31"/>
       <c r="J243" s="215"/>
       <c r="K243" s="215"/>
-      <c r="L243" s="335"/>
-      <c r="M243" s="335"/>
-      <c r="N243" s="335"/>
-      <c r="O243" s="336"/>
+      <c r="L243" s="341"/>
+      <c r="M243" s="341"/>
+      <c r="N243" s="341"/>
+      <c r="O243" s="342"/>
       <c r="P243" s="10"/>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
@@ -28213,10 +28225,10 @@
       <c r="C248" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D248" s="343" t="s">
+      <c r="D248" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E248" s="344"/>
+      <c r="E248" s="329"/>
       <c r="F248" s="25" t="s">
         <v>31</v>
       </c>
@@ -28235,12 +28247,12 @@
       <c r="K248" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L248" s="345" t="s">
+      <c r="L248" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M248" s="345"/>
-      <c r="N248" s="345"/>
-      <c r="O248" s="346"/>
+      <c r="M248" s="330"/>
+      <c r="N248" s="330"/>
+      <c r="O248" s="331"/>
       <c r="P248" s="10"/>
     </row>
     <row r="249" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -28251,10 +28263,10 @@
       <c r="C249" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D249" s="347" t="s">
+      <c r="D249" s="343" t="s">
         <v>362</v>
       </c>
-      <c r="E249" s="348"/>
+      <c r="E249" s="344"/>
       <c r="F249" s="214"/>
       <c r="G249" s="214"/>
       <c r="H249" s="214" t="s">
@@ -28267,12 +28279,12 @@
         <v>255</v>
       </c>
       <c r="K249" s="214"/>
-      <c r="L249" s="342" t="s">
+      <c r="L249" s="345" t="s">
         <v>363</v>
       </c>
-      <c r="M249" s="328"/>
-      <c r="N249" s="328"/>
-      <c r="O249" s="329"/>
+      <c r="M249" s="334"/>
+      <c r="N249" s="334"/>
+      <c r="O249" s="335"/>
       <c r="P249" s="10"/>
     </row>
     <row r="250" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28297,28 +28309,28 @@
         <v>255</v>
       </c>
       <c r="K250" s="237"/>
-      <c r="L250" s="342"/>
-      <c r="M250" s="328"/>
-      <c r="N250" s="328"/>
-      <c r="O250" s="329"/>
+      <c r="L250" s="345"/>
+      <c r="M250" s="334"/>
+      <c r="N250" s="334"/>
+      <c r="O250" s="335"/>
       <c r="P250" s="10"/>
     </row>
     <row r="251" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="9"/>
       <c r="B251" s="29"/>
       <c r="C251" s="30"/>
-      <c r="D251" s="333"/>
-      <c r="E251" s="334"/>
+      <c r="D251" s="339"/>
+      <c r="E251" s="340"/>
       <c r="F251" s="215"/>
       <c r="G251" s="215"/>
       <c r="H251" s="215"/>
       <c r="I251" s="31"/>
       <c r="J251" s="215"/>
       <c r="K251" s="215"/>
-      <c r="L251" s="335"/>
-      <c r="M251" s="335"/>
-      <c r="N251" s="335"/>
-      <c r="O251" s="336"/>
+      <c r="L251" s="341"/>
+      <c r="M251" s="341"/>
+      <c r="N251" s="341"/>
+      <c r="O251" s="342"/>
       <c r="P251" s="10"/>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -28407,10 +28419,10 @@
       <c r="C256" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D256" s="343" t="s">
+      <c r="D256" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E256" s="344"/>
+      <c r="E256" s="329"/>
       <c r="F256" s="25" t="s">
         <v>31</v>
       </c>
@@ -28429,12 +28441,12 @@
       <c r="K256" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L256" s="345" t="s">
+      <c r="L256" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M256" s="345"/>
-      <c r="N256" s="345"/>
-      <c r="O256" s="346"/>
+      <c r="M256" s="330"/>
+      <c r="N256" s="330"/>
+      <c r="O256" s="331"/>
       <c r="P256" s="10"/>
     </row>
     <row r="257" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28445,10 +28457,10 @@
       <c r="C257" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D257" s="337" t="s">
+      <c r="D257" s="332" t="s">
         <v>267</v>
       </c>
-      <c r="E257" s="338"/>
+      <c r="E257" s="333"/>
       <c r="F257" s="214"/>
       <c r="G257" s="214"/>
       <c r="H257" s="214" t="s">
@@ -28463,12 +28475,12 @@
       <c r="K257" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L257" s="328" t="s">
+      <c r="L257" s="334" t="s">
         <v>268</v>
       </c>
-      <c r="M257" s="328"/>
-      <c r="N257" s="328"/>
-      <c r="O257" s="329"/>
+      <c r="M257" s="334"/>
+      <c r="N257" s="334"/>
+      <c r="O257" s="335"/>
       <c r="P257" s="10"/>
     </row>
     <row r="258" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28479,10 +28491,10 @@
       <c r="C258" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="D258" s="337" t="s">
+      <c r="D258" s="332" t="s">
         <v>378</v>
       </c>
-      <c r="E258" s="338"/>
+      <c r="E258" s="333"/>
       <c r="F258" s="214"/>
       <c r="G258" s="214"/>
       <c r="H258" s="214" t="s">
@@ -28495,10 +28507,10 @@
         <v>255</v>
       </c>
       <c r="K258" s="214"/>
-      <c r="L258" s="328"/>
-      <c r="M258" s="328"/>
-      <c r="N258" s="328"/>
-      <c r="O258" s="329"/>
+      <c r="L258" s="334"/>
+      <c r="M258" s="334"/>
+      <c r="N258" s="334"/>
+      <c r="O258" s="335"/>
       <c r="P258" s="10"/>
     </row>
     <row r="259" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28509,10 +28521,10 @@
       <c r="C259" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D259" s="337" t="s">
+      <c r="D259" s="332" t="s">
         <v>379</v>
       </c>
-      <c r="E259" s="338"/>
+      <c r="E259" s="333"/>
       <c r="F259" s="214"/>
       <c r="G259" s="214"/>
       <c r="H259" s="214"/>
@@ -28523,28 +28535,28 @@
         <v>255</v>
       </c>
       <c r="K259" s="214"/>
-      <c r="L259" s="328"/>
-      <c r="M259" s="328"/>
-      <c r="N259" s="328"/>
-      <c r="O259" s="329"/>
+      <c r="L259" s="334"/>
+      <c r="M259" s="334"/>
+      <c r="N259" s="334"/>
+      <c r="O259" s="335"/>
       <c r="P259" s="10"/>
     </row>
     <row r="260" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="9"/>
       <c r="B260" s="29"/>
       <c r="C260" s="30"/>
-      <c r="D260" s="333"/>
-      <c r="E260" s="334"/>
+      <c r="D260" s="339"/>
+      <c r="E260" s="340"/>
       <c r="F260" s="215"/>
       <c r="G260" s="215"/>
       <c r="H260" s="215"/>
       <c r="I260" s="31"/>
       <c r="J260" s="215"/>
       <c r="K260" s="215"/>
-      <c r="L260" s="335"/>
-      <c r="M260" s="335"/>
-      <c r="N260" s="335"/>
-      <c r="O260" s="336"/>
+      <c r="L260" s="341"/>
+      <c r="M260" s="341"/>
+      <c r="N260" s="341"/>
+      <c r="O260" s="342"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.2">
@@ -28633,10 +28645,10 @@
       <c r="C265" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D265" s="343" t="s">
+      <c r="D265" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E265" s="344"/>
+      <c r="E265" s="329"/>
       <c r="F265" s="25" t="s">
         <v>31</v>
       </c>
@@ -28655,12 +28667,12 @@
       <c r="K265" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L265" s="345" t="s">
+      <c r="L265" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M265" s="345"/>
-      <c r="N265" s="345"/>
-      <c r="O265" s="346"/>
+      <c r="M265" s="330"/>
+      <c r="N265" s="330"/>
+      <c r="O265" s="331"/>
       <c r="P265" s="10"/>
     </row>
     <row r="266" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28671,10 +28683,10 @@
       <c r="C266" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D266" s="337" t="s">
+      <c r="D266" s="332" t="s">
         <v>381</v>
       </c>
-      <c r="E266" s="338"/>
+      <c r="E266" s="333"/>
       <c r="F266" s="214"/>
       <c r="G266" s="214"/>
       <c r="H266" s="214" t="s">
@@ -28687,10 +28699,10 @@
         <v>255</v>
       </c>
       <c r="K266" s="214"/>
-      <c r="L266" s="328"/>
-      <c r="M266" s="328"/>
-      <c r="N266" s="328"/>
-      <c r="O266" s="329"/>
+      <c r="L266" s="334"/>
+      <c r="M266" s="334"/>
+      <c r="N266" s="334"/>
+      <c r="O266" s="335"/>
       <c r="P266" s="10"/>
     </row>
     <row r="267" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28701,10 +28713,10 @@
       <c r="C267" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D267" s="337" t="s">
+      <c r="D267" s="332" t="s">
         <v>382</v>
       </c>
-      <c r="E267" s="338"/>
+      <c r="E267" s="333"/>
       <c r="F267" s="214"/>
       <c r="G267" s="214"/>
       <c r="H267" s="214"/>
@@ -28715,10 +28727,10 @@
         <v>255</v>
       </c>
       <c r="K267" s="214"/>
-      <c r="L267" s="328"/>
-      <c r="M267" s="328"/>
-      <c r="N267" s="328"/>
-      <c r="O267" s="329"/>
+      <c r="L267" s="334"/>
+      <c r="M267" s="334"/>
+      <c r="N267" s="334"/>
+      <c r="O267" s="335"/>
       <c r="P267" s="10"/>
     </row>
     <row r="268" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28741,30 +28753,30 @@
       </c>
       <c r="J268" s="214"/>
       <c r="K268" s="214"/>
-      <c r="L268" s="328" t="s">
+      <c r="L268" s="334" t="s">
         <v>416</v>
       </c>
-      <c r="M268" s="328"/>
-      <c r="N268" s="328"/>
-      <c r="O268" s="329"/>
+      <c r="M268" s="334"/>
+      <c r="N268" s="334"/>
+      <c r="O268" s="335"/>
       <c r="P268" s="10"/>
     </row>
     <row r="269" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="9"/>
       <c r="B269" s="29"/>
       <c r="C269" s="30"/>
-      <c r="D269" s="333"/>
-      <c r="E269" s="334"/>
+      <c r="D269" s="339"/>
+      <c r="E269" s="340"/>
       <c r="F269" s="215"/>
       <c r="G269" s="215"/>
       <c r="H269" s="215"/>
       <c r="I269" s="31"/>
       <c r="J269" s="215"/>
       <c r="K269" s="215"/>
-      <c r="L269" s="335"/>
-      <c r="M269" s="335"/>
-      <c r="N269" s="335"/>
-      <c r="O269" s="336"/>
+      <c r="L269" s="341"/>
+      <c r="M269" s="341"/>
+      <c r="N269" s="341"/>
+      <c r="O269" s="342"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28853,10 +28865,10 @@
       <c r="C274" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D274" s="343" t="s">
+      <c r="D274" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E274" s="344"/>
+      <c r="E274" s="329"/>
       <c r="F274" s="25" t="s">
         <v>31</v>
       </c>
@@ -28875,12 +28887,12 @@
       <c r="K274" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L274" s="345" t="s">
+      <c r="L274" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M274" s="345"/>
-      <c r="N274" s="345"/>
-      <c r="O274" s="346"/>
+      <c r="M274" s="330"/>
+      <c r="N274" s="330"/>
+      <c r="O274" s="331"/>
       <c r="P274" s="10"/>
     </row>
     <row r="275" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28891,10 +28903,10 @@
       <c r="C275" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D275" s="337" t="s">
+      <c r="D275" s="332" t="s">
         <v>386</v>
       </c>
-      <c r="E275" s="338"/>
+      <c r="E275" s="333"/>
       <c r="F275" s="214"/>
       <c r="G275" s="214"/>
       <c r="H275" s="214" t="s">
@@ -28905,12 +28917,12 @@
       </c>
       <c r="J275" s="214"/>
       <c r="K275" s="214"/>
-      <c r="L275" s="328" t="s">
+      <c r="L275" s="334" t="s">
         <v>387</v>
       </c>
-      <c r="M275" s="328"/>
-      <c r="N275" s="328"/>
-      <c r="O275" s="329"/>
+      <c r="M275" s="334"/>
+      <c r="N275" s="334"/>
+      <c r="O275" s="335"/>
       <c r="P275" s="10"/>
     </row>
     <row r="276" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28921,10 +28933,10 @@
       <c r="C276" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D276" s="337" t="s">
+      <c r="D276" s="332" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="338"/>
+      <c r="E276" s="333"/>
       <c r="F276" s="214"/>
       <c r="G276" s="214"/>
       <c r="H276" s="214" t="s">
@@ -28937,10 +28949,10 @@
         <v>255</v>
       </c>
       <c r="K276" s="214"/>
-      <c r="L276" s="328"/>
-      <c r="M276" s="328"/>
-      <c r="N276" s="328"/>
-      <c r="O276" s="329"/>
+      <c r="L276" s="334"/>
+      <c r="M276" s="334"/>
+      <c r="N276" s="334"/>
+      <c r="O276" s="335"/>
       <c r="P276" s="10"/>
     </row>
     <row r="277" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28951,10 +28963,10 @@
       <c r="C277" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D277" s="391" t="s">
+      <c r="D277" s="348" t="s">
         <v>379</v>
       </c>
-      <c r="E277" s="392"/>
+      <c r="E277" s="349"/>
       <c r="F277" s="214"/>
       <c r="G277" s="214"/>
       <c r="H277" s="214"/>
@@ -28965,10 +28977,10 @@
         <v>255</v>
       </c>
       <c r="K277" s="214"/>
-      <c r="L277" s="328"/>
-      <c r="M277" s="328"/>
-      <c r="N277" s="328"/>
-      <c r="O277" s="329"/>
+      <c r="L277" s="334"/>
+      <c r="M277" s="334"/>
+      <c r="N277" s="334"/>
+      <c r="O277" s="335"/>
       <c r="P277" s="10"/>
     </row>
     <row r="278" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -28979,10 +28991,10 @@
       <c r="C278" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D278" s="362" t="s">
+      <c r="D278" s="346" t="s">
         <v>415</v>
       </c>
-      <c r="E278" s="363"/>
+      <c r="E278" s="347"/>
       <c r="F278" s="215"/>
       <c r="G278" s="215"/>
       <c r="H278" s="215" t="s">
@@ -28993,12 +29005,12 @@
       </c>
       <c r="J278" s="215"/>
       <c r="K278" s="215"/>
-      <c r="L278" s="335" t="s">
+      <c r="L278" s="341" t="s">
         <v>416</v>
       </c>
-      <c r="M278" s="335"/>
-      <c r="N278" s="335"/>
-      <c r="O278" s="336"/>
+      <c r="M278" s="341"/>
+      <c r="N278" s="341"/>
+      <c r="O278" s="342"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
@@ -29085,10 +29097,10 @@
       <c r="C283" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D283" s="343" t="s">
+      <c r="D283" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E283" s="344"/>
+      <c r="E283" s="329"/>
       <c r="F283" s="25" t="s">
         <v>31</v>
       </c>
@@ -29107,12 +29119,12 @@
       <c r="K283" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L283" s="345" t="s">
+      <c r="L283" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M283" s="345"/>
-      <c r="N283" s="345"/>
-      <c r="O283" s="346"/>
+      <c r="M283" s="330"/>
+      <c r="N283" s="330"/>
+      <c r="O283" s="331"/>
       <c r="P283" s="10"/>
     </row>
     <row r="284" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29123,10 +29135,10 @@
       <c r="C284" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="D284" s="337" t="s">
+      <c r="D284" s="332" t="s">
         <v>403</v>
       </c>
-      <c r="E284" s="338"/>
+      <c r="E284" s="333"/>
       <c r="F284" s="214"/>
       <c r="G284" s="214"/>
       <c r="H284" s="214" t="s">
@@ -29139,10 +29151,10 @@
         <v>255</v>
       </c>
       <c r="K284" s="214"/>
-      <c r="L284" s="328"/>
-      <c r="M284" s="328"/>
-      <c r="N284" s="328"/>
-      <c r="O284" s="329"/>
+      <c r="L284" s="334"/>
+      <c r="M284" s="334"/>
+      <c r="N284" s="334"/>
+      <c r="O284" s="335"/>
       <c r="P284" s="10"/>
     </row>
     <row r="285" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29153,10 +29165,10 @@
       <c r="C285" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D285" s="337" t="s">
+      <c r="D285" s="332" t="s">
         <v>396</v>
       </c>
-      <c r="E285" s="338"/>
+      <c r="E285" s="333"/>
       <c r="F285" s="214"/>
       <c r="G285" s="214"/>
       <c r="H285" s="214" t="s">
@@ -29169,12 +29181,12 @@
         <v>255</v>
       </c>
       <c r="K285" s="214"/>
-      <c r="L285" s="328" t="s">
+      <c r="L285" s="334" t="s">
         <v>395</v>
       </c>
-      <c r="M285" s="328"/>
-      <c r="N285" s="328"/>
-      <c r="O285" s="329"/>
+      <c r="M285" s="334"/>
+      <c r="N285" s="334"/>
+      <c r="O285" s="335"/>
       <c r="P285" s="10"/>
     </row>
     <row r="286" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29185,10 +29197,10 @@
       <c r="C286" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="D286" s="347" t="s">
+      <c r="D286" s="343" t="s">
         <v>402</v>
       </c>
-      <c r="E286" s="348"/>
+      <c r="E286" s="344"/>
       <c r="F286" s="214"/>
       <c r="G286" s="214"/>
       <c r="H286" s="214" t="s">
@@ -29201,10 +29213,10 @@
         <v>255</v>
       </c>
       <c r="K286" s="214"/>
-      <c r="L286" s="342"/>
-      <c r="M286" s="328"/>
-      <c r="N286" s="328"/>
-      <c r="O286" s="329"/>
+      <c r="L286" s="345"/>
+      <c r="M286" s="334"/>
+      <c r="N286" s="334"/>
+      <c r="O286" s="335"/>
       <c r="P286" s="10"/>
     </row>
     <row r="287" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29215,10 +29227,10 @@
       <c r="C287" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="D287" s="337" t="s">
+      <c r="D287" s="332" t="s">
         <v>401</v>
       </c>
-      <c r="E287" s="338"/>
+      <c r="E287" s="333"/>
       <c r="F287" s="214"/>
       <c r="G287" s="214"/>
       <c r="H287" s="214" t="s">
@@ -29229,12 +29241,12 @@
       </c>
       <c r="J287" s="214"/>
       <c r="K287" s="214"/>
-      <c r="L287" s="328" t="s">
+      <c r="L287" s="334" t="s">
         <v>254</v>
       </c>
-      <c r="M287" s="328"/>
-      <c r="N287" s="328"/>
-      <c r="O287" s="329"/>
+      <c r="M287" s="334"/>
+      <c r="N287" s="334"/>
+      <c r="O287" s="335"/>
       <c r="P287" s="10"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29245,10 +29257,10 @@
       <c r="C288" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="D288" s="337" t="s">
+      <c r="D288" s="332" t="s">
         <v>400</v>
       </c>
-      <c r="E288" s="338"/>
+      <c r="E288" s="333"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214"/>
@@ -29259,30 +29271,30 @@
       <c r="K288" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L288" s="328" t="s">
+      <c r="L288" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="M288" s="328"/>
-      <c r="N288" s="328"/>
-      <c r="O288" s="329"/>
+      <c r="M288" s="334"/>
+      <c r="N288" s="334"/>
+      <c r="O288" s="335"/>
       <c r="P288" s="10"/>
     </row>
     <row r="289" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9"/>
       <c r="B289" s="29"/>
       <c r="C289" s="30"/>
-      <c r="D289" s="333"/>
-      <c r="E289" s="334"/>
+      <c r="D289" s="339"/>
+      <c r="E289" s="340"/>
       <c r="F289" s="215"/>
       <c r="G289" s="215"/>
       <c r="H289" s="215"/>
       <c r="I289" s="31"/>
       <c r="J289" s="215"/>
       <c r="K289" s="215"/>
-      <c r="L289" s="335"/>
-      <c r="M289" s="335"/>
-      <c r="N289" s="335"/>
-      <c r="O289" s="336"/>
+      <c r="L289" s="341"/>
+      <c r="M289" s="341"/>
+      <c r="N289" s="341"/>
+      <c r="O289" s="342"/>
       <c r="P289" s="10"/>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
@@ -29341,72 +29353,237 @@
     </row>
   </sheetData>
   <mergeCells count="321">
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="L103:O103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="L106:O106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="L107:O107"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="L288:O288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="L289:O289"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="L283:O283"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="L284:O284"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="L285:O285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="L286:O286"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="L287:O287"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="L276:O276"/>
-    <mergeCell ref="L277:O277"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="L278:O278"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="L265:O265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="L266:O266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="L267:O267"/>
-    <mergeCell ref="L268:O268"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="L269:O269"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="L256:O256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="L257:O257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="L258:O258"/>
-    <mergeCell ref="L259:O259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="L260:O260"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="L200:O200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="L201:O201"/>
-    <mergeCell ref="L210:O210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="L211:O211"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="L203:O203"/>
-    <mergeCell ref="L202:O202"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="L208:O208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="L209:O209"/>
+    <mergeCell ref="L122:O122"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="L242:O242"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="L233:O233"/>
+    <mergeCell ref="L234:O234"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="L235:O235"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="L240:O240"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="L241:O241"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="L216:O216"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="L217:O217"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="L243:O243"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="L250:O250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="L251:O251"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="L232:O232"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="L224:O224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="L225:O225"/>
+    <mergeCell ref="L226:O226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="L227:O227"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="L133:O133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="L120:O120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="L121:O121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L70:O71"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O57"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="L155:O155"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L176:O176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="L177:O177"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="L156:O156"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="L173:O173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="L174:O174"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="L164:O164"/>
     <mergeCell ref="D153:E153"/>
     <mergeCell ref="L153:O153"/>
     <mergeCell ref="D154:E154"/>
@@ -29431,237 +29608,72 @@
     <mergeCell ref="L183:O183"/>
     <mergeCell ref="D175:E175"/>
     <mergeCell ref="L175:O175"/>
-    <mergeCell ref="L176:O176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="L177:O177"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="L156:O156"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="L173:O173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="L174:O174"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:O155"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L70:O71"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L56:O57"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="L133:O133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="L112:O112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="L120:O120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="L121:O121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="L232:O232"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="L224:O224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="L225:O225"/>
-    <mergeCell ref="L226:O226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="L227:O227"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="L243:O243"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="L250:O250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="L251:O251"/>
-    <mergeCell ref="L122:O122"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="L242:O242"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="L233:O233"/>
-    <mergeCell ref="L234:O234"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="L235:O235"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="L240:O240"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="L241:O241"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="L216:O216"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="L217:O217"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="L200:O200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="L201:O201"/>
+    <mergeCell ref="L210:O210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="L211:O211"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="L203:O203"/>
+    <mergeCell ref="L202:O202"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="L208:O208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="L209:O209"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="L256:O256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="L257:O257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="L258:O258"/>
+    <mergeCell ref="L259:O259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="L260:O260"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="L265:O265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="L266:O266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="L267:O267"/>
+    <mergeCell ref="L268:O268"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="L269:O269"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="L276:O276"/>
+    <mergeCell ref="L277:O277"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="L278:O278"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="L288:O288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="L289:O289"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="L283:O283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="L284:O284"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="L285:O285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="L286:O286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="L287:O287"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="L103:O103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="L107:O107"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29736,7 +29748,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -30731,7 +30743,7 @@
       </c>
       <c r="N2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="O2" s="281"/>
       <c r="P2" s="61"/>
@@ -32002,7 +32014,7 @@
       </c>
       <c r="AK2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="AL2" s="281"/>
       <c r="AM2" s="61"/>
@@ -32519,7 +32531,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -33932,7 +33944,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -39535,7 +39547,7 @@
       </c>
       <c r="S2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="T2" s="281"/>
     </row>
@@ -46310,7 +46322,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -48560,7 +48572,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.602518171298</v>
+        <v>44571.616098495368</v>
       </c>
       <c r="Q2" s="281"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918AFE40-0870-4043-8998-5B556A0F993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0944F87E-E5EE-284C-ACE3-0608160CD9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="18840" windowHeight="21100" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="37580" windowHeight="21100" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -2850,37 +2850,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2896,13 +2878,79 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2910,25 +2958,44 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2966,81 +3033,14 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -20467,7 +20467,7 @@
       <c r="L64" s="261"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20612,7 +20612,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -22059,7 +22059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:P292"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A120" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A120" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
@@ -22123,7 +22123,7 @@
       </c>
       <c r="O2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="P2" s="281"/>
     </row>
@@ -22231,10 +22231,10 @@
       <c r="C8" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="364" t="s">
+      <c r="D8" s="385" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="365"/>
+      <c r="E8" s="386"/>
       <c r="F8" s="221" t="s">
         <v>31</v>
       </c>
@@ -22253,12 +22253,12 @@
       <c r="K8" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="366" t="s">
+      <c r="L8" s="387" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="366"/>
-      <c r="N8" s="366"/>
-      <c r="O8" s="367"/>
+      <c r="M8" s="387"/>
+      <c r="N8" s="387"/>
+      <c r="O8" s="388"/>
       <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22269,10 +22269,10 @@
       <c r="C9" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="356" t="s">
+      <c r="D9" s="377" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="357"/>
+      <c r="E9" s="378"/>
       <c r="F9" s="224" t="s">
         <v>191</v>
       </c>
@@ -22287,10 +22287,10 @@
       </c>
       <c r="J9" s="224"/>
       <c r="K9" s="224"/>
-      <c r="L9" s="358"/>
-      <c r="M9" s="358"/>
-      <c r="N9" s="358"/>
-      <c r="O9" s="359"/>
+      <c r="L9" s="379"/>
+      <c r="M9" s="379"/>
+      <c r="N9" s="379"/>
+      <c r="O9" s="380"/>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22301,10 +22301,10 @@
       <c r="C10" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="356" t="s">
+      <c r="D10" s="377" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="357"/>
+      <c r="E10" s="378"/>
       <c r="F10" s="224"/>
       <c r="G10" s="224"/>
       <c r="H10" s="224" t="s">
@@ -22315,12 +22315,12 @@
       </c>
       <c r="J10" s="224"/>
       <c r="K10" s="224"/>
-      <c r="L10" s="358" t="s">
+      <c r="L10" s="379" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="358"/>
-      <c r="N10" s="358"/>
-      <c r="O10" s="359"/>
+      <c r="M10" s="379"/>
+      <c r="N10" s="379"/>
+      <c r="O10" s="380"/>
       <c r="P10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22331,10 +22331,10 @@
       <c r="C11" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="356" t="s">
+      <c r="D11" s="377" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="357"/>
+      <c r="E11" s="378"/>
       <c r="F11" s="224"/>
       <c r="G11" s="224"/>
       <c r="H11" s="224" t="s">
@@ -22345,10 +22345,10 @@
       </c>
       <c r="J11" s="224"/>
       <c r="K11" s="224"/>
-      <c r="L11" s="358"/>
-      <c r="M11" s="358"/>
-      <c r="N11" s="358"/>
-      <c r="O11" s="359"/>
+      <c r="L11" s="379"/>
+      <c r="M11" s="379"/>
+      <c r="N11" s="379"/>
+      <c r="O11" s="380"/>
       <c r="P11" s="110"/>
     </row>
     <row r="12" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -22359,10 +22359,10 @@
       <c r="C12" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="360" t="s">
+      <c r="D12" s="381" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="361"/>
+      <c r="E12" s="382"/>
       <c r="F12" s="228"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
@@ -22371,10 +22371,10 @@
       </c>
       <c r="J12" s="228"/>
       <c r="K12" s="228"/>
-      <c r="L12" s="362"/>
-      <c r="M12" s="362"/>
-      <c r="N12" s="362"/>
-      <c r="O12" s="363"/>
+      <c r="L12" s="383"/>
+      <c r="M12" s="383"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="384"/>
       <c r="P12" s="110"/>
     </row>
     <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22461,10 +22461,10 @@
       <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="328" t="s">
+      <c r="D17" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="329"/>
+      <c r="E17" s="344"/>
       <c r="F17" s="25" t="s">
         <v>31</v>
       </c>
@@ -22483,12 +22483,12 @@
       <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="330" t="s">
+      <c r="L17" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="330"/>
-      <c r="N17" s="330"/>
-      <c r="O17" s="331"/>
+      <c r="M17" s="345"/>
+      <c r="N17" s="345"/>
+      <c r="O17" s="346"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22499,10 +22499,10 @@
       <c r="C18" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="332" t="s">
+      <c r="D18" s="337" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="333"/>
+      <c r="E18" s="338"/>
       <c r="F18" s="214"/>
       <c r="G18" s="214"/>
       <c r="H18" s="214" t="s">
@@ -22515,10 +22515,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="214"/>
-      <c r="L18" s="334"/>
-      <c r="M18" s="334"/>
-      <c r="N18" s="334"/>
-      <c r="O18" s="335"/>
+      <c r="L18" s="328"/>
+      <c r="M18" s="328"/>
+      <c r="N18" s="328"/>
+      <c r="O18" s="329"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22529,10 +22529,10 @@
       <c r="C19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="332" t="s">
+      <c r="D19" s="337" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="333"/>
+      <c r="E19" s="338"/>
       <c r="F19" s="214"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214" t="s">
@@ -22545,10 +22545,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="214"/>
-      <c r="L19" s="334"/>
-      <c r="M19" s="334"/>
-      <c r="N19" s="334"/>
-      <c r="O19" s="335"/>
+      <c r="L19" s="328"/>
+      <c r="M19" s="328"/>
+      <c r="N19" s="328"/>
+      <c r="O19" s="329"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -22559,10 +22559,10 @@
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="343" t="s">
+      <c r="D20" s="347" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="344"/>
+      <c r="E20" s="348"/>
       <c r="F20" s="214"/>
       <c r="G20" s="214"/>
       <c r="H20" s="214" t="s">
@@ -22575,12 +22575,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="214"/>
-      <c r="L20" s="345" t="s">
+      <c r="L20" s="342" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="334"/>
-      <c r="N20" s="334"/>
-      <c r="O20" s="335"/>
+      <c r="M20" s="328"/>
+      <c r="N20" s="328"/>
+      <c r="O20" s="329"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22591,10 +22591,10 @@
       <c r="C21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="332" t="s">
+      <c r="D21" s="337" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="333"/>
+      <c r="E21" s="338"/>
       <c r="F21" s="214"/>
       <c r="G21" s="214"/>
       <c r="H21" s="214" t="s">
@@ -22605,12 +22605,12 @@
       </c>
       <c r="J21" s="214"/>
       <c r="K21" s="214"/>
-      <c r="L21" s="334" t="s">
+      <c r="L21" s="328" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="334"/>
-      <c r="N21" s="334"/>
-      <c r="O21" s="335"/>
+      <c r="M21" s="328"/>
+      <c r="N21" s="328"/>
+      <c r="O21" s="329"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22621,10 +22621,10 @@
       <c r="C22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="332" t="s">
+      <c r="D22" s="337" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="333"/>
+      <c r="E22" s="338"/>
       <c r="F22" s="214"/>
       <c r="G22" s="214"/>
       <c r="H22" s="214"/>
@@ -22633,28 +22633,28 @@
       </c>
       <c r="J22" s="214"/>
       <c r="K22" s="214"/>
-      <c r="L22" s="334"/>
-      <c r="M22" s="334"/>
-      <c r="N22" s="334"/>
-      <c r="O22" s="335"/>
+      <c r="L22" s="328"/>
+      <c r="M22" s="328"/>
+      <c r="N22" s="328"/>
+      <c r="O22" s="329"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="339"/>
-      <c r="E23" s="340"/>
+      <c r="D23" s="333"/>
+      <c r="E23" s="334"/>
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
       <c r="I23" s="31"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="341"/>
-      <c r="M23" s="341"/>
-      <c r="N23" s="341"/>
-      <c r="O23" s="342"/>
+      <c r="L23" s="335"/>
+      <c r="M23" s="335"/>
+      <c r="N23" s="335"/>
+      <c r="O23" s="336"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -22759,10 +22759,10 @@
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="328" t="s">
+      <c r="D29" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="329"/>
+      <c r="E29" s="344"/>
       <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
@@ -22781,12 +22781,12 @@
       <c r="K29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="330" t="s">
+      <c r="L29" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="330"/>
-      <c r="N29" s="330"/>
-      <c r="O29" s="331"/>
+      <c r="M29" s="345"/>
+      <c r="N29" s="345"/>
+      <c r="O29" s="346"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22797,10 +22797,10 @@
       <c r="C30" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="332" t="s">
+      <c r="D30" s="337" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="333"/>
+      <c r="E30" s="338"/>
       <c r="F30" s="214"/>
       <c r="G30" s="214"/>
       <c r="H30" s="214" t="s">
@@ -22811,12 +22811,12 @@
       </c>
       <c r="J30" s="214"/>
       <c r="K30" s="214"/>
-      <c r="L30" s="334" t="s">
+      <c r="L30" s="328" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="334"/>
-      <c r="N30" s="334"/>
-      <c r="O30" s="335"/>
+      <c r="M30" s="328"/>
+      <c r="N30" s="328"/>
+      <c r="O30" s="329"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22827,10 +22827,10 @@
       <c r="C31" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="332" t="s">
+      <c r="D31" s="337" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="333"/>
+      <c r="E31" s="338"/>
       <c r="F31" s="214"/>
       <c r="G31" s="214"/>
       <c r="H31" s="214" t="s">
@@ -22841,82 +22841,82 @@
       </c>
       <c r="J31" s="214"/>
       <c r="K31" s="214"/>
-      <c r="L31" s="334"/>
-      <c r="M31" s="334"/>
-      <c r="N31" s="334"/>
-      <c r="O31" s="335"/>
+      <c r="L31" s="328"/>
+      <c r="M31" s="328"/>
+      <c r="N31" s="328"/>
+      <c r="O31" s="329"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="350"/>
-      <c r="E32" s="351"/>
+      <c r="D32" s="389"/>
+      <c r="E32" s="390"/>
       <c r="F32" s="214"/>
       <c r="G32" s="214"/>
       <c r="H32" s="214"/>
       <c r="I32" s="28"/>
       <c r="J32" s="214"/>
       <c r="K32" s="214"/>
-      <c r="L32" s="334"/>
-      <c r="M32" s="334"/>
-      <c r="N32" s="334"/>
-      <c r="O32" s="335"/>
+      <c r="L32" s="328"/>
+      <c r="M32" s="328"/>
+      <c r="N32" s="328"/>
+      <c r="O32" s="329"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="350"/>
-      <c r="E33" s="351"/>
+      <c r="D33" s="389"/>
+      <c r="E33" s="390"/>
       <c r="F33" s="214"/>
       <c r="G33" s="214"/>
       <c r="H33" s="214"/>
       <c r="I33" s="28"/>
       <c r="J33" s="214"/>
       <c r="K33" s="214"/>
-      <c r="L33" s="334"/>
-      <c r="M33" s="334"/>
-      <c r="N33" s="334"/>
-      <c r="O33" s="335"/>
+      <c r="L33" s="328"/>
+      <c r="M33" s="328"/>
+      <c r="N33" s="328"/>
+      <c r="O33" s="329"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="350"/>
-      <c r="E34" s="351"/>
+      <c r="D34" s="389"/>
+      <c r="E34" s="390"/>
       <c r="F34" s="214"/>
       <c r="G34" s="214"/>
       <c r="H34" s="214"/>
       <c r="I34" s="28"/>
       <c r="J34" s="214"/>
       <c r="K34" s="214"/>
-      <c r="L34" s="334"/>
-      <c r="M34" s="334"/>
-      <c r="N34" s="334"/>
-      <c r="O34" s="335"/>
+      <c r="L34" s="328"/>
+      <c r="M34" s="328"/>
+      <c r="N34" s="328"/>
+      <c r="O34" s="329"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="339"/>
-      <c r="E35" s="340"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="334"/>
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
       <c r="I35" s="31"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="341"/>
-      <c r="M35" s="341"/>
-      <c r="N35" s="341"/>
-      <c r="O35" s="342"/>
+      <c r="L35" s="335"/>
+      <c r="M35" s="335"/>
+      <c r="N35" s="335"/>
+      <c r="O35" s="336"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -23003,10 +23003,10 @@
       <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="328" t="s">
+      <c r="D40" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="329"/>
+      <c r="E40" s="344"/>
       <c r="F40" s="25" t="s">
         <v>31</v>
       </c>
@@ -23025,12 +23025,12 @@
       <c r="K40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="330" t="s">
+      <c r="L40" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="330"/>
-      <c r="N40" s="330"/>
-      <c r="O40" s="331"/>
+      <c r="M40" s="345"/>
+      <c r="N40" s="345"/>
+      <c r="O40" s="346"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23041,10 +23041,10 @@
       <c r="C41" s="257" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="352" t="s">
+      <c r="D41" s="375" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="353"/>
+      <c r="E41" s="376"/>
       <c r="F41" s="258"/>
       <c r="G41" s="258"/>
       <c r="H41" s="258" t="s">
@@ -23055,12 +23055,12 @@
       </c>
       <c r="J41" s="258"/>
       <c r="K41" s="258"/>
-      <c r="L41" s="354" t="s">
+      <c r="L41" s="373" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="354"/>
-      <c r="N41" s="354"/>
-      <c r="O41" s="355"/>
+      <c r="M41" s="373"/>
+      <c r="N41" s="373"/>
+      <c r="O41" s="374"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23071,10 +23071,10 @@
       <c r="C42" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="352" t="s">
+      <c r="D42" s="375" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="353"/>
+      <c r="E42" s="376"/>
       <c r="F42" s="258"/>
       <c r="G42" s="258"/>
       <c r="H42" s="258" t="s">
@@ -23085,10 +23085,10 @@
       </c>
       <c r="J42" s="258"/>
       <c r="K42" s="258"/>
-      <c r="L42" s="354"/>
-      <c r="M42" s="354"/>
-      <c r="N42" s="354"/>
-      <c r="O42" s="355"/>
+      <c r="L42" s="373"/>
+      <c r="M42" s="373"/>
+      <c r="N42" s="373"/>
+      <c r="O42" s="374"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23099,10 +23099,10 @@
       <c r="C43" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="332" t="s">
+      <c r="D43" s="337" t="s">
         <v>224</v>
       </c>
-      <c r="E43" s="333"/>
+      <c r="E43" s="338"/>
       <c r="F43" s="214"/>
       <c r="G43" s="214"/>
       <c r="H43" s="214" t="s">
@@ -23113,10 +23113,10 @@
       </c>
       <c r="J43" s="214"/>
       <c r="K43" s="214"/>
-      <c r="L43" s="334"/>
-      <c r="M43" s="334"/>
-      <c r="N43" s="334"/>
-      <c r="O43" s="335"/>
+      <c r="L43" s="328"/>
+      <c r="M43" s="328"/>
+      <c r="N43" s="328"/>
+      <c r="O43" s="329"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23127,10 +23127,10 @@
       <c r="C44" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="332" t="s">
+      <c r="D44" s="337" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="333"/>
+      <c r="E44" s="338"/>
       <c r="F44" s="214"/>
       <c r="G44" s="214"/>
       <c r="H44" s="214" t="s">
@@ -23141,10 +23141,10 @@
       </c>
       <c r="J44" s="214"/>
       <c r="K44" s="214"/>
-      <c r="L44" s="334"/>
-      <c r="M44" s="334"/>
-      <c r="N44" s="334"/>
-      <c r="O44" s="335"/>
+      <c r="L44" s="328"/>
+      <c r="M44" s="328"/>
+      <c r="N44" s="328"/>
+      <c r="O44" s="329"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23155,10 +23155,10 @@
       <c r="C45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="332" t="s">
+      <c r="D45" s="337" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="333"/>
+      <c r="E45" s="338"/>
       <c r="F45" s="214"/>
       <c r="G45" s="214"/>
       <c r="H45" s="214" t="s">
@@ -23171,12 +23171,12 @@
       <c r="K45" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="334" t="s">
+      <c r="L45" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M45" s="334"/>
-      <c r="N45" s="334"/>
-      <c r="O45" s="335"/>
+      <c r="M45" s="328"/>
+      <c r="N45" s="328"/>
+      <c r="O45" s="329"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23201,28 +23201,28 @@
       </c>
       <c r="J46" s="237"/>
       <c r="K46" s="237"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="334"/>
-      <c r="N46" s="334"/>
-      <c r="O46" s="335"/>
+      <c r="L46" s="328"/>
+      <c r="M46" s="328"/>
+      <c r="N46" s="328"/>
+      <c r="O46" s="329"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="339"/>
-      <c r="E47" s="340"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="334"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
       <c r="H47" s="215"/>
       <c r="I47" s="31"/>
       <c r="J47" s="215"/>
       <c r="K47" s="215"/>
-      <c r="L47" s="341"/>
-      <c r="M47" s="341"/>
-      <c r="N47" s="341"/>
-      <c r="O47" s="342"/>
+      <c r="L47" s="335"/>
+      <c r="M47" s="335"/>
+      <c r="N47" s="335"/>
+      <c r="O47" s="336"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -23309,10 +23309,10 @@
       <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="328" t="s">
+      <c r="D52" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="329"/>
+      <c r="E52" s="344"/>
       <c r="F52" s="25" t="s">
         <v>31</v>
       </c>
@@ -23331,12 +23331,12 @@
       <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="330" t="s">
+      <c r="L52" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="330"/>
-      <c r="N52" s="330"/>
-      <c r="O52" s="331"/>
+      <c r="M52" s="345"/>
+      <c r="N52" s="345"/>
+      <c r="O52" s="346"/>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23347,10 +23347,10 @@
       <c r="C53" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="333"/>
+      <c r="E53" s="338"/>
       <c r="F53" s="214"/>
       <c r="G53" s="214"/>
       <c r="H53" s="214" t="s">
@@ -23363,12 +23363,12 @@
       <c r="K53" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="334" t="s">
+      <c r="L53" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M53" s="334"/>
-      <c r="N53" s="334"/>
-      <c r="O53" s="335"/>
+      <c r="M53" s="328"/>
+      <c r="N53" s="328"/>
+      <c r="O53" s="329"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23393,12 +23393,12 @@
       </c>
       <c r="J54" s="214"/>
       <c r="K54" s="214"/>
-      <c r="L54" s="371" t="s">
+      <c r="L54" s="330" t="s">
         <v>246</v>
       </c>
-      <c r="M54" s="372"/>
-      <c r="N54" s="372"/>
-      <c r="O54" s="373"/>
+      <c r="M54" s="331"/>
+      <c r="N54" s="331"/>
+      <c r="O54" s="332"/>
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23423,12 +23423,12 @@
       </c>
       <c r="J55" s="214"/>
       <c r="K55" s="214"/>
-      <c r="L55" s="377" t="s">
+      <c r="L55" s="351" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="378"/>
-      <c r="N55" s="378"/>
-      <c r="O55" s="379"/>
+      <c r="M55" s="352"/>
+      <c r="N55" s="352"/>
+      <c r="O55" s="353"/>
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23451,12 +23451,12 @@
       </c>
       <c r="J56" s="214"/>
       <c r="K56" s="214"/>
-      <c r="L56" s="368" t="s">
+      <c r="L56" s="367" t="s">
         <v>243</v>
       </c>
-      <c r="M56" s="369"/>
-      <c r="N56" s="369"/>
-      <c r="O56" s="370"/>
+      <c r="M56" s="368"/>
+      <c r="N56" s="368"/>
+      <c r="O56" s="369"/>
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23479,10 +23479,10 @@
       </c>
       <c r="J57" s="214"/>
       <c r="K57" s="214"/>
-      <c r="L57" s="374"/>
-      <c r="M57" s="375"/>
-      <c r="N57" s="375"/>
-      <c r="O57" s="376"/>
+      <c r="L57" s="370"/>
+      <c r="M57" s="371"/>
+      <c r="N57" s="371"/>
+      <c r="O57" s="372"/>
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -23493,10 +23493,10 @@
       <c r="C58" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="343" t="s">
+      <c r="D58" s="347" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="344"/>
+      <c r="E58" s="348"/>
       <c r="F58" s="214"/>
       <c r="G58" s="214"/>
       <c r="H58" s="214" t="s">
@@ -23507,12 +23507,12 @@
       </c>
       <c r="J58" s="214"/>
       <c r="K58" s="214"/>
-      <c r="L58" s="345" t="s">
+      <c r="L58" s="342" t="s">
         <v>409</v>
       </c>
-      <c r="M58" s="334"/>
-      <c r="N58" s="334"/>
-      <c r="O58" s="335"/>
+      <c r="M58" s="328"/>
+      <c r="N58" s="328"/>
+      <c r="O58" s="329"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23523,10 +23523,10 @@
       <c r="C59" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="332" t="s">
+      <c r="D59" s="337" t="s">
         <v>228</v>
       </c>
-      <c r="E59" s="333"/>
+      <c r="E59" s="338"/>
       <c r="F59" s="214"/>
       <c r="G59" s="214"/>
       <c r="H59" s="214" t="s">
@@ -23537,10 +23537,10 @@
       </c>
       <c r="J59" s="214"/>
       <c r="K59" s="214"/>
-      <c r="L59" s="334"/>
-      <c r="M59" s="334"/>
-      <c r="N59" s="334"/>
-      <c r="O59" s="335"/>
+      <c r="L59" s="328"/>
+      <c r="M59" s="328"/>
+      <c r="N59" s="328"/>
+      <c r="O59" s="329"/>
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23551,10 +23551,10 @@
       <c r="C60" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D60" s="332" t="s">
+      <c r="D60" s="337" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="333"/>
+      <c r="E60" s="338"/>
       <c r="F60" s="214"/>
       <c r="G60" s="214"/>
       <c r="H60" s="214" t="s">
@@ -23567,30 +23567,30 @@
       <c r="K60" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L60" s="334" t="s">
+      <c r="L60" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M60" s="334"/>
-      <c r="N60" s="334"/>
-      <c r="O60" s="335"/>
+      <c r="M60" s="328"/>
+      <c r="N60" s="328"/>
+      <c r="O60" s="329"/>
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="339"/>
-      <c r="E61" s="340"/>
+      <c r="D61" s="333"/>
+      <c r="E61" s="334"/>
       <c r="F61" s="215"/>
       <c r="G61" s="215"/>
       <c r="H61" s="215"/>
       <c r="I61" s="31"/>
       <c r="J61" s="215"/>
       <c r="K61" s="215"/>
-      <c r="L61" s="341"/>
-      <c r="M61" s="341"/>
-      <c r="N61" s="341"/>
-      <c r="O61" s="342"/>
+      <c r="L61" s="335"/>
+      <c r="M61" s="335"/>
+      <c r="N61" s="335"/>
+      <c r="O61" s="336"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -23677,10 +23677,10 @@
       <c r="C66" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="328" t="s">
+      <c r="D66" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="329"/>
+      <c r="E66" s="344"/>
       <c r="F66" s="25" t="s">
         <v>31</v>
       </c>
@@ -23699,12 +23699,12 @@
       <c r="K66" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L66" s="330" t="s">
+      <c r="L66" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="330"/>
-      <c r="N66" s="330"/>
-      <c r="O66" s="331"/>
+      <c r="M66" s="345"/>
+      <c r="N66" s="345"/>
+      <c r="O66" s="346"/>
       <c r="P66" s="10"/>
     </row>
     <row r="67" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23715,10 +23715,10 @@
       <c r="C67" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D67" s="332" t="s">
+      <c r="D67" s="337" t="s">
         <v>267</v>
       </c>
-      <c r="E67" s="333"/>
+      <c r="E67" s="338"/>
       <c r="F67" s="214"/>
       <c r="G67" s="214"/>
       <c r="H67" s="214" t="s">
@@ -23731,12 +23731,12 @@
       <c r="K67" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L67" s="334" t="s">
+      <c r="L67" s="328" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="334"/>
-      <c r="N67" s="334"/>
-      <c r="O67" s="335"/>
+      <c r="M67" s="328"/>
+      <c r="N67" s="328"/>
+      <c r="O67" s="329"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23747,10 +23747,10 @@
       <c r="C68" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="332" t="s">
+      <c r="D68" s="337" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="333"/>
+      <c r="E68" s="338"/>
       <c r="F68" s="214"/>
       <c r="G68" s="214"/>
       <c r="H68" s="214" t="s">
@@ -23761,10 +23761,10 @@
       </c>
       <c r="J68" s="214"/>
       <c r="K68" s="214"/>
-      <c r="L68" s="334"/>
-      <c r="M68" s="334"/>
-      <c r="N68" s="334"/>
-      <c r="O68" s="335"/>
+      <c r="L68" s="328"/>
+      <c r="M68" s="328"/>
+      <c r="N68" s="328"/>
+      <c r="O68" s="329"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23775,10 +23775,10 @@
       <c r="C69" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D69" s="332" t="s">
+      <c r="D69" s="337" t="s">
         <v>249</v>
       </c>
-      <c r="E69" s="333"/>
+      <c r="E69" s="338"/>
       <c r="F69" s="214"/>
       <c r="G69" s="214"/>
       <c r="H69" s="214" t="s">
@@ -23789,10 +23789,10 @@
       </c>
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
-      <c r="L69" s="334"/>
-      <c r="M69" s="334"/>
-      <c r="N69" s="334"/>
-      <c r="O69" s="335"/>
+      <c r="L69" s="328"/>
+      <c r="M69" s="328"/>
+      <c r="N69" s="328"/>
+      <c r="O69" s="329"/>
       <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23815,12 +23815,12 @@
       </c>
       <c r="J70" s="214"/>
       <c r="K70" s="214"/>
-      <c r="L70" s="368" t="s">
+      <c r="L70" s="367" t="s">
         <v>243</v>
       </c>
-      <c r="M70" s="369"/>
-      <c r="N70" s="369"/>
-      <c r="O70" s="370"/>
+      <c r="M70" s="368"/>
+      <c r="N70" s="368"/>
+      <c r="O70" s="369"/>
       <c r="P70" s="10"/>
     </row>
     <row r="71" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23843,10 +23843,10 @@
       </c>
       <c r="J71" s="214"/>
       <c r="K71" s="214"/>
-      <c r="L71" s="374"/>
-      <c r="M71" s="375"/>
-      <c r="N71" s="375"/>
-      <c r="O71" s="376"/>
+      <c r="L71" s="370"/>
+      <c r="M71" s="371"/>
+      <c r="N71" s="371"/>
+      <c r="O71" s="372"/>
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23857,10 +23857,10 @@
       <c r="C72" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D72" s="332" t="s">
+      <c r="D72" s="337" t="s">
         <v>250</v>
       </c>
-      <c r="E72" s="333"/>
+      <c r="E72" s="338"/>
       <c r="F72" s="214"/>
       <c r="G72" s="214"/>
       <c r="H72" s="214"/>
@@ -23871,28 +23871,28 @@
         <v>255</v>
       </c>
       <c r="K72" s="214"/>
-      <c r="L72" s="345"/>
-      <c r="M72" s="334"/>
-      <c r="N72" s="334"/>
-      <c r="O72" s="335"/>
+      <c r="L72" s="342"/>
+      <c r="M72" s="328"/>
+      <c r="N72" s="328"/>
+      <c r="O72" s="329"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="29"/>
       <c r="C73" s="30"/>
-      <c r="D73" s="339"/>
-      <c r="E73" s="340"/>
+      <c r="D73" s="333"/>
+      <c r="E73" s="334"/>
       <c r="F73" s="215"/>
       <c r="G73" s="215"/>
       <c r="H73" s="215"/>
       <c r="I73" s="31"/>
       <c r="J73" s="215"/>
       <c r="K73" s="215"/>
-      <c r="L73" s="341"/>
-      <c r="M73" s="341"/>
-      <c r="N73" s="341"/>
-      <c r="O73" s="342"/>
+      <c r="L73" s="335"/>
+      <c r="M73" s="335"/>
+      <c r="N73" s="335"/>
+      <c r="O73" s="336"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -23979,10 +23979,10 @@
       <c r="C78" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="328" t="s">
+      <c r="D78" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="329"/>
+      <c r="E78" s="344"/>
       <c r="F78" s="25" t="s">
         <v>31</v>
       </c>
@@ -24001,12 +24001,12 @@
       <c r="K78" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="330" t="s">
+      <c r="L78" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M78" s="330"/>
-      <c r="N78" s="330"/>
-      <c r="O78" s="331"/>
+      <c r="M78" s="345"/>
+      <c r="N78" s="345"/>
+      <c r="O78" s="346"/>
       <c r="P78" s="10"/>
     </row>
     <row r="79" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24017,10 +24017,10 @@
       <c r="C79" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="332" t="s">
+      <c r="D79" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="338"/>
       <c r="F79" s="214"/>
       <c r="G79" s="214"/>
       <c r="H79" s="214" t="s">
@@ -24033,12 +24033,12 @@
       <c r="K79" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L79" s="334" t="s">
+      <c r="L79" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M79" s="334"/>
-      <c r="N79" s="334"/>
-      <c r="O79" s="335"/>
+      <c r="M79" s="328"/>
+      <c r="N79" s="328"/>
+      <c r="O79" s="329"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24049,10 +24049,10 @@
       <c r="C80" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="332" t="s">
+      <c r="D80" s="337" t="s">
         <v>259</v>
       </c>
-      <c r="E80" s="333"/>
+      <c r="E80" s="338"/>
       <c r="F80" s="214"/>
       <c r="G80" s="214"/>
       <c r="H80" s="214" t="s">
@@ -24063,10 +24063,10 @@
       </c>
       <c r="J80" s="214"/>
       <c r="K80" s="214"/>
-      <c r="L80" s="334"/>
-      <c r="M80" s="334"/>
-      <c r="N80" s="334"/>
-      <c r="O80" s="335"/>
+      <c r="L80" s="328"/>
+      <c r="M80" s="328"/>
+      <c r="N80" s="328"/>
+      <c r="O80" s="329"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24077,10 +24077,10 @@
       <c r="C81" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="332" t="s">
+      <c r="D81" s="337" t="s">
         <v>260</v>
       </c>
-      <c r="E81" s="333"/>
+      <c r="E81" s="338"/>
       <c r="F81" s="214"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214" t="s">
@@ -24093,12 +24093,12 @@
       <c r="K81" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L81" s="368" t="s">
+      <c r="L81" s="367" t="s">
         <v>410</v>
       </c>
-      <c r="M81" s="369"/>
-      <c r="N81" s="369"/>
-      <c r="O81" s="370"/>
+      <c r="M81" s="368"/>
+      <c r="N81" s="368"/>
+      <c r="O81" s="369"/>
       <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24109,10 +24109,10 @@
       <c r="C82" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D82" s="332" t="s">
+      <c r="D82" s="337" t="s">
         <v>261</v>
       </c>
-      <c r="E82" s="333"/>
+      <c r="E82" s="338"/>
       <c r="F82" s="214"/>
       <c r="G82" s="214"/>
       <c r="H82" s="214" t="s">
@@ -24123,10 +24123,10 @@
       </c>
       <c r="J82" s="214"/>
       <c r="K82" s="241"/>
-      <c r="L82" s="334"/>
-      <c r="M82" s="334"/>
-      <c r="N82" s="334"/>
-      <c r="O82" s="335"/>
+      <c r="L82" s="328"/>
+      <c r="M82" s="328"/>
+      <c r="N82" s="328"/>
+      <c r="O82" s="329"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24137,10 +24137,10 @@
       <c r="C83" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="332" t="s">
+      <c r="D83" s="337" t="s">
         <v>262</v>
       </c>
-      <c r="E83" s="333"/>
+      <c r="E83" s="338"/>
       <c r="F83" s="214"/>
       <c r="G83" s="214"/>
       <c r="H83" s="214" t="s">
@@ -24151,12 +24151,12 @@
       </c>
       <c r="J83" s="214"/>
       <c r="K83" s="241"/>
-      <c r="L83" s="334" t="s">
+      <c r="L83" s="328" t="s">
         <v>360</v>
       </c>
-      <c r="M83" s="334"/>
-      <c r="N83" s="334"/>
-      <c r="O83" s="335"/>
+      <c r="M83" s="328"/>
+      <c r="N83" s="328"/>
+      <c r="O83" s="329"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24167,10 +24167,10 @@
       <c r="C84" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="332" t="s">
+      <c r="D84" s="337" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="333"/>
+      <c r="E84" s="338"/>
       <c r="F84" s="214"/>
       <c r="G84" s="214"/>
       <c r="H84" s="214" t="s">
@@ -24181,12 +24181,12 @@
       </c>
       <c r="J84" s="214"/>
       <c r="K84" s="241"/>
-      <c r="L84" s="334" t="s">
+      <c r="L84" s="328" t="s">
         <v>254</v>
       </c>
-      <c r="M84" s="334"/>
-      <c r="N84" s="334"/>
-      <c r="O84" s="335"/>
+      <c r="M84" s="328"/>
+      <c r="N84" s="328"/>
+      <c r="O84" s="329"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24197,10 +24197,10 @@
       <c r="C85" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D85" s="332" t="s">
+      <c r="D85" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="E85" s="333"/>
+      <c r="E85" s="338"/>
       <c r="F85" s="214"/>
       <c r="G85" s="214"/>
       <c r="H85" s="214" t="s">
@@ -24213,48 +24213,48 @@
       <c r="K85" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L85" s="336" t="s">
+      <c r="L85" s="364" t="s">
         <v>270</v>
       </c>
-      <c r="M85" s="337"/>
-      <c r="N85" s="337"/>
-      <c r="O85" s="338"/>
+      <c r="M85" s="365"/>
+      <c r="N85" s="365"/>
+      <c r="O85" s="366"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="26"/>
       <c r="C86" s="27"/>
-      <c r="D86" s="332"/>
-      <c r="E86" s="333"/>
+      <c r="D86" s="337"/>
+      <c r="E86" s="338"/>
       <c r="F86" s="214"/>
       <c r="G86" s="214"/>
       <c r="H86" s="214"/>
       <c r="I86" s="28"/>
       <c r="J86" s="214"/>
       <c r="K86" s="214"/>
-      <c r="L86" s="334"/>
-      <c r="M86" s="334"/>
-      <c r="N86" s="334"/>
-      <c r="O86" s="335"/>
+      <c r="L86" s="328"/>
+      <c r="M86" s="328"/>
+      <c r="N86" s="328"/>
+      <c r="O86" s="329"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="29"/>
       <c r="C87" s="30"/>
-      <c r="D87" s="339"/>
-      <c r="E87" s="340"/>
+      <c r="D87" s="333"/>
+      <c r="E87" s="334"/>
       <c r="F87" s="215"/>
       <c r="G87" s="215"/>
       <c r="H87" s="215"/>
       <c r="I87" s="31"/>
       <c r="J87" s="215"/>
       <c r="K87" s="215"/>
-      <c r="L87" s="341"/>
-      <c r="M87" s="341"/>
-      <c r="N87" s="341"/>
-      <c r="O87" s="342"/>
+      <c r="L87" s="335"/>
+      <c r="M87" s="335"/>
+      <c r="N87" s="335"/>
+      <c r="O87" s="336"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24341,10 +24341,10 @@
       <c r="C92" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D92" s="328" t="s">
+      <c r="D92" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="329"/>
+      <c r="E92" s="344"/>
       <c r="F92" s="25" t="s">
         <v>31</v>
       </c>
@@ -24363,12 +24363,12 @@
       <c r="K92" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L92" s="330" t="s">
+      <c r="L92" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="330"/>
-      <c r="N92" s="330"/>
-      <c r="O92" s="331"/>
+      <c r="M92" s="345"/>
+      <c r="N92" s="345"/>
+      <c r="O92" s="346"/>
       <c r="P92" s="10"/>
     </row>
     <row r="93" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24379,10 +24379,10 @@
       <c r="C93" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="332" t="s">
+      <c r="D93" s="337" t="s">
         <v>269</v>
       </c>
-      <c r="E93" s="333"/>
+      <c r="E93" s="338"/>
       <c r="F93" s="214"/>
       <c r="G93" s="214"/>
       <c r="H93" s="214" t="s">
@@ -24395,12 +24395,12 @@
       <c r="K93" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L93" s="334" t="s">
+      <c r="L93" s="328" t="s">
         <v>265</v>
       </c>
-      <c r="M93" s="334"/>
-      <c r="N93" s="334"/>
-      <c r="O93" s="335"/>
+      <c r="M93" s="328"/>
+      <c r="N93" s="328"/>
+      <c r="O93" s="329"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24411,10 +24411,10 @@
       <c r="C94" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D94" s="332" t="s">
+      <c r="D94" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="333"/>
+      <c r="E94" s="338"/>
       <c r="F94" s="214"/>
       <c r="G94" s="214"/>
       <c r="H94" s="214" t="s">
@@ -24427,12 +24427,12 @@
       <c r="K94" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L94" s="336" t="s">
+      <c r="L94" s="364" t="s">
         <v>270</v>
       </c>
-      <c r="M94" s="337"/>
-      <c r="N94" s="337"/>
-      <c r="O94" s="338"/>
+      <c r="M94" s="365"/>
+      <c r="N94" s="365"/>
+      <c r="O94" s="366"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24443,10 +24443,10 @@
       <c r="C95" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D95" s="332" t="s">
+      <c r="D95" s="337" t="s">
         <v>271</v>
       </c>
-      <c r="E95" s="333"/>
+      <c r="E95" s="338"/>
       <c r="F95" s="214"/>
       <c r="G95" s="214"/>
       <c r="H95" s="214" t="s">
@@ -24457,10 +24457,10 @@
       </c>
       <c r="J95" s="214"/>
       <c r="K95" s="214"/>
-      <c r="L95" s="368"/>
-      <c r="M95" s="369"/>
-      <c r="N95" s="369"/>
-      <c r="O95" s="370"/>
+      <c r="L95" s="367"/>
+      <c r="M95" s="368"/>
+      <c r="N95" s="368"/>
+      <c r="O95" s="369"/>
       <c r="P95" s="10"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24471,10 +24471,10 @@
       <c r="C96" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D96" s="332" t="s">
+      <c r="D96" s="337" t="s">
         <v>272</v>
       </c>
-      <c r="E96" s="333"/>
+      <c r="E96" s="338"/>
       <c r="F96" s="214"/>
       <c r="G96" s="214"/>
       <c r="H96" s="214" t="s">
@@ -24485,10 +24485,10 @@
       </c>
       <c r="J96" s="214"/>
       <c r="K96" s="241"/>
-      <c r="L96" s="334"/>
-      <c r="M96" s="334"/>
-      <c r="N96" s="334"/>
-      <c r="O96" s="335"/>
+      <c r="L96" s="328"/>
+      <c r="M96" s="328"/>
+      <c r="N96" s="328"/>
+      <c r="O96" s="329"/>
       <c r="P96" s="10"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24499,10 +24499,10 @@
       <c r="C97" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D97" s="332" t="s">
+      <c r="D97" s="337" t="s">
         <v>311</v>
       </c>
-      <c r="E97" s="333"/>
+      <c r="E97" s="338"/>
       <c r="F97" s="214"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214"/>
@@ -24513,28 +24513,28 @@
         <v>255</v>
       </c>
       <c r="K97" s="241"/>
-      <c r="L97" s="334"/>
-      <c r="M97" s="334"/>
-      <c r="N97" s="334"/>
-      <c r="O97" s="335"/>
+      <c r="L97" s="328"/>
+      <c r="M97" s="328"/>
+      <c r="N97" s="328"/>
+      <c r="O97" s="329"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="29"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="346"/>
-      <c r="E98" s="347"/>
+      <c r="D98" s="362"/>
+      <c r="E98" s="363"/>
       <c r="F98" s="215"/>
       <c r="G98" s="215"/>
       <c r="H98" s="215"/>
       <c r="I98" s="31"/>
       <c r="J98" s="215"/>
       <c r="K98" s="215"/>
-      <c r="L98" s="341"/>
-      <c r="M98" s="341"/>
-      <c r="N98" s="341"/>
-      <c r="O98" s="342"/>
+      <c r="L98" s="335"/>
+      <c r="M98" s="335"/>
+      <c r="N98" s="335"/>
+      <c r="O98" s="336"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24621,10 +24621,10 @@
       <c r="C103" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="328" t="s">
+      <c r="D103" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="329"/>
+      <c r="E103" s="344"/>
       <c r="F103" s="25" t="s">
         <v>31</v>
       </c>
@@ -24643,12 +24643,12 @@
       <c r="K103" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L103" s="330" t="s">
+      <c r="L103" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M103" s="330"/>
-      <c r="N103" s="330"/>
-      <c r="O103" s="331"/>
+      <c r="M103" s="345"/>
+      <c r="N103" s="345"/>
+      <c r="O103" s="346"/>
       <c r="P103" s="10"/>
     </row>
     <row r="104" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24659,10 +24659,10 @@
       <c r="C104" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D104" s="332" t="s">
+      <c r="D104" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E104" s="333"/>
+      <c r="E104" s="338"/>
       <c r="F104" s="214"/>
       <c r="G104" s="214"/>
       <c r="H104" s="214" t="s">
@@ -24675,12 +24675,12 @@
       <c r="K104" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L104" s="334" t="s">
+      <c r="L104" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M104" s="334"/>
-      <c r="N104" s="334"/>
-      <c r="O104" s="335"/>
+      <c r="M104" s="328"/>
+      <c r="N104" s="328"/>
+      <c r="O104" s="329"/>
       <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24691,10 +24691,10 @@
       <c r="C105" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="332" t="s">
+      <c r="D105" s="337" t="s">
         <v>406</v>
       </c>
-      <c r="E105" s="333"/>
+      <c r="E105" s="338"/>
       <c r="F105" s="214"/>
       <c r="G105" s="214"/>
       <c r="H105" s="214" t="s">
@@ -24705,10 +24705,10 @@
       </c>
       <c r="J105" s="214"/>
       <c r="K105" s="214"/>
-      <c r="L105" s="334"/>
-      <c r="M105" s="334"/>
-      <c r="N105" s="334"/>
-      <c r="O105" s="335"/>
+      <c r="L105" s="328"/>
+      <c r="M105" s="328"/>
+      <c r="N105" s="328"/>
+      <c r="O105" s="329"/>
       <c r="P105" s="10"/>
     </row>
     <row r="106" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24733,30 +24733,30 @@
       </c>
       <c r="J106" s="237"/>
       <c r="K106" s="237"/>
-      <c r="L106" s="336" t="s">
+      <c r="L106" s="364" t="s">
         <v>270</v>
       </c>
-      <c r="M106" s="337"/>
-      <c r="N106" s="337"/>
-      <c r="O106" s="338"/>
+      <c r="M106" s="365"/>
+      <c r="N106" s="365"/>
+      <c r="O106" s="366"/>
       <c r="P106" s="10"/>
     </row>
     <row r="107" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="29"/>
       <c r="C107" s="30"/>
-      <c r="D107" s="339"/>
-      <c r="E107" s="340"/>
+      <c r="D107" s="333"/>
+      <c r="E107" s="334"/>
       <c r="F107" s="215"/>
       <c r="G107" s="215"/>
       <c r="H107" s="215"/>
       <c r="I107" s="31"/>
       <c r="J107" s="215"/>
       <c r="K107" s="215"/>
-      <c r="L107" s="341"/>
-      <c r="M107" s="341"/>
-      <c r="N107" s="341"/>
-      <c r="O107" s="342"/>
+      <c r="L107" s="335"/>
+      <c r="M107" s="335"/>
+      <c r="N107" s="335"/>
+      <c r="O107" s="336"/>
       <c r="P107" s="10"/>
     </row>
     <row r="108" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24843,10 +24843,10 @@
       <c r="C112" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="328" t="s">
+      <c r="D112" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="329"/>
+      <c r="E112" s="344"/>
       <c r="F112" s="25" t="s">
         <v>31</v>
       </c>
@@ -24865,12 +24865,12 @@
       <c r="K112" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L112" s="330" t="s">
+      <c r="L112" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M112" s="330"/>
-      <c r="N112" s="330"/>
-      <c r="O112" s="331"/>
+      <c r="M112" s="345"/>
+      <c r="N112" s="345"/>
+      <c r="O112" s="346"/>
       <c r="P112" s="10"/>
     </row>
     <row r="113" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24881,10 +24881,10 @@
       <c r="C113" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="332" t="s">
+      <c r="D113" s="337" t="s">
         <v>269</v>
       </c>
-      <c r="E113" s="333"/>
+      <c r="E113" s="338"/>
       <c r="F113" s="214"/>
       <c r="G113" s="214"/>
       <c r="H113" s="214" t="s">
@@ -24897,12 +24897,12 @@
       <c r="K113" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L113" s="334" t="s">
+      <c r="L113" s="328" t="s">
         <v>265</v>
       </c>
-      <c r="M113" s="334"/>
-      <c r="N113" s="334"/>
-      <c r="O113" s="335"/>
+      <c r="M113" s="328"/>
+      <c r="N113" s="328"/>
+      <c r="O113" s="329"/>
       <c r="P113" s="10"/>
     </row>
     <row r="114" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24913,10 +24913,10 @@
       <c r="C114" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="D114" s="332" t="s">
+      <c r="D114" s="337" t="s">
         <v>245</v>
       </c>
-      <c r="E114" s="333"/>
+      <c r="E114" s="338"/>
       <c r="F114" s="214"/>
       <c r="G114" s="214"/>
       <c r="H114" s="214" t="s">
@@ -24927,12 +24927,12 @@
       </c>
       <c r="J114" s="214"/>
       <c r="K114" s="214"/>
-      <c r="L114" s="334" t="s">
+      <c r="L114" s="328" t="s">
         <v>346</v>
       </c>
-      <c r="M114" s="334"/>
-      <c r="N114" s="334"/>
-      <c r="O114" s="335"/>
+      <c r="M114" s="328"/>
+      <c r="N114" s="328"/>
+      <c r="O114" s="329"/>
       <c r="P114" s="10"/>
     </row>
     <row r="115" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24957,28 +24957,28 @@
       </c>
       <c r="J115" s="237"/>
       <c r="K115" s="237"/>
-      <c r="L115" s="385"/>
-      <c r="M115" s="386"/>
-      <c r="N115" s="386"/>
-      <c r="O115" s="387"/>
+      <c r="L115" s="339"/>
+      <c r="M115" s="340"/>
+      <c r="N115" s="340"/>
+      <c r="O115" s="341"/>
       <c r="P115" s="10"/>
     </row>
     <row r="116" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="29"/>
       <c r="C116" s="30"/>
-      <c r="D116" s="339"/>
-      <c r="E116" s="340"/>
+      <c r="D116" s="333"/>
+      <c r="E116" s="334"/>
       <c r="F116" s="215"/>
       <c r="G116" s="215"/>
       <c r="H116" s="215"/>
       <c r="I116" s="31"/>
       <c r="J116" s="215"/>
       <c r="K116" s="215"/>
-      <c r="L116" s="341"/>
-      <c r="M116" s="341"/>
-      <c r="N116" s="341"/>
-      <c r="O116" s="342"/>
+      <c r="L116" s="335"/>
+      <c r="M116" s="335"/>
+      <c r="N116" s="335"/>
+      <c r="O116" s="336"/>
       <c r="P116" s="10"/>
     </row>
     <row r="117" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25047,10 +25047,10 @@
       <c r="C120" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="328" t="s">
+      <c r="D120" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E120" s="329"/>
+      <c r="E120" s="344"/>
       <c r="F120" s="25" t="s">
         <v>31</v>
       </c>
@@ -25069,12 +25069,12 @@
       <c r="K120" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L120" s="330" t="s">
+      <c r="L120" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M120" s="330"/>
-      <c r="N120" s="330"/>
-      <c r="O120" s="331"/>
+      <c r="M120" s="345"/>
+      <c r="N120" s="345"/>
+      <c r="O120" s="346"/>
       <c r="P120" s="10"/>
     </row>
     <row r="121" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25085,10 +25085,10 @@
       <c r="C121" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D121" s="332" t="s">
+      <c r="D121" s="337" t="s">
         <v>302</v>
       </c>
-      <c r="E121" s="333"/>
+      <c r="E121" s="338"/>
       <c r="F121" s="214" t="s">
         <v>191</v>
       </c>
@@ -25103,10 +25103,10 @@
         <v>128</v>
       </c>
       <c r="K121" s="214"/>
-      <c r="L121" s="336"/>
-      <c r="M121" s="337"/>
-      <c r="N121" s="337"/>
-      <c r="O121" s="338"/>
+      <c r="L121" s="364"/>
+      <c r="M121" s="365"/>
+      <c r="N121" s="365"/>
+      <c r="O121" s="366"/>
       <c r="P121" s="10"/>
     </row>
     <row r="122" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25117,10 +25117,10 @@
       <c r="C122" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D122" s="332" t="s">
+      <c r="D122" s="337" t="s">
         <v>185</v>
       </c>
-      <c r="E122" s="333"/>
+      <c r="E122" s="338"/>
       <c r="F122" s="214"/>
       <c r="G122" s="214"/>
       <c r="H122" s="214" t="s">
@@ -25135,10 +25135,10 @@
       <c r="K122" s="214">
         <v>128</v>
       </c>
-      <c r="L122" s="334"/>
-      <c r="M122" s="334"/>
-      <c r="N122" s="334"/>
-      <c r="O122" s="335"/>
+      <c r="L122" s="328"/>
+      <c r="M122" s="328"/>
+      <c r="N122" s="328"/>
+      <c r="O122" s="329"/>
       <c r="P122" s="10"/>
     </row>
     <row r="123" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25163,12 +25163,12 @@
       </c>
       <c r="J123" s="237"/>
       <c r="K123" s="237"/>
-      <c r="L123" s="371" t="s">
+      <c r="L123" s="330" t="s">
         <v>367</v>
       </c>
-      <c r="M123" s="372"/>
-      <c r="N123" s="372"/>
-      <c r="O123" s="373"/>
+      <c r="M123" s="331"/>
+      <c r="N123" s="331"/>
+      <c r="O123" s="332"/>
       <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25195,12 +25195,12 @@
         <v>128</v>
       </c>
       <c r="K124" s="237"/>
-      <c r="L124" s="371" t="s">
+      <c r="L124" s="330" t="s">
         <v>369</v>
       </c>
-      <c r="M124" s="372"/>
-      <c r="N124" s="372"/>
-      <c r="O124" s="373"/>
+      <c r="M124" s="331"/>
+      <c r="N124" s="331"/>
+      <c r="O124" s="332"/>
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25211,10 +25211,10 @@
       <c r="C125" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D125" s="332" t="s">
+      <c r="D125" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E125" s="333"/>
+      <c r="E125" s="338"/>
       <c r="F125" s="214"/>
       <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
@@ -25227,12 +25227,12 @@
       <c r="K125" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L125" s="334" t="s">
+      <c r="L125" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M125" s="334"/>
-      <c r="N125" s="334"/>
-      <c r="O125" s="335"/>
+      <c r="M125" s="328"/>
+      <c r="N125" s="328"/>
+      <c r="O125" s="329"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25257,28 +25257,28 @@
       </c>
       <c r="J126" s="237"/>
       <c r="K126" s="237"/>
-      <c r="L126" s="385"/>
-      <c r="M126" s="386"/>
-      <c r="N126" s="386"/>
-      <c r="O126" s="387"/>
+      <c r="L126" s="339"/>
+      <c r="M126" s="340"/>
+      <c r="N126" s="340"/>
+      <c r="O126" s="341"/>
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="29"/>
       <c r="C127" s="30"/>
-      <c r="D127" s="339"/>
-      <c r="E127" s="340"/>
+      <c r="D127" s="333"/>
+      <c r="E127" s="334"/>
       <c r="F127" s="215"/>
       <c r="G127" s="215"/>
       <c r="H127" s="215"/>
       <c r="I127" s="31"/>
       <c r="J127" s="215"/>
       <c r="K127" s="215"/>
-      <c r="L127" s="341"/>
-      <c r="M127" s="341"/>
-      <c r="N127" s="341"/>
-      <c r="O127" s="342"/>
+      <c r="L127" s="335"/>
+      <c r="M127" s="335"/>
+      <c r="N127" s="335"/>
+      <c r="O127" s="336"/>
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25365,10 +25365,10 @@
       <c r="C132" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D132" s="328" t="s">
+      <c r="D132" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="329"/>
+      <c r="E132" s="344"/>
       <c r="F132" s="25" t="s">
         <v>31</v>
       </c>
@@ -25387,12 +25387,12 @@
       <c r="K132" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L132" s="330" t="s">
+      <c r="L132" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M132" s="330"/>
-      <c r="N132" s="330"/>
-      <c r="O132" s="331"/>
+      <c r="M132" s="345"/>
+      <c r="N132" s="345"/>
+      <c r="O132" s="346"/>
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
@@ -25403,10 +25403,10 @@
       <c r="C133" s="233" t="s">
         <v>291</v>
       </c>
-      <c r="D133" s="343" t="s">
+      <c r="D133" s="347" t="s">
         <v>299</v>
       </c>
-      <c r="E133" s="344"/>
+      <c r="E133" s="348"/>
       <c r="F133" s="214" t="s">
         <v>191</v>
       </c>
@@ -25421,12 +25421,12 @@
         <v>12</v>
       </c>
       <c r="K133" s="214"/>
-      <c r="L133" s="382" t="s">
+      <c r="L133" s="359" t="s">
         <v>292</v>
       </c>
-      <c r="M133" s="383"/>
-      <c r="N133" s="383"/>
-      <c r="O133" s="384"/>
+      <c r="M133" s="360"/>
+      <c r="N133" s="360"/>
+      <c r="O133" s="361"/>
       <c r="P133" s="10"/>
     </row>
     <row r="134" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25437,10 +25437,10 @@
       <c r="C134" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D134" s="332" t="s">
+      <c r="D134" s="337" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="333"/>
+      <c r="E134" s="338"/>
       <c r="F134" s="214"/>
       <c r="G134" s="214"/>
       <c r="H134" s="214"/>
@@ -25451,10 +25451,10 @@
         <v>255</v>
       </c>
       <c r="K134" s="214"/>
-      <c r="L134" s="380"/>
-      <c r="M134" s="380"/>
-      <c r="N134" s="380"/>
-      <c r="O134" s="381"/>
+      <c r="L134" s="354"/>
+      <c r="M134" s="354"/>
+      <c r="N134" s="354"/>
+      <c r="O134" s="355"/>
       <c r="P134" s="10"/>
     </row>
     <row r="135" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25465,10 +25465,10 @@
       <c r="C135" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="332" t="s">
+      <c r="D135" s="337" t="s">
         <v>301</v>
       </c>
-      <c r="E135" s="333"/>
+      <c r="E135" s="338"/>
       <c r="F135" s="214"/>
       <c r="G135" s="214"/>
       <c r="H135" s="214" t="s">
@@ -25481,10 +25481,10 @@
         <v>30</v>
       </c>
       <c r="K135" s="214"/>
-      <c r="L135" s="380"/>
-      <c r="M135" s="380"/>
-      <c r="N135" s="380"/>
-      <c r="O135" s="381"/>
+      <c r="L135" s="354"/>
+      <c r="M135" s="354"/>
+      <c r="N135" s="354"/>
+      <c r="O135" s="355"/>
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25495,10 +25495,10 @@
       <c r="C136" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D136" s="332" t="s">
+      <c r="D136" s="337" t="s">
         <v>303</v>
       </c>
-      <c r="E136" s="333"/>
+      <c r="E136" s="338"/>
       <c r="F136" s="214"/>
       <c r="G136" s="214"/>
       <c r="H136" s="214"/>
@@ -25507,10 +25507,10 @@
       </c>
       <c r="J136" s="214"/>
       <c r="K136" s="214"/>
-      <c r="L136" s="390"/>
-      <c r="M136" s="391"/>
-      <c r="N136" s="391"/>
-      <c r="O136" s="392"/>
+      <c r="L136" s="356"/>
+      <c r="M136" s="357"/>
+      <c r="N136" s="357"/>
+      <c r="O136" s="358"/>
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25521,10 +25521,10 @@
       <c r="C137" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="332" t="s">
+      <c r="D137" s="337" t="s">
         <v>304</v>
       </c>
-      <c r="E137" s="333"/>
+      <c r="E137" s="338"/>
       <c r="F137" s="214"/>
       <c r="G137" s="214"/>
       <c r="H137" s="214"/>
@@ -25533,12 +25533,12 @@
       </c>
       <c r="J137" s="214"/>
       <c r="K137" s="241"/>
-      <c r="L137" s="377" t="s">
+      <c r="L137" s="351" t="s">
         <v>294</v>
       </c>
-      <c r="M137" s="378"/>
-      <c r="N137" s="378"/>
-      <c r="O137" s="379"/>
+      <c r="M137" s="352"/>
+      <c r="N137" s="352"/>
+      <c r="O137" s="353"/>
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25549,10 +25549,10 @@
       <c r="C138" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D138" s="332" t="s">
+      <c r="D138" s="337" t="s">
         <v>304</v>
       </c>
-      <c r="E138" s="333"/>
+      <c r="E138" s="338"/>
       <c r="F138" s="214"/>
       <c r="G138" s="214"/>
       <c r="H138" s="214"/>
@@ -25561,12 +25561,12 @@
       </c>
       <c r="J138" s="214"/>
       <c r="K138" s="241"/>
-      <c r="L138" s="377" t="s">
+      <c r="L138" s="351" t="s">
         <v>293</v>
       </c>
-      <c r="M138" s="378"/>
-      <c r="N138" s="378"/>
-      <c r="O138" s="379"/>
+      <c r="M138" s="352"/>
+      <c r="N138" s="352"/>
+      <c r="O138" s="353"/>
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25577,10 +25577,10 @@
       <c r="C139" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D139" s="332" t="s">
+      <c r="D139" s="337" t="s">
         <v>304</v>
       </c>
-      <c r="E139" s="333"/>
+      <c r="E139" s="338"/>
       <c r="F139" s="214"/>
       <c r="G139" s="214"/>
       <c r="H139" s="214"/>
@@ -25591,10 +25591,10 @@
         <v>128</v>
       </c>
       <c r="K139" s="241"/>
-      <c r="L139" s="377"/>
-      <c r="M139" s="378"/>
-      <c r="N139" s="378"/>
-      <c r="O139" s="379"/>
+      <c r="L139" s="351"/>
+      <c r="M139" s="352"/>
+      <c r="N139" s="352"/>
+      <c r="O139" s="353"/>
       <c r="P139" s="10"/>
     </row>
     <row r="140" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25605,10 +25605,10 @@
       <c r="C140" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D140" s="332" t="s">
+      <c r="D140" s="337" t="s">
         <v>305</v>
       </c>
-      <c r="E140" s="333"/>
+      <c r="E140" s="338"/>
       <c r="F140" s="214"/>
       <c r="G140" s="214"/>
       <c r="H140" s="214"/>
@@ -25619,12 +25619,12 @@
         <v>255</v>
       </c>
       <c r="K140" s="241"/>
-      <c r="L140" s="377" t="s">
+      <c r="L140" s="351" t="s">
         <v>295</v>
       </c>
-      <c r="M140" s="378"/>
-      <c r="N140" s="378"/>
-      <c r="O140" s="379"/>
+      <c r="M140" s="352"/>
+      <c r="N140" s="352"/>
+      <c r="O140" s="353"/>
       <c r="P140" s="10"/>
     </row>
     <row r="141" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25635,10 +25635,10 @@
       <c r="C141" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D141" s="332" t="s">
+      <c r="D141" s="337" t="s">
         <v>306</v>
       </c>
-      <c r="E141" s="333"/>
+      <c r="E141" s="338"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
@@ -25649,12 +25649,12 @@
         <v>255</v>
       </c>
       <c r="K141" s="241"/>
-      <c r="L141" s="377" t="s">
+      <c r="L141" s="351" t="s">
         <v>296</v>
       </c>
-      <c r="M141" s="378"/>
-      <c r="N141" s="378"/>
-      <c r="O141" s="379"/>
+      <c r="M141" s="352"/>
+      <c r="N141" s="352"/>
+      <c r="O141" s="353"/>
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25691,10 +25691,10 @@
       <c r="C143" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D143" s="332" t="s">
+      <c r="D143" s="337" t="s">
         <v>307</v>
       </c>
-      <c r="E143" s="333"/>
+      <c r="E143" s="338"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
@@ -25703,12 +25703,12 @@
       </c>
       <c r="J143" s="214"/>
       <c r="K143" s="241"/>
-      <c r="L143" s="380" t="s">
+      <c r="L143" s="354" t="s">
         <v>297</v>
       </c>
-      <c r="M143" s="380"/>
-      <c r="N143" s="380"/>
-      <c r="O143" s="381"/>
+      <c r="M143" s="354"/>
+      <c r="N143" s="354"/>
+      <c r="O143" s="355"/>
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25719,10 +25719,10 @@
       <c r="C144" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D144" s="332" t="s">
+      <c r="D144" s="337" t="s">
         <v>309</v>
       </c>
-      <c r="E144" s="333"/>
+      <c r="E144" s="338"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
@@ -25731,12 +25731,12 @@
       </c>
       <c r="J144" s="214"/>
       <c r="K144" s="241"/>
-      <c r="L144" s="380" t="s">
+      <c r="L144" s="354" t="s">
         <v>354</v>
       </c>
-      <c r="M144" s="380"/>
-      <c r="N144" s="380"/>
-      <c r="O144" s="381"/>
+      <c r="M144" s="354"/>
+      <c r="N144" s="354"/>
+      <c r="O144" s="355"/>
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25747,10 +25747,10 @@
       <c r="C145" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D145" s="332" t="s">
+      <c r="D145" s="337" t="s">
         <v>308</v>
       </c>
-      <c r="E145" s="333"/>
+      <c r="E145" s="338"/>
       <c r="F145" s="214"/>
       <c r="G145" s="214"/>
       <c r="H145" s="214"/>
@@ -25759,12 +25759,12 @@
       </c>
       <c r="J145" s="214"/>
       <c r="K145" s="241"/>
-      <c r="L145" s="380" t="s">
+      <c r="L145" s="354" t="s">
         <v>350</v>
       </c>
-      <c r="M145" s="380"/>
-      <c r="N145" s="380"/>
-      <c r="O145" s="381"/>
+      <c r="M145" s="354"/>
+      <c r="N145" s="354"/>
+      <c r="O145" s="355"/>
       <c r="P145" s="10"/>
     </row>
     <row r="146" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25775,10 +25775,10 @@
       <c r="C146" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="D146" s="332" t="s">
+      <c r="D146" s="337" t="s">
         <v>310</v>
       </c>
-      <c r="E146" s="333"/>
+      <c r="E146" s="338"/>
       <c r="F146" s="237"/>
       <c r="G146" s="237"/>
       <c r="H146" s="237"/>
@@ -25789,28 +25789,28 @@
         <v>255</v>
       </c>
       <c r="K146" s="242"/>
-      <c r="L146" s="380"/>
-      <c r="M146" s="380"/>
-      <c r="N146" s="380"/>
-      <c r="O146" s="381"/>
+      <c r="L146" s="354"/>
+      <c r="M146" s="354"/>
+      <c r="N146" s="354"/>
+      <c r="O146" s="355"/>
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="9"/>
       <c r="B147" s="29"/>
       <c r="C147" s="30"/>
-      <c r="D147" s="339"/>
-      <c r="E147" s="340"/>
+      <c r="D147" s="333"/>
+      <c r="E147" s="334"/>
       <c r="F147" s="215"/>
       <c r="G147" s="215"/>
       <c r="H147" s="215"/>
       <c r="I147" s="31"/>
       <c r="J147" s="215"/>
       <c r="K147" s="215"/>
-      <c r="L147" s="388"/>
-      <c r="M147" s="388"/>
-      <c r="N147" s="388"/>
-      <c r="O147" s="389"/>
+      <c r="L147" s="349"/>
+      <c r="M147" s="349"/>
+      <c r="N147" s="349"/>
+      <c r="O147" s="350"/>
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -25915,10 +25915,10 @@
       <c r="C153" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D153" s="328" t="s">
+      <c r="D153" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="329"/>
+      <c r="E153" s="344"/>
       <c r="F153" s="25" t="s">
         <v>31</v>
       </c>
@@ -25937,12 +25937,12 @@
       <c r="K153" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L153" s="330" t="s">
+      <c r="L153" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M153" s="330"/>
-      <c r="N153" s="330"/>
-      <c r="O153" s="331"/>
+      <c r="M153" s="345"/>
+      <c r="N153" s="345"/>
+      <c r="O153" s="346"/>
       <c r="P153" s="10"/>
     </row>
     <row r="154" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25953,10 +25953,10 @@
       <c r="C154" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D154" s="332" t="s">
+      <c r="D154" s="337" t="s">
         <v>315</v>
       </c>
-      <c r="E154" s="333"/>
+      <c r="E154" s="338"/>
       <c r="F154" s="214"/>
       <c r="G154" s="214"/>
       <c r="H154" s="214" t="s">
@@ -25969,10 +25969,10 @@
         <v>255</v>
       </c>
       <c r="K154" s="214"/>
-      <c r="L154" s="334"/>
-      <c r="M154" s="334"/>
-      <c r="N154" s="334"/>
-      <c r="O154" s="335"/>
+      <c r="L154" s="328"/>
+      <c r="M154" s="328"/>
+      <c r="N154" s="328"/>
+      <c r="O154" s="329"/>
       <c r="P154" s="10"/>
     </row>
     <row r="155" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25983,10 +25983,10 @@
       <c r="C155" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D155" s="332" t="s">
+      <c r="D155" s="337" t="s">
         <v>316</v>
       </c>
-      <c r="E155" s="333"/>
+      <c r="E155" s="338"/>
       <c r="F155" s="214"/>
       <c r="G155" s="214"/>
       <c r="H155" s="214"/>
@@ -25997,10 +25997,10 @@
         <v>255</v>
       </c>
       <c r="K155" s="214"/>
-      <c r="L155" s="334"/>
-      <c r="M155" s="334"/>
-      <c r="N155" s="334"/>
-      <c r="O155" s="335"/>
+      <c r="L155" s="328"/>
+      <c r="M155" s="328"/>
+      <c r="N155" s="328"/>
+      <c r="O155" s="329"/>
       <c r="P155" s="10"/>
     </row>
     <row r="156" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26025,10 +26025,10 @@
         <v>255</v>
       </c>
       <c r="K156" s="214"/>
-      <c r="L156" s="334"/>
-      <c r="M156" s="334"/>
-      <c r="N156" s="334"/>
-      <c r="O156" s="335"/>
+      <c r="L156" s="328"/>
+      <c r="M156" s="328"/>
+      <c r="N156" s="328"/>
+      <c r="O156" s="329"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26039,10 +26039,10 @@
       <c r="C157" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D157" s="332" t="s">
+      <c r="D157" s="337" t="s">
         <v>317</v>
       </c>
-      <c r="E157" s="333"/>
+      <c r="E157" s="338"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
       <c r="H157" s="214" t="s">
@@ -26053,12 +26053,12 @@
       </c>
       <c r="J157" s="214"/>
       <c r="K157" s="214"/>
-      <c r="L157" s="334" t="s">
+      <c r="L157" s="328" t="s">
         <v>347</v>
       </c>
-      <c r="M157" s="334"/>
-      <c r="N157" s="334"/>
-      <c r="O157" s="335"/>
+      <c r="M157" s="328"/>
+      <c r="N157" s="328"/>
+      <c r="O157" s="329"/>
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26069,10 +26069,10 @@
       <c r="C158" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D158" s="332" t="s">
+      <c r="D158" s="337" t="s">
         <v>319</v>
       </c>
-      <c r="E158" s="333"/>
+      <c r="E158" s="338"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
       <c r="H158" s="214" t="s">
@@ -26085,30 +26085,30 @@
       <c r="K158" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L158" s="334" t="s">
+      <c r="L158" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M158" s="334"/>
-      <c r="N158" s="334"/>
-      <c r="O158" s="335"/>
+      <c r="M158" s="328"/>
+      <c r="N158" s="328"/>
+      <c r="O158" s="329"/>
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="9"/>
       <c r="B159" s="29"/>
       <c r="C159" s="30"/>
-      <c r="D159" s="339"/>
-      <c r="E159" s="340"/>
+      <c r="D159" s="333"/>
+      <c r="E159" s="334"/>
       <c r="F159" s="215"/>
       <c r="G159" s="215"/>
       <c r="H159" s="215"/>
       <c r="I159" s="31"/>
       <c r="J159" s="215"/>
       <c r="K159" s="215"/>
-      <c r="L159" s="341"/>
-      <c r="M159" s="341"/>
-      <c r="N159" s="341"/>
-      <c r="O159" s="342"/>
+      <c r="L159" s="335"/>
+      <c r="M159" s="335"/>
+      <c r="N159" s="335"/>
+      <c r="O159" s="336"/>
       <c r="P159" s="10"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
@@ -26195,10 +26195,10 @@
       <c r="C164" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="328" t="s">
+      <c r="D164" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E164" s="329"/>
+      <c r="E164" s="344"/>
       <c r="F164" s="25" t="s">
         <v>31</v>
       </c>
@@ -26217,12 +26217,12 @@
       <c r="K164" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L164" s="330" t="s">
+      <c r="L164" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M164" s="330"/>
-      <c r="N164" s="330"/>
-      <c r="O164" s="331"/>
+      <c r="M164" s="345"/>
+      <c r="N164" s="345"/>
+      <c r="O164" s="346"/>
       <c r="P164" s="10"/>
     </row>
     <row r="165" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26233,10 +26233,10 @@
       <c r="C165" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D165" s="332" t="s">
+      <c r="D165" s="337" t="s">
         <v>320</v>
       </c>
-      <c r="E165" s="333"/>
+      <c r="E165" s="338"/>
       <c r="F165" s="214"/>
       <c r="G165" s="214"/>
       <c r="H165" s="214" t="s">
@@ -26249,10 +26249,10 @@
         <v>255</v>
       </c>
       <c r="K165" s="214"/>
-      <c r="L165" s="334"/>
-      <c r="M165" s="334"/>
-      <c r="N165" s="334"/>
-      <c r="O165" s="335"/>
+      <c r="L165" s="328"/>
+      <c r="M165" s="328"/>
+      <c r="N165" s="328"/>
+      <c r="O165" s="329"/>
       <c r="P165" s="10"/>
     </row>
     <row r="166" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26263,10 +26263,10 @@
       <c r="C166" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D166" s="332" t="s">
+      <c r="D166" s="337" t="s">
         <v>321</v>
       </c>
-      <c r="E166" s="333"/>
+      <c r="E166" s="338"/>
       <c r="F166" s="214"/>
       <c r="G166" s="214"/>
       <c r="H166" s="214"/>
@@ -26277,10 +26277,10 @@
         <v>255</v>
       </c>
       <c r="K166" s="214"/>
-      <c r="L166" s="334"/>
-      <c r="M166" s="334"/>
-      <c r="N166" s="334"/>
-      <c r="O166" s="335"/>
+      <c r="L166" s="328"/>
+      <c r="M166" s="328"/>
+      <c r="N166" s="328"/>
+      <c r="O166" s="329"/>
       <c r="P166" s="10"/>
     </row>
     <row r="167" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26305,30 +26305,30 @@
       <c r="K167" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L167" s="334" t="s">
+      <c r="L167" s="328" t="s">
         <v>323</v>
       </c>
-      <c r="M167" s="334"/>
-      <c r="N167" s="334"/>
-      <c r="O167" s="335"/>
+      <c r="M167" s="328"/>
+      <c r="N167" s="328"/>
+      <c r="O167" s="329"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="29"/>
       <c r="C168" s="30"/>
-      <c r="D168" s="339"/>
-      <c r="E168" s="340"/>
+      <c r="D168" s="333"/>
+      <c r="E168" s="334"/>
       <c r="F168" s="215"/>
       <c r="G168" s="215"/>
       <c r="H168" s="215"/>
       <c r="I168" s="31"/>
       <c r="J168" s="215"/>
       <c r="K168" s="215"/>
-      <c r="L168" s="341"/>
-      <c r="M168" s="341"/>
-      <c r="N168" s="341"/>
-      <c r="O168" s="342"/>
+      <c r="L168" s="335"/>
+      <c r="M168" s="335"/>
+      <c r="N168" s="335"/>
+      <c r="O168" s="336"/>
       <c r="P168" s="10"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
@@ -26415,10 +26415,10 @@
       <c r="C173" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="328" t="s">
+      <c r="D173" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E173" s="329"/>
+      <c r="E173" s="344"/>
       <c r="F173" s="25" t="s">
         <v>31</v>
       </c>
@@ -26437,12 +26437,12 @@
       <c r="K173" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L173" s="330" t="s">
+      <c r="L173" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M173" s="330"/>
-      <c r="N173" s="330"/>
-      <c r="O173" s="331"/>
+      <c r="M173" s="345"/>
+      <c r="N173" s="345"/>
+      <c r="O173" s="346"/>
       <c r="P173" s="10"/>
     </row>
     <row r="174" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26453,10 +26453,10 @@
       <c r="C174" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="332" t="s">
+      <c r="D174" s="337" t="s">
         <v>320</v>
       </c>
-      <c r="E174" s="333"/>
+      <c r="E174" s="338"/>
       <c r="F174" s="214"/>
       <c r="G174" s="214"/>
       <c r="H174" s="214" t="s">
@@ -26469,10 +26469,10 @@
         <v>255</v>
       </c>
       <c r="K174" s="214"/>
-      <c r="L174" s="334"/>
-      <c r="M174" s="334"/>
-      <c r="N174" s="334"/>
-      <c r="O174" s="335"/>
+      <c r="L174" s="328"/>
+      <c r="M174" s="328"/>
+      <c r="N174" s="328"/>
+      <c r="O174" s="329"/>
       <c r="P174" s="10"/>
     </row>
     <row r="175" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26483,10 +26483,10 @@
       <c r="C175" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D175" s="332" t="s">
+      <c r="D175" s="337" t="s">
         <v>321</v>
       </c>
-      <c r="E175" s="333"/>
+      <c r="E175" s="338"/>
       <c r="F175" s="214"/>
       <c r="G175" s="214"/>
       <c r="H175" s="214"/>
@@ -26497,10 +26497,10 @@
         <v>255</v>
       </c>
       <c r="K175" s="214"/>
-      <c r="L175" s="334"/>
-      <c r="M175" s="334"/>
-      <c r="N175" s="334"/>
-      <c r="O175" s="335"/>
+      <c r="L175" s="328"/>
+      <c r="M175" s="328"/>
+      <c r="N175" s="328"/>
+      <c r="O175" s="329"/>
       <c r="P175" s="10"/>
     </row>
     <row r="176" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26525,30 +26525,30 @@
       <c r="K176" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L176" s="334" t="s">
+      <c r="L176" s="328" t="s">
         <v>268</v>
       </c>
-      <c r="M176" s="334"/>
-      <c r="N176" s="334"/>
-      <c r="O176" s="335"/>
+      <c r="M176" s="328"/>
+      <c r="N176" s="328"/>
+      <c r="O176" s="329"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="29"/>
       <c r="C177" s="30"/>
-      <c r="D177" s="339"/>
-      <c r="E177" s="340"/>
+      <c r="D177" s="333"/>
+      <c r="E177" s="334"/>
       <c r="F177" s="215"/>
       <c r="G177" s="215"/>
       <c r="H177" s="215"/>
       <c r="I177" s="31"/>
       <c r="J177" s="215"/>
       <c r="K177" s="215"/>
-      <c r="L177" s="341"/>
-      <c r="M177" s="341"/>
-      <c r="N177" s="341"/>
-      <c r="O177" s="342"/>
+      <c r="L177" s="335"/>
+      <c r="M177" s="335"/>
+      <c r="N177" s="335"/>
+      <c r="O177" s="336"/>
       <c r="P177" s="10"/>
     </row>
     <row r="178" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26635,10 +26635,10 @@
       <c r="C182" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D182" s="328" t="s">
+      <c r="D182" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E182" s="329"/>
+      <c r="E182" s="344"/>
       <c r="F182" s="25" t="s">
         <v>31</v>
       </c>
@@ -26657,12 +26657,12 @@
       <c r="K182" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L182" s="330" t="s">
+      <c r="L182" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M182" s="330"/>
-      <c r="N182" s="330"/>
-      <c r="O182" s="331"/>
+      <c r="M182" s="345"/>
+      <c r="N182" s="345"/>
+      <c r="O182" s="346"/>
       <c r="P182" s="10"/>
     </row>
     <row r="183" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26673,10 +26673,10 @@
       <c r="C183" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D183" s="332" t="s">
+      <c r="D183" s="337" t="s">
         <v>328</v>
       </c>
-      <c r="E183" s="333"/>
+      <c r="E183" s="338"/>
       <c r="F183" s="214"/>
       <c r="G183" s="214"/>
       <c r="H183" s="214" t="s">
@@ -26689,10 +26689,10 @@
         <v>255</v>
       </c>
       <c r="K183" s="214"/>
-      <c r="L183" s="334"/>
-      <c r="M183" s="334"/>
-      <c r="N183" s="334"/>
-      <c r="O183" s="335"/>
+      <c r="L183" s="328"/>
+      <c r="M183" s="328"/>
+      <c r="N183" s="328"/>
+      <c r="O183" s="329"/>
       <c r="P183" s="10"/>
     </row>
     <row r="184" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26703,10 +26703,10 @@
       <c r="C184" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D184" s="332" t="s">
+      <c r="D184" s="337" t="s">
         <v>411</v>
       </c>
-      <c r="E184" s="333"/>
+      <c r="E184" s="338"/>
       <c r="F184" s="214"/>
       <c r="G184" s="214"/>
       <c r="H184" s="214"/>
@@ -26717,28 +26717,28 @@
         <v>255</v>
       </c>
       <c r="K184" s="214"/>
-      <c r="L184" s="334"/>
-      <c r="M184" s="334"/>
-      <c r="N184" s="334"/>
-      <c r="O184" s="335"/>
+      <c r="L184" s="328"/>
+      <c r="M184" s="328"/>
+      <c r="N184" s="328"/>
+      <c r="O184" s="329"/>
       <c r="P184" s="10"/>
     </row>
     <row r="185" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="9"/>
       <c r="B185" s="29"/>
       <c r="C185" s="30"/>
-      <c r="D185" s="339"/>
-      <c r="E185" s="340"/>
+      <c r="D185" s="333"/>
+      <c r="E185" s="334"/>
       <c r="F185" s="215"/>
       <c r="G185" s="215"/>
       <c r="H185" s="215"/>
       <c r="I185" s="31"/>
       <c r="J185" s="215"/>
       <c r="K185" s="215"/>
-      <c r="L185" s="341"/>
-      <c r="M185" s="341"/>
-      <c r="N185" s="341"/>
-      <c r="O185" s="342"/>
+      <c r="L185" s="335"/>
+      <c r="M185" s="335"/>
+      <c r="N185" s="335"/>
+      <c r="O185" s="336"/>
       <c r="P185" s="10"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
@@ -26843,10 +26843,10 @@
       <c r="C191" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D191" s="328" t="s">
+      <c r="D191" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="329"/>
+      <c r="E191" s="344"/>
       <c r="F191" s="25" t="s">
         <v>31</v>
       </c>
@@ -26865,12 +26865,12 @@
       <c r="K191" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L191" s="330" t="s">
+      <c r="L191" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M191" s="330"/>
-      <c r="N191" s="330"/>
-      <c r="O191" s="331"/>
+      <c r="M191" s="345"/>
+      <c r="N191" s="345"/>
+      <c r="O191" s="346"/>
       <c r="P191" s="10"/>
     </row>
     <row r="192" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26881,10 +26881,10 @@
       <c r="C192" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D192" s="332" t="s">
+      <c r="D192" s="337" t="s">
         <v>340</v>
       </c>
-      <c r="E192" s="333"/>
+      <c r="E192" s="338"/>
       <c r="F192" s="214"/>
       <c r="G192" s="214"/>
       <c r="H192" s="214" t="s">
@@ -26897,10 +26897,10 @@
         <v>255</v>
       </c>
       <c r="K192" s="214"/>
-      <c r="L192" s="334"/>
-      <c r="M192" s="334"/>
-      <c r="N192" s="334"/>
-      <c r="O192" s="335"/>
+      <c r="L192" s="328"/>
+      <c r="M192" s="328"/>
+      <c r="N192" s="328"/>
+      <c r="O192" s="329"/>
       <c r="P192" s="10"/>
     </row>
     <row r="193" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26911,10 +26911,10 @@
       <c r="C193" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D193" s="332" t="s">
+      <c r="D193" s="337" t="s">
         <v>341</v>
       </c>
-      <c r="E193" s="333"/>
+      <c r="E193" s="338"/>
       <c r="F193" s="214"/>
       <c r="G193" s="214"/>
       <c r="H193" s="214" t="s">
@@ -26925,12 +26925,12 @@
       </c>
       <c r="J193" s="214"/>
       <c r="K193" s="214"/>
-      <c r="L193" s="334" t="s">
+      <c r="L193" s="328" t="s">
         <v>342</v>
       </c>
-      <c r="M193" s="334"/>
-      <c r="N193" s="334"/>
-      <c r="O193" s="335"/>
+      <c r="M193" s="328"/>
+      <c r="N193" s="328"/>
+      <c r="O193" s="329"/>
       <c r="P193" s="10"/>
     </row>
     <row r="194" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -26941,10 +26941,10 @@
       <c r="C194" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D194" s="346" t="s">
+      <c r="D194" s="362" t="s">
         <v>247</v>
       </c>
-      <c r="E194" s="347"/>
+      <c r="E194" s="363"/>
       <c r="F194" s="215"/>
       <c r="G194" s="215"/>
       <c r="H194" s="215"/>
@@ -26955,10 +26955,10 @@
         <v>255</v>
       </c>
       <c r="K194" s="215"/>
-      <c r="L194" s="341"/>
-      <c r="M194" s="341"/>
-      <c r="N194" s="341"/>
-      <c r="O194" s="342"/>
+      <c r="L194" s="335"/>
+      <c r="M194" s="335"/>
+      <c r="N194" s="335"/>
+      <c r="O194" s="336"/>
       <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
@@ -27045,10 +27045,10 @@
       <c r="C199" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D199" s="328" t="s">
+      <c r="D199" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E199" s="329"/>
+      <c r="E199" s="344"/>
       <c r="F199" s="25" t="s">
         <v>31</v>
       </c>
@@ -27067,12 +27067,12 @@
       <c r="K199" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L199" s="330" t="s">
+      <c r="L199" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M199" s="330"/>
-      <c r="N199" s="330"/>
-      <c r="O199" s="331"/>
+      <c r="M199" s="345"/>
+      <c r="N199" s="345"/>
+      <c r="O199" s="346"/>
       <c r="P199" s="10"/>
     </row>
     <row r="200" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27083,10 +27083,10 @@
       <c r="C200" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D200" s="332" t="s">
+      <c r="D200" s="337" t="s">
         <v>412</v>
       </c>
-      <c r="E200" s="333"/>
+      <c r="E200" s="338"/>
       <c r="F200" s="214"/>
       <c r="G200" s="214"/>
       <c r="H200" s="214" t="s">
@@ -27099,12 +27099,12 @@
         <v>255</v>
       </c>
       <c r="K200" s="214"/>
-      <c r="L200" s="334" t="s">
+      <c r="L200" s="328" t="s">
         <v>364</v>
       </c>
-      <c r="M200" s="334"/>
-      <c r="N200" s="334"/>
-      <c r="O200" s="335"/>
+      <c r="M200" s="328"/>
+      <c r="N200" s="328"/>
+      <c r="O200" s="329"/>
       <c r="P200" s="10"/>
     </row>
     <row r="201" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27115,10 +27115,10 @@
       <c r="C201" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="D201" s="332" t="s">
+      <c r="D201" s="337" t="s">
         <v>341</v>
       </c>
-      <c r="E201" s="333"/>
+      <c r="E201" s="338"/>
       <c r="F201" s="214"/>
       <c r="G201" s="214"/>
       <c r="H201" s="214" t="s">
@@ -27129,10 +27129,10 @@
       </c>
       <c r="J201" s="214"/>
       <c r="K201" s="214"/>
-      <c r="L201" s="334"/>
-      <c r="M201" s="334"/>
-      <c r="N201" s="334"/>
-      <c r="O201" s="335"/>
+      <c r="L201" s="328"/>
+      <c r="M201" s="328"/>
+      <c r="N201" s="328"/>
+      <c r="O201" s="329"/>
       <c r="P201" s="10"/>
     </row>
     <row r="202" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27157,28 +27157,28 @@
         <v>255</v>
       </c>
       <c r="K202" s="237"/>
-      <c r="L202" s="334"/>
-      <c r="M202" s="334"/>
-      <c r="N202" s="334"/>
-      <c r="O202" s="335"/>
+      <c r="L202" s="328"/>
+      <c r="M202" s="328"/>
+      <c r="N202" s="328"/>
+      <c r="O202" s="329"/>
       <c r="P202" s="10"/>
     </row>
     <row r="203" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9"/>
       <c r="B203" s="29"/>
       <c r="C203" s="30"/>
-      <c r="D203" s="339"/>
-      <c r="E203" s="340"/>
+      <c r="D203" s="333"/>
+      <c r="E203" s="334"/>
       <c r="F203" s="215"/>
       <c r="G203" s="215"/>
       <c r="H203" s="215"/>
       <c r="I203" s="31"/>
       <c r="J203" s="215"/>
       <c r="K203" s="215"/>
-      <c r="L203" s="341"/>
-      <c r="M203" s="341"/>
-      <c r="N203" s="341"/>
-      <c r="O203" s="342"/>
+      <c r="L203" s="335"/>
+      <c r="M203" s="335"/>
+      <c r="N203" s="335"/>
+      <c r="O203" s="336"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
@@ -27265,10 +27265,10 @@
       <c r="C208" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D208" s="328" t="s">
+      <c r="D208" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E208" s="329"/>
+      <c r="E208" s="344"/>
       <c r="F208" s="25" t="s">
         <v>31</v>
       </c>
@@ -27287,12 +27287,12 @@
       <c r="K208" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L208" s="330" t="s">
+      <c r="L208" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M208" s="330"/>
-      <c r="N208" s="330"/>
-      <c r="O208" s="331"/>
+      <c r="M208" s="345"/>
+      <c r="N208" s="345"/>
+      <c r="O208" s="346"/>
       <c r="P208" s="10"/>
     </row>
     <row r="209" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27303,10 +27303,10 @@
       <c r="C209" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D209" s="332" t="s">
+      <c r="D209" s="337" t="s">
         <v>414</v>
       </c>
-      <c r="E209" s="333"/>
+      <c r="E209" s="338"/>
       <c r="F209" s="214"/>
       <c r="G209" s="214"/>
       <c r="H209" s="214" t="s">
@@ -27319,12 +27319,12 @@
         <v>255</v>
       </c>
       <c r="K209" s="214"/>
-      <c r="L209" s="334" t="s">
+      <c r="L209" s="328" t="s">
         <v>349</v>
       </c>
-      <c r="M209" s="334"/>
-      <c r="N209" s="334"/>
-      <c r="O209" s="335"/>
+      <c r="M209" s="328"/>
+      <c r="N209" s="328"/>
+      <c r="O209" s="329"/>
       <c r="P209" s="10"/>
     </row>
     <row r="210" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27349,28 +27349,28 @@
         <v>255</v>
       </c>
       <c r="K210" s="237"/>
-      <c r="L210" s="334"/>
-      <c r="M210" s="334"/>
-      <c r="N210" s="334"/>
-      <c r="O210" s="335"/>
+      <c r="L210" s="328"/>
+      <c r="M210" s="328"/>
+      <c r="N210" s="328"/>
+      <c r="O210" s="329"/>
       <c r="P210" s="10"/>
     </row>
     <row r="211" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="9"/>
       <c r="B211" s="29"/>
       <c r="C211" s="30"/>
-      <c r="D211" s="339"/>
-      <c r="E211" s="340"/>
+      <c r="D211" s="333"/>
+      <c r="E211" s="334"/>
       <c r="F211" s="215"/>
       <c r="G211" s="215"/>
       <c r="H211" s="215"/>
       <c r="I211" s="31"/>
       <c r="J211" s="215"/>
       <c r="K211" s="215"/>
-      <c r="L211" s="341"/>
-      <c r="M211" s="341"/>
-      <c r="N211" s="341"/>
-      <c r="O211" s="342"/>
+      <c r="L211" s="335"/>
+      <c r="M211" s="335"/>
+      <c r="N211" s="335"/>
+      <c r="O211" s="336"/>
       <c r="P211" s="10"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
@@ -27457,10 +27457,10 @@
       <c r="C216" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D216" s="328" t="s">
+      <c r="D216" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E216" s="329"/>
+      <c r="E216" s="344"/>
       <c r="F216" s="25" t="s">
         <v>31</v>
       </c>
@@ -27479,12 +27479,12 @@
       <c r="K216" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L216" s="330" t="s">
+      <c r="L216" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M216" s="330"/>
-      <c r="N216" s="330"/>
-      <c r="O216" s="331"/>
+      <c r="M216" s="345"/>
+      <c r="N216" s="345"/>
+      <c r="O216" s="346"/>
       <c r="P216" s="10"/>
     </row>
     <row r="217" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27495,10 +27495,10 @@
       <c r="C217" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D217" s="332" t="s">
+      <c r="D217" s="337" t="s">
         <v>352</v>
       </c>
-      <c r="E217" s="333"/>
+      <c r="E217" s="338"/>
       <c r="F217" s="214"/>
       <c r="G217" s="214"/>
       <c r="H217" s="214" t="s">
@@ -27511,12 +27511,12 @@
         <v>255</v>
       </c>
       <c r="K217" s="214"/>
-      <c r="L217" s="334" t="s">
+      <c r="L217" s="328" t="s">
         <v>353</v>
       </c>
-      <c r="M217" s="334"/>
-      <c r="N217" s="334"/>
-      <c r="O217" s="335"/>
+      <c r="M217" s="328"/>
+      <c r="N217" s="328"/>
+      <c r="O217" s="329"/>
       <c r="P217" s="10"/>
     </row>
     <row r="218" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27541,28 +27541,28 @@
         <v>255</v>
       </c>
       <c r="K218" s="237"/>
-      <c r="L218" s="334"/>
-      <c r="M218" s="334"/>
-      <c r="N218" s="334"/>
-      <c r="O218" s="335"/>
+      <c r="L218" s="328"/>
+      <c r="M218" s="328"/>
+      <c r="N218" s="328"/>
+      <c r="O218" s="329"/>
       <c r="P218" s="10"/>
     </row>
     <row r="219" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="9"/>
       <c r="B219" s="29"/>
       <c r="C219" s="30"/>
-      <c r="D219" s="339"/>
-      <c r="E219" s="340"/>
+      <c r="D219" s="333"/>
+      <c r="E219" s="334"/>
       <c r="F219" s="215"/>
       <c r="G219" s="215"/>
       <c r="H219" s="215"/>
       <c r="I219" s="31"/>
       <c r="J219" s="215"/>
       <c r="K219" s="215"/>
-      <c r="L219" s="341"/>
-      <c r="M219" s="341"/>
-      <c r="N219" s="341"/>
-      <c r="O219" s="342"/>
+      <c r="L219" s="335"/>
+      <c r="M219" s="335"/>
+      <c r="N219" s="335"/>
+      <c r="O219" s="336"/>
       <c r="P219" s="10"/>
     </row>
     <row r="220" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27649,10 +27649,10 @@
       <c r="C224" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="328" t="s">
+      <c r="D224" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E224" s="329"/>
+      <c r="E224" s="344"/>
       <c r="F224" s="25" t="s">
         <v>31</v>
       </c>
@@ -27671,12 +27671,12 @@
       <c r="K224" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L224" s="330" t="s">
+      <c r="L224" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M224" s="330"/>
-      <c r="N224" s="330"/>
-      <c r="O224" s="331"/>
+      <c r="M224" s="345"/>
+      <c r="N224" s="345"/>
+      <c r="O224" s="346"/>
       <c r="P224" s="10"/>
     </row>
     <row r="225" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27687,10 +27687,10 @@
       <c r="C225" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D225" s="332" t="s">
+      <c r="D225" s="337" t="s">
         <v>390</v>
       </c>
-      <c r="E225" s="333"/>
+      <c r="E225" s="338"/>
       <c r="F225" s="214"/>
       <c r="G225" s="214"/>
       <c r="H225" s="214" t="s">
@@ -27703,12 +27703,12 @@
         <v>255</v>
       </c>
       <c r="K225" s="214"/>
-      <c r="L225" s="334" t="s">
+      <c r="L225" s="328" t="s">
         <v>391</v>
       </c>
-      <c r="M225" s="334"/>
-      <c r="N225" s="334"/>
-      <c r="O225" s="335"/>
+      <c r="M225" s="328"/>
+      <c r="N225" s="328"/>
+      <c r="O225" s="329"/>
       <c r="P225" s="10"/>
     </row>
     <row r="226" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27733,28 +27733,28 @@
         <v>255</v>
       </c>
       <c r="K226" s="237"/>
-      <c r="L226" s="334"/>
-      <c r="M226" s="334"/>
-      <c r="N226" s="334"/>
-      <c r="O226" s="335"/>
+      <c r="L226" s="328"/>
+      <c r="M226" s="328"/>
+      <c r="N226" s="328"/>
+      <c r="O226" s="329"/>
       <c r="P226" s="10"/>
     </row>
     <row r="227" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="9"/>
       <c r="B227" s="29"/>
       <c r="C227" s="30"/>
-      <c r="D227" s="339"/>
-      <c r="E227" s="340"/>
+      <c r="D227" s="333"/>
+      <c r="E227" s="334"/>
       <c r="F227" s="215"/>
       <c r="G227" s="215"/>
       <c r="H227" s="215"/>
       <c r="I227" s="31"/>
       <c r="J227" s="215"/>
       <c r="K227" s="215"/>
-      <c r="L227" s="341"/>
-      <c r="M227" s="341"/>
-      <c r="N227" s="341"/>
-      <c r="O227" s="342"/>
+      <c r="L227" s="335"/>
+      <c r="M227" s="335"/>
+      <c r="N227" s="335"/>
+      <c r="O227" s="336"/>
       <c r="P227" s="10"/>
     </row>
     <row r="228" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27841,10 +27841,10 @@
       <c r="C232" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D232" s="328" t="s">
+      <c r="D232" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E232" s="329"/>
+      <c r="E232" s="344"/>
       <c r="F232" s="25" t="s">
         <v>31</v>
       </c>
@@ -27863,12 +27863,12 @@
       <c r="K232" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L232" s="330" t="s">
+      <c r="L232" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M232" s="330"/>
-      <c r="N232" s="330"/>
-      <c r="O232" s="331"/>
+      <c r="M232" s="345"/>
+      <c r="N232" s="345"/>
+      <c r="O232" s="346"/>
       <c r="P232" s="10"/>
     </row>
     <row r="233" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27879,10 +27879,10 @@
       <c r="C233" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D233" s="332" t="s">
+      <c r="D233" s="337" t="s">
         <v>352</v>
       </c>
-      <c r="E233" s="333"/>
+      <c r="E233" s="338"/>
       <c r="F233" s="214"/>
       <c r="G233" s="214"/>
       <c r="H233" s="214" t="s">
@@ -27895,12 +27895,12 @@
         <v>255</v>
       </c>
       <c r="K233" s="214"/>
-      <c r="L233" s="334" t="s">
+      <c r="L233" s="328" t="s">
         <v>357</v>
       </c>
-      <c r="M233" s="334"/>
-      <c r="N233" s="334"/>
-      <c r="O233" s="335"/>
+      <c r="M233" s="328"/>
+      <c r="N233" s="328"/>
+      <c r="O233" s="329"/>
       <c r="P233" s="10"/>
     </row>
     <row r="234" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27925,28 +27925,28 @@
         <v>255</v>
       </c>
       <c r="K234" s="237"/>
-      <c r="L234" s="345"/>
-      <c r="M234" s="334"/>
-      <c r="N234" s="334"/>
-      <c r="O234" s="335"/>
+      <c r="L234" s="342"/>
+      <c r="M234" s="328"/>
+      <c r="N234" s="328"/>
+      <c r="O234" s="329"/>
       <c r="P234" s="10"/>
     </row>
     <row r="235" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="9"/>
       <c r="B235" s="29"/>
       <c r="C235" s="30"/>
-      <c r="D235" s="339"/>
-      <c r="E235" s="340"/>
+      <c r="D235" s="333"/>
+      <c r="E235" s="334"/>
       <c r="F235" s="215"/>
       <c r="G235" s="215"/>
       <c r="H235" s="215"/>
       <c r="I235" s="31"/>
       <c r="J235" s="215"/>
       <c r="K235" s="215"/>
-      <c r="L235" s="341"/>
-      <c r="M235" s="341"/>
-      <c r="N235" s="341"/>
-      <c r="O235" s="342"/>
+      <c r="L235" s="335"/>
+      <c r="M235" s="335"/>
+      <c r="N235" s="335"/>
+      <c r="O235" s="336"/>
       <c r="P235" s="10"/>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
@@ -28033,10 +28033,10 @@
       <c r="C240" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D240" s="328" t="s">
+      <c r="D240" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E240" s="329"/>
+      <c r="E240" s="344"/>
       <c r="F240" s="25" t="s">
         <v>31</v>
       </c>
@@ -28055,12 +28055,12 @@
       <c r="K240" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L240" s="330" t="s">
+      <c r="L240" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M240" s="330"/>
-      <c r="N240" s="330"/>
-      <c r="O240" s="331"/>
+      <c r="M240" s="345"/>
+      <c r="N240" s="345"/>
+      <c r="O240" s="346"/>
       <c r="P240" s="10"/>
     </row>
     <row r="241" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -28071,10 +28071,10 @@
       <c r="C241" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D241" s="343" t="s">
+      <c r="D241" s="347" t="s">
         <v>227</v>
       </c>
-      <c r="E241" s="344"/>
+      <c r="E241" s="348"/>
       <c r="F241" s="214"/>
       <c r="G241" s="214"/>
       <c r="H241" s="214" t="s">
@@ -28087,12 +28087,12 @@
         <v>255</v>
       </c>
       <c r="K241" s="214"/>
-      <c r="L241" s="345" t="s">
+      <c r="L241" s="342" t="s">
         <v>417</v>
       </c>
-      <c r="M241" s="334"/>
-      <c r="N241" s="334"/>
-      <c r="O241" s="335"/>
+      <c r="M241" s="328"/>
+      <c r="N241" s="328"/>
+      <c r="O241" s="329"/>
       <c r="P241" s="10"/>
     </row>
     <row r="242" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28117,28 +28117,28 @@
         <v>255</v>
       </c>
       <c r="K242" s="237"/>
-      <c r="L242" s="345"/>
-      <c r="M242" s="334"/>
-      <c r="N242" s="334"/>
-      <c r="O242" s="335"/>
+      <c r="L242" s="342"/>
+      <c r="M242" s="328"/>
+      <c r="N242" s="328"/>
+      <c r="O242" s="329"/>
       <c r="P242" s="10"/>
     </row>
     <row r="243" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="9"/>
       <c r="B243" s="29"/>
       <c r="C243" s="30"/>
-      <c r="D243" s="339"/>
-      <c r="E243" s="340"/>
+      <c r="D243" s="333"/>
+      <c r="E243" s="334"/>
       <c r="F243" s="215"/>
       <c r="G243" s="215"/>
       <c r="H243" s="215"/>
       <c r="I243" s="31"/>
       <c r="J243" s="215"/>
       <c r="K243" s="215"/>
-      <c r="L243" s="341"/>
-      <c r="M243" s="341"/>
-      <c r="N243" s="341"/>
-      <c r="O243" s="342"/>
+      <c r="L243" s="335"/>
+      <c r="M243" s="335"/>
+      <c r="N243" s="335"/>
+      <c r="O243" s="336"/>
       <c r="P243" s="10"/>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
@@ -28225,10 +28225,10 @@
       <c r="C248" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D248" s="328" t="s">
+      <c r="D248" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E248" s="329"/>
+      <c r="E248" s="344"/>
       <c r="F248" s="25" t="s">
         <v>31</v>
       </c>
@@ -28247,12 +28247,12 @@
       <c r="K248" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L248" s="330" t="s">
+      <c r="L248" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M248" s="330"/>
-      <c r="N248" s="330"/>
-      <c r="O248" s="331"/>
+      <c r="M248" s="345"/>
+      <c r="N248" s="345"/>
+      <c r="O248" s="346"/>
       <c r="P248" s="10"/>
     </row>
     <row r="249" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -28263,10 +28263,10 @@
       <c r="C249" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D249" s="343" t="s">
+      <c r="D249" s="347" t="s">
         <v>362</v>
       </c>
-      <c r="E249" s="344"/>
+      <c r="E249" s="348"/>
       <c r="F249" s="214"/>
       <c r="G249" s="214"/>
       <c r="H249" s="214" t="s">
@@ -28279,12 +28279,12 @@
         <v>255</v>
       </c>
       <c r="K249" s="214"/>
-      <c r="L249" s="345" t="s">
+      <c r="L249" s="342" t="s">
         <v>363</v>
       </c>
-      <c r="M249" s="334"/>
-      <c r="N249" s="334"/>
-      <c r="O249" s="335"/>
+      <c r="M249" s="328"/>
+      <c r="N249" s="328"/>
+      <c r="O249" s="329"/>
       <c r="P249" s="10"/>
     </row>
     <row r="250" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28309,28 +28309,28 @@
         <v>255</v>
       </c>
       <c r="K250" s="237"/>
-      <c r="L250" s="345"/>
-      <c r="M250" s="334"/>
-      <c r="N250" s="334"/>
-      <c r="O250" s="335"/>
+      <c r="L250" s="342"/>
+      <c r="M250" s="328"/>
+      <c r="N250" s="328"/>
+      <c r="O250" s="329"/>
       <c r="P250" s="10"/>
     </row>
     <row r="251" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="9"/>
       <c r="B251" s="29"/>
       <c r="C251" s="30"/>
-      <c r="D251" s="339"/>
-      <c r="E251" s="340"/>
+      <c r="D251" s="333"/>
+      <c r="E251" s="334"/>
       <c r="F251" s="215"/>
       <c r="G251" s="215"/>
       <c r="H251" s="215"/>
       <c r="I251" s="31"/>
       <c r="J251" s="215"/>
       <c r="K251" s="215"/>
-      <c r="L251" s="341"/>
-      <c r="M251" s="341"/>
-      <c r="N251" s="341"/>
-      <c r="O251" s="342"/>
+      <c r="L251" s="335"/>
+      <c r="M251" s="335"/>
+      <c r="N251" s="335"/>
+      <c r="O251" s="336"/>
       <c r="P251" s="10"/>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -28419,10 +28419,10 @@
       <c r="C256" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D256" s="328" t="s">
+      <c r="D256" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E256" s="329"/>
+      <c r="E256" s="344"/>
       <c r="F256" s="25" t="s">
         <v>31</v>
       </c>
@@ -28441,12 +28441,12 @@
       <c r="K256" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L256" s="330" t="s">
+      <c r="L256" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M256" s="330"/>
-      <c r="N256" s="330"/>
-      <c r="O256" s="331"/>
+      <c r="M256" s="345"/>
+      <c r="N256" s="345"/>
+      <c r="O256" s="346"/>
       <c r="P256" s="10"/>
     </row>
     <row r="257" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28457,10 +28457,10 @@
       <c r="C257" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D257" s="332" t="s">
+      <c r="D257" s="337" t="s">
         <v>267</v>
       </c>
-      <c r="E257" s="333"/>
+      <c r="E257" s="338"/>
       <c r="F257" s="214"/>
       <c r="G257" s="214"/>
       <c r="H257" s="214" t="s">
@@ -28475,12 +28475,12 @@
       <c r="K257" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L257" s="334" t="s">
+      <c r="L257" s="328" t="s">
         <v>268</v>
       </c>
-      <c r="M257" s="334"/>
-      <c r="N257" s="334"/>
-      <c r="O257" s="335"/>
+      <c r="M257" s="328"/>
+      <c r="N257" s="328"/>
+      <c r="O257" s="329"/>
       <c r="P257" s="10"/>
     </row>
     <row r="258" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28491,10 +28491,10 @@
       <c r="C258" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="D258" s="332" t="s">
+      <c r="D258" s="337" t="s">
         <v>378</v>
       </c>
-      <c r="E258" s="333"/>
+      <c r="E258" s="338"/>
       <c r="F258" s="214"/>
       <c r="G258" s="214"/>
       <c r="H258" s="214" t="s">
@@ -28507,10 +28507,10 @@
         <v>255</v>
       </c>
       <c r="K258" s="214"/>
-      <c r="L258" s="334"/>
-      <c r="M258" s="334"/>
-      <c r="N258" s="334"/>
-      <c r="O258" s="335"/>
+      <c r="L258" s="328"/>
+      <c r="M258" s="328"/>
+      <c r="N258" s="328"/>
+      <c r="O258" s="329"/>
       <c r="P258" s="10"/>
     </row>
     <row r="259" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28521,10 +28521,10 @@
       <c r="C259" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D259" s="332" t="s">
+      <c r="D259" s="337" t="s">
         <v>379</v>
       </c>
-      <c r="E259" s="333"/>
+      <c r="E259" s="338"/>
       <c r="F259" s="214"/>
       <c r="G259" s="214"/>
       <c r="H259" s="214"/>
@@ -28535,28 +28535,28 @@
         <v>255</v>
       </c>
       <c r="K259" s="214"/>
-      <c r="L259" s="334"/>
-      <c r="M259" s="334"/>
-      <c r="N259" s="334"/>
-      <c r="O259" s="335"/>
+      <c r="L259" s="328"/>
+      <c r="M259" s="328"/>
+      <c r="N259" s="328"/>
+      <c r="O259" s="329"/>
       <c r="P259" s="10"/>
     </row>
     <row r="260" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="9"/>
       <c r="B260" s="29"/>
       <c r="C260" s="30"/>
-      <c r="D260" s="339"/>
-      <c r="E260" s="340"/>
+      <c r="D260" s="333"/>
+      <c r="E260" s="334"/>
       <c r="F260" s="215"/>
       <c r="G260" s="215"/>
       <c r="H260" s="215"/>
       <c r="I260" s="31"/>
       <c r="J260" s="215"/>
       <c r="K260" s="215"/>
-      <c r="L260" s="341"/>
-      <c r="M260" s="341"/>
-      <c r="N260" s="341"/>
-      <c r="O260" s="342"/>
+      <c r="L260" s="335"/>
+      <c r="M260" s="335"/>
+      <c r="N260" s="335"/>
+      <c r="O260" s="336"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.2">
@@ -28645,10 +28645,10 @@
       <c r="C265" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D265" s="328" t="s">
+      <c r="D265" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E265" s="329"/>
+      <c r="E265" s="344"/>
       <c r="F265" s="25" t="s">
         <v>31</v>
       </c>
@@ -28667,12 +28667,12 @@
       <c r="K265" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L265" s="330" t="s">
+      <c r="L265" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M265" s="330"/>
-      <c r="N265" s="330"/>
-      <c r="O265" s="331"/>
+      <c r="M265" s="345"/>
+      <c r="N265" s="345"/>
+      <c r="O265" s="346"/>
       <c r="P265" s="10"/>
     </row>
     <row r="266" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28683,10 +28683,10 @@
       <c r="C266" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D266" s="332" t="s">
+      <c r="D266" s="337" t="s">
         <v>381</v>
       </c>
-      <c r="E266" s="333"/>
+      <c r="E266" s="338"/>
       <c r="F266" s="214"/>
       <c r="G266" s="214"/>
       <c r="H266" s="214" t="s">
@@ -28699,10 +28699,10 @@
         <v>255</v>
       </c>
       <c r="K266" s="214"/>
-      <c r="L266" s="334"/>
-      <c r="M266" s="334"/>
-      <c r="N266" s="334"/>
-      <c r="O266" s="335"/>
+      <c r="L266" s="328"/>
+      <c r="M266" s="328"/>
+      <c r="N266" s="328"/>
+      <c r="O266" s="329"/>
       <c r="P266" s="10"/>
     </row>
     <row r="267" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28713,10 +28713,10 @@
       <c r="C267" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D267" s="332" t="s">
+      <c r="D267" s="337" t="s">
         <v>382</v>
       </c>
-      <c r="E267" s="333"/>
+      <c r="E267" s="338"/>
       <c r="F267" s="214"/>
       <c r="G267" s="214"/>
       <c r="H267" s="214"/>
@@ -28727,10 +28727,10 @@
         <v>255</v>
       </c>
       <c r="K267" s="214"/>
-      <c r="L267" s="334"/>
-      <c r="M267" s="334"/>
-      <c r="N267" s="334"/>
-      <c r="O267" s="335"/>
+      <c r="L267" s="328"/>
+      <c r="M267" s="328"/>
+      <c r="N267" s="328"/>
+      <c r="O267" s="329"/>
       <c r="P267" s="10"/>
     </row>
     <row r="268" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28753,30 +28753,30 @@
       </c>
       <c r="J268" s="214"/>
       <c r="K268" s="214"/>
-      <c r="L268" s="334" t="s">
+      <c r="L268" s="328" t="s">
         <v>416</v>
       </c>
-      <c r="M268" s="334"/>
-      <c r="N268" s="334"/>
-      <c r="O268" s="335"/>
+      <c r="M268" s="328"/>
+      <c r="N268" s="328"/>
+      <c r="O268" s="329"/>
       <c r="P268" s="10"/>
     </row>
     <row r="269" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="9"/>
       <c r="B269" s="29"/>
       <c r="C269" s="30"/>
-      <c r="D269" s="339"/>
-      <c r="E269" s="340"/>
+      <c r="D269" s="333"/>
+      <c r="E269" s="334"/>
       <c r="F269" s="215"/>
       <c r="G269" s="215"/>
       <c r="H269" s="215"/>
       <c r="I269" s="31"/>
       <c r="J269" s="215"/>
       <c r="K269" s="215"/>
-      <c r="L269" s="341"/>
-      <c r="M269" s="341"/>
-      <c r="N269" s="341"/>
-      <c r="O269" s="342"/>
+      <c r="L269" s="335"/>
+      <c r="M269" s="335"/>
+      <c r="N269" s="335"/>
+      <c r="O269" s="336"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28865,10 +28865,10 @@
       <c r="C274" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D274" s="328" t="s">
+      <c r="D274" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E274" s="329"/>
+      <c r="E274" s="344"/>
       <c r="F274" s="25" t="s">
         <v>31</v>
       </c>
@@ -28887,12 +28887,12 @@
       <c r="K274" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L274" s="330" t="s">
+      <c r="L274" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M274" s="330"/>
-      <c r="N274" s="330"/>
-      <c r="O274" s="331"/>
+      <c r="M274" s="345"/>
+      <c r="N274" s="345"/>
+      <c r="O274" s="346"/>
       <c r="P274" s="10"/>
     </row>
     <row r="275" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28903,10 +28903,10 @@
       <c r="C275" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D275" s="332" t="s">
+      <c r="D275" s="337" t="s">
         <v>386</v>
       </c>
-      <c r="E275" s="333"/>
+      <c r="E275" s="338"/>
       <c r="F275" s="214"/>
       <c r="G275" s="214"/>
       <c r="H275" s="214" t="s">
@@ -28917,12 +28917,12 @@
       </c>
       <c r="J275" s="214"/>
       <c r="K275" s="214"/>
-      <c r="L275" s="334" t="s">
+      <c r="L275" s="328" t="s">
         <v>387</v>
       </c>
-      <c r="M275" s="334"/>
-      <c r="N275" s="334"/>
-      <c r="O275" s="335"/>
+      <c r="M275" s="328"/>
+      <c r="N275" s="328"/>
+      <c r="O275" s="329"/>
       <c r="P275" s="10"/>
     </row>
     <row r="276" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28933,10 +28933,10 @@
       <c r="C276" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D276" s="332" t="s">
+      <c r="D276" s="337" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="333"/>
+      <c r="E276" s="338"/>
       <c r="F276" s="214"/>
       <c r="G276" s="214"/>
       <c r="H276" s="214" t="s">
@@ -28949,10 +28949,10 @@
         <v>255</v>
       </c>
       <c r="K276" s="214"/>
-      <c r="L276" s="334"/>
-      <c r="M276" s="334"/>
-      <c r="N276" s="334"/>
-      <c r="O276" s="335"/>
+      <c r="L276" s="328"/>
+      <c r="M276" s="328"/>
+      <c r="N276" s="328"/>
+      <c r="O276" s="329"/>
       <c r="P276" s="10"/>
     </row>
     <row r="277" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28963,10 +28963,10 @@
       <c r="C277" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D277" s="348" t="s">
+      <c r="D277" s="391" t="s">
         <v>379</v>
       </c>
-      <c r="E277" s="349"/>
+      <c r="E277" s="392"/>
       <c r="F277" s="214"/>
       <c r="G277" s="214"/>
       <c r="H277" s="214"/>
@@ -28977,10 +28977,10 @@
         <v>255</v>
       </c>
       <c r="K277" s="214"/>
-      <c r="L277" s="334"/>
-      <c r="M277" s="334"/>
-      <c r="N277" s="334"/>
-      <c r="O277" s="335"/>
+      <c r="L277" s="328"/>
+      <c r="M277" s="328"/>
+      <c r="N277" s="328"/>
+      <c r="O277" s="329"/>
       <c r="P277" s="10"/>
     </row>
     <row r="278" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -28991,10 +28991,10 @@
       <c r="C278" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D278" s="346" t="s">
+      <c r="D278" s="362" t="s">
         <v>415</v>
       </c>
-      <c r="E278" s="347"/>
+      <c r="E278" s="363"/>
       <c r="F278" s="215"/>
       <c r="G278" s="215"/>
       <c r="H278" s="215" t="s">
@@ -29005,12 +29005,12 @@
       </c>
       <c r="J278" s="215"/>
       <c r="K278" s="215"/>
-      <c r="L278" s="341" t="s">
+      <c r="L278" s="335" t="s">
         <v>416</v>
       </c>
-      <c r="M278" s="341"/>
-      <c r="N278" s="341"/>
-      <c r="O278" s="342"/>
+      <c r="M278" s="335"/>
+      <c r="N278" s="335"/>
+      <c r="O278" s="336"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
@@ -29097,10 +29097,10 @@
       <c r="C283" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D283" s="328" t="s">
+      <c r="D283" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E283" s="329"/>
+      <c r="E283" s="344"/>
       <c r="F283" s="25" t="s">
         <v>31</v>
       </c>
@@ -29119,12 +29119,12 @@
       <c r="K283" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L283" s="330" t="s">
+      <c r="L283" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M283" s="330"/>
-      <c r="N283" s="330"/>
-      <c r="O283" s="331"/>
+      <c r="M283" s="345"/>
+      <c r="N283" s="345"/>
+      <c r="O283" s="346"/>
       <c r="P283" s="10"/>
     </row>
     <row r="284" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29135,10 +29135,10 @@
       <c r="C284" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="D284" s="332" t="s">
+      <c r="D284" s="337" t="s">
         <v>403</v>
       </c>
-      <c r="E284" s="333"/>
+      <c r="E284" s="338"/>
       <c r="F284" s="214"/>
       <c r="G284" s="214"/>
       <c r="H284" s="214" t="s">
@@ -29151,10 +29151,10 @@
         <v>255</v>
       </c>
       <c r="K284" s="214"/>
-      <c r="L284" s="334"/>
-      <c r="M284" s="334"/>
-      <c r="N284" s="334"/>
-      <c r="O284" s="335"/>
+      <c r="L284" s="328"/>
+      <c r="M284" s="328"/>
+      <c r="N284" s="328"/>
+      <c r="O284" s="329"/>
       <c r="P284" s="10"/>
     </row>
     <row r="285" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29165,10 +29165,10 @@
       <c r="C285" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D285" s="332" t="s">
+      <c r="D285" s="337" t="s">
         <v>396</v>
       </c>
-      <c r="E285" s="333"/>
+      <c r="E285" s="338"/>
       <c r="F285" s="214"/>
       <c r="G285" s="214"/>
       <c r="H285" s="214" t="s">
@@ -29181,12 +29181,12 @@
         <v>255</v>
       </c>
       <c r="K285" s="214"/>
-      <c r="L285" s="334" t="s">
+      <c r="L285" s="328" t="s">
         <v>395</v>
       </c>
-      <c r="M285" s="334"/>
-      <c r="N285" s="334"/>
-      <c r="O285" s="335"/>
+      <c r="M285" s="328"/>
+      <c r="N285" s="328"/>
+      <c r="O285" s="329"/>
       <c r="P285" s="10"/>
     </row>
     <row r="286" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29197,10 +29197,10 @@
       <c r="C286" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="D286" s="343" t="s">
+      <c r="D286" s="347" t="s">
         <v>402</v>
       </c>
-      <c r="E286" s="344"/>
+      <c r="E286" s="348"/>
       <c r="F286" s="214"/>
       <c r="G286" s="214"/>
       <c r="H286" s="214" t="s">
@@ -29213,10 +29213,10 @@
         <v>255</v>
       </c>
       <c r="K286" s="214"/>
-      <c r="L286" s="345"/>
-      <c r="M286" s="334"/>
-      <c r="N286" s="334"/>
-      <c r="O286" s="335"/>
+      <c r="L286" s="342"/>
+      <c r="M286" s="328"/>
+      <c r="N286" s="328"/>
+      <c r="O286" s="329"/>
       <c r="P286" s="10"/>
     </row>
     <row r="287" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29227,10 +29227,10 @@
       <c r="C287" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="D287" s="332" t="s">
+      <c r="D287" s="337" t="s">
         <v>401</v>
       </c>
-      <c r="E287" s="333"/>
+      <c r="E287" s="338"/>
       <c r="F287" s="214"/>
       <c r="G287" s="214"/>
       <c r="H287" s="214" t="s">
@@ -29241,12 +29241,12 @@
       </c>
       <c r="J287" s="214"/>
       <c r="K287" s="214"/>
-      <c r="L287" s="334" t="s">
+      <c r="L287" s="328" t="s">
         <v>254</v>
       </c>
-      <c r="M287" s="334"/>
-      <c r="N287" s="334"/>
-      <c r="O287" s="335"/>
+      <c r="M287" s="328"/>
+      <c r="N287" s="328"/>
+      <c r="O287" s="329"/>
       <c r="P287" s="10"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29257,10 +29257,10 @@
       <c r="C288" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="D288" s="332" t="s">
+      <c r="D288" s="337" t="s">
         <v>400</v>
       </c>
-      <c r="E288" s="333"/>
+      <c r="E288" s="338"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214"/>
@@ -29271,30 +29271,30 @@
       <c r="K288" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L288" s="334" t="s">
+      <c r="L288" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M288" s="334"/>
-      <c r="N288" s="334"/>
-      <c r="O288" s="335"/>
+      <c r="M288" s="328"/>
+      <c r="N288" s="328"/>
+      <c r="O288" s="329"/>
       <c r="P288" s="10"/>
     </row>
     <row r="289" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9"/>
       <c r="B289" s="29"/>
       <c r="C289" s="30"/>
-      <c r="D289" s="339"/>
-      <c r="E289" s="340"/>
+      <c r="D289" s="333"/>
+      <c r="E289" s="334"/>
       <c r="F289" s="215"/>
       <c r="G289" s="215"/>
       <c r="H289" s="215"/>
       <c r="I289" s="31"/>
       <c r="J289" s="215"/>
       <c r="K289" s="215"/>
-      <c r="L289" s="341"/>
-      <c r="M289" s="341"/>
-      <c r="N289" s="341"/>
-      <c r="O289" s="342"/>
+      <c r="L289" s="335"/>
+      <c r="M289" s="335"/>
+      <c r="N289" s="335"/>
+      <c r="O289" s="336"/>
       <c r="P289" s="10"/>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
@@ -29353,6 +29353,303 @@
     </row>
   </sheetData>
   <mergeCells count="321">
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="L103:O103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="L107:O107"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="L288:O288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="L289:O289"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="L283:O283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="L284:O284"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="L285:O285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="L286:O286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="L287:O287"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="L276:O276"/>
+    <mergeCell ref="L277:O277"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="L278:O278"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="L265:O265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="L266:O266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="L267:O267"/>
+    <mergeCell ref="L268:O268"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="L269:O269"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="L256:O256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="L257:O257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="L258:O258"/>
+    <mergeCell ref="L259:O259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="L260:O260"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="L200:O200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="L201:O201"/>
+    <mergeCell ref="L210:O210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="L211:O211"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="L203:O203"/>
+    <mergeCell ref="L202:O202"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="L208:O208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="L209:O209"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="L153:O153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="L154:O154"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="L199:O199"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="L191:O191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="L184:O184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="L185:O185"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="L182:O182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="L183:O183"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="L175:O175"/>
+    <mergeCell ref="L176:O176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="L177:O177"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="L156:O156"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="L173:O173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="L174:O174"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="L164:O164"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="L155:O155"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L70:O71"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O57"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="L133:O133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="L120:O120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="L121:O121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="L232:O232"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="L224:O224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="L225:O225"/>
+    <mergeCell ref="L226:O226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="L227:O227"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="L243:O243"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="L250:O250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="L251:O251"/>
     <mergeCell ref="L122:O122"/>
     <mergeCell ref="L123:O123"/>
     <mergeCell ref="D127:E127"/>
@@ -29377,303 +29674,6 @@
     <mergeCell ref="L217:O217"/>
     <mergeCell ref="L218:O218"/>
     <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="L243:O243"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="L250:O250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="L251:O251"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="L232:O232"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="L224:O224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="L225:O225"/>
-    <mergeCell ref="L226:O226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="L227:O227"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="L133:O133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="L112:O112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="L120:O120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="L121:O121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L70:O71"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L56:O57"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:O155"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="L176:O176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="L177:O177"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="L156:O156"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="L173:O173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="L174:O174"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="L153:O153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="L154:O154"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="L199:O199"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="L191:O191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="L184:O184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="L185:O185"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="L182:O182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="L183:O183"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="L175:O175"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="L200:O200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="L201:O201"/>
-    <mergeCell ref="L210:O210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="L211:O211"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="L203:O203"/>
-    <mergeCell ref="L202:O202"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="L208:O208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="L209:O209"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="L256:O256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="L257:O257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="L258:O258"/>
-    <mergeCell ref="L259:O259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="L260:O260"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="L265:O265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="L266:O266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="L267:O267"/>
-    <mergeCell ref="L268:O268"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="L269:O269"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="L276:O276"/>
-    <mergeCell ref="L277:O277"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="L278:O278"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="L288:O288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="L289:O289"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="L283:O283"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="L284:O284"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="L285:O285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="L286:O286"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="L287:O287"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="L103:O103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="L106:O106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="L107:O107"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29748,7 +29748,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -30678,8 +30678,8 @@
   </sheetPr>
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30743,7 +30743,7 @@
       </c>
       <c r="N2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="O2" s="281"/>
       <c r="P2" s="61"/>
@@ -30927,38 +30927,38 @@
     <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="37">
+      <c r="C8" s="208">
         <v>4</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="209"/>
+      <c r="E8" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="211">
         <v>44566</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="211">
         <v>44571</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="210">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="211">
         <v>44566</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="211">
         <v>44570</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="212">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M8" s="42">
-        <v>0.9</v>
+      <c r="M8" s="213">
+        <v>1</v>
       </c>
       <c r="N8" s="84"/>
       <c r="O8" s="85"/>
@@ -31022,11 +31022,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J10" s="129"/>
+      <c r="J10" s="129">
+        <v>44571</v>
+      </c>
       <c r="K10" s="129"/>
       <c r="L10" s="130">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-44571</v>
       </c>
       <c r="M10" s="131">
         <v>0</v>
@@ -31267,11 +31269,13 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J17" s="140"/>
+      <c r="J17" s="140">
+        <v>44571</v>
+      </c>
       <c r="K17" s="140"/>
       <c r="L17" s="141">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-44571</v>
       </c>
       <c r="M17" s="142">
         <v>0</v>
@@ -31407,11 +31411,13 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J21" s="140"/>
+      <c r="J21" s="140">
+        <v>44571</v>
+      </c>
       <c r="K21" s="140"/>
       <c r="L21" s="141">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-44571</v>
       </c>
       <c r="M21" s="142">
         <v>0</v>
@@ -31477,14 +31483,16 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J23" s="150"/>
+      <c r="J23" s="150">
+        <v>44571</v>
+      </c>
       <c r="K23" s="150"/>
       <c r="L23" s="151">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-44571</v>
       </c>
       <c r="M23" s="152">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="43"/>
@@ -32014,7 +32022,7 @@
       </c>
       <c r="AK2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="AL2" s="281"/>
       <c r="AM2" s="61"/>
@@ -32531,7 +32539,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -33944,7 +33952,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -39547,7 +39555,7 @@
       </c>
       <c r="S2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="T2" s="281"/>
     </row>
@@ -46322,7 +46330,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -48572,7 +48580,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.616098495368</v>
+        <v>44571.909550231481</v>
       </c>
       <c r="Q2" s="281"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0944F87E-E5EE-284C-ACE3-0608160CD9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E38CDF7-BE08-F942-A168-7C77DD648089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="37580" windowHeight="21100" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="37580" windowHeight="21100" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -2850,19 +2850,37 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2878,79 +2896,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2958,44 +2910,25 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3033,14 +2966,81 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -20467,7 +20467,7 @@
       <c r="L64" s="261"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20612,7 +20612,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -22123,7 +22123,7 @@
       </c>
       <c r="O2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="P2" s="281"/>
     </row>
@@ -22231,10 +22231,10 @@
       <c r="C8" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="385" t="s">
+      <c r="D8" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="386"/>
+      <c r="E8" s="365"/>
       <c r="F8" s="221" t="s">
         <v>31</v>
       </c>
@@ -22253,12 +22253,12 @@
       <c r="K8" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="387" t="s">
+      <c r="L8" s="366" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="387"/>
-      <c r="N8" s="387"/>
-      <c r="O8" s="388"/>
+      <c r="M8" s="366"/>
+      <c r="N8" s="366"/>
+      <c r="O8" s="367"/>
       <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22269,10 +22269,10 @@
       <c r="C9" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="377" t="s">
+      <c r="D9" s="356" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="378"/>
+      <c r="E9" s="357"/>
       <c r="F9" s="224" t="s">
         <v>191</v>
       </c>
@@ -22287,10 +22287,10 @@
       </c>
       <c r="J9" s="224"/>
       <c r="K9" s="224"/>
-      <c r="L9" s="379"/>
-      <c r="M9" s="379"/>
-      <c r="N9" s="379"/>
-      <c r="O9" s="380"/>
+      <c r="L9" s="358"/>
+      <c r="M9" s="358"/>
+      <c r="N9" s="358"/>
+      <c r="O9" s="359"/>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22301,10 +22301,10 @@
       <c r="C10" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="377" t="s">
+      <c r="D10" s="356" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="378"/>
+      <c r="E10" s="357"/>
       <c r="F10" s="224"/>
       <c r="G10" s="224"/>
       <c r="H10" s="224" t="s">
@@ -22315,12 +22315,12 @@
       </c>
       <c r="J10" s="224"/>
       <c r="K10" s="224"/>
-      <c r="L10" s="379" t="s">
+      <c r="L10" s="358" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="379"/>
-      <c r="N10" s="379"/>
-      <c r="O10" s="380"/>
+      <c r="M10" s="358"/>
+      <c r="N10" s="358"/>
+      <c r="O10" s="359"/>
       <c r="P10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22331,10 +22331,10 @@
       <c r="C11" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="377" t="s">
+      <c r="D11" s="356" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="378"/>
+      <c r="E11" s="357"/>
       <c r="F11" s="224"/>
       <c r="G11" s="224"/>
       <c r="H11" s="224" t="s">
@@ -22345,10 +22345,10 @@
       </c>
       <c r="J11" s="224"/>
       <c r="K11" s="224"/>
-      <c r="L11" s="379"/>
-      <c r="M11" s="379"/>
-      <c r="N11" s="379"/>
-      <c r="O11" s="380"/>
+      <c r="L11" s="358"/>
+      <c r="M11" s="358"/>
+      <c r="N11" s="358"/>
+      <c r="O11" s="359"/>
       <c r="P11" s="110"/>
     </row>
     <row r="12" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -22359,10 +22359,10 @@
       <c r="C12" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="381" t="s">
+      <c r="D12" s="360" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="382"/>
+      <c r="E12" s="361"/>
       <c r="F12" s="228"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
@@ -22371,10 +22371,10 @@
       </c>
       <c r="J12" s="228"/>
       <c r="K12" s="228"/>
-      <c r="L12" s="383"/>
-      <c r="M12" s="383"/>
-      <c r="N12" s="383"/>
-      <c r="O12" s="384"/>
+      <c r="L12" s="362"/>
+      <c r="M12" s="362"/>
+      <c r="N12" s="362"/>
+      <c r="O12" s="363"/>
       <c r="P12" s="110"/>
     </row>
     <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22461,10 +22461,10 @@
       <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="343" t="s">
+      <c r="D17" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="344"/>
+      <c r="E17" s="329"/>
       <c r="F17" s="25" t="s">
         <v>31</v>
       </c>
@@ -22483,12 +22483,12 @@
       <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="345" t="s">
+      <c r="L17" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="345"/>
-      <c r="N17" s="345"/>
-      <c r="O17" s="346"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="331"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22499,10 +22499,10 @@
       <c r="C18" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="337" t="s">
+      <c r="D18" s="332" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="338"/>
+      <c r="E18" s="333"/>
       <c r="F18" s="214"/>
       <c r="G18" s="214"/>
       <c r="H18" s="214" t="s">
@@ -22515,10 +22515,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="214"/>
-      <c r="L18" s="328"/>
-      <c r="M18" s="328"/>
-      <c r="N18" s="328"/>
-      <c r="O18" s="329"/>
+      <c r="L18" s="334"/>
+      <c r="M18" s="334"/>
+      <c r="N18" s="334"/>
+      <c r="O18" s="335"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22529,10 +22529,10 @@
       <c r="C19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="337" t="s">
+      <c r="D19" s="332" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="338"/>
+      <c r="E19" s="333"/>
       <c r="F19" s="214"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214" t="s">
@@ -22545,10 +22545,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="214"/>
-      <c r="L19" s="328"/>
-      <c r="M19" s="328"/>
-      <c r="N19" s="328"/>
-      <c r="O19" s="329"/>
+      <c r="L19" s="334"/>
+      <c r="M19" s="334"/>
+      <c r="N19" s="334"/>
+      <c r="O19" s="335"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -22559,10 +22559,10 @@
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="347" t="s">
+      <c r="D20" s="343" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="348"/>
+      <c r="E20" s="344"/>
       <c r="F20" s="214"/>
       <c r="G20" s="214"/>
       <c r="H20" s="214" t="s">
@@ -22575,12 +22575,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="214"/>
-      <c r="L20" s="342" t="s">
+      <c r="L20" s="345" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="328"/>
-      <c r="N20" s="328"/>
-      <c r="O20" s="329"/>
+      <c r="M20" s="334"/>
+      <c r="N20" s="334"/>
+      <c r="O20" s="335"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22591,10 +22591,10 @@
       <c r="C21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="337" t="s">
+      <c r="D21" s="332" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="338"/>
+      <c r="E21" s="333"/>
       <c r="F21" s="214"/>
       <c r="G21" s="214"/>
       <c r="H21" s="214" t="s">
@@ -22605,12 +22605,12 @@
       </c>
       <c r="J21" s="214"/>
       <c r="K21" s="214"/>
-      <c r="L21" s="328" t="s">
+      <c r="L21" s="334" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="328"/>
-      <c r="N21" s="328"/>
-      <c r="O21" s="329"/>
+      <c r="M21" s="334"/>
+      <c r="N21" s="334"/>
+      <c r="O21" s="335"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22621,10 +22621,10 @@
       <c r="C22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="337" t="s">
+      <c r="D22" s="332" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="338"/>
+      <c r="E22" s="333"/>
       <c r="F22" s="214"/>
       <c r="G22" s="214"/>
       <c r="H22" s="214"/>
@@ -22633,28 +22633,28 @@
       </c>
       <c r="J22" s="214"/>
       <c r="K22" s="214"/>
-      <c r="L22" s="328"/>
-      <c r="M22" s="328"/>
-      <c r="N22" s="328"/>
-      <c r="O22" s="329"/>
+      <c r="L22" s="334"/>
+      <c r="M22" s="334"/>
+      <c r="N22" s="334"/>
+      <c r="O22" s="335"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="333"/>
-      <c r="E23" s="334"/>
+      <c r="D23" s="339"/>
+      <c r="E23" s="340"/>
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
       <c r="I23" s="31"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="335"/>
-      <c r="M23" s="335"/>
-      <c r="N23" s="335"/>
-      <c r="O23" s="336"/>
+      <c r="L23" s="341"/>
+      <c r="M23" s="341"/>
+      <c r="N23" s="341"/>
+      <c r="O23" s="342"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -22759,10 +22759,10 @@
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="343" t="s">
+      <c r="D29" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="344"/>
+      <c r="E29" s="329"/>
       <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
@@ -22781,12 +22781,12 @@
       <c r="K29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="345" t="s">
+      <c r="L29" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="345"/>
-      <c r="N29" s="345"/>
-      <c r="O29" s="346"/>
+      <c r="M29" s="330"/>
+      <c r="N29" s="330"/>
+      <c r="O29" s="331"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22797,10 +22797,10 @@
       <c r="C30" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="337" t="s">
+      <c r="D30" s="332" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="338"/>
+      <c r="E30" s="333"/>
       <c r="F30" s="214"/>
       <c r="G30" s="214"/>
       <c r="H30" s="214" t="s">
@@ -22811,12 +22811,12 @@
       </c>
       <c r="J30" s="214"/>
       <c r="K30" s="214"/>
-      <c r="L30" s="328" t="s">
+      <c r="L30" s="334" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="328"/>
-      <c r="N30" s="328"/>
-      <c r="O30" s="329"/>
+      <c r="M30" s="334"/>
+      <c r="N30" s="334"/>
+      <c r="O30" s="335"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22827,10 +22827,10 @@
       <c r="C31" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="337" t="s">
+      <c r="D31" s="332" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="338"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="214"/>
       <c r="G31" s="214"/>
       <c r="H31" s="214" t="s">
@@ -22841,82 +22841,82 @@
       </c>
       <c r="J31" s="214"/>
       <c r="K31" s="214"/>
-      <c r="L31" s="328"/>
-      <c r="M31" s="328"/>
-      <c r="N31" s="328"/>
-      <c r="O31" s="329"/>
+      <c r="L31" s="334"/>
+      <c r="M31" s="334"/>
+      <c r="N31" s="334"/>
+      <c r="O31" s="335"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="389"/>
-      <c r="E32" s="390"/>
+      <c r="D32" s="350"/>
+      <c r="E32" s="351"/>
       <c r="F32" s="214"/>
       <c r="G32" s="214"/>
       <c r="H32" s="214"/>
       <c r="I32" s="28"/>
       <c r="J32" s="214"/>
       <c r="K32" s="214"/>
-      <c r="L32" s="328"/>
-      <c r="M32" s="328"/>
-      <c r="N32" s="328"/>
-      <c r="O32" s="329"/>
+      <c r="L32" s="334"/>
+      <c r="M32" s="334"/>
+      <c r="N32" s="334"/>
+      <c r="O32" s="335"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="389"/>
-      <c r="E33" s="390"/>
+      <c r="D33" s="350"/>
+      <c r="E33" s="351"/>
       <c r="F33" s="214"/>
       <c r="G33" s="214"/>
       <c r="H33" s="214"/>
       <c r="I33" s="28"/>
       <c r="J33" s="214"/>
       <c r="K33" s="214"/>
-      <c r="L33" s="328"/>
-      <c r="M33" s="328"/>
-      <c r="N33" s="328"/>
-      <c r="O33" s="329"/>
+      <c r="L33" s="334"/>
+      <c r="M33" s="334"/>
+      <c r="N33" s="334"/>
+      <c r="O33" s="335"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="389"/>
-      <c r="E34" s="390"/>
+      <c r="D34" s="350"/>
+      <c r="E34" s="351"/>
       <c r="F34" s="214"/>
       <c r="G34" s="214"/>
       <c r="H34" s="214"/>
       <c r="I34" s="28"/>
       <c r="J34" s="214"/>
       <c r="K34" s="214"/>
-      <c r="L34" s="328"/>
-      <c r="M34" s="328"/>
-      <c r="N34" s="328"/>
-      <c r="O34" s="329"/>
+      <c r="L34" s="334"/>
+      <c r="M34" s="334"/>
+      <c r="N34" s="334"/>
+      <c r="O34" s="335"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="333"/>
-      <c r="E35" s="334"/>
+      <c r="D35" s="339"/>
+      <c r="E35" s="340"/>
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
       <c r="I35" s="31"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="335"/>
-      <c r="M35" s="335"/>
-      <c r="N35" s="335"/>
-      <c r="O35" s="336"/>
+      <c r="L35" s="341"/>
+      <c r="M35" s="341"/>
+      <c r="N35" s="341"/>
+      <c r="O35" s="342"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -23003,10 +23003,10 @@
       <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="343" t="s">
+      <c r="D40" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="344"/>
+      <c r="E40" s="329"/>
       <c r="F40" s="25" t="s">
         <v>31</v>
       </c>
@@ -23025,12 +23025,12 @@
       <c r="K40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="345" t="s">
+      <c r="L40" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="345"/>
-      <c r="N40" s="345"/>
-      <c r="O40" s="346"/>
+      <c r="M40" s="330"/>
+      <c r="N40" s="330"/>
+      <c r="O40" s="331"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23041,10 +23041,10 @@
       <c r="C41" s="257" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="375" t="s">
+      <c r="D41" s="352" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="376"/>
+      <c r="E41" s="353"/>
       <c r="F41" s="258"/>
       <c r="G41" s="258"/>
       <c r="H41" s="258" t="s">
@@ -23055,12 +23055,12 @@
       </c>
       <c r="J41" s="258"/>
       <c r="K41" s="258"/>
-      <c r="L41" s="373" t="s">
+      <c r="L41" s="354" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="373"/>
-      <c r="N41" s="373"/>
-      <c r="O41" s="374"/>
+      <c r="M41" s="354"/>
+      <c r="N41" s="354"/>
+      <c r="O41" s="355"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23071,10 +23071,10 @@
       <c r="C42" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="375" t="s">
+      <c r="D42" s="352" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="376"/>
+      <c r="E42" s="353"/>
       <c r="F42" s="258"/>
       <c r="G42" s="258"/>
       <c r="H42" s="258" t="s">
@@ -23085,10 +23085,10 @@
       </c>
       <c r="J42" s="258"/>
       <c r="K42" s="258"/>
-      <c r="L42" s="373"/>
-      <c r="M42" s="373"/>
-      <c r="N42" s="373"/>
-      <c r="O42" s="374"/>
+      <c r="L42" s="354"/>
+      <c r="M42" s="354"/>
+      <c r="N42" s="354"/>
+      <c r="O42" s="355"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23099,10 +23099,10 @@
       <c r="C43" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="337" t="s">
+      <c r="D43" s="332" t="s">
         <v>224</v>
       </c>
-      <c r="E43" s="338"/>
+      <c r="E43" s="333"/>
       <c r="F43" s="214"/>
       <c r="G43" s="214"/>
       <c r="H43" s="214" t="s">
@@ -23113,10 +23113,10 @@
       </c>
       <c r="J43" s="214"/>
       <c r="K43" s="214"/>
-      <c r="L43" s="328"/>
-      <c r="M43" s="328"/>
-      <c r="N43" s="328"/>
-      <c r="O43" s="329"/>
+      <c r="L43" s="334"/>
+      <c r="M43" s="334"/>
+      <c r="N43" s="334"/>
+      <c r="O43" s="335"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23127,10 +23127,10 @@
       <c r="C44" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="337" t="s">
+      <c r="D44" s="332" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="338"/>
+      <c r="E44" s="333"/>
       <c r="F44" s="214"/>
       <c r="G44" s="214"/>
       <c r="H44" s="214" t="s">
@@ -23141,10 +23141,10 @@
       </c>
       <c r="J44" s="214"/>
       <c r="K44" s="214"/>
-      <c r="L44" s="328"/>
-      <c r="M44" s="328"/>
-      <c r="N44" s="328"/>
-      <c r="O44" s="329"/>
+      <c r="L44" s="334"/>
+      <c r="M44" s="334"/>
+      <c r="N44" s="334"/>
+      <c r="O44" s="335"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23155,10 +23155,10 @@
       <c r="C45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="337" t="s">
+      <c r="D45" s="332" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="338"/>
+      <c r="E45" s="333"/>
       <c r="F45" s="214"/>
       <c r="G45" s="214"/>
       <c r="H45" s="214" t="s">
@@ -23171,12 +23171,12 @@
       <c r="K45" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="328" t="s">
+      <c r="L45" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="M45" s="328"/>
-      <c r="N45" s="328"/>
-      <c r="O45" s="329"/>
+      <c r="M45" s="334"/>
+      <c r="N45" s="334"/>
+      <c r="O45" s="335"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23201,28 +23201,28 @@
       </c>
       <c r="J46" s="237"/>
       <c r="K46" s="237"/>
-      <c r="L46" s="328"/>
-      <c r="M46" s="328"/>
-      <c r="N46" s="328"/>
-      <c r="O46" s="329"/>
+      <c r="L46" s="334"/>
+      <c r="M46" s="334"/>
+      <c r="N46" s="334"/>
+      <c r="O46" s="335"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="333"/>
-      <c r="E47" s="334"/>
+      <c r="D47" s="339"/>
+      <c r="E47" s="340"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
       <c r="H47" s="215"/>
       <c r="I47" s="31"/>
       <c r="J47" s="215"/>
       <c r="K47" s="215"/>
-      <c r="L47" s="335"/>
-      <c r="M47" s="335"/>
-      <c r="N47" s="335"/>
-      <c r="O47" s="336"/>
+      <c r="L47" s="341"/>
+      <c r="M47" s="341"/>
+      <c r="N47" s="341"/>
+      <c r="O47" s="342"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -23309,10 +23309,10 @@
       <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="343" t="s">
+      <c r="D52" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="344"/>
+      <c r="E52" s="329"/>
       <c r="F52" s="25" t="s">
         <v>31</v>
       </c>
@@ -23331,12 +23331,12 @@
       <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="345" t="s">
+      <c r="L52" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="345"/>
-      <c r="N52" s="345"/>
-      <c r="O52" s="346"/>
+      <c r="M52" s="330"/>
+      <c r="N52" s="330"/>
+      <c r="O52" s="331"/>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23347,10 +23347,10 @@
       <c r="C53" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="337" t="s">
+      <c r="D53" s="332" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="338"/>
+      <c r="E53" s="333"/>
       <c r="F53" s="214"/>
       <c r="G53" s="214"/>
       <c r="H53" s="214" t="s">
@@ -23363,12 +23363,12 @@
       <c r="K53" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="328" t="s">
+      <c r="L53" s="334" t="s">
         <v>329</v>
       </c>
-      <c r="M53" s="328"/>
-      <c r="N53" s="328"/>
-      <c r="O53" s="329"/>
+      <c r="M53" s="334"/>
+      <c r="N53" s="334"/>
+      <c r="O53" s="335"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23393,12 +23393,12 @@
       </c>
       <c r="J54" s="214"/>
       <c r="K54" s="214"/>
-      <c r="L54" s="330" t="s">
+      <c r="L54" s="371" t="s">
         <v>246</v>
       </c>
-      <c r="M54" s="331"/>
-      <c r="N54" s="331"/>
-      <c r="O54" s="332"/>
+      <c r="M54" s="372"/>
+      <c r="N54" s="372"/>
+      <c r="O54" s="373"/>
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23423,12 +23423,12 @@
       </c>
       <c r="J55" s="214"/>
       <c r="K55" s="214"/>
-      <c r="L55" s="351" t="s">
+      <c r="L55" s="377" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="352"/>
-      <c r="N55" s="352"/>
-      <c r="O55" s="353"/>
+      <c r="M55" s="378"/>
+      <c r="N55" s="378"/>
+      <c r="O55" s="379"/>
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23451,12 +23451,12 @@
       </c>
       <c r="J56" s="214"/>
       <c r="K56" s="214"/>
-      <c r="L56" s="367" t="s">
+      <c r="L56" s="368" t="s">
         <v>243</v>
       </c>
-      <c r="M56" s="368"/>
-      <c r="N56" s="368"/>
-      <c r="O56" s="369"/>
+      <c r="M56" s="369"/>
+      <c r="N56" s="369"/>
+      <c r="O56" s="370"/>
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23479,10 +23479,10 @@
       </c>
       <c r="J57" s="214"/>
       <c r="K57" s="214"/>
-      <c r="L57" s="370"/>
-      <c r="M57" s="371"/>
-      <c r="N57" s="371"/>
-      <c r="O57" s="372"/>
+      <c r="L57" s="374"/>
+      <c r="M57" s="375"/>
+      <c r="N57" s="375"/>
+      <c r="O57" s="376"/>
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -23493,10 +23493,10 @@
       <c r="C58" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="347" t="s">
+      <c r="D58" s="343" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="348"/>
+      <c r="E58" s="344"/>
       <c r="F58" s="214"/>
       <c r="G58" s="214"/>
       <c r="H58" s="214" t="s">
@@ -23507,12 +23507,12 @@
       </c>
       <c r="J58" s="214"/>
       <c r="K58" s="214"/>
-      <c r="L58" s="342" t="s">
+      <c r="L58" s="345" t="s">
         <v>409</v>
       </c>
-      <c r="M58" s="328"/>
-      <c r="N58" s="328"/>
-      <c r="O58" s="329"/>
+      <c r="M58" s="334"/>
+      <c r="N58" s="334"/>
+      <c r="O58" s="335"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23523,10 +23523,10 @@
       <c r="C59" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="337" t="s">
+      <c r="D59" s="332" t="s">
         <v>228</v>
       </c>
-      <c r="E59" s="338"/>
+      <c r="E59" s="333"/>
       <c r="F59" s="214"/>
       <c r="G59" s="214"/>
       <c r="H59" s="214" t="s">
@@ -23537,10 +23537,10 @@
       </c>
       <c r="J59" s="214"/>
       <c r="K59" s="214"/>
-      <c r="L59" s="328"/>
-      <c r="M59" s="328"/>
-      <c r="N59" s="328"/>
-      <c r="O59" s="329"/>
+      <c r="L59" s="334"/>
+      <c r="M59" s="334"/>
+      <c r="N59" s="334"/>
+      <c r="O59" s="335"/>
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23551,10 +23551,10 @@
       <c r="C60" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D60" s="337" t="s">
+      <c r="D60" s="332" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="338"/>
+      <c r="E60" s="333"/>
       <c r="F60" s="214"/>
       <c r="G60" s="214"/>
       <c r="H60" s="214" t="s">
@@ -23567,30 +23567,30 @@
       <c r="K60" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L60" s="328" t="s">
+      <c r="L60" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="M60" s="328"/>
-      <c r="N60" s="328"/>
-      <c r="O60" s="329"/>
+      <c r="M60" s="334"/>
+      <c r="N60" s="334"/>
+      <c r="O60" s="335"/>
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="333"/>
-      <c r="E61" s="334"/>
+      <c r="D61" s="339"/>
+      <c r="E61" s="340"/>
       <c r="F61" s="215"/>
       <c r="G61" s="215"/>
       <c r="H61" s="215"/>
       <c r="I61" s="31"/>
       <c r="J61" s="215"/>
       <c r="K61" s="215"/>
-      <c r="L61" s="335"/>
-      <c r="M61" s="335"/>
-      <c r="N61" s="335"/>
-      <c r="O61" s="336"/>
+      <c r="L61" s="341"/>
+      <c r="M61" s="341"/>
+      <c r="N61" s="341"/>
+      <c r="O61" s="342"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -23677,10 +23677,10 @@
       <c r="C66" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="343" t="s">
+      <c r="D66" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="344"/>
+      <c r="E66" s="329"/>
       <c r="F66" s="25" t="s">
         <v>31</v>
       </c>
@@ -23699,12 +23699,12 @@
       <c r="K66" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L66" s="345" t="s">
+      <c r="L66" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="345"/>
-      <c r="N66" s="345"/>
-      <c r="O66" s="346"/>
+      <c r="M66" s="330"/>
+      <c r="N66" s="330"/>
+      <c r="O66" s="331"/>
       <c r="P66" s="10"/>
     </row>
     <row r="67" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23715,10 +23715,10 @@
       <c r="C67" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D67" s="337" t="s">
+      <c r="D67" s="332" t="s">
         <v>267</v>
       </c>
-      <c r="E67" s="338"/>
+      <c r="E67" s="333"/>
       <c r="F67" s="214"/>
       <c r="G67" s="214"/>
       <c r="H67" s="214" t="s">
@@ -23731,12 +23731,12 @@
       <c r="K67" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L67" s="328" t="s">
+      <c r="L67" s="334" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="328"/>
-      <c r="N67" s="328"/>
-      <c r="O67" s="329"/>
+      <c r="M67" s="334"/>
+      <c r="N67" s="334"/>
+      <c r="O67" s="335"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23747,10 +23747,10 @@
       <c r="C68" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="337" t="s">
+      <c r="D68" s="332" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="338"/>
+      <c r="E68" s="333"/>
       <c r="F68" s="214"/>
       <c r="G68" s="214"/>
       <c r="H68" s="214" t="s">
@@ -23761,10 +23761,10 @@
       </c>
       <c r="J68" s="214"/>
       <c r="K68" s="214"/>
-      <c r="L68" s="328"/>
-      <c r="M68" s="328"/>
-      <c r="N68" s="328"/>
-      <c r="O68" s="329"/>
+      <c r="L68" s="334"/>
+      <c r="M68" s="334"/>
+      <c r="N68" s="334"/>
+      <c r="O68" s="335"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23775,10 +23775,10 @@
       <c r="C69" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D69" s="337" t="s">
+      <c r="D69" s="332" t="s">
         <v>249</v>
       </c>
-      <c r="E69" s="338"/>
+      <c r="E69" s="333"/>
       <c r="F69" s="214"/>
       <c r="G69" s="214"/>
       <c r="H69" s="214" t="s">
@@ -23789,10 +23789,10 @@
       </c>
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
-      <c r="L69" s="328"/>
-      <c r="M69" s="328"/>
-      <c r="N69" s="328"/>
-      <c r="O69" s="329"/>
+      <c r="L69" s="334"/>
+      <c r="M69" s="334"/>
+      <c r="N69" s="334"/>
+      <c r="O69" s="335"/>
       <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23815,12 +23815,12 @@
       </c>
       <c r="J70" s="214"/>
       <c r="K70" s="214"/>
-      <c r="L70" s="367" t="s">
+      <c r="L70" s="368" t="s">
         <v>243</v>
       </c>
-      <c r="M70" s="368"/>
-      <c r="N70" s="368"/>
-      <c r="O70" s="369"/>
+      <c r="M70" s="369"/>
+      <c r="N70" s="369"/>
+      <c r="O70" s="370"/>
       <c r="P70" s="10"/>
     </row>
     <row r="71" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23843,10 +23843,10 @@
       </c>
       <c r="J71" s="214"/>
       <c r="K71" s="214"/>
-      <c r="L71" s="370"/>
-      <c r="M71" s="371"/>
-      <c r="N71" s="371"/>
-      <c r="O71" s="372"/>
+      <c r="L71" s="374"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="375"/>
+      <c r="O71" s="376"/>
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23857,10 +23857,10 @@
       <c r="C72" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D72" s="337" t="s">
+      <c r="D72" s="332" t="s">
         <v>250</v>
       </c>
-      <c r="E72" s="338"/>
+      <c r="E72" s="333"/>
       <c r="F72" s="214"/>
       <c r="G72" s="214"/>
       <c r="H72" s="214"/>
@@ -23871,28 +23871,28 @@
         <v>255</v>
       </c>
       <c r="K72" s="214"/>
-      <c r="L72" s="342"/>
-      <c r="M72" s="328"/>
-      <c r="N72" s="328"/>
-      <c r="O72" s="329"/>
+      <c r="L72" s="345"/>
+      <c r="M72" s="334"/>
+      <c r="N72" s="334"/>
+      <c r="O72" s="335"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="29"/>
       <c r="C73" s="30"/>
-      <c r="D73" s="333"/>
-      <c r="E73" s="334"/>
+      <c r="D73" s="339"/>
+      <c r="E73" s="340"/>
       <c r="F73" s="215"/>
       <c r="G73" s="215"/>
       <c r="H73" s="215"/>
       <c r="I73" s="31"/>
       <c r="J73" s="215"/>
       <c r="K73" s="215"/>
-      <c r="L73" s="335"/>
-      <c r="M73" s="335"/>
-      <c r="N73" s="335"/>
-      <c r="O73" s="336"/>
+      <c r="L73" s="341"/>
+      <c r="M73" s="341"/>
+      <c r="N73" s="341"/>
+      <c r="O73" s="342"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -23979,10 +23979,10 @@
       <c r="C78" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="343" t="s">
+      <c r="D78" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="344"/>
+      <c r="E78" s="329"/>
       <c r="F78" s="25" t="s">
         <v>31</v>
       </c>
@@ -24001,12 +24001,12 @@
       <c r="K78" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="345" t="s">
+      <c r="L78" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M78" s="345"/>
-      <c r="N78" s="345"/>
-      <c r="O78" s="346"/>
+      <c r="M78" s="330"/>
+      <c r="N78" s="330"/>
+      <c r="O78" s="331"/>
       <c r="P78" s="10"/>
     </row>
     <row r="79" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24017,10 +24017,10 @@
       <c r="C79" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="337" t="s">
+      <c r="D79" s="332" t="s">
         <v>218</v>
       </c>
-      <c r="E79" s="338"/>
+      <c r="E79" s="333"/>
       <c r="F79" s="214"/>
       <c r="G79" s="214"/>
       <c r="H79" s="214" t="s">
@@ -24033,12 +24033,12 @@
       <c r="K79" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L79" s="328" t="s">
+      <c r="L79" s="334" t="s">
         <v>329</v>
       </c>
-      <c r="M79" s="328"/>
-      <c r="N79" s="328"/>
-      <c r="O79" s="329"/>
+      <c r="M79" s="334"/>
+      <c r="N79" s="334"/>
+      <c r="O79" s="335"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24049,10 +24049,10 @@
       <c r="C80" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="337" t="s">
+      <c r="D80" s="332" t="s">
         <v>259</v>
       </c>
-      <c r="E80" s="338"/>
+      <c r="E80" s="333"/>
       <c r="F80" s="214"/>
       <c r="G80" s="214"/>
       <c r="H80" s="214" t="s">
@@ -24063,10 +24063,10 @@
       </c>
       <c r="J80" s="214"/>
       <c r="K80" s="214"/>
-      <c r="L80" s="328"/>
-      <c r="M80" s="328"/>
-      <c r="N80" s="328"/>
-      <c r="O80" s="329"/>
+      <c r="L80" s="334"/>
+      <c r="M80" s="334"/>
+      <c r="N80" s="334"/>
+      <c r="O80" s="335"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24077,10 +24077,10 @@
       <c r="C81" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="337" t="s">
+      <c r="D81" s="332" t="s">
         <v>260</v>
       </c>
-      <c r="E81" s="338"/>
+      <c r="E81" s="333"/>
       <c r="F81" s="214"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214" t="s">
@@ -24093,12 +24093,12 @@
       <c r="K81" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L81" s="367" t="s">
+      <c r="L81" s="368" t="s">
         <v>410</v>
       </c>
-      <c r="M81" s="368"/>
-      <c r="N81" s="368"/>
-      <c r="O81" s="369"/>
+      <c r="M81" s="369"/>
+      <c r="N81" s="369"/>
+      <c r="O81" s="370"/>
       <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24109,10 +24109,10 @@
       <c r="C82" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D82" s="337" t="s">
+      <c r="D82" s="332" t="s">
         <v>261</v>
       </c>
-      <c r="E82" s="338"/>
+      <c r="E82" s="333"/>
       <c r="F82" s="214"/>
       <c r="G82" s="214"/>
       <c r="H82" s="214" t="s">
@@ -24123,10 +24123,10 @@
       </c>
       <c r="J82" s="214"/>
       <c r="K82" s="241"/>
-      <c r="L82" s="328"/>
-      <c r="M82" s="328"/>
-      <c r="N82" s="328"/>
-      <c r="O82" s="329"/>
+      <c r="L82" s="334"/>
+      <c r="M82" s="334"/>
+      <c r="N82" s="334"/>
+      <c r="O82" s="335"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24137,10 +24137,10 @@
       <c r="C83" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="337" t="s">
+      <c r="D83" s="332" t="s">
         <v>262</v>
       </c>
-      <c r="E83" s="338"/>
+      <c r="E83" s="333"/>
       <c r="F83" s="214"/>
       <c r="G83" s="214"/>
       <c r="H83" s="214" t="s">
@@ -24151,12 +24151,12 @@
       </c>
       <c r="J83" s="214"/>
       <c r="K83" s="241"/>
-      <c r="L83" s="328" t="s">
+      <c r="L83" s="334" t="s">
         <v>360</v>
       </c>
-      <c r="M83" s="328"/>
-      <c r="N83" s="328"/>
-      <c r="O83" s="329"/>
+      <c r="M83" s="334"/>
+      <c r="N83" s="334"/>
+      <c r="O83" s="335"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24167,10 +24167,10 @@
       <c r="C84" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="337" t="s">
+      <c r="D84" s="332" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="338"/>
+      <c r="E84" s="333"/>
       <c r="F84" s="214"/>
       <c r="G84" s="214"/>
       <c r="H84" s="214" t="s">
@@ -24181,12 +24181,12 @@
       </c>
       <c r="J84" s="214"/>
       <c r="K84" s="241"/>
-      <c r="L84" s="328" t="s">
+      <c r="L84" s="334" t="s">
         <v>254</v>
       </c>
-      <c r="M84" s="328"/>
-      <c r="N84" s="328"/>
-      <c r="O84" s="329"/>
+      <c r="M84" s="334"/>
+      <c r="N84" s="334"/>
+      <c r="O84" s="335"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24197,10 +24197,10 @@
       <c r="C85" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D85" s="337" t="s">
+      <c r="D85" s="332" t="s">
         <v>264</v>
       </c>
-      <c r="E85" s="338"/>
+      <c r="E85" s="333"/>
       <c r="F85" s="214"/>
       <c r="G85" s="214"/>
       <c r="H85" s="214" t="s">
@@ -24213,48 +24213,48 @@
       <c r="K85" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L85" s="364" t="s">
+      <c r="L85" s="336" t="s">
         <v>270</v>
       </c>
-      <c r="M85" s="365"/>
-      <c r="N85" s="365"/>
-      <c r="O85" s="366"/>
+      <c r="M85" s="337"/>
+      <c r="N85" s="337"/>
+      <c r="O85" s="338"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="26"/>
       <c r="C86" s="27"/>
-      <c r="D86" s="337"/>
-      <c r="E86" s="338"/>
+      <c r="D86" s="332"/>
+      <c r="E86" s="333"/>
       <c r="F86" s="214"/>
       <c r="G86" s="214"/>
       <c r="H86" s="214"/>
       <c r="I86" s="28"/>
       <c r="J86" s="214"/>
       <c r="K86" s="214"/>
-      <c r="L86" s="328"/>
-      <c r="M86" s="328"/>
-      <c r="N86" s="328"/>
-      <c r="O86" s="329"/>
+      <c r="L86" s="334"/>
+      <c r="M86" s="334"/>
+      <c r="N86" s="334"/>
+      <c r="O86" s="335"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="29"/>
       <c r="C87" s="30"/>
-      <c r="D87" s="333"/>
-      <c r="E87" s="334"/>
+      <c r="D87" s="339"/>
+      <c r="E87" s="340"/>
       <c r="F87" s="215"/>
       <c r="G87" s="215"/>
       <c r="H87" s="215"/>
       <c r="I87" s="31"/>
       <c r="J87" s="215"/>
       <c r="K87" s="215"/>
-      <c r="L87" s="335"/>
-      <c r="M87" s="335"/>
-      <c r="N87" s="335"/>
-      <c r="O87" s="336"/>
+      <c r="L87" s="341"/>
+      <c r="M87" s="341"/>
+      <c r="N87" s="341"/>
+      <c r="O87" s="342"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24341,10 +24341,10 @@
       <c r="C92" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D92" s="343" t="s">
+      <c r="D92" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="344"/>
+      <c r="E92" s="329"/>
       <c r="F92" s="25" t="s">
         <v>31</v>
       </c>
@@ -24363,12 +24363,12 @@
       <c r="K92" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L92" s="345" t="s">
+      <c r="L92" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="345"/>
-      <c r="N92" s="345"/>
-      <c r="O92" s="346"/>
+      <c r="M92" s="330"/>
+      <c r="N92" s="330"/>
+      <c r="O92" s="331"/>
       <c r="P92" s="10"/>
     </row>
     <row r="93" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24379,10 +24379,10 @@
       <c r="C93" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="337" t="s">
+      <c r="D93" s="332" t="s">
         <v>269</v>
       </c>
-      <c r="E93" s="338"/>
+      <c r="E93" s="333"/>
       <c r="F93" s="214"/>
       <c r="G93" s="214"/>
       <c r="H93" s="214" t="s">
@@ -24395,12 +24395,12 @@
       <c r="K93" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L93" s="328" t="s">
+      <c r="L93" s="334" t="s">
         <v>265</v>
       </c>
-      <c r="M93" s="328"/>
-      <c r="N93" s="328"/>
-      <c r="O93" s="329"/>
+      <c r="M93" s="334"/>
+      <c r="N93" s="334"/>
+      <c r="O93" s="335"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24411,10 +24411,10 @@
       <c r="C94" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D94" s="337" t="s">
+      <c r="D94" s="332" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="338"/>
+      <c r="E94" s="333"/>
       <c r="F94" s="214"/>
       <c r="G94" s="214"/>
       <c r="H94" s="214" t="s">
@@ -24427,12 +24427,12 @@
       <c r="K94" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L94" s="364" t="s">
+      <c r="L94" s="336" t="s">
         <v>270</v>
       </c>
-      <c r="M94" s="365"/>
-      <c r="N94" s="365"/>
-      <c r="O94" s="366"/>
+      <c r="M94" s="337"/>
+      <c r="N94" s="337"/>
+      <c r="O94" s="338"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24443,10 +24443,10 @@
       <c r="C95" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D95" s="337" t="s">
+      <c r="D95" s="332" t="s">
         <v>271</v>
       </c>
-      <c r="E95" s="338"/>
+      <c r="E95" s="333"/>
       <c r="F95" s="214"/>
       <c r="G95" s="214"/>
       <c r="H95" s="214" t="s">
@@ -24457,10 +24457,10 @@
       </c>
       <c r="J95" s="214"/>
       <c r="K95" s="214"/>
-      <c r="L95" s="367"/>
-      <c r="M95" s="368"/>
-      <c r="N95" s="368"/>
-      <c r="O95" s="369"/>
+      <c r="L95" s="368"/>
+      <c r="M95" s="369"/>
+      <c r="N95" s="369"/>
+      <c r="O95" s="370"/>
       <c r="P95" s="10"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24471,10 +24471,10 @@
       <c r="C96" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D96" s="337" t="s">
+      <c r="D96" s="332" t="s">
         <v>272</v>
       </c>
-      <c r="E96" s="338"/>
+      <c r="E96" s="333"/>
       <c r="F96" s="214"/>
       <c r="G96" s="214"/>
       <c r="H96" s="214" t="s">
@@ -24485,10 +24485,10 @@
       </c>
       <c r="J96" s="214"/>
       <c r="K96" s="241"/>
-      <c r="L96" s="328"/>
-      <c r="M96" s="328"/>
-      <c r="N96" s="328"/>
-      <c r="O96" s="329"/>
+      <c r="L96" s="334"/>
+      <c r="M96" s="334"/>
+      <c r="N96" s="334"/>
+      <c r="O96" s="335"/>
       <c r="P96" s="10"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24499,10 +24499,10 @@
       <c r="C97" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D97" s="337" t="s">
+      <c r="D97" s="332" t="s">
         <v>311</v>
       </c>
-      <c r="E97" s="338"/>
+      <c r="E97" s="333"/>
       <c r="F97" s="214"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214"/>
@@ -24513,28 +24513,28 @@
         <v>255</v>
       </c>
       <c r="K97" s="241"/>
-      <c r="L97" s="328"/>
-      <c r="M97" s="328"/>
-      <c r="N97" s="328"/>
-      <c r="O97" s="329"/>
+      <c r="L97" s="334"/>
+      <c r="M97" s="334"/>
+      <c r="N97" s="334"/>
+      <c r="O97" s="335"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="29"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="362"/>
-      <c r="E98" s="363"/>
+      <c r="D98" s="346"/>
+      <c r="E98" s="347"/>
       <c r="F98" s="215"/>
       <c r="G98" s="215"/>
       <c r="H98" s="215"/>
       <c r="I98" s="31"/>
       <c r="J98" s="215"/>
       <c r="K98" s="215"/>
-      <c r="L98" s="335"/>
-      <c r="M98" s="335"/>
-      <c r="N98" s="335"/>
-      <c r="O98" s="336"/>
+      <c r="L98" s="341"/>
+      <c r="M98" s="341"/>
+      <c r="N98" s="341"/>
+      <c r="O98" s="342"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24621,10 +24621,10 @@
       <c r="C103" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="343" t="s">
+      <c r="D103" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="344"/>
+      <c r="E103" s="329"/>
       <c r="F103" s="25" t="s">
         <v>31</v>
       </c>
@@ -24643,12 +24643,12 @@
       <c r="K103" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L103" s="345" t="s">
+      <c r="L103" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M103" s="345"/>
-      <c r="N103" s="345"/>
-      <c r="O103" s="346"/>
+      <c r="M103" s="330"/>
+      <c r="N103" s="330"/>
+      <c r="O103" s="331"/>
       <c r="P103" s="10"/>
     </row>
     <row r="104" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24659,10 +24659,10 @@
       <c r="C104" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D104" s="337" t="s">
+      <c r="D104" s="332" t="s">
         <v>218</v>
       </c>
-      <c r="E104" s="338"/>
+      <c r="E104" s="333"/>
       <c r="F104" s="214"/>
       <c r="G104" s="214"/>
       <c r="H104" s="214" t="s">
@@ -24675,12 +24675,12 @@
       <c r="K104" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L104" s="328" t="s">
+      <c r="L104" s="334" t="s">
         <v>329</v>
       </c>
-      <c r="M104" s="328"/>
-      <c r="N104" s="328"/>
-      <c r="O104" s="329"/>
+      <c r="M104" s="334"/>
+      <c r="N104" s="334"/>
+      <c r="O104" s="335"/>
       <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24691,10 +24691,10 @@
       <c r="C105" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="337" t="s">
+      <c r="D105" s="332" t="s">
         <v>406</v>
       </c>
-      <c r="E105" s="338"/>
+      <c r="E105" s="333"/>
       <c r="F105" s="214"/>
       <c r="G105" s="214"/>
       <c r="H105" s="214" t="s">
@@ -24705,10 +24705,10 @@
       </c>
       <c r="J105" s="214"/>
       <c r="K105" s="214"/>
-      <c r="L105" s="328"/>
-      <c r="M105" s="328"/>
-      <c r="N105" s="328"/>
-      <c r="O105" s="329"/>
+      <c r="L105" s="334"/>
+      <c r="M105" s="334"/>
+      <c r="N105" s="334"/>
+      <c r="O105" s="335"/>
       <c r="P105" s="10"/>
     </row>
     <row r="106" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24733,30 +24733,30 @@
       </c>
       <c r="J106" s="237"/>
       <c r="K106" s="237"/>
-      <c r="L106" s="364" t="s">
+      <c r="L106" s="336" t="s">
         <v>270</v>
       </c>
-      <c r="M106" s="365"/>
-      <c r="N106" s="365"/>
-      <c r="O106" s="366"/>
+      <c r="M106" s="337"/>
+      <c r="N106" s="337"/>
+      <c r="O106" s="338"/>
       <c r="P106" s="10"/>
     </row>
     <row r="107" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="29"/>
       <c r="C107" s="30"/>
-      <c r="D107" s="333"/>
-      <c r="E107" s="334"/>
+      <c r="D107" s="339"/>
+      <c r="E107" s="340"/>
       <c r="F107" s="215"/>
       <c r="G107" s="215"/>
       <c r="H107" s="215"/>
       <c r="I107" s="31"/>
       <c r="J107" s="215"/>
       <c r="K107" s="215"/>
-      <c r="L107" s="335"/>
-      <c r="M107" s="335"/>
-      <c r="N107" s="335"/>
-      <c r="O107" s="336"/>
+      <c r="L107" s="341"/>
+      <c r="M107" s="341"/>
+      <c r="N107" s="341"/>
+      <c r="O107" s="342"/>
       <c r="P107" s="10"/>
     </row>
     <row r="108" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24843,10 +24843,10 @@
       <c r="C112" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="343" t="s">
+      <c r="D112" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="344"/>
+      <c r="E112" s="329"/>
       <c r="F112" s="25" t="s">
         <v>31</v>
       </c>
@@ -24865,12 +24865,12 @@
       <c r="K112" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L112" s="345" t="s">
+      <c r="L112" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M112" s="345"/>
-      <c r="N112" s="345"/>
-      <c r="O112" s="346"/>
+      <c r="M112" s="330"/>
+      <c r="N112" s="330"/>
+      <c r="O112" s="331"/>
       <c r="P112" s="10"/>
     </row>
     <row r="113" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24881,10 +24881,10 @@
       <c r="C113" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="337" t="s">
+      <c r="D113" s="332" t="s">
         <v>269</v>
       </c>
-      <c r="E113" s="338"/>
+      <c r="E113" s="333"/>
       <c r="F113" s="214"/>
       <c r="G113" s="214"/>
       <c r="H113" s="214" t="s">
@@ -24897,12 +24897,12 @@
       <c r="K113" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L113" s="328" t="s">
+      <c r="L113" s="334" t="s">
         <v>265</v>
       </c>
-      <c r="M113" s="328"/>
-      <c r="N113" s="328"/>
-      <c r="O113" s="329"/>
+      <c r="M113" s="334"/>
+      <c r="N113" s="334"/>
+      <c r="O113" s="335"/>
       <c r="P113" s="10"/>
     </row>
     <row r="114" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24913,10 +24913,10 @@
       <c r="C114" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="D114" s="337" t="s">
+      <c r="D114" s="332" t="s">
         <v>245</v>
       </c>
-      <c r="E114" s="338"/>
+      <c r="E114" s="333"/>
       <c r="F114" s="214"/>
       <c r="G114" s="214"/>
       <c r="H114" s="214" t="s">
@@ -24927,12 +24927,12 @@
       </c>
       <c r="J114" s="214"/>
       <c r="K114" s="214"/>
-      <c r="L114" s="328" t="s">
+      <c r="L114" s="334" t="s">
         <v>346</v>
       </c>
-      <c r="M114" s="328"/>
-      <c r="N114" s="328"/>
-      <c r="O114" s="329"/>
+      <c r="M114" s="334"/>
+      <c r="N114" s="334"/>
+      <c r="O114" s="335"/>
       <c r="P114" s="10"/>
     </row>
     <row r="115" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24957,28 +24957,28 @@
       </c>
       <c r="J115" s="237"/>
       <c r="K115" s="237"/>
-      <c r="L115" s="339"/>
-      <c r="M115" s="340"/>
-      <c r="N115" s="340"/>
-      <c r="O115" s="341"/>
+      <c r="L115" s="385"/>
+      <c r="M115" s="386"/>
+      <c r="N115" s="386"/>
+      <c r="O115" s="387"/>
       <c r="P115" s="10"/>
     </row>
     <row r="116" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="29"/>
       <c r="C116" s="30"/>
-      <c r="D116" s="333"/>
-      <c r="E116" s="334"/>
+      <c r="D116" s="339"/>
+      <c r="E116" s="340"/>
       <c r="F116" s="215"/>
       <c r="G116" s="215"/>
       <c r="H116" s="215"/>
       <c r="I116" s="31"/>
       <c r="J116" s="215"/>
       <c r="K116" s="215"/>
-      <c r="L116" s="335"/>
-      <c r="M116" s="335"/>
-      <c r="N116" s="335"/>
-      <c r="O116" s="336"/>
+      <c r="L116" s="341"/>
+      <c r="M116" s="341"/>
+      <c r="N116" s="341"/>
+      <c r="O116" s="342"/>
       <c r="P116" s="10"/>
     </row>
     <row r="117" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25047,10 +25047,10 @@
       <c r="C120" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="343" t="s">
+      <c r="D120" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E120" s="344"/>
+      <c r="E120" s="329"/>
       <c r="F120" s="25" t="s">
         <v>31</v>
       </c>
@@ -25069,12 +25069,12 @@
       <c r="K120" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L120" s="345" t="s">
+      <c r="L120" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M120" s="345"/>
-      <c r="N120" s="345"/>
-      <c r="O120" s="346"/>
+      <c r="M120" s="330"/>
+      <c r="N120" s="330"/>
+      <c r="O120" s="331"/>
       <c r="P120" s="10"/>
     </row>
     <row r="121" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25085,10 +25085,10 @@
       <c r="C121" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D121" s="337" t="s">
+      <c r="D121" s="332" t="s">
         <v>302</v>
       </c>
-      <c r="E121" s="338"/>
+      <c r="E121" s="333"/>
       <c r="F121" s="214" t="s">
         <v>191</v>
       </c>
@@ -25103,10 +25103,10 @@
         <v>128</v>
       </c>
       <c r="K121" s="214"/>
-      <c r="L121" s="364"/>
-      <c r="M121" s="365"/>
-      <c r="N121" s="365"/>
-      <c r="O121" s="366"/>
+      <c r="L121" s="336"/>
+      <c r="M121" s="337"/>
+      <c r="N121" s="337"/>
+      <c r="O121" s="338"/>
       <c r="P121" s="10"/>
     </row>
     <row r="122" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25117,10 +25117,10 @@
       <c r="C122" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D122" s="337" t="s">
+      <c r="D122" s="332" t="s">
         <v>185</v>
       </c>
-      <c r="E122" s="338"/>
+      <c r="E122" s="333"/>
       <c r="F122" s="214"/>
       <c r="G122" s="214"/>
       <c r="H122" s="214" t="s">
@@ -25135,10 +25135,10 @@
       <c r="K122" s="214">
         <v>128</v>
       </c>
-      <c r="L122" s="328"/>
-      <c r="M122" s="328"/>
-      <c r="N122" s="328"/>
-      <c r="O122" s="329"/>
+      <c r="L122" s="334"/>
+      <c r="M122" s="334"/>
+      <c r="N122" s="334"/>
+      <c r="O122" s="335"/>
       <c r="P122" s="10"/>
     </row>
     <row r="123" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25163,12 +25163,12 @@
       </c>
       <c r="J123" s="237"/>
       <c r="K123" s="237"/>
-      <c r="L123" s="330" t="s">
+      <c r="L123" s="371" t="s">
         <v>367</v>
       </c>
-      <c r="M123" s="331"/>
-      <c r="N123" s="331"/>
-      <c r="O123" s="332"/>
+      <c r="M123" s="372"/>
+      <c r="N123" s="372"/>
+      <c r="O123" s="373"/>
       <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25195,12 +25195,12 @@
         <v>128</v>
       </c>
       <c r="K124" s="237"/>
-      <c r="L124" s="330" t="s">
+      <c r="L124" s="371" t="s">
         <v>369</v>
       </c>
-      <c r="M124" s="331"/>
-      <c r="N124" s="331"/>
-      <c r="O124" s="332"/>
+      <c r="M124" s="372"/>
+      <c r="N124" s="372"/>
+      <c r="O124" s="373"/>
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25211,10 +25211,10 @@
       <c r="C125" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D125" s="337" t="s">
+      <c r="D125" s="332" t="s">
         <v>218</v>
       </c>
-      <c r="E125" s="338"/>
+      <c r="E125" s="333"/>
       <c r="F125" s="214"/>
       <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
@@ -25227,12 +25227,12 @@
       <c r="K125" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L125" s="328" t="s">
+      <c r="L125" s="334" t="s">
         <v>329</v>
       </c>
-      <c r="M125" s="328"/>
-      <c r="N125" s="328"/>
-      <c r="O125" s="329"/>
+      <c r="M125" s="334"/>
+      <c r="N125" s="334"/>
+      <c r="O125" s="335"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25257,28 +25257,28 @@
       </c>
       <c r="J126" s="237"/>
       <c r="K126" s="237"/>
-      <c r="L126" s="339"/>
-      <c r="M126" s="340"/>
-      <c r="N126" s="340"/>
-      <c r="O126" s="341"/>
+      <c r="L126" s="385"/>
+      <c r="M126" s="386"/>
+      <c r="N126" s="386"/>
+      <c r="O126" s="387"/>
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="29"/>
       <c r="C127" s="30"/>
-      <c r="D127" s="333"/>
-      <c r="E127" s="334"/>
+      <c r="D127" s="339"/>
+      <c r="E127" s="340"/>
       <c r="F127" s="215"/>
       <c r="G127" s="215"/>
       <c r="H127" s="215"/>
       <c r="I127" s="31"/>
       <c r="J127" s="215"/>
       <c r="K127" s="215"/>
-      <c r="L127" s="335"/>
-      <c r="M127" s="335"/>
-      <c r="N127" s="335"/>
-      <c r="O127" s="336"/>
+      <c r="L127" s="341"/>
+      <c r="M127" s="341"/>
+      <c r="N127" s="341"/>
+      <c r="O127" s="342"/>
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25365,10 +25365,10 @@
       <c r="C132" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D132" s="343" t="s">
+      <c r="D132" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="344"/>
+      <c r="E132" s="329"/>
       <c r="F132" s="25" t="s">
         <v>31</v>
       </c>
@@ -25387,12 +25387,12 @@
       <c r="K132" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L132" s="345" t="s">
+      <c r="L132" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M132" s="345"/>
-      <c r="N132" s="345"/>
-      <c r="O132" s="346"/>
+      <c r="M132" s="330"/>
+      <c r="N132" s="330"/>
+      <c r="O132" s="331"/>
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
@@ -25403,10 +25403,10 @@
       <c r="C133" s="233" t="s">
         <v>291</v>
       </c>
-      <c r="D133" s="347" t="s">
+      <c r="D133" s="343" t="s">
         <v>299</v>
       </c>
-      <c r="E133" s="348"/>
+      <c r="E133" s="344"/>
       <c r="F133" s="214" t="s">
         <v>191</v>
       </c>
@@ -25421,12 +25421,12 @@
         <v>12</v>
       </c>
       <c r="K133" s="214"/>
-      <c r="L133" s="359" t="s">
+      <c r="L133" s="382" t="s">
         <v>292</v>
       </c>
-      <c r="M133" s="360"/>
-      <c r="N133" s="360"/>
-      <c r="O133" s="361"/>
+      <c r="M133" s="383"/>
+      <c r="N133" s="383"/>
+      <c r="O133" s="384"/>
       <c r="P133" s="10"/>
     </row>
     <row r="134" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25437,10 +25437,10 @@
       <c r="C134" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D134" s="337" t="s">
+      <c r="D134" s="332" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="338"/>
+      <c r="E134" s="333"/>
       <c r="F134" s="214"/>
       <c r="G134" s="214"/>
       <c r="H134" s="214"/>
@@ -25451,10 +25451,10 @@
         <v>255</v>
       </c>
       <c r="K134" s="214"/>
-      <c r="L134" s="354"/>
-      <c r="M134" s="354"/>
-      <c r="N134" s="354"/>
-      <c r="O134" s="355"/>
+      <c r="L134" s="380"/>
+      <c r="M134" s="380"/>
+      <c r="N134" s="380"/>
+      <c r="O134" s="381"/>
       <c r="P134" s="10"/>
     </row>
     <row r="135" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25465,10 +25465,10 @@
       <c r="C135" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="337" t="s">
+      <c r="D135" s="332" t="s">
         <v>301</v>
       </c>
-      <c r="E135" s="338"/>
+      <c r="E135" s="333"/>
       <c r="F135" s="214"/>
       <c r="G135" s="214"/>
       <c r="H135" s="214" t="s">
@@ -25481,10 +25481,10 @@
         <v>30</v>
       </c>
       <c r="K135" s="214"/>
-      <c r="L135" s="354"/>
-      <c r="M135" s="354"/>
-      <c r="N135" s="354"/>
-      <c r="O135" s="355"/>
+      <c r="L135" s="380"/>
+      <c r="M135" s="380"/>
+      <c r="N135" s="380"/>
+      <c r="O135" s="381"/>
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25495,10 +25495,10 @@
       <c r="C136" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D136" s="337" t="s">
+      <c r="D136" s="332" t="s">
         <v>303</v>
       </c>
-      <c r="E136" s="338"/>
+      <c r="E136" s="333"/>
       <c r="F136" s="214"/>
       <c r="G136" s="214"/>
       <c r="H136" s="214"/>
@@ -25507,10 +25507,10 @@
       </c>
       <c r="J136" s="214"/>
       <c r="K136" s="214"/>
-      <c r="L136" s="356"/>
-      <c r="M136" s="357"/>
-      <c r="N136" s="357"/>
-      <c r="O136" s="358"/>
+      <c r="L136" s="390"/>
+      <c r="M136" s="391"/>
+      <c r="N136" s="391"/>
+      <c r="O136" s="392"/>
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25521,10 +25521,10 @@
       <c r="C137" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="337" t="s">
+      <c r="D137" s="332" t="s">
         <v>304</v>
       </c>
-      <c r="E137" s="338"/>
+      <c r="E137" s="333"/>
       <c r="F137" s="214"/>
       <c r="G137" s="214"/>
       <c r="H137" s="214"/>
@@ -25533,12 +25533,12 @@
       </c>
       <c r="J137" s="214"/>
       <c r="K137" s="241"/>
-      <c r="L137" s="351" t="s">
+      <c r="L137" s="377" t="s">
         <v>294</v>
       </c>
-      <c r="M137" s="352"/>
-      <c r="N137" s="352"/>
-      <c r="O137" s="353"/>
+      <c r="M137" s="378"/>
+      <c r="N137" s="378"/>
+      <c r="O137" s="379"/>
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25549,10 +25549,10 @@
       <c r="C138" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D138" s="337" t="s">
+      <c r="D138" s="332" t="s">
         <v>304</v>
       </c>
-      <c r="E138" s="338"/>
+      <c r="E138" s="333"/>
       <c r="F138" s="214"/>
       <c r="G138" s="214"/>
       <c r="H138" s="214"/>
@@ -25561,12 +25561,12 @@
       </c>
       <c r="J138" s="214"/>
       <c r="K138" s="241"/>
-      <c r="L138" s="351" t="s">
+      <c r="L138" s="377" t="s">
         <v>293</v>
       </c>
-      <c r="M138" s="352"/>
-      <c r="N138" s="352"/>
-      <c r="O138" s="353"/>
+      <c r="M138" s="378"/>
+      <c r="N138" s="378"/>
+      <c r="O138" s="379"/>
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25577,10 +25577,10 @@
       <c r="C139" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D139" s="337" t="s">
+      <c r="D139" s="332" t="s">
         <v>304</v>
       </c>
-      <c r="E139" s="338"/>
+      <c r="E139" s="333"/>
       <c r="F139" s="214"/>
       <c r="G139" s="214"/>
       <c r="H139" s="214"/>
@@ -25591,10 +25591,10 @@
         <v>128</v>
       </c>
       <c r="K139" s="241"/>
-      <c r="L139" s="351"/>
-      <c r="M139" s="352"/>
-      <c r="N139" s="352"/>
-      <c r="O139" s="353"/>
+      <c r="L139" s="377"/>
+      <c r="M139" s="378"/>
+      <c r="N139" s="378"/>
+      <c r="O139" s="379"/>
       <c r="P139" s="10"/>
     </row>
     <row r="140" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25605,10 +25605,10 @@
       <c r="C140" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D140" s="337" t="s">
+      <c r="D140" s="332" t="s">
         <v>305</v>
       </c>
-      <c r="E140" s="338"/>
+      <c r="E140" s="333"/>
       <c r="F140" s="214"/>
       <c r="G140" s="214"/>
       <c r="H140" s="214"/>
@@ -25619,12 +25619,12 @@
         <v>255</v>
       </c>
       <c r="K140" s="241"/>
-      <c r="L140" s="351" t="s">
+      <c r="L140" s="377" t="s">
         <v>295</v>
       </c>
-      <c r="M140" s="352"/>
-      <c r="N140" s="352"/>
-      <c r="O140" s="353"/>
+      <c r="M140" s="378"/>
+      <c r="N140" s="378"/>
+      <c r="O140" s="379"/>
       <c r="P140" s="10"/>
     </row>
     <row r="141" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25635,10 +25635,10 @@
       <c r="C141" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D141" s="337" t="s">
+      <c r="D141" s="332" t="s">
         <v>306</v>
       </c>
-      <c r="E141" s="338"/>
+      <c r="E141" s="333"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
@@ -25649,12 +25649,12 @@
         <v>255</v>
       </c>
       <c r="K141" s="241"/>
-      <c r="L141" s="351" t="s">
+      <c r="L141" s="377" t="s">
         <v>296</v>
       </c>
-      <c r="M141" s="352"/>
-      <c r="N141" s="352"/>
-      <c r="O141" s="353"/>
+      <c r="M141" s="378"/>
+      <c r="N141" s="378"/>
+      <c r="O141" s="379"/>
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25691,10 +25691,10 @@
       <c r="C143" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D143" s="337" t="s">
+      <c r="D143" s="332" t="s">
         <v>307</v>
       </c>
-      <c r="E143" s="338"/>
+      <c r="E143" s="333"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
@@ -25703,12 +25703,12 @@
       </c>
       <c r="J143" s="214"/>
       <c r="K143" s="241"/>
-      <c r="L143" s="354" t="s">
+      <c r="L143" s="380" t="s">
         <v>297</v>
       </c>
-      <c r="M143" s="354"/>
-      <c r="N143" s="354"/>
-      <c r="O143" s="355"/>
+      <c r="M143" s="380"/>
+      <c r="N143" s="380"/>
+      <c r="O143" s="381"/>
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25719,10 +25719,10 @@
       <c r="C144" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D144" s="337" t="s">
+      <c r="D144" s="332" t="s">
         <v>309</v>
       </c>
-      <c r="E144" s="338"/>
+      <c r="E144" s="333"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
@@ -25731,12 +25731,12 @@
       </c>
       <c r="J144" s="214"/>
       <c r="K144" s="241"/>
-      <c r="L144" s="354" t="s">
+      <c r="L144" s="380" t="s">
         <v>354</v>
       </c>
-      <c r="M144" s="354"/>
-      <c r="N144" s="354"/>
-      <c r="O144" s="355"/>
+      <c r="M144" s="380"/>
+      <c r="N144" s="380"/>
+      <c r="O144" s="381"/>
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25747,10 +25747,10 @@
       <c r="C145" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D145" s="337" t="s">
+      <c r="D145" s="332" t="s">
         <v>308</v>
       </c>
-      <c r="E145" s="338"/>
+      <c r="E145" s="333"/>
       <c r="F145" s="214"/>
       <c r="G145" s="214"/>
       <c r="H145" s="214"/>
@@ -25759,12 +25759,12 @@
       </c>
       <c r="J145" s="214"/>
       <c r="K145" s="241"/>
-      <c r="L145" s="354" t="s">
+      <c r="L145" s="380" t="s">
         <v>350</v>
       </c>
-      <c r="M145" s="354"/>
-      <c r="N145" s="354"/>
-      <c r="O145" s="355"/>
+      <c r="M145" s="380"/>
+      <c r="N145" s="380"/>
+      <c r="O145" s="381"/>
       <c r="P145" s="10"/>
     </row>
     <row r="146" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25775,10 +25775,10 @@
       <c r="C146" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="D146" s="337" t="s">
+      <c r="D146" s="332" t="s">
         <v>310</v>
       </c>
-      <c r="E146" s="338"/>
+      <c r="E146" s="333"/>
       <c r="F146" s="237"/>
       <c r="G146" s="237"/>
       <c r="H146" s="237"/>
@@ -25789,28 +25789,28 @@
         <v>255</v>
       </c>
       <c r="K146" s="242"/>
-      <c r="L146" s="354"/>
-      <c r="M146" s="354"/>
-      <c r="N146" s="354"/>
-      <c r="O146" s="355"/>
+      <c r="L146" s="380"/>
+      <c r="M146" s="380"/>
+      <c r="N146" s="380"/>
+      <c r="O146" s="381"/>
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="9"/>
       <c r="B147" s="29"/>
       <c r="C147" s="30"/>
-      <c r="D147" s="333"/>
-      <c r="E147" s="334"/>
+      <c r="D147" s="339"/>
+      <c r="E147" s="340"/>
       <c r="F147" s="215"/>
       <c r="G147" s="215"/>
       <c r="H147" s="215"/>
       <c r="I147" s="31"/>
       <c r="J147" s="215"/>
       <c r="K147" s="215"/>
-      <c r="L147" s="349"/>
-      <c r="M147" s="349"/>
-      <c r="N147" s="349"/>
-      <c r="O147" s="350"/>
+      <c r="L147" s="388"/>
+      <c r="M147" s="388"/>
+      <c r="N147" s="388"/>
+      <c r="O147" s="389"/>
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -25915,10 +25915,10 @@
       <c r="C153" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D153" s="343" t="s">
+      <c r="D153" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="344"/>
+      <c r="E153" s="329"/>
       <c r="F153" s="25" t="s">
         <v>31</v>
       </c>
@@ -25937,12 +25937,12 @@
       <c r="K153" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L153" s="345" t="s">
+      <c r="L153" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M153" s="345"/>
-      <c r="N153" s="345"/>
-      <c r="O153" s="346"/>
+      <c r="M153" s="330"/>
+      <c r="N153" s="330"/>
+      <c r="O153" s="331"/>
       <c r="P153" s="10"/>
     </row>
     <row r="154" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25953,10 +25953,10 @@
       <c r="C154" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D154" s="337" t="s">
+      <c r="D154" s="332" t="s">
         <v>315</v>
       </c>
-      <c r="E154" s="338"/>
+      <c r="E154" s="333"/>
       <c r="F154" s="214"/>
       <c r="G154" s="214"/>
       <c r="H154" s="214" t="s">
@@ -25969,10 +25969,10 @@
         <v>255</v>
       </c>
       <c r="K154" s="214"/>
-      <c r="L154" s="328"/>
-      <c r="M154" s="328"/>
-      <c r="N154" s="328"/>
-      <c r="O154" s="329"/>
+      <c r="L154" s="334"/>
+      <c r="M154" s="334"/>
+      <c r="N154" s="334"/>
+      <c r="O154" s="335"/>
       <c r="P154" s="10"/>
     </row>
     <row r="155" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25983,10 +25983,10 @@
       <c r="C155" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D155" s="337" t="s">
+      <c r="D155" s="332" t="s">
         <v>316</v>
       </c>
-      <c r="E155" s="338"/>
+      <c r="E155" s="333"/>
       <c r="F155" s="214"/>
       <c r="G155" s="214"/>
       <c r="H155" s="214"/>
@@ -25997,10 +25997,10 @@
         <v>255</v>
       </c>
       <c r="K155" s="214"/>
-      <c r="L155" s="328"/>
-      <c r="M155" s="328"/>
-      <c r="N155" s="328"/>
-      <c r="O155" s="329"/>
+      <c r="L155" s="334"/>
+      <c r="M155" s="334"/>
+      <c r="N155" s="334"/>
+      <c r="O155" s="335"/>
       <c r="P155" s="10"/>
     </row>
     <row r="156" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26025,10 +26025,10 @@
         <v>255</v>
       </c>
       <c r="K156" s="214"/>
-      <c r="L156" s="328"/>
-      <c r="M156" s="328"/>
-      <c r="N156" s="328"/>
-      <c r="O156" s="329"/>
+      <c r="L156" s="334"/>
+      <c r="M156" s="334"/>
+      <c r="N156" s="334"/>
+      <c r="O156" s="335"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26039,10 +26039,10 @@
       <c r="C157" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D157" s="337" t="s">
+      <c r="D157" s="332" t="s">
         <v>317</v>
       </c>
-      <c r="E157" s="338"/>
+      <c r="E157" s="333"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
       <c r="H157" s="214" t="s">
@@ -26053,12 +26053,12 @@
       </c>
       <c r="J157" s="214"/>
       <c r="K157" s="214"/>
-      <c r="L157" s="328" t="s">
+      <c r="L157" s="334" t="s">
         <v>347</v>
       </c>
-      <c r="M157" s="328"/>
-      <c r="N157" s="328"/>
-      <c r="O157" s="329"/>
+      <c r="M157" s="334"/>
+      <c r="N157" s="334"/>
+      <c r="O157" s="335"/>
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26069,10 +26069,10 @@
       <c r="C158" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D158" s="337" t="s">
+      <c r="D158" s="332" t="s">
         <v>319</v>
       </c>
-      <c r="E158" s="338"/>
+      <c r="E158" s="333"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
       <c r="H158" s="214" t="s">
@@ -26085,30 +26085,30 @@
       <c r="K158" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L158" s="328" t="s">
+      <c r="L158" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="M158" s="328"/>
-      <c r="N158" s="328"/>
-      <c r="O158" s="329"/>
+      <c r="M158" s="334"/>
+      <c r="N158" s="334"/>
+      <c r="O158" s="335"/>
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="9"/>
       <c r="B159" s="29"/>
       <c r="C159" s="30"/>
-      <c r="D159" s="333"/>
-      <c r="E159" s="334"/>
+      <c r="D159" s="339"/>
+      <c r="E159" s="340"/>
       <c r="F159" s="215"/>
       <c r="G159" s="215"/>
       <c r="H159" s="215"/>
       <c r="I159" s="31"/>
       <c r="J159" s="215"/>
       <c r="K159" s="215"/>
-      <c r="L159" s="335"/>
-      <c r="M159" s="335"/>
-      <c r="N159" s="335"/>
-      <c r="O159" s="336"/>
+      <c r="L159" s="341"/>
+      <c r="M159" s="341"/>
+      <c r="N159" s="341"/>
+      <c r="O159" s="342"/>
       <c r="P159" s="10"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
@@ -26195,10 +26195,10 @@
       <c r="C164" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="343" t="s">
+      <c r="D164" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E164" s="344"/>
+      <c r="E164" s="329"/>
       <c r="F164" s="25" t="s">
         <v>31</v>
       </c>
@@ -26217,12 +26217,12 @@
       <c r="K164" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L164" s="345" t="s">
+      <c r="L164" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M164" s="345"/>
-      <c r="N164" s="345"/>
-      <c r="O164" s="346"/>
+      <c r="M164" s="330"/>
+      <c r="N164" s="330"/>
+      <c r="O164" s="331"/>
       <c r="P164" s="10"/>
     </row>
     <row r="165" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26233,10 +26233,10 @@
       <c r="C165" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D165" s="337" t="s">
+      <c r="D165" s="332" t="s">
         <v>320</v>
       </c>
-      <c r="E165" s="338"/>
+      <c r="E165" s="333"/>
       <c r="F165" s="214"/>
       <c r="G165" s="214"/>
       <c r="H165" s="214" t="s">
@@ -26249,10 +26249,10 @@
         <v>255</v>
       </c>
       <c r="K165" s="214"/>
-      <c r="L165" s="328"/>
-      <c r="M165" s="328"/>
-      <c r="N165" s="328"/>
-      <c r="O165" s="329"/>
+      <c r="L165" s="334"/>
+      <c r="M165" s="334"/>
+      <c r="N165" s="334"/>
+      <c r="O165" s="335"/>
       <c r="P165" s="10"/>
     </row>
     <row r="166" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26263,10 +26263,10 @@
       <c r="C166" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D166" s="337" t="s">
+      <c r="D166" s="332" t="s">
         <v>321</v>
       </c>
-      <c r="E166" s="338"/>
+      <c r="E166" s="333"/>
       <c r="F166" s="214"/>
       <c r="G166" s="214"/>
       <c r="H166" s="214"/>
@@ -26277,10 +26277,10 @@
         <v>255</v>
       </c>
       <c r="K166" s="214"/>
-      <c r="L166" s="328"/>
-      <c r="M166" s="328"/>
-      <c r="N166" s="328"/>
-      <c r="O166" s="329"/>
+      <c r="L166" s="334"/>
+      <c r="M166" s="334"/>
+      <c r="N166" s="334"/>
+      <c r="O166" s="335"/>
       <c r="P166" s="10"/>
     </row>
     <row r="167" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26305,30 +26305,30 @@
       <c r="K167" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L167" s="328" t="s">
+      <c r="L167" s="334" t="s">
         <v>323</v>
       </c>
-      <c r="M167" s="328"/>
-      <c r="N167" s="328"/>
-      <c r="O167" s="329"/>
+      <c r="M167" s="334"/>
+      <c r="N167" s="334"/>
+      <c r="O167" s="335"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="29"/>
       <c r="C168" s="30"/>
-      <c r="D168" s="333"/>
-      <c r="E168" s="334"/>
+      <c r="D168" s="339"/>
+      <c r="E168" s="340"/>
       <c r="F168" s="215"/>
       <c r="G168" s="215"/>
       <c r="H168" s="215"/>
       <c r="I168" s="31"/>
       <c r="J168" s="215"/>
       <c r="K168" s="215"/>
-      <c r="L168" s="335"/>
-      <c r="M168" s="335"/>
-      <c r="N168" s="335"/>
-      <c r="O168" s="336"/>
+      <c r="L168" s="341"/>
+      <c r="M168" s="341"/>
+      <c r="N168" s="341"/>
+      <c r="O168" s="342"/>
       <c r="P168" s="10"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
@@ -26415,10 +26415,10 @@
       <c r="C173" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="343" t="s">
+      <c r="D173" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E173" s="344"/>
+      <c r="E173" s="329"/>
       <c r="F173" s="25" t="s">
         <v>31</v>
       </c>
@@ -26437,12 +26437,12 @@
       <c r="K173" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L173" s="345" t="s">
+      <c r="L173" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M173" s="345"/>
-      <c r="N173" s="345"/>
-      <c r="O173" s="346"/>
+      <c r="M173" s="330"/>
+      <c r="N173" s="330"/>
+      <c r="O173" s="331"/>
       <c r="P173" s="10"/>
     </row>
     <row r="174" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26453,10 +26453,10 @@
       <c r="C174" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="337" t="s">
+      <c r="D174" s="332" t="s">
         <v>320</v>
       </c>
-      <c r="E174" s="338"/>
+      <c r="E174" s="333"/>
       <c r="F174" s="214"/>
       <c r="G174" s="214"/>
       <c r="H174" s="214" t="s">
@@ -26469,10 +26469,10 @@
         <v>255</v>
       </c>
       <c r="K174" s="214"/>
-      <c r="L174" s="328"/>
-      <c r="M174" s="328"/>
-      <c r="N174" s="328"/>
-      <c r="O174" s="329"/>
+      <c r="L174" s="334"/>
+      <c r="M174" s="334"/>
+      <c r="N174" s="334"/>
+      <c r="O174" s="335"/>
       <c r="P174" s="10"/>
     </row>
     <row r="175" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26483,10 +26483,10 @@
       <c r="C175" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D175" s="337" t="s">
+      <c r="D175" s="332" t="s">
         <v>321</v>
       </c>
-      <c r="E175" s="338"/>
+      <c r="E175" s="333"/>
       <c r="F175" s="214"/>
       <c r="G175" s="214"/>
       <c r="H175" s="214"/>
@@ -26497,10 +26497,10 @@
         <v>255</v>
       </c>
       <c r="K175" s="214"/>
-      <c r="L175" s="328"/>
-      <c r="M175" s="328"/>
-      <c r="N175" s="328"/>
-      <c r="O175" s="329"/>
+      <c r="L175" s="334"/>
+      <c r="M175" s="334"/>
+      <c r="N175" s="334"/>
+      <c r="O175" s="335"/>
       <c r="P175" s="10"/>
     </row>
     <row r="176" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26525,30 +26525,30 @@
       <c r="K176" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L176" s="328" t="s">
+      <c r="L176" s="334" t="s">
         <v>268</v>
       </c>
-      <c r="M176" s="328"/>
-      <c r="N176" s="328"/>
-      <c r="O176" s="329"/>
+      <c r="M176" s="334"/>
+      <c r="N176" s="334"/>
+      <c r="O176" s="335"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="29"/>
       <c r="C177" s="30"/>
-      <c r="D177" s="333"/>
-      <c r="E177" s="334"/>
+      <c r="D177" s="339"/>
+      <c r="E177" s="340"/>
       <c r="F177" s="215"/>
       <c r="G177" s="215"/>
       <c r="H177" s="215"/>
       <c r="I177" s="31"/>
       <c r="J177" s="215"/>
       <c r="K177" s="215"/>
-      <c r="L177" s="335"/>
-      <c r="M177" s="335"/>
-      <c r="N177" s="335"/>
-      <c r="O177" s="336"/>
+      <c r="L177" s="341"/>
+      <c r="M177" s="341"/>
+      <c r="N177" s="341"/>
+      <c r="O177" s="342"/>
       <c r="P177" s="10"/>
     </row>
     <row r="178" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26635,10 +26635,10 @@
       <c r="C182" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D182" s="343" t="s">
+      <c r="D182" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E182" s="344"/>
+      <c r="E182" s="329"/>
       <c r="F182" s="25" t="s">
         <v>31</v>
       </c>
@@ -26657,12 +26657,12 @@
       <c r="K182" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L182" s="345" t="s">
+      <c r="L182" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M182" s="345"/>
-      <c r="N182" s="345"/>
-      <c r="O182" s="346"/>
+      <c r="M182" s="330"/>
+      <c r="N182" s="330"/>
+      <c r="O182" s="331"/>
       <c r="P182" s="10"/>
     </row>
     <row r="183" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26673,10 +26673,10 @@
       <c r="C183" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D183" s="337" t="s">
+      <c r="D183" s="332" t="s">
         <v>328</v>
       </c>
-      <c r="E183" s="338"/>
+      <c r="E183" s="333"/>
       <c r="F183" s="214"/>
       <c r="G183" s="214"/>
       <c r="H183" s="214" t="s">
@@ -26689,10 +26689,10 @@
         <v>255</v>
       </c>
       <c r="K183" s="214"/>
-      <c r="L183" s="328"/>
-      <c r="M183" s="328"/>
-      <c r="N183" s="328"/>
-      <c r="O183" s="329"/>
+      <c r="L183" s="334"/>
+      <c r="M183" s="334"/>
+      <c r="N183" s="334"/>
+      <c r="O183" s="335"/>
       <c r="P183" s="10"/>
     </row>
     <row r="184" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26703,10 +26703,10 @@
       <c r="C184" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D184" s="337" t="s">
+      <c r="D184" s="332" t="s">
         <v>411</v>
       </c>
-      <c r="E184" s="338"/>
+      <c r="E184" s="333"/>
       <c r="F184" s="214"/>
       <c r="G184" s="214"/>
       <c r="H184" s="214"/>
@@ -26717,28 +26717,28 @@
         <v>255</v>
       </c>
       <c r="K184" s="214"/>
-      <c r="L184" s="328"/>
-      <c r="M184" s="328"/>
-      <c r="N184" s="328"/>
-      <c r="O184" s="329"/>
+      <c r="L184" s="334"/>
+      <c r="M184" s="334"/>
+      <c r="N184" s="334"/>
+      <c r="O184" s="335"/>
       <c r="P184" s="10"/>
     </row>
     <row r="185" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="9"/>
       <c r="B185" s="29"/>
       <c r="C185" s="30"/>
-      <c r="D185" s="333"/>
-      <c r="E185" s="334"/>
+      <c r="D185" s="339"/>
+      <c r="E185" s="340"/>
       <c r="F185" s="215"/>
       <c r="G185" s="215"/>
       <c r="H185" s="215"/>
       <c r="I185" s="31"/>
       <c r="J185" s="215"/>
       <c r="K185" s="215"/>
-      <c r="L185" s="335"/>
-      <c r="M185" s="335"/>
-      <c r="N185" s="335"/>
-      <c r="O185" s="336"/>
+      <c r="L185" s="341"/>
+      <c r="M185" s="341"/>
+      <c r="N185" s="341"/>
+      <c r="O185" s="342"/>
       <c r="P185" s="10"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
@@ -26843,10 +26843,10 @@
       <c r="C191" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D191" s="343" t="s">
+      <c r="D191" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="344"/>
+      <c r="E191" s="329"/>
       <c r="F191" s="25" t="s">
         <v>31</v>
       </c>
@@ -26865,12 +26865,12 @@
       <c r="K191" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L191" s="345" t="s">
+      <c r="L191" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M191" s="345"/>
-      <c r="N191" s="345"/>
-      <c r="O191" s="346"/>
+      <c r="M191" s="330"/>
+      <c r="N191" s="330"/>
+      <c r="O191" s="331"/>
       <c r="P191" s="10"/>
     </row>
     <row r="192" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26881,10 +26881,10 @@
       <c r="C192" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D192" s="337" t="s">
+      <c r="D192" s="332" t="s">
         <v>340</v>
       </c>
-      <c r="E192" s="338"/>
+      <c r="E192" s="333"/>
       <c r="F192" s="214"/>
       <c r="G192" s="214"/>
       <c r="H192" s="214" t="s">
@@ -26897,10 +26897,10 @@
         <v>255</v>
       </c>
       <c r="K192" s="214"/>
-      <c r="L192" s="328"/>
-      <c r="M192" s="328"/>
-      <c r="N192" s="328"/>
-      <c r="O192" s="329"/>
+      <c r="L192" s="334"/>
+      <c r="M192" s="334"/>
+      <c r="N192" s="334"/>
+      <c r="O192" s="335"/>
       <c r="P192" s="10"/>
     </row>
     <row r="193" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26911,10 +26911,10 @@
       <c r="C193" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D193" s="337" t="s">
+      <c r="D193" s="332" t="s">
         <v>341</v>
       </c>
-      <c r="E193" s="338"/>
+      <c r="E193" s="333"/>
       <c r="F193" s="214"/>
       <c r="G193" s="214"/>
       <c r="H193" s="214" t="s">
@@ -26925,12 +26925,12 @@
       </c>
       <c r="J193" s="214"/>
       <c r="K193" s="214"/>
-      <c r="L193" s="328" t="s">
+      <c r="L193" s="334" t="s">
         <v>342</v>
       </c>
-      <c r="M193" s="328"/>
-      <c r="N193" s="328"/>
-      <c r="O193" s="329"/>
+      <c r="M193" s="334"/>
+      <c r="N193" s="334"/>
+      <c r="O193" s="335"/>
       <c r="P193" s="10"/>
     </row>
     <row r="194" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -26941,10 +26941,10 @@
       <c r="C194" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D194" s="362" t="s">
+      <c r="D194" s="346" t="s">
         <v>247</v>
       </c>
-      <c r="E194" s="363"/>
+      <c r="E194" s="347"/>
       <c r="F194" s="215"/>
       <c r="G194" s="215"/>
       <c r="H194" s="215"/>
@@ -26955,10 +26955,10 @@
         <v>255</v>
       </c>
       <c r="K194" s="215"/>
-      <c r="L194" s="335"/>
-      <c r="M194" s="335"/>
-      <c r="N194" s="335"/>
-      <c r="O194" s="336"/>
+      <c r="L194" s="341"/>
+      <c r="M194" s="341"/>
+      <c r="N194" s="341"/>
+      <c r="O194" s="342"/>
       <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
@@ -27045,10 +27045,10 @@
       <c r="C199" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D199" s="343" t="s">
+      <c r="D199" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E199" s="344"/>
+      <c r="E199" s="329"/>
       <c r="F199" s="25" t="s">
         <v>31</v>
       </c>
@@ -27067,12 +27067,12 @@
       <c r="K199" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L199" s="345" t="s">
+      <c r="L199" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M199" s="345"/>
-      <c r="N199" s="345"/>
-      <c r="O199" s="346"/>
+      <c r="M199" s="330"/>
+      <c r="N199" s="330"/>
+      <c r="O199" s="331"/>
       <c r="P199" s="10"/>
     </row>
     <row r="200" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27083,10 +27083,10 @@
       <c r="C200" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D200" s="337" t="s">
+      <c r="D200" s="332" t="s">
         <v>412</v>
       </c>
-      <c r="E200" s="338"/>
+      <c r="E200" s="333"/>
       <c r="F200" s="214"/>
       <c r="G200" s="214"/>
       <c r="H200" s="214" t="s">
@@ -27099,12 +27099,12 @@
         <v>255</v>
       </c>
       <c r="K200" s="214"/>
-      <c r="L200" s="328" t="s">
+      <c r="L200" s="334" t="s">
         <v>364</v>
       </c>
-      <c r="M200" s="328"/>
-      <c r="N200" s="328"/>
-      <c r="O200" s="329"/>
+      <c r="M200" s="334"/>
+      <c r="N200" s="334"/>
+      <c r="O200" s="335"/>
       <c r="P200" s="10"/>
     </row>
     <row r="201" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27115,10 +27115,10 @@
       <c r="C201" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="D201" s="337" t="s">
+      <c r="D201" s="332" t="s">
         <v>341</v>
       </c>
-      <c r="E201" s="338"/>
+      <c r="E201" s="333"/>
       <c r="F201" s="214"/>
       <c r="G201" s="214"/>
       <c r="H201" s="214" t="s">
@@ -27129,10 +27129,10 @@
       </c>
       <c r="J201" s="214"/>
       <c r="K201" s="214"/>
-      <c r="L201" s="328"/>
-      <c r="M201" s="328"/>
-      <c r="N201" s="328"/>
-      <c r="O201" s="329"/>
+      <c r="L201" s="334"/>
+      <c r="M201" s="334"/>
+      <c r="N201" s="334"/>
+      <c r="O201" s="335"/>
       <c r="P201" s="10"/>
     </row>
     <row r="202" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27157,28 +27157,28 @@
         <v>255</v>
       </c>
       <c r="K202" s="237"/>
-      <c r="L202" s="328"/>
-      <c r="M202" s="328"/>
-      <c r="N202" s="328"/>
-      <c r="O202" s="329"/>
+      <c r="L202" s="334"/>
+      <c r="M202" s="334"/>
+      <c r="N202" s="334"/>
+      <c r="O202" s="335"/>
       <c r="P202" s="10"/>
     </row>
     <row r="203" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9"/>
       <c r="B203" s="29"/>
       <c r="C203" s="30"/>
-      <c r="D203" s="333"/>
-      <c r="E203" s="334"/>
+      <c r="D203" s="339"/>
+      <c r="E203" s="340"/>
       <c r="F203" s="215"/>
       <c r="G203" s="215"/>
       <c r="H203" s="215"/>
       <c r="I203" s="31"/>
       <c r="J203" s="215"/>
       <c r="K203" s="215"/>
-      <c r="L203" s="335"/>
-      <c r="M203" s="335"/>
-      <c r="N203" s="335"/>
-      <c r="O203" s="336"/>
+      <c r="L203" s="341"/>
+      <c r="M203" s="341"/>
+      <c r="N203" s="341"/>
+      <c r="O203" s="342"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
@@ -27265,10 +27265,10 @@
       <c r="C208" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D208" s="343" t="s">
+      <c r="D208" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E208" s="344"/>
+      <c r="E208" s="329"/>
       <c r="F208" s="25" t="s">
         <v>31</v>
       </c>
@@ -27287,12 +27287,12 @@
       <c r="K208" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L208" s="345" t="s">
+      <c r="L208" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M208" s="345"/>
-      <c r="N208" s="345"/>
-      <c r="O208" s="346"/>
+      <c r="M208" s="330"/>
+      <c r="N208" s="330"/>
+      <c r="O208" s="331"/>
       <c r="P208" s="10"/>
     </row>
     <row r="209" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27303,10 +27303,10 @@
       <c r="C209" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D209" s="337" t="s">
+      <c r="D209" s="332" t="s">
         <v>414</v>
       </c>
-      <c r="E209" s="338"/>
+      <c r="E209" s="333"/>
       <c r="F209" s="214"/>
       <c r="G209" s="214"/>
       <c r="H209" s="214" t="s">
@@ -27319,12 +27319,12 @@
         <v>255</v>
       </c>
       <c r="K209" s="214"/>
-      <c r="L209" s="328" t="s">
+      <c r="L209" s="334" t="s">
         <v>349</v>
       </c>
-      <c r="M209" s="328"/>
-      <c r="N209" s="328"/>
-      <c r="O209" s="329"/>
+      <c r="M209" s="334"/>
+      <c r="N209" s="334"/>
+      <c r="O209" s="335"/>
       <c r="P209" s="10"/>
     </row>
     <row r="210" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27349,28 +27349,28 @@
         <v>255</v>
       </c>
       <c r="K210" s="237"/>
-      <c r="L210" s="328"/>
-      <c r="M210" s="328"/>
-      <c r="N210" s="328"/>
-      <c r="O210" s="329"/>
+      <c r="L210" s="334"/>
+      <c r="M210" s="334"/>
+      <c r="N210" s="334"/>
+      <c r="O210" s="335"/>
       <c r="P210" s="10"/>
     </row>
     <row r="211" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="9"/>
       <c r="B211" s="29"/>
       <c r="C211" s="30"/>
-      <c r="D211" s="333"/>
-      <c r="E211" s="334"/>
+      <c r="D211" s="339"/>
+      <c r="E211" s="340"/>
       <c r="F211" s="215"/>
       <c r="G211" s="215"/>
       <c r="H211" s="215"/>
       <c r="I211" s="31"/>
       <c r="J211" s="215"/>
       <c r="K211" s="215"/>
-      <c r="L211" s="335"/>
-      <c r="M211" s="335"/>
-      <c r="N211" s="335"/>
-      <c r="O211" s="336"/>
+      <c r="L211" s="341"/>
+      <c r="M211" s="341"/>
+      <c r="N211" s="341"/>
+      <c r="O211" s="342"/>
       <c r="P211" s="10"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
@@ -27457,10 +27457,10 @@
       <c r="C216" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D216" s="343" t="s">
+      <c r="D216" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E216" s="344"/>
+      <c r="E216" s="329"/>
       <c r="F216" s="25" t="s">
         <v>31</v>
       </c>
@@ -27479,12 +27479,12 @@
       <c r="K216" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L216" s="345" t="s">
+      <c r="L216" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M216" s="345"/>
-      <c r="N216" s="345"/>
-      <c r="O216" s="346"/>
+      <c r="M216" s="330"/>
+      <c r="N216" s="330"/>
+      <c r="O216" s="331"/>
       <c r="P216" s="10"/>
     </row>
     <row r="217" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27495,10 +27495,10 @@
       <c r="C217" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D217" s="337" t="s">
+      <c r="D217" s="332" t="s">
         <v>352</v>
       </c>
-      <c r="E217" s="338"/>
+      <c r="E217" s="333"/>
       <c r="F217" s="214"/>
       <c r="G217" s="214"/>
       <c r="H217" s="214" t="s">
@@ -27511,12 +27511,12 @@
         <v>255</v>
       </c>
       <c r="K217" s="214"/>
-      <c r="L217" s="328" t="s">
+      <c r="L217" s="334" t="s">
         <v>353</v>
       </c>
-      <c r="M217" s="328"/>
-      <c r="N217" s="328"/>
-      <c r="O217" s="329"/>
+      <c r="M217" s="334"/>
+      <c r="N217" s="334"/>
+      <c r="O217" s="335"/>
       <c r="P217" s="10"/>
     </row>
     <row r="218" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27541,28 +27541,28 @@
         <v>255</v>
       </c>
       <c r="K218" s="237"/>
-      <c r="L218" s="328"/>
-      <c r="M218" s="328"/>
-      <c r="N218" s="328"/>
-      <c r="O218" s="329"/>
+      <c r="L218" s="334"/>
+      <c r="M218" s="334"/>
+      <c r="N218" s="334"/>
+      <c r="O218" s="335"/>
       <c r="P218" s="10"/>
     </row>
     <row r="219" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="9"/>
       <c r="B219" s="29"/>
       <c r="C219" s="30"/>
-      <c r="D219" s="333"/>
-      <c r="E219" s="334"/>
+      <c r="D219" s="339"/>
+      <c r="E219" s="340"/>
       <c r="F219" s="215"/>
       <c r="G219" s="215"/>
       <c r="H219" s="215"/>
       <c r="I219" s="31"/>
       <c r="J219" s="215"/>
       <c r="K219" s="215"/>
-      <c r="L219" s="335"/>
-      <c r="M219" s="335"/>
-      <c r="N219" s="335"/>
-      <c r="O219" s="336"/>
+      <c r="L219" s="341"/>
+      <c r="M219" s="341"/>
+      <c r="N219" s="341"/>
+      <c r="O219" s="342"/>
       <c r="P219" s="10"/>
     </row>
     <row r="220" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27649,10 +27649,10 @@
       <c r="C224" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="343" t="s">
+      <c r="D224" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E224" s="344"/>
+      <c r="E224" s="329"/>
       <c r="F224" s="25" t="s">
         <v>31</v>
       </c>
@@ -27671,12 +27671,12 @@
       <c r="K224" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L224" s="345" t="s">
+      <c r="L224" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M224" s="345"/>
-      <c r="N224" s="345"/>
-      <c r="O224" s="346"/>
+      <c r="M224" s="330"/>
+      <c r="N224" s="330"/>
+      <c r="O224" s="331"/>
       <c r="P224" s="10"/>
     </row>
     <row r="225" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27687,10 +27687,10 @@
       <c r="C225" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D225" s="337" t="s">
+      <c r="D225" s="332" t="s">
         <v>390</v>
       </c>
-      <c r="E225" s="338"/>
+      <c r="E225" s="333"/>
       <c r="F225" s="214"/>
       <c r="G225" s="214"/>
       <c r="H225" s="214" t="s">
@@ -27703,12 +27703,12 @@
         <v>255</v>
       </c>
       <c r="K225" s="214"/>
-      <c r="L225" s="328" t="s">
+      <c r="L225" s="334" t="s">
         <v>391</v>
       </c>
-      <c r="M225" s="328"/>
-      <c r="N225" s="328"/>
-      <c r="O225" s="329"/>
+      <c r="M225" s="334"/>
+      <c r="N225" s="334"/>
+      <c r="O225" s="335"/>
       <c r="P225" s="10"/>
     </row>
     <row r="226" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27733,28 +27733,28 @@
         <v>255</v>
       </c>
       <c r="K226" s="237"/>
-      <c r="L226" s="328"/>
-      <c r="M226" s="328"/>
-      <c r="N226" s="328"/>
-      <c r="O226" s="329"/>
+      <c r="L226" s="334"/>
+      <c r="M226" s="334"/>
+      <c r="N226" s="334"/>
+      <c r="O226" s="335"/>
       <c r="P226" s="10"/>
     </row>
     <row r="227" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="9"/>
       <c r="B227" s="29"/>
       <c r="C227" s="30"/>
-      <c r="D227" s="333"/>
-      <c r="E227" s="334"/>
+      <c r="D227" s="339"/>
+      <c r="E227" s="340"/>
       <c r="F227" s="215"/>
       <c r="G227" s="215"/>
       <c r="H227" s="215"/>
       <c r="I227" s="31"/>
       <c r="J227" s="215"/>
       <c r="K227" s="215"/>
-      <c r="L227" s="335"/>
-      <c r="M227" s="335"/>
-      <c r="N227" s="335"/>
-      <c r="O227" s="336"/>
+      <c r="L227" s="341"/>
+      <c r="M227" s="341"/>
+      <c r="N227" s="341"/>
+      <c r="O227" s="342"/>
       <c r="P227" s="10"/>
     </row>
     <row r="228" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27841,10 +27841,10 @@
       <c r="C232" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D232" s="343" t="s">
+      <c r="D232" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E232" s="344"/>
+      <c r="E232" s="329"/>
       <c r="F232" s="25" t="s">
         <v>31</v>
       </c>
@@ -27863,12 +27863,12 @@
       <c r="K232" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L232" s="345" t="s">
+      <c r="L232" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M232" s="345"/>
-      <c r="N232" s="345"/>
-      <c r="O232" s="346"/>
+      <c r="M232" s="330"/>
+      <c r="N232" s="330"/>
+      <c r="O232" s="331"/>
       <c r="P232" s="10"/>
     </row>
     <row r="233" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27879,10 +27879,10 @@
       <c r="C233" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D233" s="337" t="s">
+      <c r="D233" s="332" t="s">
         <v>352</v>
       </c>
-      <c r="E233" s="338"/>
+      <c r="E233" s="333"/>
       <c r="F233" s="214"/>
       <c r="G233" s="214"/>
       <c r="H233" s="214" t="s">
@@ -27895,12 +27895,12 @@
         <v>255</v>
       </c>
       <c r="K233" s="214"/>
-      <c r="L233" s="328" t="s">
+      <c r="L233" s="334" t="s">
         <v>357</v>
       </c>
-      <c r="M233" s="328"/>
-      <c r="N233" s="328"/>
-      <c r="O233" s="329"/>
+      <c r="M233" s="334"/>
+      <c r="N233" s="334"/>
+      <c r="O233" s="335"/>
       <c r="P233" s="10"/>
     </row>
     <row r="234" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27925,28 +27925,28 @@
         <v>255</v>
       </c>
       <c r="K234" s="237"/>
-      <c r="L234" s="342"/>
-      <c r="M234" s="328"/>
-      <c r="N234" s="328"/>
-      <c r="O234" s="329"/>
+      <c r="L234" s="345"/>
+      <c r="M234" s="334"/>
+      <c r="N234" s="334"/>
+      <c r="O234" s="335"/>
       <c r="P234" s="10"/>
     </row>
     <row r="235" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="9"/>
       <c r="B235" s="29"/>
       <c r="C235" s="30"/>
-      <c r="D235" s="333"/>
-      <c r="E235" s="334"/>
+      <c r="D235" s="339"/>
+      <c r="E235" s="340"/>
       <c r="F235" s="215"/>
       <c r="G235" s="215"/>
       <c r="H235" s="215"/>
       <c r="I235" s="31"/>
       <c r="J235" s="215"/>
       <c r="K235" s="215"/>
-      <c r="L235" s="335"/>
-      <c r="M235" s="335"/>
-      <c r="N235" s="335"/>
-      <c r="O235" s="336"/>
+      <c r="L235" s="341"/>
+      <c r="M235" s="341"/>
+      <c r="N235" s="341"/>
+      <c r="O235" s="342"/>
       <c r="P235" s="10"/>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
@@ -28033,10 +28033,10 @@
       <c r="C240" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D240" s="343" t="s">
+      <c r="D240" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E240" s="344"/>
+      <c r="E240" s="329"/>
       <c r="F240" s="25" t="s">
         <v>31</v>
       </c>
@@ -28055,12 +28055,12 @@
       <c r="K240" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L240" s="345" t="s">
+      <c r="L240" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M240" s="345"/>
-      <c r="N240" s="345"/>
-      <c r="O240" s="346"/>
+      <c r="M240" s="330"/>
+      <c r="N240" s="330"/>
+      <c r="O240" s="331"/>
       <c r="P240" s="10"/>
     </row>
     <row r="241" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -28071,10 +28071,10 @@
       <c r="C241" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D241" s="347" t="s">
+      <c r="D241" s="343" t="s">
         <v>227</v>
       </c>
-      <c r="E241" s="348"/>
+      <c r="E241" s="344"/>
       <c r="F241" s="214"/>
       <c r="G241" s="214"/>
       <c r="H241" s="214" t="s">
@@ -28087,12 +28087,12 @@
         <v>255</v>
       </c>
       <c r="K241" s="214"/>
-      <c r="L241" s="342" t="s">
+      <c r="L241" s="345" t="s">
         <v>417</v>
       </c>
-      <c r="M241" s="328"/>
-      <c r="N241" s="328"/>
-      <c r="O241" s="329"/>
+      <c r="M241" s="334"/>
+      <c r="N241" s="334"/>
+      <c r="O241" s="335"/>
       <c r="P241" s="10"/>
     </row>
     <row r="242" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28117,28 +28117,28 @@
         <v>255</v>
       </c>
       <c r="K242" s="237"/>
-      <c r="L242" s="342"/>
-      <c r="M242" s="328"/>
-      <c r="N242" s="328"/>
-      <c r="O242" s="329"/>
+      <c r="L242" s="345"/>
+      <c r="M242" s="334"/>
+      <c r="N242" s="334"/>
+      <c r="O242" s="335"/>
       <c r="P242" s="10"/>
     </row>
     <row r="243" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="9"/>
       <c r="B243" s="29"/>
       <c r="C243" s="30"/>
-      <c r="D243" s="333"/>
-      <c r="E243" s="334"/>
+      <c r="D243" s="339"/>
+      <c r="E243" s="340"/>
       <c r="F243" s="215"/>
       <c r="G243" s="215"/>
       <c r="H243" s="215"/>
       <c r="I243" s="31"/>
       <c r="J243" s="215"/>
       <c r="K243" s="215"/>
-      <c r="L243" s="335"/>
-      <c r="M243" s="335"/>
-      <c r="N243" s="335"/>
-      <c r="O243" s="336"/>
+      <c r="L243" s="341"/>
+      <c r="M243" s="341"/>
+      <c r="N243" s="341"/>
+      <c r="O243" s="342"/>
       <c r="P243" s="10"/>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
@@ -28225,10 +28225,10 @@
       <c r="C248" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D248" s="343" t="s">
+      <c r="D248" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E248" s="344"/>
+      <c r="E248" s="329"/>
       <c r="F248" s="25" t="s">
         <v>31</v>
       </c>
@@ -28247,12 +28247,12 @@
       <c r="K248" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L248" s="345" t="s">
+      <c r="L248" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M248" s="345"/>
-      <c r="N248" s="345"/>
-      <c r="O248" s="346"/>
+      <c r="M248" s="330"/>
+      <c r="N248" s="330"/>
+      <c r="O248" s="331"/>
       <c r="P248" s="10"/>
     </row>
     <row r="249" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -28263,10 +28263,10 @@
       <c r="C249" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D249" s="347" t="s">
+      <c r="D249" s="343" t="s">
         <v>362</v>
       </c>
-      <c r="E249" s="348"/>
+      <c r="E249" s="344"/>
       <c r="F249" s="214"/>
       <c r="G249" s="214"/>
       <c r="H249" s="214" t="s">
@@ -28279,12 +28279,12 @@
         <v>255</v>
       </c>
       <c r="K249" s="214"/>
-      <c r="L249" s="342" t="s">
+      <c r="L249" s="345" t="s">
         <v>363</v>
       </c>
-      <c r="M249" s="328"/>
-      <c r="N249" s="328"/>
-      <c r="O249" s="329"/>
+      <c r="M249" s="334"/>
+      <c r="N249" s="334"/>
+      <c r="O249" s="335"/>
       <c r="P249" s="10"/>
     </row>
     <row r="250" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28309,28 +28309,28 @@
         <v>255</v>
       </c>
       <c r="K250" s="237"/>
-      <c r="L250" s="342"/>
-      <c r="M250" s="328"/>
-      <c r="N250" s="328"/>
-      <c r="O250" s="329"/>
+      <c r="L250" s="345"/>
+      <c r="M250" s="334"/>
+      <c r="N250" s="334"/>
+      <c r="O250" s="335"/>
       <c r="P250" s="10"/>
     </row>
     <row r="251" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="9"/>
       <c r="B251" s="29"/>
       <c r="C251" s="30"/>
-      <c r="D251" s="333"/>
-      <c r="E251" s="334"/>
+      <c r="D251" s="339"/>
+      <c r="E251" s="340"/>
       <c r="F251" s="215"/>
       <c r="G251" s="215"/>
       <c r="H251" s="215"/>
       <c r="I251" s="31"/>
       <c r="J251" s="215"/>
       <c r="K251" s="215"/>
-      <c r="L251" s="335"/>
-      <c r="M251" s="335"/>
-      <c r="N251" s="335"/>
-      <c r="O251" s="336"/>
+      <c r="L251" s="341"/>
+      <c r="M251" s="341"/>
+      <c r="N251" s="341"/>
+      <c r="O251" s="342"/>
       <c r="P251" s="10"/>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -28419,10 +28419,10 @@
       <c r="C256" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D256" s="343" t="s">
+      <c r="D256" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E256" s="344"/>
+      <c r="E256" s="329"/>
       <c r="F256" s="25" t="s">
         <v>31</v>
       </c>
@@ -28441,12 +28441,12 @@
       <c r="K256" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L256" s="345" t="s">
+      <c r="L256" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M256" s="345"/>
-      <c r="N256" s="345"/>
-      <c r="O256" s="346"/>
+      <c r="M256" s="330"/>
+      <c r="N256" s="330"/>
+      <c r="O256" s="331"/>
       <c r="P256" s="10"/>
     </row>
     <row r="257" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28457,10 +28457,10 @@
       <c r="C257" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D257" s="337" t="s">
+      <c r="D257" s="332" t="s">
         <v>267</v>
       </c>
-      <c r="E257" s="338"/>
+      <c r="E257" s="333"/>
       <c r="F257" s="214"/>
       <c r="G257" s="214"/>
       <c r="H257" s="214" t="s">
@@ -28475,12 +28475,12 @@
       <c r="K257" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L257" s="328" t="s">
+      <c r="L257" s="334" t="s">
         <v>268</v>
       </c>
-      <c r="M257" s="328"/>
-      <c r="N257" s="328"/>
-      <c r="O257" s="329"/>
+      <c r="M257" s="334"/>
+      <c r="N257" s="334"/>
+      <c r="O257" s="335"/>
       <c r="P257" s="10"/>
     </row>
     <row r="258" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28491,10 +28491,10 @@
       <c r="C258" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="D258" s="337" t="s">
+      <c r="D258" s="332" t="s">
         <v>378</v>
       </c>
-      <c r="E258" s="338"/>
+      <c r="E258" s="333"/>
       <c r="F258" s="214"/>
       <c r="G258" s="214"/>
       <c r="H258" s="214" t="s">
@@ -28507,10 +28507,10 @@
         <v>255</v>
       </c>
       <c r="K258" s="214"/>
-      <c r="L258" s="328"/>
-      <c r="M258" s="328"/>
-      <c r="N258" s="328"/>
-      <c r="O258" s="329"/>
+      <c r="L258" s="334"/>
+      <c r="M258" s="334"/>
+      <c r="N258" s="334"/>
+      <c r="O258" s="335"/>
       <c r="P258" s="10"/>
     </row>
     <row r="259" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28521,10 +28521,10 @@
       <c r="C259" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D259" s="337" t="s">
+      <c r="D259" s="332" t="s">
         <v>379</v>
       </c>
-      <c r="E259" s="338"/>
+      <c r="E259" s="333"/>
       <c r="F259" s="214"/>
       <c r="G259" s="214"/>
       <c r="H259" s="214"/>
@@ -28535,28 +28535,28 @@
         <v>255</v>
       </c>
       <c r="K259" s="214"/>
-      <c r="L259" s="328"/>
-      <c r="M259" s="328"/>
-      <c r="N259" s="328"/>
-      <c r="O259" s="329"/>
+      <c r="L259" s="334"/>
+      <c r="M259" s="334"/>
+      <c r="N259" s="334"/>
+      <c r="O259" s="335"/>
       <c r="P259" s="10"/>
     </row>
     <row r="260" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="9"/>
       <c r="B260" s="29"/>
       <c r="C260" s="30"/>
-      <c r="D260" s="333"/>
-      <c r="E260" s="334"/>
+      <c r="D260" s="339"/>
+      <c r="E260" s="340"/>
       <c r="F260" s="215"/>
       <c r="G260" s="215"/>
       <c r="H260" s="215"/>
       <c r="I260" s="31"/>
       <c r="J260" s="215"/>
       <c r="K260" s="215"/>
-      <c r="L260" s="335"/>
-      <c r="M260" s="335"/>
-      <c r="N260" s="335"/>
-      <c r="O260" s="336"/>
+      <c r="L260" s="341"/>
+      <c r="M260" s="341"/>
+      <c r="N260" s="341"/>
+      <c r="O260" s="342"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.2">
@@ -28645,10 +28645,10 @@
       <c r="C265" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D265" s="343" t="s">
+      <c r="D265" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E265" s="344"/>
+      <c r="E265" s="329"/>
       <c r="F265" s="25" t="s">
         <v>31</v>
       </c>
@@ -28667,12 +28667,12 @@
       <c r="K265" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L265" s="345" t="s">
+      <c r="L265" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M265" s="345"/>
-      <c r="N265" s="345"/>
-      <c r="O265" s="346"/>
+      <c r="M265" s="330"/>
+      <c r="N265" s="330"/>
+      <c r="O265" s="331"/>
       <c r="P265" s="10"/>
     </row>
     <row r="266" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28683,10 +28683,10 @@
       <c r="C266" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D266" s="337" t="s">
+      <c r="D266" s="332" t="s">
         <v>381</v>
       </c>
-      <c r="E266" s="338"/>
+      <c r="E266" s="333"/>
       <c r="F266" s="214"/>
       <c r="G266" s="214"/>
       <c r="H266" s="214" t="s">
@@ -28699,10 +28699,10 @@
         <v>255</v>
       </c>
       <c r="K266" s="214"/>
-      <c r="L266" s="328"/>
-      <c r="M266" s="328"/>
-      <c r="N266" s="328"/>
-      <c r="O266" s="329"/>
+      <c r="L266" s="334"/>
+      <c r="M266" s="334"/>
+      <c r="N266" s="334"/>
+      <c r="O266" s="335"/>
       <c r="P266" s="10"/>
     </row>
     <row r="267" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28713,10 +28713,10 @@
       <c r="C267" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D267" s="337" t="s">
+      <c r="D267" s="332" t="s">
         <v>382</v>
       </c>
-      <c r="E267" s="338"/>
+      <c r="E267" s="333"/>
       <c r="F267" s="214"/>
       <c r="G267" s="214"/>
       <c r="H267" s="214"/>
@@ -28727,10 +28727,10 @@
         <v>255</v>
       </c>
       <c r="K267" s="214"/>
-      <c r="L267" s="328"/>
-      <c r="M267" s="328"/>
-      <c r="N267" s="328"/>
-      <c r="O267" s="329"/>
+      <c r="L267" s="334"/>
+      <c r="M267" s="334"/>
+      <c r="N267" s="334"/>
+      <c r="O267" s="335"/>
       <c r="P267" s="10"/>
     </row>
     <row r="268" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28753,30 +28753,30 @@
       </c>
       <c r="J268" s="214"/>
       <c r="K268" s="214"/>
-      <c r="L268" s="328" t="s">
+      <c r="L268" s="334" t="s">
         <v>416</v>
       </c>
-      <c r="M268" s="328"/>
-      <c r="N268" s="328"/>
-      <c r="O268" s="329"/>
+      <c r="M268" s="334"/>
+      <c r="N268" s="334"/>
+      <c r="O268" s="335"/>
       <c r="P268" s="10"/>
     </row>
     <row r="269" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="9"/>
       <c r="B269" s="29"/>
       <c r="C269" s="30"/>
-      <c r="D269" s="333"/>
-      <c r="E269" s="334"/>
+      <c r="D269" s="339"/>
+      <c r="E269" s="340"/>
       <c r="F269" s="215"/>
       <c r="G269" s="215"/>
       <c r="H269" s="215"/>
       <c r="I269" s="31"/>
       <c r="J269" s="215"/>
       <c r="K269" s="215"/>
-      <c r="L269" s="335"/>
-      <c r="M269" s="335"/>
-      <c r="N269" s="335"/>
-      <c r="O269" s="336"/>
+      <c r="L269" s="341"/>
+      <c r="M269" s="341"/>
+      <c r="N269" s="341"/>
+      <c r="O269" s="342"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28865,10 +28865,10 @@
       <c r="C274" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D274" s="343" t="s">
+      <c r="D274" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E274" s="344"/>
+      <c r="E274" s="329"/>
       <c r="F274" s="25" t="s">
         <v>31</v>
       </c>
@@ -28887,12 +28887,12 @@
       <c r="K274" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L274" s="345" t="s">
+      <c r="L274" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M274" s="345"/>
-      <c r="N274" s="345"/>
-      <c r="O274" s="346"/>
+      <c r="M274" s="330"/>
+      <c r="N274" s="330"/>
+      <c r="O274" s="331"/>
       <c r="P274" s="10"/>
     </row>
     <row r="275" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28903,10 +28903,10 @@
       <c r="C275" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D275" s="337" t="s">
+      <c r="D275" s="332" t="s">
         <v>386</v>
       </c>
-      <c r="E275" s="338"/>
+      <c r="E275" s="333"/>
       <c r="F275" s="214"/>
       <c r="G275" s="214"/>
       <c r="H275" s="214" t="s">
@@ -28917,12 +28917,12 @@
       </c>
       <c r="J275" s="214"/>
       <c r="K275" s="214"/>
-      <c r="L275" s="328" t="s">
+      <c r="L275" s="334" t="s">
         <v>387</v>
       </c>
-      <c r="M275" s="328"/>
-      <c r="N275" s="328"/>
-      <c r="O275" s="329"/>
+      <c r="M275" s="334"/>
+      <c r="N275" s="334"/>
+      <c r="O275" s="335"/>
       <c r="P275" s="10"/>
     </row>
     <row r="276" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28933,10 +28933,10 @@
       <c r="C276" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D276" s="337" t="s">
+      <c r="D276" s="332" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="338"/>
+      <c r="E276" s="333"/>
       <c r="F276" s="214"/>
       <c r="G276" s="214"/>
       <c r="H276" s="214" t="s">
@@ -28949,10 +28949,10 @@
         <v>255</v>
       </c>
       <c r="K276" s="214"/>
-      <c r="L276" s="328"/>
-      <c r="M276" s="328"/>
-      <c r="N276" s="328"/>
-      <c r="O276" s="329"/>
+      <c r="L276" s="334"/>
+      <c r="M276" s="334"/>
+      <c r="N276" s="334"/>
+      <c r="O276" s="335"/>
       <c r="P276" s="10"/>
     </row>
     <row r="277" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28963,10 +28963,10 @@
       <c r="C277" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D277" s="391" t="s">
+      <c r="D277" s="348" t="s">
         <v>379</v>
       </c>
-      <c r="E277" s="392"/>
+      <c r="E277" s="349"/>
       <c r="F277" s="214"/>
       <c r="G277" s="214"/>
       <c r="H277" s="214"/>
@@ -28977,10 +28977,10 @@
         <v>255</v>
       </c>
       <c r="K277" s="214"/>
-      <c r="L277" s="328"/>
-      <c r="M277" s="328"/>
-      <c r="N277" s="328"/>
-      <c r="O277" s="329"/>
+      <c r="L277" s="334"/>
+      <c r="M277" s="334"/>
+      <c r="N277" s="334"/>
+      <c r="O277" s="335"/>
       <c r="P277" s="10"/>
     </row>
     <row r="278" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -28991,10 +28991,10 @@
       <c r="C278" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D278" s="362" t="s">
+      <c r="D278" s="346" t="s">
         <v>415</v>
       </c>
-      <c r="E278" s="363"/>
+      <c r="E278" s="347"/>
       <c r="F278" s="215"/>
       <c r="G278" s="215"/>
       <c r="H278" s="215" t="s">
@@ -29005,12 +29005,12 @@
       </c>
       <c r="J278" s="215"/>
       <c r="K278" s="215"/>
-      <c r="L278" s="335" t="s">
+      <c r="L278" s="341" t="s">
         <v>416</v>
       </c>
-      <c r="M278" s="335"/>
-      <c r="N278" s="335"/>
-      <c r="O278" s="336"/>
+      <c r="M278" s="341"/>
+      <c r="N278" s="341"/>
+      <c r="O278" s="342"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
@@ -29097,10 +29097,10 @@
       <c r="C283" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D283" s="343" t="s">
+      <c r="D283" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="E283" s="344"/>
+      <c r="E283" s="329"/>
       <c r="F283" s="25" t="s">
         <v>31</v>
       </c>
@@ -29119,12 +29119,12 @@
       <c r="K283" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L283" s="345" t="s">
+      <c r="L283" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="M283" s="345"/>
-      <c r="N283" s="345"/>
-      <c r="O283" s="346"/>
+      <c r="M283" s="330"/>
+      <c r="N283" s="330"/>
+      <c r="O283" s="331"/>
       <c r="P283" s="10"/>
     </row>
     <row r="284" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29135,10 +29135,10 @@
       <c r="C284" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="D284" s="337" t="s">
+      <c r="D284" s="332" t="s">
         <v>403</v>
       </c>
-      <c r="E284" s="338"/>
+      <c r="E284" s="333"/>
       <c r="F284" s="214"/>
       <c r="G284" s="214"/>
       <c r="H284" s="214" t="s">
@@ -29151,10 +29151,10 @@
         <v>255</v>
       </c>
       <c r="K284" s="214"/>
-      <c r="L284" s="328"/>
-      <c r="M284" s="328"/>
-      <c r="N284" s="328"/>
-      <c r="O284" s="329"/>
+      <c r="L284" s="334"/>
+      <c r="M284" s="334"/>
+      <c r="N284" s="334"/>
+      <c r="O284" s="335"/>
       <c r="P284" s="10"/>
     </row>
     <row r="285" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29165,10 +29165,10 @@
       <c r="C285" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D285" s="337" t="s">
+      <c r="D285" s="332" t="s">
         <v>396</v>
       </c>
-      <c r="E285" s="338"/>
+      <c r="E285" s="333"/>
       <c r="F285" s="214"/>
       <c r="G285" s="214"/>
       <c r="H285" s="214" t="s">
@@ -29181,12 +29181,12 @@
         <v>255</v>
       </c>
       <c r="K285" s="214"/>
-      <c r="L285" s="328" t="s">
+      <c r="L285" s="334" t="s">
         <v>395</v>
       </c>
-      <c r="M285" s="328"/>
-      <c r="N285" s="328"/>
-      <c r="O285" s="329"/>
+      <c r="M285" s="334"/>
+      <c r="N285" s="334"/>
+      <c r="O285" s="335"/>
       <c r="P285" s="10"/>
     </row>
     <row r="286" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29197,10 +29197,10 @@
       <c r="C286" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="D286" s="347" t="s">
+      <c r="D286" s="343" t="s">
         <v>402</v>
       </c>
-      <c r="E286" s="348"/>
+      <c r="E286" s="344"/>
       <c r="F286" s="214"/>
       <c r="G286" s="214"/>
       <c r="H286" s="214" t="s">
@@ -29213,10 +29213,10 @@
         <v>255</v>
       </c>
       <c r="K286" s="214"/>
-      <c r="L286" s="342"/>
-      <c r="M286" s="328"/>
-      <c r="N286" s="328"/>
-      <c r="O286" s="329"/>
+      <c r="L286" s="345"/>
+      <c r="M286" s="334"/>
+      <c r="N286" s="334"/>
+      <c r="O286" s="335"/>
       <c r="P286" s="10"/>
     </row>
     <row r="287" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29227,10 +29227,10 @@
       <c r="C287" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="D287" s="337" t="s">
+      <c r="D287" s="332" t="s">
         <v>401</v>
       </c>
-      <c r="E287" s="338"/>
+      <c r="E287" s="333"/>
       <c r="F287" s="214"/>
       <c r="G287" s="214"/>
       <c r="H287" s="214" t="s">
@@ -29241,12 +29241,12 @@
       </c>
       <c r="J287" s="214"/>
       <c r="K287" s="214"/>
-      <c r="L287" s="328" t="s">
+      <c r="L287" s="334" t="s">
         <v>254</v>
       </c>
-      <c r="M287" s="328"/>
-      <c r="N287" s="328"/>
-      <c r="O287" s="329"/>
+      <c r="M287" s="334"/>
+      <c r="N287" s="334"/>
+      <c r="O287" s="335"/>
       <c r="P287" s="10"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29257,10 +29257,10 @@
       <c r="C288" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="D288" s="337" t="s">
+      <c r="D288" s="332" t="s">
         <v>400</v>
       </c>
-      <c r="E288" s="338"/>
+      <c r="E288" s="333"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214"/>
@@ -29271,30 +29271,30 @@
       <c r="K288" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L288" s="328" t="s">
+      <c r="L288" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="M288" s="328"/>
-      <c r="N288" s="328"/>
-      <c r="O288" s="329"/>
+      <c r="M288" s="334"/>
+      <c r="N288" s="334"/>
+      <c r="O288" s="335"/>
       <c r="P288" s="10"/>
     </row>
     <row r="289" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9"/>
       <c r="B289" s="29"/>
       <c r="C289" s="30"/>
-      <c r="D289" s="333"/>
-      <c r="E289" s="334"/>
+      <c r="D289" s="339"/>
+      <c r="E289" s="340"/>
       <c r="F289" s="215"/>
       <c r="G289" s="215"/>
       <c r="H289" s="215"/>
       <c r="I289" s="31"/>
       <c r="J289" s="215"/>
       <c r="K289" s="215"/>
-      <c r="L289" s="335"/>
-      <c r="M289" s="335"/>
-      <c r="N289" s="335"/>
-      <c r="O289" s="336"/>
+      <c r="L289" s="341"/>
+      <c r="M289" s="341"/>
+      <c r="N289" s="341"/>
+      <c r="O289" s="342"/>
       <c r="P289" s="10"/>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
@@ -29353,72 +29353,237 @@
     </row>
   </sheetData>
   <mergeCells count="321">
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="L103:O103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="L106:O106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="L107:O107"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="L288:O288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="L289:O289"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="L283:O283"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="L284:O284"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="L285:O285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="L286:O286"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="L287:O287"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="L276:O276"/>
-    <mergeCell ref="L277:O277"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="L278:O278"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="L265:O265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="L266:O266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="L267:O267"/>
-    <mergeCell ref="L268:O268"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="L269:O269"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="L256:O256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="L257:O257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="L258:O258"/>
-    <mergeCell ref="L259:O259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="L260:O260"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="L200:O200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="L201:O201"/>
-    <mergeCell ref="L210:O210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="L211:O211"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="L203:O203"/>
-    <mergeCell ref="L202:O202"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="L208:O208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="L209:O209"/>
+    <mergeCell ref="L122:O122"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="L242:O242"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="L233:O233"/>
+    <mergeCell ref="L234:O234"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="L235:O235"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="L240:O240"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="L241:O241"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="L216:O216"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="L217:O217"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="L243:O243"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="L250:O250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="L251:O251"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="L232:O232"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="L224:O224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="L225:O225"/>
+    <mergeCell ref="L226:O226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="L227:O227"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="L133:O133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="L120:O120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="L121:O121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L70:O71"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O57"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="L155:O155"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L176:O176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="L177:O177"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="L156:O156"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="L173:O173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="L174:O174"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="L164:O164"/>
     <mergeCell ref="D153:E153"/>
     <mergeCell ref="L153:O153"/>
     <mergeCell ref="D154:E154"/>
@@ -29443,237 +29608,72 @@
     <mergeCell ref="L183:O183"/>
     <mergeCell ref="D175:E175"/>
     <mergeCell ref="L175:O175"/>
-    <mergeCell ref="L176:O176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="L177:O177"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="L156:O156"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="L173:O173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="L174:O174"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:O155"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L70:O71"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L56:O57"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="L133:O133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="L112:O112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="L120:O120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="L121:O121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="L232:O232"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="L224:O224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="L225:O225"/>
-    <mergeCell ref="L226:O226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="L227:O227"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="L243:O243"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="L250:O250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="L251:O251"/>
-    <mergeCell ref="L122:O122"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="L242:O242"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="L233:O233"/>
-    <mergeCell ref="L234:O234"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="L235:O235"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="L240:O240"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="L241:O241"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="L216:O216"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="L217:O217"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="L200:O200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="L201:O201"/>
+    <mergeCell ref="L210:O210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="L211:O211"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="L203:O203"/>
+    <mergeCell ref="L202:O202"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="L208:O208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="L209:O209"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="L256:O256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="L257:O257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="L258:O258"/>
+    <mergeCell ref="L259:O259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="L260:O260"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="L265:O265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="L266:O266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="L267:O267"/>
+    <mergeCell ref="L268:O268"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="L269:O269"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="L276:O276"/>
+    <mergeCell ref="L277:O277"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="L278:O278"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="L288:O288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="L289:O289"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="L283:O283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="L284:O284"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="L285:O285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="L286:O286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="L287:O287"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="L103:O103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="L107:O107"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29748,7 +29748,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -30679,7 +30679,7 @@
   <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30743,7 +30743,7 @@
       </c>
       <c r="N2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="O2" s="281"/>
       <c r="P2" s="61"/>
@@ -31031,7 +31031,7 @@
         <v>-44571</v>
       </c>
       <c r="M10" s="131">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="43"/>
@@ -31278,7 +31278,7 @@
         <v>-44571</v>
       </c>
       <c r="M17" s="142">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="43"/>
@@ -31306,14 +31306,16 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J18" s="140"/>
+      <c r="J18" s="140">
+        <v>44571</v>
+      </c>
       <c r="K18" s="140"/>
       <c r="L18" s="141">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-44571</v>
       </c>
       <c r="M18" s="142">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="43"/>
@@ -31420,7 +31422,7 @@
         <v>-44571</v>
       </c>
       <c r="M21" s="142">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="43"/>
@@ -31492,7 +31494,7 @@
         <v>-44571</v>
       </c>
       <c r="M23" s="152">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="43"/>
@@ -32022,7 +32024,7 @@
       </c>
       <c r="AK2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="AL2" s="281"/>
       <c r="AM2" s="61"/>
@@ -32539,7 +32541,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -33952,7 +33954,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -39555,7 +39557,7 @@
       </c>
       <c r="S2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="T2" s="281"/>
     </row>
@@ -46330,7 +46332,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -48580,7 +48582,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44571.909550231481</v>
+        <v>44573.893278587966</v>
       </c>
       <c r="Q2" s="281"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E38CDF7-BE08-F942-A168-7C77DD648089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E5994A-A087-1345-A53E-7A9FEDA2C8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="37580" windowHeight="21100" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="640" yWindow="620" windowWidth="17960" windowHeight="20980" firstSheet="6" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Coin &amp; Order Flow'!$A$1:$U$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'DB Design'!$A$1:$P$292</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'DB Design'!$A$1:$P$325</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Project Flow_Admin'!$A$1:$Q$291</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Project Flow_Customer'!$A$1:$T$305</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Project Flow_Kitchen'!$A$1:$U$95</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="430">
   <si>
     <t>No</t>
   </si>
@@ -1321,6 +1321,42 @@
   <si>
     <t>Request,Cancel,Confirm,Reject,Working,Delivery,
 Complete</t>
+  </si>
+  <si>
+    <t>M_Product</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>product_taste</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>avaliable</t>
+  </si>
+  <si>
+    <t>0: avaliable , 1:not avaliable</t>
+  </si>
+  <si>
+    <t>M_Product_Detail</t>
+  </si>
+  <si>
+    <t>M_Product _ID</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -2850,18 +2886,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2872,15 +2896,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2895,6 +2910,18 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2903,6 +2930,15 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -20467,7 +20503,7 @@
       <c r="L64" s="261"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20612,7 +20648,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -22057,10 +22093,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
-  <dimension ref="A1:P292"/>
+  <dimension ref="A1:P317"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A120" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A286" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D313" sqref="D313:E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22123,7 +22159,7 @@
       </c>
       <c r="O2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="P2" s="281"/>
     </row>
@@ -22461,10 +22497,10 @@
       <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="328" t="s">
+      <c r="D17" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="329"/>
+      <c r="E17" s="337"/>
       <c r="F17" s="25" t="s">
         <v>31</v>
       </c>
@@ -22483,12 +22519,12 @@
       <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="330" t="s">
+      <c r="L17" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="330"/>
-      <c r="N17" s="330"/>
-      <c r="O17" s="331"/>
+      <c r="M17" s="338"/>
+      <c r="N17" s="338"/>
+      <c r="O17" s="339"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22499,10 +22535,10 @@
       <c r="C18" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="332" t="s">
+      <c r="D18" s="328" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="333"/>
+      <c r="E18" s="329"/>
       <c r="F18" s="214"/>
       <c r="G18" s="214"/>
       <c r="H18" s="214" t="s">
@@ -22515,10 +22551,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="214"/>
-      <c r="L18" s="334"/>
-      <c r="M18" s="334"/>
-      <c r="N18" s="334"/>
-      <c r="O18" s="335"/>
+      <c r="L18" s="330"/>
+      <c r="M18" s="330"/>
+      <c r="N18" s="330"/>
+      <c r="O18" s="331"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22529,10 +22565,10 @@
       <c r="C19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="332" t="s">
+      <c r="D19" s="328" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="333"/>
+      <c r="E19" s="329"/>
       <c r="F19" s="214"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214" t="s">
@@ -22545,10 +22581,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="214"/>
-      <c r="L19" s="334"/>
-      <c r="M19" s="334"/>
-      <c r="N19" s="334"/>
-      <c r="O19" s="335"/>
+      <c r="L19" s="330"/>
+      <c r="M19" s="330"/>
+      <c r="N19" s="330"/>
+      <c r="O19" s="331"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -22559,10 +22595,10 @@
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="343" t="s">
+      <c r="D20" s="340" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="344"/>
+      <c r="E20" s="341"/>
       <c r="F20" s="214"/>
       <c r="G20" s="214"/>
       <c r="H20" s="214" t="s">
@@ -22575,12 +22611,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="214"/>
-      <c r="L20" s="345" t="s">
+      <c r="L20" s="342" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="334"/>
-      <c r="N20" s="334"/>
-      <c r="O20" s="335"/>
+      <c r="M20" s="330"/>
+      <c r="N20" s="330"/>
+      <c r="O20" s="331"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22591,10 +22627,10 @@
       <c r="C21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="332" t="s">
+      <c r="D21" s="328" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="333"/>
+      <c r="E21" s="329"/>
       <c r="F21" s="214"/>
       <c r="G21" s="214"/>
       <c r="H21" s="214" t="s">
@@ -22605,12 +22641,12 @@
       </c>
       <c r="J21" s="214"/>
       <c r="K21" s="214"/>
-      <c r="L21" s="334" t="s">
+      <c r="L21" s="330" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="334"/>
-      <c r="N21" s="334"/>
-      <c r="O21" s="335"/>
+      <c r="M21" s="330"/>
+      <c r="N21" s="330"/>
+      <c r="O21" s="331"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22621,10 +22657,10 @@
       <c r="C22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="332" t="s">
+      <c r="D22" s="328" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="333"/>
+      <c r="E22" s="329"/>
       <c r="F22" s="214"/>
       <c r="G22" s="214"/>
       <c r="H22" s="214"/>
@@ -22633,28 +22669,28 @@
       </c>
       <c r="J22" s="214"/>
       <c r="K22" s="214"/>
-      <c r="L22" s="334"/>
-      <c r="M22" s="334"/>
-      <c r="N22" s="334"/>
-      <c r="O22" s="335"/>
+      <c r="L22" s="330"/>
+      <c r="M22" s="330"/>
+      <c r="N22" s="330"/>
+      <c r="O22" s="331"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="339"/>
-      <c r="E23" s="340"/>
+      <c r="D23" s="332"/>
+      <c r="E23" s="333"/>
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
       <c r="I23" s="31"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="341"/>
-      <c r="M23" s="341"/>
-      <c r="N23" s="341"/>
-      <c r="O23" s="342"/>
+      <c r="L23" s="334"/>
+      <c r="M23" s="334"/>
+      <c r="N23" s="334"/>
+      <c r="O23" s="335"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -22759,10 +22795,10 @@
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="328" t="s">
+      <c r="D29" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="329"/>
+      <c r="E29" s="337"/>
       <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
@@ -22781,12 +22817,12 @@
       <c r="K29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="330" t="s">
+      <c r="L29" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="330"/>
-      <c r="N29" s="330"/>
-      <c r="O29" s="331"/>
+      <c r="M29" s="338"/>
+      <c r="N29" s="338"/>
+      <c r="O29" s="339"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22797,10 +22833,10 @@
       <c r="C30" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="332" t="s">
+      <c r="D30" s="328" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="333"/>
+      <c r="E30" s="329"/>
       <c r="F30" s="214"/>
       <c r="G30" s="214"/>
       <c r="H30" s="214" t="s">
@@ -22811,12 +22847,12 @@
       </c>
       <c r="J30" s="214"/>
       <c r="K30" s="214"/>
-      <c r="L30" s="334" t="s">
+      <c r="L30" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="334"/>
-      <c r="N30" s="334"/>
-      <c r="O30" s="335"/>
+      <c r="M30" s="330"/>
+      <c r="N30" s="330"/>
+      <c r="O30" s="331"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22827,10 +22863,10 @@
       <c r="C31" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="332" t="s">
+      <c r="D31" s="328" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="333"/>
+      <c r="E31" s="329"/>
       <c r="F31" s="214"/>
       <c r="G31" s="214"/>
       <c r="H31" s="214" t="s">
@@ -22841,10 +22877,10 @@
       </c>
       <c r="J31" s="214"/>
       <c r="K31" s="214"/>
-      <c r="L31" s="334"/>
-      <c r="M31" s="334"/>
-      <c r="N31" s="334"/>
-      <c r="O31" s="335"/>
+      <c r="L31" s="330"/>
+      <c r="M31" s="330"/>
+      <c r="N31" s="330"/>
+      <c r="O31" s="331"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22859,10 +22895,10 @@
       <c r="I32" s="28"/>
       <c r="J32" s="214"/>
       <c r="K32" s="214"/>
-      <c r="L32" s="334"/>
-      <c r="M32" s="334"/>
-      <c r="N32" s="334"/>
-      <c r="O32" s="335"/>
+      <c r="L32" s="330"/>
+      <c r="M32" s="330"/>
+      <c r="N32" s="330"/>
+      <c r="O32" s="331"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22877,10 +22913,10 @@
       <c r="I33" s="28"/>
       <c r="J33" s="214"/>
       <c r="K33" s="214"/>
-      <c r="L33" s="334"/>
-      <c r="M33" s="334"/>
-      <c r="N33" s="334"/>
-      <c r="O33" s="335"/>
+      <c r="L33" s="330"/>
+      <c r="M33" s="330"/>
+      <c r="N33" s="330"/>
+      <c r="O33" s="331"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22895,28 +22931,28 @@
       <c r="I34" s="28"/>
       <c r="J34" s="214"/>
       <c r="K34" s="214"/>
-      <c r="L34" s="334"/>
-      <c r="M34" s="334"/>
-      <c r="N34" s="334"/>
-      <c r="O34" s="335"/>
+      <c r="L34" s="330"/>
+      <c r="M34" s="330"/>
+      <c r="N34" s="330"/>
+      <c r="O34" s="331"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="339"/>
-      <c r="E35" s="340"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
       <c r="I35" s="31"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="341"/>
-      <c r="M35" s="341"/>
-      <c r="N35" s="341"/>
-      <c r="O35" s="342"/>
+      <c r="L35" s="334"/>
+      <c r="M35" s="334"/>
+      <c r="N35" s="334"/>
+      <c r="O35" s="335"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -23003,10 +23039,10 @@
       <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="328" t="s">
+      <c r="D40" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="329"/>
+      <c r="E40" s="337"/>
       <c r="F40" s="25" t="s">
         <v>31</v>
       </c>
@@ -23025,12 +23061,12 @@
       <c r="K40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="330" t="s">
+      <c r="L40" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="330"/>
-      <c r="N40" s="330"/>
-      <c r="O40" s="331"/>
+      <c r="M40" s="338"/>
+      <c r="N40" s="338"/>
+      <c r="O40" s="339"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23099,10 +23135,10 @@
       <c r="C43" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="332" t="s">
+      <c r="D43" s="328" t="s">
         <v>224</v>
       </c>
-      <c r="E43" s="333"/>
+      <c r="E43" s="329"/>
       <c r="F43" s="214"/>
       <c r="G43" s="214"/>
       <c r="H43" s="214" t="s">
@@ -23113,10 +23149,10 @@
       </c>
       <c r="J43" s="214"/>
       <c r="K43" s="214"/>
-      <c r="L43" s="334"/>
-      <c r="M43" s="334"/>
-      <c r="N43" s="334"/>
-      <c r="O43" s="335"/>
+      <c r="L43" s="330"/>
+      <c r="M43" s="330"/>
+      <c r="N43" s="330"/>
+      <c r="O43" s="331"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23127,10 +23163,10 @@
       <c r="C44" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="332" t="s">
+      <c r="D44" s="328" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="333"/>
+      <c r="E44" s="329"/>
       <c r="F44" s="214"/>
       <c r="G44" s="214"/>
       <c r="H44" s="214" t="s">
@@ -23141,10 +23177,10 @@
       </c>
       <c r="J44" s="214"/>
       <c r="K44" s="214"/>
-      <c r="L44" s="334"/>
-      <c r="M44" s="334"/>
-      <c r="N44" s="334"/>
-      <c r="O44" s="335"/>
+      <c r="L44" s="330"/>
+      <c r="M44" s="330"/>
+      <c r="N44" s="330"/>
+      <c r="O44" s="331"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23155,10 +23191,10 @@
       <c r="C45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="332" t="s">
+      <c r="D45" s="328" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="333"/>
+      <c r="E45" s="329"/>
       <c r="F45" s="214"/>
       <c r="G45" s="214"/>
       <c r="H45" s="214" t="s">
@@ -23171,12 +23207,12 @@
       <c r="K45" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="334" t="s">
+      <c r="L45" s="330" t="s">
         <v>270</v>
       </c>
-      <c r="M45" s="334"/>
-      <c r="N45" s="334"/>
-      <c r="O45" s="335"/>
+      <c r="M45" s="330"/>
+      <c r="N45" s="330"/>
+      <c r="O45" s="331"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23201,28 +23237,28 @@
       </c>
       <c r="J46" s="237"/>
       <c r="K46" s="237"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="334"/>
-      <c r="N46" s="334"/>
-      <c r="O46" s="335"/>
+      <c r="L46" s="330"/>
+      <c r="M46" s="330"/>
+      <c r="N46" s="330"/>
+      <c r="O46" s="331"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="339"/>
-      <c r="E47" s="340"/>
+      <c r="D47" s="332"/>
+      <c r="E47" s="333"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
       <c r="H47" s="215"/>
       <c r="I47" s="31"/>
       <c r="J47" s="215"/>
       <c r="K47" s="215"/>
-      <c r="L47" s="341"/>
-      <c r="M47" s="341"/>
-      <c r="N47" s="341"/>
-      <c r="O47" s="342"/>
+      <c r="L47" s="334"/>
+      <c r="M47" s="334"/>
+      <c r="N47" s="334"/>
+      <c r="O47" s="335"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -23309,10 +23345,10 @@
       <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="328" t="s">
+      <c r="D52" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="329"/>
+      <c r="E52" s="337"/>
       <c r="F52" s="25" t="s">
         <v>31</v>
       </c>
@@ -23331,12 +23367,12 @@
       <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="330" t="s">
+      <c r="L52" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="330"/>
-      <c r="N52" s="330"/>
-      <c r="O52" s="331"/>
+      <c r="M52" s="338"/>
+      <c r="N52" s="338"/>
+      <c r="O52" s="339"/>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23347,10 +23383,10 @@
       <c r="C53" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="328" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="333"/>
+      <c r="E53" s="329"/>
       <c r="F53" s="214"/>
       <c r="G53" s="214"/>
       <c r="H53" s="214" t="s">
@@ -23363,12 +23399,12 @@
       <c r="K53" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="334" t="s">
+      <c r="L53" s="330" t="s">
         <v>329</v>
       </c>
-      <c r="M53" s="334"/>
-      <c r="N53" s="334"/>
-      <c r="O53" s="335"/>
+      <c r="M53" s="330"/>
+      <c r="N53" s="330"/>
+      <c r="O53" s="331"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23493,10 +23529,10 @@
       <c r="C58" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="343" t="s">
+      <c r="D58" s="340" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="344"/>
+      <c r="E58" s="341"/>
       <c r="F58" s="214"/>
       <c r="G58" s="214"/>
       <c r="H58" s="214" t="s">
@@ -23507,12 +23543,12 @@
       </c>
       <c r="J58" s="214"/>
       <c r="K58" s="214"/>
-      <c r="L58" s="345" t="s">
+      <c r="L58" s="342" t="s">
         <v>409</v>
       </c>
-      <c r="M58" s="334"/>
-      <c r="N58" s="334"/>
-      <c r="O58" s="335"/>
+      <c r="M58" s="330"/>
+      <c r="N58" s="330"/>
+      <c r="O58" s="331"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23523,10 +23559,10 @@
       <c r="C59" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="332" t="s">
+      <c r="D59" s="328" t="s">
         <v>228</v>
       </c>
-      <c r="E59" s="333"/>
+      <c r="E59" s="329"/>
       <c r="F59" s="214"/>
       <c r="G59" s="214"/>
       <c r="H59" s="214" t="s">
@@ -23537,10 +23573,10 @@
       </c>
       <c r="J59" s="214"/>
       <c r="K59" s="214"/>
-      <c r="L59" s="334"/>
-      <c r="M59" s="334"/>
-      <c r="N59" s="334"/>
-      <c r="O59" s="335"/>
+      <c r="L59" s="330"/>
+      <c r="M59" s="330"/>
+      <c r="N59" s="330"/>
+      <c r="O59" s="331"/>
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23551,10 +23587,10 @@
       <c r="C60" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D60" s="332" t="s">
+      <c r="D60" s="328" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="333"/>
+      <c r="E60" s="329"/>
       <c r="F60" s="214"/>
       <c r="G60" s="214"/>
       <c r="H60" s="214" t="s">
@@ -23567,30 +23603,30 @@
       <c r="K60" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L60" s="334" t="s">
+      <c r="L60" s="330" t="s">
         <v>270</v>
       </c>
-      <c r="M60" s="334"/>
-      <c r="N60" s="334"/>
-      <c r="O60" s="335"/>
+      <c r="M60" s="330"/>
+      <c r="N60" s="330"/>
+      <c r="O60" s="331"/>
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="339"/>
-      <c r="E61" s="340"/>
+      <c r="D61" s="332"/>
+      <c r="E61" s="333"/>
       <c r="F61" s="215"/>
       <c r="G61" s="215"/>
       <c r="H61" s="215"/>
       <c r="I61" s="31"/>
       <c r="J61" s="215"/>
       <c r="K61" s="215"/>
-      <c r="L61" s="341"/>
-      <c r="M61" s="341"/>
-      <c r="N61" s="341"/>
-      <c r="O61" s="342"/>
+      <c r="L61" s="334"/>
+      <c r="M61" s="334"/>
+      <c r="N61" s="334"/>
+      <c r="O61" s="335"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -23677,10 +23713,10 @@
       <c r="C66" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="328" t="s">
+      <c r="D66" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="329"/>
+      <c r="E66" s="337"/>
       <c r="F66" s="25" t="s">
         <v>31</v>
       </c>
@@ -23699,12 +23735,12 @@
       <c r="K66" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L66" s="330" t="s">
+      <c r="L66" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="330"/>
-      <c r="N66" s="330"/>
-      <c r="O66" s="331"/>
+      <c r="M66" s="338"/>
+      <c r="N66" s="338"/>
+      <c r="O66" s="339"/>
       <c r="P66" s="10"/>
     </row>
     <row r="67" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23715,10 +23751,10 @@
       <c r="C67" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D67" s="332" t="s">
+      <c r="D67" s="328" t="s">
         <v>267</v>
       </c>
-      <c r="E67" s="333"/>
+      <c r="E67" s="329"/>
       <c r="F67" s="214"/>
       <c r="G67" s="214"/>
       <c r="H67" s="214" t="s">
@@ -23731,12 +23767,12 @@
       <c r="K67" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L67" s="334" t="s">
+      <c r="L67" s="330" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="334"/>
-      <c r="N67" s="334"/>
-      <c r="O67" s="335"/>
+      <c r="M67" s="330"/>
+      <c r="N67" s="330"/>
+      <c r="O67" s="331"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23747,10 +23783,10 @@
       <c r="C68" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="332" t="s">
+      <c r="D68" s="328" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="333"/>
+      <c r="E68" s="329"/>
       <c r="F68" s="214"/>
       <c r="G68" s="214"/>
       <c r="H68" s="214" t="s">
@@ -23761,10 +23797,10 @@
       </c>
       <c r="J68" s="214"/>
       <c r="K68" s="214"/>
-      <c r="L68" s="334"/>
-      <c r="M68" s="334"/>
-      <c r="N68" s="334"/>
-      <c r="O68" s="335"/>
+      <c r="L68" s="330"/>
+      <c r="M68" s="330"/>
+      <c r="N68" s="330"/>
+      <c r="O68" s="331"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23775,10 +23811,10 @@
       <c r="C69" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D69" s="332" t="s">
+      <c r="D69" s="328" t="s">
         <v>249</v>
       </c>
-      <c r="E69" s="333"/>
+      <c r="E69" s="329"/>
       <c r="F69" s="214"/>
       <c r="G69" s="214"/>
       <c r="H69" s="214" t="s">
@@ -23789,10 +23825,10 @@
       </c>
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
-      <c r="L69" s="334"/>
-      <c r="M69" s="334"/>
-      <c r="N69" s="334"/>
-      <c r="O69" s="335"/>
+      <c r="L69" s="330"/>
+      <c r="M69" s="330"/>
+      <c r="N69" s="330"/>
+      <c r="O69" s="331"/>
       <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23857,10 +23893,10 @@
       <c r="C72" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D72" s="332" t="s">
+      <c r="D72" s="328" t="s">
         <v>250</v>
       </c>
-      <c r="E72" s="333"/>
+      <c r="E72" s="329"/>
       <c r="F72" s="214"/>
       <c r="G72" s="214"/>
       <c r="H72" s="214"/>
@@ -23871,28 +23907,28 @@
         <v>255</v>
       </c>
       <c r="K72" s="214"/>
-      <c r="L72" s="345"/>
-      <c r="M72" s="334"/>
-      <c r="N72" s="334"/>
-      <c r="O72" s="335"/>
+      <c r="L72" s="342"/>
+      <c r="M72" s="330"/>
+      <c r="N72" s="330"/>
+      <c r="O72" s="331"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="29"/>
       <c r="C73" s="30"/>
-      <c r="D73" s="339"/>
-      <c r="E73" s="340"/>
+      <c r="D73" s="332"/>
+      <c r="E73" s="333"/>
       <c r="F73" s="215"/>
       <c r="G73" s="215"/>
       <c r="H73" s="215"/>
       <c r="I73" s="31"/>
       <c r="J73" s="215"/>
       <c r="K73" s="215"/>
-      <c r="L73" s="341"/>
-      <c r="M73" s="341"/>
-      <c r="N73" s="341"/>
-      <c r="O73" s="342"/>
+      <c r="L73" s="334"/>
+      <c r="M73" s="334"/>
+      <c r="N73" s="334"/>
+      <c r="O73" s="335"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -23979,10 +24015,10 @@
       <c r="C78" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="328" t="s">
+      <c r="D78" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="329"/>
+      <c r="E78" s="337"/>
       <c r="F78" s="25" t="s">
         <v>31</v>
       </c>
@@ -24001,12 +24037,12 @@
       <c r="K78" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="330" t="s">
+      <c r="L78" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M78" s="330"/>
-      <c r="N78" s="330"/>
-      <c r="O78" s="331"/>
+      <c r="M78" s="338"/>
+      <c r="N78" s="338"/>
+      <c r="O78" s="339"/>
       <c r="P78" s="10"/>
     </row>
     <row r="79" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24017,10 +24053,10 @@
       <c r="C79" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="332" t="s">
+      <c r="D79" s="328" t="s">
         <v>218</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="329"/>
       <c r="F79" s="214"/>
       <c r="G79" s="214"/>
       <c r="H79" s="214" t="s">
@@ -24033,12 +24069,12 @@
       <c r="K79" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L79" s="334" t="s">
+      <c r="L79" s="330" t="s">
         <v>329</v>
       </c>
-      <c r="M79" s="334"/>
-      <c r="N79" s="334"/>
-      <c r="O79" s="335"/>
+      <c r="M79" s="330"/>
+      <c r="N79" s="330"/>
+      <c r="O79" s="331"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24049,10 +24085,10 @@
       <c r="C80" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="332" t="s">
+      <c r="D80" s="328" t="s">
         <v>259</v>
       </c>
-      <c r="E80" s="333"/>
+      <c r="E80" s="329"/>
       <c r="F80" s="214"/>
       <c r="G80" s="214"/>
       <c r="H80" s="214" t="s">
@@ -24063,10 +24099,10 @@
       </c>
       <c r="J80" s="214"/>
       <c r="K80" s="214"/>
-      <c r="L80" s="334"/>
-      <c r="M80" s="334"/>
-      <c r="N80" s="334"/>
-      <c r="O80" s="335"/>
+      <c r="L80" s="330"/>
+      <c r="M80" s="330"/>
+      <c r="N80" s="330"/>
+      <c r="O80" s="331"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24077,10 +24113,10 @@
       <c r="C81" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="332" t="s">
+      <c r="D81" s="328" t="s">
         <v>260</v>
       </c>
-      <c r="E81" s="333"/>
+      <c r="E81" s="329"/>
       <c r="F81" s="214"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214" t="s">
@@ -24109,10 +24145,10 @@
       <c r="C82" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D82" s="332" t="s">
+      <c r="D82" s="328" t="s">
         <v>261</v>
       </c>
-      <c r="E82" s="333"/>
+      <c r="E82" s="329"/>
       <c r="F82" s="214"/>
       <c r="G82" s="214"/>
       <c r="H82" s="214" t="s">
@@ -24123,10 +24159,10 @@
       </c>
       <c r="J82" s="214"/>
       <c r="K82" s="241"/>
-      <c r="L82" s="334"/>
-      <c r="M82" s="334"/>
-      <c r="N82" s="334"/>
-      <c r="O82" s="335"/>
+      <c r="L82" s="330"/>
+      <c r="M82" s="330"/>
+      <c r="N82" s="330"/>
+      <c r="O82" s="331"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24137,10 +24173,10 @@
       <c r="C83" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="332" t="s">
+      <c r="D83" s="328" t="s">
         <v>262</v>
       </c>
-      <c r="E83" s="333"/>
+      <c r="E83" s="329"/>
       <c r="F83" s="214"/>
       <c r="G83" s="214"/>
       <c r="H83" s="214" t="s">
@@ -24151,12 +24187,12 @@
       </c>
       <c r="J83" s="214"/>
       <c r="K83" s="241"/>
-      <c r="L83" s="334" t="s">
+      <c r="L83" s="330" t="s">
         <v>360</v>
       </c>
-      <c r="M83" s="334"/>
-      <c r="N83" s="334"/>
-      <c r="O83" s="335"/>
+      <c r="M83" s="330"/>
+      <c r="N83" s="330"/>
+      <c r="O83" s="331"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24167,10 +24203,10 @@
       <c r="C84" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="332" t="s">
+      <c r="D84" s="328" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="333"/>
+      <c r="E84" s="329"/>
       <c r="F84" s="214"/>
       <c r="G84" s="214"/>
       <c r="H84" s="214" t="s">
@@ -24181,12 +24217,12 @@
       </c>
       <c r="J84" s="214"/>
       <c r="K84" s="241"/>
-      <c r="L84" s="334" t="s">
+      <c r="L84" s="330" t="s">
         <v>254</v>
       </c>
-      <c r="M84" s="334"/>
-      <c r="N84" s="334"/>
-      <c r="O84" s="335"/>
+      <c r="M84" s="330"/>
+      <c r="N84" s="330"/>
+      <c r="O84" s="331"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24197,10 +24233,10 @@
       <c r="C85" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D85" s="332" t="s">
+      <c r="D85" s="328" t="s">
         <v>264</v>
       </c>
-      <c r="E85" s="333"/>
+      <c r="E85" s="329"/>
       <c r="F85" s="214"/>
       <c r="G85" s="214"/>
       <c r="H85" s="214" t="s">
@@ -24213,48 +24249,48 @@
       <c r="K85" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L85" s="336" t="s">
+      <c r="L85" s="343" t="s">
         <v>270</v>
       </c>
-      <c r="M85" s="337"/>
-      <c r="N85" s="337"/>
-      <c r="O85" s="338"/>
+      <c r="M85" s="344"/>
+      <c r="N85" s="344"/>
+      <c r="O85" s="345"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="26"/>
       <c r="C86" s="27"/>
-      <c r="D86" s="332"/>
-      <c r="E86" s="333"/>
+      <c r="D86" s="328"/>
+      <c r="E86" s="329"/>
       <c r="F86" s="214"/>
       <c r="G86" s="214"/>
       <c r="H86" s="214"/>
       <c r="I86" s="28"/>
       <c r="J86" s="214"/>
       <c r="K86" s="214"/>
-      <c r="L86" s="334"/>
-      <c r="M86" s="334"/>
-      <c r="N86" s="334"/>
-      <c r="O86" s="335"/>
+      <c r="L86" s="330"/>
+      <c r="M86" s="330"/>
+      <c r="N86" s="330"/>
+      <c r="O86" s="331"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="29"/>
       <c r="C87" s="30"/>
-      <c r="D87" s="339"/>
-      <c r="E87" s="340"/>
+      <c r="D87" s="332"/>
+      <c r="E87" s="333"/>
       <c r="F87" s="215"/>
       <c r="G87" s="215"/>
       <c r="H87" s="215"/>
       <c r="I87" s="31"/>
       <c r="J87" s="215"/>
       <c r="K87" s="215"/>
-      <c r="L87" s="341"/>
-      <c r="M87" s="341"/>
-      <c r="N87" s="341"/>
-      <c r="O87" s="342"/>
+      <c r="L87" s="334"/>
+      <c r="M87" s="334"/>
+      <c r="N87" s="334"/>
+      <c r="O87" s="335"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24341,10 +24377,10 @@
       <c r="C92" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D92" s="328" t="s">
+      <c r="D92" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="329"/>
+      <c r="E92" s="337"/>
       <c r="F92" s="25" t="s">
         <v>31</v>
       </c>
@@ -24363,12 +24399,12 @@
       <c r="K92" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L92" s="330" t="s">
+      <c r="L92" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="330"/>
-      <c r="N92" s="330"/>
-      <c r="O92" s="331"/>
+      <c r="M92" s="338"/>
+      <c r="N92" s="338"/>
+      <c r="O92" s="339"/>
       <c r="P92" s="10"/>
     </row>
     <row r="93" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24379,10 +24415,10 @@
       <c r="C93" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="332" t="s">
+      <c r="D93" s="328" t="s">
         <v>269</v>
       </c>
-      <c r="E93" s="333"/>
+      <c r="E93" s="329"/>
       <c r="F93" s="214"/>
       <c r="G93" s="214"/>
       <c r="H93" s="214" t="s">
@@ -24395,12 +24431,12 @@
       <c r="K93" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L93" s="334" t="s">
+      <c r="L93" s="330" t="s">
         <v>265</v>
       </c>
-      <c r="M93" s="334"/>
-      <c r="N93" s="334"/>
-      <c r="O93" s="335"/>
+      <c r="M93" s="330"/>
+      <c r="N93" s="330"/>
+      <c r="O93" s="331"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24411,10 +24447,10 @@
       <c r="C94" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D94" s="332" t="s">
+      <c r="D94" s="328" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="333"/>
+      <c r="E94" s="329"/>
       <c r="F94" s="214"/>
       <c r="G94" s="214"/>
       <c r="H94" s="214" t="s">
@@ -24427,12 +24463,12 @@
       <c r="K94" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L94" s="336" t="s">
+      <c r="L94" s="343" t="s">
         <v>270</v>
       </c>
-      <c r="M94" s="337"/>
-      <c r="N94" s="337"/>
-      <c r="O94" s="338"/>
+      <c r="M94" s="344"/>
+      <c r="N94" s="344"/>
+      <c r="O94" s="345"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24443,10 +24479,10 @@
       <c r="C95" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D95" s="332" t="s">
+      <c r="D95" s="328" t="s">
         <v>271</v>
       </c>
-      <c r="E95" s="333"/>
+      <c r="E95" s="329"/>
       <c r="F95" s="214"/>
       <c r="G95" s="214"/>
       <c r="H95" s="214" t="s">
@@ -24471,10 +24507,10 @@
       <c r="C96" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D96" s="332" t="s">
+      <c r="D96" s="328" t="s">
         <v>272</v>
       </c>
-      <c r="E96" s="333"/>
+      <c r="E96" s="329"/>
       <c r="F96" s="214"/>
       <c r="G96" s="214"/>
       <c r="H96" s="214" t="s">
@@ -24485,10 +24521,10 @@
       </c>
       <c r="J96" s="214"/>
       <c r="K96" s="241"/>
-      <c r="L96" s="334"/>
-      <c r="M96" s="334"/>
-      <c r="N96" s="334"/>
-      <c r="O96" s="335"/>
+      <c r="L96" s="330"/>
+      <c r="M96" s="330"/>
+      <c r="N96" s="330"/>
+      <c r="O96" s="331"/>
       <c r="P96" s="10"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24499,10 +24535,10 @@
       <c r="C97" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D97" s="332" t="s">
+      <c r="D97" s="328" t="s">
         <v>311</v>
       </c>
-      <c r="E97" s="333"/>
+      <c r="E97" s="329"/>
       <c r="F97" s="214"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214"/>
@@ -24513,10 +24549,10 @@
         <v>255</v>
       </c>
       <c r="K97" s="241"/>
-      <c r="L97" s="334"/>
-      <c r="M97" s="334"/>
-      <c r="N97" s="334"/>
-      <c r="O97" s="335"/>
+      <c r="L97" s="330"/>
+      <c r="M97" s="330"/>
+      <c r="N97" s="330"/>
+      <c r="O97" s="331"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -24531,10 +24567,10 @@
       <c r="I98" s="31"/>
       <c r="J98" s="215"/>
       <c r="K98" s="215"/>
-      <c r="L98" s="341"/>
-      <c r="M98" s="341"/>
-      <c r="N98" s="341"/>
-      <c r="O98" s="342"/>
+      <c r="L98" s="334"/>
+      <c r="M98" s="334"/>
+      <c r="N98" s="334"/>
+      <c r="O98" s="335"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24621,10 +24657,10 @@
       <c r="C103" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="328" t="s">
+      <c r="D103" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="329"/>
+      <c r="E103" s="337"/>
       <c r="F103" s="25" t="s">
         <v>31</v>
       </c>
@@ -24643,12 +24679,12 @@
       <c r="K103" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L103" s="330" t="s">
+      <c r="L103" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M103" s="330"/>
-      <c r="N103" s="330"/>
-      <c r="O103" s="331"/>
+      <c r="M103" s="338"/>
+      <c r="N103" s="338"/>
+      <c r="O103" s="339"/>
       <c r="P103" s="10"/>
     </row>
     <row r="104" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24659,10 +24695,10 @@
       <c r="C104" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D104" s="332" t="s">
+      <c r="D104" s="328" t="s">
         <v>218</v>
       </c>
-      <c r="E104" s="333"/>
+      <c r="E104" s="329"/>
       <c r="F104" s="214"/>
       <c r="G104" s="214"/>
       <c r="H104" s="214" t="s">
@@ -24675,12 +24711,12 @@
       <c r="K104" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L104" s="334" t="s">
+      <c r="L104" s="330" t="s">
         <v>329</v>
       </c>
-      <c r="M104" s="334"/>
-      <c r="N104" s="334"/>
-      <c r="O104" s="335"/>
+      <c r="M104" s="330"/>
+      <c r="N104" s="330"/>
+      <c r="O104" s="331"/>
       <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24691,10 +24727,10 @@
       <c r="C105" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="332" t="s">
+      <c r="D105" s="328" t="s">
         <v>406</v>
       </c>
-      <c r="E105" s="333"/>
+      <c r="E105" s="329"/>
       <c r="F105" s="214"/>
       <c r="G105" s="214"/>
       <c r="H105" s="214" t="s">
@@ -24705,10 +24741,10 @@
       </c>
       <c r="J105" s="214"/>
       <c r="K105" s="214"/>
-      <c r="L105" s="334"/>
-      <c r="M105" s="334"/>
-      <c r="N105" s="334"/>
-      <c r="O105" s="335"/>
+      <c r="L105" s="330"/>
+      <c r="M105" s="330"/>
+      <c r="N105" s="330"/>
+      <c r="O105" s="331"/>
       <c r="P105" s="10"/>
     </row>
     <row r="106" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24733,30 +24769,30 @@
       </c>
       <c r="J106" s="237"/>
       <c r="K106" s="237"/>
-      <c r="L106" s="336" t="s">
+      <c r="L106" s="343" t="s">
         <v>270</v>
       </c>
-      <c r="M106" s="337"/>
-      <c r="N106" s="337"/>
-      <c r="O106" s="338"/>
+      <c r="M106" s="344"/>
+      <c r="N106" s="344"/>
+      <c r="O106" s="345"/>
       <c r="P106" s="10"/>
     </row>
     <row r="107" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="29"/>
       <c r="C107" s="30"/>
-      <c r="D107" s="339"/>
-      <c r="E107" s="340"/>
+      <c r="D107" s="332"/>
+      <c r="E107" s="333"/>
       <c r="F107" s="215"/>
       <c r="G107" s="215"/>
       <c r="H107" s="215"/>
       <c r="I107" s="31"/>
       <c r="J107" s="215"/>
       <c r="K107" s="215"/>
-      <c r="L107" s="341"/>
-      <c r="M107" s="341"/>
-      <c r="N107" s="341"/>
-      <c r="O107" s="342"/>
+      <c r="L107" s="334"/>
+      <c r="M107" s="334"/>
+      <c r="N107" s="334"/>
+      <c r="O107" s="335"/>
       <c r="P107" s="10"/>
     </row>
     <row r="108" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24843,10 +24879,10 @@
       <c r="C112" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="328" t="s">
+      <c r="D112" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="329"/>
+      <c r="E112" s="337"/>
       <c r="F112" s="25" t="s">
         <v>31</v>
       </c>
@@ -24865,12 +24901,12 @@
       <c r="K112" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L112" s="330" t="s">
+      <c r="L112" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M112" s="330"/>
-      <c r="N112" s="330"/>
-      <c r="O112" s="331"/>
+      <c r="M112" s="338"/>
+      <c r="N112" s="338"/>
+      <c r="O112" s="339"/>
       <c r="P112" s="10"/>
     </row>
     <row r="113" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24881,10 +24917,10 @@
       <c r="C113" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="332" t="s">
+      <c r="D113" s="328" t="s">
         <v>269</v>
       </c>
-      <c r="E113" s="333"/>
+      <c r="E113" s="329"/>
       <c r="F113" s="214"/>
       <c r="G113" s="214"/>
       <c r="H113" s="214" t="s">
@@ -24897,12 +24933,12 @@
       <c r="K113" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L113" s="334" t="s">
+      <c r="L113" s="330" t="s">
         <v>265</v>
       </c>
-      <c r="M113" s="334"/>
-      <c r="N113" s="334"/>
-      <c r="O113" s="335"/>
+      <c r="M113" s="330"/>
+      <c r="N113" s="330"/>
+      <c r="O113" s="331"/>
       <c r="P113" s="10"/>
     </row>
     <row r="114" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24913,10 +24949,10 @@
       <c r="C114" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="D114" s="332" t="s">
+      <c r="D114" s="328" t="s">
         <v>245</v>
       </c>
-      <c r="E114" s="333"/>
+      <c r="E114" s="329"/>
       <c r="F114" s="214"/>
       <c r="G114" s="214"/>
       <c r="H114" s="214" t="s">
@@ -24927,12 +24963,12 @@
       </c>
       <c r="J114" s="214"/>
       <c r="K114" s="214"/>
-      <c r="L114" s="334" t="s">
+      <c r="L114" s="330" t="s">
         <v>346</v>
       </c>
-      <c r="M114" s="334"/>
-      <c r="N114" s="334"/>
-      <c r="O114" s="335"/>
+      <c r="M114" s="330"/>
+      <c r="N114" s="330"/>
+      <c r="O114" s="331"/>
       <c r="P114" s="10"/>
     </row>
     <row r="115" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24967,18 +25003,18 @@
       <c r="A116" s="9"/>
       <c r="B116" s="29"/>
       <c r="C116" s="30"/>
-      <c r="D116" s="339"/>
-      <c r="E116" s="340"/>
+      <c r="D116" s="332"/>
+      <c r="E116" s="333"/>
       <c r="F116" s="215"/>
       <c r="G116" s="215"/>
       <c r="H116" s="215"/>
       <c r="I116" s="31"/>
       <c r="J116" s="215"/>
       <c r="K116" s="215"/>
-      <c r="L116" s="341"/>
-      <c r="M116" s="341"/>
-      <c r="N116" s="341"/>
-      <c r="O116" s="342"/>
+      <c r="L116" s="334"/>
+      <c r="M116" s="334"/>
+      <c r="N116" s="334"/>
+      <c r="O116" s="335"/>
       <c r="P116" s="10"/>
     </row>
     <row r="117" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25047,10 +25083,10 @@
       <c r="C120" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="328" t="s">
+      <c r="D120" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E120" s="329"/>
+      <c r="E120" s="337"/>
       <c r="F120" s="25" t="s">
         <v>31</v>
       </c>
@@ -25069,12 +25105,12 @@
       <c r="K120" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L120" s="330" t="s">
+      <c r="L120" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M120" s="330"/>
-      <c r="N120" s="330"/>
-      <c r="O120" s="331"/>
+      <c r="M120" s="338"/>
+      <c r="N120" s="338"/>
+      <c r="O120" s="339"/>
       <c r="P120" s="10"/>
     </row>
     <row r="121" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25085,10 +25121,10 @@
       <c r="C121" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D121" s="332" t="s">
+      <c r="D121" s="328" t="s">
         <v>302</v>
       </c>
-      <c r="E121" s="333"/>
+      <c r="E121" s="329"/>
       <c r="F121" s="214" t="s">
         <v>191</v>
       </c>
@@ -25103,10 +25139,10 @@
         <v>128</v>
       </c>
       <c r="K121" s="214"/>
-      <c r="L121" s="336"/>
-      <c r="M121" s="337"/>
-      <c r="N121" s="337"/>
-      <c r="O121" s="338"/>
+      <c r="L121" s="343"/>
+      <c r="M121" s="344"/>
+      <c r="N121" s="344"/>
+      <c r="O121" s="345"/>
       <c r="P121" s="10"/>
     </row>
     <row r="122" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25117,10 +25153,10 @@
       <c r="C122" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D122" s="332" t="s">
+      <c r="D122" s="328" t="s">
         <v>185</v>
       </c>
-      <c r="E122" s="333"/>
+      <c r="E122" s="329"/>
       <c r="F122" s="214"/>
       <c r="G122" s="214"/>
       <c r="H122" s="214" t="s">
@@ -25135,10 +25171,10 @@
       <c r="K122" s="214">
         <v>128</v>
       </c>
-      <c r="L122" s="334"/>
-      <c r="M122" s="334"/>
-      <c r="N122" s="334"/>
-      <c r="O122" s="335"/>
+      <c r="L122" s="330"/>
+      <c r="M122" s="330"/>
+      <c r="N122" s="330"/>
+      <c r="O122" s="331"/>
       <c r="P122" s="10"/>
     </row>
     <row r="123" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25211,10 +25247,10 @@
       <c r="C125" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D125" s="332" t="s">
+      <c r="D125" s="328" t="s">
         <v>218</v>
       </c>
-      <c r="E125" s="333"/>
+      <c r="E125" s="329"/>
       <c r="F125" s="214"/>
       <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
@@ -25227,12 +25263,12 @@
       <c r="K125" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L125" s="334" t="s">
+      <c r="L125" s="330" t="s">
         <v>329</v>
       </c>
-      <c r="M125" s="334"/>
-      <c r="N125" s="334"/>
-      <c r="O125" s="335"/>
+      <c r="M125" s="330"/>
+      <c r="N125" s="330"/>
+      <c r="O125" s="331"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25267,18 +25303,18 @@
       <c r="A127" s="9"/>
       <c r="B127" s="29"/>
       <c r="C127" s="30"/>
-      <c r="D127" s="339"/>
-      <c r="E127" s="340"/>
+      <c r="D127" s="332"/>
+      <c r="E127" s="333"/>
       <c r="F127" s="215"/>
       <c r="G127" s="215"/>
       <c r="H127" s="215"/>
       <c r="I127" s="31"/>
       <c r="J127" s="215"/>
       <c r="K127" s="215"/>
-      <c r="L127" s="341"/>
-      <c r="M127" s="341"/>
-      <c r="N127" s="341"/>
-      <c r="O127" s="342"/>
+      <c r="L127" s="334"/>
+      <c r="M127" s="334"/>
+      <c r="N127" s="334"/>
+      <c r="O127" s="335"/>
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25365,10 +25401,10 @@
       <c r="C132" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D132" s="328" t="s">
+      <c r="D132" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="329"/>
+      <c r="E132" s="337"/>
       <c r="F132" s="25" t="s">
         <v>31</v>
       </c>
@@ -25387,12 +25423,12 @@
       <c r="K132" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L132" s="330" t="s">
+      <c r="L132" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M132" s="330"/>
-      <c r="N132" s="330"/>
-      <c r="O132" s="331"/>
+      <c r="M132" s="338"/>
+      <c r="N132" s="338"/>
+      <c r="O132" s="339"/>
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
@@ -25403,10 +25439,10 @@
       <c r="C133" s="233" t="s">
         <v>291</v>
       </c>
-      <c r="D133" s="343" t="s">
+      <c r="D133" s="340" t="s">
         <v>299</v>
       </c>
-      <c r="E133" s="344"/>
+      <c r="E133" s="341"/>
       <c r="F133" s="214" t="s">
         <v>191</v>
       </c>
@@ -25437,10 +25473,10 @@
       <c r="C134" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D134" s="332" t="s">
+      <c r="D134" s="328" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="333"/>
+      <c r="E134" s="329"/>
       <c r="F134" s="214"/>
       <c r="G134" s="214"/>
       <c r="H134" s="214"/>
@@ -25465,10 +25501,10 @@
       <c r="C135" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="332" t="s">
+      <c r="D135" s="328" t="s">
         <v>301</v>
       </c>
-      <c r="E135" s="333"/>
+      <c r="E135" s="329"/>
       <c r="F135" s="214"/>
       <c r="G135" s="214"/>
       <c r="H135" s="214" t="s">
@@ -25495,10 +25531,10 @@
       <c r="C136" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D136" s="332" t="s">
+      <c r="D136" s="328" t="s">
         <v>303</v>
       </c>
-      <c r="E136" s="333"/>
+      <c r="E136" s="329"/>
       <c r="F136" s="214"/>
       <c r="G136" s="214"/>
       <c r="H136" s="214"/>
@@ -25521,10 +25557,10 @@
       <c r="C137" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="332" t="s">
+      <c r="D137" s="328" t="s">
         <v>304</v>
       </c>
-      <c r="E137" s="333"/>
+      <c r="E137" s="329"/>
       <c r="F137" s="214"/>
       <c r="G137" s="214"/>
       <c r="H137" s="214"/>
@@ -25549,10 +25585,10 @@
       <c r="C138" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D138" s="332" t="s">
+      <c r="D138" s="328" t="s">
         <v>304</v>
       </c>
-      <c r="E138" s="333"/>
+      <c r="E138" s="329"/>
       <c r="F138" s="214"/>
       <c r="G138" s="214"/>
       <c r="H138" s="214"/>
@@ -25577,10 +25613,10 @@
       <c r="C139" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D139" s="332" t="s">
+      <c r="D139" s="328" t="s">
         <v>304</v>
       </c>
-      <c r="E139" s="333"/>
+      <c r="E139" s="329"/>
       <c r="F139" s="214"/>
       <c r="G139" s="214"/>
       <c r="H139" s="214"/>
@@ -25605,10 +25641,10 @@
       <c r="C140" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D140" s="332" t="s">
+      <c r="D140" s="328" t="s">
         <v>305</v>
       </c>
-      <c r="E140" s="333"/>
+      <c r="E140" s="329"/>
       <c r="F140" s="214"/>
       <c r="G140" s="214"/>
       <c r="H140" s="214"/>
@@ -25635,10 +25671,10 @@
       <c r="C141" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D141" s="332" t="s">
+      <c r="D141" s="328" t="s">
         <v>306</v>
       </c>
-      <c r="E141" s="333"/>
+      <c r="E141" s="329"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
@@ -25691,10 +25727,10 @@
       <c r="C143" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D143" s="332" t="s">
+      <c r="D143" s="328" t="s">
         <v>307</v>
       </c>
-      <c r="E143" s="333"/>
+      <c r="E143" s="329"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
@@ -25719,10 +25755,10 @@
       <c r="C144" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D144" s="332" t="s">
+      <c r="D144" s="328" t="s">
         <v>309</v>
       </c>
-      <c r="E144" s="333"/>
+      <c r="E144" s="329"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
@@ -25747,10 +25783,10 @@
       <c r="C145" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D145" s="332" t="s">
+      <c r="D145" s="328" t="s">
         <v>308</v>
       </c>
-      <c r="E145" s="333"/>
+      <c r="E145" s="329"/>
       <c r="F145" s="214"/>
       <c r="G145" s="214"/>
       <c r="H145" s="214"/>
@@ -25775,10 +25811,10 @@
       <c r="C146" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="D146" s="332" t="s">
+      <c r="D146" s="328" t="s">
         <v>310</v>
       </c>
-      <c r="E146" s="333"/>
+      <c r="E146" s="329"/>
       <c r="F146" s="237"/>
       <c r="G146" s="237"/>
       <c r="H146" s="237"/>
@@ -25799,8 +25835,8 @@
       <c r="A147" s="9"/>
       <c r="B147" s="29"/>
       <c r="C147" s="30"/>
-      <c r="D147" s="339"/>
-      <c r="E147" s="340"/>
+      <c r="D147" s="332"/>
+      <c r="E147" s="333"/>
       <c r="F147" s="215"/>
       <c r="G147" s="215"/>
       <c r="H147" s="215"/>
@@ -25915,10 +25951,10 @@
       <c r="C153" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D153" s="328" t="s">
+      <c r="D153" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="329"/>
+      <c r="E153" s="337"/>
       <c r="F153" s="25" t="s">
         <v>31</v>
       </c>
@@ -25937,12 +25973,12 @@
       <c r="K153" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L153" s="330" t="s">
+      <c r="L153" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M153" s="330"/>
-      <c r="N153" s="330"/>
-      <c r="O153" s="331"/>
+      <c r="M153" s="338"/>
+      <c r="N153" s="338"/>
+      <c r="O153" s="339"/>
       <c r="P153" s="10"/>
     </row>
     <row r="154" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25953,10 +25989,10 @@
       <c r="C154" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D154" s="332" t="s">
+      <c r="D154" s="328" t="s">
         <v>315</v>
       </c>
-      <c r="E154" s="333"/>
+      <c r="E154" s="329"/>
       <c r="F154" s="214"/>
       <c r="G154" s="214"/>
       <c r="H154" s="214" t="s">
@@ -25969,10 +26005,10 @@
         <v>255</v>
       </c>
       <c r="K154" s="214"/>
-      <c r="L154" s="334"/>
-      <c r="M154" s="334"/>
-      <c r="N154" s="334"/>
-      <c r="O154" s="335"/>
+      <c r="L154" s="330"/>
+      <c r="M154" s="330"/>
+      <c r="N154" s="330"/>
+      <c r="O154" s="331"/>
       <c r="P154" s="10"/>
     </row>
     <row r="155" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25983,10 +26019,10 @@
       <c r="C155" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D155" s="332" t="s">
+      <c r="D155" s="328" t="s">
         <v>316</v>
       </c>
-      <c r="E155" s="333"/>
+      <c r="E155" s="329"/>
       <c r="F155" s="214"/>
       <c r="G155" s="214"/>
       <c r="H155" s="214"/>
@@ -25997,10 +26033,10 @@
         <v>255</v>
       </c>
       <c r="K155" s="214"/>
-      <c r="L155" s="334"/>
-      <c r="M155" s="334"/>
-      <c r="N155" s="334"/>
-      <c r="O155" s="335"/>
+      <c r="L155" s="330"/>
+      <c r="M155" s="330"/>
+      <c r="N155" s="330"/>
+      <c r="O155" s="331"/>
       <c r="P155" s="10"/>
     </row>
     <row r="156" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26025,10 +26061,10 @@
         <v>255</v>
       </c>
       <c r="K156" s="214"/>
-      <c r="L156" s="334"/>
-      <c r="M156" s="334"/>
-      <c r="N156" s="334"/>
-      <c r="O156" s="335"/>
+      <c r="L156" s="330"/>
+      <c r="M156" s="330"/>
+      <c r="N156" s="330"/>
+      <c r="O156" s="331"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26039,10 +26075,10 @@
       <c r="C157" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D157" s="332" t="s">
+      <c r="D157" s="328" t="s">
         <v>317</v>
       </c>
-      <c r="E157" s="333"/>
+      <c r="E157" s="329"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
       <c r="H157" s="214" t="s">
@@ -26053,12 +26089,12 @@
       </c>
       <c r="J157" s="214"/>
       <c r="K157" s="214"/>
-      <c r="L157" s="334" t="s">
+      <c r="L157" s="330" t="s">
         <v>347</v>
       </c>
-      <c r="M157" s="334"/>
-      <c r="N157" s="334"/>
-      <c r="O157" s="335"/>
+      <c r="M157" s="330"/>
+      <c r="N157" s="330"/>
+      <c r="O157" s="331"/>
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26069,10 +26105,10 @@
       <c r="C158" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D158" s="332" t="s">
+      <c r="D158" s="328" t="s">
         <v>319</v>
       </c>
-      <c r="E158" s="333"/>
+      <c r="E158" s="329"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
       <c r="H158" s="214" t="s">
@@ -26085,30 +26121,30 @@
       <c r="K158" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L158" s="334" t="s">
+      <c r="L158" s="330" t="s">
         <v>270</v>
       </c>
-      <c r="M158" s="334"/>
-      <c r="N158" s="334"/>
-      <c r="O158" s="335"/>
+      <c r="M158" s="330"/>
+      <c r="N158" s="330"/>
+      <c r="O158" s="331"/>
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="9"/>
       <c r="B159" s="29"/>
       <c r="C159" s="30"/>
-      <c r="D159" s="339"/>
-      <c r="E159" s="340"/>
+      <c r="D159" s="332"/>
+      <c r="E159" s="333"/>
       <c r="F159" s="215"/>
       <c r="G159" s="215"/>
       <c r="H159" s="215"/>
       <c r="I159" s="31"/>
       <c r="J159" s="215"/>
       <c r="K159" s="215"/>
-      <c r="L159" s="341"/>
-      <c r="M159" s="341"/>
-      <c r="N159" s="341"/>
-      <c r="O159" s="342"/>
+      <c r="L159" s="334"/>
+      <c r="M159" s="334"/>
+      <c r="N159" s="334"/>
+      <c r="O159" s="335"/>
       <c r="P159" s="10"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
@@ -26195,10 +26231,10 @@
       <c r="C164" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="328" t="s">
+      <c r="D164" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E164" s="329"/>
+      <c r="E164" s="337"/>
       <c r="F164" s="25" t="s">
         <v>31</v>
       </c>
@@ -26217,12 +26253,12 @@
       <c r="K164" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L164" s="330" t="s">
+      <c r="L164" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M164" s="330"/>
-      <c r="N164" s="330"/>
-      <c r="O164" s="331"/>
+      <c r="M164" s="338"/>
+      <c r="N164" s="338"/>
+      <c r="O164" s="339"/>
       <c r="P164" s="10"/>
     </row>
     <row r="165" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26233,10 +26269,10 @@
       <c r="C165" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D165" s="332" t="s">
+      <c r="D165" s="328" t="s">
         <v>320</v>
       </c>
-      <c r="E165" s="333"/>
+      <c r="E165" s="329"/>
       <c r="F165" s="214"/>
       <c r="G165" s="214"/>
       <c r="H165" s="214" t="s">
@@ -26249,10 +26285,10 @@
         <v>255</v>
       </c>
       <c r="K165" s="214"/>
-      <c r="L165" s="334"/>
-      <c r="M165" s="334"/>
-      <c r="N165" s="334"/>
-      <c r="O165" s="335"/>
+      <c r="L165" s="330"/>
+      <c r="M165" s="330"/>
+      <c r="N165" s="330"/>
+      <c r="O165" s="331"/>
       <c r="P165" s="10"/>
     </row>
     <row r="166" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26263,10 +26299,10 @@
       <c r="C166" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D166" s="332" t="s">
+      <c r="D166" s="328" t="s">
         <v>321</v>
       </c>
-      <c r="E166" s="333"/>
+      <c r="E166" s="329"/>
       <c r="F166" s="214"/>
       <c r="G166" s="214"/>
       <c r="H166" s="214"/>
@@ -26277,10 +26313,10 @@
         <v>255</v>
       </c>
       <c r="K166" s="214"/>
-      <c r="L166" s="334"/>
-      <c r="M166" s="334"/>
-      <c r="N166" s="334"/>
-      <c r="O166" s="335"/>
+      <c r="L166" s="330"/>
+      <c r="M166" s="330"/>
+      <c r="N166" s="330"/>
+      <c r="O166" s="331"/>
       <c r="P166" s="10"/>
     </row>
     <row r="167" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26305,30 +26341,30 @@
       <c r="K167" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L167" s="334" t="s">
+      <c r="L167" s="330" t="s">
         <v>323</v>
       </c>
-      <c r="M167" s="334"/>
-      <c r="N167" s="334"/>
-      <c r="O167" s="335"/>
+      <c r="M167" s="330"/>
+      <c r="N167" s="330"/>
+      <c r="O167" s="331"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="29"/>
       <c r="C168" s="30"/>
-      <c r="D168" s="339"/>
-      <c r="E168" s="340"/>
+      <c r="D168" s="332"/>
+      <c r="E168" s="333"/>
       <c r="F168" s="215"/>
       <c r="G168" s="215"/>
       <c r="H168" s="215"/>
       <c r="I168" s="31"/>
       <c r="J168" s="215"/>
       <c r="K168" s="215"/>
-      <c r="L168" s="341"/>
-      <c r="M168" s="341"/>
-      <c r="N168" s="341"/>
-      <c r="O168" s="342"/>
+      <c r="L168" s="334"/>
+      <c r="M168" s="334"/>
+      <c r="N168" s="334"/>
+      <c r="O168" s="335"/>
       <c r="P168" s="10"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
@@ -26415,10 +26451,10 @@
       <c r="C173" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="328" t="s">
+      <c r="D173" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E173" s="329"/>
+      <c r="E173" s="337"/>
       <c r="F173" s="25" t="s">
         <v>31</v>
       </c>
@@ -26437,12 +26473,12 @@
       <c r="K173" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L173" s="330" t="s">
+      <c r="L173" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M173" s="330"/>
-      <c r="N173" s="330"/>
-      <c r="O173" s="331"/>
+      <c r="M173" s="338"/>
+      <c r="N173" s="338"/>
+      <c r="O173" s="339"/>
       <c r="P173" s="10"/>
     </row>
     <row r="174" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26453,10 +26489,10 @@
       <c r="C174" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="332" t="s">
+      <c r="D174" s="328" t="s">
         <v>320</v>
       </c>
-      <c r="E174" s="333"/>
+      <c r="E174" s="329"/>
       <c r="F174" s="214"/>
       <c r="G174" s="214"/>
       <c r="H174" s="214" t="s">
@@ -26469,10 +26505,10 @@
         <v>255</v>
       </c>
       <c r="K174" s="214"/>
-      <c r="L174" s="334"/>
-      <c r="M174" s="334"/>
-      <c r="N174" s="334"/>
-      <c r="O174" s="335"/>
+      <c r="L174" s="330"/>
+      <c r="M174" s="330"/>
+      <c r="N174" s="330"/>
+      <c r="O174" s="331"/>
       <c r="P174" s="10"/>
     </row>
     <row r="175" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26483,10 +26519,10 @@
       <c r="C175" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D175" s="332" t="s">
+      <c r="D175" s="328" t="s">
         <v>321</v>
       </c>
-      <c r="E175" s="333"/>
+      <c r="E175" s="329"/>
       <c r="F175" s="214"/>
       <c r="G175" s="214"/>
       <c r="H175" s="214"/>
@@ -26497,10 +26533,10 @@
         <v>255</v>
       </c>
       <c r="K175" s="214"/>
-      <c r="L175" s="334"/>
-      <c r="M175" s="334"/>
-      <c r="N175" s="334"/>
-      <c r="O175" s="335"/>
+      <c r="L175" s="330"/>
+      <c r="M175" s="330"/>
+      <c r="N175" s="330"/>
+      <c r="O175" s="331"/>
       <c r="P175" s="10"/>
     </row>
     <row r="176" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26525,30 +26561,30 @@
       <c r="K176" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L176" s="334" t="s">
+      <c r="L176" s="330" t="s">
         <v>268</v>
       </c>
-      <c r="M176" s="334"/>
-      <c r="N176" s="334"/>
-      <c r="O176" s="335"/>
+      <c r="M176" s="330"/>
+      <c r="N176" s="330"/>
+      <c r="O176" s="331"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="29"/>
       <c r="C177" s="30"/>
-      <c r="D177" s="339"/>
-      <c r="E177" s="340"/>
+      <c r="D177" s="332"/>
+      <c r="E177" s="333"/>
       <c r="F177" s="215"/>
       <c r="G177" s="215"/>
       <c r="H177" s="215"/>
       <c r="I177" s="31"/>
       <c r="J177" s="215"/>
       <c r="K177" s="215"/>
-      <c r="L177" s="341"/>
-      <c r="M177" s="341"/>
-      <c r="N177" s="341"/>
-      <c r="O177" s="342"/>
+      <c r="L177" s="334"/>
+      <c r="M177" s="334"/>
+      <c r="N177" s="334"/>
+      <c r="O177" s="335"/>
       <c r="P177" s="10"/>
     </row>
     <row r="178" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26635,10 +26671,10 @@
       <c r="C182" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D182" s="328" t="s">
+      <c r="D182" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E182" s="329"/>
+      <c r="E182" s="337"/>
       <c r="F182" s="25" t="s">
         <v>31</v>
       </c>
@@ -26657,12 +26693,12 @@
       <c r="K182" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L182" s="330" t="s">
+      <c r="L182" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M182" s="330"/>
-      <c r="N182" s="330"/>
-      <c r="O182" s="331"/>
+      <c r="M182" s="338"/>
+      <c r="N182" s="338"/>
+      <c r="O182" s="339"/>
       <c r="P182" s="10"/>
     </row>
     <row r="183" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26673,10 +26709,10 @@
       <c r="C183" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D183" s="332" t="s">
+      <c r="D183" s="328" t="s">
         <v>328</v>
       </c>
-      <c r="E183" s="333"/>
+      <c r="E183" s="329"/>
       <c r="F183" s="214"/>
       <c r="G183" s="214"/>
       <c r="H183" s="214" t="s">
@@ -26689,10 +26725,10 @@
         <v>255</v>
       </c>
       <c r="K183" s="214"/>
-      <c r="L183" s="334"/>
-      <c r="M183" s="334"/>
-      <c r="N183" s="334"/>
-      <c r="O183" s="335"/>
+      <c r="L183" s="330"/>
+      <c r="M183" s="330"/>
+      <c r="N183" s="330"/>
+      <c r="O183" s="331"/>
       <c r="P183" s="10"/>
     </row>
     <row r="184" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26703,10 +26739,10 @@
       <c r="C184" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D184" s="332" t="s">
+      <c r="D184" s="328" t="s">
         <v>411</v>
       </c>
-      <c r="E184" s="333"/>
+      <c r="E184" s="329"/>
       <c r="F184" s="214"/>
       <c r="G184" s="214"/>
       <c r="H184" s="214"/>
@@ -26717,28 +26753,28 @@
         <v>255</v>
       </c>
       <c r="K184" s="214"/>
-      <c r="L184" s="334"/>
-      <c r="M184" s="334"/>
-      <c r="N184" s="334"/>
-      <c r="O184" s="335"/>
+      <c r="L184" s="330"/>
+      <c r="M184" s="330"/>
+      <c r="N184" s="330"/>
+      <c r="O184" s="331"/>
       <c r="P184" s="10"/>
     </row>
     <row r="185" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="9"/>
       <c r="B185" s="29"/>
       <c r="C185" s="30"/>
-      <c r="D185" s="339"/>
-      <c r="E185" s="340"/>
+      <c r="D185" s="332"/>
+      <c r="E185" s="333"/>
       <c r="F185" s="215"/>
       <c r="G185" s="215"/>
       <c r="H185" s="215"/>
       <c r="I185" s="31"/>
       <c r="J185" s="215"/>
       <c r="K185" s="215"/>
-      <c r="L185" s="341"/>
-      <c r="M185" s="341"/>
-      <c r="N185" s="341"/>
-      <c r="O185" s="342"/>
+      <c r="L185" s="334"/>
+      <c r="M185" s="334"/>
+      <c r="N185" s="334"/>
+      <c r="O185" s="335"/>
       <c r="P185" s="10"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
@@ -26843,10 +26879,10 @@
       <c r="C191" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D191" s="328" t="s">
+      <c r="D191" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="329"/>
+      <c r="E191" s="337"/>
       <c r="F191" s="25" t="s">
         <v>31</v>
       </c>
@@ -26865,12 +26901,12 @@
       <c r="K191" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L191" s="330" t="s">
+      <c r="L191" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M191" s="330"/>
-      <c r="N191" s="330"/>
-      <c r="O191" s="331"/>
+      <c r="M191" s="338"/>
+      <c r="N191" s="338"/>
+      <c r="O191" s="339"/>
       <c r="P191" s="10"/>
     </row>
     <row r="192" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26881,10 +26917,10 @@
       <c r="C192" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D192" s="332" t="s">
+      <c r="D192" s="328" t="s">
         <v>340</v>
       </c>
-      <c r="E192" s="333"/>
+      <c r="E192" s="329"/>
       <c r="F192" s="214"/>
       <c r="G192" s="214"/>
       <c r="H192" s="214" t="s">
@@ -26897,10 +26933,10 @@
         <v>255</v>
       </c>
       <c r="K192" s="214"/>
-      <c r="L192" s="334"/>
-      <c r="M192" s="334"/>
-      <c r="N192" s="334"/>
-      <c r="O192" s="335"/>
+      <c r="L192" s="330"/>
+      <c r="M192" s="330"/>
+      <c r="N192" s="330"/>
+      <c r="O192" s="331"/>
       <c r="P192" s="10"/>
     </row>
     <row r="193" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26911,10 +26947,10 @@
       <c r="C193" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D193" s="332" t="s">
+      <c r="D193" s="328" t="s">
         <v>341</v>
       </c>
-      <c r="E193" s="333"/>
+      <c r="E193" s="329"/>
       <c r="F193" s="214"/>
       <c r="G193" s="214"/>
       <c r="H193" s="214" t="s">
@@ -26925,12 +26961,12 @@
       </c>
       <c r="J193" s="214"/>
       <c r="K193" s="214"/>
-      <c r="L193" s="334" t="s">
+      <c r="L193" s="330" t="s">
         <v>342</v>
       </c>
-      <c r="M193" s="334"/>
-      <c r="N193" s="334"/>
-      <c r="O193" s="335"/>
+      <c r="M193" s="330"/>
+      <c r="N193" s="330"/>
+      <c r="O193" s="331"/>
       <c r="P193" s="10"/>
     </row>
     <row r="194" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -26955,10 +26991,10 @@
         <v>255</v>
       </c>
       <c r="K194" s="215"/>
-      <c r="L194" s="341"/>
-      <c r="M194" s="341"/>
-      <c r="N194" s="341"/>
-      <c r="O194" s="342"/>
+      <c r="L194" s="334"/>
+      <c r="M194" s="334"/>
+      <c r="N194" s="334"/>
+      <c r="O194" s="335"/>
       <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
@@ -27045,10 +27081,10 @@
       <c r="C199" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D199" s="328" t="s">
+      <c r="D199" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E199" s="329"/>
+      <c r="E199" s="337"/>
       <c r="F199" s="25" t="s">
         <v>31</v>
       </c>
@@ -27067,12 +27103,12 @@
       <c r="K199" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L199" s="330" t="s">
+      <c r="L199" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M199" s="330"/>
-      <c r="N199" s="330"/>
-      <c r="O199" s="331"/>
+      <c r="M199" s="338"/>
+      <c r="N199" s="338"/>
+      <c r="O199" s="339"/>
       <c r="P199" s="10"/>
     </row>
     <row r="200" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27083,10 +27119,10 @@
       <c r="C200" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D200" s="332" t="s">
+      <c r="D200" s="328" t="s">
         <v>412</v>
       </c>
-      <c r="E200" s="333"/>
+      <c r="E200" s="329"/>
       <c r="F200" s="214"/>
       <c r="G200" s="214"/>
       <c r="H200" s="214" t="s">
@@ -27099,12 +27135,12 @@
         <v>255</v>
       </c>
       <c r="K200" s="214"/>
-      <c r="L200" s="334" t="s">
+      <c r="L200" s="330" t="s">
         <v>364</v>
       </c>
-      <c r="M200" s="334"/>
-      <c r="N200" s="334"/>
-      <c r="O200" s="335"/>
+      <c r="M200" s="330"/>
+      <c r="N200" s="330"/>
+      <c r="O200" s="331"/>
       <c r="P200" s="10"/>
     </row>
     <row r="201" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27115,10 +27151,10 @@
       <c r="C201" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="D201" s="332" t="s">
+      <c r="D201" s="328" t="s">
         <v>341</v>
       </c>
-      <c r="E201" s="333"/>
+      <c r="E201" s="329"/>
       <c r="F201" s="214"/>
       <c r="G201" s="214"/>
       <c r="H201" s="214" t="s">
@@ -27129,10 +27165,10 @@
       </c>
       <c r="J201" s="214"/>
       <c r="K201" s="214"/>
-      <c r="L201" s="334"/>
-      <c r="M201" s="334"/>
-      <c r="N201" s="334"/>
-      <c r="O201" s="335"/>
+      <c r="L201" s="330"/>
+      <c r="M201" s="330"/>
+      <c r="N201" s="330"/>
+      <c r="O201" s="331"/>
       <c r="P201" s="10"/>
     </row>
     <row r="202" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27157,28 +27193,28 @@
         <v>255</v>
       </c>
       <c r="K202" s="237"/>
-      <c r="L202" s="334"/>
-      <c r="M202" s="334"/>
-      <c r="N202" s="334"/>
-      <c r="O202" s="335"/>
+      <c r="L202" s="330"/>
+      <c r="M202" s="330"/>
+      <c r="N202" s="330"/>
+      <c r="O202" s="331"/>
       <c r="P202" s="10"/>
     </row>
     <row r="203" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9"/>
       <c r="B203" s="29"/>
       <c r="C203" s="30"/>
-      <c r="D203" s="339"/>
-      <c r="E203" s="340"/>
+      <c r="D203" s="332"/>
+      <c r="E203" s="333"/>
       <c r="F203" s="215"/>
       <c r="G203" s="215"/>
       <c r="H203" s="215"/>
       <c r="I203" s="31"/>
       <c r="J203" s="215"/>
       <c r="K203" s="215"/>
-      <c r="L203" s="341"/>
-      <c r="M203" s="341"/>
-      <c r="N203" s="341"/>
-      <c r="O203" s="342"/>
+      <c r="L203" s="334"/>
+      <c r="M203" s="334"/>
+      <c r="N203" s="334"/>
+      <c r="O203" s="335"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
@@ -27265,10 +27301,10 @@
       <c r="C208" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D208" s="328" t="s">
+      <c r="D208" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E208" s="329"/>
+      <c r="E208" s="337"/>
       <c r="F208" s="25" t="s">
         <v>31</v>
       </c>
@@ -27287,12 +27323,12 @@
       <c r="K208" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L208" s="330" t="s">
+      <c r="L208" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M208" s="330"/>
-      <c r="N208" s="330"/>
-      <c r="O208" s="331"/>
+      <c r="M208" s="338"/>
+      <c r="N208" s="338"/>
+      <c r="O208" s="339"/>
       <c r="P208" s="10"/>
     </row>
     <row r="209" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27303,10 +27339,10 @@
       <c r="C209" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D209" s="332" t="s">
+      <c r="D209" s="328" t="s">
         <v>414</v>
       </c>
-      <c r="E209" s="333"/>
+      <c r="E209" s="329"/>
       <c r="F209" s="214"/>
       <c r="G209" s="214"/>
       <c r="H209" s="214" t="s">
@@ -27319,12 +27355,12 @@
         <v>255</v>
       </c>
       <c r="K209" s="214"/>
-      <c r="L209" s="334" t="s">
+      <c r="L209" s="330" t="s">
         <v>349</v>
       </c>
-      <c r="M209" s="334"/>
-      <c r="N209" s="334"/>
-      <c r="O209" s="335"/>
+      <c r="M209" s="330"/>
+      <c r="N209" s="330"/>
+      <c r="O209" s="331"/>
       <c r="P209" s="10"/>
     </row>
     <row r="210" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27349,28 +27385,28 @@
         <v>255</v>
       </c>
       <c r="K210" s="237"/>
-      <c r="L210" s="334"/>
-      <c r="M210" s="334"/>
-      <c r="N210" s="334"/>
-      <c r="O210" s="335"/>
+      <c r="L210" s="330"/>
+      <c r="M210" s="330"/>
+      <c r="N210" s="330"/>
+      <c r="O210" s="331"/>
       <c r="P210" s="10"/>
     </row>
     <row r="211" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="9"/>
       <c r="B211" s="29"/>
       <c r="C211" s="30"/>
-      <c r="D211" s="339"/>
-      <c r="E211" s="340"/>
+      <c r="D211" s="332"/>
+      <c r="E211" s="333"/>
       <c r="F211" s="215"/>
       <c r="G211" s="215"/>
       <c r="H211" s="215"/>
       <c r="I211" s="31"/>
       <c r="J211" s="215"/>
       <c r="K211" s="215"/>
-      <c r="L211" s="341"/>
-      <c r="M211" s="341"/>
-      <c r="N211" s="341"/>
-      <c r="O211" s="342"/>
+      <c r="L211" s="334"/>
+      <c r="M211" s="334"/>
+      <c r="N211" s="334"/>
+      <c r="O211" s="335"/>
       <c r="P211" s="10"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
@@ -27457,10 +27493,10 @@
       <c r="C216" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D216" s="328" t="s">
+      <c r="D216" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E216" s="329"/>
+      <c r="E216" s="337"/>
       <c r="F216" s="25" t="s">
         <v>31</v>
       </c>
@@ -27479,12 +27515,12 @@
       <c r="K216" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L216" s="330" t="s">
+      <c r="L216" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M216" s="330"/>
-      <c r="N216" s="330"/>
-      <c r="O216" s="331"/>
+      <c r="M216" s="338"/>
+      <c r="N216" s="338"/>
+      <c r="O216" s="339"/>
       <c r="P216" s="10"/>
     </row>
     <row r="217" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27495,10 +27531,10 @@
       <c r="C217" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D217" s="332" t="s">
+      <c r="D217" s="328" t="s">
         <v>352</v>
       </c>
-      <c r="E217" s="333"/>
+      <c r="E217" s="329"/>
       <c r="F217" s="214"/>
       <c r="G217" s="214"/>
       <c r="H217" s="214" t="s">
@@ -27511,12 +27547,12 @@
         <v>255</v>
       </c>
       <c r="K217" s="214"/>
-      <c r="L217" s="334" t="s">
+      <c r="L217" s="330" t="s">
         <v>353</v>
       </c>
-      <c r="M217" s="334"/>
-      <c r="N217" s="334"/>
-      <c r="O217" s="335"/>
+      <c r="M217" s="330"/>
+      <c r="N217" s="330"/>
+      <c r="O217" s="331"/>
       <c r="P217" s="10"/>
     </row>
     <row r="218" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27541,28 +27577,28 @@
         <v>255</v>
       </c>
       <c r="K218" s="237"/>
-      <c r="L218" s="334"/>
-      <c r="M218" s="334"/>
-      <c r="N218" s="334"/>
-      <c r="O218" s="335"/>
+      <c r="L218" s="330"/>
+      <c r="M218" s="330"/>
+      <c r="N218" s="330"/>
+      <c r="O218" s="331"/>
       <c r="P218" s="10"/>
     </row>
     <row r="219" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="9"/>
       <c r="B219" s="29"/>
       <c r="C219" s="30"/>
-      <c r="D219" s="339"/>
-      <c r="E219" s="340"/>
+      <c r="D219" s="332"/>
+      <c r="E219" s="333"/>
       <c r="F219" s="215"/>
       <c r="G219" s="215"/>
       <c r="H219" s="215"/>
       <c r="I219" s="31"/>
       <c r="J219" s="215"/>
       <c r="K219" s="215"/>
-      <c r="L219" s="341"/>
-      <c r="M219" s="341"/>
-      <c r="N219" s="341"/>
-      <c r="O219" s="342"/>
+      <c r="L219" s="334"/>
+      <c r="M219" s="334"/>
+      <c r="N219" s="334"/>
+      <c r="O219" s="335"/>
       <c r="P219" s="10"/>
     </row>
     <row r="220" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27649,10 +27685,10 @@
       <c r="C224" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="328" t="s">
+      <c r="D224" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E224" s="329"/>
+      <c r="E224" s="337"/>
       <c r="F224" s="25" t="s">
         <v>31</v>
       </c>
@@ -27671,12 +27707,12 @@
       <c r="K224" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L224" s="330" t="s">
+      <c r="L224" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M224" s="330"/>
-      <c r="N224" s="330"/>
-      <c r="O224" s="331"/>
+      <c r="M224" s="338"/>
+      <c r="N224" s="338"/>
+      <c r="O224" s="339"/>
       <c r="P224" s="10"/>
     </row>
     <row r="225" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27687,10 +27723,10 @@
       <c r="C225" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D225" s="332" t="s">
+      <c r="D225" s="328" t="s">
         <v>390</v>
       </c>
-      <c r="E225" s="333"/>
+      <c r="E225" s="329"/>
       <c r="F225" s="214"/>
       <c r="G225" s="214"/>
       <c r="H225" s="214" t="s">
@@ -27703,12 +27739,12 @@
         <v>255</v>
       </c>
       <c r="K225" s="214"/>
-      <c r="L225" s="334" t="s">
+      <c r="L225" s="330" t="s">
         <v>391</v>
       </c>
-      <c r="M225" s="334"/>
-      <c r="N225" s="334"/>
-      <c r="O225" s="335"/>
+      <c r="M225" s="330"/>
+      <c r="N225" s="330"/>
+      <c r="O225" s="331"/>
       <c r="P225" s="10"/>
     </row>
     <row r="226" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27733,28 +27769,28 @@
         <v>255</v>
       </c>
       <c r="K226" s="237"/>
-      <c r="L226" s="334"/>
-      <c r="M226" s="334"/>
-      <c r="N226" s="334"/>
-      <c r="O226" s="335"/>
+      <c r="L226" s="330"/>
+      <c r="M226" s="330"/>
+      <c r="N226" s="330"/>
+      <c r="O226" s="331"/>
       <c r="P226" s="10"/>
     </row>
     <row r="227" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="9"/>
       <c r="B227" s="29"/>
       <c r="C227" s="30"/>
-      <c r="D227" s="339"/>
-      <c r="E227" s="340"/>
+      <c r="D227" s="332"/>
+      <c r="E227" s="333"/>
       <c r="F227" s="215"/>
       <c r="G227" s="215"/>
       <c r="H227" s="215"/>
       <c r="I227" s="31"/>
       <c r="J227" s="215"/>
       <c r="K227" s="215"/>
-      <c r="L227" s="341"/>
-      <c r="M227" s="341"/>
-      <c r="N227" s="341"/>
-      <c r="O227" s="342"/>
+      <c r="L227" s="334"/>
+      <c r="M227" s="334"/>
+      <c r="N227" s="334"/>
+      <c r="O227" s="335"/>
       <c r="P227" s="10"/>
     </row>
     <row r="228" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27841,10 +27877,10 @@
       <c r="C232" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D232" s="328" t="s">
+      <c r="D232" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E232" s="329"/>
+      <c r="E232" s="337"/>
       <c r="F232" s="25" t="s">
         <v>31</v>
       </c>
@@ -27863,12 +27899,12 @@
       <c r="K232" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L232" s="330" t="s">
+      <c r="L232" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M232" s="330"/>
-      <c r="N232" s="330"/>
-      <c r="O232" s="331"/>
+      <c r="M232" s="338"/>
+      <c r="N232" s="338"/>
+      <c r="O232" s="339"/>
       <c r="P232" s="10"/>
     </row>
     <row r="233" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27879,10 +27915,10 @@
       <c r="C233" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D233" s="332" t="s">
+      <c r="D233" s="328" t="s">
         <v>352</v>
       </c>
-      <c r="E233" s="333"/>
+      <c r="E233" s="329"/>
       <c r="F233" s="214"/>
       <c r="G233" s="214"/>
       <c r="H233" s="214" t="s">
@@ -27895,12 +27931,12 @@
         <v>255</v>
       </c>
       <c r="K233" s="214"/>
-      <c r="L233" s="334" t="s">
+      <c r="L233" s="330" t="s">
         <v>357</v>
       </c>
-      <c r="M233" s="334"/>
-      <c r="N233" s="334"/>
-      <c r="O233" s="335"/>
+      <c r="M233" s="330"/>
+      <c r="N233" s="330"/>
+      <c r="O233" s="331"/>
       <c r="P233" s="10"/>
     </row>
     <row r="234" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27925,28 +27961,28 @@
         <v>255</v>
       </c>
       <c r="K234" s="237"/>
-      <c r="L234" s="345"/>
-      <c r="M234" s="334"/>
-      <c r="N234" s="334"/>
-      <c r="O234" s="335"/>
+      <c r="L234" s="342"/>
+      <c r="M234" s="330"/>
+      <c r="N234" s="330"/>
+      <c r="O234" s="331"/>
       <c r="P234" s="10"/>
     </row>
     <row r="235" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="9"/>
       <c r="B235" s="29"/>
       <c r="C235" s="30"/>
-      <c r="D235" s="339"/>
-      <c r="E235" s="340"/>
+      <c r="D235" s="332"/>
+      <c r="E235" s="333"/>
       <c r="F235" s="215"/>
       <c r="G235" s="215"/>
       <c r="H235" s="215"/>
       <c r="I235" s="31"/>
       <c r="J235" s="215"/>
       <c r="K235" s="215"/>
-      <c r="L235" s="341"/>
-      <c r="M235" s="341"/>
-      <c r="N235" s="341"/>
-      <c r="O235" s="342"/>
+      <c r="L235" s="334"/>
+      <c r="M235" s="334"/>
+      <c r="N235" s="334"/>
+      <c r="O235" s="335"/>
       <c r="P235" s="10"/>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
@@ -28033,10 +28069,10 @@
       <c r="C240" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D240" s="328" t="s">
+      <c r="D240" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E240" s="329"/>
+      <c r="E240" s="337"/>
       <c r="F240" s="25" t="s">
         <v>31</v>
       </c>
@@ -28055,12 +28091,12 @@
       <c r="K240" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L240" s="330" t="s">
+      <c r="L240" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M240" s="330"/>
-      <c r="N240" s="330"/>
-      <c r="O240" s="331"/>
+      <c r="M240" s="338"/>
+      <c r="N240" s="338"/>
+      <c r="O240" s="339"/>
       <c r="P240" s="10"/>
     </row>
     <row r="241" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -28071,10 +28107,10 @@
       <c r="C241" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D241" s="343" t="s">
+      <c r="D241" s="340" t="s">
         <v>227</v>
       </c>
-      <c r="E241" s="344"/>
+      <c r="E241" s="341"/>
       <c r="F241" s="214"/>
       <c r="G241" s="214"/>
       <c r="H241" s="214" t="s">
@@ -28087,12 +28123,12 @@
         <v>255</v>
       </c>
       <c r="K241" s="214"/>
-      <c r="L241" s="345" t="s">
+      <c r="L241" s="342" t="s">
         <v>417</v>
       </c>
-      <c r="M241" s="334"/>
-      <c r="N241" s="334"/>
-      <c r="O241" s="335"/>
+      <c r="M241" s="330"/>
+      <c r="N241" s="330"/>
+      <c r="O241" s="331"/>
       <c r="P241" s="10"/>
     </row>
     <row r="242" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28117,28 +28153,28 @@
         <v>255</v>
       </c>
       <c r="K242" s="237"/>
-      <c r="L242" s="345"/>
-      <c r="M242" s="334"/>
-      <c r="N242" s="334"/>
-      <c r="O242" s="335"/>
+      <c r="L242" s="342"/>
+      <c r="M242" s="330"/>
+      <c r="N242" s="330"/>
+      <c r="O242" s="331"/>
       <c r="P242" s="10"/>
     </row>
     <row r="243" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="9"/>
       <c r="B243" s="29"/>
       <c r="C243" s="30"/>
-      <c r="D243" s="339"/>
-      <c r="E243" s="340"/>
+      <c r="D243" s="332"/>
+      <c r="E243" s="333"/>
       <c r="F243" s="215"/>
       <c r="G243" s="215"/>
       <c r="H243" s="215"/>
       <c r="I243" s="31"/>
       <c r="J243" s="215"/>
       <c r="K243" s="215"/>
-      <c r="L243" s="341"/>
-      <c r="M243" s="341"/>
-      <c r="N243" s="341"/>
-      <c r="O243" s="342"/>
+      <c r="L243" s="334"/>
+      <c r="M243" s="334"/>
+      <c r="N243" s="334"/>
+      <c r="O243" s="335"/>
       <c r="P243" s="10"/>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
@@ -28225,10 +28261,10 @@
       <c r="C248" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D248" s="328" t="s">
+      <c r="D248" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E248" s="329"/>
+      <c r="E248" s="337"/>
       <c r="F248" s="25" t="s">
         <v>31</v>
       </c>
@@ -28247,12 +28283,12 @@
       <c r="K248" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L248" s="330" t="s">
+      <c r="L248" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M248" s="330"/>
-      <c r="N248" s="330"/>
-      <c r="O248" s="331"/>
+      <c r="M248" s="338"/>
+      <c r="N248" s="338"/>
+      <c r="O248" s="339"/>
       <c r="P248" s="10"/>
     </row>
     <row r="249" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -28263,10 +28299,10 @@
       <c r="C249" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D249" s="343" t="s">
+      <c r="D249" s="340" t="s">
         <v>362</v>
       </c>
-      <c r="E249" s="344"/>
+      <c r="E249" s="341"/>
       <c r="F249" s="214"/>
       <c r="G249" s="214"/>
       <c r="H249" s="214" t="s">
@@ -28279,12 +28315,12 @@
         <v>255</v>
       </c>
       <c r="K249" s="214"/>
-      <c r="L249" s="345" t="s">
+      <c r="L249" s="342" t="s">
         <v>363</v>
       </c>
-      <c r="M249" s="334"/>
-      <c r="N249" s="334"/>
-      <c r="O249" s="335"/>
+      <c r="M249" s="330"/>
+      <c r="N249" s="330"/>
+      <c r="O249" s="331"/>
       <c r="P249" s="10"/>
     </row>
     <row r="250" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28309,28 +28345,28 @@
         <v>255</v>
       </c>
       <c r="K250" s="237"/>
-      <c r="L250" s="345"/>
-      <c r="M250" s="334"/>
-      <c r="N250" s="334"/>
-      <c r="O250" s="335"/>
+      <c r="L250" s="342"/>
+      <c r="M250" s="330"/>
+      <c r="N250" s="330"/>
+      <c r="O250" s="331"/>
       <c r="P250" s="10"/>
     </row>
     <row r="251" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="9"/>
       <c r="B251" s="29"/>
       <c r="C251" s="30"/>
-      <c r="D251" s="339"/>
-      <c r="E251" s="340"/>
+      <c r="D251" s="332"/>
+      <c r="E251" s="333"/>
       <c r="F251" s="215"/>
       <c r="G251" s="215"/>
       <c r="H251" s="215"/>
       <c r="I251" s="31"/>
       <c r="J251" s="215"/>
       <c r="K251" s="215"/>
-      <c r="L251" s="341"/>
-      <c r="M251" s="341"/>
-      <c r="N251" s="341"/>
-      <c r="O251" s="342"/>
+      <c r="L251" s="334"/>
+      <c r="M251" s="334"/>
+      <c r="N251" s="334"/>
+      <c r="O251" s="335"/>
       <c r="P251" s="10"/>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -28419,10 +28455,10 @@
       <c r="C256" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D256" s="328" t="s">
+      <c r="D256" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E256" s="329"/>
+      <c r="E256" s="337"/>
       <c r="F256" s="25" t="s">
         <v>31</v>
       </c>
@@ -28441,12 +28477,12 @@
       <c r="K256" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L256" s="330" t="s">
+      <c r="L256" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M256" s="330"/>
-      <c r="N256" s="330"/>
-      <c r="O256" s="331"/>
+      <c r="M256" s="338"/>
+      <c r="N256" s="338"/>
+      <c r="O256" s="339"/>
       <c r="P256" s="10"/>
     </row>
     <row r="257" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28457,10 +28493,10 @@
       <c r="C257" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D257" s="332" t="s">
+      <c r="D257" s="328" t="s">
         <v>267</v>
       </c>
-      <c r="E257" s="333"/>
+      <c r="E257" s="329"/>
       <c r="F257" s="214"/>
       <c r="G257" s="214"/>
       <c r="H257" s="214" t="s">
@@ -28475,12 +28511,12 @@
       <c r="K257" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L257" s="334" t="s">
+      <c r="L257" s="330" t="s">
         <v>268</v>
       </c>
-      <c r="M257" s="334"/>
-      <c r="N257" s="334"/>
-      <c r="O257" s="335"/>
+      <c r="M257" s="330"/>
+      <c r="N257" s="330"/>
+      <c r="O257" s="331"/>
       <c r="P257" s="10"/>
     </row>
     <row r="258" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28491,10 +28527,10 @@
       <c r="C258" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="D258" s="332" t="s">
+      <c r="D258" s="328" t="s">
         <v>378</v>
       </c>
-      <c r="E258" s="333"/>
+      <c r="E258" s="329"/>
       <c r="F258" s="214"/>
       <c r="G258" s="214"/>
       <c r="H258" s="214" t="s">
@@ -28507,10 +28543,10 @@
         <v>255</v>
       </c>
       <c r="K258" s="214"/>
-      <c r="L258" s="334"/>
-      <c r="M258" s="334"/>
-      <c r="N258" s="334"/>
-      <c r="O258" s="335"/>
+      <c r="L258" s="330"/>
+      <c r="M258" s="330"/>
+      <c r="N258" s="330"/>
+      <c r="O258" s="331"/>
       <c r="P258" s="10"/>
     </row>
     <row r="259" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28521,10 +28557,10 @@
       <c r="C259" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D259" s="332" t="s">
+      <c r="D259" s="328" t="s">
         <v>379</v>
       </c>
-      <c r="E259" s="333"/>
+      <c r="E259" s="329"/>
       <c r="F259" s="214"/>
       <c r="G259" s="214"/>
       <c r="H259" s="214"/>
@@ -28535,28 +28571,28 @@
         <v>255</v>
       </c>
       <c r="K259" s="214"/>
-      <c r="L259" s="334"/>
-      <c r="M259" s="334"/>
-      <c r="N259" s="334"/>
-      <c r="O259" s="335"/>
+      <c r="L259" s="330"/>
+      <c r="M259" s="330"/>
+      <c r="N259" s="330"/>
+      <c r="O259" s="331"/>
       <c r="P259" s="10"/>
     </row>
     <row r="260" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="9"/>
       <c r="B260" s="29"/>
       <c r="C260" s="30"/>
-      <c r="D260" s="339"/>
-      <c r="E260" s="340"/>
+      <c r="D260" s="332"/>
+      <c r="E260" s="333"/>
       <c r="F260" s="215"/>
       <c r="G260" s="215"/>
       <c r="H260" s="215"/>
       <c r="I260" s="31"/>
       <c r="J260" s="215"/>
       <c r="K260" s="215"/>
-      <c r="L260" s="341"/>
-      <c r="M260" s="341"/>
-      <c r="N260" s="341"/>
-      <c r="O260" s="342"/>
+      <c r="L260" s="334"/>
+      <c r="M260" s="334"/>
+      <c r="N260" s="334"/>
+      <c r="O260" s="335"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.2">
@@ -28645,10 +28681,10 @@
       <c r="C265" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D265" s="328" t="s">
+      <c r="D265" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E265" s="329"/>
+      <c r="E265" s="337"/>
       <c r="F265" s="25" t="s">
         <v>31</v>
       </c>
@@ -28667,12 +28703,12 @@
       <c r="K265" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L265" s="330" t="s">
+      <c r="L265" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M265" s="330"/>
-      <c r="N265" s="330"/>
-      <c r="O265" s="331"/>
+      <c r="M265" s="338"/>
+      <c r="N265" s="338"/>
+      <c r="O265" s="339"/>
       <c r="P265" s="10"/>
     </row>
     <row r="266" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28683,10 +28719,10 @@
       <c r="C266" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D266" s="332" t="s">
+      <c r="D266" s="328" t="s">
         <v>381</v>
       </c>
-      <c r="E266" s="333"/>
+      <c r="E266" s="329"/>
       <c r="F266" s="214"/>
       <c r="G266" s="214"/>
       <c r="H266" s="214" t="s">
@@ -28699,10 +28735,10 @@
         <v>255</v>
       </c>
       <c r="K266" s="214"/>
-      <c r="L266" s="334"/>
-      <c r="M266" s="334"/>
-      <c r="N266" s="334"/>
-      <c r="O266" s="335"/>
+      <c r="L266" s="330"/>
+      <c r="M266" s="330"/>
+      <c r="N266" s="330"/>
+      <c r="O266" s="331"/>
       <c r="P266" s="10"/>
     </row>
     <row r="267" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28713,10 +28749,10 @@
       <c r="C267" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D267" s="332" t="s">
+      <c r="D267" s="328" t="s">
         <v>382</v>
       </c>
-      <c r="E267" s="333"/>
+      <c r="E267" s="329"/>
       <c r="F267" s="214"/>
       <c r="G267" s="214"/>
       <c r="H267" s="214"/>
@@ -28727,10 +28763,10 @@
         <v>255</v>
       </c>
       <c r="K267" s="214"/>
-      <c r="L267" s="334"/>
-      <c r="M267" s="334"/>
-      <c r="N267" s="334"/>
-      <c r="O267" s="335"/>
+      <c r="L267" s="330"/>
+      <c r="M267" s="330"/>
+      <c r="N267" s="330"/>
+      <c r="O267" s="331"/>
       <c r="P267" s="10"/>
     </row>
     <row r="268" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28753,30 +28789,30 @@
       </c>
       <c r="J268" s="214"/>
       <c r="K268" s="214"/>
-      <c r="L268" s="334" t="s">
+      <c r="L268" s="330" t="s">
         <v>416</v>
       </c>
-      <c r="M268" s="334"/>
-      <c r="N268" s="334"/>
-      <c r="O268" s="335"/>
+      <c r="M268" s="330"/>
+      <c r="N268" s="330"/>
+      <c r="O268" s="331"/>
       <c r="P268" s="10"/>
     </row>
     <row r="269" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="9"/>
       <c r="B269" s="29"/>
       <c r="C269" s="30"/>
-      <c r="D269" s="339"/>
-      <c r="E269" s="340"/>
+      <c r="D269" s="332"/>
+      <c r="E269" s="333"/>
       <c r="F269" s="215"/>
       <c r="G269" s="215"/>
       <c r="H269" s="215"/>
       <c r="I269" s="31"/>
       <c r="J269" s="215"/>
       <c r="K269" s="215"/>
-      <c r="L269" s="341"/>
-      <c r="M269" s="341"/>
-      <c r="N269" s="341"/>
-      <c r="O269" s="342"/>
+      <c r="L269" s="334"/>
+      <c r="M269" s="334"/>
+      <c r="N269" s="334"/>
+      <c r="O269" s="335"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28865,10 +28901,10 @@
       <c r="C274" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D274" s="328" t="s">
+      <c r="D274" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E274" s="329"/>
+      <c r="E274" s="337"/>
       <c r="F274" s="25" t="s">
         <v>31</v>
       </c>
@@ -28887,12 +28923,12 @@
       <c r="K274" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L274" s="330" t="s">
+      <c r="L274" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M274" s="330"/>
-      <c r="N274" s="330"/>
-      <c r="O274" s="331"/>
+      <c r="M274" s="338"/>
+      <c r="N274" s="338"/>
+      <c r="O274" s="339"/>
       <c r="P274" s="10"/>
     </row>
     <row r="275" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28903,10 +28939,10 @@
       <c r="C275" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D275" s="332" t="s">
+      <c r="D275" s="328" t="s">
         <v>386</v>
       </c>
-      <c r="E275" s="333"/>
+      <c r="E275" s="329"/>
       <c r="F275" s="214"/>
       <c r="G275" s="214"/>
       <c r="H275" s="214" t="s">
@@ -28917,12 +28953,12 @@
       </c>
       <c r="J275" s="214"/>
       <c r="K275" s="214"/>
-      <c r="L275" s="334" t="s">
+      <c r="L275" s="330" t="s">
         <v>387</v>
       </c>
-      <c r="M275" s="334"/>
-      <c r="N275" s="334"/>
-      <c r="O275" s="335"/>
+      <c r="M275" s="330"/>
+      <c r="N275" s="330"/>
+      <c r="O275" s="331"/>
       <c r="P275" s="10"/>
     </row>
     <row r="276" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28933,10 +28969,10 @@
       <c r="C276" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D276" s="332" t="s">
+      <c r="D276" s="328" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="333"/>
+      <c r="E276" s="329"/>
       <c r="F276" s="214"/>
       <c r="G276" s="214"/>
       <c r="H276" s="214" t="s">
@@ -28949,10 +28985,10 @@
         <v>255</v>
       </c>
       <c r="K276" s="214"/>
-      <c r="L276" s="334"/>
-      <c r="M276" s="334"/>
-      <c r="N276" s="334"/>
-      <c r="O276" s="335"/>
+      <c r="L276" s="330"/>
+      <c r="M276" s="330"/>
+      <c r="N276" s="330"/>
+      <c r="O276" s="331"/>
       <c r="P276" s="10"/>
     </row>
     <row r="277" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28977,10 +29013,10 @@
         <v>255</v>
       </c>
       <c r="K277" s="214"/>
-      <c r="L277" s="334"/>
-      <c r="M277" s="334"/>
-      <c r="N277" s="334"/>
-      <c r="O277" s="335"/>
+      <c r="L277" s="330"/>
+      <c r="M277" s="330"/>
+      <c r="N277" s="330"/>
+      <c r="O277" s="331"/>
       <c r="P277" s="10"/>
     </row>
     <row r="278" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -29005,12 +29041,12 @@
       </c>
       <c r="J278" s="215"/>
       <c r="K278" s="215"/>
-      <c r="L278" s="341" t="s">
+      <c r="L278" s="334" t="s">
         <v>416</v>
       </c>
-      <c r="M278" s="341"/>
-      <c r="N278" s="341"/>
-      <c r="O278" s="342"/>
+      <c r="M278" s="334"/>
+      <c r="N278" s="334"/>
+      <c r="O278" s="335"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
@@ -29097,10 +29133,10 @@
       <c r="C283" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D283" s="328" t="s">
+      <c r="D283" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="E283" s="329"/>
+      <c r="E283" s="337"/>
       <c r="F283" s="25" t="s">
         <v>31</v>
       </c>
@@ -29119,12 +29155,12 @@
       <c r="K283" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L283" s="330" t="s">
+      <c r="L283" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="M283" s="330"/>
-      <c r="N283" s="330"/>
-      <c r="O283" s="331"/>
+      <c r="M283" s="338"/>
+      <c r="N283" s="338"/>
+      <c r="O283" s="339"/>
       <c r="P283" s="10"/>
     </row>
     <row r="284" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29135,10 +29171,10 @@
       <c r="C284" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="D284" s="332" t="s">
+      <c r="D284" s="328" t="s">
         <v>403</v>
       </c>
-      <c r="E284" s="333"/>
+      <c r="E284" s="329"/>
       <c r="F284" s="214"/>
       <c r="G284" s="214"/>
       <c r="H284" s="214" t="s">
@@ -29151,10 +29187,10 @@
         <v>255</v>
       </c>
       <c r="K284" s="214"/>
-      <c r="L284" s="334"/>
-      <c r="M284" s="334"/>
-      <c r="N284" s="334"/>
-      <c r="O284" s="335"/>
+      <c r="L284" s="330"/>
+      <c r="M284" s="330"/>
+      <c r="N284" s="330"/>
+      <c r="O284" s="331"/>
       <c r="P284" s="10"/>
     </row>
     <row r="285" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29165,10 +29201,10 @@
       <c r="C285" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D285" s="332" t="s">
+      <c r="D285" s="328" t="s">
         <v>396</v>
       </c>
-      <c r="E285" s="333"/>
+      <c r="E285" s="329"/>
       <c r="F285" s="214"/>
       <c r="G285" s="214"/>
       <c r="H285" s="214" t="s">
@@ -29181,12 +29217,12 @@
         <v>255</v>
       </c>
       <c r="K285" s="214"/>
-      <c r="L285" s="334" t="s">
+      <c r="L285" s="330" t="s">
         <v>395</v>
       </c>
-      <c r="M285" s="334"/>
-      <c r="N285" s="334"/>
-      <c r="O285" s="335"/>
+      <c r="M285" s="330"/>
+      <c r="N285" s="330"/>
+      <c r="O285" s="331"/>
       <c r="P285" s="10"/>
     </row>
     <row r="286" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29197,10 +29233,10 @@
       <c r="C286" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="D286" s="343" t="s">
+      <c r="D286" s="340" t="s">
         <v>402</v>
       </c>
-      <c r="E286" s="344"/>
+      <c r="E286" s="341"/>
       <c r="F286" s="214"/>
       <c r="G286" s="214"/>
       <c r="H286" s="214" t="s">
@@ -29213,10 +29249,10 @@
         <v>255</v>
       </c>
       <c r="K286" s="214"/>
-      <c r="L286" s="345"/>
-      <c r="M286" s="334"/>
-      <c r="N286" s="334"/>
-      <c r="O286" s="335"/>
+      <c r="L286" s="342"/>
+      <c r="M286" s="330"/>
+      <c r="N286" s="330"/>
+      <c r="O286" s="331"/>
       <c r="P286" s="10"/>
     </row>
     <row r="287" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29227,10 +29263,10 @@
       <c r="C287" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="D287" s="332" t="s">
+      <c r="D287" s="328" t="s">
         <v>401</v>
       </c>
-      <c r="E287" s="333"/>
+      <c r="E287" s="329"/>
       <c r="F287" s="214"/>
       <c r="G287" s="214"/>
       <c r="H287" s="214" t="s">
@@ -29241,12 +29277,12 @@
       </c>
       <c r="J287" s="214"/>
       <c r="K287" s="214"/>
-      <c r="L287" s="334" t="s">
+      <c r="L287" s="330" t="s">
         <v>254</v>
       </c>
-      <c r="M287" s="334"/>
-      <c r="N287" s="334"/>
-      <c r="O287" s="335"/>
+      <c r="M287" s="330"/>
+      <c r="N287" s="330"/>
+      <c r="O287" s="331"/>
       <c r="P287" s="10"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29257,10 +29293,10 @@
       <c r="C288" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="D288" s="332" t="s">
+      <c r="D288" s="328" t="s">
         <v>400</v>
       </c>
-      <c r="E288" s="333"/>
+      <c r="E288" s="329"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214"/>
@@ -29271,30 +29307,30 @@
       <c r="K288" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L288" s="334" t="s">
+      <c r="L288" s="330" t="s">
         <v>270</v>
       </c>
-      <c r="M288" s="334"/>
-      <c r="N288" s="334"/>
-      <c r="O288" s="335"/>
+      <c r="M288" s="330"/>
+      <c r="N288" s="330"/>
+      <c r="O288" s="331"/>
       <c r="P288" s="10"/>
     </row>
     <row r="289" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9"/>
       <c r="B289" s="29"/>
       <c r="C289" s="30"/>
-      <c r="D289" s="339"/>
-      <c r="E289" s="340"/>
+      <c r="D289" s="332"/>
+      <c r="E289" s="333"/>
       <c r="F289" s="215"/>
       <c r="G289" s="215"/>
       <c r="H289" s="215"/>
       <c r="I289" s="31"/>
       <c r="J289" s="215"/>
       <c r="K289" s="215"/>
-      <c r="L289" s="341"/>
-      <c r="M289" s="341"/>
-      <c r="N289" s="341"/>
-      <c r="O289" s="342"/>
+      <c r="L289" s="334"/>
+      <c r="M289" s="334"/>
+      <c r="N289" s="334"/>
+      <c r="O289" s="335"/>
       <c r="P289" s="10"/>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
@@ -29351,8 +29387,568 @@
       <c r="O292" s="12"/>
       <c r="P292" s="13"/>
     </row>
+    <row r="293" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="9"/>
+      <c r="B294" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C294" s="3"/>
+      <c r="D294" s="231" t="s">
+        <v>418</v>
+      </c>
+      <c r="E294" s="33"/>
+      <c r="F294" s="33"/>
+      <c r="G294" s="33"/>
+      <c r="H294" s="34"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3"/>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="44"/>
+      <c r="P294" s="10"/>
+    </row>
+    <row r="295" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="9"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="10"/>
+    </row>
+    <row r="296" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A296" s="9"/>
+      <c r="B296" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D296" s="336" t="s">
+        <v>30</v>
+      </c>
+      <c r="E296" s="337"/>
+      <c r="F296" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G296" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H296" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I296" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J296" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K296" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L296" s="338" t="s">
+        <v>37</v>
+      </c>
+      <c r="M296" s="338"/>
+      <c r="N296" s="338"/>
+      <c r="O296" s="339"/>
+      <c r="P296" s="10"/>
+    </row>
+    <row r="297" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A297" s="9"/>
+      <c r="B297" s="26">
+        <v>1</v>
+      </c>
+      <c r="C297" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="D297" s="328"/>
+      <c r="E297" s="329"/>
+      <c r="F297" s="214"/>
+      <c r="G297" s="214"/>
+      <c r="H297" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I297" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J297" s="214">
+        <v>255</v>
+      </c>
+      <c r="K297" s="214"/>
+      <c r="L297" s="330"/>
+      <c r="M297" s="330"/>
+      <c r="N297" s="330"/>
+      <c r="O297" s="331"/>
+      <c r="P297" s="10"/>
+    </row>
+    <row r="298" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A298" s="9"/>
+      <c r="B298" s="26">
+        <v>2</v>
+      </c>
+      <c r="C298" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D298" s="328"/>
+      <c r="E298" s="329"/>
+      <c r="F298" s="214"/>
+      <c r="G298" s="214"/>
+      <c r="H298" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I298" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J298" s="214"/>
+      <c r="K298" s="214"/>
+      <c r="L298" s="330" t="s">
+        <v>354</v>
+      </c>
+      <c r="M298" s="330"/>
+      <c r="N298" s="330"/>
+      <c r="O298" s="331"/>
+      <c r="P298" s="10"/>
+    </row>
+    <row r="299" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A299" s="9"/>
+      <c r="B299" s="234">
+        <v>3</v>
+      </c>
+      <c r="C299" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="D299" s="340"/>
+      <c r="E299" s="341"/>
+      <c r="F299" s="214"/>
+      <c r="G299" s="214"/>
+      <c r="H299" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I299" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J299" s="214"/>
+      <c r="K299" s="214"/>
+      <c r="L299" s="342" t="s">
+        <v>350</v>
+      </c>
+      <c r="M299" s="330"/>
+      <c r="N299" s="330"/>
+      <c r="O299" s="331"/>
+      <c r="P299" s="10"/>
+    </row>
+    <row r="300" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A300" s="9"/>
+      <c r="B300" s="26">
+        <v>4</v>
+      </c>
+      <c r="C300" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D300" s="328"/>
+      <c r="E300" s="329"/>
+      <c r="F300" s="214"/>
+      <c r="G300" s="214"/>
+      <c r="H300" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I300" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J300" s="214"/>
+      <c r="K300" s="214"/>
+      <c r="L300" s="330"/>
+      <c r="M300" s="330"/>
+      <c r="N300" s="330"/>
+      <c r="O300" s="331"/>
+      <c r="P300" s="10"/>
+    </row>
+    <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A301" s="9"/>
+      <c r="B301" s="26">
+        <v>5</v>
+      </c>
+      <c r="C301" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="D301" s="328"/>
+      <c r="E301" s="329"/>
+      <c r="F301" s="214"/>
+      <c r="G301" s="214"/>
+      <c r="H301" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I301" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J301" s="214"/>
+      <c r="K301" s="214"/>
+      <c r="L301" s="330"/>
+      <c r="M301" s="330"/>
+      <c r="N301" s="330"/>
+      <c r="O301" s="331"/>
+      <c r="P301" s="10"/>
+    </row>
+    <row r="302" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A302" s="9"/>
+      <c r="B302" s="26">
+        <v>6</v>
+      </c>
+      <c r="C302" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="D302" s="328"/>
+      <c r="E302" s="329"/>
+      <c r="F302" s="214"/>
+      <c r="G302" s="214"/>
+      <c r="H302" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I302" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J302" s="214">
+        <v>255</v>
+      </c>
+      <c r="K302" s="214"/>
+      <c r="L302" s="330"/>
+      <c r="M302" s="330"/>
+      <c r="N302" s="330"/>
+      <c r="O302" s="331"/>
+      <c r="P302" s="10"/>
+    </row>
+    <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A303" s="9"/>
+      <c r="B303" s="26">
+        <v>7</v>
+      </c>
+      <c r="C303" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="D303" s="328"/>
+      <c r="E303" s="329"/>
+      <c r="F303" s="214"/>
+      <c r="G303" s="214"/>
+      <c r="H303" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I303" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J303" s="214"/>
+      <c r="K303" s="214"/>
+      <c r="L303" s="330" t="s">
+        <v>424</v>
+      </c>
+      <c r="M303" s="330"/>
+      <c r="N303" s="330"/>
+      <c r="O303" s="331"/>
+      <c r="P303" s="10"/>
+    </row>
+    <row r="304" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="9"/>
+      <c r="B304" s="29"/>
+      <c r="C304" s="30"/>
+      <c r="D304" s="332"/>
+      <c r="E304" s="333"/>
+      <c r="F304" s="215"/>
+      <c r="G304" s="215"/>
+      <c r="H304" s="215"/>
+      <c r="I304" s="31"/>
+      <c r="J304" s="215"/>
+      <c r="K304" s="215"/>
+      <c r="L304" s="334"/>
+      <c r="M304" s="334"/>
+      <c r="N304" s="334"/>
+      <c r="O304" s="335"/>
+      <c r="P304" s="10"/>
+    </row>
+    <row r="306" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="9"/>
+      <c r="B307" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C307" s="3"/>
+      <c r="D307" s="231" t="s">
+        <v>425</v>
+      </c>
+      <c r="E307" s="33"/>
+      <c r="F307" s="33"/>
+      <c r="G307" s="33"/>
+      <c r="H307" s="34"/>
+      <c r="I307" s="3"/>
+      <c r="J307" s="3"/>
+      <c r="K307" s="3"/>
+      <c r="L307" s="3"/>
+      <c r="M307" s="3"/>
+      <c r="N307" s="3"/>
+      <c r="O307" s="44"/>
+      <c r="P307" s="10"/>
+    </row>
+    <row r="308" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="9"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="3"/>
+      <c r="H308" s="3"/>
+      <c r="I308" s="3"/>
+      <c r="J308" s="3"/>
+      <c r="K308" s="3"/>
+      <c r="L308" s="3"/>
+      <c r="M308" s="3"/>
+      <c r="N308" s="3"/>
+      <c r="O308" s="3"/>
+      <c r="P308" s="10"/>
+    </row>
+    <row r="309" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A309" s="9"/>
+      <c r="B309" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D309" s="336" t="s">
+        <v>30</v>
+      </c>
+      <c r="E309" s="337"/>
+      <c r="F309" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G309" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H309" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I309" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J309" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K309" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L309" s="338" t="s">
+        <v>37</v>
+      </c>
+      <c r="M309" s="338"/>
+      <c r="N309" s="338"/>
+      <c r="O309" s="339"/>
+      <c r="P309" s="10"/>
+    </row>
+    <row r="310" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A310" s="9"/>
+      <c r="B310" s="26">
+        <v>1</v>
+      </c>
+      <c r="C310" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D310" s="328"/>
+      <c r="E310" s="329"/>
+      <c r="F310" s="214"/>
+      <c r="G310" s="214"/>
+      <c r="H310" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I310" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J310" s="214"/>
+      <c r="K310" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="L310" s="330" t="s">
+        <v>426</v>
+      </c>
+      <c r="M310" s="330"/>
+      <c r="N310" s="330"/>
+      <c r="O310" s="331"/>
+      <c r="P310" s="10"/>
+    </row>
+    <row r="311" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A311" s="9"/>
+      <c r="B311" s="26">
+        <v>2</v>
+      </c>
+      <c r="C311" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D311" s="328"/>
+      <c r="E311" s="329"/>
+      <c r="F311" s="214"/>
+      <c r="G311" s="214"/>
+      <c r="H311" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I311" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J311" s="214"/>
+      <c r="K311" s="214"/>
+      <c r="L311" s="330"/>
+      <c r="M311" s="330"/>
+      <c r="N311" s="330"/>
+      <c r="O311" s="331"/>
+      <c r="P311" s="10"/>
+    </row>
+    <row r="312" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A312" s="9"/>
+      <c r="B312" s="234">
+        <v>3</v>
+      </c>
+      <c r="C312" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="D312" s="340"/>
+      <c r="E312" s="341"/>
+      <c r="F312" s="214"/>
+      <c r="G312" s="214"/>
+      <c r="H312" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I312" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J312" s="214">
+        <v>20</v>
+      </c>
+      <c r="K312" s="214"/>
+      <c r="L312" s="342"/>
+      <c r="M312" s="330"/>
+      <c r="N312" s="330"/>
+      <c r="O312" s="331"/>
+      <c r="P312" s="10"/>
+    </row>
+    <row r="313" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A313" s="9"/>
+      <c r="B313" s="26">
+        <v>4</v>
+      </c>
+      <c r="C313" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="D313" s="328"/>
+      <c r="E313" s="329"/>
+      <c r="F313" s="214"/>
+      <c r="G313" s="214"/>
+      <c r="H313" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I313" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J313" s="214"/>
+      <c r="K313" s="214"/>
+      <c r="L313" s="330"/>
+      <c r="M313" s="330"/>
+      <c r="N313" s="330"/>
+      <c r="O313" s="331"/>
+      <c r="P313" s="10"/>
+    </row>
+    <row r="314" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A314" s="9"/>
+      <c r="B314" s="26">
+        <v>5</v>
+      </c>
+      <c r="C314" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="D314" s="328"/>
+      <c r="E314" s="329"/>
+      <c r="F314" s="214"/>
+      <c r="G314" s="214"/>
+      <c r="H314" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I314" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J314" s="214">
+        <v>20</v>
+      </c>
+      <c r="K314" s="214"/>
+      <c r="L314" s="330"/>
+      <c r="M314" s="330"/>
+      <c r="N314" s="330"/>
+      <c r="O314" s="331"/>
+      <c r="P314" s="10"/>
+    </row>
+    <row r="315" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A315" s="9"/>
+      <c r="B315" s="26"/>
+      <c r="C315" s="27"/>
+      <c r="D315" s="328"/>
+      <c r="E315" s="329"/>
+      <c r="F315" s="214"/>
+      <c r="G315" s="214"/>
+      <c r="H315" s="214"/>
+      <c r="I315" s="28"/>
+      <c r="J315" s="214"/>
+      <c r="K315" s="214"/>
+      <c r="L315" s="330"/>
+      <c r="M315" s="330"/>
+      <c r="N315" s="330"/>
+      <c r="O315" s="331"/>
+      <c r="P315" s="10"/>
+    </row>
+    <row r="316" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A316" s="9"/>
+      <c r="B316" s="26"/>
+      <c r="C316" s="27"/>
+      <c r="D316" s="328"/>
+      <c r="E316" s="329"/>
+      <c r="F316" s="214"/>
+      <c r="G316" s="214"/>
+      <c r="H316" s="214"/>
+      <c r="I316" s="28"/>
+      <c r="J316" s="214"/>
+      <c r="K316" s="214"/>
+      <c r="L316" s="330"/>
+      <c r="M316" s="330"/>
+      <c r="N316" s="330"/>
+      <c r="O316" s="331"/>
+      <c r="P316" s="10"/>
+    </row>
+    <row r="317" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="9"/>
+      <c r="B317" s="29"/>
+      <c r="C317" s="30"/>
+      <c r="D317" s="332"/>
+      <c r="E317" s="333"/>
+      <c r="F317" s="215"/>
+      <c r="G317" s="215"/>
+      <c r="H317" s="215"/>
+      <c r="I317" s="31"/>
+      <c r="J317" s="215"/>
+      <c r="K317" s="215"/>
+      <c r="L317" s="334"/>
+      <c r="M317" s="334"/>
+      <c r="N317" s="334"/>
+      <c r="O317" s="335"/>
+      <c r="P317" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="321">
+  <mergeCells count="357">
     <mergeCell ref="L122:O122"/>
     <mergeCell ref="L123:O123"/>
     <mergeCell ref="D127:E127"/>
@@ -29674,6 +30270,42 @@
     <mergeCell ref="L106:O106"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="L107:O107"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="L301:O301"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="L302:O302"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="L296:O296"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="L297:O297"/>
+    <mergeCell ref="D298:E298"/>
+    <mergeCell ref="L298:O298"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="L299:O299"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="L300:O300"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="L314:O314"/>
+    <mergeCell ref="D315:E315"/>
+    <mergeCell ref="L315:O315"/>
+    <mergeCell ref="D316:E316"/>
+    <mergeCell ref="L316:O316"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="L317:O317"/>
+    <mergeCell ref="D309:E309"/>
+    <mergeCell ref="L309:O309"/>
+    <mergeCell ref="D310:E310"/>
+    <mergeCell ref="L310:O310"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="L311:O311"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="L312:O312"/>
+    <mergeCell ref="D313:E313"/>
+    <mergeCell ref="L313:O313"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29748,7 +30380,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -30678,8 +31310,8 @@
   </sheetPr>
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30743,7 +31375,7 @@
       </c>
       <c r="N2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="O2" s="281"/>
       <c r="P2" s="61"/>
@@ -32024,7 +32656,7 @@
       </c>
       <c r="AK2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="AL2" s="281"/>
       <c r="AM2" s="61"/>
@@ -32541,7 +33173,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -33954,7 +34586,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -39557,7 +40189,7 @@
       </c>
       <c r="S2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="T2" s="281"/>
     </row>
@@ -46332,7 +46964,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -48582,7 +49214,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.893278587966</v>
+        <v>44573.955704398148</v>
       </c>
       <c r="Q2" s="281"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E5994A-A087-1345-A53E-7A9FEDA2C8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF12CBB9-6667-5B47-B8D6-6770F9FE07A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="620" windowWidth="17960" windowHeight="20980" firstSheet="6" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="700" yWindow="500" windowWidth="35860" windowHeight="20300" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="431">
   <si>
     <t>No</t>
   </si>
@@ -1357,6 +1357,9 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>M_News_Category</t>
   </si>
 </sst>
 </file>
@@ -20503,7 +20506,7 @@
       <c r="L64" s="261"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20648,7 +20651,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -22095,8 +22098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:P317"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A286" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D313" sqref="D313:E313"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A189" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209:E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22159,7 +22162,7 @@
       </c>
       <c r="O2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="P2" s="281"/>
     </row>
@@ -27260,7 +27263,7 @@
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="231" t="s">
-        <v>347</v>
+        <v>430</v>
       </c>
       <c r="E206" s="33"/>
       <c r="F206" s="33"/>
@@ -30380,7 +30383,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -31310,8 +31313,8 @@
   </sheetPr>
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31375,7 +31378,7 @@
       </c>
       <c r="N2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="O2" s="281"/>
       <c r="P2" s="61"/>
@@ -31761,14 +31764,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J13" s="121"/>
+      <c r="J13" s="121">
+        <v>44575</v>
+      </c>
       <c r="K13" s="121"/>
       <c r="L13" s="122">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-44575</v>
       </c>
       <c r="M13" s="123">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="43"/>
@@ -32010,14 +32015,16 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J20" s="140"/>
+      <c r="J20" s="140">
+        <v>44571</v>
+      </c>
       <c r="K20" s="140"/>
       <c r="L20" s="141">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-44571</v>
       </c>
       <c r="M20" s="142">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="43"/>
@@ -32082,11 +32089,13 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J22" s="140"/>
+      <c r="J22" s="140">
+        <v>44576</v>
+      </c>
       <c r="K22" s="140"/>
       <c r="L22" s="141">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-44576</v>
       </c>
       <c r="M22" s="142">
         <v>0</v>
@@ -32126,7 +32135,7 @@
         <v>-44571</v>
       </c>
       <c r="M23" s="152">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="43"/>
@@ -32553,7 +32562,7 @@
   <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32656,7 +32665,7 @@
       </c>
       <c r="AK2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="AL2" s="281"/>
       <c r="AM2" s="61"/>
@@ -33173,7 +33182,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -34528,7 +34537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DAE3C9-EE8B-FD48-B606-399295CAFE1D}">
   <dimension ref="A1:Q291"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A250" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -34586,7 +34595,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -40189,7 +40198,7 @@
       </c>
       <c r="S2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="T2" s="281"/>
     </row>
@@ -46964,7 +46973,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -49156,7 +49165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477E38A7-57DB-294A-9E53-5A2AA165648E}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -49214,7 +49223,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44573.955704398148</v>
+        <v>44575.899132638886</v>
       </c>
       <c r="Q2" s="281"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF12CBB9-6667-5B47-B8D6-6770F9FE07A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE542E62-5324-2B4E-994B-0439D709BB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="500" windowWidth="35860" windowHeight="20300" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="35860" windowHeight="15760" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -2889,16 +2889,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2912,6 +2915,24 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2931,8 +2952,50 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2943,31 +3006,35 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3005,81 +3072,14 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -20506,7 +20506,7 @@
       <c r="L64" s="261"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20651,7 +20651,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -22098,8 +22098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:P317"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A189" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209:E209"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A124" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22162,7 +22162,7 @@
       </c>
       <c r="O2" s="280">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="P2" s="281"/>
     </row>
@@ -22270,10 +22270,10 @@
       <c r="C8" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="364" t="s">
+      <c r="D8" s="385" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="365"/>
+      <c r="E8" s="386"/>
       <c r="F8" s="221" t="s">
         <v>31</v>
       </c>
@@ -22292,12 +22292,12 @@
       <c r="K8" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="366" t="s">
+      <c r="L8" s="387" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="366"/>
-      <c r="N8" s="366"/>
-      <c r="O8" s="367"/>
+      <c r="M8" s="387"/>
+      <c r="N8" s="387"/>
+      <c r="O8" s="388"/>
       <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22308,10 +22308,10 @@
       <c r="C9" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="356" t="s">
+      <c r="D9" s="377" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="357"/>
+      <c r="E9" s="378"/>
       <c r="F9" s="224" t="s">
         <v>191</v>
       </c>
@@ -22326,10 +22326,10 @@
       </c>
       <c r="J9" s="224"/>
       <c r="K9" s="224"/>
-      <c r="L9" s="358"/>
-      <c r="M9" s="358"/>
-      <c r="N9" s="358"/>
-      <c r="O9" s="359"/>
+      <c r="L9" s="379"/>
+      <c r="M9" s="379"/>
+      <c r="N9" s="379"/>
+      <c r="O9" s="380"/>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22340,10 +22340,10 @@
       <c r="C10" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="356" t="s">
+      <c r="D10" s="377" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="357"/>
+      <c r="E10" s="378"/>
       <c r="F10" s="224"/>
       <c r="G10" s="224"/>
       <c r="H10" s="224" t="s">
@@ -22354,12 +22354,12 @@
       </c>
       <c r="J10" s="224"/>
       <c r="K10" s="224"/>
-      <c r="L10" s="358" t="s">
+      <c r="L10" s="379" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="358"/>
-      <c r="N10" s="358"/>
-      <c r="O10" s="359"/>
+      <c r="M10" s="379"/>
+      <c r="N10" s="379"/>
+      <c r="O10" s="380"/>
       <c r="P10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22370,10 +22370,10 @@
       <c r="C11" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="356" t="s">
+      <c r="D11" s="377" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="357"/>
+      <c r="E11" s="378"/>
       <c r="F11" s="224"/>
       <c r="G11" s="224"/>
       <c r="H11" s="224" t="s">
@@ -22384,10 +22384,10 @@
       </c>
       <c r="J11" s="224"/>
       <c r="K11" s="224"/>
-      <c r="L11" s="358"/>
-      <c r="M11" s="358"/>
-      <c r="N11" s="358"/>
-      <c r="O11" s="359"/>
+      <c r="L11" s="379"/>
+      <c r="M11" s="379"/>
+      <c r="N11" s="379"/>
+      <c r="O11" s="380"/>
       <c r="P11" s="110"/>
     </row>
     <row r="12" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -22398,10 +22398,10 @@
       <c r="C12" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="360" t="s">
+      <c r="D12" s="381" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="361"/>
+      <c r="E12" s="382"/>
       <c r="F12" s="228"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
@@ -22410,10 +22410,10 @@
       </c>
       <c r="J12" s="228"/>
       <c r="K12" s="228"/>
-      <c r="L12" s="362"/>
-      <c r="M12" s="362"/>
-      <c r="N12" s="362"/>
-      <c r="O12" s="363"/>
+      <c r="L12" s="383"/>
+      <c r="M12" s="383"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="384"/>
       <c r="P12" s="110"/>
     </row>
     <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22500,10 +22500,10 @@
       <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="336" t="s">
+      <c r="D17" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="337"/>
+      <c r="E17" s="344"/>
       <c r="F17" s="25" t="s">
         <v>31</v>
       </c>
@@ -22522,12 +22522,12 @@
       <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="338" t="s">
+      <c r="L17" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="338"/>
-      <c r="N17" s="338"/>
-      <c r="O17" s="339"/>
+      <c r="M17" s="345"/>
+      <c r="N17" s="345"/>
+      <c r="O17" s="346"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22538,10 +22538,10 @@
       <c r="C18" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="328" t="s">
+      <c r="D18" s="337" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="329"/>
+      <c r="E18" s="338"/>
       <c r="F18" s="214"/>
       <c r="G18" s="214"/>
       <c r="H18" s="214" t="s">
@@ -22554,10 +22554,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="214"/>
-      <c r="L18" s="330"/>
-      <c r="M18" s="330"/>
-      <c r="N18" s="330"/>
-      <c r="O18" s="331"/>
+      <c r="L18" s="328"/>
+      <c r="M18" s="328"/>
+      <c r="N18" s="328"/>
+      <c r="O18" s="329"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22568,10 +22568,10 @@
       <c r="C19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="328" t="s">
+      <c r="D19" s="337" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="329"/>
+      <c r="E19" s="338"/>
       <c r="F19" s="214"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214" t="s">
@@ -22584,10 +22584,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="214"/>
-      <c r="L19" s="330"/>
-      <c r="M19" s="330"/>
-      <c r="N19" s="330"/>
-      <c r="O19" s="331"/>
+      <c r="L19" s="328"/>
+      <c r="M19" s="328"/>
+      <c r="N19" s="328"/>
+      <c r="O19" s="329"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -22598,10 +22598,10 @@
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="340" t="s">
+      <c r="D20" s="347" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="341"/>
+      <c r="E20" s="348"/>
       <c r="F20" s="214"/>
       <c r="G20" s="214"/>
       <c r="H20" s="214" t="s">
@@ -22617,9 +22617,9 @@
       <c r="L20" s="342" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="330"/>
-      <c r="N20" s="330"/>
-      <c r="O20" s="331"/>
+      <c r="M20" s="328"/>
+      <c r="N20" s="328"/>
+      <c r="O20" s="329"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22630,10 +22630,10 @@
       <c r="C21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="328" t="s">
+      <c r="D21" s="337" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="329"/>
+      <c r="E21" s="338"/>
       <c r="F21" s="214"/>
       <c r="G21" s="214"/>
       <c r="H21" s="214" t="s">
@@ -22644,12 +22644,12 @@
       </c>
       <c r="J21" s="214"/>
       <c r="K21" s="214"/>
-      <c r="L21" s="330" t="s">
+      <c r="L21" s="328" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="330"/>
-      <c r="N21" s="330"/>
-      <c r="O21" s="331"/>
+      <c r="M21" s="328"/>
+      <c r="N21" s="328"/>
+      <c r="O21" s="329"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22660,10 +22660,10 @@
       <c r="C22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="328" t="s">
+      <c r="D22" s="337" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="329"/>
+      <c r="E22" s="338"/>
       <c r="F22" s="214"/>
       <c r="G22" s="214"/>
       <c r="H22" s="214"/>
@@ -22672,28 +22672,28 @@
       </c>
       <c r="J22" s="214"/>
       <c r="K22" s="214"/>
-      <c r="L22" s="330"/>
-      <c r="M22" s="330"/>
-      <c r="N22" s="330"/>
-      <c r="O22" s="331"/>
+      <c r="L22" s="328"/>
+      <c r="M22" s="328"/>
+      <c r="N22" s="328"/>
+      <c r="O22" s="329"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="332"/>
-      <c r="E23" s="333"/>
+      <c r="D23" s="333"/>
+      <c r="E23" s="334"/>
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
       <c r="I23" s="31"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="334"/>
-      <c r="M23" s="334"/>
-      <c r="N23" s="334"/>
-      <c r="O23" s="335"/>
+      <c r="L23" s="335"/>
+      <c r="M23" s="335"/>
+      <c r="N23" s="335"/>
+      <c r="O23" s="336"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -22798,10 +22798,10 @@
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="336" t="s">
+      <c r="D29" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="337"/>
+      <c r="E29" s="344"/>
       <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
@@ -22820,12 +22820,12 @@
       <c r="K29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="338" t="s">
+      <c r="L29" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="338"/>
-      <c r="N29" s="338"/>
-      <c r="O29" s="339"/>
+      <c r="M29" s="345"/>
+      <c r="N29" s="345"/>
+      <c r="O29" s="346"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22836,10 +22836,10 @@
       <c r="C30" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="328" t="s">
+      <c r="D30" s="337" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="329"/>
+      <c r="E30" s="338"/>
       <c r="F30" s="214"/>
       <c r="G30" s="214"/>
       <c r="H30" s="214" t="s">
@@ -22850,12 +22850,12 @@
       </c>
       <c r="J30" s="214"/>
       <c r="K30" s="214"/>
-      <c r="L30" s="330" t="s">
+      <c r="L30" s="328" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="330"/>
-      <c r="N30" s="330"/>
-      <c r="O30" s="331"/>
+      <c r="M30" s="328"/>
+      <c r="N30" s="328"/>
+      <c r="O30" s="329"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22866,10 +22866,10 @@
       <c r="C31" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="328" t="s">
+      <c r="D31" s="337" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="329"/>
+      <c r="E31" s="338"/>
       <c r="F31" s="214"/>
       <c r="G31" s="214"/>
       <c r="H31" s="214" t="s">
@@ -22880,82 +22880,82 @@
       </c>
       <c r="J31" s="214"/>
       <c r="K31" s="214"/>
-      <c r="L31" s="330"/>
-      <c r="M31" s="330"/>
-      <c r="N31" s="330"/>
-      <c r="O31" s="331"/>
+      <c r="L31" s="328"/>
+      <c r="M31" s="328"/>
+      <c r="N31" s="328"/>
+      <c r="O31" s="329"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="350"/>
-      <c r="E32" s="351"/>
+      <c r="D32" s="389"/>
+      <c r="E32" s="390"/>
       <c r="F32" s="214"/>
       <c r="G32" s="214"/>
       <c r="H32" s="214"/>
       <c r="I32" s="28"/>
       <c r="J32" s="214"/>
       <c r="K32" s="214"/>
-      <c r="L32" s="330"/>
-      <c r="M32" s="330"/>
-      <c r="N32" s="330"/>
-      <c r="O32" s="331"/>
+      <c r="L32" s="328"/>
+      <c r="M32" s="328"/>
+      <c r="N32" s="328"/>
+      <c r="O32" s="329"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="350"/>
-      <c r="E33" s="351"/>
+      <c r="D33" s="389"/>
+      <c r="E33" s="390"/>
       <c r="F33" s="214"/>
       <c r="G33" s="214"/>
       <c r="H33" s="214"/>
       <c r="I33" s="28"/>
       <c r="J33" s="214"/>
       <c r="K33" s="214"/>
-      <c r="L33" s="330"/>
-      <c r="M33" s="330"/>
-      <c r="N33" s="330"/>
-      <c r="O33" s="331"/>
+      <c r="L33" s="328"/>
+      <c r="M33" s="328"/>
+      <c r="N33" s="328"/>
+      <c r="O33" s="329"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="350"/>
-      <c r="E34" s="351"/>
+      <c r="D34" s="389"/>
+      <c r="E34" s="390"/>
       <c r="F34" s="214"/>
       <c r="G34" s="214"/>
       <c r="H34" s="214"/>
       <c r="I34" s="28"/>
       <c r="J34" s="214"/>
       <c r="K34" s="214"/>
-      <c r="L34" s="330"/>
-      <c r="M34" s="330"/>
-      <c r="N34" s="330"/>
-      <c r="O34" s="331"/>
+      <c r="L34" s="328"/>
+      <c r="M34" s="328"/>
+      <c r="N34" s="328"/>
+      <c r="O34" s="329"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="333"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="334"/>
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
       <c r="I35" s="31"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="334"/>
-      <c r="M35" s="334"/>
-      <c r="N35" s="334"/>
-      <c r="O35" s="335"/>
+      <c r="L35" s="335"/>
+      <c r="M35" s="335"/>
+      <c r="N35" s="335"/>
+      <c r="O35" s="336"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -23042,10 +23042,10 @@
       <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="336" t="s">
+      <c r="D40" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="337"/>
+      <c r="E40" s="344"/>
       <c r="F40" s="25" t="s">
         <v>31</v>
       </c>
@@ -23064,12 +23064,12 @@
       <c r="K40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="338" t="s">
+      <c r="L40" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="338"/>
-      <c r="N40" s="338"/>
-      <c r="O40" s="339"/>
+      <c r="M40" s="345"/>
+      <c r="N40" s="345"/>
+      <c r="O40" s="346"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23080,10 +23080,10 @@
       <c r="C41" s="257" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="352" t="s">
+      <c r="D41" s="375" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="353"/>
+      <c r="E41" s="376"/>
       <c r="F41" s="258"/>
       <c r="G41" s="258"/>
       <c r="H41" s="258" t="s">
@@ -23094,12 +23094,12 @@
       </c>
       <c r="J41" s="258"/>
       <c r="K41" s="258"/>
-      <c r="L41" s="354" t="s">
+      <c r="L41" s="373" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="354"/>
-      <c r="N41" s="354"/>
-      <c r="O41" s="355"/>
+      <c r="M41" s="373"/>
+      <c r="N41" s="373"/>
+      <c r="O41" s="374"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23110,10 +23110,10 @@
       <c r="C42" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="352" t="s">
+      <c r="D42" s="375" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="353"/>
+      <c r="E42" s="376"/>
       <c r="F42" s="258"/>
       <c r="G42" s="258"/>
       <c r="H42" s="258" t="s">
@@ -23124,10 +23124,10 @@
       </c>
       <c r="J42" s="258"/>
       <c r="K42" s="258"/>
-      <c r="L42" s="354"/>
-      <c r="M42" s="354"/>
-      <c r="N42" s="354"/>
-      <c r="O42" s="355"/>
+      <c r="L42" s="373"/>
+      <c r="M42" s="373"/>
+      <c r="N42" s="373"/>
+      <c r="O42" s="374"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23138,10 +23138,10 @@
       <c r="C43" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="328" t="s">
+      <c r="D43" s="337" t="s">
         <v>224</v>
       </c>
-      <c r="E43" s="329"/>
+      <c r="E43" s="338"/>
       <c r="F43" s="214"/>
       <c r="G43" s="214"/>
       <c r="H43" s="214" t="s">
@@ -23152,10 +23152,10 @@
       </c>
       <c r="J43" s="214"/>
       <c r="K43" s="214"/>
-      <c r="L43" s="330"/>
-      <c r="M43" s="330"/>
-      <c r="N43" s="330"/>
-      <c r="O43" s="331"/>
+      <c r="L43" s="328"/>
+      <c r="M43" s="328"/>
+      <c r="N43" s="328"/>
+      <c r="O43" s="329"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23166,10 +23166,10 @@
       <c r="C44" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="328" t="s">
+      <c r="D44" s="337" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="329"/>
+      <c r="E44" s="338"/>
       <c r="F44" s="214"/>
       <c r="G44" s="214"/>
       <c r="H44" s="214" t="s">
@@ -23180,10 +23180,10 @@
       </c>
       <c r="J44" s="214"/>
       <c r="K44" s="214"/>
-      <c r="L44" s="330"/>
-      <c r="M44" s="330"/>
-      <c r="N44" s="330"/>
-      <c r="O44" s="331"/>
+      <c r="L44" s="328"/>
+      <c r="M44" s="328"/>
+      <c r="N44" s="328"/>
+      <c r="O44" s="329"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23194,10 +23194,10 @@
       <c r="C45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="328" t="s">
+      <c r="D45" s="337" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="329"/>
+      <c r="E45" s="338"/>
       <c r="F45" s="214"/>
       <c r="G45" s="214"/>
       <c r="H45" s="214" t="s">
@@ -23210,12 +23210,12 @@
       <c r="K45" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="330" t="s">
+      <c r="L45" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M45" s="330"/>
-      <c r="N45" s="330"/>
-      <c r="O45" s="331"/>
+      <c r="M45" s="328"/>
+      <c r="N45" s="328"/>
+      <c r="O45" s="329"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23240,28 +23240,28 @@
       </c>
       <c r="J46" s="237"/>
       <c r="K46" s="237"/>
-      <c r="L46" s="330"/>
-      <c r="M46" s="330"/>
-      <c r="N46" s="330"/>
-      <c r="O46" s="331"/>
+      <c r="L46" s="328"/>
+      <c r="M46" s="328"/>
+      <c r="N46" s="328"/>
+      <c r="O46" s="329"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="332"/>
-      <c r="E47" s="333"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="334"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
       <c r="H47" s="215"/>
       <c r="I47" s="31"/>
       <c r="J47" s="215"/>
       <c r="K47" s="215"/>
-      <c r="L47" s="334"/>
-      <c r="M47" s="334"/>
-      <c r="N47" s="334"/>
-      <c r="O47" s="335"/>
+      <c r="L47" s="335"/>
+      <c r="M47" s="335"/>
+      <c r="N47" s="335"/>
+      <c r="O47" s="336"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -23348,10 +23348,10 @@
       <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="336" t="s">
+      <c r="D52" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="337"/>
+      <c r="E52" s="344"/>
       <c r="F52" s="25" t="s">
         <v>31</v>
       </c>
@@ -23370,12 +23370,12 @@
       <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="338" t="s">
+      <c r="L52" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="338"/>
-      <c r="N52" s="338"/>
-      <c r="O52" s="339"/>
+      <c r="M52" s="345"/>
+      <c r="N52" s="345"/>
+      <c r="O52" s="346"/>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23386,10 +23386,10 @@
       <c r="C53" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="328" t="s">
+      <c r="D53" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="329"/>
+      <c r="E53" s="338"/>
       <c r="F53" s="214"/>
       <c r="G53" s="214"/>
       <c r="H53" s="214" t="s">
@@ -23402,12 +23402,12 @@
       <c r="K53" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="330" t="s">
+      <c r="L53" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M53" s="330"/>
-      <c r="N53" s="330"/>
-      <c r="O53" s="331"/>
+      <c r="M53" s="328"/>
+      <c r="N53" s="328"/>
+      <c r="O53" s="329"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23432,12 +23432,12 @@
       </c>
       <c r="J54" s="214"/>
       <c r="K54" s="214"/>
-      <c r="L54" s="371" t="s">
+      <c r="L54" s="330" t="s">
         <v>246</v>
       </c>
-      <c r="M54" s="372"/>
-      <c r="N54" s="372"/>
-      <c r="O54" s="373"/>
+      <c r="M54" s="331"/>
+      <c r="N54" s="331"/>
+      <c r="O54" s="332"/>
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23462,12 +23462,12 @@
       </c>
       <c r="J55" s="214"/>
       <c r="K55" s="214"/>
-      <c r="L55" s="377" t="s">
+      <c r="L55" s="351" t="s">
         <v>293</v>
       </c>
-      <c r="M55" s="378"/>
-      <c r="N55" s="378"/>
-      <c r="O55" s="379"/>
+      <c r="M55" s="352"/>
+      <c r="N55" s="352"/>
+      <c r="O55" s="353"/>
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23490,12 +23490,12 @@
       </c>
       <c r="J56" s="214"/>
       <c r="K56" s="214"/>
-      <c r="L56" s="368" t="s">
+      <c r="L56" s="367" t="s">
         <v>243</v>
       </c>
-      <c r="M56" s="369"/>
-      <c r="N56" s="369"/>
-      <c r="O56" s="370"/>
+      <c r="M56" s="368"/>
+      <c r="N56" s="368"/>
+      <c r="O56" s="369"/>
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23518,10 +23518,10 @@
       </c>
       <c r="J57" s="214"/>
       <c r="K57" s="214"/>
-      <c r="L57" s="374"/>
-      <c r="M57" s="375"/>
-      <c r="N57" s="375"/>
-      <c r="O57" s="376"/>
+      <c r="L57" s="370"/>
+      <c r="M57" s="371"/>
+      <c r="N57" s="371"/>
+      <c r="O57" s="372"/>
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -23532,10 +23532,10 @@
       <c r="C58" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="340" t="s">
+      <c r="D58" s="347" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="341"/>
+      <c r="E58" s="348"/>
       <c r="F58" s="214"/>
       <c r="G58" s="214"/>
       <c r="H58" s="214" t="s">
@@ -23549,9 +23549,9 @@
       <c r="L58" s="342" t="s">
         <v>409</v>
       </c>
-      <c r="M58" s="330"/>
-      <c r="N58" s="330"/>
-      <c r="O58" s="331"/>
+      <c r="M58" s="328"/>
+      <c r="N58" s="328"/>
+      <c r="O58" s="329"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23562,10 +23562,10 @@
       <c r="C59" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="328" t="s">
+      <c r="D59" s="337" t="s">
         <v>228</v>
       </c>
-      <c r="E59" s="329"/>
+      <c r="E59" s="338"/>
       <c r="F59" s="214"/>
       <c r="G59" s="214"/>
       <c r="H59" s="214" t="s">
@@ -23576,10 +23576,10 @@
       </c>
       <c r="J59" s="214"/>
       <c r="K59" s="214"/>
-      <c r="L59" s="330"/>
-      <c r="M59" s="330"/>
-      <c r="N59" s="330"/>
-      <c r="O59" s="331"/>
+      <c r="L59" s="328"/>
+      <c r="M59" s="328"/>
+      <c r="N59" s="328"/>
+      <c r="O59" s="329"/>
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23590,10 +23590,10 @@
       <c r="C60" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D60" s="328" t="s">
+      <c r="D60" s="337" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="329"/>
+      <c r="E60" s="338"/>
       <c r="F60" s="214"/>
       <c r="G60" s="214"/>
       <c r="H60" s="214" t="s">
@@ -23606,30 +23606,30 @@
       <c r="K60" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L60" s="330" t="s">
+      <c r="L60" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M60" s="330"/>
-      <c r="N60" s="330"/>
-      <c r="O60" s="331"/>
+      <c r="M60" s="328"/>
+      <c r="N60" s="328"/>
+      <c r="O60" s="329"/>
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="332"/>
-      <c r="E61" s="333"/>
+      <c r="D61" s="333"/>
+      <c r="E61" s="334"/>
       <c r="F61" s="215"/>
       <c r="G61" s="215"/>
       <c r="H61" s="215"/>
       <c r="I61" s="31"/>
       <c r="J61" s="215"/>
       <c r="K61" s="215"/>
-      <c r="L61" s="334"/>
-      <c r="M61" s="334"/>
-      <c r="N61" s="334"/>
-      <c r="O61" s="335"/>
+      <c r="L61" s="335"/>
+      <c r="M61" s="335"/>
+      <c r="N61" s="335"/>
+      <c r="O61" s="336"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -23716,10 +23716,10 @@
       <c r="C66" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="336" t="s">
+      <c r="D66" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="337"/>
+      <c r="E66" s="344"/>
       <c r="F66" s="25" t="s">
         <v>31</v>
       </c>
@@ -23738,12 +23738,12 @@
       <c r="K66" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L66" s="338" t="s">
+      <c r="L66" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="338"/>
-      <c r="N66" s="338"/>
-      <c r="O66" s="339"/>
+      <c r="M66" s="345"/>
+      <c r="N66" s="345"/>
+      <c r="O66" s="346"/>
       <c r="P66" s="10"/>
     </row>
     <row r="67" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23754,10 +23754,10 @@
       <c r="C67" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D67" s="328" t="s">
+      <c r="D67" s="337" t="s">
         <v>267</v>
       </c>
-      <c r="E67" s="329"/>
+      <c r="E67" s="338"/>
       <c r="F67" s="214"/>
       <c r="G67" s="214"/>
       <c r="H67" s="214" t="s">
@@ -23770,12 +23770,12 @@
       <c r="K67" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L67" s="330" t="s">
+      <c r="L67" s="328" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="330"/>
-      <c r="N67" s="330"/>
-      <c r="O67" s="331"/>
+      <c r="M67" s="328"/>
+      <c r="N67" s="328"/>
+      <c r="O67" s="329"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23786,10 +23786,10 @@
       <c r="C68" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="328" t="s">
+      <c r="D68" s="337" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="329"/>
+      <c r="E68" s="338"/>
       <c r="F68" s="214"/>
       <c r="G68" s="214"/>
       <c r="H68" s="214" t="s">
@@ -23800,10 +23800,10 @@
       </c>
       <c r="J68" s="214"/>
       <c r="K68" s="214"/>
-      <c r="L68" s="330"/>
-      <c r="M68" s="330"/>
-      <c r="N68" s="330"/>
-      <c r="O68" s="331"/>
+      <c r="L68" s="328"/>
+      <c r="M68" s="328"/>
+      <c r="N68" s="328"/>
+      <c r="O68" s="329"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23814,10 +23814,10 @@
       <c r="C69" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D69" s="328" t="s">
+      <c r="D69" s="337" t="s">
         <v>249</v>
       </c>
-      <c r="E69" s="329"/>
+      <c r="E69" s="338"/>
       <c r="F69" s="214"/>
       <c r="G69" s="214"/>
       <c r="H69" s="214" t="s">
@@ -23828,10 +23828,10 @@
       </c>
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
-      <c r="L69" s="330"/>
-      <c r="M69" s="330"/>
-      <c r="N69" s="330"/>
-      <c r="O69" s="331"/>
+      <c r="L69" s="328"/>
+      <c r="M69" s="328"/>
+      <c r="N69" s="328"/>
+      <c r="O69" s="329"/>
       <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23854,12 +23854,12 @@
       </c>
       <c r="J70" s="214"/>
       <c r="K70" s="214"/>
-      <c r="L70" s="368" t="s">
+      <c r="L70" s="367" t="s">
         <v>243</v>
       </c>
-      <c r="M70" s="369"/>
-      <c r="N70" s="369"/>
-      <c r="O70" s="370"/>
+      <c r="M70" s="368"/>
+      <c r="N70" s="368"/>
+      <c r="O70" s="369"/>
       <c r="P70" s="10"/>
     </row>
     <row r="71" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23882,10 +23882,10 @@
       </c>
       <c r="J71" s="214"/>
       <c r="K71" s="214"/>
-      <c r="L71" s="374"/>
-      <c r="M71" s="375"/>
-      <c r="N71" s="375"/>
-      <c r="O71" s="376"/>
+      <c r="L71" s="370"/>
+      <c r="M71" s="371"/>
+      <c r="N71" s="371"/>
+      <c r="O71" s="372"/>
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23896,10 +23896,10 @@
       <c r="C72" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D72" s="328" t="s">
+      <c r="D72" s="337" t="s">
         <v>250</v>
       </c>
-      <c r="E72" s="329"/>
+      <c r="E72" s="338"/>
       <c r="F72" s="214"/>
       <c r="G72" s="214"/>
       <c r="H72" s="214"/>
@@ -23911,27 +23911,27 @@
       </c>
       <c r="K72" s="214"/>
       <c r="L72" s="342"/>
-      <c r="M72" s="330"/>
-      <c r="N72" s="330"/>
-      <c r="O72" s="331"/>
+      <c r="M72" s="328"/>
+      <c r="N72" s="328"/>
+      <c r="O72" s="329"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="29"/>
       <c r="C73" s="30"/>
-      <c r="D73" s="332"/>
-      <c r="E73" s="333"/>
+      <c r="D73" s="333"/>
+      <c r="E73" s="334"/>
       <c r="F73" s="215"/>
       <c r="G73" s="215"/>
       <c r="H73" s="215"/>
       <c r="I73" s="31"/>
       <c r="J73" s="215"/>
       <c r="K73" s="215"/>
-      <c r="L73" s="334"/>
-      <c r="M73" s="334"/>
-      <c r="N73" s="334"/>
-      <c r="O73" s="335"/>
+      <c r="L73" s="335"/>
+      <c r="M73" s="335"/>
+      <c r="N73" s="335"/>
+      <c r="O73" s="336"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -24018,10 +24018,10 @@
       <c r="C78" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="336" t="s">
+      <c r="D78" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="337"/>
+      <c r="E78" s="344"/>
       <c r="F78" s="25" t="s">
         <v>31</v>
       </c>
@@ -24040,12 +24040,12 @@
       <c r="K78" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="338" t="s">
+      <c r="L78" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M78" s="338"/>
-      <c r="N78" s="338"/>
-      <c r="O78" s="339"/>
+      <c r="M78" s="345"/>
+      <c r="N78" s="345"/>
+      <c r="O78" s="346"/>
       <c r="P78" s="10"/>
     </row>
     <row r="79" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24056,10 +24056,10 @@
       <c r="C79" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="328" t="s">
+      <c r="D79" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E79" s="329"/>
+      <c r="E79" s="338"/>
       <c r="F79" s="214"/>
       <c r="G79" s="214"/>
       <c r="H79" s="214" t="s">
@@ -24072,12 +24072,12 @@
       <c r="K79" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L79" s="330" t="s">
+      <c r="L79" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M79" s="330"/>
-      <c r="N79" s="330"/>
-      <c r="O79" s="331"/>
+      <c r="M79" s="328"/>
+      <c r="N79" s="328"/>
+      <c r="O79" s="329"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24088,10 +24088,10 @@
       <c r="C80" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="328" t="s">
+      <c r="D80" s="337" t="s">
         <v>259</v>
       </c>
-      <c r="E80" s="329"/>
+      <c r="E80" s="338"/>
       <c r="F80" s="214"/>
       <c r="G80" s="214"/>
       <c r="H80" s="214" t="s">
@@ -24102,10 +24102,10 @@
       </c>
       <c r="J80" s="214"/>
       <c r="K80" s="214"/>
-      <c r="L80" s="330"/>
-      <c r="M80" s="330"/>
-      <c r="N80" s="330"/>
-      <c r="O80" s="331"/>
+      <c r="L80" s="328"/>
+      <c r="M80" s="328"/>
+      <c r="N80" s="328"/>
+      <c r="O80" s="329"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24116,10 +24116,10 @@
       <c r="C81" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="328" t="s">
+      <c r="D81" s="337" t="s">
         <v>260</v>
       </c>
-      <c r="E81" s="329"/>
+      <c r="E81" s="338"/>
       <c r="F81" s="214"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214" t="s">
@@ -24132,12 +24132,12 @@
       <c r="K81" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L81" s="368" t="s">
+      <c r="L81" s="367" t="s">
         <v>410</v>
       </c>
-      <c r="M81" s="369"/>
-      <c r="N81" s="369"/>
-      <c r="O81" s="370"/>
+      <c r="M81" s="368"/>
+      <c r="N81" s="368"/>
+      <c r="O81" s="369"/>
       <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24148,10 +24148,10 @@
       <c r="C82" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D82" s="328" t="s">
+      <c r="D82" s="337" t="s">
         <v>261</v>
       </c>
-      <c r="E82" s="329"/>
+      <c r="E82" s="338"/>
       <c r="F82" s="214"/>
       <c r="G82" s="214"/>
       <c r="H82" s="214" t="s">
@@ -24162,10 +24162,10 @@
       </c>
       <c r="J82" s="214"/>
       <c r="K82" s="241"/>
-      <c r="L82" s="330"/>
-      <c r="M82" s="330"/>
-      <c r="N82" s="330"/>
-      <c r="O82" s="331"/>
+      <c r="L82" s="328"/>
+      <c r="M82" s="328"/>
+      <c r="N82" s="328"/>
+      <c r="O82" s="329"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24176,10 +24176,10 @@
       <c r="C83" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="328" t="s">
+      <c r="D83" s="337" t="s">
         <v>262</v>
       </c>
-      <c r="E83" s="329"/>
+      <c r="E83" s="338"/>
       <c r="F83" s="214"/>
       <c r="G83" s="214"/>
       <c r="H83" s="214" t="s">
@@ -24190,12 +24190,12 @@
       </c>
       <c r="J83" s="214"/>
       <c r="K83" s="241"/>
-      <c r="L83" s="330" t="s">
+      <c r="L83" s="328" t="s">
         <v>360</v>
       </c>
-      <c r="M83" s="330"/>
-      <c r="N83" s="330"/>
-      <c r="O83" s="331"/>
+      <c r="M83" s="328"/>
+      <c r="N83" s="328"/>
+      <c r="O83" s="329"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24206,10 +24206,10 @@
       <c r="C84" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="328" t="s">
+      <c r="D84" s="337" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="329"/>
+      <c r="E84" s="338"/>
       <c r="F84" s="214"/>
       <c r="G84" s="214"/>
       <c r="H84" s="214" t="s">
@@ -24220,12 +24220,12 @@
       </c>
       <c r="J84" s="214"/>
       <c r="K84" s="241"/>
-      <c r="L84" s="330" t="s">
+      <c r="L84" s="328" t="s">
         <v>254</v>
       </c>
-      <c r="M84" s="330"/>
-      <c r="N84" s="330"/>
-      <c r="O84" s="331"/>
+      <c r="M84" s="328"/>
+      <c r="N84" s="328"/>
+      <c r="O84" s="329"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24236,10 +24236,10 @@
       <c r="C85" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D85" s="328" t="s">
+      <c r="D85" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="E85" s="329"/>
+      <c r="E85" s="338"/>
       <c r="F85" s="214"/>
       <c r="G85" s="214"/>
       <c r="H85" s="214" t="s">
@@ -24252,48 +24252,48 @@
       <c r="K85" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L85" s="343" t="s">
+      <c r="L85" s="364" t="s">
         <v>270</v>
       </c>
-      <c r="M85" s="344"/>
-      <c r="N85" s="344"/>
-      <c r="O85" s="345"/>
+      <c r="M85" s="365"/>
+      <c r="N85" s="365"/>
+      <c r="O85" s="366"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="26"/>
       <c r="C86" s="27"/>
-      <c r="D86" s="328"/>
-      <c r="E86" s="329"/>
+      <c r="D86" s="337"/>
+      <c r="E86" s="338"/>
       <c r="F86" s="214"/>
       <c r="G86" s="214"/>
       <c r="H86" s="214"/>
       <c r="I86" s="28"/>
       <c r="J86" s="214"/>
       <c r="K86" s="214"/>
-      <c r="L86" s="330"/>
-      <c r="M86" s="330"/>
-      <c r="N86" s="330"/>
-      <c r="O86" s="331"/>
+      <c r="L86" s="328"/>
+      <c r="M86" s="328"/>
+      <c r="N86" s="328"/>
+      <c r="O86" s="329"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="29"/>
       <c r="C87" s="30"/>
-      <c r="D87" s="332"/>
-      <c r="E87" s="333"/>
+      <c r="D87" s="333"/>
+      <c r="E87" s="334"/>
       <c r="F87" s="215"/>
       <c r="G87" s="215"/>
       <c r="H87" s="215"/>
       <c r="I87" s="31"/>
       <c r="J87" s="215"/>
       <c r="K87" s="215"/>
-      <c r="L87" s="334"/>
-      <c r="M87" s="334"/>
-      <c r="N87" s="334"/>
-      <c r="O87" s="335"/>
+      <c r="L87" s="335"/>
+      <c r="M87" s="335"/>
+      <c r="N87" s="335"/>
+      <c r="O87" s="336"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24380,10 +24380,10 @@
       <c r="C92" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D92" s="336" t="s">
+      <c r="D92" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="337"/>
+      <c r="E92" s="344"/>
       <c r="F92" s="25" t="s">
         <v>31</v>
       </c>
@@ -24402,12 +24402,12 @@
       <c r="K92" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L92" s="338" t="s">
+      <c r="L92" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="338"/>
-      <c r="N92" s="338"/>
-      <c r="O92" s="339"/>
+      <c r="M92" s="345"/>
+      <c r="N92" s="345"/>
+      <c r="O92" s="346"/>
       <c r="P92" s="10"/>
     </row>
     <row r="93" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24418,10 +24418,10 @@
       <c r="C93" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="328" t="s">
+      <c r="D93" s="337" t="s">
         <v>269</v>
       </c>
-      <c r="E93" s="329"/>
+      <c r="E93" s="338"/>
       <c r="F93" s="214"/>
       <c r="G93" s="214"/>
       <c r="H93" s="214" t="s">
@@ -24434,12 +24434,12 @@
       <c r="K93" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L93" s="330" t="s">
+      <c r="L93" s="328" t="s">
         <v>265</v>
       </c>
-      <c r="M93" s="330"/>
-      <c r="N93" s="330"/>
-      <c r="O93" s="331"/>
+      <c r="M93" s="328"/>
+      <c r="N93" s="328"/>
+      <c r="O93" s="329"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24450,10 +24450,10 @@
       <c r="C94" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D94" s="328" t="s">
+      <c r="D94" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="329"/>
+      <c r="E94" s="338"/>
       <c r="F94" s="214"/>
       <c r="G94" s="214"/>
       <c r="H94" s="214" t="s">
@@ -24466,12 +24466,12 @@
       <c r="K94" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L94" s="343" t="s">
+      <c r="L94" s="364" t="s">
         <v>270</v>
       </c>
-      <c r="M94" s="344"/>
-      <c r="N94" s="344"/>
-      <c r="O94" s="345"/>
+      <c r="M94" s="365"/>
+      <c r="N94" s="365"/>
+      <c r="O94" s="366"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24482,10 +24482,10 @@
       <c r="C95" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D95" s="328" t="s">
+      <c r="D95" s="337" t="s">
         <v>271</v>
       </c>
-      <c r="E95" s="329"/>
+      <c r="E95" s="338"/>
       <c r="F95" s="214"/>
       <c r="G95" s="214"/>
       <c r="H95" s="214" t="s">
@@ -24496,10 +24496,10 @@
       </c>
       <c r="J95" s="214"/>
       <c r="K95" s="214"/>
-      <c r="L95" s="368"/>
-      <c r="M95" s="369"/>
-      <c r="N95" s="369"/>
-      <c r="O95" s="370"/>
+      <c r="L95" s="367"/>
+      <c r="M95" s="368"/>
+      <c r="N95" s="368"/>
+      <c r="O95" s="369"/>
       <c r="P95" s="10"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24510,10 +24510,10 @@
       <c r="C96" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D96" s="328" t="s">
+      <c r="D96" s="337" t="s">
         <v>272</v>
       </c>
-      <c r="E96" s="329"/>
+      <c r="E96" s="338"/>
       <c r="F96" s="214"/>
       <c r="G96" s="214"/>
       <c r="H96" s="214" t="s">
@@ -24524,10 +24524,10 @@
       </c>
       <c r="J96" s="214"/>
       <c r="K96" s="241"/>
-      <c r="L96" s="330"/>
-      <c r="M96" s="330"/>
-      <c r="N96" s="330"/>
-      <c r="O96" s="331"/>
+      <c r="L96" s="328"/>
+      <c r="M96" s="328"/>
+      <c r="N96" s="328"/>
+      <c r="O96" s="329"/>
       <c r="P96" s="10"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24538,10 +24538,10 @@
       <c r="C97" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D97" s="328" t="s">
+      <c r="D97" s="337" t="s">
         <v>311</v>
       </c>
-      <c r="E97" s="329"/>
+      <c r="E97" s="338"/>
       <c r="F97" s="214"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214"/>
@@ -24552,28 +24552,28 @@
         <v>255</v>
       </c>
       <c r="K97" s="241"/>
-      <c r="L97" s="330"/>
-      <c r="M97" s="330"/>
-      <c r="N97" s="330"/>
-      <c r="O97" s="331"/>
+      <c r="L97" s="328"/>
+      <c r="M97" s="328"/>
+      <c r="N97" s="328"/>
+      <c r="O97" s="329"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="29"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="346"/>
-      <c r="E98" s="347"/>
+      <c r="D98" s="362"/>
+      <c r="E98" s="363"/>
       <c r="F98" s="215"/>
       <c r="G98" s="215"/>
       <c r="H98" s="215"/>
       <c r="I98" s="31"/>
       <c r="J98" s="215"/>
       <c r="K98" s="215"/>
-      <c r="L98" s="334"/>
-      <c r="M98" s="334"/>
-      <c r="N98" s="334"/>
-      <c r="O98" s="335"/>
+      <c r="L98" s="335"/>
+      <c r="M98" s="335"/>
+      <c r="N98" s="335"/>
+      <c r="O98" s="336"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24660,10 +24660,10 @@
       <c r="C103" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="336" t="s">
+      <c r="D103" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="337"/>
+      <c r="E103" s="344"/>
       <c r="F103" s="25" t="s">
         <v>31</v>
       </c>
@@ -24682,12 +24682,12 @@
       <c r="K103" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L103" s="338" t="s">
+      <c r="L103" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M103" s="338"/>
-      <c r="N103" s="338"/>
-      <c r="O103" s="339"/>
+      <c r="M103" s="345"/>
+      <c r="N103" s="345"/>
+      <c r="O103" s="346"/>
       <c r="P103" s="10"/>
     </row>
     <row r="104" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24698,10 +24698,10 @@
       <c r="C104" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D104" s="328" t="s">
+      <c r="D104" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E104" s="329"/>
+      <c r="E104" s="338"/>
       <c r="F104" s="214"/>
       <c r="G104" s="214"/>
       <c r="H104" s="214" t="s">
@@ -24714,12 +24714,12 @@
       <c r="K104" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L104" s="330" t="s">
+      <c r="L104" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M104" s="330"/>
-      <c r="N104" s="330"/>
-      <c r="O104" s="331"/>
+      <c r="M104" s="328"/>
+      <c r="N104" s="328"/>
+      <c r="O104" s="329"/>
       <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24730,10 +24730,10 @@
       <c r="C105" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="328" t="s">
+      <c r="D105" s="337" t="s">
         <v>406</v>
       </c>
-      <c r="E105" s="329"/>
+      <c r="E105" s="338"/>
       <c r="F105" s="214"/>
       <c r="G105" s="214"/>
       <c r="H105" s="214" t="s">
@@ -24744,10 +24744,10 @@
       </c>
       <c r="J105" s="214"/>
       <c r="K105" s="214"/>
-      <c r="L105" s="330"/>
-      <c r="M105" s="330"/>
-      <c r="N105" s="330"/>
-      <c r="O105" s="331"/>
+      <c r="L105" s="328"/>
+      <c r="M105" s="328"/>
+      <c r="N105" s="328"/>
+      <c r="O105" s="329"/>
       <c r="P105" s="10"/>
     </row>
     <row r="106" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24772,30 +24772,30 @@
       </c>
       <c r="J106" s="237"/>
       <c r="K106" s="237"/>
-      <c r="L106" s="343" t="s">
+      <c r="L106" s="364" t="s">
         <v>270</v>
       </c>
-      <c r="M106" s="344"/>
-      <c r="N106" s="344"/>
-      <c r="O106" s="345"/>
+      <c r="M106" s="365"/>
+      <c r="N106" s="365"/>
+      <c r="O106" s="366"/>
       <c r="P106" s="10"/>
     </row>
     <row r="107" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="29"/>
       <c r="C107" s="30"/>
-      <c r="D107" s="332"/>
-      <c r="E107" s="333"/>
+      <c r="D107" s="333"/>
+      <c r="E107" s="334"/>
       <c r="F107" s="215"/>
       <c r="G107" s="215"/>
       <c r="H107" s="215"/>
       <c r="I107" s="31"/>
       <c r="J107" s="215"/>
       <c r="K107" s="215"/>
-      <c r="L107" s="334"/>
-      <c r="M107" s="334"/>
-      <c r="N107" s="334"/>
-      <c r="O107" s="335"/>
+      <c r="L107" s="335"/>
+      <c r="M107" s="335"/>
+      <c r="N107" s="335"/>
+      <c r="O107" s="336"/>
       <c r="P107" s="10"/>
     </row>
     <row r="108" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24882,10 +24882,10 @@
       <c r="C112" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="336" t="s">
+      <c r="D112" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="337"/>
+      <c r="E112" s="344"/>
       <c r="F112" s="25" t="s">
         <v>31</v>
       </c>
@@ -24904,12 +24904,12 @@
       <c r="K112" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L112" s="338" t="s">
+      <c r="L112" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M112" s="338"/>
-      <c r="N112" s="338"/>
-      <c r="O112" s="339"/>
+      <c r="M112" s="345"/>
+      <c r="N112" s="345"/>
+      <c r="O112" s="346"/>
       <c r="P112" s="10"/>
     </row>
     <row r="113" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24920,10 +24920,10 @@
       <c r="C113" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="328" t="s">
+      <c r="D113" s="337" t="s">
         <v>269</v>
       </c>
-      <c r="E113" s="329"/>
+      <c r="E113" s="338"/>
       <c r="F113" s="214"/>
       <c r="G113" s="214"/>
       <c r="H113" s="214" t="s">
@@ -24936,12 +24936,12 @@
       <c r="K113" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L113" s="330" t="s">
+      <c r="L113" s="328" t="s">
         <v>265</v>
       </c>
-      <c r="M113" s="330"/>
-      <c r="N113" s="330"/>
-      <c r="O113" s="331"/>
+      <c r="M113" s="328"/>
+      <c r="N113" s="328"/>
+      <c r="O113" s="329"/>
       <c r="P113" s="10"/>
     </row>
     <row r="114" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24952,10 +24952,10 @@
       <c r="C114" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="D114" s="328" t="s">
+      <c r="D114" s="337" t="s">
         <v>245</v>
       </c>
-      <c r="E114" s="329"/>
+      <c r="E114" s="338"/>
       <c r="F114" s="214"/>
       <c r="G114" s="214"/>
       <c r="H114" s="214" t="s">
@@ -24966,12 +24966,12 @@
       </c>
       <c r="J114" s="214"/>
       <c r="K114" s="214"/>
-      <c r="L114" s="330" t="s">
+      <c r="L114" s="328" t="s">
         <v>346</v>
       </c>
-      <c r="M114" s="330"/>
-      <c r="N114" s="330"/>
-      <c r="O114" s="331"/>
+      <c r="M114" s="328"/>
+      <c r="N114" s="328"/>
+      <c r="O114" s="329"/>
       <c r="P114" s="10"/>
     </row>
     <row r="115" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24996,28 +24996,28 @@
       </c>
       <c r="J115" s="237"/>
       <c r="K115" s="237"/>
-      <c r="L115" s="385"/>
-      <c r="M115" s="386"/>
-      <c r="N115" s="386"/>
-      <c r="O115" s="387"/>
+      <c r="L115" s="339"/>
+      <c r="M115" s="340"/>
+      <c r="N115" s="340"/>
+      <c r="O115" s="341"/>
       <c r="P115" s="10"/>
     </row>
     <row r="116" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="29"/>
       <c r="C116" s="30"/>
-      <c r="D116" s="332"/>
-      <c r="E116" s="333"/>
+      <c r="D116" s="333"/>
+      <c r="E116" s="334"/>
       <c r="F116" s="215"/>
       <c r="G116" s="215"/>
       <c r="H116" s="215"/>
       <c r="I116" s="31"/>
       <c r="J116" s="215"/>
       <c r="K116" s="215"/>
-      <c r="L116" s="334"/>
-      <c r="M116" s="334"/>
-      <c r="N116" s="334"/>
-      <c r="O116" s="335"/>
+      <c r="L116" s="335"/>
+      <c r="M116" s="335"/>
+      <c r="N116" s="335"/>
+      <c r="O116" s="336"/>
       <c r="P116" s="10"/>
     </row>
     <row r="117" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25086,10 +25086,10 @@
       <c r="C120" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="336" t="s">
+      <c r="D120" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E120" s="337"/>
+      <c r="E120" s="344"/>
       <c r="F120" s="25" t="s">
         <v>31</v>
       </c>
@@ -25108,12 +25108,12 @@
       <c r="K120" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L120" s="338" t="s">
+      <c r="L120" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M120" s="338"/>
-      <c r="N120" s="338"/>
-      <c r="O120" s="339"/>
+      <c r="M120" s="345"/>
+      <c r="N120" s="345"/>
+      <c r="O120" s="346"/>
       <c r="P120" s="10"/>
     </row>
     <row r="121" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25124,10 +25124,10 @@
       <c r="C121" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D121" s="328" t="s">
+      <c r="D121" s="337" t="s">
         <v>302</v>
       </c>
-      <c r="E121" s="329"/>
+      <c r="E121" s="338"/>
       <c r="F121" s="214" t="s">
         <v>191</v>
       </c>
@@ -25142,10 +25142,10 @@
         <v>128</v>
       </c>
       <c r="K121" s="214"/>
-      <c r="L121" s="343"/>
-      <c r="M121" s="344"/>
-      <c r="N121" s="344"/>
-      <c r="O121" s="345"/>
+      <c r="L121" s="364"/>
+      <c r="M121" s="365"/>
+      <c r="N121" s="365"/>
+      <c r="O121" s="366"/>
       <c r="P121" s="10"/>
     </row>
     <row r="122" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25156,10 +25156,10 @@
       <c r="C122" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D122" s="328" t="s">
+      <c r="D122" s="337" t="s">
         <v>185</v>
       </c>
-      <c r="E122" s="329"/>
+      <c r="E122" s="338"/>
       <c r="F122" s="214"/>
       <c r="G122" s="214"/>
       <c r="H122" s="214" t="s">
@@ -25174,10 +25174,10 @@
       <c r="K122" s="214">
         <v>128</v>
       </c>
-      <c r="L122" s="330"/>
-      <c r="M122" s="330"/>
-      <c r="N122" s="330"/>
-      <c r="O122" s="331"/>
+      <c r="L122" s="328"/>
+      <c r="M122" s="328"/>
+      <c r="N122" s="328"/>
+      <c r="O122" s="329"/>
       <c r="P122" s="10"/>
     </row>
     <row r="123" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25202,12 +25202,12 @@
       </c>
       <c r="J123" s="237"/>
       <c r="K123" s="237"/>
-      <c r="L123" s="371" t="s">
+      <c r="L123" s="330" t="s">
         <v>367</v>
       </c>
-      <c r="M123" s="372"/>
-      <c r="N123" s="372"/>
-      <c r="O123" s="373"/>
+      <c r="M123" s="331"/>
+      <c r="N123" s="331"/>
+      <c r="O123" s="332"/>
       <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25234,12 +25234,12 @@
         <v>128</v>
       </c>
       <c r="K124" s="237"/>
-      <c r="L124" s="371" t="s">
+      <c r="L124" s="330" t="s">
         <v>369</v>
       </c>
-      <c r="M124" s="372"/>
-      <c r="N124" s="372"/>
-      <c r="O124" s="373"/>
+      <c r="M124" s="331"/>
+      <c r="N124" s="331"/>
+      <c r="O124" s="332"/>
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25250,10 +25250,10 @@
       <c r="C125" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D125" s="328" t="s">
+      <c r="D125" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="E125" s="329"/>
+      <c r="E125" s="338"/>
       <c r="F125" s="214"/>
       <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
@@ -25266,12 +25266,12 @@
       <c r="K125" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L125" s="330" t="s">
+      <c r="L125" s="328" t="s">
         <v>329</v>
       </c>
-      <c r="M125" s="330"/>
-      <c r="N125" s="330"/>
-      <c r="O125" s="331"/>
+      <c r="M125" s="328"/>
+      <c r="N125" s="328"/>
+      <c r="O125" s="329"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25296,28 +25296,28 @@
       </c>
       <c r="J126" s="237"/>
       <c r="K126" s="237"/>
-      <c r="L126" s="385"/>
-      <c r="M126" s="386"/>
-      <c r="N126" s="386"/>
-      <c r="O126" s="387"/>
+      <c r="L126" s="339"/>
+      <c r="M126" s="340"/>
+      <c r="N126" s="340"/>
+      <c r="O126" s="341"/>
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="29"/>
       <c r="C127" s="30"/>
-      <c r="D127" s="332"/>
-      <c r="E127" s="333"/>
+      <c r="D127" s="333"/>
+      <c r="E127" s="334"/>
       <c r="F127" s="215"/>
       <c r="G127" s="215"/>
       <c r="H127" s="215"/>
       <c r="I127" s="31"/>
       <c r="J127" s="215"/>
       <c r="K127" s="215"/>
-      <c r="L127" s="334"/>
-      <c r="M127" s="334"/>
-      <c r="N127" s="334"/>
-      <c r="O127" s="335"/>
+      <c r="L127" s="335"/>
+      <c r="M127" s="335"/>
+      <c r="N127" s="335"/>
+      <c r="O127" s="336"/>
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25404,10 +25404,10 @@
       <c r="C132" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D132" s="336" t="s">
+      <c r="D132" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="337"/>
+      <c r="E132" s="344"/>
       <c r="F132" s="25" t="s">
         <v>31</v>
       </c>
@@ -25426,12 +25426,12 @@
       <c r="K132" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L132" s="338" t="s">
+      <c r="L132" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M132" s="338"/>
-      <c r="N132" s="338"/>
-      <c r="O132" s="339"/>
+      <c r="M132" s="345"/>
+      <c r="N132" s="345"/>
+      <c r="O132" s="346"/>
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
@@ -25442,10 +25442,10 @@
       <c r="C133" s="233" t="s">
         <v>291</v>
       </c>
-      <c r="D133" s="340" t="s">
+      <c r="D133" s="347" t="s">
         <v>299</v>
       </c>
-      <c r="E133" s="341"/>
+      <c r="E133" s="348"/>
       <c r="F133" s="214" t="s">
         <v>191</v>
       </c>
@@ -25460,12 +25460,12 @@
         <v>12</v>
       </c>
       <c r="K133" s="214"/>
-      <c r="L133" s="382" t="s">
+      <c r="L133" s="359" t="s">
         <v>292</v>
       </c>
-      <c r="M133" s="383"/>
-      <c r="N133" s="383"/>
-      <c r="O133" s="384"/>
+      <c r="M133" s="360"/>
+      <c r="N133" s="360"/>
+      <c r="O133" s="361"/>
       <c r="P133" s="10"/>
     </row>
     <row r="134" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25476,10 +25476,10 @@
       <c r="C134" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D134" s="328" t="s">
+      <c r="D134" s="337" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="329"/>
+      <c r="E134" s="338"/>
       <c r="F134" s="214"/>
       <c r="G134" s="214"/>
       <c r="H134" s="214"/>
@@ -25490,10 +25490,10 @@
         <v>255</v>
       </c>
       <c r="K134" s="214"/>
-      <c r="L134" s="380"/>
-      <c r="M134" s="380"/>
-      <c r="N134" s="380"/>
-      <c r="O134" s="381"/>
+      <c r="L134" s="354"/>
+      <c r="M134" s="354"/>
+      <c r="N134" s="354"/>
+      <c r="O134" s="355"/>
       <c r="P134" s="10"/>
     </row>
     <row r="135" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25504,10 +25504,10 @@
       <c r="C135" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="328" t="s">
+      <c r="D135" s="337" t="s">
         <v>301</v>
       </c>
-      <c r="E135" s="329"/>
+      <c r="E135" s="338"/>
       <c r="F135" s="214"/>
       <c r="G135" s="214"/>
       <c r="H135" s="214" t="s">
@@ -25520,10 +25520,10 @@
         <v>30</v>
       </c>
       <c r="K135" s="214"/>
-      <c r="L135" s="380"/>
-      <c r="M135" s="380"/>
-      <c r="N135" s="380"/>
-      <c r="O135" s="381"/>
+      <c r="L135" s="354"/>
+      <c r="M135" s="354"/>
+      <c r="N135" s="354"/>
+      <c r="O135" s="355"/>
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25534,10 +25534,10 @@
       <c r="C136" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D136" s="328" t="s">
+      <c r="D136" s="337" t="s">
         <v>303</v>
       </c>
-      <c r="E136" s="329"/>
+      <c r="E136" s="338"/>
       <c r="F136" s="214"/>
       <c r="G136" s="214"/>
       <c r="H136" s="214"/>
@@ -25546,10 +25546,10 @@
       </c>
       <c r="J136" s="214"/>
       <c r="K136" s="214"/>
-      <c r="L136" s="390"/>
-      <c r="M136" s="391"/>
-      <c r="N136" s="391"/>
-      <c r="O136" s="392"/>
+      <c r="L136" s="356"/>
+      <c r="M136" s="357"/>
+      <c r="N136" s="357"/>
+      <c r="O136" s="358"/>
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25560,10 +25560,10 @@
       <c r="C137" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="328" t="s">
+      <c r="D137" s="337" t="s">
         <v>304</v>
       </c>
-      <c r="E137" s="329"/>
+      <c r="E137" s="338"/>
       <c r="F137" s="214"/>
       <c r="G137" s="214"/>
       <c r="H137" s="214"/>
@@ -25572,12 +25572,12 @@
       </c>
       <c r="J137" s="214"/>
       <c r="K137" s="241"/>
-      <c r="L137" s="377" t="s">
+      <c r="L137" s="351" t="s">
         <v>294</v>
       </c>
-      <c r="M137" s="378"/>
-      <c r="N137" s="378"/>
-      <c r="O137" s="379"/>
+      <c r="M137" s="352"/>
+      <c r="N137" s="352"/>
+      <c r="O137" s="353"/>
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25588,10 +25588,10 @@
       <c r="C138" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D138" s="328" t="s">
+      <c r="D138" s="337" t="s">
         <v>304</v>
       </c>
-      <c r="E138" s="329"/>
+      <c r="E138" s="338"/>
       <c r="F138" s="214"/>
       <c r="G138" s="214"/>
       <c r="H138" s="214"/>
@@ -25600,12 +25600,12 @@
       </c>
       <c r="J138" s="214"/>
       <c r="K138" s="241"/>
-      <c r="L138" s="377" t="s">
+      <c r="L138" s="351" t="s">
         <v>293</v>
       </c>
-      <c r="M138" s="378"/>
-      <c r="N138" s="378"/>
-      <c r="O138" s="379"/>
+      <c r="M138" s="352"/>
+      <c r="N138" s="352"/>
+      <c r="O138" s="353"/>
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25616,10 +25616,10 @@
       <c r="C139" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D139" s="328" t="s">
+      <c r="D139" s="337" t="s">
         <v>304</v>
       </c>
-      <c r="E139" s="329"/>
+      <c r="E139" s="338"/>
       <c r="F139" s="214"/>
       <c r="G139" s="214"/>
       <c r="H139" s="214"/>
@@ -25630,10 +25630,10 @@
         <v>128</v>
       </c>
       <c r="K139" s="241"/>
-      <c r="L139" s="377"/>
-      <c r="M139" s="378"/>
-      <c r="N139" s="378"/>
-      <c r="O139" s="379"/>
+      <c r="L139" s="351"/>
+      <c r="M139" s="352"/>
+      <c r="N139" s="352"/>
+      <c r="O139" s="353"/>
       <c r="P139" s="10"/>
     </row>
     <row r="140" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25644,10 +25644,10 @@
       <c r="C140" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D140" s="328" t="s">
+      <c r="D140" s="337" t="s">
         <v>305</v>
       </c>
-      <c r="E140" s="329"/>
+      <c r="E140" s="338"/>
       <c r="F140" s="214"/>
       <c r="G140" s="214"/>
       <c r="H140" s="214"/>
@@ -25658,12 +25658,12 @@
         <v>255</v>
       </c>
       <c r="K140" s="241"/>
-      <c r="L140" s="377" t="s">
+      <c r="L140" s="351" t="s">
         <v>295</v>
       </c>
-      <c r="M140" s="378"/>
-      <c r="N140" s="378"/>
-      <c r="O140" s="379"/>
+      <c r="M140" s="352"/>
+      <c r="N140" s="352"/>
+      <c r="O140" s="353"/>
       <c r="P140" s="10"/>
     </row>
     <row r="141" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25674,10 +25674,10 @@
       <c r="C141" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D141" s="328" t="s">
+      <c r="D141" s="337" t="s">
         <v>306</v>
       </c>
-      <c r="E141" s="329"/>
+      <c r="E141" s="338"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
@@ -25688,12 +25688,12 @@
         <v>255</v>
       </c>
       <c r="K141" s="241"/>
-      <c r="L141" s="377" t="s">
+      <c r="L141" s="351" t="s">
         <v>296</v>
       </c>
-      <c r="M141" s="378"/>
-      <c r="N141" s="378"/>
-      <c r="O141" s="379"/>
+      <c r="M141" s="352"/>
+      <c r="N141" s="352"/>
+      <c r="O141" s="353"/>
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25730,10 +25730,10 @@
       <c r="C143" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D143" s="328" t="s">
+      <c r="D143" s="337" t="s">
         <v>307</v>
       </c>
-      <c r="E143" s="329"/>
+      <c r="E143" s="338"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
@@ -25742,12 +25742,12 @@
       </c>
       <c r="J143" s="214"/>
       <c r="K143" s="241"/>
-      <c r="L143" s="380" t="s">
+      <c r="L143" s="354" t="s">
         <v>297</v>
       </c>
-      <c r="M143" s="380"/>
-      <c r="N143" s="380"/>
-      <c r="O143" s="381"/>
+      <c r="M143" s="354"/>
+      <c r="N143" s="354"/>
+      <c r="O143" s="355"/>
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25758,10 +25758,10 @@
       <c r="C144" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D144" s="328" t="s">
+      <c r="D144" s="337" t="s">
         <v>309</v>
       </c>
-      <c r="E144" s="329"/>
+      <c r="E144" s="338"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
@@ -25770,12 +25770,12 @@
       </c>
       <c r="J144" s="214"/>
       <c r="K144" s="241"/>
-      <c r="L144" s="380" t="s">
+      <c r="L144" s="354" t="s">
         <v>354</v>
       </c>
-      <c r="M144" s="380"/>
-      <c r="N144" s="380"/>
-      <c r="O144" s="381"/>
+      <c r="M144" s="354"/>
+      <c r="N144" s="354"/>
+      <c r="O144" s="355"/>
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25786,10 +25786,10 @@
       <c r="C145" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D145" s="328" t="s">
+      <c r="D145" s="337" t="s">
         <v>308</v>
       </c>
-      <c r="E145" s="329"/>
+      <c r="E145" s="338"/>
       <c r="F145" s="214"/>
       <c r="G145" s="214"/>
       <c r="H145" s="214"/>
@@ -25798,12 +25798,12 @@
       </c>
       <c r="J145" s="214"/>
       <c r="K145" s="241"/>
-      <c r="L145" s="380" t="s">
+      <c r="L145" s="354" t="s">
         <v>350</v>
       </c>
-      <c r="M145" s="380"/>
-      <c r="N145" s="380"/>
-      <c r="O145" s="381"/>
+      <c r="M145" s="354"/>
+      <c r="N145" s="354"/>
+      <c r="O145" s="355"/>
       <c r="P145" s="10"/>
     </row>
     <row r="146" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25814,10 +25814,10 @@
       <c r="C146" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="D146" s="328" t="s">
+      <c r="D146" s="337" t="s">
         <v>310</v>
       </c>
-      <c r="E146" s="329"/>
+      <c r="E146" s="338"/>
       <c r="F146" s="237"/>
       <c r="G146" s="237"/>
       <c r="H146" s="237"/>
@@ -25828,28 +25828,28 @@
         <v>255</v>
       </c>
       <c r="K146" s="242"/>
-      <c r="L146" s="380"/>
-      <c r="M146" s="380"/>
-      <c r="N146" s="380"/>
-      <c r="O146" s="381"/>
+      <c r="L146" s="354"/>
+      <c r="M146" s="354"/>
+      <c r="N146" s="354"/>
+      <c r="O146" s="355"/>
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="9"/>
       <c r="B147" s="29"/>
       <c r="C147" s="30"/>
-      <c r="D147" s="332"/>
-      <c r="E147" s="333"/>
+      <c r="D147" s="333"/>
+      <c r="E147" s="334"/>
       <c r="F147" s="215"/>
       <c r="G147" s="215"/>
       <c r="H147" s="215"/>
       <c r="I147" s="31"/>
       <c r="J147" s="215"/>
       <c r="K147" s="215"/>
-      <c r="L147" s="388"/>
-      <c r="M147" s="388"/>
-      <c r="N147" s="388"/>
-      <c r="O147" s="389"/>
+      <c r="L147" s="349"/>
+      <c r="M147" s="349"/>
+      <c r="N147" s="349"/>
+      <c r="O147" s="350"/>
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -25954,10 +25954,10 @@
       <c r="C153" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D153" s="336" t="s">
+      <c r="D153" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="337"/>
+      <c r="E153" s="344"/>
       <c r="F153" s="25" t="s">
         <v>31</v>
       </c>
@@ -25976,12 +25976,12 @@
       <c r="K153" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L153" s="338" t="s">
+      <c r="L153" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M153" s="338"/>
-      <c r="N153" s="338"/>
-      <c r="O153" s="339"/>
+      <c r="M153" s="345"/>
+      <c r="N153" s="345"/>
+      <c r="O153" s="346"/>
       <c r="P153" s="10"/>
     </row>
     <row r="154" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25992,10 +25992,10 @@
       <c r="C154" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D154" s="328" t="s">
+      <c r="D154" s="337" t="s">
         <v>315</v>
       </c>
-      <c r="E154" s="329"/>
+      <c r="E154" s="338"/>
       <c r="F154" s="214"/>
       <c r="G154" s="214"/>
       <c r="H154" s="214" t="s">
@@ -26008,10 +26008,10 @@
         <v>255</v>
       </c>
       <c r="K154" s="214"/>
-      <c r="L154" s="330"/>
-      <c r="M154" s="330"/>
-      <c r="N154" s="330"/>
-      <c r="O154" s="331"/>
+      <c r="L154" s="328"/>
+      <c r="M154" s="328"/>
+      <c r="N154" s="328"/>
+      <c r="O154" s="329"/>
       <c r="P154" s="10"/>
     </row>
     <row r="155" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26022,10 +26022,10 @@
       <c r="C155" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D155" s="328" t="s">
+      <c r="D155" s="337" t="s">
         <v>316</v>
       </c>
-      <c r="E155" s="329"/>
+      <c r="E155" s="338"/>
       <c r="F155" s="214"/>
       <c r="G155" s="214"/>
       <c r="H155" s="214"/>
@@ -26036,10 +26036,10 @@
         <v>255</v>
       </c>
       <c r="K155" s="214"/>
-      <c r="L155" s="330"/>
-      <c r="M155" s="330"/>
-      <c r="N155" s="330"/>
-      <c r="O155" s="331"/>
+      <c r="L155" s="328"/>
+      <c r="M155" s="328"/>
+      <c r="N155" s="328"/>
+      <c r="O155" s="329"/>
       <c r="P155" s="10"/>
     </row>
     <row r="156" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26064,10 +26064,10 @@
         <v>255</v>
       </c>
       <c r="K156" s="214"/>
-      <c r="L156" s="330"/>
-      <c r="M156" s="330"/>
-      <c r="N156" s="330"/>
-      <c r="O156" s="331"/>
+      <c r="L156" s="328"/>
+      <c r="M156" s="328"/>
+      <c r="N156" s="328"/>
+      <c r="O156" s="329"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26078,10 +26078,10 @@
       <c r="C157" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D157" s="328" t="s">
+      <c r="D157" s="337" t="s">
         <v>317</v>
       </c>
-      <c r="E157" s="329"/>
+      <c r="E157" s="338"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
       <c r="H157" s="214" t="s">
@@ -26092,12 +26092,12 @@
       </c>
       <c r="J157" s="214"/>
       <c r="K157" s="214"/>
-      <c r="L157" s="330" t="s">
+      <c r="L157" s="328" t="s">
         <v>347</v>
       </c>
-      <c r="M157" s="330"/>
-      <c r="N157" s="330"/>
-      <c r="O157" s="331"/>
+      <c r="M157" s="328"/>
+      <c r="N157" s="328"/>
+      <c r="O157" s="329"/>
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26108,10 +26108,10 @@
       <c r="C158" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D158" s="328" t="s">
+      <c r="D158" s="337" t="s">
         <v>319</v>
       </c>
-      <c r="E158" s="329"/>
+      <c r="E158" s="338"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
       <c r="H158" s="214" t="s">
@@ -26124,30 +26124,30 @@
       <c r="K158" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L158" s="330" t="s">
+      <c r="L158" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M158" s="330"/>
-      <c r="N158" s="330"/>
-      <c r="O158" s="331"/>
+      <c r="M158" s="328"/>
+      <c r="N158" s="328"/>
+      <c r="O158" s="329"/>
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="9"/>
       <c r="B159" s="29"/>
       <c r="C159" s="30"/>
-      <c r="D159" s="332"/>
-      <c r="E159" s="333"/>
+      <c r="D159" s="333"/>
+      <c r="E159" s="334"/>
       <c r="F159" s="215"/>
       <c r="G159" s="215"/>
       <c r="H159" s="215"/>
       <c r="I159" s="31"/>
       <c r="J159" s="215"/>
       <c r="K159" s="215"/>
-      <c r="L159" s="334"/>
-      <c r="M159" s="334"/>
-      <c r="N159" s="334"/>
-      <c r="O159" s="335"/>
+      <c r="L159" s="335"/>
+      <c r="M159" s="335"/>
+      <c r="N159" s="335"/>
+      <c r="O159" s="336"/>
       <c r="P159" s="10"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
@@ -26234,10 +26234,10 @@
       <c r="C164" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="336" t="s">
+      <c r="D164" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E164" s="337"/>
+      <c r="E164" s="344"/>
       <c r="F164" s="25" t="s">
         <v>31</v>
       </c>
@@ -26256,12 +26256,12 @@
       <c r="K164" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L164" s="338" t="s">
+      <c r="L164" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M164" s="338"/>
-      <c r="N164" s="338"/>
-      <c r="O164" s="339"/>
+      <c r="M164" s="345"/>
+      <c r="N164" s="345"/>
+      <c r="O164" s="346"/>
       <c r="P164" s="10"/>
     </row>
     <row r="165" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26272,10 +26272,10 @@
       <c r="C165" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D165" s="328" t="s">
+      <c r="D165" s="337" t="s">
         <v>320</v>
       </c>
-      <c r="E165" s="329"/>
+      <c r="E165" s="338"/>
       <c r="F165" s="214"/>
       <c r="G165" s="214"/>
       <c r="H165" s="214" t="s">
@@ -26288,10 +26288,10 @@
         <v>255</v>
       </c>
       <c r="K165" s="214"/>
-      <c r="L165" s="330"/>
-      <c r="M165" s="330"/>
-      <c r="N165" s="330"/>
-      <c r="O165" s="331"/>
+      <c r="L165" s="328"/>
+      <c r="M165" s="328"/>
+      <c r="N165" s="328"/>
+      <c r="O165" s="329"/>
       <c r="P165" s="10"/>
     </row>
     <row r="166" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26302,10 +26302,10 @@
       <c r="C166" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D166" s="328" t="s">
+      <c r="D166" s="337" t="s">
         <v>321</v>
       </c>
-      <c r="E166" s="329"/>
+      <c r="E166" s="338"/>
       <c r="F166" s="214"/>
       <c r="G166" s="214"/>
       <c r="H166" s="214"/>
@@ -26316,10 +26316,10 @@
         <v>255</v>
       </c>
       <c r="K166" s="214"/>
-      <c r="L166" s="330"/>
-      <c r="M166" s="330"/>
-      <c r="N166" s="330"/>
-      <c r="O166" s="331"/>
+      <c r="L166" s="328"/>
+      <c r="M166" s="328"/>
+      <c r="N166" s="328"/>
+      <c r="O166" s="329"/>
       <c r="P166" s="10"/>
     </row>
     <row r="167" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26344,30 +26344,30 @@
       <c r="K167" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L167" s="330" t="s">
+      <c r="L167" s="328" t="s">
         <v>323</v>
       </c>
-      <c r="M167" s="330"/>
-      <c r="N167" s="330"/>
-      <c r="O167" s="331"/>
+      <c r="M167" s="328"/>
+      <c r="N167" s="328"/>
+      <c r="O167" s="329"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="29"/>
       <c r="C168" s="30"/>
-      <c r="D168" s="332"/>
-      <c r="E168" s="333"/>
+      <c r="D168" s="333"/>
+      <c r="E168" s="334"/>
       <c r="F168" s="215"/>
       <c r="G168" s="215"/>
       <c r="H168" s="215"/>
       <c r="I168" s="31"/>
       <c r="J168" s="215"/>
       <c r="K168" s="215"/>
-      <c r="L168" s="334"/>
-      <c r="M168" s="334"/>
-      <c r="N168" s="334"/>
-      <c r="O168" s="335"/>
+      <c r="L168" s="335"/>
+      <c r="M168" s="335"/>
+      <c r="N168" s="335"/>
+      <c r="O168" s="336"/>
       <c r="P168" s="10"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
@@ -26454,10 +26454,10 @@
       <c r="C173" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="336" t="s">
+      <c r="D173" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E173" s="337"/>
+      <c r="E173" s="344"/>
       <c r="F173" s="25" t="s">
         <v>31</v>
       </c>
@@ -26476,12 +26476,12 @@
       <c r="K173" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L173" s="338" t="s">
+      <c r="L173" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M173" s="338"/>
-      <c r="N173" s="338"/>
-      <c r="O173" s="339"/>
+      <c r="M173" s="345"/>
+      <c r="N173" s="345"/>
+      <c r="O173" s="346"/>
       <c r="P173" s="10"/>
     </row>
     <row r="174" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26492,10 +26492,10 @@
       <c r="C174" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="328" t="s">
+      <c r="D174" s="337" t="s">
         <v>320</v>
       </c>
-      <c r="E174" s="329"/>
+      <c r="E174" s="338"/>
       <c r="F174" s="214"/>
       <c r="G174" s="214"/>
       <c r="H174" s="214" t="s">
@@ -26508,10 +26508,10 @@
         <v>255</v>
       </c>
       <c r="K174" s="214"/>
-      <c r="L174" s="330"/>
-      <c r="M174" s="330"/>
-      <c r="N174" s="330"/>
-      <c r="O174" s="331"/>
+      <c r="L174" s="328"/>
+      <c r="M174" s="328"/>
+      <c r="N174" s="328"/>
+      <c r="O174" s="329"/>
       <c r="P174" s="10"/>
     </row>
     <row r="175" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26522,10 +26522,10 @@
       <c r="C175" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D175" s="328" t="s">
+      <c r="D175" s="337" t="s">
         <v>321</v>
       </c>
-      <c r="E175" s="329"/>
+      <c r="E175" s="338"/>
       <c r="F175" s="214"/>
       <c r="G175" s="214"/>
       <c r="H175" s="214"/>
@@ -26536,10 +26536,10 @@
         <v>255</v>
       </c>
       <c r="K175" s="214"/>
-      <c r="L175" s="330"/>
-      <c r="M175" s="330"/>
-      <c r="N175" s="330"/>
-      <c r="O175" s="331"/>
+      <c r="L175" s="328"/>
+      <c r="M175" s="328"/>
+      <c r="N175" s="328"/>
+      <c r="O175" s="329"/>
       <c r="P175" s="10"/>
     </row>
     <row r="176" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26564,30 +26564,30 @@
       <c r="K176" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L176" s="330" t="s">
+      <c r="L176" s="328" t="s">
         <v>268</v>
       </c>
-      <c r="M176" s="330"/>
-      <c r="N176" s="330"/>
-      <c r="O176" s="331"/>
+      <c r="M176" s="328"/>
+      <c r="N176" s="328"/>
+      <c r="O176" s="329"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="29"/>
       <c r="C177" s="30"/>
-      <c r="D177" s="332"/>
-      <c r="E177" s="333"/>
+      <c r="D177" s="333"/>
+      <c r="E177" s="334"/>
       <c r="F177" s="215"/>
       <c r="G177" s="215"/>
       <c r="H177" s="215"/>
       <c r="I177" s="31"/>
       <c r="J177" s="215"/>
       <c r="K177" s="215"/>
-      <c r="L177" s="334"/>
-      <c r="M177" s="334"/>
-      <c r="N177" s="334"/>
-      <c r="O177" s="335"/>
+      <c r="L177" s="335"/>
+      <c r="M177" s="335"/>
+      <c r="N177" s="335"/>
+      <c r="O177" s="336"/>
       <c r="P177" s="10"/>
     </row>
     <row r="178" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26674,10 +26674,10 @@
       <c r="C182" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D182" s="336" t="s">
+      <c r="D182" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E182" s="337"/>
+      <c r="E182" s="344"/>
       <c r="F182" s="25" t="s">
         <v>31</v>
       </c>
@@ -26696,12 +26696,12 @@
       <c r="K182" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L182" s="338" t="s">
+      <c r="L182" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M182" s="338"/>
-      <c r="N182" s="338"/>
-      <c r="O182" s="339"/>
+      <c r="M182" s="345"/>
+      <c r="N182" s="345"/>
+      <c r="O182" s="346"/>
       <c r="P182" s="10"/>
     </row>
     <row r="183" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26712,10 +26712,10 @@
       <c r="C183" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D183" s="328" t="s">
+      <c r="D183" s="337" t="s">
         <v>328</v>
       </c>
-      <c r="E183" s="329"/>
+      <c r="E183" s="338"/>
       <c r="F183" s="214"/>
       <c r="G183" s="214"/>
       <c r="H183" s="214" t="s">
@@ -26728,10 +26728,10 @@
         <v>255</v>
       </c>
       <c r="K183" s="214"/>
-      <c r="L183" s="330"/>
-      <c r="M183" s="330"/>
-      <c r="N183" s="330"/>
-      <c r="O183" s="331"/>
+      <c r="L183" s="328"/>
+      <c r="M183" s="328"/>
+      <c r="N183" s="328"/>
+      <c r="O183" s="329"/>
       <c r="P183" s="10"/>
     </row>
     <row r="184" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26742,10 +26742,10 @@
       <c r="C184" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D184" s="328" t="s">
+      <c r="D184" s="337" t="s">
         <v>411</v>
       </c>
-      <c r="E184" s="329"/>
+      <c r="E184" s="338"/>
       <c r="F184" s="214"/>
       <c r="G184" s="214"/>
       <c r="H184" s="214"/>
@@ -26756,28 +26756,28 @@
         <v>255</v>
       </c>
       <c r="K184" s="214"/>
-      <c r="L184" s="330"/>
-      <c r="M184" s="330"/>
-      <c r="N184" s="330"/>
-      <c r="O184" s="331"/>
+      <c r="L184" s="328"/>
+      <c r="M184" s="328"/>
+      <c r="N184" s="328"/>
+      <c r="O184" s="329"/>
       <c r="P184" s="10"/>
     </row>
     <row r="185" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="9"/>
       <c r="B185" s="29"/>
       <c r="C185" s="30"/>
-      <c r="D185" s="332"/>
-      <c r="E185" s="333"/>
+      <c r="D185" s="333"/>
+      <c r="E185" s="334"/>
       <c r="F185" s="215"/>
       <c r="G185" s="215"/>
       <c r="H185" s="215"/>
       <c r="I185" s="31"/>
       <c r="J185" s="215"/>
       <c r="K185" s="215"/>
-      <c r="L185" s="334"/>
-      <c r="M185" s="334"/>
-      <c r="N185" s="334"/>
-      <c r="O185" s="335"/>
+      <c r="L185" s="335"/>
+      <c r="M185" s="335"/>
+      <c r="N185" s="335"/>
+      <c r="O185" s="336"/>
       <c r="P185" s="10"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
@@ -26882,10 +26882,10 @@
       <c r="C191" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D191" s="336" t="s">
+      <c r="D191" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="337"/>
+      <c r="E191" s="344"/>
       <c r="F191" s="25" t="s">
         <v>31</v>
       </c>
@@ -26904,12 +26904,12 @@
       <c r="K191" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L191" s="338" t="s">
+      <c r="L191" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M191" s="338"/>
-      <c r="N191" s="338"/>
-      <c r="O191" s="339"/>
+      <c r="M191" s="345"/>
+      <c r="N191" s="345"/>
+      <c r="O191" s="346"/>
       <c r="P191" s="10"/>
     </row>
     <row r="192" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26920,10 +26920,10 @@
       <c r="C192" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D192" s="328" t="s">
+      <c r="D192" s="337" t="s">
         <v>340</v>
       </c>
-      <c r="E192" s="329"/>
+      <c r="E192" s="338"/>
       <c r="F192" s="214"/>
       <c r="G192" s="214"/>
       <c r="H192" s="214" t="s">
@@ -26936,10 +26936,10 @@
         <v>255</v>
       </c>
       <c r="K192" s="214"/>
-      <c r="L192" s="330"/>
-      <c r="M192" s="330"/>
-      <c r="N192" s="330"/>
-      <c r="O192" s="331"/>
+      <c r="L192" s="328"/>
+      <c r="M192" s="328"/>
+      <c r="N192" s="328"/>
+      <c r="O192" s="329"/>
       <c r="P192" s="10"/>
     </row>
     <row r="193" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26950,10 +26950,10 @@
       <c r="C193" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D193" s="328" t="s">
+      <c r="D193" s="337" t="s">
         <v>341</v>
       </c>
-      <c r="E193" s="329"/>
+      <c r="E193" s="338"/>
       <c r="F193" s="214"/>
       <c r="G193" s="214"/>
       <c r="H193" s="214" t="s">
@@ -26964,12 +26964,12 @@
       </c>
       <c r="J193" s="214"/>
       <c r="K193" s="214"/>
-      <c r="L193" s="330" t="s">
+      <c r="L193" s="328" t="s">
         <v>342</v>
       </c>
-      <c r="M193" s="330"/>
-      <c r="N193" s="330"/>
-      <c r="O193" s="331"/>
+      <c r="M193" s="328"/>
+      <c r="N193" s="328"/>
+      <c r="O193" s="329"/>
       <c r="P193" s="10"/>
     </row>
     <row r="194" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -26980,10 +26980,10 @@
       <c r="C194" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D194" s="346" t="s">
+      <c r="D194" s="362" t="s">
         <v>247</v>
       </c>
-      <c r="E194" s="347"/>
+      <c r="E194" s="363"/>
       <c r="F194" s="215"/>
       <c r="G194" s="215"/>
       <c r="H194" s="215"/>
@@ -26994,10 +26994,10 @@
         <v>255</v>
       </c>
       <c r="K194" s="215"/>
-      <c r="L194" s="334"/>
-      <c r="M194" s="334"/>
-      <c r="N194" s="334"/>
-      <c r="O194" s="335"/>
+      <c r="L194" s="335"/>
+      <c r="M194" s="335"/>
+      <c r="N194" s="335"/>
+      <c r="O194" s="336"/>
       <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
@@ -27084,10 +27084,10 @@
       <c r="C199" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D199" s="336" t="s">
+      <c r="D199" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E199" s="337"/>
+      <c r="E199" s="344"/>
       <c r="F199" s="25" t="s">
         <v>31</v>
       </c>
@@ -27106,12 +27106,12 @@
       <c r="K199" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L199" s="338" t="s">
+      <c r="L199" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M199" s="338"/>
-      <c r="N199" s="338"/>
-      <c r="O199" s="339"/>
+      <c r="M199" s="345"/>
+      <c r="N199" s="345"/>
+      <c r="O199" s="346"/>
       <c r="P199" s="10"/>
     </row>
     <row r="200" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27122,10 +27122,10 @@
       <c r="C200" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D200" s="328" t="s">
+      <c r="D200" s="337" t="s">
         <v>412</v>
       </c>
-      <c r="E200" s="329"/>
+      <c r="E200" s="338"/>
       <c r="F200" s="214"/>
       <c r="G200" s="214"/>
       <c r="H200" s="214" t="s">
@@ -27138,12 +27138,12 @@
         <v>255</v>
       </c>
       <c r="K200" s="214"/>
-      <c r="L200" s="330" t="s">
+      <c r="L200" s="328" t="s">
         <v>364</v>
       </c>
-      <c r="M200" s="330"/>
-      <c r="N200" s="330"/>
-      <c r="O200" s="331"/>
+      <c r="M200" s="328"/>
+      <c r="N200" s="328"/>
+      <c r="O200" s="329"/>
       <c r="P200" s="10"/>
     </row>
     <row r="201" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27154,10 +27154,10 @@
       <c r="C201" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="D201" s="328" t="s">
+      <c r="D201" s="337" t="s">
         <v>341</v>
       </c>
-      <c r="E201" s="329"/>
+      <c r="E201" s="338"/>
       <c r="F201" s="214"/>
       <c r="G201" s="214"/>
       <c r="H201" s="214" t="s">
@@ -27168,10 +27168,10 @@
       </c>
       <c r="J201" s="214"/>
       <c r="K201" s="214"/>
-      <c r="L201" s="330"/>
-      <c r="M201" s="330"/>
-      <c r="N201" s="330"/>
-      <c r="O201" s="331"/>
+      <c r="L201" s="328"/>
+      <c r="M201" s="328"/>
+      <c r="N201" s="328"/>
+      <c r="O201" s="329"/>
       <c r="P201" s="10"/>
     </row>
     <row r="202" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27196,28 +27196,28 @@
         <v>255</v>
       </c>
       <c r="K202" s="237"/>
-      <c r="L202" s="330"/>
-      <c r="M202" s="330"/>
-      <c r="N202" s="330"/>
-      <c r="O202" s="331"/>
+      <c r="L202" s="328"/>
+      <c r="M202" s="328"/>
+      <c r="N202" s="328"/>
+      <c r="O202" s="329"/>
       <c r="P202" s="10"/>
     </row>
     <row r="203" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9"/>
       <c r="B203" s="29"/>
       <c r="C203" s="30"/>
-      <c r="D203" s="332"/>
-      <c r="E203" s="333"/>
+      <c r="D203" s="333"/>
+      <c r="E203" s="334"/>
       <c r="F203" s="215"/>
       <c r="G203" s="215"/>
       <c r="H203" s="215"/>
       <c r="I203" s="31"/>
       <c r="J203" s="215"/>
       <c r="K203" s="215"/>
-      <c r="L203" s="334"/>
-      <c r="M203" s="334"/>
-      <c r="N203" s="334"/>
-      <c r="O203" s="335"/>
+      <c r="L203" s="335"/>
+      <c r="M203" s="335"/>
+      <c r="N203" s="335"/>
+      <c r="O203" s="336"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
@@ -27304,10 +27304,10 @@
       <c r="C208" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D208" s="336" t="s">
+      <c r="D208" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E208" s="337"/>
+      <c r="E208" s="344"/>
       <c r="F208" s="25" t="s">
         <v>31</v>
       </c>
@@ -27326,12 +27326,12 @@
       <c r="K208" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L208" s="338" t="s">
+      <c r="L208" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M208" s="338"/>
-      <c r="N208" s="338"/>
-      <c r="O208" s="339"/>
+      <c r="M208" s="345"/>
+      <c r="N208" s="345"/>
+      <c r="O208" s="346"/>
       <c r="P208" s="10"/>
     </row>
     <row r="209" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27342,10 +27342,10 @@
       <c r="C209" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D209" s="328" t="s">
+      <c r="D209" s="337" t="s">
         <v>414</v>
       </c>
-      <c r="E209" s="329"/>
+      <c r="E209" s="338"/>
       <c r="F209" s="214"/>
       <c r="G209" s="214"/>
       <c r="H209" s="214" t="s">
@@ -27358,12 +27358,12 @@
         <v>255</v>
       </c>
       <c r="K209" s="214"/>
-      <c r="L209" s="330" t="s">
+      <c r="L209" s="328" t="s">
         <v>349</v>
       </c>
-      <c r="M209" s="330"/>
-      <c r="N209" s="330"/>
-      <c r="O209" s="331"/>
+      <c r="M209" s="328"/>
+      <c r="N209" s="328"/>
+      <c r="O209" s="329"/>
       <c r="P209" s="10"/>
     </row>
     <row r="210" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27388,28 +27388,28 @@
         <v>255</v>
       </c>
       <c r="K210" s="237"/>
-      <c r="L210" s="330"/>
-      <c r="M210" s="330"/>
-      <c r="N210" s="330"/>
-      <c r="O210" s="331"/>
+      <c r="L210" s="328"/>
+      <c r="M210" s="328"/>
+      <c r="N210" s="328"/>
+      <c r="O210" s="329"/>
       <c r="P210" s="10"/>
     </row>
     <row r="211" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="9"/>
       <c r="B211" s="29"/>
       <c r="C211" s="30"/>
-      <c r="D211" s="332"/>
-      <c r="E211" s="333"/>
+      <c r="D211" s="333"/>
+      <c r="E211" s="334"/>
       <c r="F211" s="215"/>
       <c r="G211" s="215"/>
       <c r="H211" s="215"/>
       <c r="I211" s="31"/>
       <c r="J211" s="215"/>
       <c r="K211" s="215"/>
-      <c r="L211" s="334"/>
-      <c r="M211" s="334"/>
-      <c r="N211" s="334"/>
-      <c r="O211" s="335"/>
+      <c r="L211" s="335"/>
+      <c r="M211" s="335"/>
+      <c r="N211" s="335"/>
+      <c r="O211" s="336"/>
       <c r="P211" s="10"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
@@ -27496,10 +27496,10 @@
       <c r="C216" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D216" s="336" t="s">
+      <c r="D216" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E216" s="337"/>
+      <c r="E216" s="344"/>
       <c r="F216" s="25" t="s">
         <v>31</v>
       </c>
@@ -27518,12 +27518,12 @@
       <c r="K216" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L216" s="338" t="s">
+      <c r="L216" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M216" s="338"/>
-      <c r="N216" s="338"/>
-      <c r="O216" s="339"/>
+      <c r="M216" s="345"/>
+      <c r="N216" s="345"/>
+      <c r="O216" s="346"/>
       <c r="P216" s="10"/>
     </row>
     <row r="217" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27534,10 +27534,10 @@
       <c r="C217" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D217" s="328" t="s">
+      <c r="D217" s="337" t="s">
         <v>352</v>
       </c>
-      <c r="E217" s="329"/>
+      <c r="E217" s="338"/>
       <c r="F217" s="214"/>
       <c r="G217" s="214"/>
       <c r="H217" s="214" t="s">
@@ -27550,12 +27550,12 @@
         <v>255</v>
       </c>
       <c r="K217" s="214"/>
-      <c r="L217" s="330" t="s">
+      <c r="L217" s="328" t="s">
         <v>353</v>
       </c>
-      <c r="M217" s="330"/>
-      <c r="N217" s="330"/>
-      <c r="O217" s="331"/>
+      <c r="M217" s="328"/>
+      <c r="N217" s="328"/>
+      <c r="O217" s="329"/>
       <c r="P217" s="10"/>
     </row>
     <row r="218" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27580,28 +27580,28 @@
         <v>255</v>
       </c>
       <c r="K218" s="237"/>
-      <c r="L218" s="330"/>
-      <c r="M218" s="330"/>
-      <c r="N218" s="330"/>
-      <c r="O218" s="331"/>
+      <c r="L218" s="328"/>
+      <c r="M218" s="328"/>
+      <c r="N218" s="328"/>
+      <c r="O218" s="329"/>
       <c r="P218" s="10"/>
     </row>
     <row r="219" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="9"/>
       <c r="B219" s="29"/>
       <c r="C219" s="30"/>
-      <c r="D219" s="332"/>
-      <c r="E219" s="333"/>
+      <c r="D219" s="333"/>
+      <c r="E219" s="334"/>
       <c r="F219" s="215"/>
       <c r="G219" s="215"/>
       <c r="H219" s="215"/>
       <c r="I219" s="31"/>
       <c r="J219" s="215"/>
       <c r="K219" s="215"/>
-      <c r="L219" s="334"/>
-      <c r="M219" s="334"/>
-      <c r="N219" s="334"/>
-      <c r="O219" s="335"/>
+      <c r="L219" s="335"/>
+      <c r="M219" s="335"/>
+      <c r="N219" s="335"/>
+      <c r="O219" s="336"/>
       <c r="P219" s="10"/>
     </row>
     <row r="220" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27688,10 +27688,10 @@
       <c r="C224" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="336" t="s">
+      <c r="D224" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E224" s="337"/>
+      <c r="E224" s="344"/>
       <c r="F224" s="25" t="s">
         <v>31</v>
       </c>
@@ -27710,12 +27710,12 @@
       <c r="K224" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L224" s="338" t="s">
+      <c r="L224" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M224" s="338"/>
-      <c r="N224" s="338"/>
-      <c r="O224" s="339"/>
+      <c r="M224" s="345"/>
+      <c r="N224" s="345"/>
+      <c r="O224" s="346"/>
       <c r="P224" s="10"/>
     </row>
     <row r="225" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27726,10 +27726,10 @@
       <c r="C225" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D225" s="328" t="s">
+      <c r="D225" s="337" t="s">
         <v>390</v>
       </c>
-      <c r="E225" s="329"/>
+      <c r="E225" s="338"/>
       <c r="F225" s="214"/>
       <c r="G225" s="214"/>
       <c r="H225" s="214" t="s">
@@ -27742,12 +27742,12 @@
         <v>255</v>
       </c>
       <c r="K225" s="214"/>
-      <c r="L225" s="330" t="s">
+      <c r="L225" s="328" t="s">
         <v>391</v>
       </c>
-      <c r="M225" s="330"/>
-      <c r="N225" s="330"/>
-      <c r="O225" s="331"/>
+      <c r="M225" s="328"/>
+      <c r="N225" s="328"/>
+      <c r="O225" s="329"/>
       <c r="P225" s="10"/>
     </row>
     <row r="226" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27772,28 +27772,28 @@
         <v>255</v>
       </c>
       <c r="K226" s="237"/>
-      <c r="L226" s="330"/>
-      <c r="M226" s="330"/>
-      <c r="N226" s="330"/>
-      <c r="O226" s="331"/>
+      <c r="L226" s="328"/>
+      <c r="M226" s="328"/>
+      <c r="N226" s="328"/>
+      <c r="O226" s="329"/>
       <c r="P226" s="10"/>
     </row>
     <row r="227" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="9"/>
       <c r="B227" s="29"/>
       <c r="C227" s="30"/>
-      <c r="D227" s="332"/>
-      <c r="E227" s="333"/>
+      <c r="D227" s="333"/>
+      <c r="E227" s="334"/>
       <c r="F227" s="215"/>
       <c r="G227" s="215"/>
       <c r="H227" s="215"/>
       <c r="I227" s="31"/>
       <c r="J227" s="215"/>
       <c r="K227" s="215"/>
-      <c r="L227" s="334"/>
-      <c r="M227" s="334"/>
-      <c r="N227" s="334"/>
-      <c r="O227" s="335"/>
+      <c r="L227" s="335"/>
+      <c r="M227" s="335"/>
+      <c r="N227" s="335"/>
+      <c r="O227" s="336"/>
       <c r="P227" s="10"/>
     </row>
     <row r="228" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27880,10 +27880,10 @@
       <c r="C232" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D232" s="336" t="s">
+      <c r="D232" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E232" s="337"/>
+      <c r="E232" s="344"/>
       <c r="F232" s="25" t="s">
         <v>31</v>
       </c>
@@ -27902,12 +27902,12 @@
       <c r="K232" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L232" s="338" t="s">
+      <c r="L232" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M232" s="338"/>
-      <c r="N232" s="338"/>
-      <c r="O232" s="339"/>
+      <c r="M232" s="345"/>
+      <c r="N232" s="345"/>
+      <c r="O232" s="346"/>
       <c r="P232" s="10"/>
     </row>
     <row r="233" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27918,10 +27918,10 @@
       <c r="C233" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D233" s="328" t="s">
+      <c r="D233" s="337" t="s">
         <v>352</v>
       </c>
-      <c r="E233" s="329"/>
+      <c r="E233" s="338"/>
       <c r="F233" s="214"/>
       <c r="G233" s="214"/>
       <c r="H233" s="214" t="s">
@@ -27934,12 +27934,12 @@
         <v>255</v>
       </c>
       <c r="K233" s="214"/>
-      <c r="L233" s="330" t="s">
+      <c r="L233" s="328" t="s">
         <v>357</v>
       </c>
-      <c r="M233" s="330"/>
-      <c r="N233" s="330"/>
-      <c r="O233" s="331"/>
+      <c r="M233" s="328"/>
+      <c r="N233" s="328"/>
+      <c r="O233" s="329"/>
       <c r="P233" s="10"/>
     </row>
     <row r="234" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27965,27 +27965,27 @@
       </c>
       <c r="K234" s="237"/>
       <c r="L234" s="342"/>
-      <c r="M234" s="330"/>
-      <c r="N234" s="330"/>
-      <c r="O234" s="331"/>
+      <c r="M234" s="328"/>
+      <c r="N234" s="328"/>
+      <c r="O234" s="329"/>
       <c r="P234" s="10"/>
     </row>
     <row r="235" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="9"/>
       <c r="B235" s="29"/>
       <c r="C235" s="30"/>
-      <c r="D235" s="332"/>
-      <c r="E235" s="333"/>
+      <c r="D235" s="333"/>
+      <c r="E235" s="334"/>
       <c r="F235" s="215"/>
       <c r="G235" s="215"/>
       <c r="H235" s="215"/>
       <c r="I235" s="31"/>
       <c r="J235" s="215"/>
       <c r="K235" s="215"/>
-      <c r="L235" s="334"/>
-      <c r="M235" s="334"/>
-      <c r="N235" s="334"/>
-      <c r="O235" s="335"/>
+      <c r="L235" s="335"/>
+      <c r="M235" s="335"/>
+      <c r="N235" s="335"/>
+      <c r="O235" s="336"/>
       <c r="P235" s="10"/>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
@@ -28072,10 +28072,10 @@
       <c r="C240" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D240" s="336" t="s">
+      <c r="D240" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E240" s="337"/>
+      <c r="E240" s="344"/>
       <c r="F240" s="25" t="s">
         <v>31</v>
       </c>
@@ -28094,12 +28094,12 @@
       <c r="K240" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L240" s="338" t="s">
+      <c r="L240" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M240" s="338"/>
-      <c r="N240" s="338"/>
-      <c r="O240" s="339"/>
+      <c r="M240" s="345"/>
+      <c r="N240" s="345"/>
+      <c r="O240" s="346"/>
       <c r="P240" s="10"/>
     </row>
     <row r="241" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -28110,10 +28110,10 @@
       <c r="C241" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D241" s="340" t="s">
+      <c r="D241" s="347" t="s">
         <v>227</v>
       </c>
-      <c r="E241" s="341"/>
+      <c r="E241" s="348"/>
       <c r="F241" s="214"/>
       <c r="G241" s="214"/>
       <c r="H241" s="214" t="s">
@@ -28129,9 +28129,9 @@
       <c r="L241" s="342" t="s">
         <v>417</v>
       </c>
-      <c r="M241" s="330"/>
-      <c r="N241" s="330"/>
-      <c r="O241" s="331"/>
+      <c r="M241" s="328"/>
+      <c r="N241" s="328"/>
+      <c r="O241" s="329"/>
       <c r="P241" s="10"/>
     </row>
     <row r="242" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28157,27 +28157,27 @@
       </c>
       <c r="K242" s="237"/>
       <c r="L242" s="342"/>
-      <c r="M242" s="330"/>
-      <c r="N242" s="330"/>
-      <c r="O242" s="331"/>
+      <c r="M242" s="328"/>
+      <c r="N242" s="328"/>
+      <c r="O242" s="329"/>
       <c r="P242" s="10"/>
     </row>
     <row r="243" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="9"/>
       <c r="B243" s="29"/>
       <c r="C243" s="30"/>
-      <c r="D243" s="332"/>
-      <c r="E243" s="333"/>
+      <c r="D243" s="333"/>
+      <c r="E243" s="334"/>
       <c r="F243" s="215"/>
       <c r="G243" s="215"/>
       <c r="H243" s="215"/>
       <c r="I243" s="31"/>
       <c r="J243" s="215"/>
       <c r="K243" s="215"/>
-      <c r="L243" s="334"/>
-      <c r="M243" s="334"/>
-      <c r="N243" s="334"/>
-      <c r="O243" s="335"/>
+      <c r="L243" s="335"/>
+      <c r="M243" s="335"/>
+      <c r="N243" s="335"/>
+      <c r="O243" s="336"/>
       <c r="P243" s="10"/>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
@@ -28264,10 +28264,10 @@
       <c r="C248" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D248" s="336" t="s">
+      <c r="D248" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E248" s="337"/>
+      <c r="E248" s="344"/>
       <c r="F248" s="25" t="s">
         <v>31</v>
       </c>
@@ -28286,12 +28286,12 @@
       <c r="K248" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L248" s="338" t="s">
+      <c r="L248" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M248" s="338"/>
-      <c r="N248" s="338"/>
-      <c r="O248" s="339"/>
+      <c r="M248" s="345"/>
+      <c r="N248" s="345"/>
+      <c r="O248" s="346"/>
       <c r="P248" s="10"/>
     </row>
     <row r="249" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -28302,10 +28302,10 @@
       <c r="C249" s="233" t="s">
         <v>359</v>
       </c>
-      <c r="D249" s="340" t="s">
+      <c r="D249" s="347" t="s">
         <v>362</v>
       </c>
-      <c r="E249" s="341"/>
+      <c r="E249" s="348"/>
       <c r="F249" s="214"/>
       <c r="G249" s="214"/>
       <c r="H249" s="214" t="s">
@@ -28321,9 +28321,9 @@
       <c r="L249" s="342" t="s">
         <v>363</v>
       </c>
-      <c r="M249" s="330"/>
-      <c r="N249" s="330"/>
-      <c r="O249" s="331"/>
+      <c r="M249" s="328"/>
+      <c r="N249" s="328"/>
+      <c r="O249" s="329"/>
       <c r="P249" s="10"/>
     </row>
     <row r="250" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28349,27 +28349,27 @@
       </c>
       <c r="K250" s="237"/>
       <c r="L250" s="342"/>
-      <c r="M250" s="330"/>
-      <c r="N250" s="330"/>
-      <c r="O250" s="331"/>
+      <c r="M250" s="328"/>
+      <c r="N250" s="328"/>
+      <c r="O250" s="329"/>
       <c r="P250" s="10"/>
     </row>
     <row r="251" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="9"/>
       <c r="B251" s="29"/>
       <c r="C251" s="30"/>
-      <c r="D251" s="332"/>
-      <c r="E251" s="333"/>
+      <c r="D251" s="333"/>
+      <c r="E251" s="334"/>
       <c r="F251" s="215"/>
       <c r="G251" s="215"/>
       <c r="H251" s="215"/>
       <c r="I251" s="31"/>
       <c r="J251" s="215"/>
       <c r="K251" s="215"/>
-      <c r="L251" s="334"/>
-      <c r="M251" s="334"/>
-      <c r="N251" s="334"/>
-      <c r="O251" s="335"/>
+      <c r="L251" s="335"/>
+      <c r="M251" s="335"/>
+      <c r="N251" s="335"/>
+      <c r="O251" s="336"/>
       <c r="P251" s="10"/>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -28458,10 +28458,10 @@
       <c r="C256" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D256" s="336" t="s">
+      <c r="D256" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E256" s="337"/>
+      <c r="E256" s="344"/>
       <c r="F256" s="25" t="s">
         <v>31</v>
       </c>
@@ -28480,12 +28480,12 @@
       <c r="K256" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L256" s="338" t="s">
+      <c r="L256" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M256" s="338"/>
-      <c r="N256" s="338"/>
-      <c r="O256" s="339"/>
+      <c r="M256" s="345"/>
+      <c r="N256" s="345"/>
+      <c r="O256" s="346"/>
       <c r="P256" s="10"/>
     </row>
     <row r="257" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28496,10 +28496,10 @@
       <c r="C257" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D257" s="328" t="s">
+      <c r="D257" s="337" t="s">
         <v>267</v>
       </c>
-      <c r="E257" s="329"/>
+      <c r="E257" s="338"/>
       <c r="F257" s="214"/>
       <c r="G257" s="214"/>
       <c r="H257" s="214" t="s">
@@ -28514,12 +28514,12 @@
       <c r="K257" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L257" s="330" t="s">
+      <c r="L257" s="328" t="s">
         <v>268</v>
       </c>
-      <c r="M257" s="330"/>
-      <c r="N257" s="330"/>
-      <c r="O257" s="331"/>
+      <c r="M257" s="328"/>
+      <c r="N257" s="328"/>
+      <c r="O257" s="329"/>
       <c r="P257" s="10"/>
     </row>
     <row r="258" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28530,10 +28530,10 @@
       <c r="C258" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="D258" s="328" t="s">
+      <c r="D258" s="337" t="s">
         <v>378</v>
       </c>
-      <c r="E258" s="329"/>
+      <c r="E258" s="338"/>
       <c r="F258" s="214"/>
       <c r="G258" s="214"/>
       <c r="H258" s="214" t="s">
@@ -28546,10 +28546,10 @@
         <v>255</v>
       </c>
       <c r="K258" s="214"/>
-      <c r="L258" s="330"/>
-      <c r="M258" s="330"/>
-      <c r="N258" s="330"/>
-      <c r="O258" s="331"/>
+      <c r="L258" s="328"/>
+      <c r="M258" s="328"/>
+      <c r="N258" s="328"/>
+      <c r="O258" s="329"/>
       <c r="P258" s="10"/>
     </row>
     <row r="259" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28560,10 +28560,10 @@
       <c r="C259" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D259" s="328" t="s">
+      <c r="D259" s="337" t="s">
         <v>379</v>
       </c>
-      <c r="E259" s="329"/>
+      <c r="E259" s="338"/>
       <c r="F259" s="214"/>
       <c r="G259" s="214"/>
       <c r="H259" s="214"/>
@@ -28574,28 +28574,28 @@
         <v>255</v>
       </c>
       <c r="K259" s="214"/>
-      <c r="L259" s="330"/>
-      <c r="M259" s="330"/>
-      <c r="N259" s="330"/>
-      <c r="O259" s="331"/>
+      <c r="L259" s="328"/>
+      <c r="M259" s="328"/>
+      <c r="N259" s="328"/>
+      <c r="O259" s="329"/>
       <c r="P259" s="10"/>
     </row>
     <row r="260" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="9"/>
       <c r="B260" s="29"/>
       <c r="C260" s="30"/>
-      <c r="D260" s="332"/>
-      <c r="E260" s="333"/>
+      <c r="D260" s="333"/>
+      <c r="E260" s="334"/>
       <c r="F260" s="215"/>
       <c r="G260" s="215"/>
       <c r="H260" s="215"/>
       <c r="I260" s="31"/>
       <c r="J260" s="215"/>
       <c r="K260" s="215"/>
-      <c r="L260" s="334"/>
-      <c r="M260" s="334"/>
-      <c r="N260" s="334"/>
-      <c r="O260" s="335"/>
+      <c r="L260" s="335"/>
+      <c r="M260" s="335"/>
+      <c r="N260" s="335"/>
+      <c r="O260" s="336"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.2">
@@ -28684,10 +28684,10 @@
       <c r="C265" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D265" s="336" t="s">
+      <c r="D265" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E265" s="337"/>
+      <c r="E265" s="344"/>
       <c r="F265" s="25" t="s">
         <v>31</v>
       </c>
@@ -28706,12 +28706,12 @@
       <c r="K265" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L265" s="338" t="s">
+      <c r="L265" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M265" s="338"/>
-      <c r="N265" s="338"/>
-      <c r="O265" s="339"/>
+      <c r="M265" s="345"/>
+      <c r="N265" s="345"/>
+      <c r="O265" s="346"/>
       <c r="P265" s="10"/>
     </row>
     <row r="266" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28722,10 +28722,10 @@
       <c r="C266" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D266" s="328" t="s">
+      <c r="D266" s="337" t="s">
         <v>381</v>
       </c>
-      <c r="E266" s="329"/>
+      <c r="E266" s="338"/>
       <c r="F266" s="214"/>
       <c r="G266" s="214"/>
       <c r="H266" s="214" t="s">
@@ -28738,10 +28738,10 @@
         <v>255</v>
       </c>
       <c r="K266" s="214"/>
-      <c r="L266" s="330"/>
-      <c r="M266" s="330"/>
-      <c r="N266" s="330"/>
-      <c r="O266" s="331"/>
+      <c r="L266" s="328"/>
+      <c r="M266" s="328"/>
+      <c r="N266" s="328"/>
+      <c r="O266" s="329"/>
       <c r="P266" s="10"/>
     </row>
     <row r="267" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28752,10 +28752,10 @@
       <c r="C267" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D267" s="328" t="s">
+      <c r="D267" s="337" t="s">
         <v>382</v>
       </c>
-      <c r="E267" s="329"/>
+      <c r="E267" s="338"/>
       <c r="F267" s="214"/>
       <c r="G267" s="214"/>
       <c r="H267" s="214"/>
@@ -28766,10 +28766,10 @@
         <v>255</v>
       </c>
       <c r="K267" s="214"/>
-      <c r="L267" s="330"/>
-      <c r="M267" s="330"/>
-      <c r="N267" s="330"/>
-      <c r="O267" s="331"/>
+      <c r="L267" s="328"/>
+      <c r="M267" s="328"/>
+      <c r="N267" s="328"/>
+      <c r="O267" s="329"/>
       <c r="P267" s="10"/>
     </row>
     <row r="268" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28792,30 +28792,30 @@
       </c>
       <c r="J268" s="214"/>
       <c r="K268" s="214"/>
-      <c r="L268" s="330" t="s">
+      <c r="L268" s="328" t="s">
         <v>416</v>
       </c>
-      <c r="M268" s="330"/>
-      <c r="N268" s="330"/>
-      <c r="O268" s="331"/>
+      <c r="M268" s="328"/>
+      <c r="N268" s="328"/>
+      <c r="O268" s="329"/>
       <c r="P268" s="10"/>
     </row>
     <row r="269" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="9"/>
       <c r="B269" s="29"/>
       <c r="C269" s="30"/>
-      <c r="D269" s="332"/>
-      <c r="E269" s="333"/>
+      <c r="D269" s="333"/>
+      <c r="E269" s="334"/>
       <c r="F269" s="215"/>
       <c r="G269" s="215"/>
       <c r="H269" s="215"/>
       <c r="I269" s="31"/>
       <c r="J269" s="215"/>
       <c r="K269" s="215"/>
-      <c r="L269" s="334"/>
-      <c r="M269" s="334"/>
-      <c r="N269" s="334"/>
-      <c r="O269" s="335"/>
+      <c r="L269" s="335"/>
+      <c r="M269" s="335"/>
+      <c r="N269" s="335"/>
+      <c r="O269" s="336"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28904,10 +28904,10 @@
       <c r="C274" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D274" s="336" t="s">
+      <c r="D274" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E274" s="337"/>
+      <c r="E274" s="344"/>
       <c r="F274" s="25" t="s">
         <v>31</v>
       </c>
@@ -28926,12 +28926,12 @@
       <c r="K274" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L274" s="338" t="s">
+      <c r="L274" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M274" s="338"/>
-      <c r="N274" s="338"/>
-      <c r="O274" s="339"/>
+      <c r="M274" s="345"/>
+      <c r="N274" s="345"/>
+      <c r="O274" s="346"/>
       <c r="P274" s="10"/>
     </row>
     <row r="275" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28942,10 +28942,10 @@
       <c r="C275" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D275" s="328" t="s">
+      <c r="D275" s="337" t="s">
         <v>386</v>
       </c>
-      <c r="E275" s="329"/>
+      <c r="E275" s="338"/>
       <c r="F275" s="214"/>
       <c r="G275" s="214"/>
       <c r="H275" s="214" t="s">
@@ -28956,12 +28956,12 @@
       </c>
       <c r="J275" s="214"/>
       <c r="K275" s="214"/>
-      <c r="L275" s="330" t="s">
+      <c r="L275" s="328" t="s">
         <v>387</v>
       </c>
-      <c r="M275" s="330"/>
-      <c r="N275" s="330"/>
-      <c r="O275" s="331"/>
+      <c r="M275" s="328"/>
+      <c r="N275" s="328"/>
+      <c r="O275" s="329"/>
       <c r="P275" s="10"/>
     </row>
     <row r="276" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28972,10 +28972,10 @@
       <c r="C276" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D276" s="328" t="s">
+      <c r="D276" s="337" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="329"/>
+      <c r="E276" s="338"/>
       <c r="F276" s="214"/>
       <c r="G276" s="214"/>
       <c r="H276" s="214" t="s">
@@ -28988,10 +28988,10 @@
         <v>255</v>
       </c>
       <c r="K276" s="214"/>
-      <c r="L276" s="330"/>
-      <c r="M276" s="330"/>
-      <c r="N276" s="330"/>
-      <c r="O276" s="331"/>
+      <c r="L276" s="328"/>
+      <c r="M276" s="328"/>
+      <c r="N276" s="328"/>
+      <c r="O276" s="329"/>
       <c r="P276" s="10"/>
     </row>
     <row r="277" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29002,10 +29002,10 @@
       <c r="C277" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D277" s="348" t="s">
+      <c r="D277" s="391" t="s">
         <v>379</v>
       </c>
-      <c r="E277" s="349"/>
+      <c r="E277" s="392"/>
       <c r="F277" s="214"/>
       <c r="G277" s="214"/>
       <c r="H277" s="214"/>
@@ -29016,10 +29016,10 @@
         <v>255</v>
       </c>
       <c r="K277" s="214"/>
-      <c r="L277" s="330"/>
-      <c r="M277" s="330"/>
-      <c r="N277" s="330"/>
-      <c r="O277" s="331"/>
+      <c r="L277" s="328"/>
+      <c r="M277" s="328"/>
+      <c r="N277" s="328"/>
+      <c r="O277" s="329"/>
       <c r="P277" s="10"/>
     </row>
     <row r="278" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -29030,10 +29030,10 @@
       <c r="C278" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D278" s="346" t="s">
+      <c r="D278" s="362" t="s">
         <v>415</v>
       </c>
-      <c r="E278" s="347"/>
+      <c r="E278" s="363"/>
       <c r="F278" s="215"/>
       <c r="G278" s="215"/>
       <c r="H278" s="215" t="s">
@@ -29044,12 +29044,12 @@
       </c>
       <c r="J278" s="215"/>
       <c r="K278" s="215"/>
-      <c r="L278" s="334" t="s">
+      <c r="L278" s="335" t="s">
         <v>416</v>
       </c>
-      <c r="M278" s="334"/>
-      <c r="N278" s="334"/>
-      <c r="O278" s="335"/>
+      <c r="M278" s="335"/>
+      <c r="N278" s="335"/>
+      <c r="O278" s="336"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
@@ -29136,10 +29136,10 @@
       <c r="C283" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D283" s="336" t="s">
+      <c r="D283" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E283" s="337"/>
+      <c r="E283" s="344"/>
       <c r="F283" s="25" t="s">
         <v>31</v>
       </c>
@@ -29158,12 +29158,12 @@
       <c r="K283" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L283" s="338" t="s">
+      <c r="L283" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M283" s="338"/>
-      <c r="N283" s="338"/>
-      <c r="O283" s="339"/>
+      <c r="M283" s="345"/>
+      <c r="N283" s="345"/>
+      <c r="O283" s="346"/>
       <c r="P283" s="10"/>
     </row>
     <row r="284" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29174,10 +29174,10 @@
       <c r="C284" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="D284" s="328" t="s">
+      <c r="D284" s="337" t="s">
         <v>403</v>
       </c>
-      <c r="E284" s="329"/>
+      <c r="E284" s="338"/>
       <c r="F284" s="214"/>
       <c r="G284" s="214"/>
       <c r="H284" s="214" t="s">
@@ -29190,10 +29190,10 @@
         <v>255</v>
       </c>
       <c r="K284" s="214"/>
-      <c r="L284" s="330"/>
-      <c r="M284" s="330"/>
-      <c r="N284" s="330"/>
-      <c r="O284" s="331"/>
+      <c r="L284" s="328"/>
+      <c r="M284" s="328"/>
+      <c r="N284" s="328"/>
+      <c r="O284" s="329"/>
       <c r="P284" s="10"/>
     </row>
     <row r="285" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29204,10 +29204,10 @@
       <c r="C285" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D285" s="328" t="s">
+      <c r="D285" s="337" t="s">
         <v>396</v>
       </c>
-      <c r="E285" s="329"/>
+      <c r="E285" s="338"/>
       <c r="F285" s="214"/>
       <c r="G285" s="214"/>
       <c r="H285" s="214" t="s">
@@ -29220,12 +29220,12 @@
         <v>255</v>
       </c>
       <c r="K285" s="214"/>
-      <c r="L285" s="330" t="s">
+      <c r="L285" s="328" t="s">
         <v>395</v>
       </c>
-      <c r="M285" s="330"/>
-      <c r="N285" s="330"/>
-      <c r="O285" s="331"/>
+      <c r="M285" s="328"/>
+      <c r="N285" s="328"/>
+      <c r="O285" s="329"/>
       <c r="P285" s="10"/>
     </row>
     <row r="286" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29236,10 +29236,10 @@
       <c r="C286" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="D286" s="340" t="s">
+      <c r="D286" s="347" t="s">
         <v>402</v>
       </c>
-      <c r="E286" s="341"/>
+      <c r="E286" s="348"/>
       <c r="F286" s="214"/>
       <c r="G286" s="214"/>
       <c r="H286" s="214" t="s">
@@ -29253,9 +29253,9 @@
       </c>
       <c r="K286" s="214"/>
       <c r="L286" s="342"/>
-      <c r="M286" s="330"/>
-      <c r="N286" s="330"/>
-      <c r="O286" s="331"/>
+      <c r="M286" s="328"/>
+      <c r="N286" s="328"/>
+      <c r="O286" s="329"/>
       <c r="P286" s="10"/>
     </row>
     <row r="287" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29266,10 +29266,10 @@
       <c r="C287" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="D287" s="328" t="s">
+      <c r="D287" s="337" t="s">
         <v>401</v>
       </c>
-      <c r="E287" s="329"/>
+      <c r="E287" s="338"/>
       <c r="F287" s="214"/>
       <c r="G287" s="214"/>
       <c r="H287" s="214" t="s">
@@ -29280,12 +29280,12 @@
       </c>
       <c r="J287" s="214"/>
       <c r="K287" s="214"/>
-      <c r="L287" s="330" t="s">
+      <c r="L287" s="328" t="s">
         <v>254</v>
       </c>
-      <c r="M287" s="330"/>
-      <c r="N287" s="330"/>
-      <c r="O287" s="331"/>
+      <c r="M287" s="328"/>
+      <c r="N287" s="328"/>
+      <c r="O287" s="329"/>
       <c r="P287" s="10"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29296,10 +29296,10 @@
       <c r="C288" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="D288" s="328" t="s">
+      <c r="D288" s="337" t="s">
         <v>400</v>
       </c>
-      <c r="E288" s="329"/>
+      <c r="E288" s="338"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214"/>
@@ -29310,30 +29310,30 @@
       <c r="K288" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L288" s="330" t="s">
+      <c r="L288" s="328" t="s">
         <v>270</v>
       </c>
-      <c r="M288" s="330"/>
-      <c r="N288" s="330"/>
-      <c r="O288" s="331"/>
+      <c r="M288" s="328"/>
+      <c r="N288" s="328"/>
+      <c r="O288" s="329"/>
       <c r="P288" s="10"/>
     </row>
     <row r="289" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9"/>
       <c r="B289" s="29"/>
       <c r="C289" s="30"/>
-      <c r="D289" s="332"/>
-      <c r="E289" s="333"/>
+      <c r="D289" s="333"/>
+      <c r="E289" s="334"/>
       <c r="F289" s="215"/>
       <c r="G289" s="215"/>
       <c r="H289" s="215"/>
       <c r="I289" s="31"/>
       <c r="J289" s="215"/>
       <c r="K289" s="215"/>
-      <c r="L289" s="334"/>
-      <c r="M289" s="334"/>
-      <c r="N289" s="334"/>
-      <c r="O289" s="335"/>
+      <c r="L289" s="335"/>
+      <c r="M289" s="335"/>
+      <c r="N289" s="335"/>
+      <c r="O289" s="336"/>
       <c r="P289" s="10"/>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
@@ -29439,10 +29439,10 @@
       <c r="C296" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D296" s="336" t="s">
+      <c r="D296" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E296" s="337"/>
+      <c r="E296" s="344"/>
       <c r="F296" s="25" t="s">
         <v>31</v>
       </c>
@@ -29461,12 +29461,12 @@
       <c r="K296" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L296" s="338" t="s">
+      <c r="L296" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M296" s="338"/>
-      <c r="N296" s="338"/>
-      <c r="O296" s="339"/>
+      <c r="M296" s="345"/>
+      <c r="N296" s="345"/>
+      <c r="O296" s="346"/>
       <c r="P296" s="10"/>
     </row>
     <row r="297" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29477,8 +29477,8 @@
       <c r="C297" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="D297" s="328"/>
-      <c r="E297" s="329"/>
+      <c r="D297" s="337"/>
+      <c r="E297" s="338"/>
       <c r="F297" s="214"/>
       <c r="G297" s="214"/>
       <c r="H297" s="214" t="s">
@@ -29491,10 +29491,10 @@
         <v>255</v>
       </c>
       <c r="K297" s="214"/>
-      <c r="L297" s="330"/>
-      <c r="M297" s="330"/>
-      <c r="N297" s="330"/>
-      <c r="O297" s="331"/>
+      <c r="L297" s="328"/>
+      <c r="M297" s="328"/>
+      <c r="N297" s="328"/>
+      <c r="O297" s="329"/>
       <c r="P297" s="10"/>
     </row>
     <row r="298" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29505,8 +29505,8 @@
       <c r="C298" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="D298" s="328"/>
-      <c r="E298" s="329"/>
+      <c r="D298" s="337"/>
+      <c r="E298" s="338"/>
       <c r="F298" s="214"/>
       <c r="G298" s="214"/>
       <c r="H298" s="214" t="s">
@@ -29517,12 +29517,12 @@
       </c>
       <c r="J298" s="214"/>
       <c r="K298" s="214"/>
-      <c r="L298" s="330" t="s">
+      <c r="L298" s="328" t="s">
         <v>354</v>
       </c>
-      <c r="M298" s="330"/>
-      <c r="N298" s="330"/>
-      <c r="O298" s="331"/>
+      <c r="M298" s="328"/>
+      <c r="N298" s="328"/>
+      <c r="O298" s="329"/>
       <c r="P298" s="10"/>
     </row>
     <row r="299" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29533,8 +29533,8 @@
       <c r="C299" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="D299" s="340"/>
-      <c r="E299" s="341"/>
+      <c r="D299" s="347"/>
+      <c r="E299" s="348"/>
       <c r="F299" s="214"/>
       <c r="G299" s="214"/>
       <c r="H299" s="214" t="s">
@@ -29548,9 +29548,9 @@
       <c r="L299" s="342" t="s">
         <v>350</v>
       </c>
-      <c r="M299" s="330"/>
-      <c r="N299" s="330"/>
-      <c r="O299" s="331"/>
+      <c r="M299" s="328"/>
+      <c r="N299" s="328"/>
+      <c r="O299" s="329"/>
       <c r="P299" s="10"/>
     </row>
     <row r="300" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29561,8 +29561,8 @@
       <c r="C300" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D300" s="328"/>
-      <c r="E300" s="329"/>
+      <c r="D300" s="337"/>
+      <c r="E300" s="338"/>
       <c r="F300" s="214"/>
       <c r="G300" s="214"/>
       <c r="H300" s="214" t="s">
@@ -29573,10 +29573,10 @@
       </c>
       <c r="J300" s="214"/>
       <c r="K300" s="214"/>
-      <c r="L300" s="330"/>
-      <c r="M300" s="330"/>
-      <c r="N300" s="330"/>
-      <c r="O300" s="331"/>
+      <c r="L300" s="328"/>
+      <c r="M300" s="328"/>
+      <c r="N300" s="328"/>
+      <c r="O300" s="329"/>
       <c r="P300" s="10"/>
     </row>
     <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29587,8 +29587,8 @@
       <c r="C301" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="D301" s="328"/>
-      <c r="E301" s="329"/>
+      <c r="D301" s="337"/>
+      <c r="E301" s="338"/>
       <c r="F301" s="214"/>
       <c r="G301" s="214"/>
       <c r="H301" s="214" t="s">
@@ -29599,10 +29599,10 @@
       </c>
       <c r="J301" s="214"/>
       <c r="K301" s="214"/>
-      <c r="L301" s="330"/>
-      <c r="M301" s="330"/>
-      <c r="N301" s="330"/>
-      <c r="O301" s="331"/>
+      <c r="L301" s="328"/>
+      <c r="M301" s="328"/>
+      <c r="N301" s="328"/>
+      <c r="O301" s="329"/>
       <c r="P301" s="10"/>
     </row>
     <row r="302" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29613,8 +29613,8 @@
       <c r="C302" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="D302" s="328"/>
-      <c r="E302" s="329"/>
+      <c r="D302" s="337"/>
+      <c r="E302" s="338"/>
       <c r="F302" s="214"/>
       <c r="G302" s="214"/>
       <c r="H302" s="214" t="s">
@@ -29627,10 +29627,10 @@
         <v>255</v>
       </c>
       <c r="K302" s="214"/>
-      <c r="L302" s="330"/>
-      <c r="M302" s="330"/>
-      <c r="N302" s="330"/>
-      <c r="O302" s="331"/>
+      <c r="L302" s="328"/>
+      <c r="M302" s="328"/>
+      <c r="N302" s="328"/>
+      <c r="O302" s="329"/>
       <c r="P302" s="10"/>
     </row>
     <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29641,8 +29641,8 @@
       <c r="C303" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="D303" s="328"/>
-      <c r="E303" s="329"/>
+      <c r="D303" s="337"/>
+      <c r="E303" s="338"/>
       <c r="F303" s="214"/>
       <c r="G303" s="214"/>
       <c r="H303" s="214" t="s">
@@ -29653,30 +29653,30 @@
       </c>
       <c r="J303" s="214"/>
       <c r="K303" s="214"/>
-      <c r="L303" s="330" t="s">
+      <c r="L303" s="328" t="s">
         <v>424</v>
       </c>
-      <c r="M303" s="330"/>
-      <c r="N303" s="330"/>
-      <c r="O303" s="331"/>
+      <c r="M303" s="328"/>
+      <c r="N303" s="328"/>
+      <c r="O303" s="329"/>
       <c r="P303" s="10"/>
     </row>
     <row r="304" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="9"/>
       <c r="B304" s="29"/>
       <c r="C304" s="30"/>
-      <c r="D304" s="332"/>
-      <c r="E304" s="333"/>
+      <c r="D304" s="333"/>
+      <c r="E304" s="334"/>
       <c r="F304" s="215"/>
       <c r="G304" s="215"/>
       <c r="H304" s="215"/>
       <c r="I304" s="31"/>
       <c r="J304" s="215"/>
       <c r="K304" s="215"/>
-      <c r="L304" s="334"/>
-      <c r="M304" s="334"/>
-      <c r="N304" s="334"/>
-      <c r="O304" s="335"/>
+      <c r="L304" s="335"/>
+      <c r="M304" s="335"/>
+      <c r="N304" s="335"/>
+      <c r="O304" s="336"/>
       <c r="P304" s="10"/>
     </row>
     <row r="306" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -29728,10 +29728,10 @@
       <c r="C309" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D309" s="336" t="s">
+      <c r="D309" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="E309" s="337"/>
+      <c r="E309" s="344"/>
       <c r="F309" s="25" t="s">
         <v>31</v>
       </c>
@@ -29750,12 +29750,12 @@
       <c r="K309" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L309" s="338" t="s">
+      <c r="L309" s="345" t="s">
         <v>37</v>
       </c>
-      <c r="M309" s="338"/>
-      <c r="N309" s="338"/>
-      <c r="O309" s="339"/>
+      <c r="M309" s="345"/>
+      <c r="N309" s="345"/>
+      <c r="O309" s="346"/>
       <c r="P309" s="10"/>
     </row>
     <row r="310" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29766,8 +29766,8 @@
       <c r="C310" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D310" s="328"/>
-      <c r="E310" s="329"/>
+      <c r="D310" s="337"/>
+      <c r="E310" s="338"/>
       <c r="F310" s="214"/>
       <c r="G310" s="214"/>
       <c r="H310" s="214" t="s">
@@ -29780,12 +29780,12 @@
       <c r="K310" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L310" s="330" t="s">
+      <c r="L310" s="328" t="s">
         <v>426</v>
       </c>
-      <c r="M310" s="330"/>
-      <c r="N310" s="330"/>
-      <c r="O310" s="331"/>
+      <c r="M310" s="328"/>
+      <c r="N310" s="328"/>
+      <c r="O310" s="329"/>
       <c r="P310" s="10"/>
     </row>
     <row r="311" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29796,8 +29796,8 @@
       <c r="C311" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D311" s="328"/>
-      <c r="E311" s="329"/>
+      <c r="D311" s="337"/>
+      <c r="E311" s="338"/>
       <c r="F311" s="214"/>
       <c r="G311" s="214"/>
       <c r="H311" s="214" t="s">
@@ -29808,10 +29808,10 @@
       </c>
       <c r="J311" s="214"/>
       <c r="K311" s="214"/>
-      <c r="L311" s="330"/>
-      <c r="M311" s="330"/>
-      <c r="N311" s="330"/>
-      <c r="O311" s="331"/>
+      <c r="L311" s="328"/>
+      <c r="M311" s="328"/>
+      <c r="N311" s="328"/>
+      <c r="O311" s="329"/>
       <c r="P311" s="10"/>
     </row>
     <row r="312" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29822,8 +29822,8 @@
       <c r="C312" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="D312" s="340"/>
-      <c r="E312" s="341"/>
+      <c r="D312" s="347"/>
+      <c r="E312" s="348"/>
       <c r="F312" s="214"/>
       <c r="G312" s="214"/>
       <c r="H312" s="214" t="s">
@@ -29837,9 +29837,9 @@
       </c>
       <c r="K312" s="214"/>
       <c r="L312" s="342"/>
-      <c r="M312" s="330"/>
-      <c r="N312" s="330"/>
-      <c r="O312" s="331"/>
+      <c r="M312" s="328"/>
+      <c r="N312" s="328"/>
+      <c r="O312" s="329"/>
       <c r="P312" s="10"/>
     </row>
     <row r="313" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29850,8 +29850,8 @@
       <c r="C313" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="D313" s="328"/>
-      <c r="E313" s="329"/>
+      <c r="D313" s="337"/>
+      <c r="E313" s="338"/>
       <c r="F313" s="214"/>
       <c r="G313" s="214"/>
       <c r="H313" s="214" t="s">
@@ -29862,10 +29862,10 @@
       </c>
       <c r="J313" s="214"/>
       <c r="K313" s="214"/>
-      <c r="L313" s="330"/>
-      <c r="M313" s="330"/>
-      <c r="N313" s="330"/>
-      <c r="O313" s="331"/>
+      <c r="L313" s="328"/>
+      <c r="M313" s="328"/>
+      <c r="N313" s="328"/>
+      <c r="O313" s="329"/>
       <c r="P313" s="10"/>
     </row>
     <row r="314" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29876,8 +29876,8 @@
       <c r="C314" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="D314" s="328"/>
-      <c r="E314" s="329"/>
+      <c r="D314" s="337"/>
+      <c r="E314" s="338"/>
       <c r="F314" s="214"/>
       <c r="G314" s="214"/>
       <c r="H314" s="214" t="s">
@@ -29890,68 +29890,401 @@
         <v>20</v>
       </c>
       <c r="K314" s="214"/>
-      <c r="L314" s="330"/>
-      <c r="M314" s="330"/>
-      <c r="N314" s="330"/>
-      <c r="O314" s="331"/>
+      <c r="L314" s="328"/>
+      <c r="M314" s="328"/>
+      <c r="N314" s="328"/>
+      <c r="O314" s="329"/>
       <c r="P314" s="10"/>
     </row>
     <row r="315" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A315" s="9"/>
       <c r="B315" s="26"/>
       <c r="C315" s="27"/>
-      <c r="D315" s="328"/>
-      <c r="E315" s="329"/>
+      <c r="D315" s="337"/>
+      <c r="E315" s="338"/>
       <c r="F315" s="214"/>
       <c r="G315" s="214"/>
       <c r="H315" s="214"/>
       <c r="I315" s="28"/>
       <c r="J315" s="214"/>
       <c r="K315" s="214"/>
-      <c r="L315" s="330"/>
-      <c r="M315" s="330"/>
-      <c r="N315" s="330"/>
-      <c r="O315" s="331"/>
+      <c r="L315" s="328"/>
+      <c r="M315" s="328"/>
+      <c r="N315" s="328"/>
+      <c r="O315" s="329"/>
       <c r="P315" s="10"/>
     </row>
     <row r="316" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A316" s="9"/>
       <c r="B316" s="26"/>
       <c r="C316" s="27"/>
-      <c r="D316" s="328"/>
-      <c r="E316" s="329"/>
+      <c r="D316" s="337"/>
+      <c r="E316" s="338"/>
       <c r="F316" s="214"/>
       <c r="G316" s="214"/>
       <c r="H316" s="214"/>
       <c r="I316" s="28"/>
       <c r="J316" s="214"/>
       <c r="K316" s="214"/>
-      <c r="L316" s="330"/>
-      <c r="M316" s="330"/>
-      <c r="N316" s="330"/>
-      <c r="O316" s="331"/>
+      <c r="L316" s="328"/>
+      <c r="M316" s="328"/>
+      <c r="N316" s="328"/>
+      <c r="O316" s="329"/>
       <c r="P316" s="10"/>
     </row>
     <row r="317" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="9"/>
       <c r="B317" s="29"/>
       <c r="C317" s="30"/>
-      <c r="D317" s="332"/>
-      <c r="E317" s="333"/>
+      <c r="D317" s="333"/>
+      <c r="E317" s="334"/>
       <c r="F317" s="215"/>
       <c r="G317" s="215"/>
       <c r="H317" s="215"/>
       <c r="I317" s="31"/>
       <c r="J317" s="215"/>
       <c r="K317" s="215"/>
-      <c r="L317" s="334"/>
-      <c r="M317" s="334"/>
-      <c r="N317" s="334"/>
-      <c r="O317" s="335"/>
+      <c r="L317" s="335"/>
+      <c r="M317" s="335"/>
+      <c r="N317" s="335"/>
+      <c r="O317" s="336"/>
       <c r="P317" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="357">
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="L314:O314"/>
+    <mergeCell ref="D315:E315"/>
+    <mergeCell ref="L315:O315"/>
+    <mergeCell ref="D316:E316"/>
+    <mergeCell ref="L316:O316"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="L317:O317"/>
+    <mergeCell ref="D309:E309"/>
+    <mergeCell ref="L309:O309"/>
+    <mergeCell ref="D310:E310"/>
+    <mergeCell ref="L310:O310"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="L311:O311"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="L312:O312"/>
+    <mergeCell ref="D313:E313"/>
+    <mergeCell ref="L313:O313"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="L301:O301"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="L302:O302"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="L296:O296"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="L297:O297"/>
+    <mergeCell ref="D298:E298"/>
+    <mergeCell ref="L298:O298"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="L299:O299"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="L300:O300"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="L103:O103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="L107:O107"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="L288:O288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="L289:O289"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="L283:O283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="L284:O284"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="L285:O285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="L286:O286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="L287:O287"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="L276:O276"/>
+    <mergeCell ref="L277:O277"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="L278:O278"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="L265:O265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="L266:O266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="L267:O267"/>
+    <mergeCell ref="L268:O268"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="L269:O269"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="L256:O256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="L257:O257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="L258:O258"/>
+    <mergeCell ref="L259:O259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="L260:O260"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="L200:O200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="L201:O201"/>
+    <mergeCell ref="L210:O210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="L211:O211"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="L203:O203"/>
+    <mergeCell ref="L202:O202"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="L208:O208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="L209:O209"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="L153:O153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="L154:O154"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="L199:O199"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="L191:O191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="L184:O184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="L185:O185"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="L182:O182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="L183:O183"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="L175:O175"/>
+    <mergeCell ref="L176:O176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="L177:O177"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="L156:O156"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="L173:O173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="L174:O174"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="L164:O164"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="L155:O155"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L70:O71"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O57"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="L133:O133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="L120:O120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="L121:O121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="L232:O232"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="L224:O224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="L225:O225"/>
+    <mergeCell ref="L226:O226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="L227:O227"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="L243:O243"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="L250:O250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="L251:O251"/>
     <mergeCell ref="L122:O122"/>
     <mergeCell ref="L123:O123"/>
     <mergeCell ref="D127:E127"/>
@@ -29976,339 +30309,6 @@
     <mergeCell ref="L217:O217"/>
     <mergeCell ref="L218:O218"/>
     <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="L243:O243"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="L250:O250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="L251:O251"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="L232:O232"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="L224:O224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="L225:O225"/>
-    <mergeCell ref="L226:O226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="L227:O227"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="L133:O133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="L112:O112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="L120:O120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="L121:O121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L70:O71"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L56:O57"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:O155"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="L176:O176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="L177:O177"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="L156:O156"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="L173:O173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="L174:O174"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="L153:O153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="L154:O154"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="L199:O199"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="L191:O191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="L184:O184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="L185:O185"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="L182:O182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="L183:O183"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="L175:O175"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="L200:O200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="L201:O201"/>
-    <mergeCell ref="L210:O210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="L211:O211"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="L203:O203"/>
-    <mergeCell ref="L202:O202"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="L208:O208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="L209:O209"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="L256:O256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="L257:O257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="L258:O258"/>
-    <mergeCell ref="L259:O259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="L260:O260"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="L265:O265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="L266:O266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="L267:O267"/>
-    <mergeCell ref="L268:O268"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="L269:O269"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="L276:O276"/>
-    <mergeCell ref="L277:O277"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="L278:O278"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="L288:O288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="L289:O289"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="L283:O283"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="L284:O284"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="L285:O285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="L286:O286"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="L287:O287"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="L103:O103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="L106:O106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="L107:O107"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="L301:O301"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="L302:O302"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="L303:O303"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="L296:O296"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="L297:O297"/>
-    <mergeCell ref="D298:E298"/>
-    <mergeCell ref="L298:O298"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="L299:O299"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="L300:O300"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="L314:O314"/>
-    <mergeCell ref="D315:E315"/>
-    <mergeCell ref="L315:O315"/>
-    <mergeCell ref="D316:E316"/>
-    <mergeCell ref="L316:O316"/>
-    <mergeCell ref="D317:E317"/>
-    <mergeCell ref="L317:O317"/>
-    <mergeCell ref="D309:E309"/>
-    <mergeCell ref="L309:O309"/>
-    <mergeCell ref="D310:E310"/>
-    <mergeCell ref="L310:O310"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="L311:O311"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="L312:O312"/>
-    <mergeCell ref="D313:E313"/>
-    <mergeCell ref="L313:O313"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30383,7 +30383,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -31313,7 +31313,7 @@
   </sheetPr>
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -31378,7 +31378,7 @@
       </c>
       <c r="N2" s="280">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="O2" s="281"/>
       <c r="P2" s="61"/>
@@ -32665,7 +32665,7 @@
       </c>
       <c r="AK2" s="280">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="AL2" s="281"/>
       <c r="AM2" s="61"/>
@@ -33182,7 +33182,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="Q2" s="281"/>
     </row>
@@ -40198,7 +40198,7 @@
       </c>
       <c r="S2" s="280">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="T2" s="281"/>
     </row>
@@ -46973,7 +46973,7 @@
       </c>
       <c r="T2" s="280">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="U2" s="281"/>
     </row>
@@ -49223,7 +49223,7 @@
       </c>
       <c r="P2" s="280">
         <f ca="1">NOW()</f>
-        <v>44575.899132638886</v>
+        <v>44576.902570370374</v>
       </c>
       <c r="Q2" s="281"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C097044E-87FC-C143-91FD-617ACEA20BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8E5EC8-FBBC-0E4D-AB6E-28BD585A8026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5800" yWindow="-21100" windowWidth="38200" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="240" yWindow="1420" windowWidth="32040" windowHeight="20180" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Coin &amp; Order Flow'!$A$1:$U$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'DB Design'!$A$1:$P$343</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'DB Design'!$A$1:$P$342</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Project Flow_Admin'!$A$1:$Q$291</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Project Flow_Customer'!$A$1:$T$305</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Project Flow_Kitchen'!$A$1:$U$95</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="454">
   <si>
     <t>No</t>
   </si>
@@ -1397,6 +1397,39 @@
   <si>
     <t>0:Select Box , 1: Checkbox</t>
   </si>
+  <si>
+    <t>T_CU_Coin_Customer</t>
+  </si>
+  <si>
+    <t>cutomer_id</t>
+  </si>
+  <si>
+    <t>remain_coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remain ID </t>
+  </si>
+  <si>
+    <t>by_action</t>
+  </si>
+  <si>
+    <t>0:Charge,1:Add Directly</t>
+  </si>
+  <si>
+    <t>T_CU_Coin_Customer_History</t>
+  </si>
+  <si>
+    <t>add_coin</t>
+  </si>
+  <si>
+    <t>balance_coin</t>
+  </si>
+  <si>
+    <t>Add Coin</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
 </sst>
 </file>
 
@@ -2388,7 +2421,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="444">
+  <cellXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3235,6 +3268,15 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -20661,7 +20703,7 @@
       <c r="L64" s="294"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20806,7 +20848,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -22251,10 +22293,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
-  <dimension ref="A1:P325"/>
+  <dimension ref="A1:P335"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22317,7 +22359,7 @@
       </c>
       <c r="O2" s="313">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="P2" s="314"/>
     </row>
@@ -24802,7 +24844,7 @@
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="231" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="E102" s="33"/>
       <c r="F102" s="33"/>
@@ -24905,138 +24947,158 @@
       <c r="O105" s="377"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A106" s="9"/>
-      <c r="B106" s="26">
+    <row r="106" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A106" s="260"/>
+      <c r="B106" s="261">
         <v>2</v>
       </c>
-      <c r="C106" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="D106" s="385" t="s">
+      <c r="C106" s="262" t="s">
+        <v>450</v>
+      </c>
+      <c r="D106" s="374" t="s">
+        <v>452</v>
+      </c>
+      <c r="E106" s="375"/>
+      <c r="F106" s="265"/>
+      <c r="G106" s="265"/>
+      <c r="H106" s="265" t="s">
+        <v>191</v>
+      </c>
+      <c r="I106" s="266" t="s">
+        <v>188</v>
+      </c>
+      <c r="J106" s="265"/>
+      <c r="K106" s="265"/>
+      <c r="L106" s="368"/>
+      <c r="M106" s="368"/>
+      <c r="N106" s="368"/>
+      <c r="O106" s="369"/>
+      <c r="P106" s="267"/>
+    </row>
+    <row r="107" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A107" s="260"/>
+      <c r="B107" s="261">
+        <v>3</v>
+      </c>
+      <c r="C107" s="262" t="s">
+        <v>451</v>
+      </c>
+      <c r="D107" s="374" t="s">
         <v>404</v>
       </c>
-      <c r="E106" s="386"/>
-      <c r="F106" s="214"/>
-      <c r="G106" s="214"/>
-      <c r="H106" s="214" t="s">
+      <c r="E107" s="375"/>
+      <c r="F107" s="265"/>
+      <c r="G107" s="265"/>
+      <c r="H107" s="265" t="s">
         <v>191</v>
       </c>
-      <c r="I106" s="238" t="s">
+      <c r="I107" s="266" t="s">
         <v>188</v>
       </c>
-      <c r="J106" s="214"/>
-      <c r="K106" s="214"/>
-      <c r="L106" s="376"/>
-      <c r="M106" s="376"/>
-      <c r="N106" s="376"/>
-      <c r="O106" s="377"/>
-      <c r="P106" s="10"/>
-    </row>
-    <row r="107" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A107" s="9"/>
-      <c r="B107" s="235">
-        <v>3</v>
-      </c>
-      <c r="C107" s="236" t="s">
+      <c r="J107" s="265"/>
+      <c r="K107" s="265"/>
+      <c r="L107" s="368"/>
+      <c r="M107" s="368"/>
+      <c r="N107" s="368"/>
+      <c r="O107" s="369"/>
+      <c r="P107" s="267"/>
+    </row>
+    <row r="108" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A108" s="260"/>
+      <c r="B108" s="279">
+        <v>4</v>
+      </c>
+      <c r="C108" s="280" t="s">
         <v>405</v>
       </c>
-      <c r="D107" s="239" t="s">
+      <c r="D108" s="281" t="s">
         <v>406</v>
       </c>
-      <c r="E107" s="240"/>
-      <c r="F107" s="237"/>
-      <c r="G107" s="237"/>
-      <c r="H107" s="214" t="s">
+      <c r="E108" s="282"/>
+      <c r="F108" s="283"/>
+      <c r="G108" s="283"/>
+      <c r="H108" s="265" t="s">
         <v>191</v>
       </c>
-      <c r="I107" s="238" t="s">
+      <c r="I108" s="266" t="s">
         <v>188</v>
       </c>
-      <c r="J107" s="237"/>
-      <c r="K107" s="237"/>
-      <c r="L107" s="415" t="s">
+      <c r="J108" s="283"/>
+      <c r="K108" s="283"/>
+      <c r="L108" s="444" t="s">
         <v>268</v>
       </c>
-      <c r="M107" s="416"/>
-      <c r="N107" s="416"/>
-      <c r="O107" s="417"/>
-      <c r="P107" s="10"/>
-    </row>
-    <row r="108" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="9"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="381"/>
-      <c r="E108" s="382"/>
-      <c r="F108" s="215"/>
-      <c r="G108" s="215"/>
-      <c r="H108" s="215"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="215"/>
-      <c r="K108" s="215"/>
-      <c r="L108" s="383"/>
-      <c r="M108" s="383"/>
-      <c r="N108" s="383"/>
-      <c r="O108" s="384"/>
-      <c r="P108" s="10"/>
-    </row>
-    <row r="109" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A109" s="9"/>
-      <c r="B109" s="243"/>
-      <c r="C109" s="243"/>
-      <c r="D109" s="247"/>
-      <c r="E109" s="247"/>
-      <c r="F109" s="244"/>
-      <c r="G109" s="244"/>
-      <c r="H109" s="244"/>
-      <c r="I109" s="245"/>
-      <c r="J109" s="244"/>
-      <c r="K109" s="244"/>
-      <c r="L109" s="246"/>
-      <c r="M109" s="246"/>
-      <c r="N109" s="246"/>
-      <c r="O109" s="246"/>
-      <c r="P109" s="10"/>
-    </row>
-    <row r="110" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="445"/>
+      <c r="N108" s="445"/>
+      <c r="O108" s="446"/>
+      <c r="P108" s="267"/>
+    </row>
+    <row r="109" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A109" s="260"/>
+      <c r="B109" s="279">
+        <v>5</v>
+      </c>
+      <c r="C109" s="280" t="s">
+        <v>245</v>
+      </c>
+      <c r="D109" s="281" t="s">
+        <v>453</v>
+      </c>
+      <c r="E109" s="282"/>
+      <c r="F109" s="283"/>
+      <c r="G109" s="283"/>
+      <c r="H109" s="265"/>
+      <c r="I109" s="266" t="s">
+        <v>190</v>
+      </c>
+      <c r="J109" s="283"/>
+      <c r="K109" s="283"/>
+      <c r="L109" s="444"/>
+      <c r="M109" s="445"/>
+      <c r="N109" s="445"/>
+      <c r="O109" s="446"/>
+      <c r="P109" s="267"/>
+    </row>
+    <row r="110" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
+      <c r="B110" s="29">
+        <v>6</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="D110" s="381"/>
+      <c r="E110" s="382"/>
+      <c r="F110" s="215"/>
+      <c r="G110" s="215"/>
+      <c r="H110" s="215"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="215"/>
+      <c r="K110" s="215"/>
+      <c r="L110" s="383" t="s">
+        <v>448</v>
+      </c>
+      <c r="M110" s="383"/>
+      <c r="N110" s="383"/>
+      <c r="O110" s="384"/>
       <c r="P110" s="10"/>
     </row>
-    <row r="111" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
-      <c r="B111" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="231" t="s">
-        <v>330</v>
-      </c>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="44"/>
+      <c r="B111" s="243"/>
+      <c r="C111" s="243"/>
+      <c r="D111" s="247"/>
+      <c r="E111" s="247"/>
+      <c r="F111" s="244"/>
+      <c r="G111" s="244"/>
+      <c r="H111" s="244"/>
+      <c r="I111" s="245"/>
+      <c r="J111" s="244"/>
+      <c r="K111" s="244"/>
+      <c r="L111" s="246"/>
+      <c r="M111" s="246"/>
+      <c r="N111" s="246"/>
+      <c r="O111" s="246"/>
       <c r="P111" s="10"/>
     </row>
     <row r="112" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -25057,416 +25119,392 @@
       <c r="O112" s="3"/>
       <c r="P112" s="10"/>
     </row>
-    <row r="113" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9"/>
-      <c r="B113" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D113" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E113" s="392"/>
-      <c r="F113" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G113" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H113" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I113" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J113" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K113" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L113" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M113" s="393"/>
-      <c r="N113" s="393"/>
-      <c r="O113" s="394"/>
+      <c r="B113" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="231" t="s">
+        <v>330</v>
+      </c>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="44"/>
       <c r="P113" s="10"/>
     </row>
-    <row r="114" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
-      <c r="B114" s="26">
-        <v>1</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="D114" s="385" t="s">
-        <v>267</v>
-      </c>
-      <c r="E114" s="386"/>
-      <c r="F114" s="214"/>
-      <c r="G114" s="214"/>
-      <c r="H114" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I114" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="J114" s="214"/>
-      <c r="K114" s="254" t="s">
-        <v>191</v>
-      </c>
-      <c r="L114" s="376" t="s">
-        <v>263</v>
-      </c>
-      <c r="M114" s="376"/>
-      <c r="N114" s="376"/>
-      <c r="O114" s="377"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
       <c r="P114" s="10"/>
     </row>
     <row r="115" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
-      <c r="B115" s="26">
-        <v>2</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="D115" s="385" t="s">
-        <v>243</v>
-      </c>
-      <c r="E115" s="386"/>
-      <c r="F115" s="214"/>
-      <c r="G115" s="214"/>
-      <c r="H115" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I115" s="238" t="s">
-        <v>188</v>
-      </c>
-      <c r="J115" s="214"/>
-      <c r="K115" s="214"/>
-      <c r="L115" s="376" t="s">
-        <v>344</v>
-      </c>
-      <c r="M115" s="376"/>
-      <c r="N115" s="376"/>
-      <c r="O115" s="377"/>
+      <c r="B115" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="392"/>
+      <c r="F115" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H115" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J115" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K115" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L115" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M115" s="393"/>
+      <c r="N115" s="393"/>
+      <c r="O115" s="394"/>
       <c r="P115" s="10"/>
     </row>
     <row r="116" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
-      <c r="B116" s="235">
-        <v>3</v>
-      </c>
-      <c r="C116" s="236" t="s">
-        <v>333</v>
-      </c>
-      <c r="D116" s="239" t="s">
-        <v>334</v>
-      </c>
-      <c r="E116" s="240"/>
-      <c r="F116" s="237"/>
-      <c r="G116" s="237"/>
+      <c r="B116" s="26">
+        <v>1</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D116" s="385" t="s">
+        <v>267</v>
+      </c>
+      <c r="E116" s="386"/>
+      <c r="F116" s="214"/>
+      <c r="G116" s="214"/>
       <c r="H116" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="I116" s="238" t="s">
+      <c r="I116" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J116" s="214"/>
+      <c r="K116" s="254" t="s">
+        <v>191</v>
+      </c>
+      <c r="L116" s="376" t="s">
+        <v>263</v>
+      </c>
+      <c r="M116" s="376"/>
+      <c r="N116" s="376"/>
+      <c r="O116" s="377"/>
+      <c r="P116" s="10"/>
+    </row>
+    <row r="117" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A117" s="9"/>
+      <c r="B117" s="26">
+        <v>2</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="D117" s="385" t="s">
+        <v>243</v>
+      </c>
+      <c r="E117" s="386"/>
+      <c r="F117" s="214"/>
+      <c r="G117" s="214"/>
+      <c r="H117" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I117" s="238" t="s">
         <v>188</v>
       </c>
-      <c r="J116" s="237"/>
-      <c r="K116" s="237"/>
-      <c r="L116" s="387"/>
-      <c r="M116" s="388"/>
-      <c r="N116" s="388"/>
-      <c r="O116" s="389"/>
-      <c r="P116" s="10"/>
-    </row>
-    <row r="117" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="9"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="381"/>
-      <c r="E117" s="382"/>
-      <c r="F117" s="215"/>
-      <c r="G117" s="215"/>
-      <c r="H117" s="215"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="215"/>
-      <c r="K117" s="215"/>
-      <c r="L117" s="383"/>
-      <c r="M117" s="383"/>
-      <c r="N117" s="383"/>
-      <c r="O117" s="384"/>
+      <c r="J117" s="214"/>
+      <c r="K117" s="214"/>
+      <c r="L117" s="376" t="s">
+        <v>344</v>
+      </c>
+      <c r="M117" s="376"/>
+      <c r="N117" s="376"/>
+      <c r="O117" s="377"/>
       <c r="P117" s="10"/>
     </row>
-    <row r="118" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
-      <c r="B118" s="243"/>
-      <c r="C118" s="243"/>
-      <c r="D118" s="247"/>
-      <c r="E118" s="247"/>
-      <c r="F118" s="244"/>
-      <c r="G118" s="244"/>
-      <c r="H118" s="244"/>
-      <c r="I118" s="245"/>
-      <c r="J118" s="244"/>
-      <c r="K118" s="244"/>
-      <c r="L118" s="246"/>
-      <c r="M118" s="246"/>
-      <c r="N118" s="246"/>
-      <c r="O118" s="246"/>
+      <c r="B118" s="235">
+        <v>3</v>
+      </c>
+      <c r="C118" s="236" t="s">
+        <v>333</v>
+      </c>
+      <c r="D118" s="239" t="s">
+        <v>334</v>
+      </c>
+      <c r="E118" s="240"/>
+      <c r="F118" s="237"/>
+      <c r="G118" s="237"/>
+      <c r="H118" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I118" s="238" t="s">
+        <v>188</v>
+      </c>
+      <c r="J118" s="237"/>
+      <c r="K118" s="237"/>
+      <c r="L118" s="387"/>
+      <c r="M118" s="388"/>
+      <c r="N118" s="388"/>
+      <c r="O118" s="389"/>
       <c r="P118" s="10"/>
     </row>
     <row r="119" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9"/>
-      <c r="B119" s="32" t="s">
+      <c r="B119" s="29"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="381"/>
+      <c r="E119" s="382"/>
+      <c r="F119" s="215"/>
+      <c r="G119" s="215"/>
+      <c r="H119" s="215"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="215"/>
+      <c r="K119" s="215"/>
+      <c r="L119" s="383"/>
+      <c r="M119" s="383"/>
+      <c r="N119" s="383"/>
+      <c r="O119" s="384"/>
+      <c r="P119" s="10"/>
+    </row>
+    <row r="120" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="9"/>
+      <c r="B120" s="243"/>
+      <c r="C120" s="243"/>
+      <c r="D120" s="247"/>
+      <c r="E120" s="247"/>
+      <c r="F120" s="244"/>
+      <c r="G120" s="244"/>
+      <c r="H120" s="244"/>
+      <c r="I120" s="245"/>
+      <c r="J120" s="244"/>
+      <c r="K120" s="244"/>
+      <c r="L120" s="246"/>
+      <c r="M120" s="246"/>
+      <c r="N120" s="246"/>
+      <c r="O120" s="246"/>
+      <c r="P120" s="10"/>
+    </row>
+    <row r="121" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="9"/>
+      <c r="B121" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="231" t="s">
+      <c r="C121" s="3"/>
+      <c r="D121" s="231" t="s">
         <v>411</v>
       </c>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-      <c r="O119" s="44"/>
-      <c r="P119" s="10"/>
-    </row>
-    <row r="120" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="10"/>
-    </row>
-    <row r="121" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A121" s="9"/>
-      <c r="B121" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D121" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E121" s="392"/>
-      <c r="F121" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G121" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H121" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I121" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J121" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K121" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L121" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M121" s="393"/>
-      <c r="N121" s="393"/>
-      <c r="O121" s="394"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="44"/>
       <c r="P121" s="10"/>
     </row>
-    <row r="122" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
-      <c r="B122" s="26">
-        <v>1</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="D122" s="385" t="s">
-        <v>300</v>
-      </c>
-      <c r="E122" s="386"/>
-      <c r="F122" s="214" t="s">
-        <v>191</v>
-      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I122" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J122" s="214">
-        <v>128</v>
-      </c>
-      <c r="K122" s="214"/>
-      <c r="L122" s="415"/>
-      <c r="M122" s="416"/>
-      <c r="N122" s="416"/>
-      <c r="O122" s="417"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
       <c r="P122" s="10"/>
     </row>
     <row r="123" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
-      <c r="B123" s="26">
-        <v>2</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D123" s="385" t="s">
-        <v>185</v>
-      </c>
-      <c r="E123" s="386"/>
-      <c r="F123" s="214"/>
-      <c r="G123" s="214"/>
-      <c r="H123" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I123" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J123" s="214">
-        <v>40</v>
-      </c>
-      <c r="K123" s="214">
-        <v>128</v>
-      </c>
-      <c r="L123" s="376"/>
-      <c r="M123" s="376"/>
-      <c r="N123" s="376"/>
-      <c r="O123" s="377"/>
+      <c r="B123" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" s="392"/>
+      <c r="F123" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H123" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I123" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J123" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K123" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L123" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M123" s="393"/>
+      <c r="N123" s="393"/>
+      <c r="O123" s="394"/>
       <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
-      <c r="B124" s="235">
-        <v>3</v>
-      </c>
-      <c r="C124" s="236" t="s">
-        <v>363</v>
-      </c>
-      <c r="D124" s="239" t="s">
-        <v>187</v>
-      </c>
-      <c r="E124" s="240"/>
-      <c r="F124" s="237"/>
-      <c r="G124" s="237"/>
+      <c r="B124" s="26">
+        <v>1</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D124" s="385" t="s">
+        <v>300</v>
+      </c>
+      <c r="E124" s="386"/>
+      <c r="F124" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="G124" s="3"/>
       <c r="H124" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="I124" s="238" t="s">
-        <v>188</v>
-      </c>
-      <c r="J124" s="237"/>
-      <c r="K124" s="237"/>
-      <c r="L124" s="378" t="s">
-        <v>365</v>
-      </c>
-      <c r="M124" s="379"/>
-      <c r="N124" s="379"/>
-      <c r="O124" s="380"/>
+      <c r="I124" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J124" s="214">
+        <v>128</v>
+      </c>
+      <c r="K124" s="214"/>
+      <c r="L124" s="415"/>
+      <c r="M124" s="416"/>
+      <c r="N124" s="416"/>
+      <c r="O124" s="417"/>
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
-      <c r="B125" s="235">
-        <v>4</v>
-      </c>
-      <c r="C125" s="236" t="s">
-        <v>364</v>
-      </c>
-      <c r="D125" s="239" t="s">
-        <v>366</v>
-      </c>
-      <c r="E125" s="240"/>
-      <c r="F125" s="237"/>
-      <c r="G125" s="237"/>
+      <c r="B125" s="26">
+        <v>2</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D125" s="385" t="s">
+        <v>185</v>
+      </c>
+      <c r="E125" s="386"/>
+      <c r="F125" s="214"/>
+      <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="I125" s="238" t="s">
+      <c r="I125" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J125" s="237">
+      <c r="J125" s="214">
+        <v>40</v>
+      </c>
+      <c r="K125" s="214">
         <v>128</v>
       </c>
-      <c r="K125" s="237"/>
-      <c r="L125" s="378" t="s">
-        <v>367</v>
-      </c>
-      <c r="M125" s="379"/>
-      <c r="N125" s="379"/>
-      <c r="O125" s="380"/>
+      <c r="L125" s="376"/>
+      <c r="M125" s="376"/>
+      <c r="N125" s="376"/>
+      <c r="O125" s="377"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="235">
-        <v>5</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D126" s="385" t="s">
-        <v>218</v>
-      </c>
-      <c r="E126" s="386"/>
-      <c r="F126" s="214"/>
-      <c r="G126" s="214"/>
+        <v>3</v>
+      </c>
+      <c r="C126" s="236" t="s">
+        <v>363</v>
+      </c>
+      <c r="D126" s="239" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126" s="240"/>
+      <c r="F126" s="237"/>
+      <c r="G126" s="237"/>
       <c r="H126" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="I126" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="J126" s="214"/>
-      <c r="K126" s="254" t="s">
-        <v>191</v>
-      </c>
-      <c r="L126" s="376" t="s">
-        <v>327</v>
-      </c>
-      <c r="M126" s="376"/>
-      <c r="N126" s="376"/>
-      <c r="O126" s="377"/>
+      <c r="I126" s="238" t="s">
+        <v>188</v>
+      </c>
+      <c r="J126" s="237"/>
+      <c r="K126" s="237"/>
+      <c r="L126" s="378" t="s">
+        <v>365</v>
+      </c>
+      <c r="M126" s="379"/>
+      <c r="N126" s="379"/>
+      <c r="O126" s="380"/>
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="235">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C127" s="236" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D127" s="239" t="s">
-        <v>193</v>
+        <v>366</v>
       </c>
       <c r="E127" s="240"/>
       <c r="F127" s="237"/>
@@ -25475,90 +25513,114 @@
         <v>191</v>
       </c>
       <c r="I127" s="238" t="s">
-        <v>192</v>
-      </c>
-      <c r="J127" s="237"/>
+        <v>190</v>
+      </c>
+      <c r="J127" s="237">
+        <v>128</v>
+      </c>
       <c r="K127" s="237"/>
-      <c r="L127" s="387"/>
-      <c r="M127" s="388"/>
-      <c r="N127" s="388"/>
-      <c r="O127" s="389"/>
+      <c r="L127" s="378" t="s">
+        <v>367</v>
+      </c>
+      <c r="M127" s="379"/>
+      <c r="N127" s="379"/>
+      <c r="O127" s="380"/>
       <c r="P127" s="10"/>
     </row>
-    <row r="128" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="381"/>
-      <c r="E128" s="382"/>
-      <c r="F128" s="215"/>
-      <c r="G128" s="215"/>
-      <c r="H128" s="215"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="215"/>
-      <c r="K128" s="215"/>
-      <c r="L128" s="383"/>
-      <c r="M128" s="383"/>
-      <c r="N128" s="383"/>
-      <c r="O128" s="384"/>
+      <c r="B128" s="235">
+        <v>5</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D128" s="385" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" s="386"/>
+      <c r="F128" s="214"/>
+      <c r="G128" s="214"/>
+      <c r="H128" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I128" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J128" s="214"/>
+      <c r="K128" s="254" t="s">
+        <v>191</v>
+      </c>
+      <c r="L128" s="376" t="s">
+        <v>327</v>
+      </c>
+      <c r="M128" s="376"/>
+      <c r="N128" s="376"/>
+      <c r="O128" s="377"/>
       <c r="P128" s="10"/>
     </row>
     <row r="129" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
-      <c r="B129" s="243"/>
-      <c r="C129" s="243"/>
-      <c r="D129" s="247"/>
-      <c r="E129" s="247"/>
-      <c r="F129" s="244"/>
-      <c r="G129" s="244"/>
-      <c r="H129" s="244"/>
-      <c r="I129" s="245"/>
-      <c r="J129" s="244"/>
-      <c r="K129" s="244"/>
-      <c r="L129" s="246"/>
-      <c r="M129" s="246"/>
-      <c r="N129" s="246"/>
-      <c r="O129" s="246"/>
+      <c r="B129" s="235">
+        <v>6</v>
+      </c>
+      <c r="C129" s="236" t="s">
+        <v>370</v>
+      </c>
+      <c r="D129" s="239" t="s">
+        <v>193</v>
+      </c>
+      <c r="E129" s="240"/>
+      <c r="F129" s="237"/>
+      <c r="G129" s="237"/>
+      <c r="H129" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I129" s="238" t="s">
+        <v>192</v>
+      </c>
+      <c r="J129" s="237"/>
+      <c r="K129" s="237"/>
+      <c r="L129" s="387"/>
+      <c r="M129" s="388"/>
+      <c r="N129" s="388"/>
+      <c r="O129" s="389"/>
       <c r="P129" s="10"/>
     </row>
-    <row r="130" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="381"/>
+      <c r="E130" s="382"/>
+      <c r="F130" s="215"/>
+      <c r="G130" s="215"/>
+      <c r="H130" s="215"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="215"/>
+      <c r="K130" s="215"/>
+      <c r="L130" s="383"/>
+      <c r="M130" s="383"/>
+      <c r="N130" s="383"/>
+      <c r="O130" s="384"/>
       <c r="P130" s="10"/>
     </row>
-    <row r="131" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
-      <c r="B131" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="231" t="s">
-        <v>275</v>
-      </c>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
-      <c r="O131" s="44"/>
+      <c r="B131" s="243"/>
+      <c r="C131" s="243"/>
+      <c r="D131" s="247"/>
+      <c r="E131" s="247"/>
+      <c r="F131" s="244"/>
+      <c r="G131" s="244"/>
+      <c r="H131" s="244"/>
+      <c r="I131" s="245"/>
+      <c r="J131" s="244"/>
+      <c r="K131" s="244"/>
+      <c r="L131" s="246"/>
+      <c r="M131" s="246"/>
+      <c r="N131" s="246"/>
+      <c r="O131" s="246"/>
       <c r="P131" s="10"/>
     </row>
     <row r="132" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -25579,119 +25641,99 @@
       <c r="O132" s="3"/>
       <c r="P132" s="10"/>
     </row>
-    <row r="133" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="9"/>
-      <c r="B133" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D133" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E133" s="392"/>
-      <c r="F133" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G133" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H133" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I133" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J133" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K133" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L133" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M133" s="393"/>
-      <c r="N133" s="393"/>
-      <c r="O133" s="394"/>
+      <c r="B133" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="231" t="s">
+        <v>275</v>
+      </c>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="44"/>
       <c r="P133" s="10"/>
     </row>
-    <row r="134" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
-      <c r="B134" s="234">
-        <v>1</v>
-      </c>
-      <c r="C134" s="233" t="s">
-        <v>289</v>
-      </c>
-      <c r="D134" s="395" t="s">
-        <v>297</v>
-      </c>
-      <c r="E134" s="396"/>
-      <c r="F134" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="G134" s="214"/>
-      <c r="H134" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I134" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J134" s="214">
-        <v>12</v>
-      </c>
-      <c r="K134" s="214"/>
-      <c r="L134" s="410" t="s">
-        <v>290</v>
-      </c>
-      <c r="M134" s="411"/>
-      <c r="N134" s="411"/>
-      <c r="O134" s="412"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
       <c r="P134" s="10"/>
     </row>
     <row r="135" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
-      <c r="B135" s="26">
-        <v>2</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="D135" s="385" t="s">
-        <v>298</v>
-      </c>
-      <c r="E135" s="386"/>
-      <c r="F135" s="214"/>
-      <c r="G135" s="214"/>
-      <c r="H135" s="214"/>
-      <c r="I135" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J135" s="214">
-        <v>255</v>
-      </c>
-      <c r="K135" s="214"/>
-      <c r="L135" s="402"/>
-      <c r="M135" s="402"/>
-      <c r="N135" s="402"/>
-      <c r="O135" s="403"/>
+      <c r="B135" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="392"/>
+      <c r="F135" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H135" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I135" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J135" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K135" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L135" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M135" s="393"/>
+      <c r="N135" s="393"/>
+      <c r="O135" s="394"/>
       <c r="P135" s="10"/>
     </row>
-    <row r="136" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
-      <c r="B136" s="26">
-        <v>3</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="D136" s="385" t="s">
-        <v>299</v>
-      </c>
-      <c r="E136" s="386"/>
-      <c r="F136" s="214"/>
+      <c r="B136" s="234">
+        <v>1</v>
+      </c>
+      <c r="C136" s="233" t="s">
+        <v>289</v>
+      </c>
+      <c r="D136" s="395" t="s">
+        <v>297</v>
+      </c>
+      <c r="E136" s="396"/>
+      <c r="F136" s="214" t="s">
+        <v>191</v>
+      </c>
       <c r="G136" s="214"/>
       <c r="H136" s="214" t="s">
         <v>191</v>
@@ -25700,151 +25742,153 @@
         <v>190</v>
       </c>
       <c r="J136" s="214">
+        <v>12</v>
+      </c>
+      <c r="K136" s="214"/>
+      <c r="L136" s="410" t="s">
+        <v>290</v>
+      </c>
+      <c r="M136" s="411"/>
+      <c r="N136" s="411"/>
+      <c r="O136" s="412"/>
+      <c r="P136" s="10"/>
+    </row>
+    <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A137" s="9"/>
+      <c r="B137" s="26">
+        <v>2</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="D137" s="385" t="s">
+        <v>298</v>
+      </c>
+      <c r="E137" s="386"/>
+      <c r="F137" s="214"/>
+      <c r="G137" s="214"/>
+      <c r="H137" s="214"/>
+      <c r="I137" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J137" s="214">
+        <v>255</v>
+      </c>
+      <c r="K137" s="214"/>
+      <c r="L137" s="402"/>
+      <c r="M137" s="402"/>
+      <c r="N137" s="402"/>
+      <c r="O137" s="403"/>
+      <c r="P137" s="10"/>
+    </row>
+    <row r="138" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A138" s="9"/>
+      <c r="B138" s="26">
+        <v>3</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D138" s="385" t="s">
+        <v>299</v>
+      </c>
+      <c r="E138" s="386"/>
+      <c r="F138" s="214"/>
+      <c r="G138" s="214"/>
+      <c r="H138" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I138" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J138" s="214">
         <v>30</v>
       </c>
-      <c r="K136" s="214"/>
-      <c r="L136" s="402"/>
-      <c r="M136" s="402"/>
-      <c r="N136" s="402"/>
-      <c r="O136" s="403"/>
-      <c r="P136" s="10"/>
-    </row>
-    <row r="137" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A137" s="260"/>
-      <c r="B137" s="261">
+      <c r="K138" s="214"/>
+      <c r="L138" s="402"/>
+      <c r="M138" s="402"/>
+      <c r="N138" s="402"/>
+      <c r="O138" s="403"/>
+      <c r="P138" s="10"/>
+    </row>
+    <row r="139" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A139" s="260"/>
+      <c r="B139" s="261">
         <v>4</v>
       </c>
-      <c r="C137" s="262" t="s">
+      <c r="C139" s="262" t="s">
         <v>278</v>
       </c>
-      <c r="D137" s="374" t="s">
+      <c r="D139" s="374" t="s">
         <v>301</v>
       </c>
-      <c r="E137" s="375"/>
-      <c r="F137" s="265"/>
-      <c r="G137" s="265"/>
-      <c r="H137" s="265"/>
-      <c r="I137" s="288" t="s">
+      <c r="E139" s="375"/>
+      <c r="F139" s="265"/>
+      <c r="G139" s="265"/>
+      <c r="H139" s="265"/>
+      <c r="I139" s="288" t="s">
         <v>190</v>
       </c>
-      <c r="J137" s="265">
+      <c r="J139" s="265">
         <v>20</v>
       </c>
-      <c r="K137" s="265"/>
-      <c r="L137" s="404"/>
-      <c r="M137" s="405"/>
-      <c r="N137" s="405"/>
-      <c r="O137" s="406"/>
-      <c r="P137" s="267"/>
-    </row>
-    <row r="138" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A138" s="260"/>
-      <c r="B138" s="261">
+      <c r="K139" s="265"/>
+      <c r="L139" s="404"/>
+      <c r="M139" s="405"/>
+      <c r="N139" s="405"/>
+      <c r="O139" s="406"/>
+      <c r="P139" s="267"/>
+    </row>
+    <row r="140" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A140" s="260"/>
+      <c r="B140" s="261">
         <v>5</v>
       </c>
-      <c r="C138" s="262" t="s">
+      <c r="C140" s="262" t="s">
         <v>279</v>
       </c>
-      <c r="D138" s="374" t="s">
+      <c r="D140" s="374" t="s">
         <v>302</v>
       </c>
-      <c r="E138" s="375"/>
-      <c r="F138" s="265"/>
-      <c r="G138" s="265"/>
-      <c r="H138" s="265"/>
-      <c r="I138" s="288" t="s">
+      <c r="E140" s="375"/>
+      <c r="F140" s="265"/>
+      <c r="G140" s="265"/>
+      <c r="H140" s="265"/>
+      <c r="I140" s="288" t="s">
         <v>188</v>
       </c>
-      <c r="J138" s="265"/>
-      <c r="K138" s="292"/>
-      <c r="L138" s="407" t="s">
+      <c r="J140" s="265"/>
+      <c r="K140" s="292"/>
+      <c r="L140" s="407" t="s">
         <v>292</v>
       </c>
-      <c r="M138" s="408"/>
-      <c r="N138" s="408"/>
-      <c r="O138" s="409"/>
-      <c r="P138" s="267"/>
-    </row>
-    <row r="139" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A139" s="9"/>
-      <c r="B139" s="26">
-        <v>6</v>
-      </c>
-      <c r="C139" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="D139" s="385" t="s">
-        <v>302</v>
-      </c>
-      <c r="E139" s="386"/>
-      <c r="F139" s="214"/>
-      <c r="G139" s="214"/>
-      <c r="H139" s="214"/>
-      <c r="I139" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J139" s="214"/>
-      <c r="K139" s="241"/>
-      <c r="L139" s="399" t="s">
-        <v>291</v>
-      </c>
-      <c r="M139" s="400"/>
-      <c r="N139" s="400"/>
-      <c r="O139" s="401"/>
-      <c r="P139" s="10"/>
-    </row>
-    <row r="140" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A140" s="9"/>
-      <c r="B140" s="26">
-        <v>7</v>
-      </c>
-      <c r="C140" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D140" s="385" t="s">
-        <v>302</v>
-      </c>
-      <c r="E140" s="386"/>
-      <c r="F140" s="214"/>
-      <c r="G140" s="214"/>
-      <c r="H140" s="214"/>
-      <c r="I140" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J140" s="214">
-        <v>128</v>
-      </c>
-      <c r="K140" s="241"/>
-      <c r="L140" s="399"/>
-      <c r="M140" s="400"/>
-      <c r="N140" s="400"/>
-      <c r="O140" s="401"/>
-      <c r="P140" s="10"/>
+      <c r="M140" s="408"/>
+      <c r="N140" s="408"/>
+      <c r="O140" s="409"/>
+      <c r="P140" s="267"/>
     </row>
     <row r="141" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
       <c r="B141" s="26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D141" s="385" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E141" s="386"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
       <c r="I141" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J141" s="214">
-        <v>255</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J141" s="214"/>
       <c r="K141" s="241"/>
       <c r="L141" s="399" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M141" s="400"/>
       <c r="N141" s="400"/>
@@ -25854,13 +25898,13 @@
     <row r="142" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
       <c r="B142" s="26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C142" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D142" s="385" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E142" s="386"/>
       <c r="F142" s="214"/>
@@ -25870,12 +25914,10 @@
         <v>190</v>
       </c>
       <c r="J142" s="214">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="K142" s="241"/>
-      <c r="L142" s="399" t="s">
-        <v>294</v>
-      </c>
+      <c r="L142" s="399"/>
       <c r="M142" s="400"/>
       <c r="N142" s="400"/>
       <c r="O142" s="401"/>
@@ -25884,95 +25926,99 @@
     <row r="143" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="B143" s="26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C143" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="D143" s="249" t="s">
-        <v>369</v>
-      </c>
-      <c r="E143" s="250"/>
+        <v>282</v>
+      </c>
+      <c r="D143" s="385" t="s">
+        <v>303</v>
+      </c>
+      <c r="E143" s="386"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
       <c r="I143" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="J143" s="214"/>
+        <v>190</v>
+      </c>
+      <c r="J143" s="214">
+        <v>255</v>
+      </c>
       <c r="K143" s="241"/>
-      <c r="L143" s="251"/>
-      <c r="M143" s="252"/>
-      <c r="N143" s="252"/>
-      <c r="O143" s="253"/>
+      <c r="L143" s="399" t="s">
+        <v>293</v>
+      </c>
+      <c r="M143" s="400"/>
+      <c r="N143" s="400"/>
+      <c r="O143" s="401"/>
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
       <c r="B144" s="26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D144" s="385" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E144" s="386"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
       <c r="I144" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J144" s="214"/>
+        <v>190</v>
+      </c>
+      <c r="J144" s="214">
+        <v>255</v>
+      </c>
       <c r="K144" s="241"/>
-      <c r="L144" s="402" t="s">
-        <v>295</v>
-      </c>
-      <c r="M144" s="402"/>
-      <c r="N144" s="402"/>
-      <c r="O144" s="403"/>
+      <c r="L144" s="399" t="s">
+        <v>294</v>
+      </c>
+      <c r="M144" s="400"/>
+      <c r="N144" s="400"/>
+      <c r="O144" s="401"/>
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
       <c r="B145" s="26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D145" s="385" t="s">
-        <v>307</v>
-      </c>
-      <c r="E145" s="386"/>
+        <v>368</v>
+      </c>
+      <c r="D145" s="249" t="s">
+        <v>369</v>
+      </c>
+      <c r="E145" s="250"/>
       <c r="F145" s="214"/>
       <c r="G145" s="214"/>
       <c r="H145" s="214"/>
       <c r="I145" s="28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J145" s="214"/>
       <c r="K145" s="241"/>
-      <c r="L145" s="402" t="s">
-        <v>352</v>
-      </c>
-      <c r="M145" s="402"/>
-      <c r="N145" s="402"/>
-      <c r="O145" s="403"/>
+      <c r="L145" s="251"/>
+      <c r="M145" s="252"/>
+      <c r="N145" s="252"/>
+      <c r="O145" s="253"/>
       <c r="P145" s="10"/>
     </row>
     <row r="146" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
       <c r="B146" s="26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D146" s="385" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E146" s="386"/>
       <c r="F146" s="214"/>
@@ -25984,7 +26030,7 @@
       <c r="J146" s="214"/>
       <c r="K146" s="241"/>
       <c r="L146" s="402" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="M146" s="402"/>
       <c r="N146" s="402"/>
@@ -25993,87 +26039,107 @@
     </row>
     <row r="147" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
-      <c r="B147" s="235">
-        <v>14</v>
-      </c>
-      <c r="C147" s="236" t="s">
-        <v>288</v>
+      <c r="B147" s="26">
+        <v>12</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>286</v>
       </c>
       <c r="D147" s="385" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E147" s="386"/>
-      <c r="F147" s="237"/>
-      <c r="G147" s="237"/>
-      <c r="H147" s="237"/>
-      <c r="I147" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J147" s="237">
-        <v>255</v>
-      </c>
-      <c r="K147" s="242"/>
-      <c r="L147" s="402"/>
+      <c r="F147" s="214"/>
+      <c r="G147" s="214"/>
+      <c r="H147" s="214"/>
+      <c r="I147" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J147" s="214"/>
+      <c r="K147" s="241"/>
+      <c r="L147" s="402" t="s">
+        <v>352</v>
+      </c>
       <c r="M147" s="402"/>
       <c r="N147" s="402"/>
       <c r="O147" s="403"/>
       <c r="P147" s="10"/>
     </row>
-    <row r="148" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="381"/>
-      <c r="E148" s="382"/>
-      <c r="F148" s="215"/>
-      <c r="G148" s="215"/>
-      <c r="H148" s="215"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="215"/>
-      <c r="K148" s="215"/>
-      <c r="L148" s="397"/>
-      <c r="M148" s="397"/>
-      <c r="N148" s="397"/>
-      <c r="O148" s="398"/>
+      <c r="B148" s="26">
+        <v>13</v>
+      </c>
+      <c r="C148" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="D148" s="385" t="s">
+        <v>306</v>
+      </c>
+      <c r="E148" s="386"/>
+      <c r="F148" s="214"/>
+      <c r="G148" s="214"/>
+      <c r="H148" s="214"/>
+      <c r="I148" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J148" s="214"/>
+      <c r="K148" s="241"/>
+      <c r="L148" s="402" t="s">
+        <v>348</v>
+      </c>
+      <c r="M148" s="402"/>
+      <c r="N148" s="402"/>
+      <c r="O148" s="403"/>
       <c r="P148" s="10"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
+      <c r="B149" s="235">
+        <v>14</v>
+      </c>
+      <c r="C149" s="236" t="s">
+        <v>288</v>
+      </c>
+      <c r="D149" s="385" t="s">
+        <v>308</v>
+      </c>
+      <c r="E149" s="386"/>
+      <c r="F149" s="237"/>
+      <c r="G149" s="237"/>
+      <c r="H149" s="237"/>
+      <c r="I149" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J149" s="237">
+        <v>255</v>
+      </c>
+      <c r="K149" s="242"/>
+      <c r="L149" s="402"/>
+      <c r="M149" s="402"/>
+      <c r="N149" s="402"/>
+      <c r="O149" s="403"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="381"/>
+      <c r="E150" s="382"/>
+      <c r="F150" s="215"/>
+      <c r="G150" s="215"/>
+      <c r="H150" s="215"/>
+      <c r="I150" s="31"/>
+      <c r="J150" s="215"/>
+      <c r="K150" s="215"/>
+      <c r="L150" s="397"/>
+      <c r="M150" s="397"/>
+      <c r="N150" s="397"/>
+      <c r="O150" s="398"/>
       <c r="P150" s="10"/>
     </row>
-    <row r="151" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -26091,26 +26157,22 @@
       <c r="O151" s="3"/>
       <c r="P151" s="10"/>
     </row>
-    <row r="152" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
-      <c r="B152" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="231" t="s">
-        <v>331</v>
-      </c>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="34"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
-      <c r="O152" s="44"/>
+      <c r="O152" s="3"/>
       <c r="P152" s="10"/>
     </row>
     <row r="153" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26131,117 +26193,101 @@
       <c r="O153" s="3"/>
       <c r="P153" s="10"/>
     </row>
-    <row r="154" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="9"/>
-      <c r="B154" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D154" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E154" s="392"/>
-      <c r="F154" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G154" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H154" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I154" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J154" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K154" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L154" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M154" s="393"/>
-      <c r="N154" s="393"/>
-      <c r="O154" s="394"/>
+      <c r="B154" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="231" t="s">
+        <v>331</v>
+      </c>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="44"/>
       <c r="P154" s="10"/>
     </row>
-    <row r="155" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
-      <c r="B155" s="26">
-        <v>1</v>
-      </c>
-      <c r="C155" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D155" s="385" t="s">
-        <v>313</v>
-      </c>
-      <c r="E155" s="386"/>
-      <c r="F155" s="214"/>
-      <c r="G155" s="214"/>
-      <c r="H155" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I155" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J155" s="214">
-        <v>255</v>
-      </c>
-      <c r="K155" s="214"/>
-      <c r="L155" s="376"/>
-      <c r="M155" s="376"/>
-      <c r="N155" s="376"/>
-      <c r="O155" s="377"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
       <c r="P155" s="10"/>
     </row>
     <row r="156" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
-      <c r="B156" s="26">
-        <v>2</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D156" s="385" t="s">
-        <v>314</v>
-      </c>
-      <c r="E156" s="386"/>
-      <c r="F156" s="214"/>
-      <c r="G156" s="214"/>
-      <c r="H156" s="214"/>
-      <c r="I156" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J156" s="214">
-        <v>255</v>
-      </c>
-      <c r="K156" s="214"/>
-      <c r="L156" s="376"/>
-      <c r="M156" s="376"/>
-      <c r="N156" s="376"/>
-      <c r="O156" s="377"/>
+      <c r="B156" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" s="392"/>
+      <c r="F156" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H156" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I156" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J156" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K156" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L156" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M156" s="393"/>
+      <c r="N156" s="393"/>
+      <c r="O156" s="394"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
       <c r="B157" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="D157" s="249" t="s">
-        <v>323</v>
-      </c>
-      <c r="E157" s="250"/>
+        <v>310</v>
+      </c>
+      <c r="D157" s="385" t="s">
+        <v>313</v>
+      </c>
+      <c r="E157" s="386"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
-      <c r="H157" s="214"/>
+      <c r="H157" s="214" t="s">
+        <v>191</v>
+      </c>
       <c r="I157" s="238" t="s">
         <v>190</v>
       </c>
@@ -26258,28 +26304,26 @@
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="B158" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D158" s="385" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E158" s="386"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
-      <c r="H158" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I158" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J158" s="214"/>
+      <c r="H158" s="214"/>
+      <c r="I158" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J158" s="214">
+        <v>255</v>
+      </c>
       <c r="K158" s="214"/>
-      <c r="L158" s="376" t="s">
-        <v>345</v>
-      </c>
+      <c r="L158" s="376"/>
       <c r="M158" s="376"/>
       <c r="N158" s="376"/>
       <c r="O158" s="377"/>
@@ -26288,109 +26332,127 @@
     <row r="159" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="D159" s="385" t="s">
-        <v>317</v>
-      </c>
-      <c r="E159" s="386"/>
+        <v>322</v>
+      </c>
+      <c r="D159" s="249" t="s">
+        <v>323</v>
+      </c>
+      <c r="E159" s="250"/>
       <c r="F159" s="214"/>
       <c r="G159" s="214"/>
-      <c r="H159" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I159" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="J159" s="214"/>
-      <c r="K159" s="254" t="s">
-        <v>191</v>
-      </c>
-      <c r="L159" s="376" t="s">
-        <v>268</v>
-      </c>
+      <c r="H159" s="214"/>
+      <c r="I159" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J159" s="214">
+        <v>255</v>
+      </c>
+      <c r="K159" s="214"/>
+      <c r="L159" s="376"/>
       <c r="M159" s="376"/>
       <c r="N159" s="376"/>
       <c r="O159" s="377"/>
       <c r="P159" s="10"/>
     </row>
-    <row r="160" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="381"/>
-      <c r="E160" s="382"/>
-      <c r="F160" s="215"/>
-      <c r="G160" s="215"/>
-      <c r="H160" s="215"/>
-      <c r="I160" s="31"/>
-      <c r="J160" s="215"/>
-      <c r="K160" s="215"/>
-      <c r="L160" s="383"/>
-      <c r="M160" s="383"/>
-      <c r="N160" s="383"/>
-      <c r="O160" s="384"/>
+      <c r="B160" s="26">
+        <v>4</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D160" s="385" t="s">
+        <v>315</v>
+      </c>
+      <c r="E160" s="386"/>
+      <c r="F160" s="214"/>
+      <c r="G160" s="214"/>
+      <c r="H160" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I160" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J160" s="214"/>
+      <c r="K160" s="214"/>
+      <c r="L160" s="376" t="s">
+        <v>345</v>
+      </c>
+      <c r="M160" s="376"/>
+      <c r="N160" s="376"/>
+      <c r="O160" s="377"/>
       <c r="P160" s="10"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-      <c r="L161" s="3"/>
-      <c r="M161" s="3"/>
-      <c r="N161" s="3"/>
-      <c r="O161" s="3"/>
+      <c r="B161" s="26">
+        <v>5</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D161" s="385" t="s">
+        <v>317</v>
+      </c>
+      <c r="E161" s="386"/>
+      <c r="F161" s="214"/>
+      <c r="G161" s="214"/>
+      <c r="H161" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I161" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J161" s="214"/>
+      <c r="K161" s="254" t="s">
+        <v>191</v>
+      </c>
+      <c r="L161" s="376" t="s">
+        <v>268</v>
+      </c>
+      <c r="M161" s="376"/>
+      <c r="N161" s="376"/>
+      <c r="O161" s="377"/>
       <c r="P161" s="10"/>
     </row>
-    <row r="162" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
-      <c r="M162" s="3"/>
-      <c r="N162" s="3"/>
-      <c r="O162" s="3"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="381"/>
+      <c r="E162" s="382"/>
+      <c r="F162" s="215"/>
+      <c r="G162" s="215"/>
+      <c r="H162" s="215"/>
+      <c r="I162" s="31"/>
+      <c r="J162" s="215"/>
+      <c r="K162" s="215"/>
+      <c r="L162" s="383"/>
+      <c r="M162" s="383"/>
+      <c r="N162" s="383"/>
+      <c r="O162" s="384"/>
       <c r="P162" s="10"/>
     </row>
-    <row r="163" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
-      <c r="B163" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="231" t="s">
-        <v>382</v>
-      </c>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="34"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
-      <c r="O163" s="44"/>
+      <c r="O163" s="3"/>
       <c r="P163" s="10"/>
     </row>
     <row r="164" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26411,206 +26473,206 @@
       <c r="O164" s="3"/>
       <c r="P164" s="10"/>
     </row>
-    <row r="165" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="9"/>
-      <c r="B165" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D165" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E165" s="392"/>
-      <c r="F165" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G165" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H165" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I165" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J165" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K165" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L165" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M165" s="393"/>
-      <c r="N165" s="393"/>
-      <c r="O165" s="394"/>
+      <c r="B165" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="231" t="s">
+        <v>382</v>
+      </c>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="34"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="44"/>
       <c r="P165" s="10"/>
     </row>
-    <row r="166" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
-      <c r="B166" s="26">
-        <v>1</v>
-      </c>
-      <c r="C166" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D166" s="385" t="s">
-        <v>318</v>
-      </c>
-      <c r="E166" s="386"/>
-      <c r="F166" s="214"/>
-      <c r="G166" s="214"/>
-      <c r="H166" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I166" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J166" s="214">
-        <v>255</v>
-      </c>
-      <c r="K166" s="214"/>
-      <c r="L166" s="376"/>
-      <c r="M166" s="376"/>
-      <c r="N166" s="376"/>
-      <c r="O166" s="377"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
       <c r="P166" s="10"/>
     </row>
     <row r="167" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
-      <c r="B167" s="26">
-        <v>2</v>
-      </c>
-      <c r="C167" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D167" s="385" t="s">
-        <v>319</v>
-      </c>
-      <c r="E167" s="386"/>
-      <c r="F167" s="214"/>
-      <c r="G167" s="214"/>
-      <c r="H167" s="214"/>
-      <c r="I167" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J167" s="214">
-        <v>255</v>
-      </c>
-      <c r="K167" s="214"/>
-      <c r="L167" s="376"/>
-      <c r="M167" s="376"/>
-      <c r="N167" s="376"/>
-      <c r="O167" s="377"/>
+      <c r="B167" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D167" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="392"/>
+      <c r="F167" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G167" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H167" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I167" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J167" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K167" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L167" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M167" s="393"/>
+      <c r="N167" s="393"/>
+      <c r="O167" s="394"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="D168" s="249" t="s">
-        <v>267</v>
-      </c>
-      <c r="E168" s="250"/>
+        <v>310</v>
+      </c>
+      <c r="D168" s="385" t="s">
+        <v>318</v>
+      </c>
+      <c r="E168" s="386"/>
       <c r="F168" s="214"/>
       <c r="G168" s="214"/>
-      <c r="H168" s="214"/>
+      <c r="H168" s="214" t="s">
+        <v>191</v>
+      </c>
       <c r="I168" s="238" t="s">
-        <v>203</v>
-      </c>
-      <c r="J168" s="214"/>
-      <c r="K168" s="254" t="s">
-        <v>191</v>
-      </c>
-      <c r="L168" s="376" t="s">
-        <v>321</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="J168" s="214">
+        <v>255</v>
+      </c>
+      <c r="K168" s="214"/>
+      <c r="L168" s="376"/>
       <c r="M168" s="376"/>
       <c r="N168" s="376"/>
       <c r="O168" s="377"/>
       <c r="P168" s="10"/>
     </row>
-    <row r="169" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
-      <c r="B169" s="29"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="381"/>
-      <c r="E169" s="382"/>
-      <c r="F169" s="215"/>
-      <c r="G169" s="215"/>
-      <c r="H169" s="215"/>
-      <c r="I169" s="31"/>
-      <c r="J169" s="215"/>
-      <c r="K169" s="215"/>
-      <c r="L169" s="383"/>
-      <c r="M169" s="383"/>
-      <c r="N169" s="383"/>
-      <c r="O169" s="384"/>
+      <c r="B169" s="26">
+        <v>2</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="D169" s="385" t="s">
+        <v>319</v>
+      </c>
+      <c r="E169" s="386"/>
+      <c r="F169" s="214"/>
+      <c r="G169" s="214"/>
+      <c r="H169" s="214"/>
+      <c r="I169" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J169" s="214">
+        <v>255</v>
+      </c>
+      <c r="K169" s="214"/>
+      <c r="L169" s="376"/>
+      <c r="M169" s="376"/>
+      <c r="N169" s="376"/>
+      <c r="O169" s="377"/>
       <c r="P169" s="10"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
-      <c r="L170" s="3"/>
-      <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
-      <c r="O170" s="3"/>
+      <c r="B170" s="26">
+        <v>3</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D170" s="249" t="s">
+        <v>267</v>
+      </c>
+      <c r="E170" s="250"/>
+      <c r="F170" s="214"/>
+      <c r="G170" s="214"/>
+      <c r="H170" s="214"/>
+      <c r="I170" s="238" t="s">
+        <v>203</v>
+      </c>
+      <c r="J170" s="214"/>
+      <c r="K170" s="254" t="s">
+        <v>191</v>
+      </c>
+      <c r="L170" s="376" t="s">
+        <v>321</v>
+      </c>
+      <c r="M170" s="376"/>
+      <c r="N170" s="376"/>
+      <c r="O170" s="377"/>
       <c r="P170" s="10"/>
     </row>
-    <row r="171" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="9"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
-      <c r="L171" s="3"/>
-      <c r="M171" s="3"/>
-      <c r="N171" s="3"/>
-      <c r="O171" s="3"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="381"/>
+      <c r="E171" s="382"/>
+      <c r="F171" s="215"/>
+      <c r="G171" s="215"/>
+      <c r="H171" s="215"/>
+      <c r="I171" s="31"/>
+      <c r="J171" s="215"/>
+      <c r="K171" s="215"/>
+      <c r="L171" s="383"/>
+      <c r="M171" s="383"/>
+      <c r="N171" s="383"/>
+      <c r="O171" s="384"/>
       <c r="P171" s="10"/>
     </row>
-    <row r="172" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
-      <c r="B172" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="231" t="s">
-        <v>332</v>
-      </c>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="34"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
-      <c r="O172" s="44"/>
+      <c r="O172" s="3"/>
       <c r="P172" s="10"/>
     </row>
     <row r="173" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26631,377 +26693,381 @@
       <c r="O173" s="3"/>
       <c r="P173" s="10"/>
     </row>
-    <row r="174" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="9"/>
-      <c r="B174" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D174" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E174" s="392"/>
-      <c r="F174" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H174" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I174" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J174" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K174" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L174" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M174" s="393"/>
-      <c r="N174" s="393"/>
-      <c r="O174" s="394"/>
+      <c r="B174" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="231" t="s">
+        <v>332</v>
+      </c>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="34"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="44"/>
       <c r="P174" s="10"/>
     </row>
-    <row r="175" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
-      <c r="B175" s="26">
-        <v>1</v>
-      </c>
-      <c r="C175" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D175" s="385" t="s">
-        <v>318</v>
-      </c>
-      <c r="E175" s="386"/>
-      <c r="F175" s="214"/>
-      <c r="G175" s="214"/>
-      <c r="H175" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I175" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J175" s="214">
-        <v>255</v>
-      </c>
-      <c r="K175" s="214"/>
-      <c r="L175" s="376"/>
-      <c r="M175" s="376"/>
-      <c r="N175" s="376"/>
-      <c r="O175" s="377"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
       <c r="P175" s="10"/>
     </row>
     <row r="176" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
-      <c r="B176" s="26">
-        <v>2</v>
-      </c>
-      <c r="C176" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D176" s="385" t="s">
-        <v>319</v>
-      </c>
-      <c r="E176" s="386"/>
-      <c r="F176" s="214"/>
-      <c r="G176" s="214"/>
-      <c r="H176" s="214"/>
-      <c r="I176" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J176" s="214">
-        <v>255</v>
-      </c>
-      <c r="K176" s="214"/>
-      <c r="L176" s="376"/>
-      <c r="M176" s="376"/>
-      <c r="N176" s="376"/>
-      <c r="O176" s="377"/>
+      <c r="B176" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" s="392"/>
+      <c r="F176" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G176" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I176" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J176" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K176" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L176" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M176" s="393"/>
+      <c r="N176" s="393"/>
+      <c r="O176" s="394"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
       <c r="B177" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C177" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="D177" s="249" t="s">
-        <v>265</v>
-      </c>
-      <c r="E177" s="250"/>
+        <v>310</v>
+      </c>
+      <c r="D177" s="385" t="s">
+        <v>318</v>
+      </c>
+      <c r="E177" s="386"/>
       <c r="F177" s="214"/>
       <c r="G177" s="214"/>
-      <c r="H177" s="214"/>
+      <c r="H177" s="214" t="s">
+        <v>191</v>
+      </c>
       <c r="I177" s="238" t="s">
-        <v>203</v>
-      </c>
-      <c r="J177" s="214"/>
-      <c r="K177" s="254" t="s">
-        <v>191</v>
-      </c>
-      <c r="L177" s="376" t="s">
-        <v>266</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="J177" s="214">
+        <v>255</v>
+      </c>
+      <c r="K177" s="214"/>
+      <c r="L177" s="376"/>
       <c r="M177" s="376"/>
       <c r="N177" s="376"/>
       <c r="O177" s="377"/>
       <c r="P177" s="10"/>
     </row>
-    <row r="178" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
-      <c r="B178" s="29"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="381"/>
-      <c r="E178" s="382"/>
-      <c r="F178" s="215"/>
-      <c r="G178" s="215"/>
-      <c r="H178" s="215"/>
-      <c r="I178" s="31"/>
-      <c r="J178" s="215"/>
-      <c r="K178" s="215"/>
-      <c r="L178" s="383"/>
-      <c r="M178" s="383"/>
-      <c r="N178" s="383"/>
-      <c r="O178" s="384"/>
+      <c r="B178" s="26">
+        <v>2</v>
+      </c>
+      <c r="C178" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="D178" s="385" t="s">
+        <v>319</v>
+      </c>
+      <c r="E178" s="386"/>
+      <c r="F178" s="214"/>
+      <c r="G178" s="214"/>
+      <c r="H178" s="214"/>
+      <c r="I178" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J178" s="214">
+        <v>255</v>
+      </c>
+      <c r="K178" s="214"/>
+      <c r="L178" s="376"/>
+      <c r="M178" s="376"/>
+      <c r="N178" s="376"/>
+      <c r="O178" s="377"/>
       <c r="P178" s="10"/>
     </row>
-    <row r="179" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
-      <c r="M179" s="12"/>
-      <c r="N179" s="12"/>
-      <c r="O179" s="12"/>
-      <c r="P179" s="13"/>
-    </row>
-    <row r="180" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="6"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="7"/>
-      <c r="L180" s="7"/>
-      <c r="M180" s="7"/>
-      <c r="N180" s="7"/>
-      <c r="O180" s="7"/>
-      <c r="P180" s="8"/>
-    </row>
-    <row r="181" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="9"/>
-      <c r="B181" s="32" t="s">
+    <row r="179" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A179" s="9"/>
+      <c r="B179" s="26">
+        <v>3</v>
+      </c>
+      <c r="C179" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D179" s="249" t="s">
+        <v>265</v>
+      </c>
+      <c r="E179" s="250"/>
+      <c r="F179" s="214"/>
+      <c r="G179" s="214"/>
+      <c r="H179" s="214"/>
+      <c r="I179" s="238" t="s">
+        <v>203</v>
+      </c>
+      <c r="J179" s="214"/>
+      <c r="K179" s="254" t="s">
+        <v>191</v>
+      </c>
+      <c r="L179" s="376" t="s">
+        <v>266</v>
+      </c>
+      <c r="M179" s="376"/>
+      <c r="N179" s="376"/>
+      <c r="O179" s="377"/>
+      <c r="P179" s="10"/>
+    </row>
+    <row r="180" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="9"/>
+      <c r="B180" s="29"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="381"/>
+      <c r="E180" s="382"/>
+      <c r="F180" s="215"/>
+      <c r="G180" s="215"/>
+      <c r="H180" s="215"/>
+      <c r="I180" s="31"/>
+      <c r="J180" s="215"/>
+      <c r="K180" s="215"/>
+      <c r="L180" s="383"/>
+      <c r="M180" s="383"/>
+      <c r="N180" s="383"/>
+      <c r="O180" s="384"/>
+      <c r="P180" s="10"/>
+    </row>
+    <row r="181" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="11"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="12"/>
+      <c r="O181" s="12"/>
+      <c r="P181" s="13"/>
+    </row>
+    <row r="182" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="8"/>
+    </row>
+    <row r="183" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="9"/>
+      <c r="B183" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="231" t="s">
+      <c r="C183" s="3"/>
+      <c r="D183" s="231" t="s">
         <v>325</v>
       </c>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="33"/>
-      <c r="H181" s="34"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3"/>
-      <c r="N181" s="3"/>
-      <c r="O181" s="44"/>
-      <c r="P181" s="10"/>
-    </row>
-    <row r="182" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
-      <c r="O182" s="3"/>
-      <c r="P182" s="10"/>
-    </row>
-    <row r="183" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A183" s="9"/>
-      <c r="B183" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D183" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E183" s="392"/>
-      <c r="F183" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G183" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H183" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I183" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J183" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K183" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L183" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M183" s="393"/>
-      <c r="N183" s="393"/>
-      <c r="O183" s="394"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33"/>
+      <c r="G183" s="33"/>
+      <c r="H183" s="34"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="44"/>
       <c r="P183" s="10"/>
     </row>
-    <row r="184" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
-      <c r="B184" s="26">
-        <v>1</v>
-      </c>
-      <c r="C184" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="D184" s="385" t="s">
-        <v>326</v>
-      </c>
-      <c r="E184" s="386"/>
-      <c r="F184" s="214"/>
-      <c r="G184" s="214"/>
-      <c r="H184" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I184" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J184" s="214">
-        <v>255</v>
-      </c>
-      <c r="K184" s="214"/>
-      <c r="L184" s="376"/>
-      <c r="M184" s="376"/>
-      <c r="N184" s="376"/>
-      <c r="O184" s="377"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
       <c r="P184" s="10"/>
     </row>
     <row r="185" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
-      <c r="B185" s="26">
+      <c r="B185" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D185" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E185" s="392"/>
+      <c r="F185" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G185" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H185" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I185" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J185" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K185" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L185" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M185" s="393"/>
+      <c r="N185" s="393"/>
+      <c r="O185" s="394"/>
+      <c r="P185" s="10"/>
+    </row>
+    <row r="186" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A186" s="9"/>
+      <c r="B186" s="26">
+        <v>1</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D186" s="385" t="s">
+        <v>326</v>
+      </c>
+      <c r="E186" s="386"/>
+      <c r="F186" s="214"/>
+      <c r="G186" s="214"/>
+      <c r="H186" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I186" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J186" s="214">
+        <v>255</v>
+      </c>
+      <c r="K186" s="214"/>
+      <c r="L186" s="376"/>
+      <c r="M186" s="376"/>
+      <c r="N186" s="376"/>
+      <c r="O186" s="377"/>
+      <c r="P186" s="10"/>
+    </row>
+    <row r="187" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A187" s="9"/>
+      <c r="B187" s="26">
         <v>2</v>
       </c>
-      <c r="C185" s="27" t="s">
+      <c r="C187" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D185" s="385" t="s">
+      <c r="D187" s="385" t="s">
         <v>409</v>
       </c>
-      <c r="E185" s="386"/>
-      <c r="F185" s="214"/>
-      <c r="G185" s="214"/>
-      <c r="H185" s="214"/>
-      <c r="I185" s="238" t="s">
+      <c r="E187" s="386"/>
+      <c r="F187" s="214"/>
+      <c r="G187" s="214"/>
+      <c r="H187" s="214"/>
+      <c r="I187" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J185" s="214">
+      <c r="J187" s="214">
         <v>255</v>
       </c>
-      <c r="K185" s="214"/>
-      <c r="L185" s="376"/>
-      <c r="M185" s="376"/>
-      <c r="N185" s="376"/>
-      <c r="O185" s="377"/>
-      <c r="P185" s="10"/>
-    </row>
-    <row r="186" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="9"/>
-      <c r="B186" s="29"/>
-      <c r="C186" s="30"/>
-      <c r="D186" s="381"/>
-      <c r="E186" s="382"/>
-      <c r="F186" s="215"/>
-      <c r="G186" s="215"/>
-      <c r="H186" s="215"/>
-      <c r="I186" s="31"/>
-      <c r="J186" s="215"/>
-      <c r="K186" s="215"/>
-      <c r="L186" s="383"/>
-      <c r="M186" s="383"/>
-      <c r="N186" s="383"/>
-      <c r="O186" s="384"/>
-      <c r="P186" s="10"/>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="9"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3"/>
-      <c r="N187" s="3"/>
-      <c r="O187" s="3"/>
+      <c r="K187" s="214"/>
+      <c r="L187" s="376"/>
+      <c r="M187" s="376"/>
+      <c r="N187" s="376"/>
+      <c r="O187" s="377"/>
       <c r="P187" s="10"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
-      <c r="O188" s="3"/>
+      <c r="B188" s="29"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="381"/>
+      <c r="E188" s="382"/>
+      <c r="F188" s="215"/>
+      <c r="G188" s="215"/>
+      <c r="H188" s="215"/>
+      <c r="I188" s="31"/>
+      <c r="J188" s="215"/>
+      <c r="K188" s="215"/>
+      <c r="L188" s="383"/>
+      <c r="M188" s="383"/>
+      <c r="N188" s="383"/>
+      <c r="O188" s="384"/>
       <c r="P188" s="10"/>
     </row>
-    <row r="189" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -27019,26 +27085,22 @@
       <c r="O189" s="3"/>
       <c r="P189" s="10"/>
     </row>
-    <row r="190" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
-      <c r="B190" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="231" t="s">
-        <v>335</v>
-      </c>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="34"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
-      <c r="O190" s="44"/>
+      <c r="O190" s="3"/>
       <c r="P190" s="10"/>
     </row>
     <row r="191" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -27059,114 +27121,94 @@
       <c r="O191" s="3"/>
       <c r="P191" s="10"/>
     </row>
-    <row r="192" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="9"/>
-      <c r="B192" s="24" t="s">
+      <c r="B192" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="231" t="s">
+        <v>335</v>
+      </c>
+      <c r="E192" s="33"/>
+      <c r="F192" s="33"/>
+      <c r="G192" s="33"/>
+      <c r="H192" s="34"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="44"/>
+      <c r="P192" s="10"/>
+    </row>
+    <row r="193" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="9"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="10"/>
+    </row>
+    <row r="194" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A194" s="9"/>
+      <c r="B194" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="25" t="s">
+      <c r="C194" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D192" s="391" t="s">
+      <c r="D194" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E192" s="392"/>
-      <c r="F192" s="25" t="s">
+      <c r="E194" s="392"/>
+      <c r="F194" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G192" s="25" t="s">
+      <c r="G194" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H192" s="25" t="s">
+      <c r="H194" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I192" s="25" t="s">
+      <c r="I194" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J192" s="25" t="s">
+      <c r="J194" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K192" s="25" t="s">
+      <c r="K194" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L192" s="393" t="s">
+      <c r="L194" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M192" s="393"/>
-      <c r="N192" s="393"/>
-      <c r="O192" s="394"/>
-      <c r="P192" s="10"/>
-    </row>
-    <row r="193" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A193" s="9"/>
-      <c r="B193" s="26">
-        <v>1</v>
-      </c>
-      <c r="C193" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="D193" s="385" t="s">
-        <v>338</v>
-      </c>
-      <c r="E193" s="386"/>
-      <c r="F193" s="214"/>
-      <c r="G193" s="214"/>
-      <c r="H193" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I193" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J193" s="214">
-        <v>255</v>
-      </c>
-      <c r="K193" s="214"/>
-      <c r="L193" s="376"/>
-      <c r="M193" s="376"/>
-      <c r="N193" s="376"/>
-      <c r="O193" s="377"/>
-      <c r="P193" s="10"/>
-    </row>
-    <row r="194" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A194" s="260"/>
-      <c r="B194" s="261">
-        <v>2</v>
-      </c>
-      <c r="C194" s="262" t="s">
-        <v>433</v>
-      </c>
-      <c r="D194" s="263" t="s">
-        <v>434</v>
-      </c>
-      <c r="E194" s="264"/>
-      <c r="F194" s="265"/>
-      <c r="G194" s="265"/>
-      <c r="H194" s="265" t="s">
-        <v>191</v>
-      </c>
-      <c r="I194" s="266" t="s">
-        <v>188</v>
-      </c>
-      <c r="J194" s="265"/>
-      <c r="K194" s="265"/>
-      <c r="L194" s="368" t="s">
-        <v>292</v>
-      </c>
-      <c r="M194" s="368"/>
-      <c r="N194" s="368"/>
-      <c r="O194" s="369"/>
-      <c r="P194" s="267"/>
+      <c r="M194" s="393"/>
+      <c r="N194" s="393"/>
+      <c r="O194" s="394"/>
+      <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
       <c r="B195" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C195" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D195" s="385" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E195" s="386"/>
       <c r="F195" s="214"/>
@@ -27175,102 +27217,122 @@
         <v>191</v>
       </c>
       <c r="I195" s="238" t="s">
-        <v>188</v>
-      </c>
-      <c r="J195" s="214"/>
+        <v>190</v>
+      </c>
+      <c r="J195" s="214">
+        <v>255</v>
+      </c>
       <c r="K195" s="214"/>
-      <c r="L195" s="376" t="s">
-        <v>340</v>
-      </c>
+      <c r="L195" s="376"/>
       <c r="M195" s="376"/>
       <c r="N195" s="376"/>
       <c r="O195" s="377"/>
       <c r="P195" s="10"/>
     </row>
-    <row r="196" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="9"/>
-      <c r="B196" s="29">
+    <row r="196" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A196" s="260"/>
+      <c r="B196" s="261">
+        <v>2</v>
+      </c>
+      <c r="C196" s="262" t="s">
+        <v>433</v>
+      </c>
+      <c r="D196" s="263" t="s">
+        <v>434</v>
+      </c>
+      <c r="E196" s="264"/>
+      <c r="F196" s="265"/>
+      <c r="G196" s="265"/>
+      <c r="H196" s="265" t="s">
+        <v>191</v>
+      </c>
+      <c r="I196" s="266" t="s">
+        <v>188</v>
+      </c>
+      <c r="J196" s="265"/>
+      <c r="K196" s="265"/>
+      <c r="L196" s="368" t="s">
+        <v>292</v>
+      </c>
+      <c r="M196" s="368"/>
+      <c r="N196" s="368"/>
+      <c r="O196" s="369"/>
+      <c r="P196" s="267"/>
+    </row>
+    <row r="197" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A197" s="9"/>
+      <c r="B197" s="26">
+        <v>3</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D197" s="385" t="s">
+        <v>339</v>
+      </c>
+      <c r="E197" s="386"/>
+      <c r="F197" s="214"/>
+      <c r="G197" s="214"/>
+      <c r="H197" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I197" s="238" t="s">
+        <v>188</v>
+      </c>
+      <c r="J197" s="214"/>
+      <c r="K197" s="214"/>
+      <c r="L197" s="376" t="s">
+        <v>340</v>
+      </c>
+      <c r="M197" s="376"/>
+      <c r="N197" s="376"/>
+      <c r="O197" s="377"/>
+      <c r="P197" s="10"/>
+    </row>
+    <row r="198" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="9"/>
+      <c r="B198" s="29">
         <v>4</v>
       </c>
-      <c r="C196" s="30" t="s">
+      <c r="C198" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D196" s="413" t="s">
+      <c r="D198" s="413" t="s">
         <v>245</v>
       </c>
-      <c r="E196" s="414"/>
-      <c r="F196" s="215"/>
-      <c r="G196" s="215"/>
-      <c r="H196" s="215"/>
-      <c r="I196" s="31" t="s">
+      <c r="E198" s="414"/>
+      <c r="F198" s="215"/>
+      <c r="G198" s="215"/>
+      <c r="H198" s="215"/>
+      <c r="I198" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="J196" s="215">
+      <c r="J198" s="215">
         <v>255</v>
       </c>
-      <c r="K196" s="215"/>
-      <c r="L196" s="383"/>
-      <c r="M196" s="383"/>
-      <c r="N196" s="383"/>
-      <c r="O196" s="384"/>
-      <c r="P196" s="10"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A197" s="9"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
-      <c r="O197" s="3"/>
-      <c r="P197" s="10"/>
-    </row>
-    <row r="198" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-      <c r="O198" s="3"/>
+      <c r="K198" s="215"/>
+      <c r="L198" s="383"/>
+      <c r="M198" s="383"/>
+      <c r="N198" s="383"/>
+      <c r="O198" s="384"/>
       <c r="P198" s="10"/>
     </row>
-    <row r="199" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
-      <c r="B199" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B199" s="3"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="231" t="s">
-        <v>341</v>
-      </c>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="34"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
       <c r="N199" s="3"/>
-      <c r="O199" s="44"/>
+      <c r="O199" s="3"/>
       <c r="P199" s="10"/>
     </row>
     <row r="200" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -27291,206 +27353,206 @@
       <c r="O200" s="3"/>
       <c r="P200" s="10"/>
     </row>
-    <row r="201" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="9"/>
-      <c r="B201" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C201" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D201" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E201" s="392"/>
-      <c r="F201" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G201" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H201" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I201" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J201" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K201" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L201" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M201" s="393"/>
-      <c r="N201" s="393"/>
-      <c r="O201" s="394"/>
+      <c r="B201" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="231" t="s">
+        <v>341</v>
+      </c>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="34"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="44"/>
       <c r="P201" s="10"/>
     </row>
-    <row r="202" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
-      <c r="B202" s="26">
-        <v>1</v>
-      </c>
-      <c r="C202" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="D202" s="385" t="s">
-        <v>410</v>
-      </c>
-      <c r="E202" s="386"/>
-      <c r="F202" s="214"/>
-      <c r="G202" s="214"/>
-      <c r="H202" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I202" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J202" s="214">
-        <v>255</v>
-      </c>
-      <c r="K202" s="214"/>
-      <c r="L202" s="376" t="s">
-        <v>362</v>
-      </c>
-      <c r="M202" s="376"/>
-      <c r="N202" s="376"/>
-      <c r="O202" s="377"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
       <c r="P202" s="10"/>
     </row>
     <row r="203" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A203" s="9"/>
-      <c r="B203" s="26">
-        <v>2</v>
-      </c>
-      <c r="C203" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="D203" s="385" t="s">
-        <v>339</v>
-      </c>
-      <c r="E203" s="386"/>
-      <c r="F203" s="214"/>
-      <c r="G203" s="214"/>
-      <c r="H203" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I203" s="238" t="s">
-        <v>188</v>
-      </c>
-      <c r="J203" s="214"/>
-      <c r="K203" s="214"/>
-      <c r="L203" s="376"/>
-      <c r="M203" s="376"/>
-      <c r="N203" s="376"/>
-      <c r="O203" s="377"/>
+      <c r="B203" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D203" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E203" s="392"/>
+      <c r="F203" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G203" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H203" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I203" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J203" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K203" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L203" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M203" s="393"/>
+      <c r="N203" s="393"/>
+      <c r="O203" s="394"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
-      <c r="B204" s="235">
-        <v>3</v>
-      </c>
-      <c r="C204" s="236" t="s">
-        <v>245</v>
-      </c>
-      <c r="D204" s="239" t="s">
-        <v>245</v>
-      </c>
-      <c r="E204" s="240"/>
-      <c r="F204" s="237"/>
-      <c r="G204" s="237"/>
-      <c r="H204" s="237"/>
+      <c r="B204" s="26">
+        <v>1</v>
+      </c>
+      <c r="C204" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D204" s="385" t="s">
+        <v>410</v>
+      </c>
+      <c r="E204" s="386"/>
+      <c r="F204" s="214"/>
+      <c r="G204" s="214"/>
+      <c r="H204" s="214" t="s">
+        <v>191</v>
+      </c>
       <c r="I204" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J204" s="237">
+      <c r="J204" s="214">
         <v>255</v>
       </c>
-      <c r="K204" s="237"/>
-      <c r="L204" s="376"/>
+      <c r="K204" s="214"/>
+      <c r="L204" s="376" t="s">
+        <v>362</v>
+      </c>
       <c r="M204" s="376"/>
       <c r="N204" s="376"/>
       <c r="O204" s="377"/>
       <c r="P204" s="10"/>
     </row>
-    <row r="205" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
-      <c r="B205" s="29"/>
-      <c r="C205" s="30"/>
-      <c r="D205" s="381"/>
-      <c r="E205" s="382"/>
-      <c r="F205" s="215"/>
-      <c r="G205" s="215"/>
-      <c r="H205" s="215"/>
-      <c r="I205" s="31"/>
-      <c r="J205" s="215"/>
-      <c r="K205" s="215"/>
-      <c r="L205" s="383"/>
-      <c r="M205" s="383"/>
-      <c r="N205" s="383"/>
-      <c r="O205" s="384"/>
+      <c r="B205" s="26">
+        <v>2</v>
+      </c>
+      <c r="C205" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D205" s="385" t="s">
+        <v>339</v>
+      </c>
+      <c r="E205" s="386"/>
+      <c r="F205" s="214"/>
+      <c r="G205" s="214"/>
+      <c r="H205" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I205" s="238" t="s">
+        <v>188</v>
+      </c>
+      <c r="J205" s="214"/>
+      <c r="K205" s="214"/>
+      <c r="L205" s="376"/>
+      <c r="M205" s="376"/>
+      <c r="N205" s="376"/>
+      <c r="O205" s="377"/>
       <c r="P205" s="10"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
-      <c r="L206" s="3"/>
-      <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
-      <c r="O206" s="3"/>
+      <c r="B206" s="235">
+        <v>3</v>
+      </c>
+      <c r="C206" s="236" t="s">
+        <v>245</v>
+      </c>
+      <c r="D206" s="239" t="s">
+        <v>245</v>
+      </c>
+      <c r="E206" s="240"/>
+      <c r="F206" s="237"/>
+      <c r="G206" s="237"/>
+      <c r="H206" s="237"/>
+      <c r="I206" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J206" s="237">
+        <v>255</v>
+      </c>
+      <c r="K206" s="237"/>
+      <c r="L206" s="376"/>
+      <c r="M206" s="376"/>
+      <c r="N206" s="376"/>
+      <c r="O206" s="377"/>
       <c r="P206" s="10"/>
     </row>
-    <row r="207" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
-      <c r="O207" s="3"/>
+      <c r="B207" s="29"/>
+      <c r="C207" s="30"/>
+      <c r="D207" s="381"/>
+      <c r="E207" s="382"/>
+      <c r="F207" s="215"/>
+      <c r="G207" s="215"/>
+      <c r="H207" s="215"/>
+      <c r="I207" s="31"/>
+      <c r="J207" s="215"/>
+      <c r="K207" s="215"/>
+      <c r="L207" s="383"/>
+      <c r="M207" s="383"/>
+      <c r="N207" s="383"/>
+      <c r="O207" s="384"/>
       <c r="P207" s="10"/>
     </row>
-    <row r="208" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
-      <c r="B208" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B208" s="3"/>
       <c r="C208" s="3"/>
-      <c r="D208" s="231" t="s">
-        <v>428</v>
-      </c>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="34"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
-      <c r="O208" s="44"/>
+      <c r="O208" s="3"/>
       <c r="P208" s="10"/>
     </row>
     <row r="209" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -27511,178 +27573,178 @@
       <c r="O209" s="3"/>
       <c r="P209" s="10"/>
     </row>
-    <row r="210" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="9"/>
-      <c r="B210" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D210" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E210" s="392"/>
-      <c r="F210" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G210" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H210" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I210" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J210" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K210" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L210" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M210" s="393"/>
-      <c r="N210" s="393"/>
-      <c r="O210" s="394"/>
+      <c r="B210" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="231" t="s">
+        <v>428</v>
+      </c>
+      <c r="E210" s="33"/>
+      <c r="F210" s="33"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="34"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="44"/>
       <c r="P210" s="10"/>
     </row>
-    <row r="211" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
-      <c r="B211" s="26">
-        <v>1</v>
-      </c>
-      <c r="C211" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="D211" s="385" t="s">
-        <v>412</v>
-      </c>
-      <c r="E211" s="386"/>
-      <c r="F211" s="214"/>
-      <c r="G211" s="214"/>
-      <c r="H211" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I211" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J211" s="214">
-        <v>255</v>
-      </c>
-      <c r="K211" s="214"/>
-      <c r="L211" s="376" t="s">
-        <v>347</v>
-      </c>
-      <c r="M211" s="376"/>
-      <c r="N211" s="376"/>
-      <c r="O211" s="377"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
       <c r="P211" s="10"/>
     </row>
     <row r="212" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
-      <c r="B212" s="235">
+      <c r="B212" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D212" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212" s="392"/>
+      <c r="F212" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H212" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I212" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J212" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K212" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L212" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M212" s="393"/>
+      <c r="N212" s="393"/>
+      <c r="O212" s="394"/>
+      <c r="P212" s="10"/>
+    </row>
+    <row r="213" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A213" s="9"/>
+      <c r="B213" s="26">
+        <v>1</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D213" s="385" t="s">
+        <v>412</v>
+      </c>
+      <c r="E213" s="386"/>
+      <c r="F213" s="214"/>
+      <c r="G213" s="214"/>
+      <c r="H213" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I213" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J213" s="214">
+        <v>255</v>
+      </c>
+      <c r="K213" s="214"/>
+      <c r="L213" s="376" t="s">
+        <v>347</v>
+      </c>
+      <c r="M213" s="376"/>
+      <c r="N213" s="376"/>
+      <c r="O213" s="377"/>
+      <c r="P213" s="10"/>
+    </row>
+    <row r="214" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A214" s="9"/>
+      <c r="B214" s="235">
         <v>2</v>
       </c>
-      <c r="C212" s="236" t="s">
+      <c r="C214" s="236" t="s">
         <v>245</v>
       </c>
-      <c r="D212" s="239" t="s">
+      <c r="D214" s="239" t="s">
         <v>245</v>
       </c>
-      <c r="E212" s="240"/>
-      <c r="F212" s="237"/>
-      <c r="G212" s="237"/>
-      <c r="H212" s="237"/>
-      <c r="I212" s="238" t="s">
+      <c r="E214" s="240"/>
+      <c r="F214" s="237"/>
+      <c r="G214" s="237"/>
+      <c r="H214" s="237"/>
+      <c r="I214" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J212" s="237">
+      <c r="J214" s="237">
         <v>255</v>
       </c>
-      <c r="K212" s="237"/>
-      <c r="L212" s="376"/>
-      <c r="M212" s="376"/>
-      <c r="N212" s="376"/>
-      <c r="O212" s="377"/>
-      <c r="P212" s="10"/>
-    </row>
-    <row r="213" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="9"/>
-      <c r="B213" s="29"/>
-      <c r="C213" s="30"/>
-      <c r="D213" s="381"/>
-      <c r="E213" s="382"/>
-      <c r="F213" s="215"/>
-      <c r="G213" s="215"/>
-      <c r="H213" s="215"/>
-      <c r="I213" s="31"/>
-      <c r="J213" s="215"/>
-      <c r="K213" s="215"/>
-      <c r="L213" s="383"/>
-      <c r="M213" s="383"/>
-      <c r="N213" s="383"/>
-      <c r="O213" s="384"/>
-      <c r="P213" s="10"/>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A214" s="9"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
+      <c r="K214" s="237"/>
+      <c r="L214" s="376"/>
+      <c r="M214" s="376"/>
+      <c r="N214" s="376"/>
+      <c r="O214" s="377"/>
       <c r="P214" s="10"/>
     </row>
-    <row r="215" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="9"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
+      <c r="B215" s="29"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="381"/>
+      <c r="E215" s="382"/>
+      <c r="F215" s="215"/>
+      <c r="G215" s="215"/>
+      <c r="H215" s="215"/>
+      <c r="I215" s="31"/>
+      <c r="J215" s="215"/>
+      <c r="K215" s="215"/>
+      <c r="L215" s="383"/>
+      <c r="M215" s="383"/>
+      <c r="N215" s="383"/>
+      <c r="O215" s="384"/>
       <c r="P215" s="10"/>
     </row>
-    <row r="216" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
-      <c r="B216" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B216" s="3"/>
       <c r="C216" s="3"/>
-      <c r="D216" s="231" t="s">
-        <v>349</v>
-      </c>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="34"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
       <c r="N216" s="3"/>
-      <c r="O216" s="44"/>
+      <c r="O216" s="3"/>
       <c r="P216" s="10"/>
     </row>
     <row r="217" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -27703,178 +27765,178 @@
       <c r="O217" s="3"/>
       <c r="P217" s="10"/>
     </row>
-    <row r="218" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="9"/>
-      <c r="B218" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C218" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D218" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E218" s="392"/>
-      <c r="F218" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G218" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H218" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I218" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J218" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K218" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L218" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M218" s="393"/>
-      <c r="N218" s="393"/>
-      <c r="O218" s="394"/>
+      <c r="B218" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="231" t="s">
+        <v>349</v>
+      </c>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="34"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="44"/>
       <c r="P218" s="10"/>
     </row>
-    <row r="219" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
-      <c r="B219" s="26">
-        <v>1</v>
-      </c>
-      <c r="C219" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D219" s="385" t="s">
-        <v>350</v>
-      </c>
-      <c r="E219" s="386"/>
-      <c r="F219" s="214"/>
-      <c r="G219" s="214"/>
-      <c r="H219" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I219" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J219" s="214">
-        <v>255</v>
-      </c>
-      <c r="K219" s="214"/>
-      <c r="L219" s="376" t="s">
-        <v>351</v>
-      </c>
-      <c r="M219" s="376"/>
-      <c r="N219" s="376"/>
-      <c r="O219" s="377"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
       <c r="P219" s="10"/>
     </row>
     <row r="220" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
-      <c r="B220" s="235">
-        <v>2</v>
-      </c>
-      <c r="C220" s="236" t="s">
-        <v>245</v>
-      </c>
-      <c r="D220" s="239" t="s">
-        <v>245</v>
-      </c>
-      <c r="E220" s="240"/>
-      <c r="F220" s="237"/>
-      <c r="G220" s="237"/>
-      <c r="H220" s="237"/>
-      <c r="I220" s="238" t="s">
+      <c r="B220" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D220" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E220" s="392"/>
+      <c r="F220" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G220" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H220" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I220" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J220" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K220" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L220" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M220" s="393"/>
+      <c r="N220" s="393"/>
+      <c r="O220" s="394"/>
+      <c r="P220" s="10"/>
+    </row>
+    <row r="221" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A221" s="9"/>
+      <c r="B221" s="26">
+        <v>1</v>
+      </c>
+      <c r="C221" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="D221" s="385" t="s">
+        <v>350</v>
+      </c>
+      <c r="E221" s="386"/>
+      <c r="F221" s="214"/>
+      <c r="G221" s="214"/>
+      <c r="H221" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I221" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J220" s="237">
+      <c r="J221" s="214">
         <v>255</v>
       </c>
-      <c r="K220" s="237"/>
-      <c r="L220" s="376"/>
-      <c r="M220" s="376"/>
-      <c r="N220" s="376"/>
-      <c r="O220" s="377"/>
-      <c r="P220" s="10"/>
-    </row>
-    <row r="221" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="9"/>
-      <c r="B221" s="29"/>
-      <c r="C221" s="30"/>
-      <c r="D221" s="381"/>
-      <c r="E221" s="382"/>
-      <c r="F221" s="215"/>
-      <c r="G221" s="215"/>
-      <c r="H221" s="215"/>
-      <c r="I221" s="31"/>
-      <c r="J221" s="215"/>
-      <c r="K221" s="215"/>
-      <c r="L221" s="383"/>
-      <c r="M221" s="383"/>
-      <c r="N221" s="383"/>
-      <c r="O221" s="384"/>
+      <c r="K221" s="214"/>
+      <c r="L221" s="376" t="s">
+        <v>351</v>
+      </c>
+      <c r="M221" s="376"/>
+      <c r="N221" s="376"/>
+      <c r="O221" s="377"/>
       <c r="P221" s="10"/>
     </row>
     <row r="222" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
-      <c r="B222" s="243"/>
-      <c r="C222" s="243"/>
-      <c r="D222" s="247"/>
-      <c r="E222" s="247"/>
-      <c r="F222" s="244"/>
-      <c r="G222" s="244"/>
-      <c r="H222" s="244"/>
-      <c r="I222" s="245"/>
-      <c r="J222" s="244"/>
-      <c r="K222" s="244"/>
-      <c r="L222" s="246"/>
-      <c r="M222" s="246"/>
-      <c r="N222" s="246"/>
-      <c r="O222" s="246"/>
+      <c r="B222" s="235">
+        <v>2</v>
+      </c>
+      <c r="C222" s="236" t="s">
+        <v>245</v>
+      </c>
+      <c r="D222" s="239" t="s">
+        <v>245</v>
+      </c>
+      <c r="E222" s="240"/>
+      <c r="F222" s="237"/>
+      <c r="G222" s="237"/>
+      <c r="H222" s="237"/>
+      <c r="I222" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J222" s="237">
+        <v>255</v>
+      </c>
+      <c r="K222" s="237"/>
+      <c r="L222" s="376"/>
+      <c r="M222" s="376"/>
+      <c r="N222" s="376"/>
+      <c r="O222" s="377"/>
       <c r="P222" s="10"/>
     </row>
-    <row r="223" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="9"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
-      <c r="O223" s="3"/>
+      <c r="B223" s="29"/>
+      <c r="C223" s="30"/>
+      <c r="D223" s="381"/>
+      <c r="E223" s="382"/>
+      <c r="F223" s="215"/>
+      <c r="G223" s="215"/>
+      <c r="H223" s="215"/>
+      <c r="I223" s="31"/>
+      <c r="J223" s="215"/>
+      <c r="K223" s="215"/>
+      <c r="L223" s="383"/>
+      <c r="M223" s="383"/>
+      <c r="N223" s="383"/>
+      <c r="O223" s="384"/>
       <c r="P223" s="10"/>
     </row>
-    <row r="224" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
-      <c r="B224" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C224" s="3"/>
-      <c r="D224" s="231" t="s">
-        <v>387</v>
-      </c>
-      <c r="E224" s="33"/>
-      <c r="F224" s="33"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="34"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-      <c r="O224" s="44"/>
+      <c r="B224" s="243"/>
+      <c r="C224" s="243"/>
+      <c r="D224" s="247"/>
+      <c r="E224" s="247"/>
+      <c r="F224" s="244"/>
+      <c r="G224" s="244"/>
+      <c r="H224" s="244"/>
+      <c r="I224" s="245"/>
+      <c r="J224" s="244"/>
+      <c r="K224" s="244"/>
+      <c r="L224" s="246"/>
+      <c r="M224" s="246"/>
+      <c r="N224" s="246"/>
+      <c r="O224" s="246"/>
       <c r="P224" s="10"/>
     </row>
     <row r="225" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -27895,178 +27957,178 @@
       <c r="O225" s="3"/>
       <c r="P225" s="10"/>
     </row>
-    <row r="226" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="9"/>
-      <c r="B226" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C226" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D226" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E226" s="392"/>
-      <c r="F226" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G226" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H226" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I226" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J226" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K226" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L226" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M226" s="393"/>
-      <c r="N226" s="393"/>
-      <c r="O226" s="394"/>
+      <c r="B226" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="231" t="s">
+        <v>387</v>
+      </c>
+      <c r="E226" s="33"/>
+      <c r="F226" s="33"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="34"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="44"/>
       <c r="P226" s="10"/>
     </row>
-    <row r="227" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
-      <c r="B227" s="26">
-        <v>1</v>
-      </c>
-      <c r="C227" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="D227" s="385" t="s">
-        <v>388</v>
-      </c>
-      <c r="E227" s="386"/>
-      <c r="F227" s="214"/>
-      <c r="G227" s="214"/>
-      <c r="H227" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I227" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J227" s="214">
-        <v>255</v>
-      </c>
-      <c r="K227" s="214"/>
-      <c r="L227" s="376" t="s">
-        <v>389</v>
-      </c>
-      <c r="M227" s="376"/>
-      <c r="N227" s="376"/>
-      <c r="O227" s="377"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
       <c r="P227" s="10"/>
     </row>
     <row r="228" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
-      <c r="B228" s="235">
-        <v>2</v>
-      </c>
-      <c r="C228" s="236" t="s">
-        <v>245</v>
-      </c>
-      <c r="D228" s="239" t="s">
-        <v>245</v>
-      </c>
-      <c r="E228" s="240"/>
-      <c r="F228" s="237"/>
-      <c r="G228" s="237"/>
-      <c r="H228" s="237"/>
-      <c r="I228" s="238" t="s">
+      <c r="B228" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D228" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E228" s="392"/>
+      <c r="F228" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G228" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H228" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I228" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J228" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K228" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L228" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M228" s="393"/>
+      <c r="N228" s="393"/>
+      <c r="O228" s="394"/>
+      <c r="P228" s="10"/>
+    </row>
+    <row r="229" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A229" s="9"/>
+      <c r="B229" s="26">
+        <v>1</v>
+      </c>
+      <c r="C229" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D229" s="385" t="s">
+        <v>388</v>
+      </c>
+      <c r="E229" s="386"/>
+      <c r="F229" s="214"/>
+      <c r="G229" s="214"/>
+      <c r="H229" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I229" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J228" s="237">
+      <c r="J229" s="214">
         <v>255</v>
       </c>
-      <c r="K228" s="237"/>
-      <c r="L228" s="376"/>
-      <c r="M228" s="376"/>
-      <c r="N228" s="376"/>
-      <c r="O228" s="377"/>
-      <c r="P228" s="10"/>
-    </row>
-    <row r="229" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="9"/>
-      <c r="B229" s="29"/>
-      <c r="C229" s="30"/>
-      <c r="D229" s="381"/>
-      <c r="E229" s="382"/>
-      <c r="F229" s="215"/>
-      <c r="G229" s="215"/>
-      <c r="H229" s="215"/>
-      <c r="I229" s="31"/>
-      <c r="J229" s="215"/>
-      <c r="K229" s="215"/>
-      <c r="L229" s="383"/>
-      <c r="M229" s="383"/>
-      <c r="N229" s="383"/>
-      <c r="O229" s="384"/>
+      <c r="K229" s="214"/>
+      <c r="L229" s="376" t="s">
+        <v>389</v>
+      </c>
+      <c r="M229" s="376"/>
+      <c r="N229" s="376"/>
+      <c r="O229" s="377"/>
       <c r="P229" s="10"/>
     </row>
     <row r="230" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
-      <c r="B230" s="243"/>
-      <c r="C230" s="243"/>
-      <c r="D230" s="247"/>
-      <c r="E230" s="247"/>
-      <c r="F230" s="244"/>
-      <c r="G230" s="244"/>
-      <c r="H230" s="244"/>
-      <c r="I230" s="245"/>
-      <c r="J230" s="244"/>
-      <c r="K230" s="244"/>
-      <c r="L230" s="246"/>
-      <c r="M230" s="246"/>
-      <c r="N230" s="246"/>
-      <c r="O230" s="246"/>
+      <c r="B230" s="235">
+        <v>2</v>
+      </c>
+      <c r="C230" s="236" t="s">
+        <v>245</v>
+      </c>
+      <c r="D230" s="239" t="s">
+        <v>245</v>
+      </c>
+      <c r="E230" s="240"/>
+      <c r="F230" s="237"/>
+      <c r="G230" s="237"/>
+      <c r="H230" s="237"/>
+      <c r="I230" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J230" s="237">
+        <v>255</v>
+      </c>
+      <c r="K230" s="237"/>
+      <c r="L230" s="376"/>
+      <c r="M230" s="376"/>
+      <c r="N230" s="376"/>
+      <c r="O230" s="377"/>
       <c r="P230" s="10"/>
     </row>
-    <row r="231" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="9"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3"/>
-      <c r="N231" s="3"/>
-      <c r="O231" s="3"/>
+      <c r="B231" s="29"/>
+      <c r="C231" s="30"/>
+      <c r="D231" s="381"/>
+      <c r="E231" s="382"/>
+      <c r="F231" s="215"/>
+      <c r="G231" s="215"/>
+      <c r="H231" s="215"/>
+      <c r="I231" s="31"/>
+      <c r="J231" s="215"/>
+      <c r="K231" s="215"/>
+      <c r="L231" s="383"/>
+      <c r="M231" s="383"/>
+      <c r="N231" s="383"/>
+      <c r="O231" s="384"/>
       <c r="P231" s="10"/>
     </row>
-    <row r="232" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
-      <c r="B232" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C232" s="3"/>
-      <c r="D232" s="231" t="s">
-        <v>353</v>
-      </c>
-      <c r="E232" s="33"/>
-      <c r="F232" s="33"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="34"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
-      <c r="N232" s="3"/>
-      <c r="O232" s="44"/>
+      <c r="B232" s="243"/>
+      <c r="C232" s="243"/>
+      <c r="D232" s="247"/>
+      <c r="E232" s="247"/>
+      <c r="F232" s="244"/>
+      <c r="G232" s="244"/>
+      <c r="H232" s="244"/>
+      <c r="I232" s="245"/>
+      <c r="J232" s="244"/>
+      <c r="K232" s="244"/>
+      <c r="L232" s="246"/>
+      <c r="M232" s="246"/>
+      <c r="N232" s="246"/>
+      <c r="O232" s="246"/>
       <c r="P232" s="10"/>
     </row>
     <row r="233" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28087,178 +28149,178 @@
       <c r="O233" s="3"/>
       <c r="P233" s="10"/>
     </row>
-    <row r="234" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="9"/>
-      <c r="B234" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C234" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D234" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E234" s="392"/>
-      <c r="F234" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G234" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H234" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I234" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J234" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K234" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L234" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M234" s="393"/>
-      <c r="N234" s="393"/>
-      <c r="O234" s="394"/>
+      <c r="B234" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="231" t="s">
+        <v>353</v>
+      </c>
+      <c r="E234" s="33"/>
+      <c r="F234" s="33"/>
+      <c r="G234" s="33"/>
+      <c r="H234" s="34"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="44"/>
       <c r="P234" s="10"/>
     </row>
-    <row r="235" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
-      <c r="B235" s="26">
-        <v>1</v>
-      </c>
-      <c r="C235" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="D235" s="385" t="s">
-        <v>350</v>
-      </c>
-      <c r="E235" s="386"/>
-      <c r="F235" s="214"/>
-      <c r="G235" s="214"/>
-      <c r="H235" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I235" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J235" s="214">
-        <v>255</v>
-      </c>
-      <c r="K235" s="214"/>
-      <c r="L235" s="376" t="s">
-        <v>355</v>
-      </c>
-      <c r="M235" s="376"/>
-      <c r="N235" s="376"/>
-      <c r="O235" s="377"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
       <c r="P235" s="10"/>
     </row>
     <row r="236" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A236" s="9"/>
-      <c r="B236" s="235">
+      <c r="B236" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D236" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E236" s="392"/>
+      <c r="F236" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G236" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H236" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I236" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J236" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K236" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L236" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M236" s="393"/>
+      <c r="N236" s="393"/>
+      <c r="O236" s="394"/>
+      <c r="P236" s="10"/>
+    </row>
+    <row r="237" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A237" s="9"/>
+      <c r="B237" s="26">
+        <v>1</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="D237" s="385" t="s">
+        <v>350</v>
+      </c>
+      <c r="E237" s="386"/>
+      <c r="F237" s="214"/>
+      <c r="G237" s="214"/>
+      <c r="H237" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I237" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J237" s="214">
+        <v>255</v>
+      </c>
+      <c r="K237" s="214"/>
+      <c r="L237" s="376" t="s">
+        <v>355</v>
+      </c>
+      <c r="M237" s="376"/>
+      <c r="N237" s="376"/>
+      <c r="O237" s="377"/>
+      <c r="P237" s="10"/>
+    </row>
+    <row r="238" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A238" s="9"/>
+      <c r="B238" s="235">
         <v>2</v>
       </c>
-      <c r="C236" s="236" t="s">
+      <c r="C238" s="236" t="s">
         <v>245</v>
       </c>
-      <c r="D236" s="239" t="s">
+      <c r="D238" s="239" t="s">
         <v>245</v>
       </c>
-      <c r="E236" s="240"/>
-      <c r="F236" s="237"/>
-      <c r="G236" s="237"/>
-      <c r="H236" s="237"/>
-      <c r="I236" s="238" t="s">
+      <c r="E238" s="240"/>
+      <c r="F238" s="237"/>
+      <c r="G238" s="237"/>
+      <c r="H238" s="237"/>
+      <c r="I238" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J236" s="237">
+      <c r="J238" s="237">
         <v>255</v>
       </c>
-      <c r="K236" s="237"/>
-      <c r="L236" s="390"/>
-      <c r="M236" s="376"/>
-      <c r="N236" s="376"/>
-      <c r="O236" s="377"/>
-      <c r="P236" s="10"/>
-    </row>
-    <row r="237" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="9"/>
-      <c r="B237" s="29"/>
-      <c r="C237" s="30"/>
-      <c r="D237" s="381"/>
-      <c r="E237" s="382"/>
-      <c r="F237" s="215"/>
-      <c r="G237" s="215"/>
-      <c r="H237" s="215"/>
-      <c r="I237" s="31"/>
-      <c r="J237" s="215"/>
-      <c r="K237" s="215"/>
-      <c r="L237" s="383"/>
-      <c r="M237" s="383"/>
-      <c r="N237" s="383"/>
-      <c r="O237" s="384"/>
-      <c r="P237" s="10"/>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A238" s="9"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
-      <c r="O238" s="3"/>
+      <c r="K238" s="237"/>
+      <c r="L238" s="390"/>
+      <c r="M238" s="376"/>
+      <c r="N238" s="376"/>
+      <c r="O238" s="377"/>
       <c r="P238" s="10"/>
     </row>
-    <row r="239" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="9"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
-      <c r="L239" s="3"/>
-      <c r="M239" s="3"/>
-      <c r="N239" s="3"/>
-      <c r="O239" s="3"/>
+      <c r="B239" s="29"/>
+      <c r="C239" s="30"/>
+      <c r="D239" s="381"/>
+      <c r="E239" s="382"/>
+      <c r="F239" s="215"/>
+      <c r="G239" s="215"/>
+      <c r="H239" s="215"/>
+      <c r="I239" s="31"/>
+      <c r="J239" s="215"/>
+      <c r="K239" s="215"/>
+      <c r="L239" s="383"/>
+      <c r="M239" s="383"/>
+      <c r="N239" s="383"/>
+      <c r="O239" s="384"/>
       <c r="P239" s="10"/>
     </row>
-    <row r="240" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
-      <c r="B240" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B240" s="3"/>
       <c r="C240" s="3"/>
-      <c r="D240" s="231" t="s">
-        <v>356</v>
-      </c>
-      <c r="E240" s="33"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33"/>
-      <c r="H240" s="34"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3"/>
       <c r="N240" s="3"/>
-      <c r="O240" s="44"/>
+      <c r="O240" s="3"/>
       <c r="P240" s="10"/>
     </row>
     <row r="241" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28279,178 +28341,178 @@
       <c r="O241" s="3"/>
       <c r="P241" s="10"/>
     </row>
-    <row r="242" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="9"/>
-      <c r="B242" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C242" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D242" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E242" s="392"/>
-      <c r="F242" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G242" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H242" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I242" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J242" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K242" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L242" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M242" s="393"/>
-      <c r="N242" s="393"/>
-      <c r="O242" s="394"/>
+      <c r="B242" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="231" t="s">
+        <v>356</v>
+      </c>
+      <c r="E242" s="33"/>
+      <c r="F242" s="33"/>
+      <c r="G242" s="33"/>
+      <c r="H242" s="34"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
+      <c r="O242" s="44"/>
       <c r="P242" s="10"/>
     </row>
-    <row r="243" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
-      <c r="B243" s="234">
-        <v>1</v>
-      </c>
-      <c r="C243" s="233" t="s">
-        <v>357</v>
-      </c>
-      <c r="D243" s="395" t="s">
-        <v>226</v>
-      </c>
-      <c r="E243" s="396"/>
-      <c r="F243" s="214"/>
-      <c r="G243" s="214"/>
-      <c r="H243" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I243" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J243" s="214">
-        <v>255</v>
-      </c>
-      <c r="K243" s="214"/>
-      <c r="L243" s="390" t="s">
-        <v>415</v>
-      </c>
-      <c r="M243" s="376"/>
-      <c r="N243" s="376"/>
-      <c r="O243" s="377"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
       <c r="P243" s="10"/>
     </row>
     <row r="244" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
-      <c r="B244" s="235">
+      <c r="B244" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D244" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E244" s="392"/>
+      <c r="F244" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G244" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H244" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I244" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J244" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K244" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L244" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M244" s="393"/>
+      <c r="N244" s="393"/>
+      <c r="O244" s="394"/>
+      <c r="P244" s="10"/>
+    </row>
+    <row r="245" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="9"/>
+      <c r="B245" s="234">
+        <v>1</v>
+      </c>
+      <c r="C245" s="233" t="s">
+        <v>357</v>
+      </c>
+      <c r="D245" s="395" t="s">
+        <v>226</v>
+      </c>
+      <c r="E245" s="396"/>
+      <c r="F245" s="214"/>
+      <c r="G245" s="214"/>
+      <c r="H245" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I245" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J245" s="214">
+        <v>255</v>
+      </c>
+      <c r="K245" s="214"/>
+      <c r="L245" s="390" t="s">
+        <v>415</v>
+      </c>
+      <c r="M245" s="376"/>
+      <c r="N245" s="376"/>
+      <c r="O245" s="377"/>
+      <c r="P245" s="10"/>
+    </row>
+    <row r="246" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A246" s="9"/>
+      <c r="B246" s="235">
         <v>2</v>
       </c>
-      <c r="C244" s="236" t="s">
+      <c r="C246" s="236" t="s">
         <v>245</v>
       </c>
-      <c r="D244" s="239" t="s">
+      <c r="D246" s="239" t="s">
         <v>245</v>
       </c>
-      <c r="E244" s="240"/>
-      <c r="F244" s="237"/>
-      <c r="G244" s="237"/>
-      <c r="H244" s="237"/>
-      <c r="I244" s="238" t="s">
+      <c r="E246" s="240"/>
+      <c r="F246" s="237"/>
+      <c r="G246" s="237"/>
+      <c r="H246" s="237"/>
+      <c r="I246" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J244" s="237">
+      <c r="J246" s="237">
         <v>255</v>
       </c>
-      <c r="K244" s="237"/>
-      <c r="L244" s="390"/>
-      <c r="M244" s="376"/>
-      <c r="N244" s="376"/>
-      <c r="O244" s="377"/>
-      <c r="P244" s="10"/>
-    </row>
-    <row r="245" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="9"/>
-      <c r="B245" s="29"/>
-      <c r="C245" s="30"/>
-      <c r="D245" s="381"/>
-      <c r="E245" s="382"/>
-      <c r="F245" s="215"/>
-      <c r="G245" s="215"/>
-      <c r="H245" s="215"/>
-      <c r="I245" s="31"/>
-      <c r="J245" s="215"/>
-      <c r="K245" s="215"/>
-      <c r="L245" s="383"/>
-      <c r="M245" s="383"/>
-      <c r="N245" s="383"/>
-      <c r="O245" s="384"/>
-      <c r="P245" s="10"/>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A246" s="9"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
-      <c r="M246" s="3"/>
-      <c r="N246" s="3"/>
-      <c r="O246" s="3"/>
+      <c r="K246" s="237"/>
+      <c r="L246" s="390"/>
+      <c r="M246" s="376"/>
+      <c r="N246" s="376"/>
+      <c r="O246" s="377"/>
       <c r="P246" s="10"/>
     </row>
-    <row r="247" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="9"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
-      <c r="O247" s="3"/>
+      <c r="B247" s="29"/>
+      <c r="C247" s="30"/>
+      <c r="D247" s="381"/>
+      <c r="E247" s="382"/>
+      <c r="F247" s="215"/>
+      <c r="G247" s="215"/>
+      <c r="H247" s="215"/>
+      <c r="I247" s="31"/>
+      <c r="J247" s="215"/>
+      <c r="K247" s="215"/>
+      <c r="L247" s="383"/>
+      <c r="M247" s="383"/>
+      <c r="N247" s="383"/>
+      <c r="O247" s="384"/>
       <c r="P247" s="10"/>
     </row>
-    <row r="248" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
-      <c r="B248" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B248" s="3"/>
       <c r="C248" s="3"/>
-      <c r="D248" s="231" t="s">
-        <v>359</v>
-      </c>
-      <c r="E248" s="33"/>
-      <c r="F248" s="33"/>
-      <c r="G248" s="33"/>
-      <c r="H248" s="34"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
       <c r="M248" s="3"/>
       <c r="N248" s="3"/>
-      <c r="O248" s="44"/>
+      <c r="O248" s="3"/>
       <c r="P248" s="10"/>
     </row>
     <row r="249" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28471,180 +28533,178 @@
       <c r="O249" s="3"/>
       <c r="P249" s="10"/>
     </row>
-    <row r="250" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="9"/>
-      <c r="B250" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C250" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D250" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E250" s="392"/>
-      <c r="F250" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G250" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H250" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I250" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J250" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K250" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L250" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M250" s="393"/>
-      <c r="N250" s="393"/>
-      <c r="O250" s="394"/>
+      <c r="B250" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="231" t="s">
+        <v>359</v>
+      </c>
+      <c r="E250" s="33"/>
+      <c r="F250" s="33"/>
+      <c r="G250" s="33"/>
+      <c r="H250" s="34"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="44"/>
       <c r="P250" s="10"/>
     </row>
-    <row r="251" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
-      <c r="B251" s="234">
-        <v>1</v>
-      </c>
-      <c r="C251" s="233" t="s">
-        <v>357</v>
-      </c>
-      <c r="D251" s="395" t="s">
-        <v>360</v>
-      </c>
-      <c r="E251" s="396"/>
-      <c r="F251" s="214"/>
-      <c r="G251" s="214"/>
-      <c r="H251" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I251" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J251" s="214">
-        <v>255</v>
-      </c>
-      <c r="K251" s="214"/>
-      <c r="L251" s="390" t="s">
-        <v>361</v>
-      </c>
-      <c r="M251" s="376"/>
-      <c r="N251" s="376"/>
-      <c r="O251" s="377"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
       <c r="P251" s="10"/>
     </row>
     <row r="252" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A252" s="9"/>
-      <c r="B252" s="235">
+      <c r="B252" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D252" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E252" s="392"/>
+      <c r="F252" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G252" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H252" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I252" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J252" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K252" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L252" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M252" s="393"/>
+      <c r="N252" s="393"/>
+      <c r="O252" s="394"/>
+      <c r="P252" s="10"/>
+    </row>
+    <row r="253" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A253" s="9"/>
+      <c r="B253" s="234">
+        <v>1</v>
+      </c>
+      <c r="C253" s="233" t="s">
+        <v>357</v>
+      </c>
+      <c r="D253" s="395" t="s">
+        <v>360</v>
+      </c>
+      <c r="E253" s="396"/>
+      <c r="F253" s="214"/>
+      <c r="G253" s="214"/>
+      <c r="H253" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I253" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J253" s="214">
+        <v>255</v>
+      </c>
+      <c r="K253" s="214"/>
+      <c r="L253" s="390" t="s">
+        <v>361</v>
+      </c>
+      <c r="M253" s="376"/>
+      <c r="N253" s="376"/>
+      <c r="O253" s="377"/>
+      <c r="P253" s="10"/>
+    </row>
+    <row r="254" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A254" s="9"/>
+      <c r="B254" s="235">
         <v>2</v>
       </c>
-      <c r="C252" s="236" t="s">
+      <c r="C254" s="236" t="s">
         <v>245</v>
       </c>
-      <c r="D252" s="239" t="s">
+      <c r="D254" s="239" t="s">
         <v>245</v>
       </c>
-      <c r="E252" s="240"/>
-      <c r="F252" s="237"/>
-      <c r="G252" s="237"/>
-      <c r="H252" s="237"/>
-      <c r="I252" s="238" t="s">
+      <c r="E254" s="240"/>
+      <c r="F254" s="237"/>
+      <c r="G254" s="237"/>
+      <c r="H254" s="237"/>
+      <c r="I254" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="J252" s="237">
+      <c r="J254" s="237">
         <v>255</v>
       </c>
-      <c r="K252" s="237"/>
-      <c r="L252" s="390"/>
-      <c r="M252" s="376"/>
-      <c r="N252" s="376"/>
-      <c r="O252" s="377"/>
-      <c r="P252" s="10"/>
-    </row>
-    <row r="253" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="9"/>
-      <c r="B253" s="29"/>
-      <c r="C253" s="30"/>
-      <c r="D253" s="381"/>
-      <c r="E253" s="382"/>
-      <c r="F253" s="215"/>
-      <c r="G253" s="215"/>
-      <c r="H253" s="215"/>
-      <c r="I253" s="31"/>
-      <c r="J253" s="215"/>
-      <c r="K253" s="215"/>
-      <c r="L253" s="383"/>
-      <c r="M253" s="383"/>
-      <c r="N253" s="383"/>
-      <c r="O253" s="384"/>
-      <c r="P253" s="10"/>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A254" s="9"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
-      <c r="O254" s="3"/>
+      <c r="K254" s="237"/>
+      <c r="L254" s="390"/>
+      <c r="M254" s="376"/>
+      <c r="N254" s="376"/>
+      <c r="O254" s="377"/>
       <c r="P254" s="10"/>
     </row>
-    <row r="255" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="9"/>
-      <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
-      <c r="K255" s="3"/>
-      <c r="L255" s="3"/>
-      <c r="M255" s="3"/>
-      <c r="N255" s="3"/>
-      <c r="O255" s="3"/>
+      <c r="B255" s="29"/>
+      <c r="C255" s="30"/>
+      <c r="D255" s="381"/>
+      <c r="E255" s="382"/>
+      <c r="F255" s="215"/>
+      <c r="G255" s="215"/>
+      <c r="H255" s="215"/>
+      <c r="I255" s="31"/>
+      <c r="J255" s="215"/>
+      <c r="K255" s="215"/>
+      <c r="L255" s="383"/>
+      <c r="M255" s="383"/>
+      <c r="N255" s="383"/>
+      <c r="O255" s="384"/>
       <c r="P255" s="10"/>
     </row>
-    <row r="256" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
-      <c r="B256" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B256" s="3"/>
       <c r="C256" s="3"/>
-      <c r="D256" s="231" t="s">
-        <v>371</v>
-      </c>
-      <c r="E256" s="33"/>
-      <c r="F256" s="33"/>
-      <c r="G256" s="33"/>
-      <c r="H256" s="34"/>
-      <c r="I256" s="205" t="s">
-        <v>383</v>
-      </c>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
       <c r="M256" s="3"/>
       <c r="N256" s="3"/>
-      <c r="O256" s="44"/>
+      <c r="O256" s="3"/>
       <c r="P256" s="10"/>
     </row>
     <row r="257" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28665,212 +28725,212 @@
       <c r="O257" s="3"/>
       <c r="P257" s="10"/>
     </row>
-    <row r="258" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="9"/>
-      <c r="B258" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C258" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D258" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E258" s="392"/>
-      <c r="F258" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G258" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H258" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I258" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J258" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K258" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L258" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M258" s="393"/>
-      <c r="N258" s="393"/>
-      <c r="O258" s="394"/>
+      <c r="B258" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C258" s="3"/>
+      <c r="D258" s="231" t="s">
+        <v>371</v>
+      </c>
+      <c r="E258" s="33"/>
+      <c r="F258" s="33"/>
+      <c r="G258" s="33"/>
+      <c r="H258" s="34"/>
+      <c r="I258" s="205" t="s">
+        <v>383</v>
+      </c>
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="44"/>
       <c r="P258" s="10"/>
     </row>
-    <row r="259" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
-      <c r="B259" s="26">
-        <v>1</v>
-      </c>
-      <c r="C259" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="D259" s="385" t="s">
-        <v>265</v>
-      </c>
-      <c r="E259" s="386"/>
-      <c r="F259" s="214"/>
-      <c r="G259" s="214"/>
-      <c r="H259" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I259" s="238" t="s">
-        <v>203</v>
-      </c>
-      <c r="J259" s="214">
-        <v>255</v>
-      </c>
-      <c r="K259" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="L259" s="376" t="s">
-        <v>266</v>
-      </c>
-      <c r="M259" s="376"/>
-      <c r="N259" s="376"/>
-      <c r="O259" s="377"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
       <c r="P259" s="10"/>
     </row>
     <row r="260" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
-      <c r="B260" s="26">
-        <v>2</v>
-      </c>
-      <c r="C260" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="D260" s="385" t="s">
-        <v>376</v>
-      </c>
-      <c r="E260" s="386"/>
-      <c r="F260" s="214"/>
-      <c r="G260" s="214"/>
-      <c r="H260" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I260" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J260" s="214">
-        <v>255</v>
-      </c>
-      <c r="K260" s="214"/>
-      <c r="L260" s="376"/>
-      <c r="M260" s="376"/>
-      <c r="N260" s="376"/>
-      <c r="O260" s="377"/>
+      <c r="B260" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D260" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E260" s="392"/>
+      <c r="F260" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G260" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H260" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I260" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J260" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K260" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L260" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M260" s="393"/>
+      <c r="N260" s="393"/>
+      <c r="O260" s="394"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A261" s="9"/>
       <c r="B261" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C261" s="27" t="s">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="D261" s="385" t="s">
-        <v>377</v>
+        <v>265</v>
       </c>
       <c r="E261" s="386"/>
       <c r="F261" s="214"/>
       <c r="G261" s="214"/>
-      <c r="H261" s="214"/>
+      <c r="H261" s="214" t="s">
+        <v>191</v>
+      </c>
       <c r="I261" s="238" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="J261" s="214">
         <v>255</v>
       </c>
-      <c r="K261" s="214"/>
-      <c r="L261" s="376"/>
+      <c r="K261" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="L261" s="376" t="s">
+        <v>266</v>
+      </c>
       <c r="M261" s="376"/>
       <c r="N261" s="376"/>
       <c r="O261" s="377"/>
       <c r="P261" s="10"/>
     </row>
-    <row r="262" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A262" s="9"/>
-      <c r="B262" s="29"/>
-      <c r="C262" s="30"/>
-      <c r="D262" s="381"/>
-      <c r="E262" s="382"/>
-      <c r="F262" s="215"/>
-      <c r="G262" s="215"/>
-      <c r="H262" s="215"/>
-      <c r="I262" s="31"/>
-      <c r="J262" s="215"/>
-      <c r="K262" s="215"/>
-      <c r="L262" s="383"/>
-      <c r="M262" s="383"/>
-      <c r="N262" s="383"/>
-      <c r="O262" s="384"/>
+      <c r="B262" s="26">
+        <v>2</v>
+      </c>
+      <c r="C262" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="D262" s="385" t="s">
+        <v>376</v>
+      </c>
+      <c r="E262" s="386"/>
+      <c r="F262" s="214"/>
+      <c r="G262" s="214"/>
+      <c r="H262" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I262" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J262" s="214">
+        <v>255</v>
+      </c>
+      <c r="K262" s="214"/>
+      <c r="L262" s="376"/>
+      <c r="M262" s="376"/>
+      <c r="N262" s="376"/>
+      <c r="O262" s="377"/>
       <c r="P262" s="10"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A263" s="9"/>
-      <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
-      <c r="F263" s="3"/>
-      <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
-      <c r="I263" s="3"/>
-      <c r="J263" s="3"/>
-      <c r="K263" s="3"/>
-      <c r="L263" s="3"/>
-      <c r="M263" s="3"/>
-      <c r="N263" s="3"/>
-      <c r="O263" s="3"/>
+      <c r="B263" s="26">
+        <v>3</v>
+      </c>
+      <c r="C263" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="D263" s="385" t="s">
+        <v>377</v>
+      </c>
+      <c r="E263" s="386"/>
+      <c r="F263" s="214"/>
+      <c r="G263" s="214"/>
+      <c r="H263" s="214"/>
+      <c r="I263" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J263" s="214">
+        <v>255</v>
+      </c>
+      <c r="K263" s="214"/>
+      <c r="L263" s="376"/>
+      <c r="M263" s="376"/>
+      <c r="N263" s="376"/>
+      <c r="O263" s="377"/>
       <c r="P263" s="10"/>
     </row>
-    <row r="264" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="9"/>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
-      <c r="I264" s="3"/>
-      <c r="J264" s="3"/>
-      <c r="K264" s="3"/>
-      <c r="L264" s="3"/>
-      <c r="M264" s="3"/>
-      <c r="N264" s="3"/>
-      <c r="O264" s="3"/>
+      <c r="B264" s="29"/>
+      <c r="C264" s="30"/>
+      <c r="D264" s="381"/>
+      <c r="E264" s="382"/>
+      <c r="F264" s="215"/>
+      <c r="G264" s="215"/>
+      <c r="H264" s="215"/>
+      <c r="I264" s="31"/>
+      <c r="J264" s="215"/>
+      <c r="K264" s="215"/>
+      <c r="L264" s="383"/>
+      <c r="M264" s="383"/>
+      <c r="N264" s="383"/>
+      <c r="O264" s="384"/>
       <c r="P264" s="10"/>
     </row>
-    <row r="265" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
-      <c r="B265" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B265" s="3"/>
       <c r="C265" s="3"/>
-      <c r="D265" s="231" t="s">
-        <v>372</v>
-      </c>
-      <c r="E265" s="33"/>
-      <c r="F265" s="33"/>
-      <c r="G265" s="33"/>
-      <c r="H265" s="34"/>
-      <c r="I265" s="205" t="s">
-        <v>383</v>
-      </c>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
       <c r="M265" s="3"/>
       <c r="N265" s="3"/>
-      <c r="O265" s="44"/>
+      <c r="O265" s="3"/>
       <c r="P265" s="10"/>
     </row>
     <row r="266" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28891,438 +28951,442 @@
       <c r="O266" s="3"/>
       <c r="P266" s="10"/>
     </row>
-    <row r="267" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="9"/>
-      <c r="B267" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C267" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D267" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E267" s="392"/>
-      <c r="F267" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G267" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H267" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I267" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J267" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K267" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L267" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M267" s="393"/>
-      <c r="N267" s="393"/>
-      <c r="O267" s="394"/>
+      <c r="B267" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C267" s="3"/>
+      <c r="D267" s="231" t="s">
+        <v>372</v>
+      </c>
+      <c r="E267" s="33"/>
+      <c r="F267" s="33"/>
+      <c r="G267" s="33"/>
+      <c r="H267" s="34"/>
+      <c r="I267" s="205" t="s">
+        <v>383</v>
+      </c>
+      <c r="J267" s="3"/>
+      <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3"/>
+      <c r="N267" s="3"/>
+      <c r="O267" s="44"/>
       <c r="P267" s="10"/>
     </row>
-    <row r="268" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
-      <c r="B268" s="26">
-        <v>1</v>
-      </c>
-      <c r="C268" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="D268" s="385" t="s">
-        <v>379</v>
-      </c>
-      <c r="E268" s="386"/>
-      <c r="F268" s="214"/>
-      <c r="G268" s="214"/>
-      <c r="H268" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I268" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J268" s="214">
-        <v>255</v>
-      </c>
-      <c r="K268" s="214"/>
-      <c r="L268" s="376"/>
-      <c r="M268" s="376"/>
-      <c r="N268" s="376"/>
-      <c r="O268" s="377"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
+      <c r="M268" s="3"/>
+      <c r="N268" s="3"/>
+      <c r="O268" s="3"/>
       <c r="P268" s="10"/>
     </row>
     <row r="269" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
-      <c r="B269" s="26">
-        <v>2</v>
-      </c>
-      <c r="C269" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="D269" s="385" t="s">
-        <v>380</v>
-      </c>
-      <c r="E269" s="386"/>
-      <c r="F269" s="214"/>
-      <c r="G269" s="214"/>
-      <c r="H269" s="214"/>
-      <c r="I269" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J269" s="214">
-        <v>255</v>
-      </c>
-      <c r="K269" s="214"/>
-      <c r="L269" s="376"/>
-      <c r="M269" s="376"/>
-      <c r="N269" s="376"/>
-      <c r="O269" s="377"/>
+      <c r="B269" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D269" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E269" s="392"/>
+      <c r="F269" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G269" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H269" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I269" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J269" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K269" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L269" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M269" s="393"/>
+      <c r="N269" s="393"/>
+      <c r="O269" s="394"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
       <c r="B270" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C270" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D270" s="249" t="s">
-        <v>413</v>
-      </c>
-      <c r="E270" s="250"/>
+        <v>378</v>
+      </c>
+      <c r="D270" s="385" t="s">
+        <v>379</v>
+      </c>
+      <c r="E270" s="386"/>
       <c r="F270" s="214"/>
       <c r="G270" s="214"/>
-      <c r="H270" s="214"/>
+      <c r="H270" s="214" t="s">
+        <v>191</v>
+      </c>
       <c r="I270" s="238" t="s">
-        <v>188</v>
-      </c>
-      <c r="J270" s="214"/>
+        <v>190</v>
+      </c>
+      <c r="J270" s="214">
+        <v>255</v>
+      </c>
       <c r="K270" s="214"/>
-      <c r="L270" s="376" t="s">
-        <v>414</v>
-      </c>
+      <c r="L270" s="376"/>
       <c r="M270" s="376"/>
       <c r="N270" s="376"/>
       <c r="O270" s="377"/>
       <c r="P270" s="10"/>
     </row>
-    <row r="271" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
-      <c r="B271" s="29"/>
-      <c r="C271" s="30"/>
-      <c r="D271" s="381"/>
-      <c r="E271" s="382"/>
-      <c r="F271" s="215"/>
-      <c r="G271" s="215"/>
-      <c r="H271" s="215"/>
-      <c r="I271" s="31"/>
-      <c r="J271" s="215"/>
-      <c r="K271" s="215"/>
-      <c r="L271" s="383"/>
-      <c r="M271" s="383"/>
-      <c r="N271" s="383"/>
-      <c r="O271" s="384"/>
+      <c r="B271" s="26">
+        <v>2</v>
+      </c>
+      <c r="C271" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="D271" s="385" t="s">
+        <v>380</v>
+      </c>
+      <c r="E271" s="386"/>
+      <c r="F271" s="214"/>
+      <c r="G271" s="214"/>
+      <c r="H271" s="214"/>
+      <c r="I271" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J271" s="214">
+        <v>255</v>
+      </c>
+      <c r="K271" s="214"/>
+      <c r="L271" s="376"/>
+      <c r="M271" s="376"/>
+      <c r="N271" s="376"/>
+      <c r="O271" s="377"/>
       <c r="P271" s="10"/>
     </row>
-    <row r="272" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="11"/>
-      <c r="B272" s="12"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="12"/>
-      <c r="E272" s="12"/>
-      <c r="F272" s="12"/>
-      <c r="G272" s="12"/>
-      <c r="H272" s="12"/>
-      <c r="I272" s="12"/>
-      <c r="J272" s="12"/>
-      <c r="K272" s="12"/>
-      <c r="L272" s="12"/>
-      <c r="M272" s="12"/>
-      <c r="N272" s="12"/>
-      <c r="O272" s="12"/>
-      <c r="P272" s="13"/>
-    </row>
-    <row r="273" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="6"/>
-      <c r="B273" s="7"/>
-      <c r="C273" s="7"/>
-      <c r="D273" s="7"/>
-      <c r="E273" s="7"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="7"/>
-      <c r="H273" s="7"/>
-      <c r="I273" s="7"/>
-      <c r="J273" s="7"/>
-      <c r="K273" s="7"/>
-      <c r="L273" s="7"/>
-      <c r="M273" s="7"/>
-      <c r="N273" s="7"/>
-      <c r="O273" s="7"/>
-      <c r="P273" s="8"/>
-    </row>
-    <row r="274" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="9"/>
-      <c r="B274" s="32" t="s">
+    <row r="272" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A272" s="9"/>
+      <c r="B272" s="26">
+        <v>3</v>
+      </c>
+      <c r="C272" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D272" s="249" t="s">
+        <v>413</v>
+      </c>
+      <c r="E272" s="250"/>
+      <c r="F272" s="214"/>
+      <c r="G272" s="214"/>
+      <c r="H272" s="214"/>
+      <c r="I272" s="238" t="s">
+        <v>188</v>
+      </c>
+      <c r="J272" s="214"/>
+      <c r="K272" s="214"/>
+      <c r="L272" s="376" t="s">
+        <v>414</v>
+      </c>
+      <c r="M272" s="376"/>
+      <c r="N272" s="376"/>
+      <c r="O272" s="377"/>
+      <c r="P272" s="10"/>
+    </row>
+    <row r="273" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="9"/>
+      <c r="B273" s="29"/>
+      <c r="C273" s="30"/>
+      <c r="D273" s="381"/>
+      <c r="E273" s="382"/>
+      <c r="F273" s="215"/>
+      <c r="G273" s="215"/>
+      <c r="H273" s="215"/>
+      <c r="I273" s="31"/>
+      <c r="J273" s="215"/>
+      <c r="K273" s="215"/>
+      <c r="L273" s="383"/>
+      <c r="M273" s="383"/>
+      <c r="N273" s="383"/>
+      <c r="O273" s="384"/>
+      <c r="P273" s="10"/>
+    </row>
+    <row r="274" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="11"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
+      <c r="F274" s="12"/>
+      <c r="G274" s="12"/>
+      <c r="H274" s="12"/>
+      <c r="I274" s="12"/>
+      <c r="J274" s="12"/>
+      <c r="K274" s="12"/>
+      <c r="L274" s="12"/>
+      <c r="M274" s="12"/>
+      <c r="N274" s="12"/>
+      <c r="O274" s="12"/>
+      <c r="P274" s="13"/>
+    </row>
+    <row r="275" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="6"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="7"/>
+      <c r="H275" s="7"/>
+      <c r="I275" s="7"/>
+      <c r="J275" s="7"/>
+      <c r="K275" s="7"/>
+      <c r="L275" s="7"/>
+      <c r="M275" s="7"/>
+      <c r="N275" s="7"/>
+      <c r="O275" s="7"/>
+      <c r="P275" s="8"/>
+    </row>
+    <row r="276" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="9"/>
+      <c r="B276" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C274" s="3"/>
-      <c r="D274" s="231" t="s">
+      <c r="C276" s="3"/>
+      <c r="D276" s="231" t="s">
         <v>373</v>
       </c>
-      <c r="E274" s="33"/>
-      <c r="F274" s="33"/>
-      <c r="G274" s="33"/>
-      <c r="H274" s="34"/>
-      <c r="I274" s="205" t="s">
+      <c r="E276" s="33"/>
+      <c r="F276" s="33"/>
+      <c r="G276" s="33"/>
+      <c r="H276" s="34"/>
+      <c r="I276" s="205" t="s">
         <v>383</v>
       </c>
-      <c r="J274" s="3"/>
-      <c r="K274" s="3"/>
-      <c r="L274" s="3"/>
-      <c r="M274" s="3"/>
-      <c r="N274" s="3"/>
-      <c r="O274" s="44"/>
-      <c r="P274" s="10"/>
-    </row>
-    <row r="275" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="9"/>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
-      <c r="I275" s="3"/>
-      <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
-      <c r="L275" s="3"/>
-      <c r="M275" s="3"/>
-      <c r="N275" s="3"/>
-      <c r="O275" s="3"/>
-      <c r="P275" s="10"/>
-    </row>
-    <row r="276" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A276" s="9"/>
-      <c r="B276" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C276" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D276" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E276" s="392"/>
-      <c r="F276" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G276" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H276" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I276" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J276" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K276" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L276" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M276" s="393"/>
-      <c r="N276" s="393"/>
-      <c r="O276" s="394"/>
+      <c r="J276" s="3"/>
+      <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
+      <c r="M276" s="3"/>
+      <c r="N276" s="3"/>
+      <c r="O276" s="44"/>
       <c r="P276" s="10"/>
     </row>
-    <row r="277" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
-      <c r="B277" s="26">
-        <v>1</v>
-      </c>
-      <c r="C277" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="D277" s="385" t="s">
-        <v>384</v>
-      </c>
-      <c r="E277" s="386"/>
-      <c r="F277" s="214"/>
-      <c r="G277" s="214"/>
-      <c r="H277" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I277" s="238" t="s">
-        <v>188</v>
-      </c>
-      <c r="J277" s="214"/>
-      <c r="K277" s="214"/>
-      <c r="L277" s="376" t="s">
-        <v>385</v>
-      </c>
-      <c r="M277" s="376"/>
-      <c r="N277" s="376"/>
-      <c r="O277" s="377"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
+      <c r="N277" s="3"/>
+      <c r="O277" s="3"/>
       <c r="P277" s="10"/>
     </row>
     <row r="278" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
-      <c r="B278" s="26">
-        <v>2</v>
-      </c>
-      <c r="C278" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="D278" s="385" t="s">
-        <v>386</v>
-      </c>
-      <c r="E278" s="386"/>
-      <c r="F278" s="214"/>
-      <c r="G278" s="214"/>
-      <c r="H278" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I278" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J278" s="214">
-        <v>255</v>
-      </c>
-      <c r="K278" s="214"/>
-      <c r="L278" s="376"/>
-      <c r="M278" s="376"/>
-      <c r="N278" s="376"/>
-      <c r="O278" s="377"/>
+      <c r="B278" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D278" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E278" s="392"/>
+      <c r="F278" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G278" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H278" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I278" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J278" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K278" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L278" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M278" s="393"/>
+      <c r="N278" s="393"/>
+      <c r="O278" s="394"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C279" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="D279" s="442" t="s">
-        <v>377</v>
-      </c>
-      <c r="E279" s="443"/>
+        <v>381</v>
+      </c>
+      <c r="D279" s="385" t="s">
+        <v>384</v>
+      </c>
+      <c r="E279" s="386"/>
       <c r="F279" s="214"/>
       <c r="G279" s="214"/>
-      <c r="H279" s="214"/>
+      <c r="H279" s="214" t="s">
+        <v>191</v>
+      </c>
       <c r="I279" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="J279" s="214">
-        <v>255</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J279" s="214"/>
       <c r="K279" s="214"/>
-      <c r="L279" s="376"/>
+      <c r="L279" s="376" t="s">
+        <v>385</v>
+      </c>
       <c r="M279" s="376"/>
       <c r="N279" s="376"/>
       <c r="O279" s="377"/>
       <c r="P279" s="10"/>
     </row>
-    <row r="280" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
-      <c r="B280" s="29">
+      <c r="B280" s="26">
+        <v>2</v>
+      </c>
+      <c r="C280" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="D280" s="385" t="s">
+        <v>386</v>
+      </c>
+      <c r="E280" s="386"/>
+      <c r="F280" s="214"/>
+      <c r="G280" s="214"/>
+      <c r="H280" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I280" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J280" s="214">
+        <v>255</v>
+      </c>
+      <c r="K280" s="214"/>
+      <c r="L280" s="376"/>
+      <c r="M280" s="376"/>
+      <c r="N280" s="376"/>
+      <c r="O280" s="377"/>
+      <c r="P280" s="10"/>
+    </row>
+    <row r="281" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A281" s="9"/>
+      <c r="B281" s="26">
+        <v>3</v>
+      </c>
+      <c r="C281" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="D281" s="442" t="s">
+        <v>377</v>
+      </c>
+      <c r="E281" s="443"/>
+      <c r="F281" s="214"/>
+      <c r="G281" s="214"/>
+      <c r="H281" s="214"/>
+      <c r="I281" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="J281" s="214">
+        <v>255</v>
+      </c>
+      <c r="K281" s="214"/>
+      <c r="L281" s="376"/>
+      <c r="M281" s="376"/>
+      <c r="N281" s="376"/>
+      <c r="O281" s="377"/>
+      <c r="P281" s="10"/>
+    </row>
+    <row r="282" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="9"/>
+      <c r="B282" s="29">
         <v>4</v>
       </c>
-      <c r="C280" s="30" t="s">
+      <c r="C282" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D280" s="413" t="s">
+      <c r="D282" s="413" t="s">
         <v>413</v>
       </c>
-      <c r="E280" s="414"/>
-      <c r="F280" s="215"/>
-      <c r="G280" s="215"/>
-      <c r="H280" s="215" t="s">
+      <c r="E282" s="414"/>
+      <c r="F282" s="215"/>
+      <c r="G282" s="215"/>
+      <c r="H282" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="I280" s="31" t="s">
+      <c r="I282" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="J280" s="215"/>
-      <c r="K280" s="215"/>
-      <c r="L280" s="383" t="s">
+      <c r="J282" s="215"/>
+      <c r="K282" s="215" t="s">
+        <v>191</v>
+      </c>
+      <c r="L282" s="383" t="s">
         <v>414</v>
       </c>
-      <c r="M280" s="383"/>
-      <c r="N280" s="383"/>
-      <c r="O280" s="384"/>
-      <c r="P280" s="10"/>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A281" s="9"/>
-      <c r="B281" s="3"/>
-      <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="3"/>
-      <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
-      <c r="I281" s="3"/>
-      <c r="J281" s="3"/>
-      <c r="K281" s="3"/>
-      <c r="L281" s="3"/>
-      <c r="M281" s="3"/>
-      <c r="N281" s="3"/>
-      <c r="O281" s="3"/>
-      <c r="P281" s="10"/>
-    </row>
-    <row r="282" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="9"/>
-      <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
-      <c r="I282" s="3"/>
-      <c r="J282" s="3"/>
-      <c r="K282" s="3"/>
-      <c r="L282" s="3"/>
-      <c r="M282" s="3"/>
-      <c r="N282" s="3"/>
-      <c r="O282" s="3"/>
+      <c r="M282" s="383"/>
+      <c r="N282" s="383"/>
+      <c r="O282" s="384"/>
       <c r="P282" s="10"/>
     </row>
-    <row r="283" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="9"/>
-      <c r="B283" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="B283" s="3"/>
       <c r="C283" s="3"/>
-      <c r="D283" s="231" t="s">
-        <v>390</v>
-      </c>
-      <c r="E283" s="33"/>
-      <c r="F283" s="33"/>
-      <c r="G283" s="33"/>
-      <c r="H283" s="34"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
       <c r="M283" s="3"/>
       <c r="N283" s="3"/>
-      <c r="O283" s="44"/>
+      <c r="O283" s="3"/>
       <c r="P283" s="10"/>
     </row>
     <row r="284" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -29343,118 +29407,96 @@
       <c r="O284" s="3"/>
       <c r="P284" s="10"/>
     </row>
-    <row r="285" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="9"/>
-      <c r="B285" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C285" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D285" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E285" s="392"/>
-      <c r="F285" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G285" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H285" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I285" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J285" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K285" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L285" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M285" s="393"/>
-      <c r="N285" s="393"/>
-      <c r="O285" s="394"/>
+      <c r="B285" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C285" s="3"/>
+      <c r="D285" s="231" t="s">
+        <v>390</v>
+      </c>
+      <c r="E285" s="33"/>
+      <c r="F285" s="33"/>
+      <c r="G285" s="33"/>
+      <c r="H285" s="34"/>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+      <c r="L285" s="3"/>
+      <c r="M285" s="3"/>
+      <c r="N285" s="3"/>
+      <c r="O285" s="44"/>
       <c r="P285" s="10"/>
     </row>
-    <row r="286" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
-      <c r="B286" s="26">
-        <v>1</v>
-      </c>
-      <c r="C286" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="D286" s="385" t="s">
-        <v>401</v>
-      </c>
-      <c r="E286" s="386"/>
-      <c r="F286" s="214"/>
-      <c r="G286" s="214"/>
-      <c r="H286" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I286" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J286" s="214">
-        <v>255</v>
-      </c>
-      <c r="K286" s="214"/>
-      <c r="L286" s="376"/>
-      <c r="M286" s="376"/>
-      <c r="N286" s="376"/>
-      <c r="O286" s="377"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+      <c r="M286" s="3"/>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
       <c r="P286" s="10"/>
     </row>
     <row r="287" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
-      <c r="B287" s="26">
-        <v>2</v>
-      </c>
-      <c r="C287" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="D287" s="385" t="s">
-        <v>394</v>
-      </c>
-      <c r="E287" s="386"/>
-      <c r="F287" s="214"/>
-      <c r="G287" s="214"/>
-      <c r="H287" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I287" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J287" s="214">
-        <v>255</v>
-      </c>
-      <c r="K287" s="214"/>
-      <c r="L287" s="376" t="s">
-        <v>393</v>
-      </c>
-      <c r="M287" s="376"/>
-      <c r="N287" s="376"/>
-      <c r="O287" s="377"/>
+      <c r="B287" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D287" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E287" s="392"/>
+      <c r="F287" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G287" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H287" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I287" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J287" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K287" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L287" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M287" s="393"/>
+      <c r="N287" s="393"/>
+      <c r="O287" s="394"/>
       <c r="P287" s="10"/>
     </row>
-    <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
-      <c r="B288" s="234">
-        <v>3</v>
-      </c>
-      <c r="C288" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="D288" s="395" t="s">
-        <v>400</v>
-      </c>
-      <c r="E288" s="396"/>
+      <c r="B288" s="26">
+        <v>1</v>
+      </c>
+      <c r="C288" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="D288" s="385" t="s">
+        <v>401</v>
+      </c>
+      <c r="E288" s="386"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214" t="s">
@@ -29467,7 +29509,7 @@
         <v>255</v>
       </c>
       <c r="K288" s="214"/>
-      <c r="L288" s="390"/>
+      <c r="L288" s="376"/>
       <c r="M288" s="376"/>
       <c r="N288" s="376"/>
       <c r="O288" s="377"/>
@@ -29476,13 +29518,13 @@
     <row r="289" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
       <c r="B289" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C289" s="27" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D289" s="385" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E289" s="386"/>
       <c r="F289" s="214"/>
@@ -29491,278 +29533,284 @@
         <v>191</v>
       </c>
       <c r="I289" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J289" s="214"/>
+        <v>190</v>
+      </c>
+      <c r="J289" s="214">
+        <v>255</v>
+      </c>
       <c r="K289" s="214"/>
       <c r="L289" s="376" t="s">
-        <v>252</v>
+        <v>393</v>
       </c>
       <c r="M289" s="376"/>
       <c r="N289" s="376"/>
       <c r="O289" s="377"/>
       <c r="P289" s="10"/>
     </row>
-    <row r="290" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
-      <c r="B290" s="26">
-        <v>5</v>
-      </c>
-      <c r="C290" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="D290" s="385" t="s">
-        <v>398</v>
-      </c>
-      <c r="E290" s="386"/>
+      <c r="B290" s="234">
+        <v>3</v>
+      </c>
+      <c r="C290" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D290" s="395" t="s">
+        <v>400</v>
+      </c>
+      <c r="E290" s="396"/>
       <c r="F290" s="214"/>
       <c r="G290" s="214"/>
-      <c r="H290" s="214"/>
+      <c r="H290" s="214" t="s">
+        <v>191</v>
+      </c>
       <c r="I290" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="J290" s="214"/>
-      <c r="K290" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="L290" s="376" t="s">
-        <v>268</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="J290" s="214">
+        <v>255</v>
+      </c>
+      <c r="K290" s="214"/>
+      <c r="L290" s="390"/>
       <c r="M290" s="376"/>
       <c r="N290" s="376"/>
       <c r="O290" s="377"/>
       <c r="P290" s="10"/>
     </row>
-    <row r="291" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
-      <c r="B291" s="29"/>
-      <c r="C291" s="30"/>
-      <c r="D291" s="381"/>
-      <c r="E291" s="382"/>
-      <c r="F291" s="215"/>
-      <c r="G291" s="215"/>
-      <c r="H291" s="215"/>
-      <c r="I291" s="31"/>
-      <c r="J291" s="215"/>
-      <c r="K291" s="215"/>
-      <c r="L291" s="383"/>
-      <c r="M291" s="383"/>
-      <c r="N291" s="383"/>
-      <c r="O291" s="384"/>
+      <c r="B291" s="26">
+        <v>4</v>
+      </c>
+      <c r="C291" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="D291" s="385" t="s">
+        <v>399</v>
+      </c>
+      <c r="E291" s="386"/>
+      <c r="F291" s="214"/>
+      <c r="G291" s="214"/>
+      <c r="H291" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I291" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J291" s="214"/>
+      <c r="K291" s="214"/>
+      <c r="L291" s="376" t="s">
+        <v>252</v>
+      </c>
+      <c r="M291" s="376"/>
+      <c r="N291" s="376"/>
+      <c r="O291" s="377"/>
       <c r="P291" s="10"/>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A292" s="9"/>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
-      <c r="F292" s="3"/>
-      <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
-      <c r="I292" s="3"/>
-      <c r="J292" s="3"/>
-      <c r="K292" s="3"/>
-      <c r="L292" s="3"/>
-      <c r="M292" s="3"/>
-      <c r="N292" s="3"/>
-      <c r="O292" s="3"/>
+      <c r="B292" s="26">
+        <v>5</v>
+      </c>
+      <c r="C292" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="D292" s="385" t="s">
+        <v>398</v>
+      </c>
+      <c r="E292" s="386"/>
+      <c r="F292" s="214"/>
+      <c r="G292" s="214"/>
+      <c r="H292" s="214"/>
+      <c r="I292" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J292" s="214"/>
+      <c r="K292" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="L292" s="376" t="s">
+        <v>268</v>
+      </c>
+      <c r="M292" s="376"/>
+      <c r="N292" s="376"/>
+      <c r="O292" s="377"/>
       <c r="P292" s="10"/>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="9"/>
-      <c r="B293" s="3"/>
-      <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
-      <c r="F293" s="3"/>
-      <c r="G293" s="3"/>
-      <c r="H293" s="3"/>
-      <c r="I293" s="3"/>
-      <c r="J293" s="3"/>
-      <c r="K293" s="3"/>
-      <c r="L293" s="3"/>
-      <c r="M293" s="3"/>
-      <c r="N293" s="3"/>
-      <c r="O293" s="3"/>
+      <c r="B293" s="29"/>
+      <c r="C293" s="30"/>
+      <c r="D293" s="381"/>
+      <c r="E293" s="382"/>
+      <c r="F293" s="215"/>
+      <c r="G293" s="215"/>
+      <c r="H293" s="215"/>
+      <c r="I293" s="31"/>
+      <c r="J293" s="215"/>
+      <c r="K293" s="215"/>
+      <c r="L293" s="383"/>
+      <c r="M293" s="383"/>
+      <c r="N293" s="383"/>
+      <c r="O293" s="384"/>
       <c r="P293" s="10"/>
     </row>
-    <row r="294" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="11"/>
-      <c r="B294" s="12"/>
-      <c r="C294" s="12"/>
-      <c r="D294" s="12"/>
-      <c r="E294" s="12"/>
-      <c r="F294" s="12"/>
-      <c r="G294" s="12"/>
-      <c r="H294" s="12"/>
-      <c r="I294" s="12"/>
-      <c r="J294" s="12"/>
-      <c r="K294" s="12"/>
-      <c r="L294" s="12"/>
-      <c r="M294" s="12"/>
-      <c r="N294" s="12"/>
-      <c r="O294" s="12"/>
-      <c r="P294" s="13"/>
-    </row>
-    <row r="295" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="296" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="9"/>
-      <c r="B296" s="32" t="s">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A294" s="9"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3"/>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="3"/>
+      <c r="P294" s="10"/>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A295" s="9"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="10"/>
+    </row>
+    <row r="296" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="11"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
+      <c r="F296" s="12"/>
+      <c r="G296" s="12"/>
+      <c r="H296" s="12"/>
+      <c r="I296" s="12"/>
+      <c r="J296" s="12"/>
+      <c r="K296" s="12"/>
+      <c r="L296" s="12"/>
+      <c r="M296" s="12"/>
+      <c r="N296" s="12"/>
+      <c r="O296" s="12"/>
+      <c r="P296" s="13"/>
+    </row>
+    <row r="297" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="9"/>
+      <c r="B298" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C296" s="3"/>
-      <c r="D296" s="231" t="s">
+      <c r="C298" s="3"/>
+      <c r="D298" s="231" t="s">
         <v>416</v>
       </c>
-      <c r="E296" s="33"/>
-      <c r="F296" s="33"/>
-      <c r="G296" s="33"/>
-      <c r="H296" s="34"/>
-      <c r="I296" s="3"/>
-      <c r="J296" s="3"/>
-      <c r="K296" s="3"/>
-      <c r="L296" s="3"/>
-      <c r="M296" s="3"/>
-      <c r="N296" s="3"/>
-      <c r="O296" s="44"/>
-      <c r="P296" s="10"/>
-    </row>
-    <row r="297" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="9"/>
-      <c r="B297" s="3"/>
-      <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
-      <c r="F297" s="3"/>
-      <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
-      <c r="I297" s="3"/>
-      <c r="J297" s="3"/>
-      <c r="K297" s="3"/>
-      <c r="L297" s="3"/>
-      <c r="M297" s="3"/>
-      <c r="N297" s="3"/>
-      <c r="O297" s="3"/>
-      <c r="P297" s="10"/>
-    </row>
-    <row r="298" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A298" s="9"/>
-      <c r="B298" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C298" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D298" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E298" s="392"/>
-      <c r="F298" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G298" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H298" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I298" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J298" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K298" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L298" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M298" s="393"/>
-      <c r="N298" s="393"/>
-      <c r="O298" s="394"/>
+      <c r="E298" s="33"/>
+      <c r="F298" s="33"/>
+      <c r="G298" s="33"/>
+      <c r="H298" s="34"/>
+      <c r="I298" s="3"/>
+      <c r="J298" s="3"/>
+      <c r="K298" s="3"/>
+      <c r="L298" s="3"/>
+      <c r="M298" s="3"/>
+      <c r="N298" s="3"/>
+      <c r="O298" s="44"/>
       <c r="P298" s="10"/>
     </row>
-    <row r="299" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
-      <c r="B299" s="26">
-        <v>1</v>
-      </c>
-      <c r="C299" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="D299" s="385"/>
-      <c r="E299" s="386"/>
-      <c r="F299" s="214"/>
-      <c r="G299" s="214"/>
-      <c r="H299" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I299" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J299" s="214">
-        <v>255</v>
-      </c>
-      <c r="K299" s="214"/>
-      <c r="L299" s="376"/>
-      <c r="M299" s="376"/>
-      <c r="N299" s="376"/>
-      <c r="O299" s="377"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="3"/>
+      <c r="H299" s="3"/>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+      <c r="L299" s="3"/>
+      <c r="M299" s="3"/>
+      <c r="N299" s="3"/>
+      <c r="O299" s="3"/>
       <c r="P299" s="10"/>
     </row>
     <row r="300" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A300" s="9"/>
-      <c r="B300" s="26">
-        <v>2</v>
-      </c>
-      <c r="C300" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="D300" s="385"/>
-      <c r="E300" s="386"/>
-      <c r="F300" s="214"/>
-      <c r="G300" s="214"/>
-      <c r="H300" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I300" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J300" s="214"/>
-      <c r="K300" s="214"/>
-      <c r="L300" s="376" t="s">
-        <v>352</v>
-      </c>
-      <c r="M300" s="376"/>
-      <c r="N300" s="376"/>
-      <c r="O300" s="377"/>
+      <c r="B300" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D300" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E300" s="392"/>
+      <c r="F300" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G300" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H300" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I300" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J300" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K300" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L300" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M300" s="393"/>
+      <c r="N300" s="393"/>
+      <c r="O300" s="394"/>
       <c r="P300" s="10"/>
     </row>
-    <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A301" s="9"/>
-      <c r="B301" s="234">
-        <v>3</v>
-      </c>
-      <c r="C301" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="D301" s="395"/>
-      <c r="E301" s="396"/>
+      <c r="B301" s="26">
+        <v>1</v>
+      </c>
+      <c r="C301" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="D301" s="385"/>
+      <c r="E301" s="386"/>
       <c r="F301" s="214"/>
       <c r="G301" s="214"/>
       <c r="H301" s="214" t="s">
         <v>191</v>
       </c>
       <c r="I301" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J301" s="214"/>
+        <v>190</v>
+      </c>
+      <c r="J301" s="214">
+        <v>255</v>
+      </c>
       <c r="K301" s="214"/>
-      <c r="L301" s="390" t="s">
-        <v>348</v>
-      </c>
+      <c r="L301" s="376"/>
       <c r="M301" s="376"/>
       <c r="N301" s="376"/>
       <c r="O301" s="377"/>
@@ -29771,10 +29819,10 @@
     <row r="302" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
       <c r="B302" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C302" s="27" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D302" s="385"/>
       <c r="E302" s="386"/>
@@ -29788,22 +29836,24 @@
       </c>
       <c r="J302" s="214"/>
       <c r="K302" s="214"/>
-      <c r="L302" s="376"/>
+      <c r="L302" s="376" t="s">
+        <v>352</v>
+      </c>
       <c r="M302" s="376"/>
       <c r="N302" s="376"/>
       <c r="O302" s="377"/>
       <c r="P302" s="10"/>
     </row>
-    <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
-      <c r="B303" s="26">
-        <v>5</v>
-      </c>
-      <c r="C303" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="D303" s="385"/>
-      <c r="E303" s="386"/>
+      <c r="B303" s="234">
+        <v>3</v>
+      </c>
+      <c r="C303" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="D303" s="395"/>
+      <c r="E303" s="396"/>
       <c r="F303" s="214"/>
       <c r="G303" s="214"/>
       <c r="H303" s="214" t="s">
@@ -29814,7 +29864,9 @@
       </c>
       <c r="J303" s="214"/>
       <c r="K303" s="214"/>
-      <c r="L303" s="376"/>
+      <c r="L303" s="390" t="s">
+        <v>348</v>
+      </c>
       <c r="M303" s="376"/>
       <c r="N303" s="376"/>
       <c r="O303" s="377"/>
@@ -29823,10 +29875,10 @@
     <row r="304" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
       <c r="B304" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C304" s="27" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D304" s="385"/>
       <c r="E304" s="386"/>
@@ -29836,11 +29888,9 @@
         <v>191</v>
       </c>
       <c r="I304" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J304" s="214">
-        <v>255</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J304" s="214"/>
       <c r="K304" s="214"/>
       <c r="L304" s="376"/>
       <c r="M304" s="376"/>
@@ -29851,10 +29901,10 @@
     <row r="305" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A305" s="9"/>
       <c r="B305" s="26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C305" s="27" t="s">
-        <v>421</v>
+        <v>333</v>
       </c>
       <c r="D305" s="385"/>
       <c r="E305" s="386"/>
@@ -29868,192 +29918,190 @@
       </c>
       <c r="J305" s="214"/>
       <c r="K305" s="214"/>
-      <c r="L305" s="376" t="s">
-        <v>422</v>
-      </c>
+      <c r="L305" s="376"/>
       <c r="M305" s="376"/>
       <c r="N305" s="376"/>
       <c r="O305" s="377"/>
       <c r="P305" s="10"/>
     </row>
-    <row r="306" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A306" s="9"/>
-      <c r="B306" s="29"/>
-      <c r="C306" s="30"/>
-      <c r="D306" s="381"/>
-      <c r="E306" s="382"/>
-      <c r="F306" s="215"/>
-      <c r="G306" s="215"/>
-      <c r="H306" s="215"/>
-      <c r="I306" s="31"/>
-      <c r="J306" s="215"/>
-      <c r="K306" s="215"/>
-      <c r="L306" s="383"/>
-      <c r="M306" s="383"/>
-      <c r="N306" s="383"/>
-      <c r="O306" s="384"/>
+      <c r="B306" s="26">
+        <v>6</v>
+      </c>
+      <c r="C306" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D306" s="385"/>
+      <c r="E306" s="386"/>
+      <c r="F306" s="214"/>
+      <c r="G306" s="214"/>
+      <c r="H306" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I306" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J306" s="214">
+        <v>255</v>
+      </c>
+      <c r="K306" s="214"/>
+      <c r="L306" s="376"/>
+      <c r="M306" s="376"/>
+      <c r="N306" s="376"/>
+      <c r="O306" s="377"/>
       <c r="P306" s="10"/>
     </row>
-    <row r="308" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="309" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="9"/>
-      <c r="B309" s="32" t="s">
+    <row r="307" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A307" s="9"/>
+      <c r="B307" s="26">
+        <v>7</v>
+      </c>
+      <c r="C307" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="D307" s="385"/>
+      <c r="E307" s="386"/>
+      <c r="F307" s="214"/>
+      <c r="G307" s="214"/>
+      <c r="H307" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I307" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J307" s="214"/>
+      <c r="K307" s="214"/>
+      <c r="L307" s="376" t="s">
+        <v>422</v>
+      </c>
+      <c r="M307" s="376"/>
+      <c r="N307" s="376"/>
+      <c r="O307" s="377"/>
+      <c r="P307" s="10"/>
+    </row>
+    <row r="308" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="9"/>
+      <c r="B308" s="29"/>
+      <c r="C308" s="30"/>
+      <c r="D308" s="381"/>
+      <c r="E308" s="382"/>
+      <c r="F308" s="215"/>
+      <c r="G308" s="215"/>
+      <c r="H308" s="215"/>
+      <c r="I308" s="31"/>
+      <c r="J308" s="215"/>
+      <c r="K308" s="215"/>
+      <c r="L308" s="383"/>
+      <c r="M308" s="383"/>
+      <c r="N308" s="383"/>
+      <c r="O308" s="384"/>
+      <c r="P308" s="10"/>
+    </row>
+    <row r="310" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="9"/>
+      <c r="B311" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C309" s="3"/>
-      <c r="D309" s="231" t="s">
+      <c r="C311" s="3"/>
+      <c r="D311" s="231" t="s">
         <v>423</v>
       </c>
-      <c r="E309" s="33"/>
-      <c r="F309" s="33"/>
-      <c r="G309" s="33"/>
-      <c r="H309" s="34"/>
-      <c r="I309" s="3"/>
-      <c r="J309" s="3"/>
-      <c r="K309" s="3"/>
-      <c r="L309" s="3"/>
-      <c r="M309" s="3"/>
-      <c r="N309" s="3"/>
-      <c r="O309" s="44"/>
-      <c r="P309" s="10"/>
-    </row>
-    <row r="310" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="9"/>
-      <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="3"/>
-      <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
-      <c r="I310" s="3"/>
-      <c r="J310" s="3"/>
-      <c r="K310" s="3"/>
-      <c r="L310" s="3"/>
-      <c r="M310" s="3"/>
-      <c r="N310" s="3"/>
-      <c r="O310" s="3"/>
-      <c r="P310" s="10"/>
-    </row>
-    <row r="311" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A311" s="9"/>
-      <c r="B311" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C311" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D311" s="391" t="s">
-        <v>30</v>
-      </c>
-      <c r="E311" s="392"/>
-      <c r="F311" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G311" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H311" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I311" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J311" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K311" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L311" s="393" t="s">
-        <v>37</v>
-      </c>
-      <c r="M311" s="393"/>
-      <c r="N311" s="393"/>
-      <c r="O311" s="394"/>
+      <c r="E311" s="33"/>
+      <c r="F311" s="33"/>
+      <c r="G311" s="33"/>
+      <c r="H311" s="34"/>
+      <c r="I311" s="3"/>
+      <c r="J311" s="3"/>
+      <c r="K311" s="3"/>
+      <c r="L311" s="3"/>
+      <c r="M311" s="3"/>
+      <c r="N311" s="3"/>
+      <c r="O311" s="44"/>
       <c r="P311" s="10"/>
     </row>
-    <row r="312" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9"/>
-      <c r="B312" s="26">
-        <v>1</v>
-      </c>
-      <c r="C312" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="D312" s="385"/>
-      <c r="E312" s="386"/>
-      <c r="F312" s="214"/>
-      <c r="G312" s="214"/>
-      <c r="H312" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I312" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J312" s="214"/>
-      <c r="K312" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="L312" s="376" t="s">
-        <v>424</v>
-      </c>
-      <c r="M312" s="376"/>
-      <c r="N312" s="376"/>
-      <c r="O312" s="377"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
+      <c r="H312" s="3"/>
+      <c r="I312" s="3"/>
+      <c r="J312" s="3"/>
+      <c r="K312" s="3"/>
+      <c r="L312" s="3"/>
+      <c r="M312" s="3"/>
+      <c r="N312" s="3"/>
+      <c r="O312" s="3"/>
       <c r="P312" s="10"/>
     </row>
     <row r="313" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A313" s="9"/>
-      <c r="B313" s="26">
-        <v>2</v>
-      </c>
-      <c r="C313" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="D313" s="385"/>
-      <c r="E313" s="386"/>
-      <c r="F313" s="214"/>
-      <c r="G313" s="214"/>
-      <c r="H313" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="I313" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J313" s="214"/>
-      <c r="K313" s="214"/>
-      <c r="L313" s="376" t="s">
-        <v>442</v>
-      </c>
-      <c r="M313" s="376"/>
-      <c r="N313" s="376"/>
-      <c r="O313" s="377"/>
+      <c r="B313" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D313" s="391" t="s">
+        <v>30</v>
+      </c>
+      <c r="E313" s="392"/>
+      <c r="F313" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G313" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H313" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I313" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J313" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K313" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L313" s="393" t="s">
+        <v>37</v>
+      </c>
+      <c r="M313" s="393"/>
+      <c r="N313" s="393"/>
+      <c r="O313" s="394"/>
       <c r="P313" s="10"/>
     </row>
-    <row r="314" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A314" s="9"/>
-      <c r="B314" s="234">
-        <v>3</v>
-      </c>
-      <c r="C314" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="D314" s="395"/>
-      <c r="E314" s="396"/>
+      <c r="B314" s="26">
+        <v>1</v>
+      </c>
+      <c r="C314" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D314" s="385"/>
+      <c r="E314" s="386"/>
       <c r="F314" s="214"/>
       <c r="G314" s="214"/>
       <c r="H314" s="214" t="s">
         <v>191</v>
       </c>
       <c r="I314" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J314" s="214">
-        <v>20</v>
-      </c>
-      <c r="K314" s="214"/>
-      <c r="L314" s="390"/>
+        <v>188</v>
+      </c>
+      <c r="J314" s="214"/>
+      <c r="K314" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="L314" s="376" t="s">
+        <v>424</v>
+      </c>
       <c r="M314" s="376"/>
       <c r="N314" s="376"/>
       <c r="O314" s="377"/>
@@ -30062,10 +30110,10 @@
     <row r="315" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A315" s="9"/>
       <c r="B315" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C315" s="27" t="s">
-        <v>425</v>
+        <v>312</v>
       </c>
       <c r="D315" s="385"/>
       <c r="E315" s="386"/>
@@ -30079,22 +30127,24 @@
       </c>
       <c r="J315" s="214"/>
       <c r="K315" s="214"/>
-      <c r="L315" s="376"/>
+      <c r="L315" s="376" t="s">
+        <v>442</v>
+      </c>
       <c r="M315" s="376"/>
       <c r="N315" s="376"/>
       <c r="O315" s="377"/>
       <c r="P315" s="10"/>
     </row>
-    <row r="316" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
-      <c r="B316" s="26">
-        <v>5</v>
-      </c>
-      <c r="C316" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="D316" s="385"/>
-      <c r="E316" s="386"/>
+      <c r="B316" s="234">
+        <v>3</v>
+      </c>
+      <c r="C316" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="D316" s="395"/>
+      <c r="E316" s="396"/>
       <c r="F316" s="214"/>
       <c r="G316" s="214"/>
       <c r="H316" s="214" t="s">
@@ -30107,336 +30157,556 @@
         <v>20</v>
       </c>
       <c r="K316" s="214"/>
-      <c r="L316" s="376"/>
+      <c r="L316" s="390"/>
       <c r="M316" s="376"/>
       <c r="N316" s="376"/>
       <c r="O316" s="377"/>
       <c r="P316" s="10"/>
     </row>
-    <row r="317" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A317" s="9"/>
-      <c r="B317" s="29"/>
-      <c r="C317" s="30"/>
-      <c r="D317" s="381"/>
-      <c r="E317" s="382"/>
-      <c r="F317" s="215"/>
-      <c r="G317" s="215"/>
-      <c r="H317" s="215"/>
-      <c r="I317" s="31"/>
-      <c r="J317" s="215"/>
-      <c r="K317" s="215"/>
-      <c r="L317" s="383"/>
-      <c r="M317" s="383"/>
-      <c r="N317" s="383"/>
-      <c r="O317" s="384"/>
+      <c r="B317" s="26">
+        <v>4</v>
+      </c>
+      <c r="C317" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="D317" s="385"/>
+      <c r="E317" s="386"/>
+      <c r="F317" s="214"/>
+      <c r="G317" s="214"/>
+      <c r="H317" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I317" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J317" s="214"/>
+      <c r="K317" s="214"/>
+      <c r="L317" s="376"/>
+      <c r="M317" s="376"/>
+      <c r="N317" s="376"/>
+      <c r="O317" s="377"/>
       <c r="P317" s="10"/>
     </row>
-    <row r="319" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="320" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="260"/>
-      <c r="B320" s="269" t="s">
+    <row r="318" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A318" s="9"/>
+      <c r="B318" s="26">
+        <v>5</v>
+      </c>
+      <c r="C318" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="D318" s="385"/>
+      <c r="E318" s="386"/>
+      <c r="F318" s="214"/>
+      <c r="G318" s="214"/>
+      <c r="H318" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="I318" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J318" s="214">
+        <v>20</v>
+      </c>
+      <c r="K318" s="214"/>
+      <c r="L318" s="376"/>
+      <c r="M318" s="376"/>
+      <c r="N318" s="376"/>
+      <c r="O318" s="377"/>
+      <c r="P318" s="10"/>
+    </row>
+    <row r="319" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="9"/>
+      <c r="B319" s="29"/>
+      <c r="C319" s="30"/>
+      <c r="D319" s="381"/>
+      <c r="E319" s="382"/>
+      <c r="F319" s="215"/>
+      <c r="G319" s="215"/>
+      <c r="H319" s="215"/>
+      <c r="I319" s="31"/>
+      <c r="J319" s="215"/>
+      <c r="K319" s="215"/>
+      <c r="L319" s="383"/>
+      <c r="M319" s="383"/>
+      <c r="N319" s="383"/>
+      <c r="O319" s="384"/>
+      <c r="P319" s="10"/>
+    </row>
+    <row r="321" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="322" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="260"/>
+      <c r="B322" s="269" t="s">
         <v>39</v>
       </c>
-      <c r="C320" s="270"/>
-      <c r="D320" s="271" t="s">
+      <c r="C322" s="270"/>
+      <c r="D322" s="271" t="s">
         <v>429</v>
       </c>
-      <c r="E320" s="272"/>
-      <c r="F320" s="272"/>
-      <c r="G320" s="272"/>
-      <c r="H320" s="273"/>
-      <c r="I320" s="270"/>
-      <c r="J320" s="270"/>
-      <c r="K320" s="270"/>
-      <c r="L320" s="270"/>
-      <c r="M320" s="270"/>
-      <c r="N320" s="270"/>
-      <c r="O320" s="274"/>
-      <c r="P320" s="267"/>
-    </row>
-    <row r="321" spans="1:16" s="268" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="260"/>
-      <c r="B321" s="270"/>
-      <c r="C321" s="270"/>
-      <c r="D321" s="270"/>
-      <c r="E321" s="270"/>
-      <c r="F321" s="270"/>
-      <c r="G321" s="270"/>
-      <c r="H321" s="270"/>
-      <c r="I321" s="270"/>
-      <c r="J321" s="270"/>
-      <c r="K321" s="270"/>
-      <c r="L321" s="270"/>
-      <c r="M321" s="270"/>
-      <c r="N321" s="270"/>
-      <c r="O321" s="270"/>
-      <c r="P321" s="267"/>
-    </row>
-    <row r="322" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A322" s="260"/>
-      <c r="B322" s="275" t="s">
-        <v>0</v>
-      </c>
-      <c r="C322" s="276" t="s">
-        <v>29</v>
-      </c>
-      <c r="D322" s="361" t="s">
-        <v>30</v>
-      </c>
-      <c r="E322" s="362"/>
-      <c r="F322" s="276" t="s">
-        <v>31</v>
-      </c>
-      <c r="G322" s="276" t="s">
-        <v>32</v>
-      </c>
-      <c r="H322" s="276" t="s">
-        <v>33</v>
-      </c>
-      <c r="I322" s="276" t="s">
-        <v>34</v>
-      </c>
-      <c r="J322" s="276" t="s">
-        <v>35</v>
-      </c>
-      <c r="K322" s="276" t="s">
-        <v>36</v>
-      </c>
-      <c r="L322" s="363" t="s">
-        <v>37</v>
-      </c>
-      <c r="M322" s="363"/>
-      <c r="N322" s="363"/>
-      <c r="O322" s="364"/>
+      <c r="E322" s="272"/>
+      <c r="F322" s="272"/>
+      <c r="G322" s="272"/>
+      <c r="H322" s="273"/>
+      <c r="I322" s="270"/>
+      <c r="J322" s="270"/>
+      <c r="K322" s="270"/>
+      <c r="L322" s="270"/>
+      <c r="M322" s="270"/>
+      <c r="N322" s="270"/>
+      <c r="O322" s="274"/>
       <c r="P322" s="267"/>
     </row>
-    <row r="323" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" s="268" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="260"/>
-      <c r="B323" s="277">
-        <v>1</v>
-      </c>
-      <c r="C323" s="278" t="s">
-        <v>430</v>
-      </c>
-      <c r="D323" s="365" t="s">
-        <v>431</v>
-      </c>
-      <c r="E323" s="366"/>
-      <c r="F323" s="265"/>
-      <c r="G323" s="265"/>
-      <c r="H323" s="265" t="s">
-        <v>191</v>
-      </c>
-      <c r="I323" s="266" t="s">
-        <v>190</v>
-      </c>
-      <c r="J323" s="265">
-        <v>255</v>
-      </c>
-      <c r="K323" s="265"/>
-      <c r="L323" s="367" t="s">
-        <v>432</v>
-      </c>
-      <c r="M323" s="368"/>
-      <c r="N323" s="368"/>
-      <c r="O323" s="369"/>
+      <c r="B323" s="270"/>
+      <c r="C323" s="270"/>
+      <c r="D323" s="270"/>
+      <c r="E323" s="270"/>
+      <c r="F323" s="270"/>
+      <c r="G323" s="270"/>
+      <c r="H323" s="270"/>
+      <c r="I323" s="270"/>
+      <c r="J323" s="270"/>
+      <c r="K323" s="270"/>
+      <c r="L323" s="270"/>
+      <c r="M323" s="270"/>
+      <c r="N323" s="270"/>
+      <c r="O323" s="270"/>
       <c r="P323" s="267"/>
     </row>
     <row r="324" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A324" s="260"/>
-      <c r="B324" s="279">
+      <c r="B324" s="275" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" s="276" t="s">
+        <v>29</v>
+      </c>
+      <c r="D324" s="361" t="s">
+        <v>30</v>
+      </c>
+      <c r="E324" s="362"/>
+      <c r="F324" s="276" t="s">
+        <v>31</v>
+      </c>
+      <c r="G324" s="276" t="s">
+        <v>32</v>
+      </c>
+      <c r="H324" s="276" t="s">
+        <v>33</v>
+      </c>
+      <c r="I324" s="276" t="s">
+        <v>34</v>
+      </c>
+      <c r="J324" s="276" t="s">
+        <v>35</v>
+      </c>
+      <c r="K324" s="276" t="s">
+        <v>36</v>
+      </c>
+      <c r="L324" s="363" t="s">
+        <v>37</v>
+      </c>
+      <c r="M324" s="363"/>
+      <c r="N324" s="363"/>
+      <c r="O324" s="364"/>
+      <c r="P324" s="267"/>
+    </row>
+    <row r="325" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A325" s="260"/>
+      <c r="B325" s="277">
+        <v>1</v>
+      </c>
+      <c r="C325" s="278" t="s">
+        <v>430</v>
+      </c>
+      <c r="D325" s="365" t="s">
+        <v>431</v>
+      </c>
+      <c r="E325" s="366"/>
+      <c r="F325" s="265"/>
+      <c r="G325" s="265"/>
+      <c r="H325" s="265" t="s">
+        <v>191</v>
+      </c>
+      <c r="I325" s="266" t="s">
+        <v>190</v>
+      </c>
+      <c r="J325" s="265">
+        <v>255</v>
+      </c>
+      <c r="K325" s="265"/>
+      <c r="L325" s="367" t="s">
+        <v>432</v>
+      </c>
+      <c r="M325" s="368"/>
+      <c r="N325" s="368"/>
+      <c r="O325" s="369"/>
+      <c r="P325" s="267"/>
+    </row>
+    <row r="326" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A326" s="260"/>
+      <c r="B326" s="279">
         <v>2</v>
       </c>
-      <c r="C324" s="280" t="s">
+      <c r="C326" s="280" t="s">
         <v>245</v>
       </c>
-      <c r="D324" s="281" t="s">
+      <c r="D326" s="281" t="s">
         <v>245</v>
       </c>
-      <c r="E324" s="282"/>
-      <c r="F324" s="283"/>
-      <c r="G324" s="283"/>
-      <c r="H324" s="283"/>
-      <c r="I324" s="266" t="s">
+      <c r="E326" s="282"/>
+      <c r="F326" s="283"/>
+      <c r="G326" s="283"/>
+      <c r="H326" s="283"/>
+      <c r="I326" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="J324" s="283">
+      <c r="J326" s="283">
         <v>255</v>
       </c>
-      <c r="K324" s="283"/>
-      <c r="L324" s="367"/>
-      <c r="M324" s="368"/>
-      <c r="N324" s="368"/>
-      <c r="O324" s="369"/>
-      <c r="P324" s="267"/>
-    </row>
-    <row r="325" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="260"/>
-      <c r="B325" s="284"/>
-      <c r="C325" s="285"/>
-      <c r="D325" s="370"/>
-      <c r="E325" s="371"/>
-      <c r="F325" s="286"/>
-      <c r="G325" s="286"/>
-      <c r="H325" s="286"/>
-      <c r="I325" s="287"/>
-      <c r="J325" s="286"/>
-      <c r="K325" s="286"/>
-      <c r="L325" s="372"/>
-      <c r="M325" s="372"/>
-      <c r="N325" s="372"/>
-      <c r="O325" s="373"/>
-      <c r="P325" s="267"/>
+      <c r="K326" s="283"/>
+      <c r="L326" s="367"/>
+      <c r="M326" s="368"/>
+      <c r="N326" s="368"/>
+      <c r="O326" s="369"/>
+      <c r="P326" s="267"/>
+    </row>
+    <row r="327" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="260"/>
+      <c r="B327" s="284"/>
+      <c r="C327" s="285"/>
+      <c r="D327" s="370"/>
+      <c r="E327" s="371"/>
+      <c r="F327" s="286"/>
+      <c r="G327" s="286"/>
+      <c r="H327" s="286"/>
+      <c r="I327" s="287"/>
+      <c r="J327" s="286"/>
+      <c r="K327" s="286"/>
+      <c r="L327" s="372"/>
+      <c r="M327" s="372"/>
+      <c r="N327" s="372"/>
+      <c r="O327" s="373"/>
+      <c r="P327" s="267"/>
+    </row>
+    <row r="329" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="330" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="260"/>
+      <c r="B330" s="269" t="s">
+        <v>39</v>
+      </c>
+      <c r="C330" s="270"/>
+      <c r="D330" s="271" t="s">
+        <v>443</v>
+      </c>
+      <c r="E330" s="272"/>
+      <c r="F330" s="272"/>
+      <c r="G330" s="272"/>
+      <c r="H330" s="273"/>
+      <c r="I330" s="270"/>
+      <c r="J330" s="270"/>
+      <c r="K330" s="270"/>
+      <c r="L330" s="270"/>
+      <c r="M330" s="270"/>
+      <c r="N330" s="270"/>
+      <c r="O330" s="274"/>
+      <c r="P330" s="267"/>
+    </row>
+    <row r="331" spans="1:16" s="268" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="260"/>
+      <c r="B331" s="270"/>
+      <c r="C331" s="270"/>
+      <c r="D331" s="270"/>
+      <c r="E331" s="270"/>
+      <c r="F331" s="270"/>
+      <c r="G331" s="270"/>
+      <c r="H331" s="270"/>
+      <c r="I331" s="270"/>
+      <c r="J331" s="270"/>
+      <c r="K331" s="270"/>
+      <c r="L331" s="270"/>
+      <c r="M331" s="270"/>
+      <c r="N331" s="270"/>
+      <c r="O331" s="270"/>
+      <c r="P331" s="267"/>
+    </row>
+    <row r="332" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A332" s="260"/>
+      <c r="B332" s="275" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" s="276" t="s">
+        <v>29</v>
+      </c>
+      <c r="D332" s="361" t="s">
+        <v>30</v>
+      </c>
+      <c r="E332" s="362"/>
+      <c r="F332" s="276" t="s">
+        <v>31</v>
+      </c>
+      <c r="G332" s="276" t="s">
+        <v>32</v>
+      </c>
+      <c r="H332" s="276" t="s">
+        <v>33</v>
+      </c>
+      <c r="I332" s="276" t="s">
+        <v>34</v>
+      </c>
+      <c r="J332" s="276" t="s">
+        <v>35</v>
+      </c>
+      <c r="K332" s="276" t="s">
+        <v>36</v>
+      </c>
+      <c r="L332" s="363" t="s">
+        <v>37</v>
+      </c>
+      <c r="M332" s="363"/>
+      <c r="N332" s="363"/>
+      <c r="O332" s="364"/>
+      <c r="P332" s="267"/>
+    </row>
+    <row r="333" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A333" s="260"/>
+      <c r="B333" s="261">
+        <v>1</v>
+      </c>
+      <c r="C333" s="262" t="s">
+        <v>444</v>
+      </c>
+      <c r="D333" s="374" t="s">
+        <v>218</v>
+      </c>
+      <c r="E333" s="375"/>
+      <c r="F333" s="265"/>
+      <c r="G333" s="265"/>
+      <c r="H333" s="265" t="s">
+        <v>191</v>
+      </c>
+      <c r="I333" s="288" t="s">
+        <v>188</v>
+      </c>
+      <c r="J333" s="265"/>
+      <c r="K333" s="265" t="s">
+        <v>191</v>
+      </c>
+      <c r="L333" s="368"/>
+      <c r="M333" s="368"/>
+      <c r="N333" s="368"/>
+      <c r="O333" s="369"/>
+      <c r="P333" s="267"/>
+    </row>
+    <row r="334" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A334" s="260"/>
+      <c r="B334" s="277">
+        <v>2</v>
+      </c>
+      <c r="C334" s="288" t="s">
+        <v>445</v>
+      </c>
+      <c r="D334" s="365" t="s">
+        <v>446</v>
+      </c>
+      <c r="E334" s="366"/>
+      <c r="F334" s="265"/>
+      <c r="G334" s="265"/>
+      <c r="H334" s="265" t="s">
+        <v>191</v>
+      </c>
+      <c r="I334" s="288" t="s">
+        <v>188</v>
+      </c>
+      <c r="J334" s="265"/>
+      <c r="K334" s="265"/>
+      <c r="L334" s="367"/>
+      <c r="M334" s="368"/>
+      <c r="N334" s="368"/>
+      <c r="O334" s="369"/>
+      <c r="P334" s="267"/>
+    </row>
+    <row r="335" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="260"/>
+      <c r="B335" s="284"/>
+      <c r="C335" s="285"/>
+      <c r="D335" s="370"/>
+      <c r="E335" s="371"/>
+      <c r="F335" s="286"/>
+      <c r="G335" s="286"/>
+      <c r="H335" s="286"/>
+      <c r="I335" s="287"/>
+      <c r="J335" s="286"/>
+      <c r="K335" s="286"/>
+      <c r="L335" s="372"/>
+      <c r="M335" s="372"/>
+      <c r="N335" s="372"/>
+      <c r="O335" s="373"/>
+      <c r="P335" s="267"/>
     </row>
   </sheetData>
-  <mergeCells count="363">
-    <mergeCell ref="D316:E316"/>
-    <mergeCell ref="L316:O316"/>
-    <mergeCell ref="D317:E317"/>
-    <mergeCell ref="L317:O317"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="L311:O311"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="L312:O312"/>
+  <mergeCells count="374">
+    <mergeCell ref="D335:E335"/>
+    <mergeCell ref="L335:O335"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="L107:O107"/>
+    <mergeCell ref="L109:O109"/>
+    <mergeCell ref="D332:E332"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="L334:O334"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="L318:O318"/>
+    <mergeCell ref="D319:E319"/>
+    <mergeCell ref="L319:O319"/>
     <mergeCell ref="D313:E313"/>
     <mergeCell ref="L313:O313"/>
     <mergeCell ref="D314:E314"/>
     <mergeCell ref="L314:O314"/>
     <mergeCell ref="D315:E315"/>
     <mergeCell ref="L315:O315"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="D316:E316"/>
+    <mergeCell ref="L316:O316"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="L317:O317"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="L308:O308"/>
     <mergeCell ref="D306:E306"/>
     <mergeCell ref="L306:O306"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="D298:E298"/>
-    <mergeCell ref="L298:O298"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="L299:O299"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="L307:O307"/>
     <mergeCell ref="D300:E300"/>
     <mergeCell ref="L300:O300"/>
     <mergeCell ref="D301:E301"/>
     <mergeCell ref="L301:O301"/>
     <mergeCell ref="D302:E302"/>
     <mergeCell ref="L302:O302"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="L304:O304"/>
     <mergeCell ref="D104:E104"/>
     <mergeCell ref="L104:O104"/>
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="L105:O105"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="L106:O106"/>
-    <mergeCell ref="L107:O107"/>
-    <mergeCell ref="D108:E108"/>
     <mergeCell ref="L108:O108"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="L290:O290"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="L291:O291"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="L285:O285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="L286:O286"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="L110:O110"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="L292:O292"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="L293:O293"/>
     <mergeCell ref="D287:E287"/>
     <mergeCell ref="L287:O287"/>
     <mergeCell ref="D288:E288"/>
     <mergeCell ref="L288:O288"/>
     <mergeCell ref="D289:E289"/>
     <mergeCell ref="L289:O289"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="L276:O276"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="L277:O277"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="L290:O290"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="L291:O291"/>
     <mergeCell ref="D278:E278"/>
     <mergeCell ref="L278:O278"/>
+    <mergeCell ref="D279:E279"/>
     <mergeCell ref="L279:O279"/>
     <mergeCell ref="D280:E280"/>
     <mergeCell ref="L280:O280"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="L267:O267"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="L268:O268"/>
+    <mergeCell ref="L281:O281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="L282:O282"/>
+    <mergeCell ref="D281:E281"/>
     <mergeCell ref="D269:E269"/>
     <mergeCell ref="L269:O269"/>
+    <mergeCell ref="D270:E270"/>
     <mergeCell ref="L270:O270"/>
     <mergeCell ref="D271:E271"/>
     <mergeCell ref="L271:O271"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="L258:O258"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="L259:O259"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="L273:O273"/>
     <mergeCell ref="D260:E260"/>
     <mergeCell ref="L260:O260"/>
+    <mergeCell ref="D261:E261"/>
     <mergeCell ref="L261:O261"/>
     <mergeCell ref="D262:E262"/>
     <mergeCell ref="L262:O262"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="L202:O202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="L203:O203"/>
+    <mergeCell ref="L263:O263"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="L264:O264"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="L204:O204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="L205:O205"/>
+    <mergeCell ref="L214:O214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="L215:O215"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="L207:O207"/>
+    <mergeCell ref="L206:O206"/>
+    <mergeCell ref="D212:E212"/>
     <mergeCell ref="L212:O212"/>
     <mergeCell ref="D213:E213"/>
     <mergeCell ref="L213:O213"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="L205:O205"/>
-    <mergeCell ref="L204:O204"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="L210:O210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="L211:O211"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="L154:O154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:O155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="L156:O156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="L198:O198"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="L203:O203"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="L194:O194"/>
     <mergeCell ref="D195:E195"/>
     <mergeCell ref="L195:O195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="L201:O201"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="L187:O187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="L188:O188"/>
     <mergeCell ref="D185:E185"/>
     <mergeCell ref="L185:O185"/>
     <mergeCell ref="D186:E186"/>
     <mergeCell ref="L186:O186"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="L183:O183"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="L184:O184"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="L178:O178"/>
+    <mergeCell ref="L179:O179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="L180:O180"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="L171:O171"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="L159:O159"/>
     <mergeCell ref="D176:E176"/>
     <mergeCell ref="L176:O176"/>
+    <mergeCell ref="D177:E177"/>
     <mergeCell ref="L177:O177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="L178:O178"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="L168:O168"/>
     <mergeCell ref="D169:E169"/>
     <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="L174:O174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="L175:O175"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="L161:O161"/>
+    <mergeCell ref="D161:E161"/>
     <mergeCell ref="D167:E167"/>
     <mergeCell ref="L167:O167"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="L158:O158"/>
     <mergeCell ref="D160:E160"/>
     <mergeCell ref="L160:O160"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="L156:O156"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="L158:O158"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
@@ -30554,113 +30824,113 @@
     <mergeCell ref="L95:O95"/>
     <mergeCell ref="L96:O96"/>
     <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="L133:O133"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="L138:O138"/>
     <mergeCell ref="D136:E136"/>
     <mergeCell ref="L136:O136"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="L137:O137"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="L99:O99"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="L114:O114"/>
     <mergeCell ref="D115:E115"/>
     <mergeCell ref="L115:O115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="L116:O116"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="L121:O121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="L122:O122"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="L119:O119"/>
+    <mergeCell ref="L118:O118"/>
     <mergeCell ref="D123:E123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="L150:O150"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L149:O149"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="L147:O147"/>
     <mergeCell ref="D148:E148"/>
     <mergeCell ref="L148:O148"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L139:O139"/>
     <mergeCell ref="L140:O140"/>
     <mergeCell ref="L141:O141"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="L143:O143"/>
     <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D147:E147"/>
     <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="L250:O250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="L251:O251"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="D252:E252"/>
     <mergeCell ref="L252:O252"/>
     <mergeCell ref="D253:E253"/>
     <mergeCell ref="L253:O253"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="L242:O242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="L243:O243"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="L254:O254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="L255:O255"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="D220:E220"/>
     <mergeCell ref="L220:O220"/>
     <mergeCell ref="D221:E221"/>
     <mergeCell ref="L221:O221"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="L234:O234"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="L226:O226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="L227:O227"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="L236:O236"/>
+    <mergeCell ref="D228:E228"/>
     <mergeCell ref="L228:O228"/>
     <mergeCell ref="D229:E229"/>
     <mergeCell ref="L229:O229"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="L322:O322"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="L323:O323"/>
+    <mergeCell ref="L230:O230"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="L231:O231"/>
+    <mergeCell ref="D324:E324"/>
     <mergeCell ref="L324:O324"/>
     <mergeCell ref="D325:E325"/>
     <mergeCell ref="L325:O325"/>
-    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="L326:O326"/>
+    <mergeCell ref="D327:E327"/>
+    <mergeCell ref="L327:O327"/>
+    <mergeCell ref="L196:O196"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="L60:O60"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="L127:O127"/>
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="L128:O128"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="L235:O235"/>
-    <mergeCell ref="L236:O236"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="L246:O246"/>
     <mergeCell ref="D237:E237"/>
     <mergeCell ref="L237:O237"/>
+    <mergeCell ref="L238:O238"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="L239:O239"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="7" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="89" max="15" man="1"/>
-    <brk id="179" max="15" man="1"/>
-    <brk id="272" max="15" man="1"/>
+    <brk id="181" max="15" man="1"/>
+    <brk id="274" max="15" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -30727,7 +30997,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -31657,8 +31927,8 @@
   </sheetPr>
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31722,7 +31992,7 @@
       </c>
       <c r="N2" s="313">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="O2" s="314"/>
       <c r="P2" s="61"/>
@@ -31966,14 +32236,17 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="50">
+        <v>44571</v>
+      </c>
       <c r="K9" s="50"/>
       <c r="L9" s="124">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-44571</v>
       </c>
       <c r="M9" s="51">
-        <v>0</v>
+        <f>SUM(M10:M23)/14</f>
+        <v>0.625</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="43"/>
@@ -32047,7 +32320,7 @@
         <v>-44579</v>
       </c>
       <c r="M11" s="123">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="43"/>
@@ -32084,7 +32357,7 @@
         <v>-44581</v>
       </c>
       <c r="M12" s="123">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="43"/>
@@ -32149,14 +32422,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J14" s="121"/>
+      <c r="J14" s="121">
+        <v>44584</v>
+      </c>
       <c r="K14" s="121"/>
       <c r="L14" s="122">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-44584</v>
       </c>
       <c r="M14" s="123">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="43"/>
@@ -32193,7 +32468,7 @@
         <v>-44579</v>
       </c>
       <c r="M15" s="137">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="43"/>
@@ -32221,14 +32496,16 @@
         <f t="shared" ref="I16:I25" si="2">H16-G16</f>
         <v>5</v>
       </c>
-      <c r="J16" s="145"/>
+      <c r="J16" s="145">
+        <v>44585</v>
+      </c>
       <c r="K16" s="145"/>
       <c r="L16" s="146">
         <f t="shared" ref="L16:L25" si="3">K16-J16</f>
-        <v>0</v>
+        <v>-44585</v>
       </c>
       <c r="M16" s="147">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="43"/>
@@ -32265,7 +32542,7 @@
         <v>-44571</v>
       </c>
       <c r="M17" s="142">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="43"/>
@@ -32302,7 +32579,7 @@
         <v>-44571</v>
       </c>
       <c r="M18" s="142">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="43"/>
@@ -32378,7 +32655,7 @@
         <v>-44571</v>
       </c>
       <c r="M20" s="142">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="43"/>
@@ -32916,7 +33193,7 @@
   <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33019,7 +33296,7 @@
       </c>
       <c r="AK2" s="313">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="AL2" s="314"/>
       <c r="AM2" s="61"/>
@@ -33536,7 +33813,7 @@
       </c>
       <c r="T2" s="313">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="U2" s="314"/>
     </row>
@@ -34949,7 +35226,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -40552,7 +40829,7 @@
       </c>
       <c r="S2" s="313">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="T2" s="314"/>
     </row>
@@ -47327,7 +47604,7 @@
       </c>
       <c r="T2" s="313">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="U2" s="314"/>
     </row>
@@ -49577,7 +49854,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44580.886803587964</v>
+        <v>44587.00322233796</v>
       </c>
       <c r="Q2" s="314"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8E5EC8-FBBC-0E4D-AB6E-28BD585A8026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4DFFE0-18ED-0949-8E4E-390890861A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1420" windowWidth="32040" windowHeight="20180" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="38160" windowHeight="19360" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -3023,6 +3023,39 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3044,43 +3077,16 @@
     <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3094,24 +3100,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3131,53 +3119,8 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3185,44 +3128,25 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3260,22 +3184,98 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -20703,7 +20703,7 @@
       <c r="L64" s="294"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20848,7 +20848,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -22295,8 +22295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:P335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A233" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L245" sqref="L245:O245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22359,7 +22359,7 @@
       </c>
       <c r="O2" s="313">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="P2" s="314"/>
     </row>
@@ -22467,10 +22467,10 @@
       <c r="C8" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="436" t="s">
+      <c r="D8" s="412" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="437"/>
+      <c r="E8" s="413"/>
       <c r="F8" s="221" t="s">
         <v>31</v>
       </c>
@@ -22489,12 +22489,12 @@
       <c r="K8" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="438" t="s">
+      <c r="L8" s="414" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="438"/>
-      <c r="N8" s="438"/>
-      <c r="O8" s="439"/>
+      <c r="M8" s="414"/>
+      <c r="N8" s="414"/>
+      <c r="O8" s="415"/>
       <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22505,10 +22505,10 @@
       <c r="C9" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="428" t="s">
+      <c r="D9" s="404" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="429"/>
+      <c r="E9" s="405"/>
       <c r="F9" s="224" t="s">
         <v>191</v>
       </c>
@@ -22523,10 +22523,10 @@
       </c>
       <c r="J9" s="224"/>
       <c r="K9" s="224"/>
-      <c r="L9" s="430"/>
-      <c r="M9" s="430"/>
-      <c r="N9" s="430"/>
-      <c r="O9" s="431"/>
+      <c r="L9" s="406"/>
+      <c r="M9" s="406"/>
+      <c r="N9" s="406"/>
+      <c r="O9" s="407"/>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22537,10 +22537,10 @@
       <c r="C10" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="428" t="s">
+      <c r="D10" s="404" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="429"/>
+      <c r="E10" s="405"/>
       <c r="F10" s="224"/>
       <c r="G10" s="224"/>
       <c r="H10" s="224" t="s">
@@ -22551,12 +22551,12 @@
       </c>
       <c r="J10" s="224"/>
       <c r="K10" s="224"/>
-      <c r="L10" s="430" t="s">
+      <c r="L10" s="406" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="430"/>
-      <c r="N10" s="430"/>
-      <c r="O10" s="431"/>
+      <c r="M10" s="406"/>
+      <c r="N10" s="406"/>
+      <c r="O10" s="407"/>
       <c r="P10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22567,10 +22567,10 @@
       <c r="C11" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="428" t="s">
+      <c r="D11" s="404" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="429"/>
+      <c r="E11" s="405"/>
       <c r="F11" s="224"/>
       <c r="G11" s="224"/>
       <c r="H11" s="224" t="s">
@@ -22581,10 +22581,10 @@
       </c>
       <c r="J11" s="224"/>
       <c r="K11" s="224"/>
-      <c r="L11" s="430"/>
-      <c r="M11" s="430"/>
-      <c r="N11" s="430"/>
-      <c r="O11" s="431"/>
+      <c r="L11" s="406"/>
+      <c r="M11" s="406"/>
+      <c r="N11" s="406"/>
+      <c r="O11" s="407"/>
       <c r="P11" s="110"/>
     </row>
     <row r="12" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -22595,10 +22595,10 @@
       <c r="C12" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="432" t="s">
+      <c r="D12" s="408" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="433"/>
+      <c r="E12" s="409"/>
       <c r="F12" s="228"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
@@ -22607,10 +22607,10 @@
       </c>
       <c r="J12" s="228"/>
       <c r="K12" s="228"/>
-      <c r="L12" s="434"/>
-      <c r="M12" s="434"/>
-      <c r="N12" s="434"/>
-      <c r="O12" s="435"/>
+      <c r="L12" s="410"/>
+      <c r="M12" s="410"/>
+      <c r="N12" s="410"/>
+      <c r="O12" s="411"/>
       <c r="P12" s="110"/>
     </row>
     <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22697,10 +22697,10 @@
       <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="391" t="s">
+      <c r="D17" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="392"/>
+      <c r="E17" s="388"/>
       <c r="F17" s="25" t="s">
         <v>31</v>
       </c>
@@ -22719,12 +22719,12 @@
       <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="393" t="s">
+      <c r="L17" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="393"/>
-      <c r="N17" s="393"/>
-      <c r="O17" s="394"/>
+      <c r="M17" s="389"/>
+      <c r="N17" s="389"/>
+      <c r="O17" s="390"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22735,10 +22735,10 @@
       <c r="C18" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="385" t="s">
+      <c r="D18" s="379" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="386"/>
+      <c r="E18" s="380"/>
       <c r="F18" s="214"/>
       <c r="G18" s="214"/>
       <c r="H18" s="214" t="s">
@@ -22751,10 +22751,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="214"/>
-      <c r="L18" s="376"/>
-      <c r="M18" s="376"/>
-      <c r="N18" s="376"/>
-      <c r="O18" s="377"/>
+      <c r="L18" s="381"/>
+      <c r="M18" s="381"/>
+      <c r="N18" s="381"/>
+      <c r="O18" s="382"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22765,10 +22765,10 @@
       <c r="C19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="385" t="s">
+      <c r="D19" s="379" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="386"/>
+      <c r="E19" s="380"/>
       <c r="F19" s="214"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214" t="s">
@@ -22781,10 +22781,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="214"/>
-      <c r="L19" s="376"/>
-      <c r="M19" s="376"/>
-      <c r="N19" s="376"/>
-      <c r="O19" s="377"/>
+      <c r="L19" s="381"/>
+      <c r="M19" s="381"/>
+      <c r="N19" s="381"/>
+      <c r="O19" s="382"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -22795,10 +22795,10 @@
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="395" t="s">
+      <c r="D20" s="391" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="396"/>
+      <c r="E20" s="392"/>
       <c r="F20" s="214"/>
       <c r="G20" s="214"/>
       <c r="H20" s="214" t="s">
@@ -22811,12 +22811,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="214"/>
-      <c r="L20" s="390" t="s">
+      <c r="L20" s="393" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="376"/>
-      <c r="N20" s="376"/>
-      <c r="O20" s="377"/>
+      <c r="M20" s="381"/>
+      <c r="N20" s="381"/>
+      <c r="O20" s="382"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22827,10 +22827,10 @@
       <c r="C21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="385" t="s">
+      <c r="D21" s="379" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="386"/>
+      <c r="E21" s="380"/>
       <c r="F21" s="214"/>
       <c r="G21" s="214"/>
       <c r="H21" s="214" t="s">
@@ -22841,12 +22841,12 @@
       </c>
       <c r="J21" s="214"/>
       <c r="K21" s="214"/>
-      <c r="L21" s="376" t="s">
+      <c r="L21" s="381" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="376"/>
-      <c r="N21" s="376"/>
-      <c r="O21" s="377"/>
+      <c r="M21" s="381"/>
+      <c r="N21" s="381"/>
+      <c r="O21" s="382"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22857,10 +22857,10 @@
       <c r="C22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="385" t="s">
+      <c r="D22" s="379" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="386"/>
+      <c r="E22" s="380"/>
       <c r="F22" s="214"/>
       <c r="G22" s="214"/>
       <c r="H22" s="214"/>
@@ -22869,28 +22869,28 @@
       </c>
       <c r="J22" s="214"/>
       <c r="K22" s="214"/>
-      <c r="L22" s="376"/>
-      <c r="M22" s="376"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="377"/>
+      <c r="L22" s="381"/>
+      <c r="M22" s="381"/>
+      <c r="N22" s="381"/>
+      <c r="O22" s="382"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="381"/>
-      <c r="E23" s="382"/>
+      <c r="D23" s="383"/>
+      <c r="E23" s="384"/>
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
       <c r="I23" s="31"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="383"/>
-      <c r="M23" s="383"/>
-      <c r="N23" s="383"/>
-      <c r="O23" s="384"/>
+      <c r="L23" s="385"/>
+      <c r="M23" s="385"/>
+      <c r="N23" s="385"/>
+      <c r="O23" s="386"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -22995,10 +22995,10 @@
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="391" t="s">
+      <c r="D29" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="392"/>
+      <c r="E29" s="388"/>
       <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
@@ -23017,12 +23017,12 @@
       <c r="K29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="393" t="s">
+      <c r="L29" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="393"/>
-      <c r="N29" s="393"/>
-      <c r="O29" s="394"/>
+      <c r="M29" s="389"/>
+      <c r="N29" s="389"/>
+      <c r="O29" s="390"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23033,10 +23033,10 @@
       <c r="C30" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="385" t="s">
+      <c r="D30" s="379" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="386"/>
+      <c r="E30" s="380"/>
       <c r="F30" s="214"/>
       <c r="G30" s="214"/>
       <c r="H30" s="214" t="s">
@@ -23047,12 +23047,12 @@
       </c>
       <c r="J30" s="214"/>
       <c r="K30" s="214"/>
-      <c r="L30" s="376" t="s">
+      <c r="L30" s="381" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="376"/>
-      <c r="N30" s="376"/>
-      <c r="O30" s="377"/>
+      <c r="M30" s="381"/>
+      <c r="N30" s="381"/>
+      <c r="O30" s="382"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23063,10 +23063,10 @@
       <c r="C31" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="385" t="s">
+      <c r="D31" s="379" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="386"/>
+      <c r="E31" s="380"/>
       <c r="F31" s="214"/>
       <c r="G31" s="214"/>
       <c r="H31" s="214" t="s">
@@ -23077,82 +23077,82 @@
       </c>
       <c r="J31" s="214"/>
       <c r="K31" s="214"/>
-      <c r="L31" s="376"/>
-      <c r="M31" s="376"/>
-      <c r="N31" s="376"/>
-      <c r="O31" s="377"/>
+      <c r="L31" s="381"/>
+      <c r="M31" s="381"/>
+      <c r="N31" s="381"/>
+      <c r="O31" s="382"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="441"/>
+      <c r="D32" s="398"/>
+      <c r="E32" s="399"/>
       <c r="F32" s="214"/>
       <c r="G32" s="214"/>
       <c r="H32" s="214"/>
       <c r="I32" s="28"/>
       <c r="J32" s="214"/>
       <c r="K32" s="214"/>
-      <c r="L32" s="376"/>
-      <c r="M32" s="376"/>
-      <c r="N32" s="376"/>
-      <c r="O32" s="377"/>
+      <c r="L32" s="381"/>
+      <c r="M32" s="381"/>
+      <c r="N32" s="381"/>
+      <c r="O32" s="382"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="440"/>
-      <c r="E33" s="441"/>
+      <c r="D33" s="398"/>
+      <c r="E33" s="399"/>
       <c r="F33" s="214"/>
       <c r="G33" s="214"/>
       <c r="H33" s="214"/>
       <c r="I33" s="28"/>
       <c r="J33" s="214"/>
       <c r="K33" s="214"/>
-      <c r="L33" s="376"/>
-      <c r="M33" s="376"/>
-      <c r="N33" s="376"/>
-      <c r="O33" s="377"/>
+      <c r="L33" s="381"/>
+      <c r="M33" s="381"/>
+      <c r="N33" s="381"/>
+      <c r="O33" s="382"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="440"/>
-      <c r="E34" s="441"/>
+      <c r="D34" s="398"/>
+      <c r="E34" s="399"/>
       <c r="F34" s="214"/>
       <c r="G34" s="214"/>
       <c r="H34" s="214"/>
       <c r="I34" s="28"/>
       <c r="J34" s="214"/>
       <c r="K34" s="214"/>
-      <c r="L34" s="376"/>
-      <c r="M34" s="376"/>
-      <c r="N34" s="376"/>
-      <c r="O34" s="377"/>
+      <c r="L34" s="381"/>
+      <c r="M34" s="381"/>
+      <c r="N34" s="381"/>
+      <c r="O34" s="382"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="381"/>
-      <c r="E35" s="382"/>
+      <c r="D35" s="383"/>
+      <c r="E35" s="384"/>
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
       <c r="I35" s="31"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="383"/>
-      <c r="M35" s="383"/>
-      <c r="N35" s="383"/>
-      <c r="O35" s="384"/>
+      <c r="L35" s="385"/>
+      <c r="M35" s="385"/>
+      <c r="N35" s="385"/>
+      <c r="O35" s="386"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -23239,10 +23239,10 @@
       <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="391" t="s">
+      <c r="D40" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="392"/>
+      <c r="E40" s="388"/>
       <c r="F40" s="25" t="s">
         <v>31</v>
       </c>
@@ -23261,12 +23261,12 @@
       <c r="K40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="393" t="s">
+      <c r="L40" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="393"/>
-      <c r="N40" s="393"/>
-      <c r="O40" s="394"/>
+      <c r="M40" s="389"/>
+      <c r="N40" s="389"/>
+      <c r="O40" s="390"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23277,10 +23277,10 @@
       <c r="C41" s="257" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="426" t="s">
+      <c r="D41" s="400" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="427"/>
+      <c r="E41" s="401"/>
       <c r="F41" s="258"/>
       <c r="G41" s="258"/>
       <c r="H41" s="258" t="s">
@@ -23291,12 +23291,12 @@
       </c>
       <c r="J41" s="258"/>
       <c r="K41" s="258"/>
-      <c r="L41" s="424" t="s">
+      <c r="L41" s="402" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="424"/>
-      <c r="N41" s="424"/>
-      <c r="O41" s="425"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="402"/>
+      <c r="O41" s="403"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23307,10 +23307,10 @@
       <c r="C42" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="426" t="s">
+      <c r="D42" s="400" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="427"/>
+      <c r="E42" s="401"/>
       <c r="F42" s="258"/>
       <c r="G42" s="258"/>
       <c r="H42" s="258" t="s">
@@ -23321,10 +23321,10 @@
       </c>
       <c r="J42" s="258"/>
       <c r="K42" s="258"/>
-      <c r="L42" s="424"/>
-      <c r="M42" s="424"/>
-      <c r="N42" s="424"/>
-      <c r="O42" s="425"/>
+      <c r="L42" s="402"/>
+      <c r="M42" s="402"/>
+      <c r="N42" s="402"/>
+      <c r="O42" s="403"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23335,10 +23335,10 @@
       <c r="C43" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="385" t="s">
+      <c r="D43" s="379" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="386"/>
+      <c r="E43" s="380"/>
       <c r="F43" s="214"/>
       <c r="G43" s="214"/>
       <c r="H43" s="214" t="s">
@@ -23349,10 +23349,10 @@
       </c>
       <c r="J43" s="214"/>
       <c r="K43" s="214"/>
-      <c r="L43" s="376"/>
-      <c r="M43" s="376"/>
-      <c r="N43" s="376"/>
-      <c r="O43" s="377"/>
+      <c r="L43" s="381"/>
+      <c r="M43" s="381"/>
+      <c r="N43" s="381"/>
+      <c r="O43" s="382"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23363,10 +23363,10 @@
       <c r="C44" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="385" t="s">
+      <c r="D44" s="379" t="s">
         <v>224</v>
       </c>
-      <c r="E44" s="386"/>
+      <c r="E44" s="380"/>
       <c r="F44" s="214"/>
       <c r="G44" s="214"/>
       <c r="H44" s="214" t="s">
@@ -23377,10 +23377,10 @@
       </c>
       <c r="J44" s="214"/>
       <c r="K44" s="214"/>
-      <c r="L44" s="376"/>
-      <c r="M44" s="376"/>
-      <c r="N44" s="376"/>
-      <c r="O44" s="377"/>
+      <c r="L44" s="381"/>
+      <c r="M44" s="381"/>
+      <c r="N44" s="381"/>
+      <c r="O44" s="382"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23391,10 +23391,10 @@
       <c r="C45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="385" t="s">
+      <c r="D45" s="379" t="s">
         <v>225</v>
       </c>
-      <c r="E45" s="386"/>
+      <c r="E45" s="380"/>
       <c r="F45" s="214"/>
       <c r="G45" s="214"/>
       <c r="H45" s="214" t="s">
@@ -23407,12 +23407,12 @@
       <c r="K45" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="376" t="s">
+      <c r="L45" s="381" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="376"/>
-      <c r="N45" s="376"/>
-      <c r="O45" s="377"/>
+      <c r="M45" s="381"/>
+      <c r="N45" s="381"/>
+      <c r="O45" s="382"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23437,28 +23437,28 @@
       </c>
       <c r="J46" s="237"/>
       <c r="K46" s="237"/>
-      <c r="L46" s="376"/>
-      <c r="M46" s="376"/>
-      <c r="N46" s="376"/>
-      <c r="O46" s="377"/>
+      <c r="L46" s="381"/>
+      <c r="M46" s="381"/>
+      <c r="N46" s="381"/>
+      <c r="O46" s="382"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="381"/>
-      <c r="E47" s="382"/>
+      <c r="D47" s="383"/>
+      <c r="E47" s="384"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
       <c r="H47" s="215"/>
       <c r="I47" s="31"/>
       <c r="J47" s="215"/>
       <c r="K47" s="215"/>
-      <c r="L47" s="383"/>
-      <c r="M47" s="383"/>
-      <c r="N47" s="383"/>
-      <c r="O47" s="384"/>
+      <c r="L47" s="385"/>
+      <c r="M47" s="385"/>
+      <c r="N47" s="385"/>
+      <c r="O47" s="386"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -23545,10 +23545,10 @@
       <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="391" t="s">
+      <c r="D52" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="392"/>
+      <c r="E52" s="388"/>
       <c r="F52" s="25" t="s">
         <v>31</v>
       </c>
@@ -23567,12 +23567,12 @@
       <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="393" t="s">
+      <c r="L52" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="393"/>
-      <c r="N52" s="393"/>
-      <c r="O52" s="394"/>
+      <c r="M52" s="389"/>
+      <c r="N52" s="389"/>
+      <c r="O52" s="390"/>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23583,10 +23583,10 @@
       <c r="C53" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="385" t="s">
+      <c r="D53" s="379" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="386"/>
+      <c r="E53" s="380"/>
       <c r="F53" s="214"/>
       <c r="G53" s="214"/>
       <c r="H53" s="214" t="s">
@@ -23599,12 +23599,12 @@
       <c r="K53" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="376" t="s">
+      <c r="L53" s="381" t="s">
         <v>327</v>
       </c>
-      <c r="M53" s="376"/>
-      <c r="N53" s="376"/>
-      <c r="O53" s="377"/>
+      <c r="M53" s="381"/>
+      <c r="N53" s="381"/>
+      <c r="O53" s="382"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23629,12 +23629,12 @@
       </c>
       <c r="J54" s="214"/>
       <c r="K54" s="214"/>
-      <c r="L54" s="378" t="s">
+      <c r="L54" s="419" t="s">
         <v>244</v>
       </c>
-      <c r="M54" s="379"/>
-      <c r="N54" s="379"/>
-      <c r="O54" s="380"/>
+      <c r="M54" s="420"/>
+      <c r="N54" s="420"/>
+      <c r="O54" s="421"/>
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23659,12 +23659,12 @@
       </c>
       <c r="J55" s="214"/>
       <c r="K55" s="214"/>
-      <c r="L55" s="399" t="s">
+      <c r="L55" s="425" t="s">
         <v>291</v>
       </c>
-      <c r="M55" s="400"/>
-      <c r="N55" s="400"/>
-      <c r="O55" s="401"/>
+      <c r="M55" s="426"/>
+      <c r="N55" s="426"/>
+      <c r="O55" s="427"/>
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23687,12 +23687,12 @@
       </c>
       <c r="J56" s="214"/>
       <c r="K56" s="214"/>
-      <c r="L56" s="418" t="s">
+      <c r="L56" s="416" t="s">
         <v>241</v>
       </c>
-      <c r="M56" s="419"/>
-      <c r="N56" s="419"/>
-      <c r="O56" s="420"/>
+      <c r="M56" s="417"/>
+      <c r="N56" s="417"/>
+      <c r="O56" s="418"/>
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23715,10 +23715,10 @@
       </c>
       <c r="J57" s="214"/>
       <c r="K57" s="214"/>
-      <c r="L57" s="421"/>
-      <c r="M57" s="422"/>
-      <c r="N57" s="422"/>
-      <c r="O57" s="423"/>
+      <c r="L57" s="422"/>
+      <c r="M57" s="423"/>
+      <c r="N57" s="423"/>
+      <c r="O57" s="424"/>
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -23729,10 +23729,10 @@
       <c r="C58" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="395" t="s">
+      <c r="D58" s="391" t="s">
         <v>226</v>
       </c>
-      <c r="E58" s="396"/>
+      <c r="E58" s="392"/>
       <c r="F58" s="214"/>
       <c r="G58" s="214"/>
       <c r="H58" s="214" t="s">
@@ -23743,12 +23743,12 @@
       </c>
       <c r="J58" s="214"/>
       <c r="K58" s="214"/>
-      <c r="L58" s="390" t="s">
+      <c r="L58" s="393" t="s">
         <v>407</v>
       </c>
-      <c r="M58" s="376"/>
-      <c r="N58" s="376"/>
-      <c r="O58" s="377"/>
+      <c r="M58" s="381"/>
+      <c r="N58" s="381"/>
+      <c r="O58" s="382"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -23759,10 +23759,10 @@
       <c r="C59" s="262" t="s">
         <v>435</v>
       </c>
-      <c r="D59" s="374" t="s">
+      <c r="D59" s="365" t="s">
         <v>437</v>
       </c>
-      <c r="E59" s="375"/>
+      <c r="E59" s="366"/>
       <c r="F59" s="265"/>
       <c r="G59" s="265"/>
       <c r="H59" s="265" t="s">
@@ -23773,10 +23773,10 @@
       </c>
       <c r="J59" s="265"/>
       <c r="K59" s="265"/>
-      <c r="L59" s="368"/>
-      <c r="M59" s="368"/>
-      <c r="N59" s="368"/>
-      <c r="O59" s="369"/>
+      <c r="L59" s="367"/>
+      <c r="M59" s="367"/>
+      <c r="N59" s="367"/>
+      <c r="O59" s="368"/>
       <c r="P59" s="267"/>
     </row>
     <row r="60" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -23787,10 +23787,10 @@
       <c r="C60" s="262" t="s">
         <v>436</v>
       </c>
-      <c r="D60" s="374" t="s">
+      <c r="D60" s="365" t="s">
         <v>438</v>
       </c>
-      <c r="E60" s="375"/>
+      <c r="E60" s="366"/>
       <c r="F60" s="265"/>
       <c r="G60" s="265"/>
       <c r="H60" s="265" t="s">
@@ -23801,10 +23801,10 @@
       </c>
       <c r="J60" s="265"/>
       <c r="K60" s="265"/>
-      <c r="L60" s="368"/>
-      <c r="M60" s="368"/>
-      <c r="N60" s="368"/>
-      <c r="O60" s="369"/>
+      <c r="L60" s="367"/>
+      <c r="M60" s="367"/>
+      <c r="N60" s="367"/>
+      <c r="O60" s="368"/>
       <c r="P60" s="267"/>
     </row>
     <row r="61" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23815,10 +23815,10 @@
       <c r="C61" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="385" t="s">
+      <c r="D61" s="379" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="386"/>
+      <c r="E61" s="380"/>
       <c r="F61" s="214"/>
       <c r="G61" s="214"/>
       <c r="H61" s="214" t="s">
@@ -23831,30 +23831,30 @@
       <c r="K61" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L61" s="376" t="s">
+      <c r="L61" s="381" t="s">
         <v>268</v>
       </c>
-      <c r="M61" s="376"/>
-      <c r="N61" s="376"/>
-      <c r="O61" s="377"/>
+      <c r="M61" s="381"/>
+      <c r="N61" s="381"/>
+      <c r="O61" s="382"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="29"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="381"/>
-      <c r="E62" s="382"/>
+      <c r="D62" s="383"/>
+      <c r="E62" s="384"/>
       <c r="F62" s="215"/>
       <c r="G62" s="215"/>
       <c r="H62" s="215"/>
       <c r="I62" s="31"/>
       <c r="J62" s="215"/>
       <c r="K62" s="215"/>
-      <c r="L62" s="383"/>
-      <c r="M62" s="383"/>
-      <c r="N62" s="383"/>
-      <c r="O62" s="384"/>
+      <c r="L62" s="385"/>
+      <c r="M62" s="385"/>
+      <c r="N62" s="385"/>
+      <c r="O62" s="386"/>
       <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -23941,10 +23941,10 @@
       <c r="C67" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="391" t="s">
+      <c r="D67" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="392"/>
+      <c r="E67" s="388"/>
       <c r="F67" s="25" t="s">
         <v>31</v>
       </c>
@@ -23963,12 +23963,12 @@
       <c r="K67" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L67" s="393" t="s">
+      <c r="L67" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M67" s="393"/>
-      <c r="N67" s="393"/>
-      <c r="O67" s="394"/>
+      <c r="M67" s="389"/>
+      <c r="N67" s="389"/>
+      <c r="O67" s="390"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23979,10 +23979,10 @@
       <c r="C68" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D68" s="385" t="s">
+      <c r="D68" s="379" t="s">
         <v>265</v>
       </c>
-      <c r="E68" s="386"/>
+      <c r="E68" s="380"/>
       <c r="F68" s="214"/>
       <c r="G68" s="214"/>
       <c r="H68" s="214" t="s">
@@ -23995,12 +23995,12 @@
       <c r="K68" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L68" s="376" t="s">
+      <c r="L68" s="381" t="s">
         <v>266</v>
       </c>
-      <c r="M68" s="376"/>
-      <c r="N68" s="376"/>
-      <c r="O68" s="377"/>
+      <c r="M68" s="381"/>
+      <c r="N68" s="381"/>
+      <c r="O68" s="382"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24011,10 +24011,10 @@
       <c r="C69" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="385" t="s">
+      <c r="D69" s="379" t="s">
         <v>246</v>
       </c>
-      <c r="E69" s="386"/>
+      <c r="E69" s="380"/>
       <c r="F69" s="214"/>
       <c r="G69" s="214"/>
       <c r="H69" s="214" t="s">
@@ -24025,10 +24025,10 @@
       </c>
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
-      <c r="L69" s="376"/>
-      <c r="M69" s="376"/>
-      <c r="N69" s="376"/>
-      <c r="O69" s="377"/>
+      <c r="L69" s="381"/>
+      <c r="M69" s="381"/>
+      <c r="N69" s="381"/>
+      <c r="O69" s="382"/>
       <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24039,10 +24039,10 @@
       <c r="C70" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="385" t="s">
+      <c r="D70" s="379" t="s">
         <v>247</v>
       </c>
-      <c r="E70" s="386"/>
+      <c r="E70" s="380"/>
       <c r="F70" s="214"/>
       <c r="G70" s="214"/>
       <c r="H70" s="214" t="s">
@@ -24053,10 +24053,10 @@
       </c>
       <c r="J70" s="214"/>
       <c r="K70" s="214"/>
-      <c r="L70" s="376"/>
-      <c r="M70" s="376"/>
-      <c r="N70" s="376"/>
-      <c r="O70" s="377"/>
+      <c r="L70" s="381"/>
+      <c r="M70" s="381"/>
+      <c r="N70" s="381"/>
+      <c r="O70" s="382"/>
       <c r="P70" s="10"/>
     </row>
     <row r="71" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24079,12 +24079,12 @@
       </c>
       <c r="J71" s="214"/>
       <c r="K71" s="214"/>
-      <c r="L71" s="418" t="s">
+      <c r="L71" s="416" t="s">
         <v>241</v>
       </c>
-      <c r="M71" s="419"/>
-      <c r="N71" s="419"/>
-      <c r="O71" s="420"/>
+      <c r="M71" s="417"/>
+      <c r="N71" s="417"/>
+      <c r="O71" s="418"/>
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24107,10 +24107,10 @@
       </c>
       <c r="J72" s="214"/>
       <c r="K72" s="214"/>
-      <c r="L72" s="421"/>
-      <c r="M72" s="422"/>
-      <c r="N72" s="422"/>
-      <c r="O72" s="423"/>
+      <c r="L72" s="422"/>
+      <c r="M72" s="423"/>
+      <c r="N72" s="423"/>
+      <c r="O72" s="424"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24121,10 +24121,10 @@
       <c r="C73" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="D73" s="385" t="s">
+      <c r="D73" s="379" t="s">
         <v>248</v>
       </c>
-      <c r="E73" s="386"/>
+      <c r="E73" s="380"/>
       <c r="F73" s="214"/>
       <c r="G73" s="214"/>
       <c r="H73" s="214"/>
@@ -24135,28 +24135,28 @@
         <v>255</v>
       </c>
       <c r="K73" s="214"/>
-      <c r="L73" s="390"/>
-      <c r="M73" s="376"/>
-      <c r="N73" s="376"/>
-      <c r="O73" s="377"/>
+      <c r="L73" s="393"/>
+      <c r="M73" s="381"/>
+      <c r="N73" s="381"/>
+      <c r="O73" s="382"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="29"/>
       <c r="C74" s="30"/>
-      <c r="D74" s="381"/>
-      <c r="E74" s="382"/>
+      <c r="D74" s="383"/>
+      <c r="E74" s="384"/>
       <c r="F74" s="215"/>
       <c r="G74" s="215"/>
       <c r="H74" s="215"/>
       <c r="I74" s="31"/>
       <c r="J74" s="215"/>
       <c r="K74" s="215"/>
-      <c r="L74" s="383"/>
-      <c r="M74" s="383"/>
-      <c r="N74" s="383"/>
-      <c r="O74" s="384"/>
+      <c r="L74" s="385"/>
+      <c r="M74" s="385"/>
+      <c r="N74" s="385"/>
+      <c r="O74" s="386"/>
       <c r="P74" s="10"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -24243,10 +24243,10 @@
       <c r="C79" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="391" t="s">
+      <c r="D79" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="392"/>
+      <c r="E79" s="388"/>
       <c r="F79" s="25" t="s">
         <v>31</v>
       </c>
@@ -24265,12 +24265,12 @@
       <c r="K79" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L79" s="393" t="s">
+      <c r="L79" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M79" s="393"/>
-      <c r="N79" s="393"/>
-      <c r="O79" s="394"/>
+      <c r="M79" s="389"/>
+      <c r="N79" s="389"/>
+      <c r="O79" s="390"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24281,10 +24281,10 @@
       <c r="C80" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D80" s="385" t="s">
+      <c r="D80" s="379" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="386"/>
+      <c r="E80" s="380"/>
       <c r="F80" s="214"/>
       <c r="G80" s="214"/>
       <c r="H80" s="214" t="s">
@@ -24297,12 +24297,12 @@
       <c r="K80" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L80" s="376" t="s">
+      <c r="L80" s="381" t="s">
         <v>327</v>
       </c>
-      <c r="M80" s="376"/>
-      <c r="N80" s="376"/>
-      <c r="O80" s="377"/>
+      <c r="M80" s="381"/>
+      <c r="N80" s="381"/>
+      <c r="O80" s="382"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24313,10 +24313,10 @@
       <c r="C81" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D81" s="385" t="s">
+      <c r="D81" s="379" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="386"/>
+      <c r="E81" s="380"/>
       <c r="F81" s="214"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214" t="s">
@@ -24327,10 +24327,10 @@
       </c>
       <c r="J81" s="214"/>
       <c r="K81" s="214"/>
-      <c r="L81" s="376"/>
-      <c r="M81" s="376"/>
-      <c r="N81" s="376"/>
-      <c r="O81" s="377"/>
+      <c r="L81" s="381"/>
+      <c r="M81" s="381"/>
+      <c r="N81" s="381"/>
+      <c r="O81" s="382"/>
       <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24341,10 +24341,10 @@
       <c r="C82" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D82" s="385" t="s">
+      <c r="D82" s="379" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="386"/>
+      <c r="E82" s="380"/>
       <c r="F82" s="214"/>
       <c r="G82" s="214"/>
       <c r="H82" s="214" t="s">
@@ -24357,12 +24357,12 @@
       <c r="K82" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L82" s="418" t="s">
+      <c r="L82" s="416" t="s">
         <v>408</v>
       </c>
-      <c r="M82" s="419"/>
-      <c r="N82" s="419"/>
-      <c r="O82" s="420"/>
+      <c r="M82" s="417"/>
+      <c r="N82" s="417"/>
+      <c r="O82" s="418"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24373,10 +24373,10 @@
       <c r="C83" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D83" s="385" t="s">
+      <c r="D83" s="379" t="s">
         <v>259</v>
       </c>
-      <c r="E83" s="386"/>
+      <c r="E83" s="380"/>
       <c r="F83" s="214"/>
       <c r="G83" s="214"/>
       <c r="H83" s="214" t="s">
@@ -24387,10 +24387,10 @@
       </c>
       <c r="J83" s="214"/>
       <c r="K83" s="241"/>
-      <c r="L83" s="376"/>
-      <c r="M83" s="376"/>
-      <c r="N83" s="376"/>
-      <c r="O83" s="377"/>
+      <c r="L83" s="381"/>
+      <c r="M83" s="381"/>
+      <c r="N83" s="381"/>
+      <c r="O83" s="382"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24401,10 +24401,10 @@
       <c r="C84" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="385" t="s">
+      <c r="D84" s="379" t="s">
         <v>260</v>
       </c>
-      <c r="E84" s="386"/>
+      <c r="E84" s="380"/>
       <c r="F84" s="214"/>
       <c r="G84" s="214"/>
       <c r="H84" s="214" t="s">
@@ -24415,12 +24415,12 @@
       </c>
       <c r="J84" s="214"/>
       <c r="K84" s="241"/>
-      <c r="L84" s="376" t="s">
+      <c r="L84" s="381" t="s">
         <v>358</v>
       </c>
-      <c r="M84" s="376"/>
-      <c r="N84" s="376"/>
-      <c r="O84" s="377"/>
+      <c r="M84" s="381"/>
+      <c r="N84" s="381"/>
+      <c r="O84" s="382"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24431,10 +24431,10 @@
       <c r="C85" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="385" t="s">
+      <c r="D85" s="379" t="s">
         <v>261</v>
       </c>
-      <c r="E85" s="386"/>
+      <c r="E85" s="380"/>
       <c r="F85" s="214"/>
       <c r="G85" s="214"/>
       <c r="H85" s="214" t="s">
@@ -24445,12 +24445,12 @@
       </c>
       <c r="J85" s="214"/>
       <c r="K85" s="241"/>
-      <c r="L85" s="376" t="s">
+      <c r="L85" s="381" t="s">
         <v>252</v>
       </c>
-      <c r="M85" s="376"/>
-      <c r="N85" s="376"/>
-      <c r="O85" s="377"/>
+      <c r="M85" s="381"/>
+      <c r="N85" s="381"/>
+      <c r="O85" s="382"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24461,10 +24461,10 @@
       <c r="C86" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="D86" s="385" t="s">
+      <c r="D86" s="379" t="s">
         <v>262</v>
       </c>
-      <c r="E86" s="386"/>
+      <c r="E86" s="380"/>
       <c r="F86" s="214"/>
       <c r="G86" s="214"/>
       <c r="H86" s="214" t="s">
@@ -24477,48 +24477,48 @@
       <c r="K86" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L86" s="415" t="s">
+      <c r="L86" s="428" t="s">
         <v>268</v>
       </c>
-      <c r="M86" s="416"/>
-      <c r="N86" s="416"/>
-      <c r="O86" s="417"/>
+      <c r="M86" s="429"/>
+      <c r="N86" s="429"/>
+      <c r="O86" s="430"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
-      <c r="D87" s="385"/>
-      <c r="E87" s="386"/>
+      <c r="D87" s="379"/>
+      <c r="E87" s="380"/>
       <c r="F87" s="214"/>
       <c r="G87" s="214"/>
       <c r="H87" s="214"/>
       <c r="I87" s="28"/>
       <c r="J87" s="214"/>
       <c r="K87" s="214"/>
-      <c r="L87" s="376"/>
-      <c r="M87" s="376"/>
-      <c r="N87" s="376"/>
-      <c r="O87" s="377"/>
+      <c r="L87" s="381"/>
+      <c r="M87" s="381"/>
+      <c r="N87" s="381"/>
+      <c r="O87" s="382"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="29"/>
       <c r="C88" s="30"/>
-      <c r="D88" s="381"/>
-      <c r="E88" s="382"/>
+      <c r="D88" s="383"/>
+      <c r="E88" s="384"/>
       <c r="F88" s="215"/>
       <c r="G88" s="215"/>
       <c r="H88" s="215"/>
       <c r="I88" s="31"/>
       <c r="J88" s="215"/>
       <c r="K88" s="215"/>
-      <c r="L88" s="383"/>
-      <c r="M88" s="383"/>
-      <c r="N88" s="383"/>
-      <c r="O88" s="384"/>
+      <c r="L88" s="385"/>
+      <c r="M88" s="385"/>
+      <c r="N88" s="385"/>
+      <c r="O88" s="386"/>
       <c r="P88" s="10"/>
     </row>
     <row r="89" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24605,10 +24605,10 @@
       <c r="C93" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="391" t="s">
+      <c r="D93" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="392"/>
+      <c r="E93" s="388"/>
       <c r="F93" s="25" t="s">
         <v>31</v>
       </c>
@@ -24627,12 +24627,12 @@
       <c r="K93" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L93" s="393" t="s">
+      <c r="L93" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M93" s="393"/>
-      <c r="N93" s="393"/>
-      <c r="O93" s="394"/>
+      <c r="M93" s="389"/>
+      <c r="N93" s="389"/>
+      <c r="O93" s="390"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24643,10 +24643,10 @@
       <c r="C94" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D94" s="385" t="s">
+      <c r="D94" s="379" t="s">
         <v>267</v>
       </c>
-      <c r="E94" s="386"/>
+      <c r="E94" s="380"/>
       <c r="F94" s="214"/>
       <c r="G94" s="214"/>
       <c r="H94" s="214" t="s">
@@ -24659,12 +24659,12 @@
       <c r="K94" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L94" s="376" t="s">
+      <c r="L94" s="381" t="s">
         <v>263</v>
       </c>
-      <c r="M94" s="376"/>
-      <c r="N94" s="376"/>
-      <c r="O94" s="377"/>
+      <c r="M94" s="381"/>
+      <c r="N94" s="381"/>
+      <c r="O94" s="382"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24675,10 +24675,10 @@
       <c r="C95" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D95" s="385" t="s">
+      <c r="D95" s="379" t="s">
         <v>262</v>
       </c>
-      <c r="E95" s="386"/>
+      <c r="E95" s="380"/>
       <c r="F95" s="214"/>
       <c r="G95" s="214"/>
       <c r="H95" s="214" t="s">
@@ -24691,12 +24691,12 @@
       <c r="K95" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L95" s="415" t="s">
+      <c r="L95" s="428" t="s">
         <v>268</v>
       </c>
-      <c r="M95" s="416"/>
-      <c r="N95" s="416"/>
-      <c r="O95" s="417"/>
+      <c r="M95" s="429"/>
+      <c r="N95" s="429"/>
+      <c r="O95" s="430"/>
       <c r="P95" s="10"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24707,10 +24707,10 @@
       <c r="C96" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D96" s="385" t="s">
+      <c r="D96" s="379" t="s">
         <v>269</v>
       </c>
-      <c r="E96" s="386"/>
+      <c r="E96" s="380"/>
       <c r="F96" s="214"/>
       <c r="G96" s="214"/>
       <c r="H96" s="214" t="s">
@@ -24721,10 +24721,10 @@
       </c>
       <c r="J96" s="214"/>
       <c r="K96" s="214"/>
-      <c r="L96" s="418"/>
-      <c r="M96" s="419"/>
-      <c r="N96" s="419"/>
-      <c r="O96" s="420"/>
+      <c r="L96" s="416"/>
+      <c r="M96" s="417"/>
+      <c r="N96" s="417"/>
+      <c r="O96" s="418"/>
       <c r="P96" s="10"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24735,10 +24735,10 @@
       <c r="C97" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D97" s="385" t="s">
+      <c r="D97" s="379" t="s">
         <v>270</v>
       </c>
-      <c r="E97" s="386"/>
+      <c r="E97" s="380"/>
       <c r="F97" s="214"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214" t="s">
@@ -24749,10 +24749,10 @@
       </c>
       <c r="J97" s="214"/>
       <c r="K97" s="241"/>
-      <c r="L97" s="376"/>
-      <c r="M97" s="376"/>
-      <c r="N97" s="376"/>
-      <c r="O97" s="377"/>
+      <c r="L97" s="381"/>
+      <c r="M97" s="381"/>
+      <c r="N97" s="381"/>
+      <c r="O97" s="382"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24763,10 +24763,10 @@
       <c r="C98" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D98" s="385" t="s">
+      <c r="D98" s="379" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="386"/>
+      <c r="E98" s="380"/>
       <c r="F98" s="214"/>
       <c r="G98" s="214"/>
       <c r="H98" s="214"/>
@@ -24777,28 +24777,28 @@
         <v>255</v>
       </c>
       <c r="K98" s="241"/>
-      <c r="L98" s="376"/>
-      <c r="M98" s="376"/>
-      <c r="N98" s="376"/>
-      <c r="O98" s="377"/>
+      <c r="L98" s="381"/>
+      <c r="M98" s="381"/>
+      <c r="N98" s="381"/>
+      <c r="O98" s="382"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="29"/>
       <c r="C99" s="30"/>
-      <c r="D99" s="413"/>
-      <c r="E99" s="414"/>
+      <c r="D99" s="394"/>
+      <c r="E99" s="395"/>
       <c r="F99" s="215"/>
       <c r="G99" s="215"/>
       <c r="H99" s="215"/>
       <c r="I99" s="31"/>
       <c r="J99" s="215"/>
       <c r="K99" s="215"/>
-      <c r="L99" s="383"/>
-      <c r="M99" s="383"/>
-      <c r="N99" s="383"/>
-      <c r="O99" s="384"/>
+      <c r="L99" s="385"/>
+      <c r="M99" s="385"/>
+      <c r="N99" s="385"/>
+      <c r="O99" s="386"/>
       <c r="P99" s="10"/>
     </row>
     <row r="100" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24885,10 +24885,10 @@
       <c r="C104" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="391" t="s">
+      <c r="D104" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E104" s="392"/>
+      <c r="E104" s="388"/>
       <c r="F104" s="25" t="s">
         <v>31</v>
       </c>
@@ -24907,12 +24907,12 @@
       <c r="K104" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L104" s="393" t="s">
+      <c r="L104" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M104" s="393"/>
-      <c r="N104" s="393"/>
-      <c r="O104" s="394"/>
+      <c r="M104" s="389"/>
+      <c r="N104" s="389"/>
+      <c r="O104" s="390"/>
       <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24923,10 +24923,10 @@
       <c r="C105" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D105" s="385" t="s">
+      <c r="D105" s="379" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="386"/>
+      <c r="E105" s="380"/>
       <c r="F105" s="214"/>
       <c r="G105" s="214"/>
       <c r="H105" s="214" t="s">
@@ -24939,12 +24939,12 @@
       <c r="K105" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L105" s="376" t="s">
+      <c r="L105" s="381" t="s">
         <v>327</v>
       </c>
-      <c r="M105" s="376"/>
-      <c r="N105" s="376"/>
-      <c r="O105" s="377"/>
+      <c r="M105" s="381"/>
+      <c r="N105" s="381"/>
+      <c r="O105" s="382"/>
       <c r="P105" s="10"/>
     </row>
     <row r="106" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -24955,10 +24955,10 @@
       <c r="C106" s="262" t="s">
         <v>450</v>
       </c>
-      <c r="D106" s="374" t="s">
+      <c r="D106" s="365" t="s">
         <v>452</v>
       </c>
-      <c r="E106" s="375"/>
+      <c r="E106" s="366"/>
       <c r="F106" s="265"/>
       <c r="G106" s="265"/>
       <c r="H106" s="265" t="s">
@@ -24969,10 +24969,10 @@
       </c>
       <c r="J106" s="265"/>
       <c r="K106" s="265"/>
-      <c r="L106" s="368"/>
-      <c r="M106" s="368"/>
-      <c r="N106" s="368"/>
-      <c r="O106" s="369"/>
+      <c r="L106" s="367"/>
+      <c r="M106" s="367"/>
+      <c r="N106" s="367"/>
+      <c r="O106" s="368"/>
       <c r="P106" s="267"/>
     </row>
     <row r="107" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -24983,10 +24983,10 @@
       <c r="C107" s="262" t="s">
         <v>451</v>
       </c>
-      <c r="D107" s="374" t="s">
+      <c r="D107" s="365" t="s">
         <v>404</v>
       </c>
-      <c r="E107" s="375"/>
+      <c r="E107" s="366"/>
       <c r="F107" s="265"/>
       <c r="G107" s="265"/>
       <c r="H107" s="265" t="s">
@@ -24997,10 +24997,10 @@
       </c>
       <c r="J107" s="265"/>
       <c r="K107" s="265"/>
-      <c r="L107" s="368"/>
-      <c r="M107" s="368"/>
-      <c r="N107" s="368"/>
-      <c r="O107" s="369"/>
+      <c r="L107" s="367"/>
+      <c r="M107" s="367"/>
+      <c r="N107" s="367"/>
+      <c r="O107" s="368"/>
       <c r="P107" s="267"/>
     </row>
     <row r="108" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25025,12 +25025,12 @@
       </c>
       <c r="J108" s="283"/>
       <c r="K108" s="283"/>
-      <c r="L108" s="444" t="s">
+      <c r="L108" s="369" t="s">
         <v>268</v>
       </c>
-      <c r="M108" s="445"/>
-      <c r="N108" s="445"/>
-      <c r="O108" s="446"/>
+      <c r="M108" s="370"/>
+      <c r="N108" s="370"/>
+      <c r="O108" s="371"/>
       <c r="P108" s="267"/>
     </row>
     <row r="109" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25053,10 +25053,10 @@
       </c>
       <c r="J109" s="283"/>
       <c r="K109" s="283"/>
-      <c r="L109" s="444"/>
-      <c r="M109" s="445"/>
-      <c r="N109" s="445"/>
-      <c r="O109" s="446"/>
+      <c r="L109" s="369"/>
+      <c r="M109" s="370"/>
+      <c r="N109" s="370"/>
+      <c r="O109" s="371"/>
       <c r="P109" s="267"/>
     </row>
     <row r="110" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25067,20 +25067,20 @@
       <c r="C110" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="D110" s="381"/>
-      <c r="E110" s="382"/>
+      <c r="D110" s="383"/>
+      <c r="E110" s="384"/>
       <c r="F110" s="215"/>
       <c r="G110" s="215"/>
       <c r="H110" s="215"/>
       <c r="I110" s="31"/>
       <c r="J110" s="215"/>
       <c r="K110" s="215"/>
-      <c r="L110" s="383" t="s">
+      <c r="L110" s="385" t="s">
         <v>448</v>
       </c>
-      <c r="M110" s="383"/>
-      <c r="N110" s="383"/>
-      <c r="O110" s="384"/>
+      <c r="M110" s="385"/>
+      <c r="N110" s="385"/>
+      <c r="O110" s="386"/>
       <c r="P110" s="10"/>
     </row>
     <row r="111" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25167,10 +25167,10 @@
       <c r="C115" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D115" s="391" t="s">
+      <c r="D115" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="392"/>
+      <c r="E115" s="388"/>
       <c r="F115" s="25" t="s">
         <v>31</v>
       </c>
@@ -25189,12 +25189,12 @@
       <c r="K115" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L115" s="393" t="s">
+      <c r="L115" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M115" s="393"/>
-      <c r="N115" s="393"/>
-      <c r="O115" s="394"/>
+      <c r="M115" s="389"/>
+      <c r="N115" s="389"/>
+      <c r="O115" s="390"/>
       <c r="P115" s="10"/>
     </row>
     <row r="116" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25205,10 +25205,10 @@
       <c r="C116" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D116" s="385" t="s">
+      <c r="D116" s="379" t="s">
         <v>267</v>
       </c>
-      <c r="E116" s="386"/>
+      <c r="E116" s="380"/>
       <c r="F116" s="214"/>
       <c r="G116" s="214"/>
       <c r="H116" s="214" t="s">
@@ -25221,12 +25221,12 @@
       <c r="K116" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L116" s="376" t="s">
+      <c r="L116" s="381" t="s">
         <v>263</v>
       </c>
-      <c r="M116" s="376"/>
-      <c r="N116" s="376"/>
-      <c r="O116" s="377"/>
+      <c r="M116" s="381"/>
+      <c r="N116" s="381"/>
+      <c r="O116" s="382"/>
       <c r="P116" s="10"/>
     </row>
     <row r="117" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25237,10 +25237,10 @@
       <c r="C117" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D117" s="385" t="s">
+      <c r="D117" s="379" t="s">
         <v>243</v>
       </c>
-      <c r="E117" s="386"/>
+      <c r="E117" s="380"/>
       <c r="F117" s="214"/>
       <c r="G117" s="214"/>
       <c r="H117" s="214" t="s">
@@ -25251,12 +25251,12 @@
       </c>
       <c r="J117" s="214"/>
       <c r="K117" s="214"/>
-      <c r="L117" s="376" t="s">
+      <c r="L117" s="381" t="s">
         <v>344</v>
       </c>
-      <c r="M117" s="376"/>
-      <c r="N117" s="376"/>
-      <c r="O117" s="377"/>
+      <c r="M117" s="381"/>
+      <c r="N117" s="381"/>
+      <c r="O117" s="382"/>
       <c r="P117" s="10"/>
     </row>
     <row r="118" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25281,28 +25281,28 @@
       </c>
       <c r="J118" s="237"/>
       <c r="K118" s="237"/>
-      <c r="L118" s="387"/>
-      <c r="M118" s="388"/>
-      <c r="N118" s="388"/>
-      <c r="O118" s="389"/>
+      <c r="L118" s="436"/>
+      <c r="M118" s="437"/>
+      <c r="N118" s="437"/>
+      <c r="O118" s="438"/>
       <c r="P118" s="10"/>
     </row>
     <row r="119" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9"/>
       <c r="B119" s="29"/>
       <c r="C119" s="30"/>
-      <c r="D119" s="381"/>
-      <c r="E119" s="382"/>
+      <c r="D119" s="383"/>
+      <c r="E119" s="384"/>
       <c r="F119" s="215"/>
       <c r="G119" s="215"/>
       <c r="H119" s="215"/>
       <c r="I119" s="31"/>
       <c r="J119" s="215"/>
       <c r="K119" s="215"/>
-      <c r="L119" s="383"/>
-      <c r="M119" s="383"/>
-      <c r="N119" s="383"/>
-      <c r="O119" s="384"/>
+      <c r="L119" s="385"/>
+      <c r="M119" s="385"/>
+      <c r="N119" s="385"/>
+      <c r="O119" s="386"/>
       <c r="P119" s="10"/>
     </row>
     <row r="120" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25371,10 +25371,10 @@
       <c r="C123" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="391" t="s">
+      <c r="D123" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="392"/>
+      <c r="E123" s="388"/>
       <c r="F123" s="25" t="s">
         <v>31</v>
       </c>
@@ -25393,12 +25393,12 @@
       <c r="K123" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L123" s="393" t="s">
+      <c r="L123" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M123" s="393"/>
-      <c r="N123" s="393"/>
-      <c r="O123" s="394"/>
+      <c r="M123" s="389"/>
+      <c r="N123" s="389"/>
+      <c r="O123" s="390"/>
       <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25409,10 +25409,10 @@
       <c r="C124" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D124" s="385" t="s">
+      <c r="D124" s="379" t="s">
         <v>300</v>
       </c>
-      <c r="E124" s="386"/>
+      <c r="E124" s="380"/>
       <c r="F124" s="214" t="s">
         <v>191</v>
       </c>
@@ -25427,10 +25427,10 @@
         <v>128</v>
       </c>
       <c r="K124" s="214"/>
-      <c r="L124" s="415"/>
-      <c r="M124" s="416"/>
-      <c r="N124" s="416"/>
-      <c r="O124" s="417"/>
+      <c r="L124" s="428"/>
+      <c r="M124" s="429"/>
+      <c r="N124" s="429"/>
+      <c r="O124" s="430"/>
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25441,10 +25441,10 @@
       <c r="C125" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D125" s="385" t="s">
+      <c r="D125" s="379" t="s">
         <v>185</v>
       </c>
-      <c r="E125" s="386"/>
+      <c r="E125" s="380"/>
       <c r="F125" s="214"/>
       <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
@@ -25459,10 +25459,10 @@
       <c r="K125" s="214">
         <v>128</v>
       </c>
-      <c r="L125" s="376"/>
-      <c r="M125" s="376"/>
-      <c r="N125" s="376"/>
-      <c r="O125" s="377"/>
+      <c r="L125" s="381"/>
+      <c r="M125" s="381"/>
+      <c r="N125" s="381"/>
+      <c r="O125" s="382"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25487,12 +25487,12 @@
       </c>
       <c r="J126" s="237"/>
       <c r="K126" s="237"/>
-      <c r="L126" s="378" t="s">
+      <c r="L126" s="419" t="s">
         <v>365</v>
       </c>
-      <c r="M126" s="379"/>
-      <c r="N126" s="379"/>
-      <c r="O126" s="380"/>
+      <c r="M126" s="420"/>
+      <c r="N126" s="420"/>
+      <c r="O126" s="421"/>
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25519,12 +25519,12 @@
         <v>128</v>
       </c>
       <c r="K127" s="237"/>
-      <c r="L127" s="378" t="s">
+      <c r="L127" s="419" t="s">
         <v>367</v>
       </c>
-      <c r="M127" s="379"/>
-      <c r="N127" s="379"/>
-      <c r="O127" s="380"/>
+      <c r="M127" s="420"/>
+      <c r="N127" s="420"/>
+      <c r="O127" s="421"/>
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25535,10 +25535,10 @@
       <c r="C128" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D128" s="385" t="s">
+      <c r="D128" s="379" t="s">
         <v>218</v>
       </c>
-      <c r="E128" s="386"/>
+      <c r="E128" s="380"/>
       <c r="F128" s="214"/>
       <c r="G128" s="214"/>
       <c r="H128" s="214" t="s">
@@ -25551,12 +25551,12 @@
       <c r="K128" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L128" s="376" t="s">
+      <c r="L128" s="381" t="s">
         <v>327</v>
       </c>
-      <c r="M128" s="376"/>
-      <c r="N128" s="376"/>
-      <c r="O128" s="377"/>
+      <c r="M128" s="381"/>
+      <c r="N128" s="381"/>
+      <c r="O128" s="382"/>
       <c r="P128" s="10"/>
     </row>
     <row r="129" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25581,28 +25581,28 @@
       </c>
       <c r="J129" s="237"/>
       <c r="K129" s="237"/>
-      <c r="L129" s="387"/>
-      <c r="M129" s="388"/>
-      <c r="N129" s="388"/>
-      <c r="O129" s="389"/>
+      <c r="L129" s="436"/>
+      <c r="M129" s="437"/>
+      <c r="N129" s="437"/>
+      <c r="O129" s="438"/>
       <c r="P129" s="10"/>
     </row>
     <row r="130" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="29"/>
       <c r="C130" s="30"/>
-      <c r="D130" s="381"/>
-      <c r="E130" s="382"/>
+      <c r="D130" s="383"/>
+      <c r="E130" s="384"/>
       <c r="F130" s="215"/>
       <c r="G130" s="215"/>
       <c r="H130" s="215"/>
       <c r="I130" s="31"/>
       <c r="J130" s="215"/>
       <c r="K130" s="215"/>
-      <c r="L130" s="383"/>
-      <c r="M130" s="383"/>
-      <c r="N130" s="383"/>
-      <c r="O130" s="384"/>
+      <c r="L130" s="385"/>
+      <c r="M130" s="385"/>
+      <c r="N130" s="385"/>
+      <c r="O130" s="386"/>
       <c r="P130" s="10"/>
     </row>
     <row r="131" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25689,10 +25689,10 @@
       <c r="C135" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D135" s="391" t="s">
+      <c r="D135" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E135" s="392"/>
+      <c r="E135" s="388"/>
       <c r="F135" s="25" t="s">
         <v>31</v>
       </c>
@@ -25711,12 +25711,12 @@
       <c r="K135" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L135" s="393" t="s">
+      <c r="L135" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M135" s="393"/>
-      <c r="N135" s="393"/>
-      <c r="O135" s="394"/>
+      <c r="M135" s="389"/>
+      <c r="N135" s="389"/>
+      <c r="O135" s="390"/>
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
@@ -25727,10 +25727,10 @@
       <c r="C136" s="233" t="s">
         <v>289</v>
       </c>
-      <c r="D136" s="395" t="s">
+      <c r="D136" s="391" t="s">
         <v>297</v>
       </c>
-      <c r="E136" s="396"/>
+      <c r="E136" s="392"/>
       <c r="F136" s="214" t="s">
         <v>191</v>
       </c>
@@ -25745,12 +25745,12 @@
         <v>12</v>
       </c>
       <c r="K136" s="214"/>
-      <c r="L136" s="410" t="s">
+      <c r="L136" s="433" t="s">
         <v>290</v>
       </c>
-      <c r="M136" s="411"/>
-      <c r="N136" s="411"/>
-      <c r="O136" s="412"/>
+      <c r="M136" s="434"/>
+      <c r="N136" s="434"/>
+      <c r="O136" s="435"/>
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25761,10 +25761,10 @@
       <c r="C137" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D137" s="385" t="s">
+      <c r="D137" s="379" t="s">
         <v>298</v>
       </c>
-      <c r="E137" s="386"/>
+      <c r="E137" s="380"/>
       <c r="F137" s="214"/>
       <c r="G137" s="214"/>
       <c r="H137" s="214"/>
@@ -25775,10 +25775,10 @@
         <v>255</v>
       </c>
       <c r="K137" s="214"/>
-      <c r="L137" s="402"/>
-      <c r="M137" s="402"/>
-      <c r="N137" s="402"/>
-      <c r="O137" s="403"/>
+      <c r="L137" s="431"/>
+      <c r="M137" s="431"/>
+      <c r="N137" s="431"/>
+      <c r="O137" s="432"/>
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25789,10 +25789,10 @@
       <c r="C138" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D138" s="385" t="s">
+      <c r="D138" s="379" t="s">
         <v>299</v>
       </c>
-      <c r="E138" s="386"/>
+      <c r="E138" s="380"/>
       <c r="F138" s="214"/>
       <c r="G138" s="214"/>
       <c r="H138" s="214" t="s">
@@ -25805,10 +25805,10 @@
         <v>30</v>
       </c>
       <c r="K138" s="214"/>
-      <c r="L138" s="402"/>
-      <c r="M138" s="402"/>
-      <c r="N138" s="402"/>
-      <c r="O138" s="403"/>
+      <c r="L138" s="431"/>
+      <c r="M138" s="431"/>
+      <c r="N138" s="431"/>
+      <c r="O138" s="432"/>
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25819,10 +25819,10 @@
       <c r="C139" s="262" t="s">
         <v>278</v>
       </c>
-      <c r="D139" s="374" t="s">
+      <c r="D139" s="365" t="s">
         <v>301</v>
       </c>
-      <c r="E139" s="375"/>
+      <c r="E139" s="366"/>
       <c r="F139" s="265"/>
       <c r="G139" s="265"/>
       <c r="H139" s="265"/>
@@ -25833,10 +25833,10 @@
         <v>20</v>
       </c>
       <c r="K139" s="265"/>
-      <c r="L139" s="404"/>
-      <c r="M139" s="405"/>
-      <c r="N139" s="405"/>
-      <c r="O139" s="406"/>
+      <c r="L139" s="441"/>
+      <c r="M139" s="442"/>
+      <c r="N139" s="442"/>
+      <c r="O139" s="443"/>
       <c r="P139" s="267"/>
     </row>
     <row r="140" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25847,10 +25847,10 @@
       <c r="C140" s="262" t="s">
         <v>279</v>
       </c>
-      <c r="D140" s="374" t="s">
+      <c r="D140" s="365" t="s">
         <v>302</v>
       </c>
-      <c r="E140" s="375"/>
+      <c r="E140" s="366"/>
       <c r="F140" s="265"/>
       <c r="G140" s="265"/>
       <c r="H140" s="265"/>
@@ -25859,12 +25859,12 @@
       </c>
       <c r="J140" s="265"/>
       <c r="K140" s="292"/>
-      <c r="L140" s="407" t="s">
+      <c r="L140" s="444" t="s">
         <v>292</v>
       </c>
-      <c r="M140" s="408"/>
-      <c r="N140" s="408"/>
-      <c r="O140" s="409"/>
+      <c r="M140" s="445"/>
+      <c r="N140" s="445"/>
+      <c r="O140" s="446"/>
       <c r="P140" s="267"/>
     </row>
     <row r="141" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25875,10 +25875,10 @@
       <c r="C141" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D141" s="385" t="s">
+      <c r="D141" s="379" t="s">
         <v>302</v>
       </c>
-      <c r="E141" s="386"/>
+      <c r="E141" s="380"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
@@ -25887,12 +25887,12 @@
       </c>
       <c r="J141" s="214"/>
       <c r="K141" s="241"/>
-      <c r="L141" s="399" t="s">
+      <c r="L141" s="425" t="s">
         <v>291</v>
       </c>
-      <c r="M141" s="400"/>
-      <c r="N141" s="400"/>
-      <c r="O141" s="401"/>
+      <c r="M141" s="426"/>
+      <c r="N141" s="426"/>
+      <c r="O141" s="427"/>
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25903,10 +25903,10 @@
       <c r="C142" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D142" s="385" t="s">
+      <c r="D142" s="379" t="s">
         <v>302</v>
       </c>
-      <c r="E142" s="386"/>
+      <c r="E142" s="380"/>
       <c r="F142" s="214"/>
       <c r="G142" s="214"/>
       <c r="H142" s="214"/>
@@ -25917,10 +25917,10 @@
         <v>128</v>
       </c>
       <c r="K142" s="241"/>
-      <c r="L142" s="399"/>
-      <c r="M142" s="400"/>
-      <c r="N142" s="400"/>
-      <c r="O142" s="401"/>
+      <c r="L142" s="425"/>
+      <c r="M142" s="426"/>
+      <c r="N142" s="426"/>
+      <c r="O142" s="427"/>
       <c r="P142" s="10"/>
     </row>
     <row r="143" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25931,10 +25931,10 @@
       <c r="C143" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D143" s="385" t="s">
+      <c r="D143" s="379" t="s">
         <v>303</v>
       </c>
-      <c r="E143" s="386"/>
+      <c r="E143" s="380"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
@@ -25945,12 +25945,12 @@
         <v>255</v>
       </c>
       <c r="K143" s="241"/>
-      <c r="L143" s="399" t="s">
+      <c r="L143" s="425" t="s">
         <v>293</v>
       </c>
-      <c r="M143" s="400"/>
-      <c r="N143" s="400"/>
-      <c r="O143" s="401"/>
+      <c r="M143" s="426"/>
+      <c r="N143" s="426"/>
+      <c r="O143" s="427"/>
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25961,10 +25961,10 @@
       <c r="C144" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D144" s="385" t="s">
+      <c r="D144" s="379" t="s">
         <v>304</v>
       </c>
-      <c r="E144" s="386"/>
+      <c r="E144" s="380"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
@@ -25975,12 +25975,12 @@
         <v>255</v>
       </c>
       <c r="K144" s="241"/>
-      <c r="L144" s="399" t="s">
+      <c r="L144" s="425" t="s">
         <v>294</v>
       </c>
-      <c r="M144" s="400"/>
-      <c r="N144" s="400"/>
-      <c r="O144" s="401"/>
+      <c r="M144" s="426"/>
+      <c r="N144" s="426"/>
+      <c r="O144" s="427"/>
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26017,10 +26017,10 @@
       <c r="C146" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D146" s="385" t="s">
+      <c r="D146" s="379" t="s">
         <v>305</v>
       </c>
-      <c r="E146" s="386"/>
+      <c r="E146" s="380"/>
       <c r="F146" s="214"/>
       <c r="G146" s="214"/>
       <c r="H146" s="214"/>
@@ -26029,12 +26029,12 @@
       </c>
       <c r="J146" s="214"/>
       <c r="K146" s="241"/>
-      <c r="L146" s="402" t="s">
+      <c r="L146" s="431" t="s">
         <v>295</v>
       </c>
-      <c r="M146" s="402"/>
-      <c r="N146" s="402"/>
-      <c r="O146" s="403"/>
+      <c r="M146" s="431"/>
+      <c r="N146" s="431"/>
+      <c r="O146" s="432"/>
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26045,10 +26045,10 @@
       <c r="C147" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D147" s="385" t="s">
+      <c r="D147" s="379" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="386"/>
+      <c r="E147" s="380"/>
       <c r="F147" s="214"/>
       <c r="G147" s="214"/>
       <c r="H147" s="214"/>
@@ -26057,12 +26057,12 @@
       </c>
       <c r="J147" s="214"/>
       <c r="K147" s="241"/>
-      <c r="L147" s="402" t="s">
+      <c r="L147" s="431" t="s">
         <v>352</v>
       </c>
-      <c r="M147" s="402"/>
-      <c r="N147" s="402"/>
-      <c r="O147" s="403"/>
+      <c r="M147" s="431"/>
+      <c r="N147" s="431"/>
+      <c r="O147" s="432"/>
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26073,10 +26073,10 @@
       <c r="C148" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D148" s="385" t="s">
+      <c r="D148" s="379" t="s">
         <v>306</v>
       </c>
-      <c r="E148" s="386"/>
+      <c r="E148" s="380"/>
       <c r="F148" s="214"/>
       <c r="G148" s="214"/>
       <c r="H148" s="214"/>
@@ -26085,12 +26085,12 @@
       </c>
       <c r="J148" s="214"/>
       <c r="K148" s="241"/>
-      <c r="L148" s="402" t="s">
+      <c r="L148" s="431" t="s">
         <v>348</v>
       </c>
-      <c r="M148" s="402"/>
-      <c r="N148" s="402"/>
-      <c r="O148" s="403"/>
+      <c r="M148" s="431"/>
+      <c r="N148" s="431"/>
+      <c r="O148" s="432"/>
       <c r="P148" s="10"/>
     </row>
     <row r="149" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26101,10 +26101,10 @@
       <c r="C149" s="236" t="s">
         <v>288</v>
       </c>
-      <c r="D149" s="385" t="s">
+      <c r="D149" s="379" t="s">
         <v>308</v>
       </c>
-      <c r="E149" s="386"/>
+      <c r="E149" s="380"/>
       <c r="F149" s="237"/>
       <c r="G149" s="237"/>
       <c r="H149" s="237"/>
@@ -26115,28 +26115,28 @@
         <v>255</v>
       </c>
       <c r="K149" s="242"/>
-      <c r="L149" s="402"/>
-      <c r="M149" s="402"/>
-      <c r="N149" s="402"/>
-      <c r="O149" s="403"/>
+      <c r="L149" s="431"/>
+      <c r="M149" s="431"/>
+      <c r="N149" s="431"/>
+      <c r="O149" s="432"/>
       <c r="P149" s="10"/>
     </row>
     <row r="150" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9"/>
       <c r="B150" s="29"/>
       <c r="C150" s="30"/>
-      <c r="D150" s="381"/>
-      <c r="E150" s="382"/>
+      <c r="D150" s="383"/>
+      <c r="E150" s="384"/>
       <c r="F150" s="215"/>
       <c r="G150" s="215"/>
       <c r="H150" s="215"/>
       <c r="I150" s="31"/>
       <c r="J150" s="215"/>
       <c r="K150" s="215"/>
-      <c r="L150" s="397"/>
-      <c r="M150" s="397"/>
-      <c r="N150" s="397"/>
-      <c r="O150" s="398"/>
+      <c r="L150" s="439"/>
+      <c r="M150" s="439"/>
+      <c r="N150" s="439"/>
+      <c r="O150" s="440"/>
       <c r="P150" s="10"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
@@ -26241,10 +26241,10 @@
       <c r="C156" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D156" s="391" t="s">
+      <c r="D156" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="392"/>
+      <c r="E156" s="388"/>
       <c r="F156" s="25" t="s">
         <v>31</v>
       </c>
@@ -26263,12 +26263,12 @@
       <c r="K156" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L156" s="393" t="s">
+      <c r="L156" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M156" s="393"/>
-      <c r="N156" s="393"/>
-      <c r="O156" s="394"/>
+      <c r="M156" s="389"/>
+      <c r="N156" s="389"/>
+      <c r="O156" s="390"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26279,10 +26279,10 @@
       <c r="C157" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D157" s="385" t="s">
+      <c r="D157" s="379" t="s">
         <v>313</v>
       </c>
-      <c r="E157" s="386"/>
+      <c r="E157" s="380"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
       <c r="H157" s="214" t="s">
@@ -26295,10 +26295,10 @@
         <v>255</v>
       </c>
       <c r="K157" s="214"/>
-      <c r="L157" s="376"/>
-      <c r="M157" s="376"/>
-      <c r="N157" s="376"/>
-      <c r="O157" s="377"/>
+      <c r="L157" s="381"/>
+      <c r="M157" s="381"/>
+      <c r="N157" s="381"/>
+      <c r="O157" s="382"/>
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26309,10 +26309,10 @@
       <c r="C158" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D158" s="385" t="s">
+      <c r="D158" s="379" t="s">
         <v>314</v>
       </c>
-      <c r="E158" s="386"/>
+      <c r="E158" s="380"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
       <c r="H158" s="214"/>
@@ -26323,10 +26323,10 @@
         <v>255</v>
       </c>
       <c r="K158" s="214"/>
-      <c r="L158" s="376"/>
-      <c r="M158" s="376"/>
-      <c r="N158" s="376"/>
-      <c r="O158" s="377"/>
+      <c r="L158" s="381"/>
+      <c r="M158" s="381"/>
+      <c r="N158" s="381"/>
+      <c r="O158" s="382"/>
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26351,10 +26351,10 @@
         <v>255</v>
       </c>
       <c r="K159" s="214"/>
-      <c r="L159" s="376"/>
-      <c r="M159" s="376"/>
-      <c r="N159" s="376"/>
-      <c r="O159" s="377"/>
+      <c r="L159" s="381"/>
+      <c r="M159" s="381"/>
+      <c r="N159" s="381"/>
+      <c r="O159" s="382"/>
       <c r="P159" s="10"/>
     </row>
     <row r="160" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26365,10 +26365,10 @@
       <c r="C160" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D160" s="385" t="s">
+      <c r="D160" s="379" t="s">
         <v>315</v>
       </c>
-      <c r="E160" s="386"/>
+      <c r="E160" s="380"/>
       <c r="F160" s="214"/>
       <c r="G160" s="214"/>
       <c r="H160" s="214" t="s">
@@ -26379,12 +26379,12 @@
       </c>
       <c r="J160" s="214"/>
       <c r="K160" s="214"/>
-      <c r="L160" s="376" t="s">
+      <c r="L160" s="381" t="s">
         <v>345</v>
       </c>
-      <c r="M160" s="376"/>
-      <c r="N160" s="376"/>
-      <c r="O160" s="377"/>
+      <c r="M160" s="381"/>
+      <c r="N160" s="381"/>
+      <c r="O160" s="382"/>
       <c r="P160" s="10"/>
     </row>
     <row r="161" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26395,10 +26395,10 @@
       <c r="C161" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D161" s="385" t="s">
+      <c r="D161" s="379" t="s">
         <v>317</v>
       </c>
-      <c r="E161" s="386"/>
+      <c r="E161" s="380"/>
       <c r="F161" s="214"/>
       <c r="G161" s="214"/>
       <c r="H161" s="214" t="s">
@@ -26411,30 +26411,30 @@
       <c r="K161" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L161" s="376" t="s">
+      <c r="L161" s="381" t="s">
         <v>268</v>
       </c>
-      <c r="M161" s="376"/>
-      <c r="N161" s="376"/>
-      <c r="O161" s="377"/>
+      <c r="M161" s="381"/>
+      <c r="N161" s="381"/>
+      <c r="O161" s="382"/>
       <c r="P161" s="10"/>
     </row>
     <row r="162" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9"/>
       <c r="B162" s="29"/>
       <c r="C162" s="30"/>
-      <c r="D162" s="381"/>
-      <c r="E162" s="382"/>
+      <c r="D162" s="383"/>
+      <c r="E162" s="384"/>
       <c r="F162" s="215"/>
       <c r="G162" s="215"/>
       <c r="H162" s="215"/>
       <c r="I162" s="31"/>
       <c r="J162" s="215"/>
       <c r="K162" s="215"/>
-      <c r="L162" s="383"/>
-      <c r="M162" s="383"/>
-      <c r="N162" s="383"/>
-      <c r="O162" s="384"/>
+      <c r="L162" s="385"/>
+      <c r="M162" s="385"/>
+      <c r="N162" s="385"/>
+      <c r="O162" s="386"/>
       <c r="P162" s="10"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
@@ -26521,10 +26521,10 @@
       <c r="C167" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D167" s="391" t="s">
+      <c r="D167" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="392"/>
+      <c r="E167" s="388"/>
       <c r="F167" s="25" t="s">
         <v>31</v>
       </c>
@@ -26543,12 +26543,12 @@
       <c r="K167" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L167" s="393" t="s">
+      <c r="L167" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M167" s="393"/>
-      <c r="N167" s="393"/>
-      <c r="O167" s="394"/>
+      <c r="M167" s="389"/>
+      <c r="N167" s="389"/>
+      <c r="O167" s="390"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26559,10 +26559,10 @@
       <c r="C168" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D168" s="385" t="s">
+      <c r="D168" s="379" t="s">
         <v>318</v>
       </c>
-      <c r="E168" s="386"/>
+      <c r="E168" s="380"/>
       <c r="F168" s="214"/>
       <c r="G168" s="214"/>
       <c r="H168" s="214" t="s">
@@ -26575,10 +26575,10 @@
         <v>255</v>
       </c>
       <c r="K168" s="214"/>
-      <c r="L168" s="376"/>
-      <c r="M168" s="376"/>
-      <c r="N168" s="376"/>
-      <c r="O168" s="377"/>
+      <c r="L168" s="381"/>
+      <c r="M168" s="381"/>
+      <c r="N168" s="381"/>
+      <c r="O168" s="382"/>
       <c r="P168" s="10"/>
     </row>
     <row r="169" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26589,10 +26589,10 @@
       <c r="C169" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D169" s="385" t="s">
+      <c r="D169" s="379" t="s">
         <v>319</v>
       </c>
-      <c r="E169" s="386"/>
+      <c r="E169" s="380"/>
       <c r="F169" s="214"/>
       <c r="G169" s="214"/>
       <c r="H169" s="214"/>
@@ -26603,10 +26603,10 @@
         <v>255</v>
       </c>
       <c r="K169" s="214"/>
-      <c r="L169" s="376"/>
-      <c r="M169" s="376"/>
-      <c r="N169" s="376"/>
-      <c r="O169" s="377"/>
+      <c r="L169" s="381"/>
+      <c r="M169" s="381"/>
+      <c r="N169" s="381"/>
+      <c r="O169" s="382"/>
       <c r="P169" s="10"/>
     </row>
     <row r="170" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26631,30 +26631,30 @@
       <c r="K170" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L170" s="376" t="s">
+      <c r="L170" s="381" t="s">
         <v>321</v>
       </c>
-      <c r="M170" s="376"/>
-      <c r="N170" s="376"/>
-      <c r="O170" s="377"/>
+      <c r="M170" s="381"/>
+      <c r="N170" s="381"/>
+      <c r="O170" s="382"/>
       <c r="P170" s="10"/>
     </row>
     <row r="171" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="9"/>
       <c r="B171" s="29"/>
       <c r="C171" s="30"/>
-      <c r="D171" s="381"/>
-      <c r="E171" s="382"/>
+      <c r="D171" s="383"/>
+      <c r="E171" s="384"/>
       <c r="F171" s="215"/>
       <c r="G171" s="215"/>
       <c r="H171" s="215"/>
       <c r="I171" s="31"/>
       <c r="J171" s="215"/>
       <c r="K171" s="215"/>
-      <c r="L171" s="383"/>
-      <c r="M171" s="383"/>
-      <c r="N171" s="383"/>
-      <c r="O171" s="384"/>
+      <c r="L171" s="385"/>
+      <c r="M171" s="385"/>
+      <c r="N171" s="385"/>
+      <c r="O171" s="386"/>
       <c r="P171" s="10"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
@@ -26741,10 +26741,10 @@
       <c r="C176" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="391" t="s">
+      <c r="D176" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E176" s="392"/>
+      <c r="E176" s="388"/>
       <c r="F176" s="25" t="s">
         <v>31</v>
       </c>
@@ -26763,12 +26763,12 @@
       <c r="K176" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L176" s="393" t="s">
+      <c r="L176" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M176" s="393"/>
-      <c r="N176" s="393"/>
-      <c r="O176" s="394"/>
+      <c r="M176" s="389"/>
+      <c r="N176" s="389"/>
+      <c r="O176" s="390"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26779,10 +26779,10 @@
       <c r="C177" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D177" s="385" t="s">
+      <c r="D177" s="379" t="s">
         <v>318</v>
       </c>
-      <c r="E177" s="386"/>
+      <c r="E177" s="380"/>
       <c r="F177" s="214"/>
       <c r="G177" s="214"/>
       <c r="H177" s="214" t="s">
@@ -26795,10 +26795,10 @@
         <v>255</v>
       </c>
       <c r="K177" s="214"/>
-      <c r="L177" s="376"/>
-      <c r="M177" s="376"/>
-      <c r="N177" s="376"/>
-      <c r="O177" s="377"/>
+      <c r="L177" s="381"/>
+      <c r="M177" s="381"/>
+      <c r="N177" s="381"/>
+      <c r="O177" s="382"/>
       <c r="P177" s="10"/>
     </row>
     <row r="178" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26809,10 +26809,10 @@
       <c r="C178" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D178" s="385" t="s">
+      <c r="D178" s="379" t="s">
         <v>319</v>
       </c>
-      <c r="E178" s="386"/>
+      <c r="E178" s="380"/>
       <c r="F178" s="214"/>
       <c r="G178" s="214"/>
       <c r="H178" s="214"/>
@@ -26823,10 +26823,10 @@
         <v>255</v>
       </c>
       <c r="K178" s="214"/>
-      <c r="L178" s="376"/>
-      <c r="M178" s="376"/>
-      <c r="N178" s="376"/>
-      <c r="O178" s="377"/>
+      <c r="L178" s="381"/>
+      <c r="M178" s="381"/>
+      <c r="N178" s="381"/>
+      <c r="O178" s="382"/>
       <c r="P178" s="10"/>
     </row>
     <row r="179" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26851,30 +26851,30 @@
       <c r="K179" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L179" s="376" t="s">
+      <c r="L179" s="381" t="s">
         <v>266</v>
       </c>
-      <c r="M179" s="376"/>
-      <c r="N179" s="376"/>
-      <c r="O179" s="377"/>
+      <c r="M179" s="381"/>
+      <c r="N179" s="381"/>
+      <c r="O179" s="382"/>
       <c r="P179" s="10"/>
     </row>
     <row r="180" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="9"/>
       <c r="B180" s="29"/>
       <c r="C180" s="30"/>
-      <c r="D180" s="381"/>
-      <c r="E180" s="382"/>
+      <c r="D180" s="383"/>
+      <c r="E180" s="384"/>
       <c r="F180" s="215"/>
       <c r="G180" s="215"/>
       <c r="H180" s="215"/>
       <c r="I180" s="31"/>
       <c r="J180" s="215"/>
       <c r="K180" s="215"/>
-      <c r="L180" s="383"/>
-      <c r="M180" s="383"/>
-      <c r="N180" s="383"/>
-      <c r="O180" s="384"/>
+      <c r="L180" s="385"/>
+      <c r="M180" s="385"/>
+      <c r="N180" s="385"/>
+      <c r="O180" s="386"/>
       <c r="P180" s="10"/>
     </row>
     <row r="181" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26961,10 +26961,10 @@
       <c r="C185" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D185" s="391" t="s">
+      <c r="D185" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E185" s="392"/>
+      <c r="E185" s="388"/>
       <c r="F185" s="25" t="s">
         <v>31</v>
       </c>
@@ -26983,12 +26983,12 @@
       <c r="K185" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L185" s="393" t="s">
+      <c r="L185" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M185" s="393"/>
-      <c r="N185" s="393"/>
-      <c r="O185" s="394"/>
+      <c r="M185" s="389"/>
+      <c r="N185" s="389"/>
+      <c r="O185" s="390"/>
       <c r="P185" s="10"/>
     </row>
     <row r="186" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26999,10 +26999,10 @@
       <c r="C186" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="D186" s="385" t="s">
+      <c r="D186" s="379" t="s">
         <v>326</v>
       </c>
-      <c r="E186" s="386"/>
+      <c r="E186" s="380"/>
       <c r="F186" s="214"/>
       <c r="G186" s="214"/>
       <c r="H186" s="214" t="s">
@@ -27015,10 +27015,10 @@
         <v>255</v>
       </c>
       <c r="K186" s="214"/>
-      <c r="L186" s="376"/>
-      <c r="M186" s="376"/>
-      <c r="N186" s="376"/>
-      <c r="O186" s="377"/>
+      <c r="L186" s="381"/>
+      <c r="M186" s="381"/>
+      <c r="N186" s="381"/>
+      <c r="O186" s="382"/>
       <c r="P186" s="10"/>
     </row>
     <row r="187" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27029,10 +27029,10 @@
       <c r="C187" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D187" s="385" t="s">
+      <c r="D187" s="379" t="s">
         <v>409</v>
       </c>
-      <c r="E187" s="386"/>
+      <c r="E187" s="380"/>
       <c r="F187" s="214"/>
       <c r="G187" s="214"/>
       <c r="H187" s="214"/>
@@ -27043,28 +27043,28 @@
         <v>255</v>
       </c>
       <c r="K187" s="214"/>
-      <c r="L187" s="376"/>
-      <c r="M187" s="376"/>
-      <c r="N187" s="376"/>
-      <c r="O187" s="377"/>
+      <c r="L187" s="381"/>
+      <c r="M187" s="381"/>
+      <c r="N187" s="381"/>
+      <c r="O187" s="382"/>
       <c r="P187" s="10"/>
     </row>
     <row r="188" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9"/>
       <c r="B188" s="29"/>
       <c r="C188" s="30"/>
-      <c r="D188" s="381"/>
-      <c r="E188" s="382"/>
+      <c r="D188" s="383"/>
+      <c r="E188" s="384"/>
       <c r="F188" s="215"/>
       <c r="G188" s="215"/>
       <c r="H188" s="215"/>
       <c r="I188" s="31"/>
       <c r="J188" s="215"/>
       <c r="K188" s="215"/>
-      <c r="L188" s="383"/>
-      <c r="M188" s="383"/>
-      <c r="N188" s="383"/>
-      <c r="O188" s="384"/>
+      <c r="L188" s="385"/>
+      <c r="M188" s="385"/>
+      <c r="N188" s="385"/>
+      <c r="O188" s="386"/>
       <c r="P188" s="10"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
@@ -27169,10 +27169,10 @@
       <c r="C194" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D194" s="391" t="s">
+      <c r="D194" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E194" s="392"/>
+      <c r="E194" s="388"/>
       <c r="F194" s="25" t="s">
         <v>31</v>
       </c>
@@ -27191,12 +27191,12 @@
       <c r="K194" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L194" s="393" t="s">
+      <c r="L194" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M194" s="393"/>
-      <c r="N194" s="393"/>
-      <c r="O194" s="394"/>
+      <c r="M194" s="389"/>
+      <c r="N194" s="389"/>
+      <c r="O194" s="390"/>
       <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27207,10 +27207,10 @@
       <c r="C195" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D195" s="385" t="s">
+      <c r="D195" s="379" t="s">
         <v>338</v>
       </c>
-      <c r="E195" s="386"/>
+      <c r="E195" s="380"/>
       <c r="F195" s="214"/>
       <c r="G195" s="214"/>
       <c r="H195" s="214" t="s">
@@ -27223,10 +27223,10 @@
         <v>255</v>
       </c>
       <c r="K195" s="214"/>
-      <c r="L195" s="376"/>
-      <c r="M195" s="376"/>
-      <c r="N195" s="376"/>
-      <c r="O195" s="377"/>
+      <c r="L195" s="381"/>
+      <c r="M195" s="381"/>
+      <c r="N195" s="381"/>
+      <c r="O195" s="382"/>
       <c r="P195" s="10"/>
     </row>
     <row r="196" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -27251,12 +27251,12 @@
       </c>
       <c r="J196" s="265"/>
       <c r="K196" s="265"/>
-      <c r="L196" s="368" t="s">
+      <c r="L196" s="367" t="s">
         <v>292</v>
       </c>
-      <c r="M196" s="368"/>
-      <c r="N196" s="368"/>
-      <c r="O196" s="369"/>
+      <c r="M196" s="367"/>
+      <c r="N196" s="367"/>
+      <c r="O196" s="368"/>
       <c r="P196" s="267"/>
     </row>
     <row r="197" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27267,10 +27267,10 @@
       <c r="C197" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="D197" s="385" t="s">
+      <c r="D197" s="379" t="s">
         <v>339</v>
       </c>
-      <c r="E197" s="386"/>
+      <c r="E197" s="380"/>
       <c r="F197" s="214"/>
       <c r="G197" s="214"/>
       <c r="H197" s="214" t="s">
@@ -27281,12 +27281,12 @@
       </c>
       <c r="J197" s="214"/>
       <c r="K197" s="214"/>
-      <c r="L197" s="376" t="s">
+      <c r="L197" s="381" t="s">
         <v>340</v>
       </c>
-      <c r="M197" s="376"/>
-      <c r="N197" s="376"/>
-      <c r="O197" s="377"/>
+      <c r="M197" s="381"/>
+      <c r="N197" s="381"/>
+      <c r="O197" s="382"/>
       <c r="P197" s="10"/>
     </row>
     <row r="198" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -27297,10 +27297,10 @@
       <c r="C198" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D198" s="413" t="s">
+      <c r="D198" s="394" t="s">
         <v>245</v>
       </c>
-      <c r="E198" s="414"/>
+      <c r="E198" s="395"/>
       <c r="F198" s="215"/>
       <c r="G198" s="215"/>
       <c r="H198" s="215"/>
@@ -27311,10 +27311,10 @@
         <v>255</v>
       </c>
       <c r="K198" s="215"/>
-      <c r="L198" s="383"/>
-      <c r="M198" s="383"/>
-      <c r="N198" s="383"/>
-      <c r="O198" s="384"/>
+      <c r="L198" s="385"/>
+      <c r="M198" s="385"/>
+      <c r="N198" s="385"/>
+      <c r="O198" s="386"/>
       <c r="P198" s="10"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
@@ -27401,10 +27401,10 @@
       <c r="C203" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D203" s="391" t="s">
+      <c r="D203" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E203" s="392"/>
+      <c r="E203" s="388"/>
       <c r="F203" s="25" t="s">
         <v>31</v>
       </c>
@@ -27423,12 +27423,12 @@
       <c r="K203" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L203" s="393" t="s">
+      <c r="L203" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M203" s="393"/>
-      <c r="N203" s="393"/>
-      <c r="O203" s="394"/>
+      <c r="M203" s="389"/>
+      <c r="N203" s="389"/>
+      <c r="O203" s="390"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27439,10 +27439,10 @@
       <c r="C204" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D204" s="385" t="s">
+      <c r="D204" s="379" t="s">
         <v>410</v>
       </c>
-      <c r="E204" s="386"/>
+      <c r="E204" s="380"/>
       <c r="F204" s="214"/>
       <c r="G204" s="214"/>
       <c r="H204" s="214" t="s">
@@ -27455,12 +27455,12 @@
         <v>255</v>
       </c>
       <c r="K204" s="214"/>
-      <c r="L204" s="376" t="s">
+      <c r="L204" s="381" t="s">
         <v>362</v>
       </c>
-      <c r="M204" s="376"/>
-      <c r="N204" s="376"/>
-      <c r="O204" s="377"/>
+      <c r="M204" s="381"/>
+      <c r="N204" s="381"/>
+      <c r="O204" s="382"/>
       <c r="P204" s="10"/>
     </row>
     <row r="205" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27471,10 +27471,10 @@
       <c r="C205" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="D205" s="385" t="s">
+      <c r="D205" s="379" t="s">
         <v>339</v>
       </c>
-      <c r="E205" s="386"/>
+      <c r="E205" s="380"/>
       <c r="F205" s="214"/>
       <c r="G205" s="214"/>
       <c r="H205" s="214" t="s">
@@ -27485,10 +27485,10 @@
       </c>
       <c r="J205" s="214"/>
       <c r="K205" s="214"/>
-      <c r="L205" s="376"/>
-      <c r="M205" s="376"/>
-      <c r="N205" s="376"/>
-      <c r="O205" s="377"/>
+      <c r="L205" s="381"/>
+      <c r="M205" s="381"/>
+      <c r="N205" s="381"/>
+      <c r="O205" s="382"/>
       <c r="P205" s="10"/>
     </row>
     <row r="206" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27513,28 +27513,28 @@
         <v>255</v>
       </c>
       <c r="K206" s="237"/>
-      <c r="L206" s="376"/>
-      <c r="M206" s="376"/>
-      <c r="N206" s="376"/>
-      <c r="O206" s="377"/>
+      <c r="L206" s="381"/>
+      <c r="M206" s="381"/>
+      <c r="N206" s="381"/>
+      <c r="O206" s="382"/>
       <c r="P206" s="10"/>
     </row>
     <row r="207" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9"/>
       <c r="B207" s="29"/>
       <c r="C207" s="30"/>
-      <c r="D207" s="381"/>
-      <c r="E207" s="382"/>
+      <c r="D207" s="383"/>
+      <c r="E207" s="384"/>
       <c r="F207" s="215"/>
       <c r="G207" s="215"/>
       <c r="H207" s="215"/>
       <c r="I207" s="31"/>
       <c r="J207" s="215"/>
       <c r="K207" s="215"/>
-      <c r="L207" s="383"/>
-      <c r="M207" s="383"/>
-      <c r="N207" s="383"/>
-      <c r="O207" s="384"/>
+      <c r="L207" s="385"/>
+      <c r="M207" s="385"/>
+      <c r="N207" s="385"/>
+      <c r="O207" s="386"/>
       <c r="P207" s="10"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
@@ -27621,10 +27621,10 @@
       <c r="C212" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D212" s="391" t="s">
+      <c r="D212" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E212" s="392"/>
+      <c r="E212" s="388"/>
       <c r="F212" s="25" t="s">
         <v>31</v>
       </c>
@@ -27643,12 +27643,12 @@
       <c r="K212" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L212" s="393" t="s">
+      <c r="L212" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M212" s="393"/>
-      <c r="N212" s="393"/>
-      <c r="O212" s="394"/>
+      <c r="M212" s="389"/>
+      <c r="N212" s="389"/>
+      <c r="O212" s="390"/>
       <c r="P212" s="10"/>
     </row>
     <row r="213" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27659,10 +27659,10 @@
       <c r="C213" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="D213" s="385" t="s">
+      <c r="D213" s="379" t="s">
         <v>412</v>
       </c>
-      <c r="E213" s="386"/>
+      <c r="E213" s="380"/>
       <c r="F213" s="214"/>
       <c r="G213" s="214"/>
       <c r="H213" s="214" t="s">
@@ -27675,12 +27675,12 @@
         <v>255</v>
       </c>
       <c r="K213" s="214"/>
-      <c r="L213" s="376" t="s">
+      <c r="L213" s="381" t="s">
         <v>347</v>
       </c>
-      <c r="M213" s="376"/>
-      <c r="N213" s="376"/>
-      <c r="O213" s="377"/>
+      <c r="M213" s="381"/>
+      <c r="N213" s="381"/>
+      <c r="O213" s="382"/>
       <c r="P213" s="10"/>
     </row>
     <row r="214" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27705,28 +27705,28 @@
         <v>255</v>
       </c>
       <c r="K214" s="237"/>
-      <c r="L214" s="376"/>
-      <c r="M214" s="376"/>
-      <c r="N214" s="376"/>
-      <c r="O214" s="377"/>
+      <c r="L214" s="381"/>
+      <c r="M214" s="381"/>
+      <c r="N214" s="381"/>
+      <c r="O214" s="382"/>
       <c r="P214" s="10"/>
     </row>
     <row r="215" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="9"/>
       <c r="B215" s="29"/>
       <c r="C215" s="30"/>
-      <c r="D215" s="381"/>
-      <c r="E215" s="382"/>
+      <c r="D215" s="383"/>
+      <c r="E215" s="384"/>
       <c r="F215" s="215"/>
       <c r="G215" s="215"/>
       <c r="H215" s="215"/>
       <c r="I215" s="31"/>
       <c r="J215" s="215"/>
       <c r="K215" s="215"/>
-      <c r="L215" s="383"/>
-      <c r="M215" s="383"/>
-      <c r="N215" s="383"/>
-      <c r="O215" s="384"/>
+      <c r="L215" s="385"/>
+      <c r="M215" s="385"/>
+      <c r="N215" s="385"/>
+      <c r="O215" s="386"/>
       <c r="P215" s="10"/>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
@@ -27813,10 +27813,10 @@
       <c r="C220" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D220" s="391" t="s">
+      <c r="D220" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E220" s="392"/>
+      <c r="E220" s="388"/>
       <c r="F220" s="25" t="s">
         <v>31</v>
       </c>
@@ -27835,12 +27835,12 @@
       <c r="K220" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L220" s="393" t="s">
+      <c r="L220" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M220" s="393"/>
-      <c r="N220" s="393"/>
-      <c r="O220" s="394"/>
+      <c r="M220" s="389"/>
+      <c r="N220" s="389"/>
+      <c r="O220" s="390"/>
       <c r="P220" s="10"/>
     </row>
     <row r="221" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27851,10 +27851,10 @@
       <c r="C221" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D221" s="385" t="s">
+      <c r="D221" s="379" t="s">
         <v>350</v>
       </c>
-      <c r="E221" s="386"/>
+      <c r="E221" s="380"/>
       <c r="F221" s="214"/>
       <c r="G221" s="214"/>
       <c r="H221" s="214" t="s">
@@ -27867,12 +27867,12 @@
         <v>255</v>
       </c>
       <c r="K221" s="214"/>
-      <c r="L221" s="376" t="s">
+      <c r="L221" s="381" t="s">
         <v>351</v>
       </c>
-      <c r="M221" s="376"/>
-      <c r="N221" s="376"/>
-      <c r="O221" s="377"/>
+      <c r="M221" s="381"/>
+      <c r="N221" s="381"/>
+      <c r="O221" s="382"/>
       <c r="P221" s="10"/>
     </row>
     <row r="222" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27897,28 +27897,28 @@
         <v>255</v>
       </c>
       <c r="K222" s="237"/>
-      <c r="L222" s="376"/>
-      <c r="M222" s="376"/>
-      <c r="N222" s="376"/>
-      <c r="O222" s="377"/>
+      <c r="L222" s="381"/>
+      <c r="M222" s="381"/>
+      <c r="N222" s="381"/>
+      <c r="O222" s="382"/>
       <c r="P222" s="10"/>
     </row>
     <row r="223" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="9"/>
       <c r="B223" s="29"/>
       <c r="C223" s="30"/>
-      <c r="D223" s="381"/>
-      <c r="E223" s="382"/>
+      <c r="D223" s="383"/>
+      <c r="E223" s="384"/>
       <c r="F223" s="215"/>
       <c r="G223" s="215"/>
       <c r="H223" s="215"/>
       <c r="I223" s="31"/>
       <c r="J223" s="215"/>
       <c r="K223" s="215"/>
-      <c r="L223" s="383"/>
-      <c r="M223" s="383"/>
-      <c r="N223" s="383"/>
-      <c r="O223" s="384"/>
+      <c r="L223" s="385"/>
+      <c r="M223" s="385"/>
+      <c r="N223" s="385"/>
+      <c r="O223" s="386"/>
       <c r="P223" s="10"/>
     </row>
     <row r="224" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28005,10 +28005,10 @@
       <c r="C228" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D228" s="391" t="s">
+      <c r="D228" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E228" s="392"/>
+      <c r="E228" s="388"/>
       <c r="F228" s="25" t="s">
         <v>31</v>
       </c>
@@ -28027,12 +28027,12 @@
       <c r="K228" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L228" s="393" t="s">
+      <c r="L228" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M228" s="393"/>
-      <c r="N228" s="393"/>
-      <c r="O228" s="394"/>
+      <c r="M228" s="389"/>
+      <c r="N228" s="389"/>
+      <c r="O228" s="390"/>
       <c r="P228" s="10"/>
     </row>
     <row r="229" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28043,10 +28043,10 @@
       <c r="C229" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="D229" s="385" t="s">
+      <c r="D229" s="379" t="s">
         <v>388</v>
       </c>
-      <c r="E229" s="386"/>
+      <c r="E229" s="380"/>
       <c r="F229" s="214"/>
       <c r="G229" s="214"/>
       <c r="H229" s="214" t="s">
@@ -28059,12 +28059,12 @@
         <v>255</v>
       </c>
       <c r="K229" s="214"/>
-      <c r="L229" s="376" t="s">
+      <c r="L229" s="381" t="s">
         <v>389</v>
       </c>
-      <c r="M229" s="376"/>
-      <c r="N229" s="376"/>
-      <c r="O229" s="377"/>
+      <c r="M229" s="381"/>
+      <c r="N229" s="381"/>
+      <c r="O229" s="382"/>
       <c r="P229" s="10"/>
     </row>
     <row r="230" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28089,28 +28089,28 @@
         <v>255</v>
       </c>
       <c r="K230" s="237"/>
-      <c r="L230" s="376"/>
-      <c r="M230" s="376"/>
-      <c r="N230" s="376"/>
-      <c r="O230" s="377"/>
+      <c r="L230" s="381"/>
+      <c r="M230" s="381"/>
+      <c r="N230" s="381"/>
+      <c r="O230" s="382"/>
       <c r="P230" s="10"/>
     </row>
     <row r="231" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="9"/>
       <c r="B231" s="29"/>
       <c r="C231" s="30"/>
-      <c r="D231" s="381"/>
-      <c r="E231" s="382"/>
+      <c r="D231" s="383"/>
+      <c r="E231" s="384"/>
       <c r="F231" s="215"/>
       <c r="G231" s="215"/>
       <c r="H231" s="215"/>
       <c r="I231" s="31"/>
       <c r="J231" s="215"/>
       <c r="K231" s="215"/>
-      <c r="L231" s="383"/>
-      <c r="M231" s="383"/>
-      <c r="N231" s="383"/>
-      <c r="O231" s="384"/>
+      <c r="L231" s="385"/>
+      <c r="M231" s="385"/>
+      <c r="N231" s="385"/>
+      <c r="O231" s="386"/>
       <c r="P231" s="10"/>
     </row>
     <row r="232" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28197,10 +28197,10 @@
       <c r="C236" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D236" s="391" t="s">
+      <c r="D236" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E236" s="392"/>
+      <c r="E236" s="388"/>
       <c r="F236" s="25" t="s">
         <v>31</v>
       </c>
@@ -28219,12 +28219,12 @@
       <c r="K236" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L236" s="393" t="s">
+      <c r="L236" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M236" s="393"/>
-      <c r="N236" s="393"/>
-      <c r="O236" s="394"/>
+      <c r="M236" s="389"/>
+      <c r="N236" s="389"/>
+      <c r="O236" s="390"/>
       <c r="P236" s="10"/>
     </row>
     <row r="237" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28235,10 +28235,10 @@
       <c r="C237" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="D237" s="385" t="s">
+      <c r="D237" s="379" t="s">
         <v>350</v>
       </c>
-      <c r="E237" s="386"/>
+      <c r="E237" s="380"/>
       <c r="F237" s="214"/>
       <c r="G237" s="214"/>
       <c r="H237" s="214" t="s">
@@ -28251,12 +28251,12 @@
         <v>255</v>
       </c>
       <c r="K237" s="214"/>
-      <c r="L237" s="376" t="s">
+      <c r="L237" s="381" t="s">
         <v>355</v>
       </c>
-      <c r="M237" s="376"/>
-      <c r="N237" s="376"/>
-      <c r="O237" s="377"/>
+      <c r="M237" s="381"/>
+      <c r="N237" s="381"/>
+      <c r="O237" s="382"/>
       <c r="P237" s="10"/>
     </row>
     <row r="238" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28281,28 +28281,28 @@
         <v>255</v>
       </c>
       <c r="K238" s="237"/>
-      <c r="L238" s="390"/>
-      <c r="M238" s="376"/>
-      <c r="N238" s="376"/>
-      <c r="O238" s="377"/>
+      <c r="L238" s="393"/>
+      <c r="M238" s="381"/>
+      <c r="N238" s="381"/>
+      <c r="O238" s="382"/>
       <c r="P238" s="10"/>
     </row>
     <row r="239" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="9"/>
       <c r="B239" s="29"/>
       <c r="C239" s="30"/>
-      <c r="D239" s="381"/>
-      <c r="E239" s="382"/>
+      <c r="D239" s="383"/>
+      <c r="E239" s="384"/>
       <c r="F239" s="215"/>
       <c r="G239" s="215"/>
       <c r="H239" s="215"/>
       <c r="I239" s="31"/>
       <c r="J239" s="215"/>
       <c r="K239" s="215"/>
-      <c r="L239" s="383"/>
-      <c r="M239" s="383"/>
-      <c r="N239" s="383"/>
-      <c r="O239" s="384"/>
+      <c r="L239" s="385"/>
+      <c r="M239" s="385"/>
+      <c r="N239" s="385"/>
+      <c r="O239" s="386"/>
       <c r="P239" s="10"/>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.2">
@@ -28389,10 +28389,10 @@
       <c r="C244" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D244" s="391" t="s">
+      <c r="D244" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E244" s="392"/>
+      <c r="E244" s="388"/>
       <c r="F244" s="25" t="s">
         <v>31</v>
       </c>
@@ -28411,12 +28411,12 @@
       <c r="K244" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L244" s="393" t="s">
+      <c r="L244" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M244" s="393"/>
-      <c r="N244" s="393"/>
-      <c r="O244" s="394"/>
+      <c r="M244" s="389"/>
+      <c r="N244" s="389"/>
+      <c r="O244" s="390"/>
       <c r="P244" s="10"/>
     </row>
     <row r="245" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -28427,10 +28427,10 @@
       <c r="C245" s="233" t="s">
         <v>357</v>
       </c>
-      <c r="D245" s="395" t="s">
+      <c r="D245" s="391" t="s">
         <v>226</v>
       </c>
-      <c r="E245" s="396"/>
+      <c r="E245" s="392"/>
       <c r="F245" s="214"/>
       <c r="G245" s="214"/>
       <c r="H245" s="214" t="s">
@@ -28443,12 +28443,12 @@
         <v>255</v>
       </c>
       <c r="K245" s="214"/>
-      <c r="L245" s="390" t="s">
+      <c r="L245" s="393" t="s">
         <v>415</v>
       </c>
-      <c r="M245" s="376"/>
-      <c r="N245" s="376"/>
-      <c r="O245" s="377"/>
+      <c r="M245" s="381"/>
+      <c r="N245" s="381"/>
+      <c r="O245" s="382"/>
       <c r="P245" s="10"/>
     </row>
     <row r="246" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28473,28 +28473,28 @@
         <v>255</v>
       </c>
       <c r="K246" s="237"/>
-      <c r="L246" s="390"/>
-      <c r="M246" s="376"/>
-      <c r="N246" s="376"/>
-      <c r="O246" s="377"/>
+      <c r="L246" s="393"/>
+      <c r="M246" s="381"/>
+      <c r="N246" s="381"/>
+      <c r="O246" s="382"/>
       <c r="P246" s="10"/>
     </row>
     <row r="247" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="9"/>
       <c r="B247" s="29"/>
       <c r="C247" s="30"/>
-      <c r="D247" s="381"/>
-      <c r="E247" s="382"/>
+      <c r="D247" s="383"/>
+      <c r="E247" s="384"/>
       <c r="F247" s="215"/>
       <c r="G247" s="215"/>
       <c r="H247" s="215"/>
       <c r="I247" s="31"/>
       <c r="J247" s="215"/>
       <c r="K247" s="215"/>
-      <c r="L247" s="383"/>
-      <c r="M247" s="383"/>
-      <c r="N247" s="383"/>
-      <c r="O247" s="384"/>
+      <c r="L247" s="385"/>
+      <c r="M247" s="385"/>
+      <c r="N247" s="385"/>
+      <c r="O247" s="386"/>
       <c r="P247" s="10"/>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.2">
@@ -28581,10 +28581,10 @@
       <c r="C252" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D252" s="391" t="s">
+      <c r="D252" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E252" s="392"/>
+      <c r="E252" s="388"/>
       <c r="F252" s="25" t="s">
         <v>31</v>
       </c>
@@ -28603,12 +28603,12 @@
       <c r="K252" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L252" s="393" t="s">
+      <c r="L252" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M252" s="393"/>
-      <c r="N252" s="393"/>
-      <c r="O252" s="394"/>
+      <c r="M252" s="389"/>
+      <c r="N252" s="389"/>
+      <c r="O252" s="390"/>
       <c r="P252" s="10"/>
     </row>
     <row r="253" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -28619,10 +28619,10 @@
       <c r="C253" s="233" t="s">
         <v>357</v>
       </c>
-      <c r="D253" s="395" t="s">
+      <c r="D253" s="391" t="s">
         <v>360</v>
       </c>
-      <c r="E253" s="396"/>
+      <c r="E253" s="392"/>
       <c r="F253" s="214"/>
       <c r="G253" s="214"/>
       <c r="H253" s="214" t="s">
@@ -28635,12 +28635,12 @@
         <v>255</v>
       </c>
       <c r="K253" s="214"/>
-      <c r="L253" s="390" t="s">
+      <c r="L253" s="393" t="s">
         <v>361</v>
       </c>
-      <c r="M253" s="376"/>
-      <c r="N253" s="376"/>
-      <c r="O253" s="377"/>
+      <c r="M253" s="381"/>
+      <c r="N253" s="381"/>
+      <c r="O253" s="382"/>
       <c r="P253" s="10"/>
     </row>
     <row r="254" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28665,28 +28665,28 @@
         <v>255</v>
       </c>
       <c r="K254" s="237"/>
-      <c r="L254" s="390"/>
-      <c r="M254" s="376"/>
-      <c r="N254" s="376"/>
-      <c r="O254" s="377"/>
+      <c r="L254" s="393"/>
+      <c r="M254" s="381"/>
+      <c r="N254" s="381"/>
+      <c r="O254" s="382"/>
       <c r="P254" s="10"/>
     </row>
     <row r="255" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="9"/>
       <c r="B255" s="29"/>
       <c r="C255" s="30"/>
-      <c r="D255" s="381"/>
-      <c r="E255" s="382"/>
+      <c r="D255" s="383"/>
+      <c r="E255" s="384"/>
       <c r="F255" s="215"/>
       <c r="G255" s="215"/>
       <c r="H255" s="215"/>
       <c r="I255" s="31"/>
       <c r="J255" s="215"/>
       <c r="K255" s="215"/>
-      <c r="L255" s="383"/>
-      <c r="M255" s="383"/>
-      <c r="N255" s="383"/>
-      <c r="O255" s="384"/>
+      <c r="L255" s="385"/>
+      <c r="M255" s="385"/>
+      <c r="N255" s="385"/>
+      <c r="O255" s="386"/>
       <c r="P255" s="10"/>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.2">
@@ -28775,10 +28775,10 @@
       <c r="C260" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D260" s="391" t="s">
+      <c r="D260" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E260" s="392"/>
+      <c r="E260" s="388"/>
       <c r="F260" s="25" t="s">
         <v>31</v>
       </c>
@@ -28797,12 +28797,12 @@
       <c r="K260" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L260" s="393" t="s">
+      <c r="L260" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M260" s="393"/>
-      <c r="N260" s="393"/>
-      <c r="O260" s="394"/>
+      <c r="M260" s="389"/>
+      <c r="N260" s="389"/>
+      <c r="O260" s="390"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28813,10 +28813,10 @@
       <c r="C261" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D261" s="385" t="s">
+      <c r="D261" s="379" t="s">
         <v>265</v>
       </c>
-      <c r="E261" s="386"/>
+      <c r="E261" s="380"/>
       <c r="F261" s="214"/>
       <c r="G261" s="214"/>
       <c r="H261" s="214" t="s">
@@ -28831,12 +28831,12 @@
       <c r="K261" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L261" s="376" t="s">
+      <c r="L261" s="381" t="s">
         <v>266</v>
       </c>
-      <c r="M261" s="376"/>
-      <c r="N261" s="376"/>
-      <c r="O261" s="377"/>
+      <c r="M261" s="381"/>
+      <c r="N261" s="381"/>
+      <c r="O261" s="382"/>
       <c r="P261" s="10"/>
     </row>
     <row r="262" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28847,10 +28847,10 @@
       <c r="C262" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D262" s="385" t="s">
+      <c r="D262" s="379" t="s">
         <v>376</v>
       </c>
-      <c r="E262" s="386"/>
+      <c r="E262" s="380"/>
       <c r="F262" s="214"/>
       <c r="G262" s="214"/>
       <c r="H262" s="214" t="s">
@@ -28863,10 +28863,10 @@
         <v>255</v>
       </c>
       <c r="K262" s="214"/>
-      <c r="L262" s="376"/>
-      <c r="M262" s="376"/>
-      <c r="N262" s="376"/>
-      <c r="O262" s="377"/>
+      <c r="L262" s="381"/>
+      <c r="M262" s="381"/>
+      <c r="N262" s="381"/>
+      <c r="O262" s="382"/>
       <c r="P262" s="10"/>
     </row>
     <row r="263" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28877,10 +28877,10 @@
       <c r="C263" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D263" s="385" t="s">
+      <c r="D263" s="379" t="s">
         <v>377</v>
       </c>
-      <c r="E263" s="386"/>
+      <c r="E263" s="380"/>
       <c r="F263" s="214"/>
       <c r="G263" s="214"/>
       <c r="H263" s="214"/>
@@ -28891,28 +28891,28 @@
         <v>255</v>
       </c>
       <c r="K263" s="214"/>
-      <c r="L263" s="376"/>
-      <c r="M263" s="376"/>
-      <c r="N263" s="376"/>
-      <c r="O263" s="377"/>
+      <c r="L263" s="381"/>
+      <c r="M263" s="381"/>
+      <c r="N263" s="381"/>
+      <c r="O263" s="382"/>
       <c r="P263" s="10"/>
     </row>
     <row r="264" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="9"/>
       <c r="B264" s="29"/>
       <c r="C264" s="30"/>
-      <c r="D264" s="381"/>
-      <c r="E264" s="382"/>
+      <c r="D264" s="383"/>
+      <c r="E264" s="384"/>
       <c r="F264" s="215"/>
       <c r="G264" s="215"/>
       <c r="H264" s="215"/>
       <c r="I264" s="31"/>
       <c r="J264" s="215"/>
       <c r="K264" s="215"/>
-      <c r="L264" s="383"/>
-      <c r="M264" s="383"/>
-      <c r="N264" s="383"/>
-      <c r="O264" s="384"/>
+      <c r="L264" s="385"/>
+      <c r="M264" s="385"/>
+      <c r="N264" s="385"/>
+      <c r="O264" s="386"/>
       <c r="P264" s="10"/>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.2">
@@ -29001,10 +29001,10 @@
       <c r="C269" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D269" s="391" t="s">
+      <c r="D269" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E269" s="392"/>
+      <c r="E269" s="388"/>
       <c r="F269" s="25" t="s">
         <v>31</v>
       </c>
@@ -29023,12 +29023,12 @@
       <c r="K269" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L269" s="393" t="s">
+      <c r="L269" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M269" s="393"/>
-      <c r="N269" s="393"/>
-      <c r="O269" s="394"/>
+      <c r="M269" s="389"/>
+      <c r="N269" s="389"/>
+      <c r="O269" s="390"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29039,10 +29039,10 @@
       <c r="C270" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D270" s="385" t="s">
+      <c r="D270" s="379" t="s">
         <v>379</v>
       </c>
-      <c r="E270" s="386"/>
+      <c r="E270" s="380"/>
       <c r="F270" s="214"/>
       <c r="G270" s="214"/>
       <c r="H270" s="214" t="s">
@@ -29055,10 +29055,10 @@
         <v>255</v>
       </c>
       <c r="K270" s="214"/>
-      <c r="L270" s="376"/>
-      <c r="M270" s="376"/>
-      <c r="N270" s="376"/>
-      <c r="O270" s="377"/>
+      <c r="L270" s="381"/>
+      <c r="M270" s="381"/>
+      <c r="N270" s="381"/>
+      <c r="O270" s="382"/>
       <c r="P270" s="10"/>
     </row>
     <row r="271" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29069,10 +29069,10 @@
       <c r="C271" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D271" s="385" t="s">
+      <c r="D271" s="379" t="s">
         <v>380</v>
       </c>
-      <c r="E271" s="386"/>
+      <c r="E271" s="380"/>
       <c r="F271" s="214"/>
       <c r="G271" s="214"/>
       <c r="H271" s="214"/>
@@ -29083,10 +29083,10 @@
         <v>255</v>
       </c>
       <c r="K271" s="214"/>
-      <c r="L271" s="376"/>
-      <c r="M271" s="376"/>
-      <c r="N271" s="376"/>
-      <c r="O271" s="377"/>
+      <c r="L271" s="381"/>
+      <c r="M271" s="381"/>
+      <c r="N271" s="381"/>
+      <c r="O271" s="382"/>
       <c r="P271" s="10"/>
     </row>
     <row r="272" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29109,30 +29109,30 @@
       </c>
       <c r="J272" s="214"/>
       <c r="K272" s="214"/>
-      <c r="L272" s="376" t="s">
+      <c r="L272" s="381" t="s">
         <v>414</v>
       </c>
-      <c r="M272" s="376"/>
-      <c r="N272" s="376"/>
-      <c r="O272" s="377"/>
+      <c r="M272" s="381"/>
+      <c r="N272" s="381"/>
+      <c r="O272" s="382"/>
       <c r="P272" s="10"/>
     </row>
     <row r="273" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="9"/>
       <c r="B273" s="29"/>
       <c r="C273" s="30"/>
-      <c r="D273" s="381"/>
-      <c r="E273" s="382"/>
+      <c r="D273" s="383"/>
+      <c r="E273" s="384"/>
       <c r="F273" s="215"/>
       <c r="G273" s="215"/>
       <c r="H273" s="215"/>
       <c r="I273" s="31"/>
       <c r="J273" s="215"/>
       <c r="K273" s="215"/>
-      <c r="L273" s="383"/>
-      <c r="M273" s="383"/>
-      <c r="N273" s="383"/>
-      <c r="O273" s="384"/>
+      <c r="L273" s="385"/>
+      <c r="M273" s="385"/>
+      <c r="N273" s="385"/>
+      <c r="O273" s="386"/>
       <c r="P273" s="10"/>
     </row>
     <row r="274" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -29221,10 +29221,10 @@
       <c r="C278" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D278" s="391" t="s">
+      <c r="D278" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E278" s="392"/>
+      <c r="E278" s="388"/>
       <c r="F278" s="25" t="s">
         <v>31</v>
       </c>
@@ -29243,12 +29243,12 @@
       <c r="K278" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L278" s="393" t="s">
+      <c r="L278" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M278" s="393"/>
-      <c r="N278" s="393"/>
-      <c r="O278" s="394"/>
+      <c r="M278" s="389"/>
+      <c r="N278" s="389"/>
+      <c r="O278" s="390"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29259,10 +29259,10 @@
       <c r="C279" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="D279" s="385" t="s">
+      <c r="D279" s="379" t="s">
         <v>384</v>
       </c>
-      <c r="E279" s="386"/>
+      <c r="E279" s="380"/>
       <c r="F279" s="214"/>
       <c r="G279" s="214"/>
       <c r="H279" s="214" t="s">
@@ -29273,12 +29273,12 @@
       </c>
       <c r="J279" s="214"/>
       <c r="K279" s="214"/>
-      <c r="L279" s="376" t="s">
+      <c r="L279" s="381" t="s">
         <v>385</v>
       </c>
-      <c r="M279" s="376"/>
-      <c r="N279" s="376"/>
-      <c r="O279" s="377"/>
+      <c r="M279" s="381"/>
+      <c r="N279" s="381"/>
+      <c r="O279" s="382"/>
       <c r="P279" s="10"/>
     </row>
     <row r="280" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29289,10 +29289,10 @@
       <c r="C280" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D280" s="385" t="s">
+      <c r="D280" s="379" t="s">
         <v>386</v>
       </c>
-      <c r="E280" s="386"/>
+      <c r="E280" s="380"/>
       <c r="F280" s="214"/>
       <c r="G280" s="214"/>
       <c r="H280" s="214" t="s">
@@ -29305,10 +29305,10 @@
         <v>255</v>
       </c>
       <c r="K280" s="214"/>
-      <c r="L280" s="376"/>
-      <c r="M280" s="376"/>
-      <c r="N280" s="376"/>
-      <c r="O280" s="377"/>
+      <c r="L280" s="381"/>
+      <c r="M280" s="381"/>
+      <c r="N280" s="381"/>
+      <c r="O280" s="382"/>
       <c r="P280" s="10"/>
     </row>
     <row r="281" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29319,10 +29319,10 @@
       <c r="C281" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D281" s="442" t="s">
+      <c r="D281" s="396" t="s">
         <v>377</v>
       </c>
-      <c r="E281" s="443"/>
+      <c r="E281" s="397"/>
       <c r="F281" s="214"/>
       <c r="G281" s="214"/>
       <c r="H281" s="214"/>
@@ -29333,10 +29333,10 @@
         <v>255</v>
       </c>
       <c r="K281" s="214"/>
-      <c r="L281" s="376"/>
-      <c r="M281" s="376"/>
-      <c r="N281" s="376"/>
-      <c r="O281" s="377"/>
+      <c r="L281" s="381"/>
+      <c r="M281" s="381"/>
+      <c r="N281" s="381"/>
+      <c r="O281" s="382"/>
       <c r="P281" s="10"/>
     </row>
     <row r="282" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -29347,10 +29347,10 @@
       <c r="C282" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D282" s="413" t="s">
+      <c r="D282" s="394" t="s">
         <v>413</v>
       </c>
-      <c r="E282" s="414"/>
+      <c r="E282" s="395"/>
       <c r="F282" s="215"/>
       <c r="G282" s="215"/>
       <c r="H282" s="215" t="s">
@@ -29363,12 +29363,12 @@
       <c r="K282" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="L282" s="383" t="s">
+      <c r="L282" s="385" t="s">
         <v>414</v>
       </c>
-      <c r="M282" s="383"/>
-      <c r="N282" s="383"/>
-      <c r="O282" s="384"/>
+      <c r="M282" s="385"/>
+      <c r="N282" s="385"/>
+      <c r="O282" s="386"/>
       <c r="P282" s="10"/>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.2">
@@ -29455,10 +29455,10 @@
       <c r="C287" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D287" s="391" t="s">
+      <c r="D287" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E287" s="392"/>
+      <c r="E287" s="388"/>
       <c r="F287" s="25" t="s">
         <v>31</v>
       </c>
@@ -29477,12 +29477,12 @@
       <c r="K287" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L287" s="393" t="s">
+      <c r="L287" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M287" s="393"/>
-      <c r="N287" s="393"/>
-      <c r="O287" s="394"/>
+      <c r="M287" s="389"/>
+      <c r="N287" s="389"/>
+      <c r="O287" s="390"/>
       <c r="P287" s="10"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29493,10 +29493,10 @@
       <c r="C288" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="D288" s="385" t="s">
+      <c r="D288" s="379" t="s">
         <v>401</v>
       </c>
-      <c r="E288" s="386"/>
+      <c r="E288" s="380"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214" t="s">
@@ -29509,10 +29509,10 @@
         <v>255</v>
       </c>
       <c r="K288" s="214"/>
-      <c r="L288" s="376"/>
-      <c r="M288" s="376"/>
-      <c r="N288" s="376"/>
-      <c r="O288" s="377"/>
+      <c r="L288" s="381"/>
+      <c r="M288" s="381"/>
+      <c r="N288" s="381"/>
+      <c r="O288" s="382"/>
       <c r="P288" s="10"/>
     </row>
     <row r="289" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29523,10 +29523,10 @@
       <c r="C289" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="D289" s="385" t="s">
+      <c r="D289" s="379" t="s">
         <v>394</v>
       </c>
-      <c r="E289" s="386"/>
+      <c r="E289" s="380"/>
       <c r="F289" s="214"/>
       <c r="G289" s="214"/>
       <c r="H289" s="214" t="s">
@@ -29539,12 +29539,12 @@
         <v>255</v>
       </c>
       <c r="K289" s="214"/>
-      <c r="L289" s="376" t="s">
+      <c r="L289" s="381" t="s">
         <v>393</v>
       </c>
-      <c r="M289" s="376"/>
-      <c r="N289" s="376"/>
-      <c r="O289" s="377"/>
+      <c r="M289" s="381"/>
+      <c r="N289" s="381"/>
+      <c r="O289" s="382"/>
       <c r="P289" s="10"/>
     </row>
     <row r="290" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29555,10 +29555,10 @@
       <c r="C290" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="D290" s="395" t="s">
+      <c r="D290" s="391" t="s">
         <v>400</v>
       </c>
-      <c r="E290" s="396"/>
+      <c r="E290" s="392"/>
       <c r="F290" s="214"/>
       <c r="G290" s="214"/>
       <c r="H290" s="214" t="s">
@@ -29571,10 +29571,10 @@
         <v>255</v>
       </c>
       <c r="K290" s="214"/>
-      <c r="L290" s="390"/>
-      <c r="M290" s="376"/>
-      <c r="N290" s="376"/>
-      <c r="O290" s="377"/>
+      <c r="L290" s="393"/>
+      <c r="M290" s="381"/>
+      <c r="N290" s="381"/>
+      <c r="O290" s="382"/>
       <c r="P290" s="10"/>
     </row>
     <row r="291" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29585,10 +29585,10 @@
       <c r="C291" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="D291" s="385" t="s">
+      <c r="D291" s="379" t="s">
         <v>399</v>
       </c>
-      <c r="E291" s="386"/>
+      <c r="E291" s="380"/>
       <c r="F291" s="214"/>
       <c r="G291" s="214"/>
       <c r="H291" s="214" t="s">
@@ -29599,12 +29599,12 @@
       </c>
       <c r="J291" s="214"/>
       <c r="K291" s="214"/>
-      <c r="L291" s="376" t="s">
+      <c r="L291" s="381" t="s">
         <v>252</v>
       </c>
-      <c r="M291" s="376"/>
-      <c r="N291" s="376"/>
-      <c r="O291" s="377"/>
+      <c r="M291" s="381"/>
+      <c r="N291" s="381"/>
+      <c r="O291" s="382"/>
       <c r="P291" s="10"/>
     </row>
     <row r="292" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29615,10 +29615,10 @@
       <c r="C292" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="D292" s="385" t="s">
+      <c r="D292" s="379" t="s">
         <v>398</v>
       </c>
-      <c r="E292" s="386"/>
+      <c r="E292" s="380"/>
       <c r="F292" s="214"/>
       <c r="G292" s="214"/>
       <c r="H292" s="214"/>
@@ -29629,30 +29629,30 @@
       <c r="K292" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L292" s="376" t="s">
+      <c r="L292" s="381" t="s">
         <v>268</v>
       </c>
-      <c r="M292" s="376"/>
-      <c r="N292" s="376"/>
-      <c r="O292" s="377"/>
+      <c r="M292" s="381"/>
+      <c r="N292" s="381"/>
+      <c r="O292" s="382"/>
       <c r="P292" s="10"/>
     </row>
     <row r="293" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="9"/>
       <c r="B293" s="29"/>
       <c r="C293" s="30"/>
-      <c r="D293" s="381"/>
-      <c r="E293" s="382"/>
+      <c r="D293" s="383"/>
+      <c r="E293" s="384"/>
       <c r="F293" s="215"/>
       <c r="G293" s="215"/>
       <c r="H293" s="215"/>
       <c r="I293" s="31"/>
       <c r="J293" s="215"/>
       <c r="K293" s="215"/>
-      <c r="L293" s="383"/>
-      <c r="M293" s="383"/>
-      <c r="N293" s="383"/>
-      <c r="O293" s="384"/>
+      <c r="L293" s="385"/>
+      <c r="M293" s="385"/>
+      <c r="N293" s="385"/>
+      <c r="O293" s="386"/>
       <c r="P293" s="10"/>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
@@ -29758,10 +29758,10 @@
       <c r="C300" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D300" s="391" t="s">
+      <c r="D300" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E300" s="392"/>
+      <c r="E300" s="388"/>
       <c r="F300" s="25" t="s">
         <v>31</v>
       </c>
@@ -29780,12 +29780,12 @@
       <c r="K300" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L300" s="393" t="s">
+      <c r="L300" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M300" s="393"/>
-      <c r="N300" s="393"/>
-      <c r="O300" s="394"/>
+      <c r="M300" s="389"/>
+      <c r="N300" s="389"/>
+      <c r="O300" s="390"/>
       <c r="P300" s="10"/>
     </row>
     <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29796,8 +29796,8 @@
       <c r="C301" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="D301" s="385"/>
-      <c r="E301" s="386"/>
+      <c r="D301" s="379"/>
+      <c r="E301" s="380"/>
       <c r="F301" s="214"/>
       <c r="G301" s="214"/>
       <c r="H301" s="214" t="s">
@@ -29810,10 +29810,10 @@
         <v>255</v>
       </c>
       <c r="K301" s="214"/>
-      <c r="L301" s="376"/>
-      <c r="M301" s="376"/>
-      <c r="N301" s="376"/>
-      <c r="O301" s="377"/>
+      <c r="L301" s="381"/>
+      <c r="M301" s="381"/>
+      <c r="N301" s="381"/>
+      <c r="O301" s="382"/>
       <c r="P301" s="10"/>
     </row>
     <row r="302" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29824,8 +29824,8 @@
       <c r="C302" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D302" s="385"/>
-      <c r="E302" s="386"/>
+      <c r="D302" s="379"/>
+      <c r="E302" s="380"/>
       <c r="F302" s="214"/>
       <c r="G302" s="214"/>
       <c r="H302" s="214" t="s">
@@ -29836,12 +29836,12 @@
       </c>
       <c r="J302" s="214"/>
       <c r="K302" s="214"/>
-      <c r="L302" s="376" t="s">
+      <c r="L302" s="381" t="s">
         <v>352</v>
       </c>
-      <c r="M302" s="376"/>
-      <c r="N302" s="376"/>
-      <c r="O302" s="377"/>
+      <c r="M302" s="381"/>
+      <c r="N302" s="381"/>
+      <c r="O302" s="382"/>
       <c r="P302" s="10"/>
     </row>
     <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29852,8 +29852,8 @@
       <c r="C303" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="D303" s="395"/>
-      <c r="E303" s="396"/>
+      <c r="D303" s="391"/>
+      <c r="E303" s="392"/>
       <c r="F303" s="214"/>
       <c r="G303" s="214"/>
       <c r="H303" s="214" t="s">
@@ -29864,12 +29864,12 @@
       </c>
       <c r="J303" s="214"/>
       <c r="K303" s="214"/>
-      <c r="L303" s="390" t="s">
+      <c r="L303" s="393" t="s">
         <v>348</v>
       </c>
-      <c r="M303" s="376"/>
-      <c r="N303" s="376"/>
-      <c r="O303" s="377"/>
+      <c r="M303" s="381"/>
+      <c r="N303" s="381"/>
+      <c r="O303" s="382"/>
       <c r="P303" s="10"/>
     </row>
     <row r="304" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29880,8 +29880,8 @@
       <c r="C304" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="D304" s="385"/>
-      <c r="E304" s="386"/>
+      <c r="D304" s="379"/>
+      <c r="E304" s="380"/>
       <c r="F304" s="214"/>
       <c r="G304" s="214"/>
       <c r="H304" s="214" t="s">
@@ -29892,10 +29892,10 @@
       </c>
       <c r="J304" s="214"/>
       <c r="K304" s="214"/>
-      <c r="L304" s="376"/>
-      <c r="M304" s="376"/>
-      <c r="N304" s="376"/>
-      <c r="O304" s="377"/>
+      <c r="L304" s="381"/>
+      <c r="M304" s="381"/>
+      <c r="N304" s="381"/>
+      <c r="O304" s="382"/>
       <c r="P304" s="10"/>
     </row>
     <row r="305" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29906,8 +29906,8 @@
       <c r="C305" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="D305" s="385"/>
-      <c r="E305" s="386"/>
+      <c r="D305" s="379"/>
+      <c r="E305" s="380"/>
       <c r="F305" s="214"/>
       <c r="G305" s="214"/>
       <c r="H305" s="214" t="s">
@@ -29918,10 +29918,10 @@
       </c>
       <c r="J305" s="214"/>
       <c r="K305" s="214"/>
-      <c r="L305" s="376"/>
-      <c r="M305" s="376"/>
-      <c r="N305" s="376"/>
-      <c r="O305" s="377"/>
+      <c r="L305" s="381"/>
+      <c r="M305" s="381"/>
+      <c r="N305" s="381"/>
+      <c r="O305" s="382"/>
       <c r="P305" s="10"/>
     </row>
     <row r="306" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29932,8 +29932,8 @@
       <c r="C306" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="D306" s="385"/>
-      <c r="E306" s="386"/>
+      <c r="D306" s="379"/>
+      <c r="E306" s="380"/>
       <c r="F306" s="214"/>
       <c r="G306" s="214"/>
       <c r="H306" s="214" t="s">
@@ -29946,10 +29946,10 @@
         <v>255</v>
       </c>
       <c r="K306" s="214"/>
-      <c r="L306" s="376"/>
-      <c r="M306" s="376"/>
-      <c r="N306" s="376"/>
-      <c r="O306" s="377"/>
+      <c r="L306" s="381"/>
+      <c r="M306" s="381"/>
+      <c r="N306" s="381"/>
+      <c r="O306" s="382"/>
       <c r="P306" s="10"/>
     </row>
     <row r="307" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29960,8 +29960,8 @@
       <c r="C307" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="D307" s="385"/>
-      <c r="E307" s="386"/>
+      <c r="D307" s="379"/>
+      <c r="E307" s="380"/>
       <c r="F307" s="214"/>
       <c r="G307" s="214"/>
       <c r="H307" s="214" t="s">
@@ -29972,30 +29972,30 @@
       </c>
       <c r="J307" s="214"/>
       <c r="K307" s="214"/>
-      <c r="L307" s="376" t="s">
+      <c r="L307" s="381" t="s">
         <v>422</v>
       </c>
-      <c r="M307" s="376"/>
-      <c r="N307" s="376"/>
-      <c r="O307" s="377"/>
+      <c r="M307" s="381"/>
+      <c r="N307" s="381"/>
+      <c r="O307" s="382"/>
       <c r="P307" s="10"/>
     </row>
     <row r="308" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="9"/>
       <c r="B308" s="29"/>
       <c r="C308" s="30"/>
-      <c r="D308" s="381"/>
-      <c r="E308" s="382"/>
+      <c r="D308" s="383"/>
+      <c r="E308" s="384"/>
       <c r="F308" s="215"/>
       <c r="G308" s="215"/>
       <c r="H308" s="215"/>
       <c r="I308" s="31"/>
       <c r="J308" s="215"/>
       <c r="K308" s="215"/>
-      <c r="L308" s="383"/>
-      <c r="M308" s="383"/>
-      <c r="N308" s="383"/>
-      <c r="O308" s="384"/>
+      <c r="L308" s="385"/>
+      <c r="M308" s="385"/>
+      <c r="N308" s="385"/>
+      <c r="O308" s="386"/>
       <c r="P308" s="10"/>
     </row>
     <row r="310" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30047,10 +30047,10 @@
       <c r="C313" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D313" s="391" t="s">
+      <c r="D313" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E313" s="392"/>
+      <c r="E313" s="388"/>
       <c r="F313" s="25" t="s">
         <v>31</v>
       </c>
@@ -30069,12 +30069,12 @@
       <c r="K313" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L313" s="393" t="s">
+      <c r="L313" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M313" s="393"/>
-      <c r="N313" s="393"/>
-      <c r="O313" s="394"/>
+      <c r="M313" s="389"/>
+      <c r="N313" s="389"/>
+      <c r="O313" s="390"/>
       <c r="P313" s="10"/>
     </row>
     <row r="314" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30085,8 +30085,8 @@
       <c r="C314" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D314" s="385"/>
-      <c r="E314" s="386"/>
+      <c r="D314" s="379"/>
+      <c r="E314" s="380"/>
       <c r="F314" s="214"/>
       <c r="G314" s="214"/>
       <c r="H314" s="214" t="s">
@@ -30099,12 +30099,12 @@
       <c r="K314" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L314" s="376" t="s">
+      <c r="L314" s="381" t="s">
         <v>424</v>
       </c>
-      <c r="M314" s="376"/>
-      <c r="N314" s="376"/>
-      <c r="O314" s="377"/>
+      <c r="M314" s="381"/>
+      <c r="N314" s="381"/>
+      <c r="O314" s="382"/>
       <c r="P314" s="10"/>
     </row>
     <row r="315" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30115,8 +30115,8 @@
       <c r="C315" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D315" s="385"/>
-      <c r="E315" s="386"/>
+      <c r="D315" s="379"/>
+      <c r="E315" s="380"/>
       <c r="F315" s="214"/>
       <c r="G315" s="214"/>
       <c r="H315" s="214" t="s">
@@ -30127,12 +30127,12 @@
       </c>
       <c r="J315" s="214"/>
       <c r="K315" s="214"/>
-      <c r="L315" s="376" t="s">
+      <c r="L315" s="381" t="s">
         <v>442</v>
       </c>
-      <c r="M315" s="376"/>
-      <c r="N315" s="376"/>
-      <c r="O315" s="377"/>
+      <c r="M315" s="381"/>
+      <c r="N315" s="381"/>
+      <c r="O315" s="382"/>
       <c r="P315" s="10"/>
     </row>
     <row r="316" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -30143,8 +30143,8 @@
       <c r="C316" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="D316" s="395"/>
-      <c r="E316" s="396"/>
+      <c r="D316" s="391"/>
+      <c r="E316" s="392"/>
       <c r="F316" s="214"/>
       <c r="G316" s="214"/>
       <c r="H316" s="214" t="s">
@@ -30157,10 +30157,10 @@
         <v>20</v>
       </c>
       <c r="K316" s="214"/>
-      <c r="L316" s="390"/>
-      <c r="M316" s="376"/>
-      <c r="N316" s="376"/>
-      <c r="O316" s="377"/>
+      <c r="L316" s="393"/>
+      <c r="M316" s="381"/>
+      <c r="N316" s="381"/>
+      <c r="O316" s="382"/>
       <c r="P316" s="10"/>
     </row>
     <row r="317" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30171,8 +30171,8 @@
       <c r="C317" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="D317" s="385"/>
-      <c r="E317" s="386"/>
+      <c r="D317" s="379"/>
+      <c r="E317" s="380"/>
       <c r="F317" s="214"/>
       <c r="G317" s="214"/>
       <c r="H317" s="214" t="s">
@@ -30183,10 +30183,10 @@
       </c>
       <c r="J317" s="214"/>
       <c r="K317" s="214"/>
-      <c r="L317" s="376"/>
-      <c r="M317" s="376"/>
-      <c r="N317" s="376"/>
-      <c r="O317" s="377"/>
+      <c r="L317" s="381"/>
+      <c r="M317" s="381"/>
+      <c r="N317" s="381"/>
+      <c r="O317" s="382"/>
       <c r="P317" s="10"/>
     </row>
     <row r="318" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30197,8 +30197,8 @@
       <c r="C318" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="D318" s="385"/>
-      <c r="E318" s="386"/>
+      <c r="D318" s="379"/>
+      <c r="E318" s="380"/>
       <c r="F318" s="214"/>
       <c r="G318" s="214"/>
       <c r="H318" s="214" t="s">
@@ -30211,28 +30211,28 @@
         <v>20</v>
       </c>
       <c r="K318" s="214"/>
-      <c r="L318" s="376"/>
-      <c r="M318" s="376"/>
-      <c r="N318" s="376"/>
-      <c r="O318" s="377"/>
+      <c r="L318" s="381"/>
+      <c r="M318" s="381"/>
+      <c r="N318" s="381"/>
+      <c r="O318" s="382"/>
       <c r="P318" s="10"/>
     </row>
     <row r="319" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="9"/>
       <c r="B319" s="29"/>
       <c r="C319" s="30"/>
-      <c r="D319" s="381"/>
-      <c r="E319" s="382"/>
+      <c r="D319" s="383"/>
+      <c r="E319" s="384"/>
       <c r="F319" s="215"/>
       <c r="G319" s="215"/>
       <c r="H319" s="215"/>
       <c r="I319" s="31"/>
       <c r="J319" s="215"/>
       <c r="K319" s="215"/>
-      <c r="L319" s="383"/>
-      <c r="M319" s="383"/>
-      <c r="N319" s="383"/>
-      <c r="O319" s="384"/>
+      <c r="L319" s="385"/>
+      <c r="M319" s="385"/>
+      <c r="N319" s="385"/>
+      <c r="O319" s="386"/>
       <c r="P319" s="10"/>
     </row>
     <row r="321" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30284,10 +30284,10 @@
       <c r="C324" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="D324" s="361" t="s">
+      <c r="D324" s="372" t="s">
         <v>30</v>
       </c>
-      <c r="E324" s="362"/>
+      <c r="E324" s="373"/>
       <c r="F324" s="276" t="s">
         <v>31</v>
       </c>
@@ -30306,12 +30306,12 @@
       <c r="K324" s="276" t="s">
         <v>36</v>
       </c>
-      <c r="L324" s="363" t="s">
+      <c r="L324" s="374" t="s">
         <v>37</v>
       </c>
-      <c r="M324" s="363"/>
-      <c r="N324" s="363"/>
-      <c r="O324" s="364"/>
+      <c r="M324" s="374"/>
+      <c r="N324" s="374"/>
+      <c r="O324" s="375"/>
       <c r="P324" s="267"/>
     </row>
     <row r="325" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -30322,10 +30322,10 @@
       <c r="C325" s="278" t="s">
         <v>430</v>
       </c>
-      <c r="D325" s="365" t="s">
+      <c r="D325" s="376" t="s">
         <v>431</v>
       </c>
-      <c r="E325" s="366"/>
+      <c r="E325" s="377"/>
       <c r="F325" s="265"/>
       <c r="G325" s="265"/>
       <c r="H325" s="265" t="s">
@@ -30338,12 +30338,12 @@
         <v>255</v>
       </c>
       <c r="K325" s="265"/>
-      <c r="L325" s="367" t="s">
+      <c r="L325" s="378" t="s">
         <v>432</v>
       </c>
-      <c r="M325" s="368"/>
-      <c r="N325" s="368"/>
-      <c r="O325" s="369"/>
+      <c r="M325" s="367"/>
+      <c r="N325" s="367"/>
+      <c r="O325" s="368"/>
       <c r="P325" s="267"/>
     </row>
     <row r="326" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -30368,28 +30368,28 @@
         <v>255</v>
       </c>
       <c r="K326" s="283"/>
-      <c r="L326" s="367"/>
-      <c r="M326" s="368"/>
-      <c r="N326" s="368"/>
-      <c r="O326" s="369"/>
+      <c r="L326" s="378"/>
+      <c r="M326" s="367"/>
+      <c r="N326" s="367"/>
+      <c r="O326" s="368"/>
       <c r="P326" s="267"/>
     </row>
     <row r="327" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="260"/>
       <c r="B327" s="284"/>
       <c r="C327" s="285"/>
-      <c r="D327" s="370"/>
-      <c r="E327" s="371"/>
+      <c r="D327" s="361"/>
+      <c r="E327" s="362"/>
       <c r="F327" s="286"/>
       <c r="G327" s="286"/>
       <c r="H327" s="286"/>
       <c r="I327" s="287"/>
       <c r="J327" s="286"/>
       <c r="K327" s="286"/>
-      <c r="L327" s="372"/>
-      <c r="M327" s="372"/>
-      <c r="N327" s="372"/>
-      <c r="O327" s="373"/>
+      <c r="L327" s="363"/>
+      <c r="M327" s="363"/>
+      <c r="N327" s="363"/>
+      <c r="O327" s="364"/>
       <c r="P327" s="267"/>
     </row>
     <row r="329" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30441,10 +30441,10 @@
       <c r="C332" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="D332" s="361" t="s">
+      <c r="D332" s="372" t="s">
         <v>30</v>
       </c>
-      <c r="E332" s="362"/>
+      <c r="E332" s="373"/>
       <c r="F332" s="276" t="s">
         <v>31</v>
       </c>
@@ -30463,12 +30463,12 @@
       <c r="K332" s="276" t="s">
         <v>36</v>
       </c>
-      <c r="L332" s="363" t="s">
+      <c r="L332" s="374" t="s">
         <v>37</v>
       </c>
-      <c r="M332" s="363"/>
-      <c r="N332" s="363"/>
-      <c r="O332" s="364"/>
+      <c r="M332" s="374"/>
+      <c r="N332" s="374"/>
+      <c r="O332" s="375"/>
       <c r="P332" s="267"/>
     </row>
     <row r="333" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -30479,10 +30479,10 @@
       <c r="C333" s="262" t="s">
         <v>444</v>
       </c>
-      <c r="D333" s="374" t="s">
+      <c r="D333" s="365" t="s">
         <v>218</v>
       </c>
-      <c r="E333" s="375"/>
+      <c r="E333" s="366"/>
       <c r="F333" s="265"/>
       <c r="G333" s="265"/>
       <c r="H333" s="265" t="s">
@@ -30495,10 +30495,10 @@
       <c r="K333" s="265" t="s">
         <v>191</v>
       </c>
-      <c r="L333" s="368"/>
-      <c r="M333" s="368"/>
-      <c r="N333" s="368"/>
-      <c r="O333" s="369"/>
+      <c r="L333" s="367"/>
+      <c r="M333" s="367"/>
+      <c r="N333" s="367"/>
+      <c r="O333" s="368"/>
       <c r="P333" s="267"/>
     </row>
     <row r="334" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -30509,10 +30509,10 @@
       <c r="C334" s="288" t="s">
         <v>445</v>
       </c>
-      <c r="D334" s="365" t="s">
+      <c r="D334" s="376" t="s">
         <v>446</v>
       </c>
-      <c r="E334" s="366"/>
+      <c r="E334" s="377"/>
       <c r="F334" s="265"/>
       <c r="G334" s="265"/>
       <c r="H334" s="265" t="s">
@@ -30523,32 +30523,382 @@
       </c>
       <c r="J334" s="265"/>
       <c r="K334" s="265"/>
-      <c r="L334" s="367"/>
-      <c r="M334" s="368"/>
-      <c r="N334" s="368"/>
-      <c r="O334" s="369"/>
+      <c r="L334" s="378"/>
+      <c r="M334" s="367"/>
+      <c r="N334" s="367"/>
+      <c r="O334" s="368"/>
       <c r="P334" s="267"/>
     </row>
     <row r="335" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="260"/>
       <c r="B335" s="284"/>
       <c r="C335" s="285"/>
-      <c r="D335" s="370"/>
-      <c r="E335" s="371"/>
+      <c r="D335" s="361"/>
+      <c r="E335" s="362"/>
       <c r="F335" s="286"/>
       <c r="G335" s="286"/>
       <c r="H335" s="286"/>
       <c r="I335" s="287"/>
       <c r="J335" s="286"/>
       <c r="K335" s="286"/>
-      <c r="L335" s="372"/>
-      <c r="M335" s="372"/>
-      <c r="N335" s="372"/>
-      <c r="O335" s="373"/>
+      <c r="L335" s="363"/>
+      <c r="M335" s="363"/>
+      <c r="N335" s="363"/>
+      <c r="O335" s="364"/>
       <c r="P335" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="374">
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="L324:O324"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="L325:O325"/>
+    <mergeCell ref="L326:O326"/>
+    <mergeCell ref="D327:E327"/>
+    <mergeCell ref="L327:O327"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="L128:O128"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="L237:O237"/>
+    <mergeCell ref="L238:O238"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="L239:O239"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="L236:O236"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="L228:O228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="L229:O229"/>
+    <mergeCell ref="L230:O230"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="L231:O231"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="L252:O252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="L253:O253"/>
+    <mergeCell ref="L254:O254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="L255:O255"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="L150:O150"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L149:O149"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="L148:O148"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="L119:O119"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L71:O72"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O57"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="L160:O160"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L179:O179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="L180:O180"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="L171:O171"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="L176:O176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="L177:O177"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="L161:O161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="L156:O156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="L198:O198"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="L203:O203"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="L187:O187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="L188:O188"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="L185:O185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="L186:O186"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="L178:O178"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="L204:O204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="L205:O205"/>
+    <mergeCell ref="L214:O214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="L215:O215"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="L207:O207"/>
+    <mergeCell ref="L206:O206"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="L212:O212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="L213:O213"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="L260:O260"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="L261:O261"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="L262:O262"/>
+    <mergeCell ref="L263:O263"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="L264:O264"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="L269:O269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="L278:O278"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="L279:O279"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="L280:O280"/>
+    <mergeCell ref="L281:O281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="L282:O282"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="L292:O292"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="L293:O293"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="L287:O287"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="L288:O288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="L289:O289"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="L290:O290"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="L291:O291"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="L108:O108"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="L110:O110"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="L300:O300"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="L301:O301"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="L302:O302"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="L317:O317"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="L308:O308"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="L307:O307"/>
     <mergeCell ref="D335:E335"/>
     <mergeCell ref="L335:O335"/>
     <mergeCell ref="D107:E107"/>
@@ -30573,356 +30923,6 @@
     <mergeCell ref="D316:E316"/>
     <mergeCell ref="L316:O316"/>
     <mergeCell ref="D317:E317"/>
-    <mergeCell ref="L317:O317"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="L308:O308"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="L300:O300"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="L301:O301"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="L302:O302"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="L303:O303"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="L106:O106"/>
-    <mergeCell ref="L108:O108"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="L110:O110"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="L292:O292"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="L293:O293"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="L287:O287"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="L288:O288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="L289:O289"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="L290:O290"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="L291:O291"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="L278:O278"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="L279:O279"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="L280:O280"/>
-    <mergeCell ref="L281:O281"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="L282:O282"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="L269:O269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="L260:O260"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="L261:O261"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="L262:O262"/>
-    <mergeCell ref="L263:O263"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="L264:O264"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="L204:O204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="L205:O205"/>
-    <mergeCell ref="L214:O214"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="L215:O215"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="L207:O207"/>
-    <mergeCell ref="L206:O206"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="L212:O212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="L213:O213"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="L156:O156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="L198:O198"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="L203:O203"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="L187:O187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="L188:O188"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="L185:O185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="L186:O186"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="L178:O178"/>
-    <mergeCell ref="L179:O179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="L180:O180"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="L171:O171"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="L176:O176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="L177:O177"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="L162:O162"/>
-    <mergeCell ref="L161:O161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="L160:O160"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L71:O72"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L56:O57"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="L99:O99"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="L119:O119"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="L150:O150"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L149:O149"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="L148:O148"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="L252:O252"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="L253:O253"/>
-    <mergeCell ref="L254:O254"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="L255:O255"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="L236:O236"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="L228:O228"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="L229:O229"/>
-    <mergeCell ref="L230:O230"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="L231:O231"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="L324:O324"/>
-    <mergeCell ref="D325:E325"/>
-    <mergeCell ref="L325:O325"/>
-    <mergeCell ref="L326:O326"/>
-    <mergeCell ref="D327:E327"/>
-    <mergeCell ref="L327:O327"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="L130:O130"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="L128:O128"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="L237:O237"/>
-    <mergeCell ref="L238:O238"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="L239:O239"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30997,7 +30997,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -31927,8 +31927,8 @@
   </sheetPr>
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31992,7 +31992,7 @@
       </c>
       <c r="N2" s="313">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="O2" s="314"/>
       <c r="P2" s="61"/>
@@ -32246,7 +32246,7 @@
       </c>
       <c r="M9" s="51">
         <f>SUM(M10:M23)/14</f>
-        <v>0.625</v>
+        <v>0.7607142857142859</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="43"/>
@@ -32320,7 +32320,7 @@
         <v>-44579</v>
       </c>
       <c r="M11" s="123">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="43"/>
@@ -32357,7 +32357,7 @@
         <v>-44581</v>
       </c>
       <c r="M12" s="123">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="43"/>
@@ -32431,7 +32431,7 @@
         <v>-44584</v>
       </c>
       <c r="M14" s="123">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="43"/>
@@ -32468,7 +32468,7 @@
         <v>-44579</v>
       </c>
       <c r="M15" s="137">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="43"/>
@@ -32542,7 +32542,7 @@
         <v>-44571</v>
       </c>
       <c r="M17" s="142">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="43"/>
@@ -33193,7 +33193,7 @@
   <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33296,7 +33296,7 @@
       </c>
       <c r="AK2" s="313">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="AL2" s="314"/>
       <c r="AM2" s="61"/>
@@ -33813,7 +33813,7 @@
       </c>
       <c r="T2" s="313">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="U2" s="314"/>
     </row>
@@ -35226,7 +35226,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -40829,7 +40829,7 @@
       </c>
       <c r="S2" s="313">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="T2" s="314"/>
     </row>
@@ -47604,7 +47604,7 @@
       </c>
       <c r="T2" s="313">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="U2" s="314"/>
     </row>
@@ -49854,7 +49854,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44587.00322233796</v>
+        <v>44588.885451736111</v>
       </c>
       <c r="Q2" s="314"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4DFFE0-18ED-0949-8E4E-390890861A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A6134B-3170-334A-806F-10A248672C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="38160" windowHeight="19360" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="38160" windowHeight="19360" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -3023,39 +3023,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3077,16 +3044,43 @@
     <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3100,6 +3094,24 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3119,8 +3131,53 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3128,25 +3185,44 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3184,98 +3260,22 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -20703,7 +20703,7 @@
       <c r="L64" s="294"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20848,7 +20848,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -22295,8 +22295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:P335"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A233" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L245" sqref="L245:O245"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22359,7 +22359,7 @@
       </c>
       <c r="O2" s="313">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="P2" s="314"/>
     </row>
@@ -22467,10 +22467,10 @@
       <c r="C8" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="412" t="s">
+      <c r="D8" s="436" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="413"/>
+      <c r="E8" s="437"/>
       <c r="F8" s="221" t="s">
         <v>31</v>
       </c>
@@ -22489,12 +22489,12 @@
       <c r="K8" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="414" t="s">
+      <c r="L8" s="438" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="414"/>
-      <c r="N8" s="414"/>
-      <c r="O8" s="415"/>
+      <c r="M8" s="438"/>
+      <c r="N8" s="438"/>
+      <c r="O8" s="439"/>
       <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22505,10 +22505,10 @@
       <c r="C9" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="404" t="s">
+      <c r="D9" s="428" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="405"/>
+      <c r="E9" s="429"/>
       <c r="F9" s="224" t="s">
         <v>191</v>
       </c>
@@ -22523,10 +22523,10 @@
       </c>
       <c r="J9" s="224"/>
       <c r="K9" s="224"/>
-      <c r="L9" s="406"/>
-      <c r="M9" s="406"/>
-      <c r="N9" s="406"/>
-      <c r="O9" s="407"/>
+      <c r="L9" s="430"/>
+      <c r="M9" s="430"/>
+      <c r="N9" s="430"/>
+      <c r="O9" s="431"/>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22537,10 +22537,10 @@
       <c r="C10" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="404" t="s">
+      <c r="D10" s="428" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="405"/>
+      <c r="E10" s="429"/>
       <c r="F10" s="224"/>
       <c r="G10" s="224"/>
       <c r="H10" s="224" t="s">
@@ -22551,12 +22551,12 @@
       </c>
       <c r="J10" s="224"/>
       <c r="K10" s="224"/>
-      <c r="L10" s="406" t="s">
+      <c r="L10" s="430" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="406"/>
-      <c r="N10" s="406"/>
-      <c r="O10" s="407"/>
+      <c r="M10" s="430"/>
+      <c r="N10" s="430"/>
+      <c r="O10" s="431"/>
       <c r="P10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22567,10 +22567,10 @@
       <c r="C11" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="404" t="s">
+      <c r="D11" s="428" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="405"/>
+      <c r="E11" s="429"/>
       <c r="F11" s="224"/>
       <c r="G11" s="224"/>
       <c r="H11" s="224" t="s">
@@ -22581,10 +22581,10 @@
       </c>
       <c r="J11" s="224"/>
       <c r="K11" s="224"/>
-      <c r="L11" s="406"/>
-      <c r="M11" s="406"/>
-      <c r="N11" s="406"/>
-      <c r="O11" s="407"/>
+      <c r="L11" s="430"/>
+      <c r="M11" s="430"/>
+      <c r="N11" s="430"/>
+      <c r="O11" s="431"/>
       <c r="P11" s="110"/>
     </row>
     <row r="12" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -22595,10 +22595,10 @@
       <c r="C12" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="408" t="s">
+      <c r="D12" s="432" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="409"/>
+      <c r="E12" s="433"/>
       <c r="F12" s="228"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
@@ -22607,10 +22607,10 @@
       </c>
       <c r="J12" s="228"/>
       <c r="K12" s="228"/>
-      <c r="L12" s="410"/>
-      <c r="M12" s="410"/>
-      <c r="N12" s="410"/>
-      <c r="O12" s="411"/>
+      <c r="L12" s="434"/>
+      <c r="M12" s="434"/>
+      <c r="N12" s="434"/>
+      <c r="O12" s="435"/>
       <c r="P12" s="110"/>
     </row>
     <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22697,10 +22697,10 @@
       <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="387" t="s">
+      <c r="D17" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="388"/>
+      <c r="E17" s="392"/>
       <c r="F17" s="25" t="s">
         <v>31</v>
       </c>
@@ -22719,12 +22719,12 @@
       <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="389" t="s">
+      <c r="L17" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="389"/>
-      <c r="N17" s="389"/>
-      <c r="O17" s="390"/>
+      <c r="M17" s="393"/>
+      <c r="N17" s="393"/>
+      <c r="O17" s="394"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22735,10 +22735,10 @@
       <c r="C18" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="379" t="s">
+      <c r="D18" s="385" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="380"/>
+      <c r="E18" s="386"/>
       <c r="F18" s="214"/>
       <c r="G18" s="214"/>
       <c r="H18" s="214" t="s">
@@ -22751,10 +22751,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="214"/>
-      <c r="L18" s="381"/>
-      <c r="M18" s="381"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="382"/>
+      <c r="L18" s="376"/>
+      <c r="M18" s="376"/>
+      <c r="N18" s="376"/>
+      <c r="O18" s="377"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22765,10 +22765,10 @@
       <c r="C19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="379" t="s">
+      <c r="D19" s="385" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="380"/>
+      <c r="E19" s="386"/>
       <c r="F19" s="214"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214" t="s">
@@ -22781,10 +22781,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="214"/>
-      <c r="L19" s="381"/>
-      <c r="M19" s="381"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="382"/>
+      <c r="L19" s="376"/>
+      <c r="M19" s="376"/>
+      <c r="N19" s="376"/>
+      <c r="O19" s="377"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -22795,10 +22795,10 @@
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="391" t="s">
+      <c r="D20" s="395" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="392"/>
+      <c r="E20" s="396"/>
       <c r="F20" s="214"/>
       <c r="G20" s="214"/>
       <c r="H20" s="214" t="s">
@@ -22811,12 +22811,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="214"/>
-      <c r="L20" s="393" t="s">
+      <c r="L20" s="390" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="381"/>
-      <c r="N20" s="381"/>
-      <c r="O20" s="382"/>
+      <c r="M20" s="376"/>
+      <c r="N20" s="376"/>
+      <c r="O20" s="377"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22827,10 +22827,10 @@
       <c r="C21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="379" t="s">
+      <c r="D21" s="385" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="380"/>
+      <c r="E21" s="386"/>
       <c r="F21" s="214"/>
       <c r="G21" s="214"/>
       <c r="H21" s="214" t="s">
@@ -22841,12 +22841,12 @@
       </c>
       <c r="J21" s="214"/>
       <c r="K21" s="214"/>
-      <c r="L21" s="381" t="s">
+      <c r="L21" s="376" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="381"/>
-      <c r="N21" s="381"/>
-      <c r="O21" s="382"/>
+      <c r="M21" s="376"/>
+      <c r="N21" s="376"/>
+      <c r="O21" s="377"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22857,10 +22857,10 @@
       <c r="C22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="379" t="s">
+      <c r="D22" s="385" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="380"/>
+      <c r="E22" s="386"/>
       <c r="F22" s="214"/>
       <c r="G22" s="214"/>
       <c r="H22" s="214"/>
@@ -22869,28 +22869,28 @@
       </c>
       <c r="J22" s="214"/>
       <c r="K22" s="214"/>
-      <c r="L22" s="381"/>
-      <c r="M22" s="381"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="382"/>
+      <c r="L22" s="376"/>
+      <c r="M22" s="376"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="377"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="383"/>
-      <c r="E23" s="384"/>
+      <c r="D23" s="381"/>
+      <c r="E23" s="382"/>
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
       <c r="I23" s="31"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="385"/>
-      <c r="M23" s="385"/>
-      <c r="N23" s="385"/>
-      <c r="O23" s="386"/>
+      <c r="L23" s="383"/>
+      <c r="M23" s="383"/>
+      <c r="N23" s="383"/>
+      <c r="O23" s="384"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -22995,10 +22995,10 @@
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="387" t="s">
+      <c r="D29" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="388"/>
+      <c r="E29" s="392"/>
       <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
@@ -23017,12 +23017,12 @@
       <c r="K29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="389" t="s">
+      <c r="L29" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="389"/>
-      <c r="N29" s="389"/>
-      <c r="O29" s="390"/>
+      <c r="M29" s="393"/>
+      <c r="N29" s="393"/>
+      <c r="O29" s="394"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23033,10 +23033,10 @@
       <c r="C30" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="379" t="s">
+      <c r="D30" s="385" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="380"/>
+      <c r="E30" s="386"/>
       <c r="F30" s="214"/>
       <c r="G30" s="214"/>
       <c r="H30" s="214" t="s">
@@ -23047,12 +23047,12 @@
       </c>
       <c r="J30" s="214"/>
       <c r="K30" s="214"/>
-      <c r="L30" s="381" t="s">
+      <c r="L30" s="376" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="381"/>
-      <c r="N30" s="381"/>
-      <c r="O30" s="382"/>
+      <c r="M30" s="376"/>
+      <c r="N30" s="376"/>
+      <c r="O30" s="377"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23063,10 +23063,10 @@
       <c r="C31" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="379" t="s">
+      <c r="D31" s="385" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="380"/>
+      <c r="E31" s="386"/>
       <c r="F31" s="214"/>
       <c r="G31" s="214"/>
       <c r="H31" s="214" t="s">
@@ -23077,82 +23077,82 @@
       </c>
       <c r="J31" s="214"/>
       <c r="K31" s="214"/>
-      <c r="L31" s="381"/>
-      <c r="M31" s="381"/>
-      <c r="N31" s="381"/>
-      <c r="O31" s="382"/>
+      <c r="L31" s="376"/>
+      <c r="M31" s="376"/>
+      <c r="N31" s="376"/>
+      <c r="O31" s="377"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="398"/>
-      <c r="E32" s="399"/>
+      <c r="D32" s="440"/>
+      <c r="E32" s="441"/>
       <c r="F32" s="214"/>
       <c r="G32" s="214"/>
       <c r="H32" s="214"/>
       <c r="I32" s="28"/>
       <c r="J32" s="214"/>
       <c r="K32" s="214"/>
-      <c r="L32" s="381"/>
-      <c r="M32" s="381"/>
-      <c r="N32" s="381"/>
-      <c r="O32" s="382"/>
+      <c r="L32" s="376"/>
+      <c r="M32" s="376"/>
+      <c r="N32" s="376"/>
+      <c r="O32" s="377"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="398"/>
-      <c r="E33" s="399"/>
+      <c r="D33" s="440"/>
+      <c r="E33" s="441"/>
       <c r="F33" s="214"/>
       <c r="G33" s="214"/>
       <c r="H33" s="214"/>
       <c r="I33" s="28"/>
       <c r="J33" s="214"/>
       <c r="K33" s="214"/>
-      <c r="L33" s="381"/>
-      <c r="M33" s="381"/>
-      <c r="N33" s="381"/>
-      <c r="O33" s="382"/>
+      <c r="L33" s="376"/>
+      <c r="M33" s="376"/>
+      <c r="N33" s="376"/>
+      <c r="O33" s="377"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="398"/>
-      <c r="E34" s="399"/>
+      <c r="D34" s="440"/>
+      <c r="E34" s="441"/>
       <c r="F34" s="214"/>
       <c r="G34" s="214"/>
       <c r="H34" s="214"/>
       <c r="I34" s="28"/>
       <c r="J34" s="214"/>
       <c r="K34" s="214"/>
-      <c r="L34" s="381"/>
-      <c r="M34" s="381"/>
-      <c r="N34" s="381"/>
-      <c r="O34" s="382"/>
+      <c r="L34" s="376"/>
+      <c r="M34" s="376"/>
+      <c r="N34" s="376"/>
+      <c r="O34" s="377"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="383"/>
-      <c r="E35" s="384"/>
+      <c r="D35" s="381"/>
+      <c r="E35" s="382"/>
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
       <c r="I35" s="31"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="385"/>
-      <c r="M35" s="385"/>
-      <c r="N35" s="385"/>
-      <c r="O35" s="386"/>
+      <c r="L35" s="383"/>
+      <c r="M35" s="383"/>
+      <c r="N35" s="383"/>
+      <c r="O35" s="384"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -23239,10 +23239,10 @@
       <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="387" t="s">
+      <c r="D40" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="388"/>
+      <c r="E40" s="392"/>
       <c r="F40" s="25" t="s">
         <v>31</v>
       </c>
@@ -23261,12 +23261,12 @@
       <c r="K40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="389" t="s">
+      <c r="L40" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="389"/>
-      <c r="N40" s="389"/>
-      <c r="O40" s="390"/>
+      <c r="M40" s="393"/>
+      <c r="N40" s="393"/>
+      <c r="O40" s="394"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23277,10 +23277,10 @@
       <c r="C41" s="257" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="400" t="s">
+      <c r="D41" s="426" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="401"/>
+      <c r="E41" s="427"/>
       <c r="F41" s="258"/>
       <c r="G41" s="258"/>
       <c r="H41" s="258" t="s">
@@ -23291,12 +23291,12 @@
       </c>
       <c r="J41" s="258"/>
       <c r="K41" s="258"/>
-      <c r="L41" s="402" t="s">
+      <c r="L41" s="424" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="402"/>
-      <c r="N41" s="402"/>
-      <c r="O41" s="403"/>
+      <c r="M41" s="424"/>
+      <c r="N41" s="424"/>
+      <c r="O41" s="425"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23307,10 +23307,10 @@
       <c r="C42" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="400" t="s">
+      <c r="D42" s="426" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="401"/>
+      <c r="E42" s="427"/>
       <c r="F42" s="258"/>
       <c r="G42" s="258"/>
       <c r="H42" s="258" t="s">
@@ -23321,10 +23321,10 @@
       </c>
       <c r="J42" s="258"/>
       <c r="K42" s="258"/>
-      <c r="L42" s="402"/>
-      <c r="M42" s="402"/>
-      <c r="N42" s="402"/>
-      <c r="O42" s="403"/>
+      <c r="L42" s="424"/>
+      <c r="M42" s="424"/>
+      <c r="N42" s="424"/>
+      <c r="O42" s="425"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23335,10 +23335,10 @@
       <c r="C43" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="379" t="s">
+      <c r="D43" s="385" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="380"/>
+      <c r="E43" s="386"/>
       <c r="F43" s="214"/>
       <c r="G43" s="214"/>
       <c r="H43" s="214" t="s">
@@ -23349,10 +23349,10 @@
       </c>
       <c r="J43" s="214"/>
       <c r="K43" s="214"/>
-      <c r="L43" s="381"/>
-      <c r="M43" s="381"/>
-      <c r="N43" s="381"/>
-      <c r="O43" s="382"/>
+      <c r="L43" s="376"/>
+      <c r="M43" s="376"/>
+      <c r="N43" s="376"/>
+      <c r="O43" s="377"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23363,10 +23363,10 @@
       <c r="C44" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="379" t="s">
+      <c r="D44" s="385" t="s">
         <v>224</v>
       </c>
-      <c r="E44" s="380"/>
+      <c r="E44" s="386"/>
       <c r="F44" s="214"/>
       <c r="G44" s="214"/>
       <c r="H44" s="214" t="s">
@@ -23377,10 +23377,10 @@
       </c>
       <c r="J44" s="214"/>
       <c r="K44" s="214"/>
-      <c r="L44" s="381"/>
-      <c r="M44" s="381"/>
-      <c r="N44" s="381"/>
-      <c r="O44" s="382"/>
+      <c r="L44" s="376"/>
+      <c r="M44" s="376"/>
+      <c r="N44" s="376"/>
+      <c r="O44" s="377"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23391,10 +23391,10 @@
       <c r="C45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="379" t="s">
+      <c r="D45" s="385" t="s">
         <v>225</v>
       </c>
-      <c r="E45" s="380"/>
+      <c r="E45" s="386"/>
       <c r="F45" s="214"/>
       <c r="G45" s="214"/>
       <c r="H45" s="214" t="s">
@@ -23407,12 +23407,12 @@
       <c r="K45" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="381" t="s">
+      <c r="L45" s="376" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="381"/>
-      <c r="N45" s="381"/>
-      <c r="O45" s="382"/>
+      <c r="M45" s="376"/>
+      <c r="N45" s="376"/>
+      <c r="O45" s="377"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23437,28 +23437,28 @@
       </c>
       <c r="J46" s="237"/>
       <c r="K46" s="237"/>
-      <c r="L46" s="381"/>
-      <c r="M46" s="381"/>
-      <c r="N46" s="381"/>
-      <c r="O46" s="382"/>
+      <c r="L46" s="376"/>
+      <c r="M46" s="376"/>
+      <c r="N46" s="376"/>
+      <c r="O46" s="377"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="383"/>
-      <c r="E47" s="384"/>
+      <c r="D47" s="381"/>
+      <c r="E47" s="382"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
       <c r="H47" s="215"/>
       <c r="I47" s="31"/>
       <c r="J47" s="215"/>
       <c r="K47" s="215"/>
-      <c r="L47" s="385"/>
-      <c r="M47" s="385"/>
-      <c r="N47" s="385"/>
-      <c r="O47" s="386"/>
+      <c r="L47" s="383"/>
+      <c r="M47" s="383"/>
+      <c r="N47" s="383"/>
+      <c r="O47" s="384"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -23545,10 +23545,10 @@
       <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="387" t="s">
+      <c r="D52" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="388"/>
+      <c r="E52" s="392"/>
       <c r="F52" s="25" t="s">
         <v>31</v>
       </c>
@@ -23567,12 +23567,12 @@
       <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="389" t="s">
+      <c r="L52" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="389"/>
-      <c r="N52" s="389"/>
-      <c r="O52" s="390"/>
+      <c r="M52" s="393"/>
+      <c r="N52" s="393"/>
+      <c r="O52" s="394"/>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23583,10 +23583,10 @@
       <c r="C53" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="379" t="s">
+      <c r="D53" s="385" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="380"/>
+      <c r="E53" s="386"/>
       <c r="F53" s="214"/>
       <c r="G53" s="214"/>
       <c r="H53" s="214" t="s">
@@ -23599,12 +23599,12 @@
       <c r="K53" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="381" t="s">
+      <c r="L53" s="376" t="s">
         <v>327</v>
       </c>
-      <c r="M53" s="381"/>
-      <c r="N53" s="381"/>
-      <c r="O53" s="382"/>
+      <c r="M53" s="376"/>
+      <c r="N53" s="376"/>
+      <c r="O53" s="377"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23629,12 +23629,12 @@
       </c>
       <c r="J54" s="214"/>
       <c r="K54" s="214"/>
-      <c r="L54" s="419" t="s">
+      <c r="L54" s="378" t="s">
         <v>244</v>
       </c>
-      <c r="M54" s="420"/>
-      <c r="N54" s="420"/>
-      <c r="O54" s="421"/>
+      <c r="M54" s="379"/>
+      <c r="N54" s="379"/>
+      <c r="O54" s="380"/>
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23659,12 +23659,12 @@
       </c>
       <c r="J55" s="214"/>
       <c r="K55" s="214"/>
-      <c r="L55" s="425" t="s">
+      <c r="L55" s="399" t="s">
         <v>291</v>
       </c>
-      <c r="M55" s="426"/>
-      <c r="N55" s="426"/>
-      <c r="O55" s="427"/>
+      <c r="M55" s="400"/>
+      <c r="N55" s="400"/>
+      <c r="O55" s="401"/>
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23687,12 +23687,12 @@
       </c>
       <c r="J56" s="214"/>
       <c r="K56" s="214"/>
-      <c r="L56" s="416" t="s">
+      <c r="L56" s="418" t="s">
         <v>241</v>
       </c>
-      <c r="M56" s="417"/>
-      <c r="N56" s="417"/>
-      <c r="O56" s="418"/>
+      <c r="M56" s="419"/>
+      <c r="N56" s="419"/>
+      <c r="O56" s="420"/>
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23715,10 +23715,10 @@
       </c>
       <c r="J57" s="214"/>
       <c r="K57" s="214"/>
-      <c r="L57" s="422"/>
-      <c r="M57" s="423"/>
-      <c r="N57" s="423"/>
-      <c r="O57" s="424"/>
+      <c r="L57" s="421"/>
+      <c r="M57" s="422"/>
+      <c r="N57" s="422"/>
+      <c r="O57" s="423"/>
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -23729,10 +23729,10 @@
       <c r="C58" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="391" t="s">
+      <c r="D58" s="395" t="s">
         <v>226</v>
       </c>
-      <c r="E58" s="392"/>
+      <c r="E58" s="396"/>
       <c r="F58" s="214"/>
       <c r="G58" s="214"/>
       <c r="H58" s="214" t="s">
@@ -23743,12 +23743,12 @@
       </c>
       <c r="J58" s="214"/>
       <c r="K58" s="214"/>
-      <c r="L58" s="393" t="s">
+      <c r="L58" s="390" t="s">
         <v>407</v>
       </c>
-      <c r="M58" s="381"/>
-      <c r="N58" s="381"/>
-      <c r="O58" s="382"/>
+      <c r="M58" s="376"/>
+      <c r="N58" s="376"/>
+      <c r="O58" s="377"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -23759,10 +23759,10 @@
       <c r="C59" s="262" t="s">
         <v>435</v>
       </c>
-      <c r="D59" s="365" t="s">
+      <c r="D59" s="374" t="s">
         <v>437</v>
       </c>
-      <c r="E59" s="366"/>
+      <c r="E59" s="375"/>
       <c r="F59" s="265"/>
       <c r="G59" s="265"/>
       <c r="H59" s="265" t="s">
@@ -23773,10 +23773,10 @@
       </c>
       <c r="J59" s="265"/>
       <c r="K59" s="265"/>
-      <c r="L59" s="367"/>
-      <c r="M59" s="367"/>
-      <c r="N59" s="367"/>
-      <c r="O59" s="368"/>
+      <c r="L59" s="368"/>
+      <c r="M59" s="368"/>
+      <c r="N59" s="368"/>
+      <c r="O59" s="369"/>
       <c r="P59" s="267"/>
     </row>
     <row r="60" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -23787,10 +23787,10 @@
       <c r="C60" s="262" t="s">
         <v>436</v>
       </c>
-      <c r="D60" s="365" t="s">
+      <c r="D60" s="374" t="s">
         <v>438</v>
       </c>
-      <c r="E60" s="366"/>
+      <c r="E60" s="375"/>
       <c r="F60" s="265"/>
       <c r="G60" s="265"/>
       <c r="H60" s="265" t="s">
@@ -23801,10 +23801,10 @@
       </c>
       <c r="J60" s="265"/>
       <c r="K60" s="265"/>
-      <c r="L60" s="367"/>
-      <c r="M60" s="367"/>
-      <c r="N60" s="367"/>
-      <c r="O60" s="368"/>
+      <c r="L60" s="368"/>
+      <c r="M60" s="368"/>
+      <c r="N60" s="368"/>
+      <c r="O60" s="369"/>
       <c r="P60" s="267"/>
     </row>
     <row r="61" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23815,10 +23815,10 @@
       <c r="C61" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="379" t="s">
+      <c r="D61" s="385" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="380"/>
+      <c r="E61" s="386"/>
       <c r="F61" s="214"/>
       <c r="G61" s="214"/>
       <c r="H61" s="214" t="s">
@@ -23831,30 +23831,30 @@
       <c r="K61" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L61" s="381" t="s">
+      <c r="L61" s="376" t="s">
         <v>268</v>
       </c>
-      <c r="M61" s="381"/>
-      <c r="N61" s="381"/>
-      <c r="O61" s="382"/>
+      <c r="M61" s="376"/>
+      <c r="N61" s="376"/>
+      <c r="O61" s="377"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="29"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="383"/>
-      <c r="E62" s="384"/>
+      <c r="D62" s="381"/>
+      <c r="E62" s="382"/>
       <c r="F62" s="215"/>
       <c r="G62" s="215"/>
       <c r="H62" s="215"/>
       <c r="I62" s="31"/>
       <c r="J62" s="215"/>
       <c r="K62" s="215"/>
-      <c r="L62" s="385"/>
-      <c r="M62" s="385"/>
-      <c r="N62" s="385"/>
-      <c r="O62" s="386"/>
+      <c r="L62" s="383"/>
+      <c r="M62" s="383"/>
+      <c r="N62" s="383"/>
+      <c r="O62" s="384"/>
       <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -23941,10 +23941,10 @@
       <c r="C67" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="387" t="s">
+      <c r="D67" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="388"/>
+      <c r="E67" s="392"/>
       <c r="F67" s="25" t="s">
         <v>31</v>
       </c>
@@ -23963,12 +23963,12 @@
       <c r="K67" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L67" s="389" t="s">
+      <c r="L67" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M67" s="389"/>
-      <c r="N67" s="389"/>
-      <c r="O67" s="390"/>
+      <c r="M67" s="393"/>
+      <c r="N67" s="393"/>
+      <c r="O67" s="394"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23979,10 +23979,10 @@
       <c r="C68" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D68" s="379" t="s">
+      <c r="D68" s="385" t="s">
         <v>265</v>
       </c>
-      <c r="E68" s="380"/>
+      <c r="E68" s="386"/>
       <c r="F68" s="214"/>
       <c r="G68" s="214"/>
       <c r="H68" s="214" t="s">
@@ -23995,12 +23995,12 @@
       <c r="K68" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L68" s="381" t="s">
+      <c r="L68" s="376" t="s">
         <v>266</v>
       </c>
-      <c r="M68" s="381"/>
-      <c r="N68" s="381"/>
-      <c r="O68" s="382"/>
+      <c r="M68" s="376"/>
+      <c r="N68" s="376"/>
+      <c r="O68" s="377"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24011,10 +24011,10 @@
       <c r="C69" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="379" t="s">
+      <c r="D69" s="385" t="s">
         <v>246</v>
       </c>
-      <c r="E69" s="380"/>
+      <c r="E69" s="386"/>
       <c r="F69" s="214"/>
       <c r="G69" s="214"/>
       <c r="H69" s="214" t="s">
@@ -24025,10 +24025,10 @@
       </c>
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
-      <c r="L69" s="381"/>
-      <c r="M69" s="381"/>
-      <c r="N69" s="381"/>
-      <c r="O69" s="382"/>
+      <c r="L69" s="376"/>
+      <c r="M69" s="376"/>
+      <c r="N69" s="376"/>
+      <c r="O69" s="377"/>
       <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24039,10 +24039,10 @@
       <c r="C70" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="379" t="s">
+      <c r="D70" s="385" t="s">
         <v>247</v>
       </c>
-      <c r="E70" s="380"/>
+      <c r="E70" s="386"/>
       <c r="F70" s="214"/>
       <c r="G70" s="214"/>
       <c r="H70" s="214" t="s">
@@ -24053,10 +24053,10 @@
       </c>
       <c r="J70" s="214"/>
       <c r="K70" s="214"/>
-      <c r="L70" s="381"/>
-      <c r="M70" s="381"/>
-      <c r="N70" s="381"/>
-      <c r="O70" s="382"/>
+      <c r="L70" s="376"/>
+      <c r="M70" s="376"/>
+      <c r="N70" s="376"/>
+      <c r="O70" s="377"/>
       <c r="P70" s="10"/>
     </row>
     <row r="71" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24079,12 +24079,12 @@
       </c>
       <c r="J71" s="214"/>
       <c r="K71" s="214"/>
-      <c r="L71" s="416" t="s">
+      <c r="L71" s="418" t="s">
         <v>241</v>
       </c>
-      <c r="M71" s="417"/>
-      <c r="N71" s="417"/>
-      <c r="O71" s="418"/>
+      <c r="M71" s="419"/>
+      <c r="N71" s="419"/>
+      <c r="O71" s="420"/>
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24107,10 +24107,10 @@
       </c>
       <c r="J72" s="214"/>
       <c r="K72" s="214"/>
-      <c r="L72" s="422"/>
-      <c r="M72" s="423"/>
-      <c r="N72" s="423"/>
-      <c r="O72" s="424"/>
+      <c r="L72" s="421"/>
+      <c r="M72" s="422"/>
+      <c r="N72" s="422"/>
+      <c r="O72" s="423"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24121,10 +24121,10 @@
       <c r="C73" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="D73" s="379" t="s">
+      <c r="D73" s="385" t="s">
         <v>248</v>
       </c>
-      <c r="E73" s="380"/>
+      <c r="E73" s="386"/>
       <c r="F73" s="214"/>
       <c r="G73" s="214"/>
       <c r="H73" s="214"/>
@@ -24135,28 +24135,28 @@
         <v>255</v>
       </c>
       <c r="K73" s="214"/>
-      <c r="L73" s="393"/>
-      <c r="M73" s="381"/>
-      <c r="N73" s="381"/>
-      <c r="O73" s="382"/>
+      <c r="L73" s="390"/>
+      <c r="M73" s="376"/>
+      <c r="N73" s="376"/>
+      <c r="O73" s="377"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="29"/>
       <c r="C74" s="30"/>
-      <c r="D74" s="383"/>
-      <c r="E74" s="384"/>
+      <c r="D74" s="381"/>
+      <c r="E74" s="382"/>
       <c r="F74" s="215"/>
       <c r="G74" s="215"/>
       <c r="H74" s="215"/>
       <c r="I74" s="31"/>
       <c r="J74" s="215"/>
       <c r="K74" s="215"/>
-      <c r="L74" s="385"/>
-      <c r="M74" s="385"/>
-      <c r="N74" s="385"/>
-      <c r="O74" s="386"/>
+      <c r="L74" s="383"/>
+      <c r="M74" s="383"/>
+      <c r="N74" s="383"/>
+      <c r="O74" s="384"/>
       <c r="P74" s="10"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -24243,10 +24243,10 @@
       <c r="C79" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="387" t="s">
+      <c r="D79" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="388"/>
+      <c r="E79" s="392"/>
       <c r="F79" s="25" t="s">
         <v>31</v>
       </c>
@@ -24265,12 +24265,12 @@
       <c r="K79" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L79" s="389" t="s">
+      <c r="L79" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M79" s="389"/>
-      <c r="N79" s="389"/>
-      <c r="O79" s="390"/>
+      <c r="M79" s="393"/>
+      <c r="N79" s="393"/>
+      <c r="O79" s="394"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24281,10 +24281,10 @@
       <c r="C80" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D80" s="379" t="s">
+      <c r="D80" s="385" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="380"/>
+      <c r="E80" s="386"/>
       <c r="F80" s="214"/>
       <c r="G80" s="214"/>
       <c r="H80" s="214" t="s">
@@ -24297,12 +24297,12 @@
       <c r="K80" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L80" s="381" t="s">
+      <c r="L80" s="376" t="s">
         <v>327</v>
       </c>
-      <c r="M80" s="381"/>
-      <c r="N80" s="381"/>
-      <c r="O80" s="382"/>
+      <c r="M80" s="376"/>
+      <c r="N80" s="376"/>
+      <c r="O80" s="377"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24313,10 +24313,10 @@
       <c r="C81" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D81" s="379" t="s">
+      <c r="D81" s="385" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="380"/>
+      <c r="E81" s="386"/>
       <c r="F81" s="214"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214" t="s">
@@ -24327,10 +24327,10 @@
       </c>
       <c r="J81" s="214"/>
       <c r="K81" s="214"/>
-      <c r="L81" s="381"/>
-      <c r="M81" s="381"/>
-      <c r="N81" s="381"/>
-      <c r="O81" s="382"/>
+      <c r="L81" s="376"/>
+      <c r="M81" s="376"/>
+      <c r="N81" s="376"/>
+      <c r="O81" s="377"/>
       <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24341,10 +24341,10 @@
       <c r="C82" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D82" s="379" t="s">
+      <c r="D82" s="385" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="380"/>
+      <c r="E82" s="386"/>
       <c r="F82" s="214"/>
       <c r="G82" s="214"/>
       <c r="H82" s="214" t="s">
@@ -24357,12 +24357,12 @@
       <c r="K82" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L82" s="416" t="s">
+      <c r="L82" s="418" t="s">
         <v>408</v>
       </c>
-      <c r="M82" s="417"/>
-      <c r="N82" s="417"/>
-      <c r="O82" s="418"/>
+      <c r="M82" s="419"/>
+      <c r="N82" s="419"/>
+      <c r="O82" s="420"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24373,10 +24373,10 @@
       <c r="C83" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D83" s="379" t="s">
+      <c r="D83" s="385" t="s">
         <v>259</v>
       </c>
-      <c r="E83" s="380"/>
+      <c r="E83" s="386"/>
       <c r="F83" s="214"/>
       <c r="G83" s="214"/>
       <c r="H83" s="214" t="s">
@@ -24387,10 +24387,10 @@
       </c>
       <c r="J83" s="214"/>
       <c r="K83" s="241"/>
-      <c r="L83" s="381"/>
-      <c r="M83" s="381"/>
-      <c r="N83" s="381"/>
-      <c r="O83" s="382"/>
+      <c r="L83" s="376"/>
+      <c r="M83" s="376"/>
+      <c r="N83" s="376"/>
+      <c r="O83" s="377"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24401,10 +24401,10 @@
       <c r="C84" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="379" t="s">
+      <c r="D84" s="385" t="s">
         <v>260</v>
       </c>
-      <c r="E84" s="380"/>
+      <c r="E84" s="386"/>
       <c r="F84" s="214"/>
       <c r="G84" s="214"/>
       <c r="H84" s="214" t="s">
@@ -24415,12 +24415,12 @@
       </c>
       <c r="J84" s="214"/>
       <c r="K84" s="241"/>
-      <c r="L84" s="381" t="s">
+      <c r="L84" s="376" t="s">
         <v>358</v>
       </c>
-      <c r="M84" s="381"/>
-      <c r="N84" s="381"/>
-      <c r="O84" s="382"/>
+      <c r="M84" s="376"/>
+      <c r="N84" s="376"/>
+      <c r="O84" s="377"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24431,10 +24431,10 @@
       <c r="C85" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="379" t="s">
+      <c r="D85" s="385" t="s">
         <v>261</v>
       </c>
-      <c r="E85" s="380"/>
+      <c r="E85" s="386"/>
       <c r="F85" s="214"/>
       <c r="G85" s="214"/>
       <c r="H85" s="214" t="s">
@@ -24445,12 +24445,12 @@
       </c>
       <c r="J85" s="214"/>
       <c r="K85" s="241"/>
-      <c r="L85" s="381" t="s">
+      <c r="L85" s="376" t="s">
         <v>252</v>
       </c>
-      <c r="M85" s="381"/>
-      <c r="N85" s="381"/>
-      <c r="O85" s="382"/>
+      <c r="M85" s="376"/>
+      <c r="N85" s="376"/>
+      <c r="O85" s="377"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24461,10 +24461,10 @@
       <c r="C86" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="D86" s="379" t="s">
+      <c r="D86" s="385" t="s">
         <v>262</v>
       </c>
-      <c r="E86" s="380"/>
+      <c r="E86" s="386"/>
       <c r="F86" s="214"/>
       <c r="G86" s="214"/>
       <c r="H86" s="214" t="s">
@@ -24477,48 +24477,48 @@
       <c r="K86" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L86" s="428" t="s">
+      <c r="L86" s="415" t="s">
         <v>268</v>
       </c>
-      <c r="M86" s="429"/>
-      <c r="N86" s="429"/>
-      <c r="O86" s="430"/>
+      <c r="M86" s="416"/>
+      <c r="N86" s="416"/>
+      <c r="O86" s="417"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
-      <c r="D87" s="379"/>
-      <c r="E87" s="380"/>
+      <c r="D87" s="385"/>
+      <c r="E87" s="386"/>
       <c r="F87" s="214"/>
       <c r="G87" s="214"/>
       <c r="H87" s="214"/>
       <c r="I87" s="28"/>
       <c r="J87" s="214"/>
       <c r="K87" s="214"/>
-      <c r="L87" s="381"/>
-      <c r="M87" s="381"/>
-      <c r="N87" s="381"/>
-      <c r="O87" s="382"/>
+      <c r="L87" s="376"/>
+      <c r="M87" s="376"/>
+      <c r="N87" s="376"/>
+      <c r="O87" s="377"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="29"/>
       <c r="C88" s="30"/>
-      <c r="D88" s="383"/>
-      <c r="E88" s="384"/>
+      <c r="D88" s="381"/>
+      <c r="E88" s="382"/>
       <c r="F88" s="215"/>
       <c r="G88" s="215"/>
       <c r="H88" s="215"/>
       <c r="I88" s="31"/>
       <c r="J88" s="215"/>
       <c r="K88" s="215"/>
-      <c r="L88" s="385"/>
-      <c r="M88" s="385"/>
-      <c r="N88" s="385"/>
-      <c r="O88" s="386"/>
+      <c r="L88" s="383"/>
+      <c r="M88" s="383"/>
+      <c r="N88" s="383"/>
+      <c r="O88" s="384"/>
       <c r="P88" s="10"/>
     </row>
     <row r="89" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24605,10 +24605,10 @@
       <c r="C93" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="387" t="s">
+      <c r="D93" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="388"/>
+      <c r="E93" s="392"/>
       <c r="F93" s="25" t="s">
         <v>31</v>
       </c>
@@ -24627,12 +24627,12 @@
       <c r="K93" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L93" s="389" t="s">
+      <c r="L93" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M93" s="389"/>
-      <c r="N93" s="389"/>
-      <c r="O93" s="390"/>
+      <c r="M93" s="393"/>
+      <c r="N93" s="393"/>
+      <c r="O93" s="394"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24643,10 +24643,10 @@
       <c r="C94" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D94" s="379" t="s">
+      <c r="D94" s="385" t="s">
         <v>267</v>
       </c>
-      <c r="E94" s="380"/>
+      <c r="E94" s="386"/>
       <c r="F94" s="214"/>
       <c r="G94" s="214"/>
       <c r="H94" s="214" t="s">
@@ -24659,12 +24659,12 @@
       <c r="K94" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L94" s="381" t="s">
+      <c r="L94" s="376" t="s">
         <v>263</v>
       </c>
-      <c r="M94" s="381"/>
-      <c r="N94" s="381"/>
-      <c r="O94" s="382"/>
+      <c r="M94" s="376"/>
+      <c r="N94" s="376"/>
+      <c r="O94" s="377"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24675,10 +24675,10 @@
       <c r="C95" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D95" s="379" t="s">
+      <c r="D95" s="385" t="s">
         <v>262</v>
       </c>
-      <c r="E95" s="380"/>
+      <c r="E95" s="386"/>
       <c r="F95" s="214"/>
       <c r="G95" s="214"/>
       <c r="H95" s="214" t="s">
@@ -24691,12 +24691,12 @@
       <c r="K95" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L95" s="428" t="s">
+      <c r="L95" s="415" t="s">
         <v>268</v>
       </c>
-      <c r="M95" s="429"/>
-      <c r="N95" s="429"/>
-      <c r="O95" s="430"/>
+      <c r="M95" s="416"/>
+      <c r="N95" s="416"/>
+      <c r="O95" s="417"/>
       <c r="P95" s="10"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24707,10 +24707,10 @@
       <c r="C96" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D96" s="379" t="s">
+      <c r="D96" s="385" t="s">
         <v>269</v>
       </c>
-      <c r="E96" s="380"/>
+      <c r="E96" s="386"/>
       <c r="F96" s="214"/>
       <c r="G96" s="214"/>
       <c r="H96" s="214" t="s">
@@ -24721,10 +24721,10 @@
       </c>
       <c r="J96" s="214"/>
       <c r="K96" s="214"/>
-      <c r="L96" s="416"/>
-      <c r="M96" s="417"/>
-      <c r="N96" s="417"/>
-      <c r="O96" s="418"/>
+      <c r="L96" s="418"/>
+      <c r="M96" s="419"/>
+      <c r="N96" s="419"/>
+      <c r="O96" s="420"/>
       <c r="P96" s="10"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24735,10 +24735,10 @@
       <c r="C97" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D97" s="379" t="s">
+      <c r="D97" s="385" t="s">
         <v>270</v>
       </c>
-      <c r="E97" s="380"/>
+      <c r="E97" s="386"/>
       <c r="F97" s="214"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214" t="s">
@@ -24749,10 +24749,10 @@
       </c>
       <c r="J97" s="214"/>
       <c r="K97" s="241"/>
-      <c r="L97" s="381"/>
-      <c r="M97" s="381"/>
-      <c r="N97" s="381"/>
-      <c r="O97" s="382"/>
+      <c r="L97" s="376"/>
+      <c r="M97" s="376"/>
+      <c r="N97" s="376"/>
+      <c r="O97" s="377"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24763,10 +24763,10 @@
       <c r="C98" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D98" s="379" t="s">
+      <c r="D98" s="385" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="380"/>
+      <c r="E98" s="386"/>
       <c r="F98" s="214"/>
       <c r="G98" s="214"/>
       <c r="H98" s="214"/>
@@ -24777,28 +24777,28 @@
         <v>255</v>
       </c>
       <c r="K98" s="241"/>
-      <c r="L98" s="381"/>
-      <c r="M98" s="381"/>
-      <c r="N98" s="381"/>
-      <c r="O98" s="382"/>
+      <c r="L98" s="376"/>
+      <c r="M98" s="376"/>
+      <c r="N98" s="376"/>
+      <c r="O98" s="377"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="29"/>
       <c r="C99" s="30"/>
-      <c r="D99" s="394"/>
-      <c r="E99" s="395"/>
+      <c r="D99" s="413"/>
+      <c r="E99" s="414"/>
       <c r="F99" s="215"/>
       <c r="G99" s="215"/>
       <c r="H99" s="215"/>
       <c r="I99" s="31"/>
       <c r="J99" s="215"/>
       <c r="K99" s="215"/>
-      <c r="L99" s="385"/>
-      <c r="M99" s="385"/>
-      <c r="N99" s="385"/>
-      <c r="O99" s="386"/>
+      <c r="L99" s="383"/>
+      <c r="M99" s="383"/>
+      <c r="N99" s="383"/>
+      <c r="O99" s="384"/>
       <c r="P99" s="10"/>
     </row>
     <row r="100" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24885,10 +24885,10 @@
       <c r="C104" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="387" t="s">
+      <c r="D104" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E104" s="388"/>
+      <c r="E104" s="392"/>
       <c r="F104" s="25" t="s">
         <v>31</v>
       </c>
@@ -24907,12 +24907,12 @@
       <c r="K104" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L104" s="389" t="s">
+      <c r="L104" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M104" s="389"/>
-      <c r="N104" s="389"/>
-      <c r="O104" s="390"/>
+      <c r="M104" s="393"/>
+      <c r="N104" s="393"/>
+      <c r="O104" s="394"/>
       <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24923,10 +24923,10 @@
       <c r="C105" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D105" s="379" t="s">
+      <c r="D105" s="385" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="380"/>
+      <c r="E105" s="386"/>
       <c r="F105" s="214"/>
       <c r="G105" s="214"/>
       <c r="H105" s="214" t="s">
@@ -24939,12 +24939,12 @@
       <c r="K105" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L105" s="381" t="s">
+      <c r="L105" s="376" t="s">
         <v>327</v>
       </c>
-      <c r="M105" s="381"/>
-      <c r="N105" s="381"/>
-      <c r="O105" s="382"/>
+      <c r="M105" s="376"/>
+      <c r="N105" s="376"/>
+      <c r="O105" s="377"/>
       <c r="P105" s="10"/>
     </row>
     <row r="106" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -24955,10 +24955,10 @@
       <c r="C106" s="262" t="s">
         <v>450</v>
       </c>
-      <c r="D106" s="365" t="s">
+      <c r="D106" s="374" t="s">
         <v>452</v>
       </c>
-      <c r="E106" s="366"/>
+      <c r="E106" s="375"/>
       <c r="F106" s="265"/>
       <c r="G106" s="265"/>
       <c r="H106" s="265" t="s">
@@ -24969,10 +24969,10 @@
       </c>
       <c r="J106" s="265"/>
       <c r="K106" s="265"/>
-      <c r="L106" s="367"/>
-      <c r="M106" s="367"/>
-      <c r="N106" s="367"/>
-      <c r="O106" s="368"/>
+      <c r="L106" s="368"/>
+      <c r="M106" s="368"/>
+      <c r="N106" s="368"/>
+      <c r="O106" s="369"/>
       <c r="P106" s="267"/>
     </row>
     <row r="107" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -24983,10 +24983,10 @@
       <c r="C107" s="262" t="s">
         <v>451</v>
       </c>
-      <c r="D107" s="365" t="s">
+      <c r="D107" s="374" t="s">
         <v>404</v>
       </c>
-      <c r="E107" s="366"/>
+      <c r="E107" s="375"/>
       <c r="F107" s="265"/>
       <c r="G107" s="265"/>
       <c r="H107" s="265" t="s">
@@ -24997,10 +24997,10 @@
       </c>
       <c r="J107" s="265"/>
       <c r="K107" s="265"/>
-      <c r="L107" s="367"/>
-      <c r="M107" s="367"/>
-      <c r="N107" s="367"/>
-      <c r="O107" s="368"/>
+      <c r="L107" s="368"/>
+      <c r="M107" s="368"/>
+      <c r="N107" s="368"/>
+      <c r="O107" s="369"/>
       <c r="P107" s="267"/>
     </row>
     <row r="108" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25025,12 +25025,12 @@
       </c>
       <c r="J108" s="283"/>
       <c r="K108" s="283"/>
-      <c r="L108" s="369" t="s">
+      <c r="L108" s="444" t="s">
         <v>268</v>
       </c>
-      <c r="M108" s="370"/>
-      <c r="N108" s="370"/>
-      <c r="O108" s="371"/>
+      <c r="M108" s="445"/>
+      <c r="N108" s="445"/>
+      <c r="O108" s="446"/>
       <c r="P108" s="267"/>
     </row>
     <row r="109" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25053,10 +25053,10 @@
       </c>
       <c r="J109" s="283"/>
       <c r="K109" s="283"/>
-      <c r="L109" s="369"/>
-      <c r="M109" s="370"/>
-      <c r="N109" s="370"/>
-      <c r="O109" s="371"/>
+      <c r="L109" s="444"/>
+      <c r="M109" s="445"/>
+      <c r="N109" s="445"/>
+      <c r="O109" s="446"/>
       <c r="P109" s="267"/>
     </row>
     <row r="110" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25067,20 +25067,20 @@
       <c r="C110" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="D110" s="383"/>
-      <c r="E110" s="384"/>
+      <c r="D110" s="381"/>
+      <c r="E110" s="382"/>
       <c r="F110" s="215"/>
       <c r="G110" s="215"/>
       <c r="H110" s="215"/>
       <c r="I110" s="31"/>
       <c r="J110" s="215"/>
       <c r="K110" s="215"/>
-      <c r="L110" s="385" t="s">
+      <c r="L110" s="383" t="s">
         <v>448</v>
       </c>
-      <c r="M110" s="385"/>
-      <c r="N110" s="385"/>
-      <c r="O110" s="386"/>
+      <c r="M110" s="383"/>
+      <c r="N110" s="383"/>
+      <c r="O110" s="384"/>
       <c r="P110" s="10"/>
     </row>
     <row r="111" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25167,10 +25167,10 @@
       <c r="C115" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D115" s="387" t="s">
+      <c r="D115" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="388"/>
+      <c r="E115" s="392"/>
       <c r="F115" s="25" t="s">
         <v>31</v>
       </c>
@@ -25189,12 +25189,12 @@
       <c r="K115" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L115" s="389" t="s">
+      <c r="L115" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M115" s="389"/>
-      <c r="N115" s="389"/>
-      <c r="O115" s="390"/>
+      <c r="M115" s="393"/>
+      <c r="N115" s="393"/>
+      <c r="O115" s="394"/>
       <c r="P115" s="10"/>
     </row>
     <row r="116" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25205,10 +25205,10 @@
       <c r="C116" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D116" s="379" t="s">
+      <c r="D116" s="385" t="s">
         <v>267</v>
       </c>
-      <c r="E116" s="380"/>
+      <c r="E116" s="386"/>
       <c r="F116" s="214"/>
       <c r="G116" s="214"/>
       <c r="H116" s="214" t="s">
@@ -25221,12 +25221,12 @@
       <c r="K116" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L116" s="381" t="s">
+      <c r="L116" s="376" t="s">
         <v>263</v>
       </c>
-      <c r="M116" s="381"/>
-      <c r="N116" s="381"/>
-      <c r="O116" s="382"/>
+      <c r="M116" s="376"/>
+      <c r="N116" s="376"/>
+      <c r="O116" s="377"/>
       <c r="P116" s="10"/>
     </row>
     <row r="117" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25237,10 +25237,10 @@
       <c r="C117" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D117" s="379" t="s">
+      <c r="D117" s="385" t="s">
         <v>243</v>
       </c>
-      <c r="E117" s="380"/>
+      <c r="E117" s="386"/>
       <c r="F117" s="214"/>
       <c r="G117" s="214"/>
       <c r="H117" s="214" t="s">
@@ -25251,12 +25251,12 @@
       </c>
       <c r="J117" s="214"/>
       <c r="K117" s="214"/>
-      <c r="L117" s="381" t="s">
+      <c r="L117" s="376" t="s">
         <v>344</v>
       </c>
-      <c r="M117" s="381"/>
-      <c r="N117" s="381"/>
-      <c r="O117" s="382"/>
+      <c r="M117" s="376"/>
+      <c r="N117" s="376"/>
+      <c r="O117" s="377"/>
       <c r="P117" s="10"/>
     </row>
     <row r="118" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25281,28 +25281,28 @@
       </c>
       <c r="J118" s="237"/>
       <c r="K118" s="237"/>
-      <c r="L118" s="436"/>
-      <c r="M118" s="437"/>
-      <c r="N118" s="437"/>
-      <c r="O118" s="438"/>
+      <c r="L118" s="387"/>
+      <c r="M118" s="388"/>
+      <c r="N118" s="388"/>
+      <c r="O118" s="389"/>
       <c r="P118" s="10"/>
     </row>
     <row r="119" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9"/>
       <c r="B119" s="29"/>
       <c r="C119" s="30"/>
-      <c r="D119" s="383"/>
-      <c r="E119" s="384"/>
+      <c r="D119" s="381"/>
+      <c r="E119" s="382"/>
       <c r="F119" s="215"/>
       <c r="G119" s="215"/>
       <c r="H119" s="215"/>
       <c r="I119" s="31"/>
       <c r="J119" s="215"/>
       <c r="K119" s="215"/>
-      <c r="L119" s="385"/>
-      <c r="M119" s="385"/>
-      <c r="N119" s="385"/>
-      <c r="O119" s="386"/>
+      <c r="L119" s="383"/>
+      <c r="M119" s="383"/>
+      <c r="N119" s="383"/>
+      <c r="O119" s="384"/>
       <c r="P119" s="10"/>
     </row>
     <row r="120" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25371,10 +25371,10 @@
       <c r="C123" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="387" t="s">
+      <c r="D123" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="388"/>
+      <c r="E123" s="392"/>
       <c r="F123" s="25" t="s">
         <v>31</v>
       </c>
@@ -25393,12 +25393,12 @@
       <c r="K123" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L123" s="389" t="s">
+      <c r="L123" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M123" s="389"/>
-      <c r="N123" s="389"/>
-      <c r="O123" s="390"/>
+      <c r="M123" s="393"/>
+      <c r="N123" s="393"/>
+      <c r="O123" s="394"/>
       <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25409,10 +25409,10 @@
       <c r="C124" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D124" s="379" t="s">
+      <c r="D124" s="385" t="s">
         <v>300</v>
       </c>
-      <c r="E124" s="380"/>
+      <c r="E124" s="386"/>
       <c r="F124" s="214" t="s">
         <v>191</v>
       </c>
@@ -25427,10 +25427,10 @@
         <v>128</v>
       </c>
       <c r="K124" s="214"/>
-      <c r="L124" s="428"/>
-      <c r="M124" s="429"/>
-      <c r="N124" s="429"/>
-      <c r="O124" s="430"/>
+      <c r="L124" s="415"/>
+      <c r="M124" s="416"/>
+      <c r="N124" s="416"/>
+      <c r="O124" s="417"/>
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25441,10 +25441,10 @@
       <c r="C125" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D125" s="379" t="s">
+      <c r="D125" s="385" t="s">
         <v>185</v>
       </c>
-      <c r="E125" s="380"/>
+      <c r="E125" s="386"/>
       <c r="F125" s="214"/>
       <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
@@ -25459,10 +25459,10 @@
       <c r="K125" s="214">
         <v>128</v>
       </c>
-      <c r="L125" s="381"/>
-      <c r="M125" s="381"/>
-      <c r="N125" s="381"/>
-      <c r="O125" s="382"/>
+      <c r="L125" s="376"/>
+      <c r="M125" s="376"/>
+      <c r="N125" s="376"/>
+      <c r="O125" s="377"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25487,12 +25487,12 @@
       </c>
       <c r="J126" s="237"/>
       <c r="K126" s="237"/>
-      <c r="L126" s="419" t="s">
+      <c r="L126" s="378" t="s">
         <v>365</v>
       </c>
-      <c r="M126" s="420"/>
-      <c r="N126" s="420"/>
-      <c r="O126" s="421"/>
+      <c r="M126" s="379"/>
+      <c r="N126" s="379"/>
+      <c r="O126" s="380"/>
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25519,12 +25519,12 @@
         <v>128</v>
       </c>
       <c r="K127" s="237"/>
-      <c r="L127" s="419" t="s">
+      <c r="L127" s="378" t="s">
         <v>367</v>
       </c>
-      <c r="M127" s="420"/>
-      <c r="N127" s="420"/>
-      <c r="O127" s="421"/>
+      <c r="M127" s="379"/>
+      <c r="N127" s="379"/>
+      <c r="O127" s="380"/>
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25535,10 +25535,10 @@
       <c r="C128" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D128" s="379" t="s">
+      <c r="D128" s="385" t="s">
         <v>218</v>
       </c>
-      <c r="E128" s="380"/>
+      <c r="E128" s="386"/>
       <c r="F128" s="214"/>
       <c r="G128" s="214"/>
       <c r="H128" s="214" t="s">
@@ -25551,12 +25551,12 @@
       <c r="K128" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L128" s="381" t="s">
+      <c r="L128" s="376" t="s">
         <v>327</v>
       </c>
-      <c r="M128" s="381"/>
-      <c r="N128" s="381"/>
-      <c r="O128" s="382"/>
+      <c r="M128" s="376"/>
+      <c r="N128" s="376"/>
+      <c r="O128" s="377"/>
       <c r="P128" s="10"/>
     </row>
     <row r="129" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25581,28 +25581,28 @@
       </c>
       <c r="J129" s="237"/>
       <c r="K129" s="237"/>
-      <c r="L129" s="436"/>
-      <c r="M129" s="437"/>
-      <c r="N129" s="437"/>
-      <c r="O129" s="438"/>
+      <c r="L129" s="387"/>
+      <c r="M129" s="388"/>
+      <c r="N129" s="388"/>
+      <c r="O129" s="389"/>
       <c r="P129" s="10"/>
     </row>
     <row r="130" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="29"/>
       <c r="C130" s="30"/>
-      <c r="D130" s="383"/>
-      <c r="E130" s="384"/>
+      <c r="D130" s="381"/>
+      <c r="E130" s="382"/>
       <c r="F130" s="215"/>
       <c r="G130" s="215"/>
       <c r="H130" s="215"/>
       <c r="I130" s="31"/>
       <c r="J130" s="215"/>
       <c r="K130" s="215"/>
-      <c r="L130" s="385"/>
-      <c r="M130" s="385"/>
-      <c r="N130" s="385"/>
-      <c r="O130" s="386"/>
+      <c r="L130" s="383"/>
+      <c r="M130" s="383"/>
+      <c r="N130" s="383"/>
+      <c r="O130" s="384"/>
       <c r="P130" s="10"/>
     </row>
     <row r="131" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25689,10 +25689,10 @@
       <c r="C135" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D135" s="387" t="s">
+      <c r="D135" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E135" s="388"/>
+      <c r="E135" s="392"/>
       <c r="F135" s="25" t="s">
         <v>31</v>
       </c>
@@ -25711,12 +25711,12 @@
       <c r="K135" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L135" s="389" t="s">
+      <c r="L135" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M135" s="389"/>
-      <c r="N135" s="389"/>
-      <c r="O135" s="390"/>
+      <c r="M135" s="393"/>
+      <c r="N135" s="393"/>
+      <c r="O135" s="394"/>
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
@@ -25727,10 +25727,10 @@
       <c r="C136" s="233" t="s">
         <v>289</v>
       </c>
-      <c r="D136" s="391" t="s">
+      <c r="D136" s="395" t="s">
         <v>297</v>
       </c>
-      <c r="E136" s="392"/>
+      <c r="E136" s="396"/>
       <c r="F136" s="214" t="s">
         <v>191</v>
       </c>
@@ -25745,12 +25745,12 @@
         <v>12</v>
       </c>
       <c r="K136" s="214"/>
-      <c r="L136" s="433" t="s">
+      <c r="L136" s="410" t="s">
         <v>290</v>
       </c>
-      <c r="M136" s="434"/>
-      <c r="N136" s="434"/>
-      <c r="O136" s="435"/>
+      <c r="M136" s="411"/>
+      <c r="N136" s="411"/>
+      <c r="O136" s="412"/>
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25761,10 +25761,10 @@
       <c r="C137" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D137" s="379" t="s">
+      <c r="D137" s="385" t="s">
         <v>298</v>
       </c>
-      <c r="E137" s="380"/>
+      <c r="E137" s="386"/>
       <c r="F137" s="214"/>
       <c r="G137" s="214"/>
       <c r="H137" s="214"/>
@@ -25775,10 +25775,10 @@
         <v>255</v>
       </c>
       <c r="K137" s="214"/>
-      <c r="L137" s="431"/>
-      <c r="M137" s="431"/>
-      <c r="N137" s="431"/>
-      <c r="O137" s="432"/>
+      <c r="L137" s="402"/>
+      <c r="M137" s="402"/>
+      <c r="N137" s="402"/>
+      <c r="O137" s="403"/>
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25789,10 +25789,10 @@
       <c r="C138" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D138" s="379" t="s">
+      <c r="D138" s="385" t="s">
         <v>299</v>
       </c>
-      <c r="E138" s="380"/>
+      <c r="E138" s="386"/>
       <c r="F138" s="214"/>
       <c r="G138" s="214"/>
       <c r="H138" s="214" t="s">
@@ -25805,10 +25805,10 @@
         <v>30</v>
       </c>
       <c r="K138" s="214"/>
-      <c r="L138" s="431"/>
-      <c r="M138" s="431"/>
-      <c r="N138" s="431"/>
-      <c r="O138" s="432"/>
+      <c r="L138" s="402"/>
+      <c r="M138" s="402"/>
+      <c r="N138" s="402"/>
+      <c r="O138" s="403"/>
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25819,10 +25819,10 @@
       <c r="C139" s="262" t="s">
         <v>278</v>
       </c>
-      <c r="D139" s="365" t="s">
+      <c r="D139" s="374" t="s">
         <v>301</v>
       </c>
-      <c r="E139" s="366"/>
+      <c r="E139" s="375"/>
       <c r="F139" s="265"/>
       <c r="G139" s="265"/>
       <c r="H139" s="265"/>
@@ -25833,10 +25833,10 @@
         <v>20</v>
       </c>
       <c r="K139" s="265"/>
-      <c r="L139" s="441"/>
-      <c r="M139" s="442"/>
-      <c r="N139" s="442"/>
-      <c r="O139" s="443"/>
+      <c r="L139" s="404"/>
+      <c r="M139" s="405"/>
+      <c r="N139" s="405"/>
+      <c r="O139" s="406"/>
       <c r="P139" s="267"/>
     </row>
     <row r="140" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25847,10 +25847,10 @@
       <c r="C140" s="262" t="s">
         <v>279</v>
       </c>
-      <c r="D140" s="365" t="s">
+      <c r="D140" s="374" t="s">
         <v>302</v>
       </c>
-      <c r="E140" s="366"/>
+      <c r="E140" s="375"/>
       <c r="F140" s="265"/>
       <c r="G140" s="265"/>
       <c r="H140" s="265"/>
@@ -25859,12 +25859,12 @@
       </c>
       <c r="J140" s="265"/>
       <c r="K140" s="292"/>
-      <c r="L140" s="444" t="s">
+      <c r="L140" s="407" t="s">
         <v>292</v>
       </c>
-      <c r="M140" s="445"/>
-      <c r="N140" s="445"/>
-      <c r="O140" s="446"/>
+      <c r="M140" s="408"/>
+      <c r="N140" s="408"/>
+      <c r="O140" s="409"/>
       <c r="P140" s="267"/>
     </row>
     <row r="141" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25875,10 +25875,10 @@
       <c r="C141" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D141" s="379" t="s">
+      <c r="D141" s="385" t="s">
         <v>302</v>
       </c>
-      <c r="E141" s="380"/>
+      <c r="E141" s="386"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
@@ -25887,12 +25887,12 @@
       </c>
       <c r="J141" s="214"/>
       <c r="K141" s="241"/>
-      <c r="L141" s="425" t="s">
+      <c r="L141" s="399" t="s">
         <v>291</v>
       </c>
-      <c r="M141" s="426"/>
-      <c r="N141" s="426"/>
-      <c r="O141" s="427"/>
+      <c r="M141" s="400"/>
+      <c r="N141" s="400"/>
+      <c r="O141" s="401"/>
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25903,10 +25903,10 @@
       <c r="C142" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D142" s="379" t="s">
+      <c r="D142" s="385" t="s">
         <v>302</v>
       </c>
-      <c r="E142" s="380"/>
+      <c r="E142" s="386"/>
       <c r="F142" s="214"/>
       <c r="G142" s="214"/>
       <c r="H142" s="214"/>
@@ -25917,10 +25917,10 @@
         <v>128</v>
       </c>
       <c r="K142" s="241"/>
-      <c r="L142" s="425"/>
-      <c r="M142" s="426"/>
-      <c r="N142" s="426"/>
-      <c r="O142" s="427"/>
+      <c r="L142" s="399"/>
+      <c r="M142" s="400"/>
+      <c r="N142" s="400"/>
+      <c r="O142" s="401"/>
       <c r="P142" s="10"/>
     </row>
     <row r="143" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25931,10 +25931,10 @@
       <c r="C143" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D143" s="379" t="s">
+      <c r="D143" s="385" t="s">
         <v>303</v>
       </c>
-      <c r="E143" s="380"/>
+      <c r="E143" s="386"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
@@ -25945,12 +25945,12 @@
         <v>255</v>
       </c>
       <c r="K143" s="241"/>
-      <c r="L143" s="425" t="s">
+      <c r="L143" s="399" t="s">
         <v>293</v>
       </c>
-      <c r="M143" s="426"/>
-      <c r="N143" s="426"/>
-      <c r="O143" s="427"/>
+      <c r="M143" s="400"/>
+      <c r="N143" s="400"/>
+      <c r="O143" s="401"/>
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25961,10 +25961,10 @@
       <c r="C144" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D144" s="379" t="s">
+      <c r="D144" s="385" t="s">
         <v>304</v>
       </c>
-      <c r="E144" s="380"/>
+      <c r="E144" s="386"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
@@ -25975,12 +25975,12 @@
         <v>255</v>
       </c>
       <c r="K144" s="241"/>
-      <c r="L144" s="425" t="s">
+      <c r="L144" s="399" t="s">
         <v>294</v>
       </c>
-      <c r="M144" s="426"/>
-      <c r="N144" s="426"/>
-      <c r="O144" s="427"/>
+      <c r="M144" s="400"/>
+      <c r="N144" s="400"/>
+      <c r="O144" s="401"/>
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26017,10 +26017,10 @@
       <c r="C146" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D146" s="379" t="s">
+      <c r="D146" s="385" t="s">
         <v>305</v>
       </c>
-      <c r="E146" s="380"/>
+      <c r="E146" s="386"/>
       <c r="F146" s="214"/>
       <c r="G146" s="214"/>
       <c r="H146" s="214"/>
@@ -26029,12 +26029,12 @@
       </c>
       <c r="J146" s="214"/>
       <c r="K146" s="241"/>
-      <c r="L146" s="431" t="s">
+      <c r="L146" s="402" t="s">
         <v>295</v>
       </c>
-      <c r="M146" s="431"/>
-      <c r="N146" s="431"/>
-      <c r="O146" s="432"/>
+      <c r="M146" s="402"/>
+      <c r="N146" s="402"/>
+      <c r="O146" s="403"/>
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26045,10 +26045,10 @@
       <c r="C147" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D147" s="379" t="s">
+      <c r="D147" s="385" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="380"/>
+      <c r="E147" s="386"/>
       <c r="F147" s="214"/>
       <c r="G147" s="214"/>
       <c r="H147" s="214"/>
@@ -26057,12 +26057,12 @@
       </c>
       <c r="J147" s="214"/>
       <c r="K147" s="241"/>
-      <c r="L147" s="431" t="s">
+      <c r="L147" s="402" t="s">
         <v>352</v>
       </c>
-      <c r="M147" s="431"/>
-      <c r="N147" s="431"/>
-      <c r="O147" s="432"/>
+      <c r="M147" s="402"/>
+      <c r="N147" s="402"/>
+      <c r="O147" s="403"/>
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26073,10 +26073,10 @@
       <c r="C148" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D148" s="379" t="s">
+      <c r="D148" s="385" t="s">
         <v>306</v>
       </c>
-      <c r="E148" s="380"/>
+      <c r="E148" s="386"/>
       <c r="F148" s="214"/>
       <c r="G148" s="214"/>
       <c r="H148" s="214"/>
@@ -26085,12 +26085,12 @@
       </c>
       <c r="J148" s="214"/>
       <c r="K148" s="241"/>
-      <c r="L148" s="431" t="s">
+      <c r="L148" s="402" t="s">
         <v>348</v>
       </c>
-      <c r="M148" s="431"/>
-      <c r="N148" s="431"/>
-      <c r="O148" s="432"/>
+      <c r="M148" s="402"/>
+      <c r="N148" s="402"/>
+      <c r="O148" s="403"/>
       <c r="P148" s="10"/>
     </row>
     <row r="149" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26101,10 +26101,10 @@
       <c r="C149" s="236" t="s">
         <v>288</v>
       </c>
-      <c r="D149" s="379" t="s">
+      <c r="D149" s="385" t="s">
         <v>308</v>
       </c>
-      <c r="E149" s="380"/>
+      <c r="E149" s="386"/>
       <c r="F149" s="237"/>
       <c r="G149" s="237"/>
       <c r="H149" s="237"/>
@@ -26115,28 +26115,28 @@
         <v>255</v>
       </c>
       <c r="K149" s="242"/>
-      <c r="L149" s="431"/>
-      <c r="M149" s="431"/>
-      <c r="N149" s="431"/>
-      <c r="O149" s="432"/>
+      <c r="L149" s="402"/>
+      <c r="M149" s="402"/>
+      <c r="N149" s="402"/>
+      <c r="O149" s="403"/>
       <c r="P149" s="10"/>
     </row>
     <row r="150" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9"/>
       <c r="B150" s="29"/>
       <c r="C150" s="30"/>
-      <c r="D150" s="383"/>
-      <c r="E150" s="384"/>
+      <c r="D150" s="381"/>
+      <c r="E150" s="382"/>
       <c r="F150" s="215"/>
       <c r="G150" s="215"/>
       <c r="H150" s="215"/>
       <c r="I150" s="31"/>
       <c r="J150" s="215"/>
       <c r="K150" s="215"/>
-      <c r="L150" s="439"/>
-      <c r="M150" s="439"/>
-      <c r="N150" s="439"/>
-      <c r="O150" s="440"/>
+      <c r="L150" s="397"/>
+      <c r="M150" s="397"/>
+      <c r="N150" s="397"/>
+      <c r="O150" s="398"/>
       <c r="P150" s="10"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
@@ -26241,10 +26241,10 @@
       <c r="C156" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D156" s="387" t="s">
+      <c r="D156" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="388"/>
+      <c r="E156" s="392"/>
       <c r="F156" s="25" t="s">
         <v>31</v>
       </c>
@@ -26263,12 +26263,12 @@
       <c r="K156" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L156" s="389" t="s">
+      <c r="L156" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M156" s="389"/>
-      <c r="N156" s="389"/>
-      <c r="O156" s="390"/>
+      <c r="M156" s="393"/>
+      <c r="N156" s="393"/>
+      <c r="O156" s="394"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26279,10 +26279,10 @@
       <c r="C157" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D157" s="379" t="s">
+      <c r="D157" s="385" t="s">
         <v>313</v>
       </c>
-      <c r="E157" s="380"/>
+      <c r="E157" s="386"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
       <c r="H157" s="214" t="s">
@@ -26295,10 +26295,10 @@
         <v>255</v>
       </c>
       <c r="K157" s="214"/>
-      <c r="L157" s="381"/>
-      <c r="M157" s="381"/>
-      <c r="N157" s="381"/>
-      <c r="O157" s="382"/>
+      <c r="L157" s="376"/>
+      <c r="M157" s="376"/>
+      <c r="N157" s="376"/>
+      <c r="O157" s="377"/>
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26309,10 +26309,10 @@
       <c r="C158" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D158" s="379" t="s">
+      <c r="D158" s="385" t="s">
         <v>314</v>
       </c>
-      <c r="E158" s="380"/>
+      <c r="E158" s="386"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
       <c r="H158" s="214"/>
@@ -26323,10 +26323,10 @@
         <v>255</v>
       </c>
       <c r="K158" s="214"/>
-      <c r="L158" s="381"/>
-      <c r="M158" s="381"/>
-      <c r="N158" s="381"/>
-      <c r="O158" s="382"/>
+      <c r="L158" s="376"/>
+      <c r="M158" s="376"/>
+      <c r="N158" s="376"/>
+      <c r="O158" s="377"/>
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26351,10 +26351,10 @@
         <v>255</v>
       </c>
       <c r="K159" s="214"/>
-      <c r="L159" s="381"/>
-      <c r="M159" s="381"/>
-      <c r="N159" s="381"/>
-      <c r="O159" s="382"/>
+      <c r="L159" s="376"/>
+      <c r="M159" s="376"/>
+      <c r="N159" s="376"/>
+      <c r="O159" s="377"/>
       <c r="P159" s="10"/>
     </row>
     <row r="160" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26365,10 +26365,10 @@
       <c r="C160" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D160" s="379" t="s">
+      <c r="D160" s="385" t="s">
         <v>315</v>
       </c>
-      <c r="E160" s="380"/>
+      <c r="E160" s="386"/>
       <c r="F160" s="214"/>
       <c r="G160" s="214"/>
       <c r="H160" s="214" t="s">
@@ -26379,12 +26379,12 @@
       </c>
       <c r="J160" s="214"/>
       <c r="K160" s="214"/>
-      <c r="L160" s="381" t="s">
+      <c r="L160" s="376" t="s">
         <v>345</v>
       </c>
-      <c r="M160" s="381"/>
-      <c r="N160" s="381"/>
-      <c r="O160" s="382"/>
+      <c r="M160" s="376"/>
+      <c r="N160" s="376"/>
+      <c r="O160" s="377"/>
       <c r="P160" s="10"/>
     </row>
     <row r="161" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26395,10 +26395,10 @@
       <c r="C161" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D161" s="379" t="s">
+      <c r="D161" s="385" t="s">
         <v>317</v>
       </c>
-      <c r="E161" s="380"/>
+      <c r="E161" s="386"/>
       <c r="F161" s="214"/>
       <c r="G161" s="214"/>
       <c r="H161" s="214" t="s">
@@ -26411,30 +26411,30 @@
       <c r="K161" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L161" s="381" t="s">
+      <c r="L161" s="376" t="s">
         <v>268</v>
       </c>
-      <c r="M161" s="381"/>
-      <c r="N161" s="381"/>
-      <c r="O161" s="382"/>
+      <c r="M161" s="376"/>
+      <c r="N161" s="376"/>
+      <c r="O161" s="377"/>
       <c r="P161" s="10"/>
     </row>
     <row r="162" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9"/>
       <c r="B162" s="29"/>
       <c r="C162" s="30"/>
-      <c r="D162" s="383"/>
-      <c r="E162" s="384"/>
+      <c r="D162" s="381"/>
+      <c r="E162" s="382"/>
       <c r="F162" s="215"/>
       <c r="G162" s="215"/>
       <c r="H162" s="215"/>
       <c r="I162" s="31"/>
       <c r="J162" s="215"/>
       <c r="K162" s="215"/>
-      <c r="L162" s="385"/>
-      <c r="M162" s="385"/>
-      <c r="N162" s="385"/>
-      <c r="O162" s="386"/>
+      <c r="L162" s="383"/>
+      <c r="M162" s="383"/>
+      <c r="N162" s="383"/>
+      <c r="O162" s="384"/>
       <c r="P162" s="10"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
@@ -26521,10 +26521,10 @@
       <c r="C167" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D167" s="387" t="s">
+      <c r="D167" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="388"/>
+      <c r="E167" s="392"/>
       <c r="F167" s="25" t="s">
         <v>31</v>
       </c>
@@ -26543,12 +26543,12 @@
       <c r="K167" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L167" s="389" t="s">
+      <c r="L167" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M167" s="389"/>
-      <c r="N167" s="389"/>
-      <c r="O167" s="390"/>
+      <c r="M167" s="393"/>
+      <c r="N167" s="393"/>
+      <c r="O167" s="394"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26559,10 +26559,10 @@
       <c r="C168" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D168" s="379" t="s">
+      <c r="D168" s="385" t="s">
         <v>318</v>
       </c>
-      <c r="E168" s="380"/>
+      <c r="E168" s="386"/>
       <c r="F168" s="214"/>
       <c r="G168" s="214"/>
       <c r="H168" s="214" t="s">
@@ -26575,10 +26575,10 @@
         <v>255</v>
       </c>
       <c r="K168" s="214"/>
-      <c r="L168" s="381"/>
-      <c r="M168" s="381"/>
-      <c r="N168" s="381"/>
-      <c r="O168" s="382"/>
+      <c r="L168" s="376"/>
+      <c r="M168" s="376"/>
+      <c r="N168" s="376"/>
+      <c r="O168" s="377"/>
       <c r="P168" s="10"/>
     </row>
     <row r="169" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26589,10 +26589,10 @@
       <c r="C169" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D169" s="379" t="s">
+      <c r="D169" s="385" t="s">
         <v>319</v>
       </c>
-      <c r="E169" s="380"/>
+      <c r="E169" s="386"/>
       <c r="F169" s="214"/>
       <c r="G169" s="214"/>
       <c r="H169" s="214"/>
@@ -26603,10 +26603,10 @@
         <v>255</v>
       </c>
       <c r="K169" s="214"/>
-      <c r="L169" s="381"/>
-      <c r="M169" s="381"/>
-      <c r="N169" s="381"/>
-      <c r="O169" s="382"/>
+      <c r="L169" s="376"/>
+      <c r="M169" s="376"/>
+      <c r="N169" s="376"/>
+      <c r="O169" s="377"/>
       <c r="P169" s="10"/>
     </row>
     <row r="170" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26631,30 +26631,30 @@
       <c r="K170" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L170" s="381" t="s">
+      <c r="L170" s="376" t="s">
         <v>321</v>
       </c>
-      <c r="M170" s="381"/>
-      <c r="N170" s="381"/>
-      <c r="O170" s="382"/>
+      <c r="M170" s="376"/>
+      <c r="N170" s="376"/>
+      <c r="O170" s="377"/>
       <c r="P170" s="10"/>
     </row>
     <row r="171" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="9"/>
       <c r="B171" s="29"/>
       <c r="C171" s="30"/>
-      <c r="D171" s="383"/>
-      <c r="E171" s="384"/>
+      <c r="D171" s="381"/>
+      <c r="E171" s="382"/>
       <c r="F171" s="215"/>
       <c r="G171" s="215"/>
       <c r="H171" s="215"/>
       <c r="I171" s="31"/>
       <c r="J171" s="215"/>
       <c r="K171" s="215"/>
-      <c r="L171" s="385"/>
-      <c r="M171" s="385"/>
-      <c r="N171" s="385"/>
-      <c r="O171" s="386"/>
+      <c r="L171" s="383"/>
+      <c r="M171" s="383"/>
+      <c r="N171" s="383"/>
+      <c r="O171" s="384"/>
       <c r="P171" s="10"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
@@ -26741,10 +26741,10 @@
       <c r="C176" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="387" t="s">
+      <c r="D176" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E176" s="388"/>
+      <c r="E176" s="392"/>
       <c r="F176" s="25" t="s">
         <v>31</v>
       </c>
@@ -26763,12 +26763,12 @@
       <c r="K176" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L176" s="389" t="s">
+      <c r="L176" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M176" s="389"/>
-      <c r="N176" s="389"/>
-      <c r="O176" s="390"/>
+      <c r="M176" s="393"/>
+      <c r="N176" s="393"/>
+      <c r="O176" s="394"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26779,10 +26779,10 @@
       <c r="C177" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D177" s="379" t="s">
+      <c r="D177" s="385" t="s">
         <v>318</v>
       </c>
-      <c r="E177" s="380"/>
+      <c r="E177" s="386"/>
       <c r="F177" s="214"/>
       <c r="G177" s="214"/>
       <c r="H177" s="214" t="s">
@@ -26795,10 +26795,10 @@
         <v>255</v>
       </c>
       <c r="K177" s="214"/>
-      <c r="L177" s="381"/>
-      <c r="M177" s="381"/>
-      <c r="N177" s="381"/>
-      <c r="O177" s="382"/>
+      <c r="L177" s="376"/>
+      <c r="M177" s="376"/>
+      <c r="N177" s="376"/>
+      <c r="O177" s="377"/>
       <c r="P177" s="10"/>
     </row>
     <row r="178" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26809,10 +26809,10 @@
       <c r="C178" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D178" s="379" t="s">
+      <c r="D178" s="385" t="s">
         <v>319</v>
       </c>
-      <c r="E178" s="380"/>
+      <c r="E178" s="386"/>
       <c r="F178" s="214"/>
       <c r="G178" s="214"/>
       <c r="H178" s="214"/>
@@ -26823,10 +26823,10 @@
         <v>255</v>
       </c>
       <c r="K178" s="214"/>
-      <c r="L178" s="381"/>
-      <c r="M178" s="381"/>
-      <c r="N178" s="381"/>
-      <c r="O178" s="382"/>
+      <c r="L178" s="376"/>
+      <c r="M178" s="376"/>
+      <c r="N178" s="376"/>
+      <c r="O178" s="377"/>
       <c r="P178" s="10"/>
     </row>
     <row r="179" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26851,30 +26851,30 @@
       <c r="K179" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L179" s="381" t="s">
+      <c r="L179" s="376" t="s">
         <v>266</v>
       </c>
-      <c r="M179" s="381"/>
-      <c r="N179" s="381"/>
-      <c r="O179" s="382"/>
+      <c r="M179" s="376"/>
+      <c r="N179" s="376"/>
+      <c r="O179" s="377"/>
       <c r="P179" s="10"/>
     </row>
     <row r="180" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="9"/>
       <c r="B180" s="29"/>
       <c r="C180" s="30"/>
-      <c r="D180" s="383"/>
-      <c r="E180" s="384"/>
+      <c r="D180" s="381"/>
+      <c r="E180" s="382"/>
       <c r="F180" s="215"/>
       <c r="G180" s="215"/>
       <c r="H180" s="215"/>
       <c r="I180" s="31"/>
       <c r="J180" s="215"/>
       <c r="K180" s="215"/>
-      <c r="L180" s="385"/>
-      <c r="M180" s="385"/>
-      <c r="N180" s="385"/>
-      <c r="O180" s="386"/>
+      <c r="L180" s="383"/>
+      <c r="M180" s="383"/>
+      <c r="N180" s="383"/>
+      <c r="O180" s="384"/>
       <c r="P180" s="10"/>
     </row>
     <row r="181" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26961,10 +26961,10 @@
       <c r="C185" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D185" s="387" t="s">
+      <c r="D185" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E185" s="388"/>
+      <c r="E185" s="392"/>
       <c r="F185" s="25" t="s">
         <v>31</v>
       </c>
@@ -26983,12 +26983,12 @@
       <c r="K185" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L185" s="389" t="s">
+      <c r="L185" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M185" s="389"/>
-      <c r="N185" s="389"/>
-      <c r="O185" s="390"/>
+      <c r="M185" s="393"/>
+      <c r="N185" s="393"/>
+      <c r="O185" s="394"/>
       <c r="P185" s="10"/>
     </row>
     <row r="186" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26999,10 +26999,10 @@
       <c r="C186" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="D186" s="379" t="s">
+      <c r="D186" s="385" t="s">
         <v>326</v>
       </c>
-      <c r="E186" s="380"/>
+      <c r="E186" s="386"/>
       <c r="F186" s="214"/>
       <c r="G186" s="214"/>
       <c r="H186" s="214" t="s">
@@ -27015,10 +27015,10 @@
         <v>255</v>
       </c>
       <c r="K186" s="214"/>
-      <c r="L186" s="381"/>
-      <c r="M186" s="381"/>
-      <c r="N186" s="381"/>
-      <c r="O186" s="382"/>
+      <c r="L186" s="376"/>
+      <c r="M186" s="376"/>
+      <c r="N186" s="376"/>
+      <c r="O186" s="377"/>
       <c r="P186" s="10"/>
     </row>
     <row r="187" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27029,10 +27029,10 @@
       <c r="C187" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D187" s="379" t="s">
+      <c r="D187" s="385" t="s">
         <v>409</v>
       </c>
-      <c r="E187" s="380"/>
+      <c r="E187" s="386"/>
       <c r="F187" s="214"/>
       <c r="G187" s="214"/>
       <c r="H187" s="214"/>
@@ -27043,28 +27043,28 @@
         <v>255</v>
       </c>
       <c r="K187" s="214"/>
-      <c r="L187" s="381"/>
-      <c r="M187" s="381"/>
-      <c r="N187" s="381"/>
-      <c r="O187" s="382"/>
+      <c r="L187" s="376"/>
+      <c r="M187" s="376"/>
+      <c r="N187" s="376"/>
+      <c r="O187" s="377"/>
       <c r="P187" s="10"/>
     </row>
     <row r="188" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9"/>
       <c r="B188" s="29"/>
       <c r="C188" s="30"/>
-      <c r="D188" s="383"/>
-      <c r="E188" s="384"/>
+      <c r="D188" s="381"/>
+      <c r="E188" s="382"/>
       <c r="F188" s="215"/>
       <c r="G188" s="215"/>
       <c r="H188" s="215"/>
       <c r="I188" s="31"/>
       <c r="J188" s="215"/>
       <c r="K188" s="215"/>
-      <c r="L188" s="385"/>
-      <c r="M188" s="385"/>
-      <c r="N188" s="385"/>
-      <c r="O188" s="386"/>
+      <c r="L188" s="383"/>
+      <c r="M188" s="383"/>
+      <c r="N188" s="383"/>
+      <c r="O188" s="384"/>
       <c r="P188" s="10"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
@@ -27169,10 +27169,10 @@
       <c r="C194" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D194" s="387" t="s">
+      <c r="D194" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E194" s="388"/>
+      <c r="E194" s="392"/>
       <c r="F194" s="25" t="s">
         <v>31</v>
       </c>
@@ -27191,12 +27191,12 @@
       <c r="K194" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L194" s="389" t="s">
+      <c r="L194" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M194" s="389"/>
-      <c r="N194" s="389"/>
-      <c r="O194" s="390"/>
+      <c r="M194" s="393"/>
+      <c r="N194" s="393"/>
+      <c r="O194" s="394"/>
       <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27207,10 +27207,10 @@
       <c r="C195" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D195" s="379" t="s">
+      <c r="D195" s="385" t="s">
         <v>338</v>
       </c>
-      <c r="E195" s="380"/>
+      <c r="E195" s="386"/>
       <c r="F195" s="214"/>
       <c r="G195" s="214"/>
       <c r="H195" s="214" t="s">
@@ -27223,10 +27223,10 @@
         <v>255</v>
       </c>
       <c r="K195" s="214"/>
-      <c r="L195" s="381"/>
-      <c r="M195" s="381"/>
-      <c r="N195" s="381"/>
-      <c r="O195" s="382"/>
+      <c r="L195" s="376"/>
+      <c r="M195" s="376"/>
+      <c r="N195" s="376"/>
+      <c r="O195" s="377"/>
       <c r="P195" s="10"/>
     </row>
     <row r="196" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -27251,12 +27251,12 @@
       </c>
       <c r="J196" s="265"/>
       <c r="K196" s="265"/>
-      <c r="L196" s="367" t="s">
+      <c r="L196" s="368" t="s">
         <v>292</v>
       </c>
-      <c r="M196" s="367"/>
-      <c r="N196" s="367"/>
-      <c r="O196" s="368"/>
+      <c r="M196" s="368"/>
+      <c r="N196" s="368"/>
+      <c r="O196" s="369"/>
       <c r="P196" s="267"/>
     </row>
     <row r="197" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27267,10 +27267,10 @@
       <c r="C197" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="D197" s="379" t="s">
+      <c r="D197" s="385" t="s">
         <v>339</v>
       </c>
-      <c r="E197" s="380"/>
+      <c r="E197" s="386"/>
       <c r="F197" s="214"/>
       <c r="G197" s="214"/>
       <c r="H197" s="214" t="s">
@@ -27281,12 +27281,12 @@
       </c>
       <c r="J197" s="214"/>
       <c r="K197" s="214"/>
-      <c r="L197" s="381" t="s">
+      <c r="L197" s="376" t="s">
         <v>340</v>
       </c>
-      <c r="M197" s="381"/>
-      <c r="N197" s="381"/>
-      <c r="O197" s="382"/>
+      <c r="M197" s="376"/>
+      <c r="N197" s="376"/>
+      <c r="O197" s="377"/>
       <c r="P197" s="10"/>
     </row>
     <row r="198" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -27297,10 +27297,10 @@
       <c r="C198" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D198" s="394" t="s">
+      <c r="D198" s="413" t="s">
         <v>245</v>
       </c>
-      <c r="E198" s="395"/>
+      <c r="E198" s="414"/>
       <c r="F198" s="215"/>
       <c r="G198" s="215"/>
       <c r="H198" s="215"/>
@@ -27311,10 +27311,10 @@
         <v>255</v>
       </c>
       <c r="K198" s="215"/>
-      <c r="L198" s="385"/>
-      <c r="M198" s="385"/>
-      <c r="N198" s="385"/>
-      <c r="O198" s="386"/>
+      <c r="L198" s="383"/>
+      <c r="M198" s="383"/>
+      <c r="N198" s="383"/>
+      <c r="O198" s="384"/>
       <c r="P198" s="10"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
@@ -27401,10 +27401,10 @@
       <c r="C203" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D203" s="387" t="s">
+      <c r="D203" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E203" s="388"/>
+      <c r="E203" s="392"/>
       <c r="F203" s="25" t="s">
         <v>31</v>
       </c>
@@ -27423,12 +27423,12 @@
       <c r="K203" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L203" s="389" t="s">
+      <c r="L203" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M203" s="389"/>
-      <c r="N203" s="389"/>
-      <c r="O203" s="390"/>
+      <c r="M203" s="393"/>
+      <c r="N203" s="393"/>
+      <c r="O203" s="394"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27439,10 +27439,10 @@
       <c r="C204" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D204" s="379" t="s">
+      <c r="D204" s="385" t="s">
         <v>410</v>
       </c>
-      <c r="E204" s="380"/>
+      <c r="E204" s="386"/>
       <c r="F204" s="214"/>
       <c r="G204" s="214"/>
       <c r="H204" s="214" t="s">
@@ -27455,12 +27455,12 @@
         <v>255</v>
       </c>
       <c r="K204" s="214"/>
-      <c r="L204" s="381" t="s">
+      <c r="L204" s="376" t="s">
         <v>362</v>
       </c>
-      <c r="M204" s="381"/>
-      <c r="N204" s="381"/>
-      <c r="O204" s="382"/>
+      <c r="M204" s="376"/>
+      <c r="N204" s="376"/>
+      <c r="O204" s="377"/>
       <c r="P204" s="10"/>
     </row>
     <row r="205" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27471,10 +27471,10 @@
       <c r="C205" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="D205" s="379" t="s">
+      <c r="D205" s="385" t="s">
         <v>339</v>
       </c>
-      <c r="E205" s="380"/>
+      <c r="E205" s="386"/>
       <c r="F205" s="214"/>
       <c r="G205" s="214"/>
       <c r="H205" s="214" t="s">
@@ -27485,10 +27485,10 @@
       </c>
       <c r="J205" s="214"/>
       <c r="K205" s="214"/>
-      <c r="L205" s="381"/>
-      <c r="M205" s="381"/>
-      <c r="N205" s="381"/>
-      <c r="O205" s="382"/>
+      <c r="L205" s="376"/>
+      <c r="M205" s="376"/>
+      <c r="N205" s="376"/>
+      <c r="O205" s="377"/>
       <c r="P205" s="10"/>
     </row>
     <row r="206" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27513,28 +27513,28 @@
         <v>255</v>
       </c>
       <c r="K206" s="237"/>
-      <c r="L206" s="381"/>
-      <c r="M206" s="381"/>
-      <c r="N206" s="381"/>
-      <c r="O206" s="382"/>
+      <c r="L206" s="376"/>
+      <c r="M206" s="376"/>
+      <c r="N206" s="376"/>
+      <c r="O206" s="377"/>
       <c r="P206" s="10"/>
     </row>
     <row r="207" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9"/>
       <c r="B207" s="29"/>
       <c r="C207" s="30"/>
-      <c r="D207" s="383"/>
-      <c r="E207" s="384"/>
+      <c r="D207" s="381"/>
+      <c r="E207" s="382"/>
       <c r="F207" s="215"/>
       <c r="G207" s="215"/>
       <c r="H207" s="215"/>
       <c r="I207" s="31"/>
       <c r="J207" s="215"/>
       <c r="K207" s="215"/>
-      <c r="L207" s="385"/>
-      <c r="M207" s="385"/>
-      <c r="N207" s="385"/>
-      <c r="O207" s="386"/>
+      <c r="L207" s="383"/>
+      <c r="M207" s="383"/>
+      <c r="N207" s="383"/>
+      <c r="O207" s="384"/>
       <c r="P207" s="10"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
@@ -27621,10 +27621,10 @@
       <c r="C212" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D212" s="387" t="s">
+      <c r="D212" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E212" s="388"/>
+      <c r="E212" s="392"/>
       <c r="F212" s="25" t="s">
         <v>31</v>
       </c>
@@ -27643,12 +27643,12 @@
       <c r="K212" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L212" s="389" t="s">
+      <c r="L212" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M212" s="389"/>
-      <c r="N212" s="389"/>
-      <c r="O212" s="390"/>
+      <c r="M212" s="393"/>
+      <c r="N212" s="393"/>
+      <c r="O212" s="394"/>
       <c r="P212" s="10"/>
     </row>
     <row r="213" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27659,10 +27659,10 @@
       <c r="C213" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="D213" s="379" t="s">
+      <c r="D213" s="385" t="s">
         <v>412</v>
       </c>
-      <c r="E213" s="380"/>
+      <c r="E213" s="386"/>
       <c r="F213" s="214"/>
       <c r="G213" s="214"/>
       <c r="H213" s="214" t="s">
@@ -27675,12 +27675,12 @@
         <v>255</v>
       </c>
       <c r="K213" s="214"/>
-      <c r="L213" s="381" t="s">
+      <c r="L213" s="376" t="s">
         <v>347</v>
       </c>
-      <c r="M213" s="381"/>
-      <c r="N213" s="381"/>
-      <c r="O213" s="382"/>
+      <c r="M213" s="376"/>
+      <c r="N213" s="376"/>
+      <c r="O213" s="377"/>
       <c r="P213" s="10"/>
     </row>
     <row r="214" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27705,28 +27705,28 @@
         <v>255</v>
       </c>
       <c r="K214" s="237"/>
-      <c r="L214" s="381"/>
-      <c r="M214" s="381"/>
-      <c r="N214" s="381"/>
-      <c r="O214" s="382"/>
+      <c r="L214" s="376"/>
+      <c r="M214" s="376"/>
+      <c r="N214" s="376"/>
+      <c r="O214" s="377"/>
       <c r="P214" s="10"/>
     </row>
     <row r="215" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="9"/>
       <c r="B215" s="29"/>
       <c r="C215" s="30"/>
-      <c r="D215" s="383"/>
-      <c r="E215" s="384"/>
+      <c r="D215" s="381"/>
+      <c r="E215" s="382"/>
       <c r="F215" s="215"/>
       <c r="G215" s="215"/>
       <c r="H215" s="215"/>
       <c r="I215" s="31"/>
       <c r="J215" s="215"/>
       <c r="K215" s="215"/>
-      <c r="L215" s="385"/>
-      <c r="M215" s="385"/>
-      <c r="N215" s="385"/>
-      <c r="O215" s="386"/>
+      <c r="L215" s="383"/>
+      <c r="M215" s="383"/>
+      <c r="N215" s="383"/>
+      <c r="O215" s="384"/>
       <c r="P215" s="10"/>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
@@ -27813,10 +27813,10 @@
       <c r="C220" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D220" s="387" t="s">
+      <c r="D220" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E220" s="388"/>
+      <c r="E220" s="392"/>
       <c r="F220" s="25" t="s">
         <v>31</v>
       </c>
@@ -27835,12 +27835,12 @@
       <c r="K220" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L220" s="389" t="s">
+      <c r="L220" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M220" s="389"/>
-      <c r="N220" s="389"/>
-      <c r="O220" s="390"/>
+      <c r="M220" s="393"/>
+      <c r="N220" s="393"/>
+      <c r="O220" s="394"/>
       <c r="P220" s="10"/>
     </row>
     <row r="221" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27851,10 +27851,10 @@
       <c r="C221" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D221" s="379" t="s">
+      <c r="D221" s="385" t="s">
         <v>350</v>
       </c>
-      <c r="E221" s="380"/>
+      <c r="E221" s="386"/>
       <c r="F221" s="214"/>
       <c r="G221" s="214"/>
       <c r="H221" s="214" t="s">
@@ -27867,12 +27867,12 @@
         <v>255</v>
       </c>
       <c r="K221" s="214"/>
-      <c r="L221" s="381" t="s">
+      <c r="L221" s="376" t="s">
         <v>351</v>
       </c>
-      <c r="M221" s="381"/>
-      <c r="N221" s="381"/>
-      <c r="O221" s="382"/>
+      <c r="M221" s="376"/>
+      <c r="N221" s="376"/>
+      <c r="O221" s="377"/>
       <c r="P221" s="10"/>
     </row>
     <row r="222" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27897,28 +27897,28 @@
         <v>255</v>
       </c>
       <c r="K222" s="237"/>
-      <c r="L222" s="381"/>
-      <c r="M222" s="381"/>
-      <c r="N222" s="381"/>
-      <c r="O222" s="382"/>
+      <c r="L222" s="376"/>
+      <c r="M222" s="376"/>
+      <c r="N222" s="376"/>
+      <c r="O222" s="377"/>
       <c r="P222" s="10"/>
     </row>
     <row r="223" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="9"/>
       <c r="B223" s="29"/>
       <c r="C223" s="30"/>
-      <c r="D223" s="383"/>
-      <c r="E223" s="384"/>
+      <c r="D223" s="381"/>
+      <c r="E223" s="382"/>
       <c r="F223" s="215"/>
       <c r="G223" s="215"/>
       <c r="H223" s="215"/>
       <c r="I223" s="31"/>
       <c r="J223" s="215"/>
       <c r="K223" s="215"/>
-      <c r="L223" s="385"/>
-      <c r="M223" s="385"/>
-      <c r="N223" s="385"/>
-      <c r="O223" s="386"/>
+      <c r="L223" s="383"/>
+      <c r="M223" s="383"/>
+      <c r="N223" s="383"/>
+      <c r="O223" s="384"/>
       <c r="P223" s="10"/>
     </row>
     <row r="224" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28005,10 +28005,10 @@
       <c r="C228" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D228" s="387" t="s">
+      <c r="D228" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E228" s="388"/>
+      <c r="E228" s="392"/>
       <c r="F228" s="25" t="s">
         <v>31</v>
       </c>
@@ -28027,12 +28027,12 @@
       <c r="K228" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L228" s="389" t="s">
+      <c r="L228" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M228" s="389"/>
-      <c r="N228" s="389"/>
-      <c r="O228" s="390"/>
+      <c r="M228" s="393"/>
+      <c r="N228" s="393"/>
+      <c r="O228" s="394"/>
       <c r="P228" s="10"/>
     </row>
     <row r="229" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28043,10 +28043,10 @@
       <c r="C229" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="D229" s="379" t="s">
+      <c r="D229" s="385" t="s">
         <v>388</v>
       </c>
-      <c r="E229" s="380"/>
+      <c r="E229" s="386"/>
       <c r="F229" s="214"/>
       <c r="G229" s="214"/>
       <c r="H229" s="214" t="s">
@@ -28059,12 +28059,12 @@
         <v>255</v>
       </c>
       <c r="K229" s="214"/>
-      <c r="L229" s="381" t="s">
+      <c r="L229" s="376" t="s">
         <v>389</v>
       </c>
-      <c r="M229" s="381"/>
-      <c r="N229" s="381"/>
-      <c r="O229" s="382"/>
+      <c r="M229" s="376"/>
+      <c r="N229" s="376"/>
+      <c r="O229" s="377"/>
       <c r="P229" s="10"/>
     </row>
     <row r="230" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28089,28 +28089,28 @@
         <v>255</v>
       </c>
       <c r="K230" s="237"/>
-      <c r="L230" s="381"/>
-      <c r="M230" s="381"/>
-      <c r="N230" s="381"/>
-      <c r="O230" s="382"/>
+      <c r="L230" s="376"/>
+      <c r="M230" s="376"/>
+      <c r="N230" s="376"/>
+      <c r="O230" s="377"/>
       <c r="P230" s="10"/>
     </row>
     <row r="231" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="9"/>
       <c r="B231" s="29"/>
       <c r="C231" s="30"/>
-      <c r="D231" s="383"/>
-      <c r="E231" s="384"/>
+      <c r="D231" s="381"/>
+      <c r="E231" s="382"/>
       <c r="F231" s="215"/>
       <c r="G231" s="215"/>
       <c r="H231" s="215"/>
       <c r="I231" s="31"/>
       <c r="J231" s="215"/>
       <c r="K231" s="215"/>
-      <c r="L231" s="385"/>
-      <c r="M231" s="385"/>
-      <c r="N231" s="385"/>
-      <c r="O231" s="386"/>
+      <c r="L231" s="383"/>
+      <c r="M231" s="383"/>
+      <c r="N231" s="383"/>
+      <c r="O231" s="384"/>
       <c r="P231" s="10"/>
     </row>
     <row r="232" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28197,10 +28197,10 @@
       <c r="C236" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D236" s="387" t="s">
+      <c r="D236" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E236" s="388"/>
+      <c r="E236" s="392"/>
       <c r="F236" s="25" t="s">
         <v>31</v>
       </c>
@@ -28219,12 +28219,12 @@
       <c r="K236" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L236" s="389" t="s">
+      <c r="L236" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M236" s="389"/>
-      <c r="N236" s="389"/>
-      <c r="O236" s="390"/>
+      <c r="M236" s="393"/>
+      <c r="N236" s="393"/>
+      <c r="O236" s="394"/>
       <c r="P236" s="10"/>
     </row>
     <row r="237" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28235,10 +28235,10 @@
       <c r="C237" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="D237" s="379" t="s">
+      <c r="D237" s="385" t="s">
         <v>350</v>
       </c>
-      <c r="E237" s="380"/>
+      <c r="E237" s="386"/>
       <c r="F237" s="214"/>
       <c r="G237" s="214"/>
       <c r="H237" s="214" t="s">
@@ -28251,12 +28251,12 @@
         <v>255</v>
       </c>
       <c r="K237" s="214"/>
-      <c r="L237" s="381" t="s">
+      <c r="L237" s="376" t="s">
         <v>355</v>
       </c>
-      <c r="M237" s="381"/>
-      <c r="N237" s="381"/>
-      <c r="O237" s="382"/>
+      <c r="M237" s="376"/>
+      <c r="N237" s="376"/>
+      <c r="O237" s="377"/>
       <c r="P237" s="10"/>
     </row>
     <row r="238" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28281,28 +28281,28 @@
         <v>255</v>
       </c>
       <c r="K238" s="237"/>
-      <c r="L238" s="393"/>
-      <c r="M238" s="381"/>
-      <c r="N238" s="381"/>
-      <c r="O238" s="382"/>
+      <c r="L238" s="390"/>
+      <c r="M238" s="376"/>
+      <c r="N238" s="376"/>
+      <c r="O238" s="377"/>
       <c r="P238" s="10"/>
     </row>
     <row r="239" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="9"/>
       <c r="B239" s="29"/>
       <c r="C239" s="30"/>
-      <c r="D239" s="383"/>
-      <c r="E239" s="384"/>
+      <c r="D239" s="381"/>
+      <c r="E239" s="382"/>
       <c r="F239" s="215"/>
       <c r="G239" s="215"/>
       <c r="H239" s="215"/>
       <c r="I239" s="31"/>
       <c r="J239" s="215"/>
       <c r="K239" s="215"/>
-      <c r="L239" s="385"/>
-      <c r="M239" s="385"/>
-      <c r="N239" s="385"/>
-      <c r="O239" s="386"/>
+      <c r="L239" s="383"/>
+      <c r="M239" s="383"/>
+      <c r="N239" s="383"/>
+      <c r="O239" s="384"/>
       <c r="P239" s="10"/>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.2">
@@ -28389,10 +28389,10 @@
       <c r="C244" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D244" s="387" t="s">
+      <c r="D244" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E244" s="388"/>
+      <c r="E244" s="392"/>
       <c r="F244" s="25" t="s">
         <v>31</v>
       </c>
@@ -28411,12 +28411,12 @@
       <c r="K244" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L244" s="389" t="s">
+      <c r="L244" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M244" s="389"/>
-      <c r="N244" s="389"/>
-      <c r="O244" s="390"/>
+      <c r="M244" s="393"/>
+      <c r="N244" s="393"/>
+      <c r="O244" s="394"/>
       <c r="P244" s="10"/>
     </row>
     <row r="245" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -28427,10 +28427,10 @@
       <c r="C245" s="233" t="s">
         <v>357</v>
       </c>
-      <c r="D245" s="391" t="s">
+      <c r="D245" s="395" t="s">
         <v>226</v>
       </c>
-      <c r="E245" s="392"/>
+      <c r="E245" s="396"/>
       <c r="F245" s="214"/>
       <c r="G245" s="214"/>
       <c r="H245" s="214" t="s">
@@ -28443,12 +28443,12 @@
         <v>255</v>
       </c>
       <c r="K245" s="214"/>
-      <c r="L245" s="393" t="s">
+      <c r="L245" s="390" t="s">
         <v>415</v>
       </c>
-      <c r="M245" s="381"/>
-      <c r="N245" s="381"/>
-      <c r="O245" s="382"/>
+      <c r="M245" s="376"/>
+      <c r="N245" s="376"/>
+      <c r="O245" s="377"/>
       <c r="P245" s="10"/>
     </row>
     <row r="246" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28473,28 +28473,28 @@
         <v>255</v>
       </c>
       <c r="K246" s="237"/>
-      <c r="L246" s="393"/>
-      <c r="M246" s="381"/>
-      <c r="N246" s="381"/>
-      <c r="O246" s="382"/>
+      <c r="L246" s="390"/>
+      <c r="M246" s="376"/>
+      <c r="N246" s="376"/>
+      <c r="O246" s="377"/>
       <c r="P246" s="10"/>
     </row>
     <row r="247" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="9"/>
       <c r="B247" s="29"/>
       <c r="C247" s="30"/>
-      <c r="D247" s="383"/>
-      <c r="E247" s="384"/>
+      <c r="D247" s="381"/>
+      <c r="E247" s="382"/>
       <c r="F247" s="215"/>
       <c r="G247" s="215"/>
       <c r="H247" s="215"/>
       <c r="I247" s="31"/>
       <c r="J247" s="215"/>
       <c r="K247" s="215"/>
-      <c r="L247" s="385"/>
-      <c r="M247" s="385"/>
-      <c r="N247" s="385"/>
-      <c r="O247" s="386"/>
+      <c r="L247" s="383"/>
+      <c r="M247" s="383"/>
+      <c r="N247" s="383"/>
+      <c r="O247" s="384"/>
       <c r="P247" s="10"/>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.2">
@@ -28581,10 +28581,10 @@
       <c r="C252" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D252" s="387" t="s">
+      <c r="D252" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E252" s="388"/>
+      <c r="E252" s="392"/>
       <c r="F252" s="25" t="s">
         <v>31</v>
       </c>
@@ -28603,12 +28603,12 @@
       <c r="K252" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L252" s="389" t="s">
+      <c r="L252" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M252" s="389"/>
-      <c r="N252" s="389"/>
-      <c r="O252" s="390"/>
+      <c r="M252" s="393"/>
+      <c r="N252" s="393"/>
+      <c r="O252" s="394"/>
       <c r="P252" s="10"/>
     </row>
     <row r="253" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -28619,10 +28619,10 @@
       <c r="C253" s="233" t="s">
         <v>357</v>
       </c>
-      <c r="D253" s="391" t="s">
+      <c r="D253" s="395" t="s">
         <v>360</v>
       </c>
-      <c r="E253" s="392"/>
+      <c r="E253" s="396"/>
       <c r="F253" s="214"/>
       <c r="G253" s="214"/>
       <c r="H253" s="214" t="s">
@@ -28635,12 +28635,12 @@
         <v>255</v>
       </c>
       <c r="K253" s="214"/>
-      <c r="L253" s="393" t="s">
+      <c r="L253" s="390" t="s">
         <v>361</v>
       </c>
-      <c r="M253" s="381"/>
-      <c r="N253" s="381"/>
-      <c r="O253" s="382"/>
+      <c r="M253" s="376"/>
+      <c r="N253" s="376"/>
+      <c r="O253" s="377"/>
       <c r="P253" s="10"/>
     </row>
     <row r="254" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28665,28 +28665,28 @@
         <v>255</v>
       </c>
       <c r="K254" s="237"/>
-      <c r="L254" s="393"/>
-      <c r="M254" s="381"/>
-      <c r="N254" s="381"/>
-      <c r="O254" s="382"/>
+      <c r="L254" s="390"/>
+      <c r="M254" s="376"/>
+      <c r="N254" s="376"/>
+      <c r="O254" s="377"/>
       <c r="P254" s="10"/>
     </row>
     <row r="255" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="9"/>
       <c r="B255" s="29"/>
       <c r="C255" s="30"/>
-      <c r="D255" s="383"/>
-      <c r="E255" s="384"/>
+      <c r="D255" s="381"/>
+      <c r="E255" s="382"/>
       <c r="F255" s="215"/>
       <c r="G255" s="215"/>
       <c r="H255" s="215"/>
       <c r="I255" s="31"/>
       <c r="J255" s="215"/>
       <c r="K255" s="215"/>
-      <c r="L255" s="385"/>
-      <c r="M255" s="385"/>
-      <c r="N255" s="385"/>
-      <c r="O255" s="386"/>
+      <c r="L255" s="383"/>
+      <c r="M255" s="383"/>
+      <c r="N255" s="383"/>
+      <c r="O255" s="384"/>
       <c r="P255" s="10"/>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.2">
@@ -28775,10 +28775,10 @@
       <c r="C260" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D260" s="387" t="s">
+      <c r="D260" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E260" s="388"/>
+      <c r="E260" s="392"/>
       <c r="F260" s="25" t="s">
         <v>31</v>
       </c>
@@ -28797,12 +28797,12 @@
       <c r="K260" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L260" s="389" t="s">
+      <c r="L260" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M260" s="389"/>
-      <c r="N260" s="389"/>
-      <c r="O260" s="390"/>
+      <c r="M260" s="393"/>
+      <c r="N260" s="393"/>
+      <c r="O260" s="394"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28813,10 +28813,10 @@
       <c r="C261" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D261" s="379" t="s">
+      <c r="D261" s="385" t="s">
         <v>265</v>
       </c>
-      <c r="E261" s="380"/>
+      <c r="E261" s="386"/>
       <c r="F261" s="214"/>
       <c r="G261" s="214"/>
       <c r="H261" s="214" t="s">
@@ -28831,12 +28831,12 @@
       <c r="K261" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L261" s="381" t="s">
+      <c r="L261" s="376" t="s">
         <v>266</v>
       </c>
-      <c r="M261" s="381"/>
-      <c r="N261" s="381"/>
-      <c r="O261" s="382"/>
+      <c r="M261" s="376"/>
+      <c r="N261" s="376"/>
+      <c r="O261" s="377"/>
       <c r="P261" s="10"/>
     </row>
     <row r="262" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28847,10 +28847,10 @@
       <c r="C262" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D262" s="379" t="s">
+      <c r="D262" s="385" t="s">
         <v>376</v>
       </c>
-      <c r="E262" s="380"/>
+      <c r="E262" s="386"/>
       <c r="F262" s="214"/>
       <c r="G262" s="214"/>
       <c r="H262" s="214" t="s">
@@ -28863,10 +28863,10 @@
         <v>255</v>
       </c>
       <c r="K262" s="214"/>
-      <c r="L262" s="381"/>
-      <c r="M262" s="381"/>
-      <c r="N262" s="381"/>
-      <c r="O262" s="382"/>
+      <c r="L262" s="376"/>
+      <c r="M262" s="376"/>
+      <c r="N262" s="376"/>
+      <c r="O262" s="377"/>
       <c r="P262" s="10"/>
     </row>
     <row r="263" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28877,10 +28877,10 @@
       <c r="C263" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D263" s="379" t="s">
+      <c r="D263" s="385" t="s">
         <v>377</v>
       </c>
-      <c r="E263" s="380"/>
+      <c r="E263" s="386"/>
       <c r="F263" s="214"/>
       <c r="G263" s="214"/>
       <c r="H263" s="214"/>
@@ -28891,28 +28891,28 @@
         <v>255</v>
       </c>
       <c r="K263" s="214"/>
-      <c r="L263" s="381"/>
-      <c r="M263" s="381"/>
-      <c r="N263" s="381"/>
-      <c r="O263" s="382"/>
+      <c r="L263" s="376"/>
+      <c r="M263" s="376"/>
+      <c r="N263" s="376"/>
+      <c r="O263" s="377"/>
       <c r="P263" s="10"/>
     </row>
     <row r="264" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="9"/>
       <c r="B264" s="29"/>
       <c r="C264" s="30"/>
-      <c r="D264" s="383"/>
-      <c r="E264" s="384"/>
+      <c r="D264" s="381"/>
+      <c r="E264" s="382"/>
       <c r="F264" s="215"/>
       <c r="G264" s="215"/>
       <c r="H264" s="215"/>
       <c r="I264" s="31"/>
       <c r="J264" s="215"/>
       <c r="K264" s="215"/>
-      <c r="L264" s="385"/>
-      <c r="M264" s="385"/>
-      <c r="N264" s="385"/>
-      <c r="O264" s="386"/>
+      <c r="L264" s="383"/>
+      <c r="M264" s="383"/>
+      <c r="N264" s="383"/>
+      <c r="O264" s="384"/>
       <c r="P264" s="10"/>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.2">
@@ -29001,10 +29001,10 @@
       <c r="C269" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D269" s="387" t="s">
+      <c r="D269" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E269" s="388"/>
+      <c r="E269" s="392"/>
       <c r="F269" s="25" t="s">
         <v>31</v>
       </c>
@@ -29023,12 +29023,12 @@
       <c r="K269" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L269" s="389" t="s">
+      <c r="L269" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M269" s="389"/>
-      <c r="N269" s="389"/>
-      <c r="O269" s="390"/>
+      <c r="M269" s="393"/>
+      <c r="N269" s="393"/>
+      <c r="O269" s="394"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29039,10 +29039,10 @@
       <c r="C270" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D270" s="379" t="s">
+      <c r="D270" s="385" t="s">
         <v>379</v>
       </c>
-      <c r="E270" s="380"/>
+      <c r="E270" s="386"/>
       <c r="F270" s="214"/>
       <c r="G270" s="214"/>
       <c r="H270" s="214" t="s">
@@ -29055,10 +29055,10 @@
         <v>255</v>
       </c>
       <c r="K270" s="214"/>
-      <c r="L270" s="381"/>
-      <c r="M270" s="381"/>
-      <c r="N270" s="381"/>
-      <c r="O270" s="382"/>
+      <c r="L270" s="376"/>
+      <c r="M270" s="376"/>
+      <c r="N270" s="376"/>
+      <c r="O270" s="377"/>
       <c r="P270" s="10"/>
     </row>
     <row r="271" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29069,10 +29069,10 @@
       <c r="C271" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D271" s="379" t="s">
+      <c r="D271" s="385" t="s">
         <v>380</v>
       </c>
-      <c r="E271" s="380"/>
+      <c r="E271" s="386"/>
       <c r="F271" s="214"/>
       <c r="G271" s="214"/>
       <c r="H271" s="214"/>
@@ -29083,10 +29083,10 @@
         <v>255</v>
       </c>
       <c r="K271" s="214"/>
-      <c r="L271" s="381"/>
-      <c r="M271" s="381"/>
-      <c r="N271" s="381"/>
-      <c r="O271" s="382"/>
+      <c r="L271" s="376"/>
+      <c r="M271" s="376"/>
+      <c r="N271" s="376"/>
+      <c r="O271" s="377"/>
       <c r="P271" s="10"/>
     </row>
     <row r="272" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29109,30 +29109,30 @@
       </c>
       <c r="J272" s="214"/>
       <c r="K272" s="214"/>
-      <c r="L272" s="381" t="s">
+      <c r="L272" s="376" t="s">
         <v>414</v>
       </c>
-      <c r="M272" s="381"/>
-      <c r="N272" s="381"/>
-      <c r="O272" s="382"/>
+      <c r="M272" s="376"/>
+      <c r="N272" s="376"/>
+      <c r="O272" s="377"/>
       <c r="P272" s="10"/>
     </row>
     <row r="273" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="9"/>
       <c r="B273" s="29"/>
       <c r="C273" s="30"/>
-      <c r="D273" s="383"/>
-      <c r="E273" s="384"/>
+      <c r="D273" s="381"/>
+      <c r="E273" s="382"/>
       <c r="F273" s="215"/>
       <c r="G273" s="215"/>
       <c r="H273" s="215"/>
       <c r="I273" s="31"/>
       <c r="J273" s="215"/>
       <c r="K273" s="215"/>
-      <c r="L273" s="385"/>
-      <c r="M273" s="385"/>
-      <c r="N273" s="385"/>
-      <c r="O273" s="386"/>
+      <c r="L273" s="383"/>
+      <c r="M273" s="383"/>
+      <c r="N273" s="383"/>
+      <c r="O273" s="384"/>
       <c r="P273" s="10"/>
     </row>
     <row r="274" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -29221,10 +29221,10 @@
       <c r="C278" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D278" s="387" t="s">
+      <c r="D278" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E278" s="388"/>
+      <c r="E278" s="392"/>
       <c r="F278" s="25" t="s">
         <v>31</v>
       </c>
@@ -29243,12 +29243,12 @@
       <c r="K278" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L278" s="389" t="s">
+      <c r="L278" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M278" s="389"/>
-      <c r="N278" s="389"/>
-      <c r="O278" s="390"/>
+      <c r="M278" s="393"/>
+      <c r="N278" s="393"/>
+      <c r="O278" s="394"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29259,10 +29259,10 @@
       <c r="C279" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="D279" s="379" t="s">
+      <c r="D279" s="385" t="s">
         <v>384</v>
       </c>
-      <c r="E279" s="380"/>
+      <c r="E279" s="386"/>
       <c r="F279" s="214"/>
       <c r="G279" s="214"/>
       <c r="H279" s="214" t="s">
@@ -29273,12 +29273,12 @@
       </c>
       <c r="J279" s="214"/>
       <c r="K279" s="214"/>
-      <c r="L279" s="381" t="s">
+      <c r="L279" s="376" t="s">
         <v>385</v>
       </c>
-      <c r="M279" s="381"/>
-      <c r="N279" s="381"/>
-      <c r="O279" s="382"/>
+      <c r="M279" s="376"/>
+      <c r="N279" s="376"/>
+      <c r="O279" s="377"/>
       <c r="P279" s="10"/>
     </row>
     <row r="280" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29289,10 +29289,10 @@
       <c r="C280" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D280" s="379" t="s">
+      <c r="D280" s="385" t="s">
         <v>386</v>
       </c>
-      <c r="E280" s="380"/>
+      <c r="E280" s="386"/>
       <c r="F280" s="214"/>
       <c r="G280" s="214"/>
       <c r="H280" s="214" t="s">
@@ -29305,10 +29305,10 @@
         <v>255</v>
       </c>
       <c r="K280" s="214"/>
-      <c r="L280" s="381"/>
-      <c r="M280" s="381"/>
-      <c r="N280" s="381"/>
-      <c r="O280" s="382"/>
+      <c r="L280" s="376"/>
+      <c r="M280" s="376"/>
+      <c r="N280" s="376"/>
+      <c r="O280" s="377"/>
       <c r="P280" s="10"/>
     </row>
     <row r="281" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29319,10 +29319,10 @@
       <c r="C281" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D281" s="396" t="s">
+      <c r="D281" s="442" t="s">
         <v>377</v>
       </c>
-      <c r="E281" s="397"/>
+      <c r="E281" s="443"/>
       <c r="F281" s="214"/>
       <c r="G281" s="214"/>
       <c r="H281" s="214"/>
@@ -29333,10 +29333,10 @@
         <v>255</v>
       </c>
       <c r="K281" s="214"/>
-      <c r="L281" s="381"/>
-      <c r="M281" s="381"/>
-      <c r="N281" s="381"/>
-      <c r="O281" s="382"/>
+      <c r="L281" s="376"/>
+      <c r="M281" s="376"/>
+      <c r="N281" s="376"/>
+      <c r="O281" s="377"/>
       <c r="P281" s="10"/>
     </row>
     <row r="282" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -29347,10 +29347,10 @@
       <c r="C282" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D282" s="394" t="s">
+      <c r="D282" s="413" t="s">
         <v>413</v>
       </c>
-      <c r="E282" s="395"/>
+      <c r="E282" s="414"/>
       <c r="F282" s="215"/>
       <c r="G282" s="215"/>
       <c r="H282" s="215" t="s">
@@ -29363,12 +29363,12 @@
       <c r="K282" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="L282" s="385" t="s">
+      <c r="L282" s="383" t="s">
         <v>414</v>
       </c>
-      <c r="M282" s="385"/>
-      <c r="N282" s="385"/>
-      <c r="O282" s="386"/>
+      <c r="M282" s="383"/>
+      <c r="N282" s="383"/>
+      <c r="O282" s="384"/>
       <c r="P282" s="10"/>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.2">
@@ -29455,10 +29455,10 @@
       <c r="C287" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D287" s="387" t="s">
+      <c r="D287" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E287" s="388"/>
+      <c r="E287" s="392"/>
       <c r="F287" s="25" t="s">
         <v>31</v>
       </c>
@@ -29477,12 +29477,12 @@
       <c r="K287" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L287" s="389" t="s">
+      <c r="L287" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M287" s="389"/>
-      <c r="N287" s="389"/>
-      <c r="O287" s="390"/>
+      <c r="M287" s="393"/>
+      <c r="N287" s="393"/>
+      <c r="O287" s="394"/>
       <c r="P287" s="10"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29493,10 +29493,10 @@
       <c r="C288" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="D288" s="379" t="s">
+      <c r="D288" s="385" t="s">
         <v>401</v>
       </c>
-      <c r="E288" s="380"/>
+      <c r="E288" s="386"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214" t="s">
@@ -29509,10 +29509,10 @@
         <v>255</v>
       </c>
       <c r="K288" s="214"/>
-      <c r="L288" s="381"/>
-      <c r="M288" s="381"/>
-      <c r="N288" s="381"/>
-      <c r="O288" s="382"/>
+      <c r="L288" s="376"/>
+      <c r="M288" s="376"/>
+      <c r="N288" s="376"/>
+      <c r="O288" s="377"/>
       <c r="P288" s="10"/>
     </row>
     <row r="289" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29523,10 +29523,10 @@
       <c r="C289" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="D289" s="379" t="s">
+      <c r="D289" s="385" t="s">
         <v>394</v>
       </c>
-      <c r="E289" s="380"/>
+      <c r="E289" s="386"/>
       <c r="F289" s="214"/>
       <c r="G289" s="214"/>
       <c r="H289" s="214" t="s">
@@ -29539,12 +29539,12 @@
         <v>255</v>
       </c>
       <c r="K289" s="214"/>
-      <c r="L289" s="381" t="s">
+      <c r="L289" s="376" t="s">
         <v>393</v>
       </c>
-      <c r="M289" s="381"/>
-      <c r="N289" s="381"/>
-      <c r="O289" s="382"/>
+      <c r="M289" s="376"/>
+      <c r="N289" s="376"/>
+      <c r="O289" s="377"/>
       <c r="P289" s="10"/>
     </row>
     <row r="290" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29555,10 +29555,10 @@
       <c r="C290" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="D290" s="391" t="s">
+      <c r="D290" s="395" t="s">
         <v>400</v>
       </c>
-      <c r="E290" s="392"/>
+      <c r="E290" s="396"/>
       <c r="F290" s="214"/>
       <c r="G290" s="214"/>
       <c r="H290" s="214" t="s">
@@ -29571,10 +29571,10 @@
         <v>255</v>
       </c>
       <c r="K290" s="214"/>
-      <c r="L290" s="393"/>
-      <c r="M290" s="381"/>
-      <c r="N290" s="381"/>
-      <c r="O290" s="382"/>
+      <c r="L290" s="390"/>
+      <c r="M290" s="376"/>
+      <c r="N290" s="376"/>
+      <c r="O290" s="377"/>
       <c r="P290" s="10"/>
     </row>
     <row r="291" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29585,10 +29585,10 @@
       <c r="C291" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="D291" s="379" t="s">
+      <c r="D291" s="385" t="s">
         <v>399</v>
       </c>
-      <c r="E291" s="380"/>
+      <c r="E291" s="386"/>
       <c r="F291" s="214"/>
       <c r="G291" s="214"/>
       <c r="H291" s="214" t="s">
@@ -29599,12 +29599,12 @@
       </c>
       <c r="J291" s="214"/>
       <c r="K291" s="214"/>
-      <c r="L291" s="381" t="s">
+      <c r="L291" s="376" t="s">
         <v>252</v>
       </c>
-      <c r="M291" s="381"/>
-      <c r="N291" s="381"/>
-      <c r="O291" s="382"/>
+      <c r="M291" s="376"/>
+      <c r="N291" s="376"/>
+      <c r="O291" s="377"/>
       <c r="P291" s="10"/>
     </row>
     <row r="292" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29615,10 +29615,10 @@
       <c r="C292" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="D292" s="379" t="s">
+      <c r="D292" s="385" t="s">
         <v>398</v>
       </c>
-      <c r="E292" s="380"/>
+      <c r="E292" s="386"/>
       <c r="F292" s="214"/>
       <c r="G292" s="214"/>
       <c r="H292" s="214"/>
@@ -29629,30 +29629,30 @@
       <c r="K292" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L292" s="381" t="s">
+      <c r="L292" s="376" t="s">
         <v>268</v>
       </c>
-      <c r="M292" s="381"/>
-      <c r="N292" s="381"/>
-      <c r="O292" s="382"/>
+      <c r="M292" s="376"/>
+      <c r="N292" s="376"/>
+      <c r="O292" s="377"/>
       <c r="P292" s="10"/>
     </row>
     <row r="293" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="9"/>
       <c r="B293" s="29"/>
       <c r="C293" s="30"/>
-      <c r="D293" s="383"/>
-      <c r="E293" s="384"/>
+      <c r="D293" s="381"/>
+      <c r="E293" s="382"/>
       <c r="F293" s="215"/>
       <c r="G293" s="215"/>
       <c r="H293" s="215"/>
       <c r="I293" s="31"/>
       <c r="J293" s="215"/>
       <c r="K293" s="215"/>
-      <c r="L293" s="385"/>
-      <c r="M293" s="385"/>
-      <c r="N293" s="385"/>
-      <c r="O293" s="386"/>
+      <c r="L293" s="383"/>
+      <c r="M293" s="383"/>
+      <c r="N293" s="383"/>
+      <c r="O293" s="384"/>
       <c r="P293" s="10"/>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
@@ -29758,10 +29758,10 @@
       <c r="C300" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D300" s="387" t="s">
+      <c r="D300" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E300" s="388"/>
+      <c r="E300" s="392"/>
       <c r="F300" s="25" t="s">
         <v>31</v>
       </c>
@@ -29780,12 +29780,12 @@
       <c r="K300" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L300" s="389" t="s">
+      <c r="L300" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M300" s="389"/>
-      <c r="N300" s="389"/>
-      <c r="O300" s="390"/>
+      <c r="M300" s="393"/>
+      <c r="N300" s="393"/>
+      <c r="O300" s="394"/>
       <c r="P300" s="10"/>
     </row>
     <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29796,8 +29796,8 @@
       <c r="C301" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="D301" s="379"/>
-      <c r="E301" s="380"/>
+      <c r="D301" s="385"/>
+      <c r="E301" s="386"/>
       <c r="F301" s="214"/>
       <c r="G301" s="214"/>
       <c r="H301" s="214" t="s">
@@ -29810,10 +29810,10 @@
         <v>255</v>
       </c>
       <c r="K301" s="214"/>
-      <c r="L301" s="381"/>
-      <c r="M301" s="381"/>
-      <c r="N301" s="381"/>
-      <c r="O301" s="382"/>
+      <c r="L301" s="376"/>
+      <c r="M301" s="376"/>
+      <c r="N301" s="376"/>
+      <c r="O301" s="377"/>
       <c r="P301" s="10"/>
     </row>
     <row r="302" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29824,8 +29824,8 @@
       <c r="C302" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D302" s="379"/>
-      <c r="E302" s="380"/>
+      <c r="D302" s="385"/>
+      <c r="E302" s="386"/>
       <c r="F302" s="214"/>
       <c r="G302" s="214"/>
       <c r="H302" s="214" t="s">
@@ -29836,12 +29836,12 @@
       </c>
       <c r="J302" s="214"/>
       <c r="K302" s="214"/>
-      <c r="L302" s="381" t="s">
+      <c r="L302" s="376" t="s">
         <v>352</v>
       </c>
-      <c r="M302" s="381"/>
-      <c r="N302" s="381"/>
-      <c r="O302" s="382"/>
+      <c r="M302" s="376"/>
+      <c r="N302" s="376"/>
+      <c r="O302" s="377"/>
       <c r="P302" s="10"/>
     </row>
     <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29852,8 +29852,8 @@
       <c r="C303" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="D303" s="391"/>
-      <c r="E303" s="392"/>
+      <c r="D303" s="395"/>
+      <c r="E303" s="396"/>
       <c r="F303" s="214"/>
       <c r="G303" s="214"/>
       <c r="H303" s="214" t="s">
@@ -29864,12 +29864,12 @@
       </c>
       <c r="J303" s="214"/>
       <c r="K303" s="214"/>
-      <c r="L303" s="393" t="s">
+      <c r="L303" s="390" t="s">
         <v>348</v>
       </c>
-      <c r="M303" s="381"/>
-      <c r="N303" s="381"/>
-      <c r="O303" s="382"/>
+      <c r="M303" s="376"/>
+      <c r="N303" s="376"/>
+      <c r="O303" s="377"/>
       <c r="P303" s="10"/>
     </row>
     <row r="304" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29880,8 +29880,8 @@
       <c r="C304" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="D304" s="379"/>
-      <c r="E304" s="380"/>
+      <c r="D304" s="385"/>
+      <c r="E304" s="386"/>
       <c r="F304" s="214"/>
       <c r="G304" s="214"/>
       <c r="H304" s="214" t="s">
@@ -29892,10 +29892,10 @@
       </c>
       <c r="J304" s="214"/>
       <c r="K304" s="214"/>
-      <c r="L304" s="381"/>
-      <c r="M304" s="381"/>
-      <c r="N304" s="381"/>
-      <c r="O304" s="382"/>
+      <c r="L304" s="376"/>
+      <c r="M304" s="376"/>
+      <c r="N304" s="376"/>
+      <c r="O304" s="377"/>
       <c r="P304" s="10"/>
     </row>
     <row r="305" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29906,8 +29906,8 @@
       <c r="C305" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="D305" s="379"/>
-      <c r="E305" s="380"/>
+      <c r="D305" s="385"/>
+      <c r="E305" s="386"/>
       <c r="F305" s="214"/>
       <c r="G305" s="214"/>
       <c r="H305" s="214" t="s">
@@ -29918,10 +29918,10 @@
       </c>
       <c r="J305" s="214"/>
       <c r="K305" s="214"/>
-      <c r="L305" s="381"/>
-      <c r="M305" s="381"/>
-      <c r="N305" s="381"/>
-      <c r="O305" s="382"/>
+      <c r="L305" s="376"/>
+      <c r="M305" s="376"/>
+      <c r="N305" s="376"/>
+      <c r="O305" s="377"/>
       <c r="P305" s="10"/>
     </row>
     <row r="306" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29932,8 +29932,8 @@
       <c r="C306" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="D306" s="379"/>
-      <c r="E306" s="380"/>
+      <c r="D306" s="385"/>
+      <c r="E306" s="386"/>
       <c r="F306" s="214"/>
       <c r="G306" s="214"/>
       <c r="H306" s="214" t="s">
@@ -29946,10 +29946,10 @@
         <v>255</v>
       </c>
       <c r="K306" s="214"/>
-      <c r="L306" s="381"/>
-      <c r="M306" s="381"/>
-      <c r="N306" s="381"/>
-      <c r="O306" s="382"/>
+      <c r="L306" s="376"/>
+      <c r="M306" s="376"/>
+      <c r="N306" s="376"/>
+      <c r="O306" s="377"/>
       <c r="P306" s="10"/>
     </row>
     <row r="307" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29960,8 +29960,8 @@
       <c r="C307" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="D307" s="379"/>
-      <c r="E307" s="380"/>
+      <c r="D307" s="385"/>
+      <c r="E307" s="386"/>
       <c r="F307" s="214"/>
       <c r="G307" s="214"/>
       <c r="H307" s="214" t="s">
@@ -29972,30 +29972,30 @@
       </c>
       <c r="J307" s="214"/>
       <c r="K307" s="214"/>
-      <c r="L307" s="381" t="s">
+      <c r="L307" s="376" t="s">
         <v>422</v>
       </c>
-      <c r="M307" s="381"/>
-      <c r="N307" s="381"/>
-      <c r="O307" s="382"/>
+      <c r="M307" s="376"/>
+      <c r="N307" s="376"/>
+      <c r="O307" s="377"/>
       <c r="P307" s="10"/>
     </row>
     <row r="308" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="9"/>
       <c r="B308" s="29"/>
       <c r="C308" s="30"/>
-      <c r="D308" s="383"/>
-      <c r="E308" s="384"/>
+      <c r="D308" s="381"/>
+      <c r="E308" s="382"/>
       <c r="F308" s="215"/>
       <c r="G308" s="215"/>
       <c r="H308" s="215"/>
       <c r="I308" s="31"/>
       <c r="J308" s="215"/>
       <c r="K308" s="215"/>
-      <c r="L308" s="385"/>
-      <c r="M308" s="385"/>
-      <c r="N308" s="385"/>
-      <c r="O308" s="386"/>
+      <c r="L308" s="383"/>
+      <c r="M308" s="383"/>
+      <c r="N308" s="383"/>
+      <c r="O308" s="384"/>
       <c r="P308" s="10"/>
     </row>
     <row r="310" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30047,10 +30047,10 @@
       <c r="C313" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D313" s="387" t="s">
+      <c r="D313" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E313" s="388"/>
+      <c r="E313" s="392"/>
       <c r="F313" s="25" t="s">
         <v>31</v>
       </c>
@@ -30069,12 +30069,12 @@
       <c r="K313" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L313" s="389" t="s">
+      <c r="L313" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M313" s="389"/>
-      <c r="N313" s="389"/>
-      <c r="O313" s="390"/>
+      <c r="M313" s="393"/>
+      <c r="N313" s="393"/>
+      <c r="O313" s="394"/>
       <c r="P313" s="10"/>
     </row>
     <row r="314" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30085,8 +30085,8 @@
       <c r="C314" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D314" s="379"/>
-      <c r="E314" s="380"/>
+      <c r="D314" s="385"/>
+      <c r="E314" s="386"/>
       <c r="F314" s="214"/>
       <c r="G314" s="214"/>
       <c r="H314" s="214" t="s">
@@ -30099,12 +30099,12 @@
       <c r="K314" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L314" s="381" t="s">
+      <c r="L314" s="376" t="s">
         <v>424</v>
       </c>
-      <c r="M314" s="381"/>
-      <c r="N314" s="381"/>
-      <c r="O314" s="382"/>
+      <c r="M314" s="376"/>
+      <c r="N314" s="376"/>
+      <c r="O314" s="377"/>
       <c r="P314" s="10"/>
     </row>
     <row r="315" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30115,8 +30115,8 @@
       <c r="C315" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D315" s="379"/>
-      <c r="E315" s="380"/>
+      <c r="D315" s="385"/>
+      <c r="E315" s="386"/>
       <c r="F315" s="214"/>
       <c r="G315" s="214"/>
       <c r="H315" s="214" t="s">
@@ -30127,12 +30127,12 @@
       </c>
       <c r="J315" s="214"/>
       <c r="K315" s="214"/>
-      <c r="L315" s="381" t="s">
+      <c r="L315" s="376" t="s">
         <v>442</v>
       </c>
-      <c r="M315" s="381"/>
-      <c r="N315" s="381"/>
-      <c r="O315" s="382"/>
+      <c r="M315" s="376"/>
+      <c r="N315" s="376"/>
+      <c r="O315" s="377"/>
       <c r="P315" s="10"/>
     </row>
     <row r="316" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -30143,8 +30143,8 @@
       <c r="C316" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="D316" s="391"/>
-      <c r="E316" s="392"/>
+      <c r="D316" s="395"/>
+      <c r="E316" s="396"/>
       <c r="F316" s="214"/>
       <c r="G316" s="214"/>
       <c r="H316" s="214" t="s">
@@ -30157,10 +30157,10 @@
         <v>20</v>
       </c>
       <c r="K316" s="214"/>
-      <c r="L316" s="393"/>
-      <c r="M316" s="381"/>
-      <c r="N316" s="381"/>
-      <c r="O316" s="382"/>
+      <c r="L316" s="390"/>
+      <c r="M316" s="376"/>
+      <c r="N316" s="376"/>
+      <c r="O316" s="377"/>
       <c r="P316" s="10"/>
     </row>
     <row r="317" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30171,8 +30171,8 @@
       <c r="C317" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="D317" s="379"/>
-      <c r="E317" s="380"/>
+      <c r="D317" s="385"/>
+      <c r="E317" s="386"/>
       <c r="F317" s="214"/>
       <c r="G317" s="214"/>
       <c r="H317" s="214" t="s">
@@ -30183,10 +30183,10 @@
       </c>
       <c r="J317" s="214"/>
       <c r="K317" s="214"/>
-      <c r="L317" s="381"/>
-      <c r="M317" s="381"/>
-      <c r="N317" s="381"/>
-      <c r="O317" s="382"/>
+      <c r="L317" s="376"/>
+      <c r="M317" s="376"/>
+      <c r="N317" s="376"/>
+      <c r="O317" s="377"/>
       <c r="P317" s="10"/>
     </row>
     <row r="318" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30197,8 +30197,8 @@
       <c r="C318" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="D318" s="379"/>
-      <c r="E318" s="380"/>
+      <c r="D318" s="385"/>
+      <c r="E318" s="386"/>
       <c r="F318" s="214"/>
       <c r="G318" s="214"/>
       <c r="H318" s="214" t="s">
@@ -30211,28 +30211,28 @@
         <v>20</v>
       </c>
       <c r="K318" s="214"/>
-      <c r="L318" s="381"/>
-      <c r="M318" s="381"/>
-      <c r="N318" s="381"/>
-      <c r="O318" s="382"/>
+      <c r="L318" s="376"/>
+      <c r="M318" s="376"/>
+      <c r="N318" s="376"/>
+      <c r="O318" s="377"/>
       <c r="P318" s="10"/>
     </row>
     <row r="319" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="9"/>
       <c r="B319" s="29"/>
       <c r="C319" s="30"/>
-      <c r="D319" s="383"/>
-      <c r="E319" s="384"/>
+      <c r="D319" s="381"/>
+      <c r="E319" s="382"/>
       <c r="F319" s="215"/>
       <c r="G319" s="215"/>
       <c r="H319" s="215"/>
       <c r="I319" s="31"/>
       <c r="J319" s="215"/>
       <c r="K319" s="215"/>
-      <c r="L319" s="385"/>
-      <c r="M319" s="385"/>
-      <c r="N319" s="385"/>
-      <c r="O319" s="386"/>
+      <c r="L319" s="383"/>
+      <c r="M319" s="383"/>
+      <c r="N319" s="383"/>
+      <c r="O319" s="384"/>
       <c r="P319" s="10"/>
     </row>
     <row r="321" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30284,10 +30284,10 @@
       <c r="C324" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="D324" s="372" t="s">
+      <c r="D324" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="E324" s="373"/>
+      <c r="E324" s="362"/>
       <c r="F324" s="276" t="s">
         <v>31</v>
       </c>
@@ -30306,12 +30306,12 @@
       <c r="K324" s="276" t="s">
         <v>36</v>
       </c>
-      <c r="L324" s="374" t="s">
+      <c r="L324" s="363" t="s">
         <v>37</v>
       </c>
-      <c r="M324" s="374"/>
-      <c r="N324" s="374"/>
-      <c r="O324" s="375"/>
+      <c r="M324" s="363"/>
+      <c r="N324" s="363"/>
+      <c r="O324" s="364"/>
       <c r="P324" s="267"/>
     </row>
     <row r="325" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -30322,10 +30322,10 @@
       <c r="C325" s="278" t="s">
         <v>430</v>
       </c>
-      <c r="D325" s="376" t="s">
+      <c r="D325" s="365" t="s">
         <v>431</v>
       </c>
-      <c r="E325" s="377"/>
+      <c r="E325" s="366"/>
       <c r="F325" s="265"/>
       <c r="G325" s="265"/>
       <c r="H325" s="265" t="s">
@@ -30338,12 +30338,12 @@
         <v>255</v>
       </c>
       <c r="K325" s="265"/>
-      <c r="L325" s="378" t="s">
+      <c r="L325" s="367" t="s">
         <v>432</v>
       </c>
-      <c r="M325" s="367"/>
-      <c r="N325" s="367"/>
-      <c r="O325" s="368"/>
+      <c r="M325" s="368"/>
+      <c r="N325" s="368"/>
+      <c r="O325" s="369"/>
       <c r="P325" s="267"/>
     </row>
     <row r="326" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -30368,28 +30368,28 @@
         <v>255</v>
       </c>
       <c r="K326" s="283"/>
-      <c r="L326" s="378"/>
-      <c r="M326" s="367"/>
-      <c r="N326" s="367"/>
-      <c r="O326" s="368"/>
+      <c r="L326" s="367"/>
+      <c r="M326" s="368"/>
+      <c r="N326" s="368"/>
+      <c r="O326" s="369"/>
       <c r="P326" s="267"/>
     </row>
     <row r="327" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="260"/>
       <c r="B327" s="284"/>
       <c r="C327" s="285"/>
-      <c r="D327" s="361"/>
-      <c r="E327" s="362"/>
+      <c r="D327" s="370"/>
+      <c r="E327" s="371"/>
       <c r="F327" s="286"/>
       <c r="G327" s="286"/>
       <c r="H327" s="286"/>
       <c r="I327" s="287"/>
       <c r="J327" s="286"/>
       <c r="K327" s="286"/>
-      <c r="L327" s="363"/>
-      <c r="M327" s="363"/>
-      <c r="N327" s="363"/>
-      <c r="O327" s="364"/>
+      <c r="L327" s="372"/>
+      <c r="M327" s="372"/>
+      <c r="N327" s="372"/>
+      <c r="O327" s="373"/>
       <c r="P327" s="267"/>
     </row>
     <row r="329" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30441,10 +30441,10 @@
       <c r="C332" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="D332" s="372" t="s">
+      <c r="D332" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="E332" s="373"/>
+      <c r="E332" s="362"/>
       <c r="F332" s="276" t="s">
         <v>31</v>
       </c>
@@ -30463,12 +30463,12 @@
       <c r="K332" s="276" t="s">
         <v>36</v>
       </c>
-      <c r="L332" s="374" t="s">
+      <c r="L332" s="363" t="s">
         <v>37</v>
       </c>
-      <c r="M332" s="374"/>
-      <c r="N332" s="374"/>
-      <c r="O332" s="375"/>
+      <c r="M332" s="363"/>
+      <c r="N332" s="363"/>
+      <c r="O332" s="364"/>
       <c r="P332" s="267"/>
     </row>
     <row r="333" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -30479,10 +30479,10 @@
       <c r="C333" s="262" t="s">
         <v>444</v>
       </c>
-      <c r="D333" s="365" t="s">
+      <c r="D333" s="374" t="s">
         <v>218</v>
       </c>
-      <c r="E333" s="366"/>
+      <c r="E333" s="375"/>
       <c r="F333" s="265"/>
       <c r="G333" s="265"/>
       <c r="H333" s="265" t="s">
@@ -30495,10 +30495,10 @@
       <c r="K333" s="265" t="s">
         <v>191</v>
       </c>
-      <c r="L333" s="367"/>
-      <c r="M333" s="367"/>
-      <c r="N333" s="367"/>
-      <c r="O333" s="368"/>
+      <c r="L333" s="368"/>
+      <c r="M333" s="368"/>
+      <c r="N333" s="368"/>
+      <c r="O333" s="369"/>
       <c r="P333" s="267"/>
     </row>
     <row r="334" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -30509,10 +30509,10 @@
       <c r="C334" s="288" t="s">
         <v>445</v>
       </c>
-      <c r="D334" s="376" t="s">
+      <c r="D334" s="365" t="s">
         <v>446</v>
       </c>
-      <c r="E334" s="377"/>
+      <c r="E334" s="366"/>
       <c r="F334" s="265"/>
       <c r="G334" s="265"/>
       <c r="H334" s="265" t="s">
@@ -30523,32 +30523,382 @@
       </c>
       <c r="J334" s="265"/>
       <c r="K334" s="265"/>
-      <c r="L334" s="378"/>
-      <c r="M334" s="367"/>
-      <c r="N334" s="367"/>
-      <c r="O334" s="368"/>
+      <c r="L334" s="367"/>
+      <c r="M334" s="368"/>
+      <c r="N334" s="368"/>
+      <c r="O334" s="369"/>
       <c r="P334" s="267"/>
     </row>
     <row r="335" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="260"/>
       <c r="B335" s="284"/>
       <c r="C335" s="285"/>
-      <c r="D335" s="361"/>
-      <c r="E335" s="362"/>
+      <c r="D335" s="370"/>
+      <c r="E335" s="371"/>
       <c r="F335" s="286"/>
       <c r="G335" s="286"/>
       <c r="H335" s="286"/>
       <c r="I335" s="287"/>
       <c r="J335" s="286"/>
       <c r="K335" s="286"/>
-      <c r="L335" s="363"/>
-      <c r="M335" s="363"/>
-      <c r="N335" s="363"/>
-      <c r="O335" s="364"/>
+      <c r="L335" s="372"/>
+      <c r="M335" s="372"/>
+      <c r="N335" s="372"/>
+      <c r="O335" s="373"/>
       <c r="P335" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="374">
+    <mergeCell ref="D335:E335"/>
+    <mergeCell ref="L335:O335"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="L107:O107"/>
+    <mergeCell ref="L109:O109"/>
+    <mergeCell ref="D332:E332"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="L334:O334"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="L318:O318"/>
+    <mergeCell ref="D319:E319"/>
+    <mergeCell ref="L319:O319"/>
+    <mergeCell ref="D313:E313"/>
+    <mergeCell ref="L313:O313"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="L314:O314"/>
+    <mergeCell ref="D315:E315"/>
+    <mergeCell ref="L315:O315"/>
+    <mergeCell ref="D316:E316"/>
+    <mergeCell ref="L316:O316"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="L317:O317"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="L308:O308"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="L300:O300"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="L301:O301"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="L302:O302"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="L108:O108"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="L110:O110"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="L292:O292"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="L293:O293"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="L287:O287"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="L288:O288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="L289:O289"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="L290:O290"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="L291:O291"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="L278:O278"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="L279:O279"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="L280:O280"/>
+    <mergeCell ref="L281:O281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="L282:O282"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="L269:O269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="L260:O260"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="L261:O261"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="L262:O262"/>
+    <mergeCell ref="L263:O263"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="L264:O264"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="L204:O204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="L205:O205"/>
+    <mergeCell ref="L214:O214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="L215:O215"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="L207:O207"/>
+    <mergeCell ref="L206:O206"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="L212:O212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="L213:O213"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="L156:O156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="L198:O198"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="L203:O203"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="L187:O187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="L188:O188"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="L185:O185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="L186:O186"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="L178:O178"/>
+    <mergeCell ref="L179:O179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="L180:O180"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="L171:O171"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="L176:O176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="L177:O177"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="L161:O161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="L160:O160"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L71:O72"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O57"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="L119:O119"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="L150:O150"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L149:O149"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="L148:O148"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="L252:O252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="L253:O253"/>
+    <mergeCell ref="L254:O254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="L255:O255"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="L236:O236"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="L228:O228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="L229:O229"/>
+    <mergeCell ref="L230:O230"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="L231:O231"/>
     <mergeCell ref="D324:E324"/>
     <mergeCell ref="L324:O324"/>
     <mergeCell ref="D325:E325"/>
@@ -30573,356 +30923,6 @@
     <mergeCell ref="L238:O238"/>
     <mergeCell ref="D239:E239"/>
     <mergeCell ref="L239:O239"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="L236:O236"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="L228:O228"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="L229:O229"/>
-    <mergeCell ref="L230:O230"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="L231:O231"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="L252:O252"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="L253:O253"/>
-    <mergeCell ref="L254:O254"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="L255:O255"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="L150:O150"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L149:O149"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="L148:O148"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="L99:O99"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="L119:O119"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L71:O72"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L56:O57"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="L160:O160"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="L179:O179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="L180:O180"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="L171:O171"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="L176:O176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="L177:O177"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="L162:O162"/>
-    <mergeCell ref="L161:O161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="L156:O156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="L198:O198"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="L203:O203"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="L187:O187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="L188:O188"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="L185:O185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="L186:O186"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="L178:O178"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="L204:O204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="L205:O205"/>
-    <mergeCell ref="L214:O214"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="L215:O215"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="L207:O207"/>
-    <mergeCell ref="L206:O206"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="L212:O212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="L213:O213"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="L260:O260"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="L261:O261"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="L262:O262"/>
-    <mergeCell ref="L263:O263"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="L264:O264"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="L269:O269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="L278:O278"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="L279:O279"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="L280:O280"/>
-    <mergeCell ref="L281:O281"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="L282:O282"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="L292:O292"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="L293:O293"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="L287:O287"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="L288:O288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="L289:O289"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="L290:O290"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="L291:O291"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="L106:O106"/>
-    <mergeCell ref="L108:O108"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="L110:O110"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="L300:O300"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="L301:O301"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="L302:O302"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="L303:O303"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="L317:O317"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="L308:O308"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="D335:E335"/>
-    <mergeCell ref="L335:O335"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="L107:O107"/>
-    <mergeCell ref="L109:O109"/>
-    <mergeCell ref="D332:E332"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="D334:E334"/>
-    <mergeCell ref="L334:O334"/>
-    <mergeCell ref="D318:E318"/>
-    <mergeCell ref="L318:O318"/>
-    <mergeCell ref="D319:E319"/>
-    <mergeCell ref="L319:O319"/>
-    <mergeCell ref="D313:E313"/>
-    <mergeCell ref="L313:O313"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="L314:O314"/>
-    <mergeCell ref="D315:E315"/>
-    <mergeCell ref="L315:O315"/>
-    <mergeCell ref="D316:E316"/>
-    <mergeCell ref="L316:O316"/>
-    <mergeCell ref="D317:E317"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30997,7 +30997,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -31927,8 +31927,8 @@
   </sheetPr>
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31992,7 +31992,7 @@
       </c>
       <c r="N2" s="313">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="O2" s="314"/>
       <c r="P2" s="61"/>
@@ -33296,7 +33296,7 @@
       </c>
       <c r="AK2" s="313">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="AL2" s="314"/>
       <c r="AM2" s="61"/>
@@ -33813,7 +33813,7 @@
       </c>
       <c r="T2" s="313">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="U2" s="314"/>
     </row>
@@ -35226,7 +35226,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -40829,7 +40829,7 @@
       </c>
       <c r="S2" s="313">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="T2" s="314"/>
     </row>
@@ -47604,7 +47604,7 @@
       </c>
       <c r="T2" s="313">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="U2" s="314"/>
     </row>
@@ -49854,7 +49854,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44588.885451736111</v>
+        <v>44591.650340046297</v>
       </c>
       <c r="Q2" s="314"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A6134B-3170-334A-806F-10A248672C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02848AD1-03BC-7D48-A733-483F26427150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="38160" windowHeight="19360" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="4640" yWindow="1280" windowWidth="38160" windowHeight="19360" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -3023,6 +3023,39 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3044,43 +3077,16 @@
     <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3094,24 +3100,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3131,53 +3119,8 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3185,44 +3128,25 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3260,22 +3184,98 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -20703,7 +20703,7 @@
       <c r="L64" s="294"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20848,7 +20848,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -22295,8 +22295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:P335"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C316" sqref="C316"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22359,7 +22359,7 @@
       </c>
       <c r="O2" s="313">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="P2" s="314"/>
     </row>
@@ -22467,10 +22467,10 @@
       <c r="C8" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="436" t="s">
+      <c r="D8" s="412" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="437"/>
+      <c r="E8" s="413"/>
       <c r="F8" s="221" t="s">
         <v>31</v>
       </c>
@@ -22489,12 +22489,12 @@
       <c r="K8" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="438" t="s">
+      <c r="L8" s="414" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="438"/>
-      <c r="N8" s="438"/>
-      <c r="O8" s="439"/>
+      <c r="M8" s="414"/>
+      <c r="N8" s="414"/>
+      <c r="O8" s="415"/>
       <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22505,10 +22505,10 @@
       <c r="C9" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="428" t="s">
+      <c r="D9" s="404" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="429"/>
+      <c r="E9" s="405"/>
       <c r="F9" s="224" t="s">
         <v>191</v>
       </c>
@@ -22523,10 +22523,10 @@
       </c>
       <c r="J9" s="224"/>
       <c r="K9" s="224"/>
-      <c r="L9" s="430"/>
-      <c r="M9" s="430"/>
-      <c r="N9" s="430"/>
-      <c r="O9" s="431"/>
+      <c r="L9" s="406"/>
+      <c r="M9" s="406"/>
+      <c r="N9" s="406"/>
+      <c r="O9" s="407"/>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22537,10 +22537,10 @@
       <c r="C10" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="428" t="s">
+      <c r="D10" s="404" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="429"/>
+      <c r="E10" s="405"/>
       <c r="F10" s="224"/>
       <c r="G10" s="224"/>
       <c r="H10" s="224" t="s">
@@ -22551,12 +22551,12 @@
       </c>
       <c r="J10" s="224"/>
       <c r="K10" s="224"/>
-      <c r="L10" s="430" t="s">
+      <c r="L10" s="406" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="430"/>
-      <c r="N10" s="430"/>
-      <c r="O10" s="431"/>
+      <c r="M10" s="406"/>
+      <c r="N10" s="406"/>
+      <c r="O10" s="407"/>
       <c r="P10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22567,10 +22567,10 @@
       <c r="C11" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="428" t="s">
+      <c r="D11" s="404" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="429"/>
+      <c r="E11" s="405"/>
       <c r="F11" s="224"/>
       <c r="G11" s="224"/>
       <c r="H11" s="224" t="s">
@@ -22581,10 +22581,10 @@
       </c>
       <c r="J11" s="224"/>
       <c r="K11" s="224"/>
-      <c r="L11" s="430"/>
-      <c r="M11" s="430"/>
-      <c r="N11" s="430"/>
-      <c r="O11" s="431"/>
+      <c r="L11" s="406"/>
+      <c r="M11" s="406"/>
+      <c r="N11" s="406"/>
+      <c r="O11" s="407"/>
       <c r="P11" s="110"/>
     </row>
     <row r="12" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -22595,10 +22595,10 @@
       <c r="C12" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="432" t="s">
+      <c r="D12" s="408" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="433"/>
+      <c r="E12" s="409"/>
       <c r="F12" s="228"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
@@ -22607,10 +22607,10 @@
       </c>
       <c r="J12" s="228"/>
       <c r="K12" s="228"/>
-      <c r="L12" s="434"/>
-      <c r="M12" s="434"/>
-      <c r="N12" s="434"/>
-      <c r="O12" s="435"/>
+      <c r="L12" s="410"/>
+      <c r="M12" s="410"/>
+      <c r="N12" s="410"/>
+      <c r="O12" s="411"/>
       <c r="P12" s="110"/>
     </row>
     <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22697,10 +22697,10 @@
       <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="391" t="s">
+      <c r="D17" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="392"/>
+      <c r="E17" s="388"/>
       <c r="F17" s="25" t="s">
         <v>31</v>
       </c>
@@ -22719,12 +22719,12 @@
       <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="393" t="s">
+      <c r="L17" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="393"/>
-      <c r="N17" s="393"/>
-      <c r="O17" s="394"/>
+      <c r="M17" s="389"/>
+      <c r="N17" s="389"/>
+      <c r="O17" s="390"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22735,10 +22735,10 @@
       <c r="C18" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="385" t="s">
+      <c r="D18" s="379" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="386"/>
+      <c r="E18" s="380"/>
       <c r="F18" s="214"/>
       <c r="G18" s="214"/>
       <c r="H18" s="214" t="s">
@@ -22751,10 +22751,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="214"/>
-      <c r="L18" s="376"/>
-      <c r="M18" s="376"/>
-      <c r="N18" s="376"/>
-      <c r="O18" s="377"/>
+      <c r="L18" s="381"/>
+      <c r="M18" s="381"/>
+      <c r="N18" s="381"/>
+      <c r="O18" s="382"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22765,10 +22765,10 @@
       <c r="C19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="385" t="s">
+      <c r="D19" s="379" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="386"/>
+      <c r="E19" s="380"/>
       <c r="F19" s="214"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214" t="s">
@@ -22781,10 +22781,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="214"/>
-      <c r="L19" s="376"/>
-      <c r="M19" s="376"/>
-      <c r="N19" s="376"/>
-      <c r="O19" s="377"/>
+      <c r="L19" s="381"/>
+      <c r="M19" s="381"/>
+      <c r="N19" s="381"/>
+      <c r="O19" s="382"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -22795,10 +22795,10 @@
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="395" t="s">
+      <c r="D20" s="391" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="396"/>
+      <c r="E20" s="392"/>
       <c r="F20" s="214"/>
       <c r="G20" s="214"/>
       <c r="H20" s="214" t="s">
@@ -22811,12 +22811,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="214"/>
-      <c r="L20" s="390" t="s">
+      <c r="L20" s="393" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="376"/>
-      <c r="N20" s="376"/>
-      <c r="O20" s="377"/>
+      <c r="M20" s="381"/>
+      <c r="N20" s="381"/>
+      <c r="O20" s="382"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22827,10 +22827,10 @@
       <c r="C21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="385" t="s">
+      <c r="D21" s="379" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="386"/>
+      <c r="E21" s="380"/>
       <c r="F21" s="214"/>
       <c r="G21" s="214"/>
       <c r="H21" s="214" t="s">
@@ -22841,12 +22841,12 @@
       </c>
       <c r="J21" s="214"/>
       <c r="K21" s="214"/>
-      <c r="L21" s="376" t="s">
+      <c r="L21" s="381" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="376"/>
-      <c r="N21" s="376"/>
-      <c r="O21" s="377"/>
+      <c r="M21" s="381"/>
+      <c r="N21" s="381"/>
+      <c r="O21" s="382"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22857,10 +22857,10 @@
       <c r="C22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="385" t="s">
+      <c r="D22" s="379" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="386"/>
+      <c r="E22" s="380"/>
       <c r="F22" s="214"/>
       <c r="G22" s="214"/>
       <c r="H22" s="214"/>
@@ -22869,28 +22869,28 @@
       </c>
       <c r="J22" s="214"/>
       <c r="K22" s="214"/>
-      <c r="L22" s="376"/>
-      <c r="M22" s="376"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="377"/>
+      <c r="L22" s="381"/>
+      <c r="M22" s="381"/>
+      <c r="N22" s="381"/>
+      <c r="O22" s="382"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="381"/>
-      <c r="E23" s="382"/>
+      <c r="D23" s="383"/>
+      <c r="E23" s="384"/>
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
       <c r="I23" s="31"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="383"/>
-      <c r="M23" s="383"/>
-      <c r="N23" s="383"/>
-      <c r="O23" s="384"/>
+      <c r="L23" s="385"/>
+      <c r="M23" s="385"/>
+      <c r="N23" s="385"/>
+      <c r="O23" s="386"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -22995,10 +22995,10 @@
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="391" t="s">
+      <c r="D29" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="392"/>
+      <c r="E29" s="388"/>
       <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
@@ -23017,12 +23017,12 @@
       <c r="K29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="393" t="s">
+      <c r="L29" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="393"/>
-      <c r="N29" s="393"/>
-      <c r="O29" s="394"/>
+      <c r="M29" s="389"/>
+      <c r="N29" s="389"/>
+      <c r="O29" s="390"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23033,10 +23033,10 @@
       <c r="C30" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="385" t="s">
+      <c r="D30" s="379" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="386"/>
+      <c r="E30" s="380"/>
       <c r="F30" s="214"/>
       <c r="G30" s="214"/>
       <c r="H30" s="214" t="s">
@@ -23047,12 +23047,12 @@
       </c>
       <c r="J30" s="214"/>
       <c r="K30" s="214"/>
-      <c r="L30" s="376" t="s">
+      <c r="L30" s="381" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="376"/>
-      <c r="N30" s="376"/>
-      <c r="O30" s="377"/>
+      <c r="M30" s="381"/>
+      <c r="N30" s="381"/>
+      <c r="O30" s="382"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23063,10 +23063,10 @@
       <c r="C31" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="385" t="s">
+      <c r="D31" s="379" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="386"/>
+      <c r="E31" s="380"/>
       <c r="F31" s="214"/>
       <c r="G31" s="214"/>
       <c r="H31" s="214" t="s">
@@ -23077,82 +23077,82 @@
       </c>
       <c r="J31" s="214"/>
       <c r="K31" s="214"/>
-      <c r="L31" s="376"/>
-      <c r="M31" s="376"/>
-      <c r="N31" s="376"/>
-      <c r="O31" s="377"/>
+      <c r="L31" s="381"/>
+      <c r="M31" s="381"/>
+      <c r="N31" s="381"/>
+      <c r="O31" s="382"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="441"/>
+      <c r="D32" s="398"/>
+      <c r="E32" s="399"/>
       <c r="F32" s="214"/>
       <c r="G32" s="214"/>
       <c r="H32" s="214"/>
       <c r="I32" s="28"/>
       <c r="J32" s="214"/>
       <c r="K32" s="214"/>
-      <c r="L32" s="376"/>
-      <c r="M32" s="376"/>
-      <c r="N32" s="376"/>
-      <c r="O32" s="377"/>
+      <c r="L32" s="381"/>
+      <c r="M32" s="381"/>
+      <c r="N32" s="381"/>
+      <c r="O32" s="382"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="440"/>
-      <c r="E33" s="441"/>
+      <c r="D33" s="398"/>
+      <c r="E33" s="399"/>
       <c r="F33" s="214"/>
       <c r="G33" s="214"/>
       <c r="H33" s="214"/>
       <c r="I33" s="28"/>
       <c r="J33" s="214"/>
       <c r="K33" s="214"/>
-      <c r="L33" s="376"/>
-      <c r="M33" s="376"/>
-      <c r="N33" s="376"/>
-      <c r="O33" s="377"/>
+      <c r="L33" s="381"/>
+      <c r="M33" s="381"/>
+      <c r="N33" s="381"/>
+      <c r="O33" s="382"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="440"/>
-      <c r="E34" s="441"/>
+      <c r="D34" s="398"/>
+      <c r="E34" s="399"/>
       <c r="F34" s="214"/>
       <c r="G34" s="214"/>
       <c r="H34" s="214"/>
       <c r="I34" s="28"/>
       <c r="J34" s="214"/>
       <c r="K34" s="214"/>
-      <c r="L34" s="376"/>
-      <c r="M34" s="376"/>
-      <c r="N34" s="376"/>
-      <c r="O34" s="377"/>
+      <c r="L34" s="381"/>
+      <c r="M34" s="381"/>
+      <c r="N34" s="381"/>
+      <c r="O34" s="382"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="381"/>
-      <c r="E35" s="382"/>
+      <c r="D35" s="383"/>
+      <c r="E35" s="384"/>
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
       <c r="I35" s="31"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="383"/>
-      <c r="M35" s="383"/>
-      <c r="N35" s="383"/>
-      <c r="O35" s="384"/>
+      <c r="L35" s="385"/>
+      <c r="M35" s="385"/>
+      <c r="N35" s="385"/>
+      <c r="O35" s="386"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -23239,10 +23239,10 @@
       <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="391" t="s">
+      <c r="D40" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="392"/>
+      <c r="E40" s="388"/>
       <c r="F40" s="25" t="s">
         <v>31</v>
       </c>
@@ -23261,12 +23261,12 @@
       <c r="K40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="393" t="s">
+      <c r="L40" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="393"/>
-      <c r="N40" s="393"/>
-      <c r="O40" s="394"/>
+      <c r="M40" s="389"/>
+      <c r="N40" s="389"/>
+      <c r="O40" s="390"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23277,10 +23277,10 @@
       <c r="C41" s="257" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="426" t="s">
+      <c r="D41" s="400" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="427"/>
+      <c r="E41" s="401"/>
       <c r="F41" s="258"/>
       <c r="G41" s="258"/>
       <c r="H41" s="258" t="s">
@@ -23291,12 +23291,12 @@
       </c>
       <c r="J41" s="258"/>
       <c r="K41" s="258"/>
-      <c r="L41" s="424" t="s">
+      <c r="L41" s="402" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="424"/>
-      <c r="N41" s="424"/>
-      <c r="O41" s="425"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="402"/>
+      <c r="O41" s="403"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23307,10 +23307,10 @@
       <c r="C42" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="426" t="s">
+      <c r="D42" s="400" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="427"/>
+      <c r="E42" s="401"/>
       <c r="F42" s="258"/>
       <c r="G42" s="258"/>
       <c r="H42" s="258" t="s">
@@ -23321,10 +23321,10 @@
       </c>
       <c r="J42" s="258"/>
       <c r="K42" s="258"/>
-      <c r="L42" s="424"/>
-      <c r="M42" s="424"/>
-      <c r="N42" s="424"/>
-      <c r="O42" s="425"/>
+      <c r="L42" s="402"/>
+      <c r="M42" s="402"/>
+      <c r="N42" s="402"/>
+      <c r="O42" s="403"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23335,10 +23335,10 @@
       <c r="C43" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="385" t="s">
+      <c r="D43" s="379" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="386"/>
+      <c r="E43" s="380"/>
       <c r="F43" s="214"/>
       <c r="G43" s="214"/>
       <c r="H43" s="214" t="s">
@@ -23349,10 +23349,10 @@
       </c>
       <c r="J43" s="214"/>
       <c r="K43" s="214"/>
-      <c r="L43" s="376"/>
-      <c r="M43" s="376"/>
-      <c r="N43" s="376"/>
-      <c r="O43" s="377"/>
+      <c r="L43" s="381"/>
+      <c r="M43" s="381"/>
+      <c r="N43" s="381"/>
+      <c r="O43" s="382"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23363,10 +23363,10 @@
       <c r="C44" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="385" t="s">
+      <c r="D44" s="379" t="s">
         <v>224</v>
       </c>
-      <c r="E44" s="386"/>
+      <c r="E44" s="380"/>
       <c r="F44" s="214"/>
       <c r="G44" s="214"/>
       <c r="H44" s="214" t="s">
@@ -23377,10 +23377,10 @@
       </c>
       <c r="J44" s="214"/>
       <c r="K44" s="214"/>
-      <c r="L44" s="376"/>
-      <c r="M44" s="376"/>
-      <c r="N44" s="376"/>
-      <c r="O44" s="377"/>
+      <c r="L44" s="381"/>
+      <c r="M44" s="381"/>
+      <c r="N44" s="381"/>
+      <c r="O44" s="382"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23391,10 +23391,10 @@
       <c r="C45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="385" t="s">
+      <c r="D45" s="379" t="s">
         <v>225</v>
       </c>
-      <c r="E45" s="386"/>
+      <c r="E45" s="380"/>
       <c r="F45" s="214"/>
       <c r="G45" s="214"/>
       <c r="H45" s="214" t="s">
@@ -23407,12 +23407,12 @@
       <c r="K45" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="376" t="s">
+      <c r="L45" s="381" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="376"/>
-      <c r="N45" s="376"/>
-      <c r="O45" s="377"/>
+      <c r="M45" s="381"/>
+      <c r="N45" s="381"/>
+      <c r="O45" s="382"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23437,28 +23437,28 @@
       </c>
       <c r="J46" s="237"/>
       <c r="K46" s="237"/>
-      <c r="L46" s="376"/>
-      <c r="M46" s="376"/>
-      <c r="N46" s="376"/>
-      <c r="O46" s="377"/>
+      <c r="L46" s="381"/>
+      <c r="M46" s="381"/>
+      <c r="N46" s="381"/>
+      <c r="O46" s="382"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="381"/>
-      <c r="E47" s="382"/>
+      <c r="D47" s="383"/>
+      <c r="E47" s="384"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
       <c r="H47" s="215"/>
       <c r="I47" s="31"/>
       <c r="J47" s="215"/>
       <c r="K47" s="215"/>
-      <c r="L47" s="383"/>
-      <c r="M47" s="383"/>
-      <c r="N47" s="383"/>
-      <c r="O47" s="384"/>
+      <c r="L47" s="385"/>
+      <c r="M47" s="385"/>
+      <c r="N47" s="385"/>
+      <c r="O47" s="386"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -23545,10 +23545,10 @@
       <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="391" t="s">
+      <c r="D52" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="392"/>
+      <c r="E52" s="388"/>
       <c r="F52" s="25" t="s">
         <v>31</v>
       </c>
@@ -23567,12 +23567,12 @@
       <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="393" t="s">
+      <c r="L52" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="393"/>
-      <c r="N52" s="393"/>
-      <c r="O52" s="394"/>
+      <c r="M52" s="389"/>
+      <c r="N52" s="389"/>
+      <c r="O52" s="390"/>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23583,10 +23583,10 @@
       <c r="C53" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="385" t="s">
+      <c r="D53" s="379" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="386"/>
+      <c r="E53" s="380"/>
       <c r="F53" s="214"/>
       <c r="G53" s="214"/>
       <c r="H53" s="214" t="s">
@@ -23599,12 +23599,12 @@
       <c r="K53" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="376" t="s">
+      <c r="L53" s="381" t="s">
         <v>327</v>
       </c>
-      <c r="M53" s="376"/>
-      <c r="N53" s="376"/>
-      <c r="O53" s="377"/>
+      <c r="M53" s="381"/>
+      <c r="N53" s="381"/>
+      <c r="O53" s="382"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23629,12 +23629,12 @@
       </c>
       <c r="J54" s="214"/>
       <c r="K54" s="214"/>
-      <c r="L54" s="378" t="s">
+      <c r="L54" s="419" t="s">
         <v>244</v>
       </c>
-      <c r="M54" s="379"/>
-      <c r="N54" s="379"/>
-      <c r="O54" s="380"/>
+      <c r="M54" s="420"/>
+      <c r="N54" s="420"/>
+      <c r="O54" s="421"/>
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23659,12 +23659,12 @@
       </c>
       <c r="J55" s="214"/>
       <c r="K55" s="214"/>
-      <c r="L55" s="399" t="s">
+      <c r="L55" s="425" t="s">
         <v>291</v>
       </c>
-      <c r="M55" s="400"/>
-      <c r="N55" s="400"/>
-      <c r="O55" s="401"/>
+      <c r="M55" s="426"/>
+      <c r="N55" s="426"/>
+      <c r="O55" s="427"/>
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23687,12 +23687,12 @@
       </c>
       <c r="J56" s="214"/>
       <c r="K56" s="214"/>
-      <c r="L56" s="418" t="s">
+      <c r="L56" s="416" t="s">
         <v>241</v>
       </c>
-      <c r="M56" s="419"/>
-      <c r="N56" s="419"/>
-      <c r="O56" s="420"/>
+      <c r="M56" s="417"/>
+      <c r="N56" s="417"/>
+      <c r="O56" s="418"/>
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23715,10 +23715,10 @@
       </c>
       <c r="J57" s="214"/>
       <c r="K57" s="214"/>
-      <c r="L57" s="421"/>
-      <c r="M57" s="422"/>
-      <c r="N57" s="422"/>
-      <c r="O57" s="423"/>
+      <c r="L57" s="422"/>
+      <c r="M57" s="423"/>
+      <c r="N57" s="423"/>
+      <c r="O57" s="424"/>
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -23729,10 +23729,10 @@
       <c r="C58" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="395" t="s">
+      <c r="D58" s="391" t="s">
         <v>226</v>
       </c>
-      <c r="E58" s="396"/>
+      <c r="E58" s="392"/>
       <c r="F58" s="214"/>
       <c r="G58" s="214"/>
       <c r="H58" s="214" t="s">
@@ -23743,12 +23743,12 @@
       </c>
       <c r="J58" s="214"/>
       <c r="K58" s="214"/>
-      <c r="L58" s="390" t="s">
+      <c r="L58" s="393" t="s">
         <v>407</v>
       </c>
-      <c r="M58" s="376"/>
-      <c r="N58" s="376"/>
-      <c r="O58" s="377"/>
+      <c r="M58" s="381"/>
+      <c r="N58" s="381"/>
+      <c r="O58" s="382"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -23759,10 +23759,10 @@
       <c r="C59" s="262" t="s">
         <v>435</v>
       </c>
-      <c r="D59" s="374" t="s">
+      <c r="D59" s="365" t="s">
         <v>437</v>
       </c>
-      <c r="E59" s="375"/>
+      <c r="E59" s="366"/>
       <c r="F59" s="265"/>
       <c r="G59" s="265"/>
       <c r="H59" s="265" t="s">
@@ -23773,10 +23773,10 @@
       </c>
       <c r="J59" s="265"/>
       <c r="K59" s="265"/>
-      <c r="L59" s="368"/>
-      <c r="M59" s="368"/>
-      <c r="N59" s="368"/>
-      <c r="O59" s="369"/>
+      <c r="L59" s="367"/>
+      <c r="M59" s="367"/>
+      <c r="N59" s="367"/>
+      <c r="O59" s="368"/>
       <c r="P59" s="267"/>
     </row>
     <row r="60" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -23787,10 +23787,10 @@
       <c r="C60" s="262" t="s">
         <v>436</v>
       </c>
-      <c r="D60" s="374" t="s">
+      <c r="D60" s="365" t="s">
         <v>438</v>
       </c>
-      <c r="E60" s="375"/>
+      <c r="E60" s="366"/>
       <c r="F60" s="265"/>
       <c r="G60" s="265"/>
       <c r="H60" s="265" t="s">
@@ -23801,10 +23801,10 @@
       </c>
       <c r="J60" s="265"/>
       <c r="K60" s="265"/>
-      <c r="L60" s="368"/>
-      <c r="M60" s="368"/>
-      <c r="N60" s="368"/>
-      <c r="O60" s="369"/>
+      <c r="L60" s="367"/>
+      <c r="M60" s="367"/>
+      <c r="N60" s="367"/>
+      <c r="O60" s="368"/>
       <c r="P60" s="267"/>
     </row>
     <row r="61" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23815,10 +23815,10 @@
       <c r="C61" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="385" t="s">
+      <c r="D61" s="379" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="386"/>
+      <c r="E61" s="380"/>
       <c r="F61" s="214"/>
       <c r="G61" s="214"/>
       <c r="H61" s="214" t="s">
@@ -23831,30 +23831,30 @@
       <c r="K61" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L61" s="376" t="s">
+      <c r="L61" s="381" t="s">
         <v>268</v>
       </c>
-      <c r="M61" s="376"/>
-      <c r="N61" s="376"/>
-      <c r="O61" s="377"/>
+      <c r="M61" s="381"/>
+      <c r="N61" s="381"/>
+      <c r="O61" s="382"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="29"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="381"/>
-      <c r="E62" s="382"/>
+      <c r="D62" s="383"/>
+      <c r="E62" s="384"/>
       <c r="F62" s="215"/>
       <c r="G62" s="215"/>
       <c r="H62" s="215"/>
       <c r="I62" s="31"/>
       <c r="J62" s="215"/>
       <c r="K62" s="215"/>
-      <c r="L62" s="383"/>
-      <c r="M62" s="383"/>
-      <c r="N62" s="383"/>
-      <c r="O62" s="384"/>
+      <c r="L62" s="385"/>
+      <c r="M62" s="385"/>
+      <c r="N62" s="385"/>
+      <c r="O62" s="386"/>
       <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -23941,10 +23941,10 @@
       <c r="C67" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="391" t="s">
+      <c r="D67" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="392"/>
+      <c r="E67" s="388"/>
       <c r="F67" s="25" t="s">
         <v>31</v>
       </c>
@@ -23963,12 +23963,12 @@
       <c r="K67" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L67" s="393" t="s">
+      <c r="L67" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M67" s="393"/>
-      <c r="N67" s="393"/>
-      <c r="O67" s="394"/>
+      <c r="M67" s="389"/>
+      <c r="N67" s="389"/>
+      <c r="O67" s="390"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23979,10 +23979,10 @@
       <c r="C68" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D68" s="385" t="s">
+      <c r="D68" s="379" t="s">
         <v>265</v>
       </c>
-      <c r="E68" s="386"/>
+      <c r="E68" s="380"/>
       <c r="F68" s="214"/>
       <c r="G68" s="214"/>
       <c r="H68" s="214" t="s">
@@ -23995,12 +23995,12 @@
       <c r="K68" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L68" s="376" t="s">
+      <c r="L68" s="381" t="s">
         <v>266</v>
       </c>
-      <c r="M68" s="376"/>
-      <c r="N68" s="376"/>
-      <c r="O68" s="377"/>
+      <c r="M68" s="381"/>
+      <c r="N68" s="381"/>
+      <c r="O68" s="382"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24011,10 +24011,10 @@
       <c r="C69" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="385" t="s">
+      <c r="D69" s="379" t="s">
         <v>246</v>
       </c>
-      <c r="E69" s="386"/>
+      <c r="E69" s="380"/>
       <c r="F69" s="214"/>
       <c r="G69" s="214"/>
       <c r="H69" s="214" t="s">
@@ -24025,10 +24025,10 @@
       </c>
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
-      <c r="L69" s="376"/>
-      <c r="M69" s="376"/>
-      <c r="N69" s="376"/>
-      <c r="O69" s="377"/>
+      <c r="L69" s="381"/>
+      <c r="M69" s="381"/>
+      <c r="N69" s="381"/>
+      <c r="O69" s="382"/>
       <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24039,10 +24039,10 @@
       <c r="C70" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="385" t="s">
+      <c r="D70" s="379" t="s">
         <v>247</v>
       </c>
-      <c r="E70" s="386"/>
+      <c r="E70" s="380"/>
       <c r="F70" s="214"/>
       <c r="G70" s="214"/>
       <c r="H70" s="214" t="s">
@@ -24053,10 +24053,10 @@
       </c>
       <c r="J70" s="214"/>
       <c r="K70" s="214"/>
-      <c r="L70" s="376"/>
-      <c r="M70" s="376"/>
-      <c r="N70" s="376"/>
-      <c r="O70" s="377"/>
+      <c r="L70" s="381"/>
+      <c r="M70" s="381"/>
+      <c r="N70" s="381"/>
+      <c r="O70" s="382"/>
       <c r="P70" s="10"/>
     </row>
     <row r="71" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24079,12 +24079,12 @@
       </c>
       <c r="J71" s="214"/>
       <c r="K71" s="214"/>
-      <c r="L71" s="418" t="s">
+      <c r="L71" s="416" t="s">
         <v>241</v>
       </c>
-      <c r="M71" s="419"/>
-      <c r="N71" s="419"/>
-      <c r="O71" s="420"/>
+      <c r="M71" s="417"/>
+      <c r="N71" s="417"/>
+      <c r="O71" s="418"/>
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24107,10 +24107,10 @@
       </c>
       <c r="J72" s="214"/>
       <c r="K72" s="214"/>
-      <c r="L72" s="421"/>
-      <c r="M72" s="422"/>
-      <c r="N72" s="422"/>
-      <c r="O72" s="423"/>
+      <c r="L72" s="422"/>
+      <c r="M72" s="423"/>
+      <c r="N72" s="423"/>
+      <c r="O72" s="424"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24121,10 +24121,10 @@
       <c r="C73" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="D73" s="385" t="s">
+      <c r="D73" s="379" t="s">
         <v>248</v>
       </c>
-      <c r="E73" s="386"/>
+      <c r="E73" s="380"/>
       <c r="F73" s="214"/>
       <c r="G73" s="214"/>
       <c r="H73" s="214"/>
@@ -24135,28 +24135,28 @@
         <v>255</v>
       </c>
       <c r="K73" s="214"/>
-      <c r="L73" s="390"/>
-      <c r="M73" s="376"/>
-      <c r="N73" s="376"/>
-      <c r="O73" s="377"/>
+      <c r="L73" s="393"/>
+      <c r="M73" s="381"/>
+      <c r="N73" s="381"/>
+      <c r="O73" s="382"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="29"/>
       <c r="C74" s="30"/>
-      <c r="D74" s="381"/>
-      <c r="E74" s="382"/>
+      <c r="D74" s="383"/>
+      <c r="E74" s="384"/>
       <c r="F74" s="215"/>
       <c r="G74" s="215"/>
       <c r="H74" s="215"/>
       <c r="I74" s="31"/>
       <c r="J74" s="215"/>
       <c r="K74" s="215"/>
-      <c r="L74" s="383"/>
-      <c r="M74" s="383"/>
-      <c r="N74" s="383"/>
-      <c r="O74" s="384"/>
+      <c r="L74" s="385"/>
+      <c r="M74" s="385"/>
+      <c r="N74" s="385"/>
+      <c r="O74" s="386"/>
       <c r="P74" s="10"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -24243,10 +24243,10 @@
       <c r="C79" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="391" t="s">
+      <c r="D79" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="392"/>
+      <c r="E79" s="388"/>
       <c r="F79" s="25" t="s">
         <v>31</v>
       </c>
@@ -24265,12 +24265,12 @@
       <c r="K79" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L79" s="393" t="s">
+      <c r="L79" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M79" s="393"/>
-      <c r="N79" s="393"/>
-      <c r="O79" s="394"/>
+      <c r="M79" s="389"/>
+      <c r="N79" s="389"/>
+      <c r="O79" s="390"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24281,10 +24281,10 @@
       <c r="C80" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D80" s="385" t="s">
+      <c r="D80" s="379" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="386"/>
+      <c r="E80" s="380"/>
       <c r="F80" s="214"/>
       <c r="G80" s="214"/>
       <c r="H80" s="214" t="s">
@@ -24297,12 +24297,12 @@
       <c r="K80" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L80" s="376" t="s">
+      <c r="L80" s="381" t="s">
         <v>327</v>
       </c>
-      <c r="M80" s="376"/>
-      <c r="N80" s="376"/>
-      <c r="O80" s="377"/>
+      <c r="M80" s="381"/>
+      <c r="N80" s="381"/>
+      <c r="O80" s="382"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24313,10 +24313,10 @@
       <c r="C81" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D81" s="385" t="s">
+      <c r="D81" s="379" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="386"/>
+      <c r="E81" s="380"/>
       <c r="F81" s="214"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214" t="s">
@@ -24327,10 +24327,10 @@
       </c>
       <c r="J81" s="214"/>
       <c r="K81" s="214"/>
-      <c r="L81" s="376"/>
-      <c r="M81" s="376"/>
-      <c r="N81" s="376"/>
-      <c r="O81" s="377"/>
+      <c r="L81" s="381"/>
+      <c r="M81" s="381"/>
+      <c r="N81" s="381"/>
+      <c r="O81" s="382"/>
       <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24341,10 +24341,10 @@
       <c r="C82" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D82" s="385" t="s">
+      <c r="D82" s="379" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="386"/>
+      <c r="E82" s="380"/>
       <c r="F82" s="214"/>
       <c r="G82" s="214"/>
       <c r="H82" s="214" t="s">
@@ -24357,12 +24357,12 @@
       <c r="K82" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L82" s="418" t="s">
+      <c r="L82" s="416" t="s">
         <v>408</v>
       </c>
-      <c r="M82" s="419"/>
-      <c r="N82" s="419"/>
-      <c r="O82" s="420"/>
+      <c r="M82" s="417"/>
+      <c r="N82" s="417"/>
+      <c r="O82" s="418"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24373,10 +24373,10 @@
       <c r="C83" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D83" s="385" t="s">
+      <c r="D83" s="379" t="s">
         <v>259</v>
       </c>
-      <c r="E83" s="386"/>
+      <c r="E83" s="380"/>
       <c r="F83" s="214"/>
       <c r="G83" s="214"/>
       <c r="H83" s="214" t="s">
@@ -24387,10 +24387,10 @@
       </c>
       <c r="J83" s="214"/>
       <c r="K83" s="241"/>
-      <c r="L83" s="376"/>
-      <c r="M83" s="376"/>
-      <c r="N83" s="376"/>
-      <c r="O83" s="377"/>
+      <c r="L83" s="381"/>
+      <c r="M83" s="381"/>
+      <c r="N83" s="381"/>
+      <c r="O83" s="382"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24401,10 +24401,10 @@
       <c r="C84" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="385" t="s">
+      <c r="D84" s="379" t="s">
         <v>260</v>
       </c>
-      <c r="E84" s="386"/>
+      <c r="E84" s="380"/>
       <c r="F84" s="214"/>
       <c r="G84" s="214"/>
       <c r="H84" s="214" t="s">
@@ -24415,12 +24415,12 @@
       </c>
       <c r="J84" s="214"/>
       <c r="K84" s="241"/>
-      <c r="L84" s="376" t="s">
+      <c r="L84" s="381" t="s">
         <v>358</v>
       </c>
-      <c r="M84" s="376"/>
-      <c r="N84" s="376"/>
-      <c r="O84" s="377"/>
+      <c r="M84" s="381"/>
+      <c r="N84" s="381"/>
+      <c r="O84" s="382"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24431,10 +24431,10 @@
       <c r="C85" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="385" t="s">
+      <c r="D85" s="379" t="s">
         <v>261</v>
       </c>
-      <c r="E85" s="386"/>
+      <c r="E85" s="380"/>
       <c r="F85" s="214"/>
       <c r="G85" s="214"/>
       <c r="H85" s="214" t="s">
@@ -24445,12 +24445,12 @@
       </c>
       <c r="J85" s="214"/>
       <c r="K85" s="241"/>
-      <c r="L85" s="376" t="s">
+      <c r="L85" s="381" t="s">
         <v>252</v>
       </c>
-      <c r="M85" s="376"/>
-      <c r="N85" s="376"/>
-      <c r="O85" s="377"/>
+      <c r="M85" s="381"/>
+      <c r="N85" s="381"/>
+      <c r="O85" s="382"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24461,10 +24461,10 @@
       <c r="C86" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="D86" s="385" t="s">
+      <c r="D86" s="379" t="s">
         <v>262</v>
       </c>
-      <c r="E86" s="386"/>
+      <c r="E86" s="380"/>
       <c r="F86" s="214"/>
       <c r="G86" s="214"/>
       <c r="H86" s="214" t="s">
@@ -24477,48 +24477,48 @@
       <c r="K86" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L86" s="415" t="s">
+      <c r="L86" s="428" t="s">
         <v>268</v>
       </c>
-      <c r="M86" s="416"/>
-      <c r="N86" s="416"/>
-      <c r="O86" s="417"/>
+      <c r="M86" s="429"/>
+      <c r="N86" s="429"/>
+      <c r="O86" s="430"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
-      <c r="D87" s="385"/>
-      <c r="E87" s="386"/>
+      <c r="D87" s="379"/>
+      <c r="E87" s="380"/>
       <c r="F87" s="214"/>
       <c r="G87" s="214"/>
       <c r="H87" s="214"/>
       <c r="I87" s="28"/>
       <c r="J87" s="214"/>
       <c r="K87" s="214"/>
-      <c r="L87" s="376"/>
-      <c r="M87" s="376"/>
-      <c r="N87" s="376"/>
-      <c r="O87" s="377"/>
+      <c r="L87" s="381"/>
+      <c r="M87" s="381"/>
+      <c r="N87" s="381"/>
+      <c r="O87" s="382"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="29"/>
       <c r="C88" s="30"/>
-      <c r="D88" s="381"/>
-      <c r="E88" s="382"/>
+      <c r="D88" s="383"/>
+      <c r="E88" s="384"/>
       <c r="F88" s="215"/>
       <c r="G88" s="215"/>
       <c r="H88" s="215"/>
       <c r="I88" s="31"/>
       <c r="J88" s="215"/>
       <c r="K88" s="215"/>
-      <c r="L88" s="383"/>
-      <c r="M88" s="383"/>
-      <c r="N88" s="383"/>
-      <c r="O88" s="384"/>
+      <c r="L88" s="385"/>
+      <c r="M88" s="385"/>
+      <c r="N88" s="385"/>
+      <c r="O88" s="386"/>
       <c r="P88" s="10"/>
     </row>
     <row r="89" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24605,10 +24605,10 @@
       <c r="C93" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="391" t="s">
+      <c r="D93" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="392"/>
+      <c r="E93" s="388"/>
       <c r="F93" s="25" t="s">
         <v>31</v>
       </c>
@@ -24627,12 +24627,12 @@
       <c r="K93" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L93" s="393" t="s">
+      <c r="L93" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M93" s="393"/>
-      <c r="N93" s="393"/>
-      <c r="O93" s="394"/>
+      <c r="M93" s="389"/>
+      <c r="N93" s="389"/>
+      <c r="O93" s="390"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24643,10 +24643,10 @@
       <c r="C94" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D94" s="385" t="s">
+      <c r="D94" s="379" t="s">
         <v>267</v>
       </c>
-      <c r="E94" s="386"/>
+      <c r="E94" s="380"/>
       <c r="F94" s="214"/>
       <c r="G94" s="214"/>
       <c r="H94" s="214" t="s">
@@ -24659,12 +24659,12 @@
       <c r="K94" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L94" s="376" t="s">
+      <c r="L94" s="381" t="s">
         <v>263</v>
       </c>
-      <c r="M94" s="376"/>
-      <c r="N94" s="376"/>
-      <c r="O94" s="377"/>
+      <c r="M94" s="381"/>
+      <c r="N94" s="381"/>
+      <c r="O94" s="382"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24675,10 +24675,10 @@
       <c r="C95" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D95" s="385" t="s">
+      <c r="D95" s="379" t="s">
         <v>262</v>
       </c>
-      <c r="E95" s="386"/>
+      <c r="E95" s="380"/>
       <c r="F95" s="214"/>
       <c r="G95" s="214"/>
       <c r="H95" s="214" t="s">
@@ -24691,12 +24691,12 @@
       <c r="K95" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L95" s="415" t="s">
+      <c r="L95" s="428" t="s">
         <v>268</v>
       </c>
-      <c r="M95" s="416"/>
-      <c r="N95" s="416"/>
-      <c r="O95" s="417"/>
+      <c r="M95" s="429"/>
+      <c r="N95" s="429"/>
+      <c r="O95" s="430"/>
       <c r="P95" s="10"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24707,10 +24707,10 @@
       <c r="C96" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D96" s="385" t="s">
+      <c r="D96" s="379" t="s">
         <v>269</v>
       </c>
-      <c r="E96" s="386"/>
+      <c r="E96" s="380"/>
       <c r="F96" s="214"/>
       <c r="G96" s="214"/>
       <c r="H96" s="214" t="s">
@@ -24721,10 +24721,10 @@
       </c>
       <c r="J96" s="214"/>
       <c r="K96" s="214"/>
-      <c r="L96" s="418"/>
-      <c r="M96" s="419"/>
-      <c r="N96" s="419"/>
-      <c r="O96" s="420"/>
+      <c r="L96" s="416"/>
+      <c r="M96" s="417"/>
+      <c r="N96" s="417"/>
+      <c r="O96" s="418"/>
       <c r="P96" s="10"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24735,10 +24735,10 @@
       <c r="C97" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D97" s="385" t="s">
+      <c r="D97" s="379" t="s">
         <v>270</v>
       </c>
-      <c r="E97" s="386"/>
+      <c r="E97" s="380"/>
       <c r="F97" s="214"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214" t="s">
@@ -24749,10 +24749,10 @@
       </c>
       <c r="J97" s="214"/>
       <c r="K97" s="241"/>
-      <c r="L97" s="376"/>
-      <c r="M97" s="376"/>
-      <c r="N97" s="376"/>
-      <c r="O97" s="377"/>
+      <c r="L97" s="381"/>
+      <c r="M97" s="381"/>
+      <c r="N97" s="381"/>
+      <c r="O97" s="382"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24763,10 +24763,10 @@
       <c r="C98" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D98" s="385" t="s">
+      <c r="D98" s="379" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="386"/>
+      <c r="E98" s="380"/>
       <c r="F98" s="214"/>
       <c r="G98" s="214"/>
       <c r="H98" s="214"/>
@@ -24777,28 +24777,28 @@
         <v>255</v>
       </c>
       <c r="K98" s="241"/>
-      <c r="L98" s="376"/>
-      <c r="M98" s="376"/>
-      <c r="N98" s="376"/>
-      <c r="O98" s="377"/>
+      <c r="L98" s="381"/>
+      <c r="M98" s="381"/>
+      <c r="N98" s="381"/>
+      <c r="O98" s="382"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="29"/>
       <c r="C99" s="30"/>
-      <c r="D99" s="413"/>
-      <c r="E99" s="414"/>
+      <c r="D99" s="394"/>
+      <c r="E99" s="395"/>
       <c r="F99" s="215"/>
       <c r="G99" s="215"/>
       <c r="H99" s="215"/>
       <c r="I99" s="31"/>
       <c r="J99" s="215"/>
       <c r="K99" s="215"/>
-      <c r="L99" s="383"/>
-      <c r="M99" s="383"/>
-      <c r="N99" s="383"/>
-      <c r="O99" s="384"/>
+      <c r="L99" s="385"/>
+      <c r="M99" s="385"/>
+      <c r="N99" s="385"/>
+      <c r="O99" s="386"/>
       <c r="P99" s="10"/>
     </row>
     <row r="100" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24885,10 +24885,10 @@
       <c r="C104" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="391" t="s">
+      <c r="D104" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E104" s="392"/>
+      <c r="E104" s="388"/>
       <c r="F104" s="25" t="s">
         <v>31</v>
       </c>
@@ -24907,12 +24907,12 @@
       <c r="K104" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L104" s="393" t="s">
+      <c r="L104" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M104" s="393"/>
-      <c r="N104" s="393"/>
-      <c r="O104" s="394"/>
+      <c r="M104" s="389"/>
+      <c r="N104" s="389"/>
+      <c r="O104" s="390"/>
       <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24923,10 +24923,10 @@
       <c r="C105" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D105" s="385" t="s">
+      <c r="D105" s="379" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="386"/>
+      <c r="E105" s="380"/>
       <c r="F105" s="214"/>
       <c r="G105" s="214"/>
       <c r="H105" s="214" t="s">
@@ -24939,12 +24939,12 @@
       <c r="K105" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L105" s="376" t="s">
+      <c r="L105" s="381" t="s">
         <v>327</v>
       </c>
-      <c r="M105" s="376"/>
-      <c r="N105" s="376"/>
-      <c r="O105" s="377"/>
+      <c r="M105" s="381"/>
+      <c r="N105" s="381"/>
+      <c r="O105" s="382"/>
       <c r="P105" s="10"/>
     </row>
     <row r="106" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -24955,10 +24955,10 @@
       <c r="C106" s="262" t="s">
         <v>450</v>
       </c>
-      <c r="D106" s="374" t="s">
+      <c r="D106" s="365" t="s">
         <v>452</v>
       </c>
-      <c r="E106" s="375"/>
+      <c r="E106" s="366"/>
       <c r="F106" s="265"/>
       <c r="G106" s="265"/>
       <c r="H106" s="265" t="s">
@@ -24969,10 +24969,10 @@
       </c>
       <c r="J106" s="265"/>
       <c r="K106" s="265"/>
-      <c r="L106" s="368"/>
-      <c r="M106" s="368"/>
-      <c r="N106" s="368"/>
-      <c r="O106" s="369"/>
+      <c r="L106" s="367"/>
+      <c r="M106" s="367"/>
+      <c r="N106" s="367"/>
+      <c r="O106" s="368"/>
       <c r="P106" s="267"/>
     </row>
     <row r="107" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -24983,10 +24983,10 @@
       <c r="C107" s="262" t="s">
         <v>451</v>
       </c>
-      <c r="D107" s="374" t="s">
+      <c r="D107" s="365" t="s">
         <v>404</v>
       </c>
-      <c r="E107" s="375"/>
+      <c r="E107" s="366"/>
       <c r="F107" s="265"/>
       <c r="G107" s="265"/>
       <c r="H107" s="265" t="s">
@@ -24997,10 +24997,10 @@
       </c>
       <c r="J107" s="265"/>
       <c r="K107" s="265"/>
-      <c r="L107" s="368"/>
-      <c r="M107" s="368"/>
-      <c r="N107" s="368"/>
-      <c r="O107" s="369"/>
+      <c r="L107" s="367"/>
+      <c r="M107" s="367"/>
+      <c r="N107" s="367"/>
+      <c r="O107" s="368"/>
       <c r="P107" s="267"/>
     </row>
     <row r="108" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25025,12 +25025,12 @@
       </c>
       <c r="J108" s="283"/>
       <c r="K108" s="283"/>
-      <c r="L108" s="444" t="s">
+      <c r="L108" s="369" t="s">
         <v>268</v>
       </c>
-      <c r="M108" s="445"/>
-      <c r="N108" s="445"/>
-      <c r="O108" s="446"/>
+      <c r="M108" s="370"/>
+      <c r="N108" s="370"/>
+      <c r="O108" s="371"/>
       <c r="P108" s="267"/>
     </row>
     <row r="109" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25053,10 +25053,10 @@
       </c>
       <c r="J109" s="283"/>
       <c r="K109" s="283"/>
-      <c r="L109" s="444"/>
-      <c r="M109" s="445"/>
-      <c r="N109" s="445"/>
-      <c r="O109" s="446"/>
+      <c r="L109" s="369"/>
+      <c r="M109" s="370"/>
+      <c r="N109" s="370"/>
+      <c r="O109" s="371"/>
       <c r="P109" s="267"/>
     </row>
     <row r="110" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25067,20 +25067,20 @@
       <c r="C110" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="D110" s="381"/>
-      <c r="E110" s="382"/>
+      <c r="D110" s="383"/>
+      <c r="E110" s="384"/>
       <c r="F110" s="215"/>
       <c r="G110" s="215"/>
       <c r="H110" s="215"/>
       <c r="I110" s="31"/>
       <c r="J110" s="215"/>
       <c r="K110" s="215"/>
-      <c r="L110" s="383" t="s">
+      <c r="L110" s="385" t="s">
         <v>448</v>
       </c>
-      <c r="M110" s="383"/>
-      <c r="N110" s="383"/>
-      <c r="O110" s="384"/>
+      <c r="M110" s="385"/>
+      <c r="N110" s="385"/>
+      <c r="O110" s="386"/>
       <c r="P110" s="10"/>
     </row>
     <row r="111" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25167,10 +25167,10 @@
       <c r="C115" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D115" s="391" t="s">
+      <c r="D115" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="392"/>
+      <c r="E115" s="388"/>
       <c r="F115" s="25" t="s">
         <v>31</v>
       </c>
@@ -25189,12 +25189,12 @@
       <c r="K115" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L115" s="393" t="s">
+      <c r="L115" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M115" s="393"/>
-      <c r="N115" s="393"/>
-      <c r="O115" s="394"/>
+      <c r="M115" s="389"/>
+      <c r="N115" s="389"/>
+      <c r="O115" s="390"/>
       <c r="P115" s="10"/>
     </row>
     <row r="116" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25205,10 +25205,10 @@
       <c r="C116" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D116" s="385" t="s">
+      <c r="D116" s="379" t="s">
         <v>267</v>
       </c>
-      <c r="E116" s="386"/>
+      <c r="E116" s="380"/>
       <c r="F116" s="214"/>
       <c r="G116" s="214"/>
       <c r="H116" s="214" t="s">
@@ -25221,12 +25221,12 @@
       <c r="K116" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L116" s="376" t="s">
+      <c r="L116" s="381" t="s">
         <v>263</v>
       </c>
-      <c r="M116" s="376"/>
-      <c r="N116" s="376"/>
-      <c r="O116" s="377"/>
+      <c r="M116" s="381"/>
+      <c r="N116" s="381"/>
+      <c r="O116" s="382"/>
       <c r="P116" s="10"/>
     </row>
     <row r="117" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25237,10 +25237,10 @@
       <c r="C117" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D117" s="385" t="s">
+      <c r="D117" s="379" t="s">
         <v>243</v>
       </c>
-      <c r="E117" s="386"/>
+      <c r="E117" s="380"/>
       <c r="F117" s="214"/>
       <c r="G117" s="214"/>
       <c r="H117" s="214" t="s">
@@ -25251,12 +25251,12 @@
       </c>
       <c r="J117" s="214"/>
       <c r="K117" s="214"/>
-      <c r="L117" s="376" t="s">
+      <c r="L117" s="381" t="s">
         <v>344</v>
       </c>
-      <c r="M117" s="376"/>
-      <c r="N117" s="376"/>
-      <c r="O117" s="377"/>
+      <c r="M117" s="381"/>
+      <c r="N117" s="381"/>
+      <c r="O117" s="382"/>
       <c r="P117" s="10"/>
     </row>
     <row r="118" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25281,28 +25281,28 @@
       </c>
       <c r="J118" s="237"/>
       <c r="K118" s="237"/>
-      <c r="L118" s="387"/>
-      <c r="M118" s="388"/>
-      <c r="N118" s="388"/>
-      <c r="O118" s="389"/>
+      <c r="L118" s="436"/>
+      <c r="M118" s="437"/>
+      <c r="N118" s="437"/>
+      <c r="O118" s="438"/>
       <c r="P118" s="10"/>
     </row>
     <row r="119" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9"/>
       <c r="B119" s="29"/>
       <c r="C119" s="30"/>
-      <c r="D119" s="381"/>
-      <c r="E119" s="382"/>
+      <c r="D119" s="383"/>
+      <c r="E119" s="384"/>
       <c r="F119" s="215"/>
       <c r="G119" s="215"/>
       <c r="H119" s="215"/>
       <c r="I119" s="31"/>
       <c r="J119" s="215"/>
       <c r="K119" s="215"/>
-      <c r="L119" s="383"/>
-      <c r="M119" s="383"/>
-      <c r="N119" s="383"/>
-      <c r="O119" s="384"/>
+      <c r="L119" s="385"/>
+      <c r="M119" s="385"/>
+      <c r="N119" s="385"/>
+      <c r="O119" s="386"/>
       <c r="P119" s="10"/>
     </row>
     <row r="120" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25371,10 +25371,10 @@
       <c r="C123" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="391" t="s">
+      <c r="D123" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="392"/>
+      <c r="E123" s="388"/>
       <c r="F123" s="25" t="s">
         <v>31</v>
       </c>
@@ -25393,12 +25393,12 @@
       <c r="K123" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L123" s="393" t="s">
+      <c r="L123" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M123" s="393"/>
-      <c r="N123" s="393"/>
-      <c r="O123" s="394"/>
+      <c r="M123" s="389"/>
+      <c r="N123" s="389"/>
+      <c r="O123" s="390"/>
       <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25409,10 +25409,10 @@
       <c r="C124" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D124" s="385" t="s">
+      <c r="D124" s="379" t="s">
         <v>300</v>
       </c>
-      <c r="E124" s="386"/>
+      <c r="E124" s="380"/>
       <c r="F124" s="214" t="s">
         <v>191</v>
       </c>
@@ -25427,10 +25427,10 @@
         <v>128</v>
       </c>
       <c r="K124" s="214"/>
-      <c r="L124" s="415"/>
-      <c r="M124" s="416"/>
-      <c r="N124" s="416"/>
-      <c r="O124" s="417"/>
+      <c r="L124" s="428"/>
+      <c r="M124" s="429"/>
+      <c r="N124" s="429"/>
+      <c r="O124" s="430"/>
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25441,10 +25441,10 @@
       <c r="C125" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D125" s="385" t="s">
+      <c r="D125" s="379" t="s">
         <v>185</v>
       </c>
-      <c r="E125" s="386"/>
+      <c r="E125" s="380"/>
       <c r="F125" s="214"/>
       <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
@@ -25459,10 +25459,10 @@
       <c r="K125" s="214">
         <v>128</v>
       </c>
-      <c r="L125" s="376"/>
-      <c r="M125" s="376"/>
-      <c r="N125" s="376"/>
-      <c r="O125" s="377"/>
+      <c r="L125" s="381"/>
+      <c r="M125" s="381"/>
+      <c r="N125" s="381"/>
+      <c r="O125" s="382"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25487,12 +25487,12 @@
       </c>
       <c r="J126" s="237"/>
       <c r="K126" s="237"/>
-      <c r="L126" s="378" t="s">
+      <c r="L126" s="419" t="s">
         <v>365</v>
       </c>
-      <c r="M126" s="379"/>
-      <c r="N126" s="379"/>
-      <c r="O126" s="380"/>
+      <c r="M126" s="420"/>
+      <c r="N126" s="420"/>
+      <c r="O126" s="421"/>
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25519,12 +25519,12 @@
         <v>128</v>
       </c>
       <c r="K127" s="237"/>
-      <c r="L127" s="378" t="s">
+      <c r="L127" s="419" t="s">
         <v>367</v>
       </c>
-      <c r="M127" s="379"/>
-      <c r="N127" s="379"/>
-      <c r="O127" s="380"/>
+      <c r="M127" s="420"/>
+      <c r="N127" s="420"/>
+      <c r="O127" s="421"/>
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25535,10 +25535,10 @@
       <c r="C128" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D128" s="385" t="s">
+      <c r="D128" s="379" t="s">
         <v>218</v>
       </c>
-      <c r="E128" s="386"/>
+      <c r="E128" s="380"/>
       <c r="F128" s="214"/>
       <c r="G128" s="214"/>
       <c r="H128" s="214" t="s">
@@ -25551,12 +25551,12 @@
       <c r="K128" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L128" s="376" t="s">
+      <c r="L128" s="381" t="s">
         <v>327</v>
       </c>
-      <c r="M128" s="376"/>
-      <c r="N128" s="376"/>
-      <c r="O128" s="377"/>
+      <c r="M128" s="381"/>
+      <c r="N128" s="381"/>
+      <c r="O128" s="382"/>
       <c r="P128" s="10"/>
     </row>
     <row r="129" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25581,28 +25581,28 @@
       </c>
       <c r="J129" s="237"/>
       <c r="K129" s="237"/>
-      <c r="L129" s="387"/>
-      <c r="M129" s="388"/>
-      <c r="N129" s="388"/>
-      <c r="O129" s="389"/>
+      <c r="L129" s="436"/>
+      <c r="M129" s="437"/>
+      <c r="N129" s="437"/>
+      <c r="O129" s="438"/>
       <c r="P129" s="10"/>
     </row>
     <row r="130" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="29"/>
       <c r="C130" s="30"/>
-      <c r="D130" s="381"/>
-      <c r="E130" s="382"/>
+      <c r="D130" s="383"/>
+      <c r="E130" s="384"/>
       <c r="F130" s="215"/>
       <c r="G130" s="215"/>
       <c r="H130" s="215"/>
       <c r="I130" s="31"/>
       <c r="J130" s="215"/>
       <c r="K130" s="215"/>
-      <c r="L130" s="383"/>
-      <c r="M130" s="383"/>
-      <c r="N130" s="383"/>
-      <c r="O130" s="384"/>
+      <c r="L130" s="385"/>
+      <c r="M130" s="385"/>
+      <c r="N130" s="385"/>
+      <c r="O130" s="386"/>
       <c r="P130" s="10"/>
     </row>
     <row r="131" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25689,10 +25689,10 @@
       <c r="C135" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D135" s="391" t="s">
+      <c r="D135" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E135" s="392"/>
+      <c r="E135" s="388"/>
       <c r="F135" s="25" t="s">
         <v>31</v>
       </c>
@@ -25711,12 +25711,12 @@
       <c r="K135" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L135" s="393" t="s">
+      <c r="L135" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M135" s="393"/>
-      <c r="N135" s="393"/>
-      <c r="O135" s="394"/>
+      <c r="M135" s="389"/>
+      <c r="N135" s="389"/>
+      <c r="O135" s="390"/>
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
@@ -25727,10 +25727,10 @@
       <c r="C136" s="233" t="s">
         <v>289</v>
       </c>
-      <c r="D136" s="395" t="s">
+      <c r="D136" s="391" t="s">
         <v>297</v>
       </c>
-      <c r="E136" s="396"/>
+      <c r="E136" s="392"/>
       <c r="F136" s="214" t="s">
         <v>191</v>
       </c>
@@ -25745,12 +25745,12 @@
         <v>12</v>
       </c>
       <c r="K136" s="214"/>
-      <c r="L136" s="410" t="s">
+      <c r="L136" s="433" t="s">
         <v>290</v>
       </c>
-      <c r="M136" s="411"/>
-      <c r="N136" s="411"/>
-      <c r="O136" s="412"/>
+      <c r="M136" s="434"/>
+      <c r="N136" s="434"/>
+      <c r="O136" s="435"/>
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25761,10 +25761,10 @@
       <c r="C137" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D137" s="385" t="s">
+      <c r="D137" s="379" t="s">
         <v>298</v>
       </c>
-      <c r="E137" s="386"/>
+      <c r="E137" s="380"/>
       <c r="F137" s="214"/>
       <c r="G137" s="214"/>
       <c r="H137" s="214"/>
@@ -25775,10 +25775,10 @@
         <v>255</v>
       </c>
       <c r="K137" s="214"/>
-      <c r="L137" s="402"/>
-      <c r="M137" s="402"/>
-      <c r="N137" s="402"/>
-      <c r="O137" s="403"/>
+      <c r="L137" s="431"/>
+      <c r="M137" s="431"/>
+      <c r="N137" s="431"/>
+      <c r="O137" s="432"/>
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25789,10 +25789,10 @@
       <c r="C138" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D138" s="385" t="s">
+      <c r="D138" s="379" t="s">
         <v>299</v>
       </c>
-      <c r="E138" s="386"/>
+      <c r="E138" s="380"/>
       <c r="F138" s="214"/>
       <c r="G138" s="214"/>
       <c r="H138" s="214" t="s">
@@ -25805,10 +25805,10 @@
         <v>30</v>
       </c>
       <c r="K138" s="214"/>
-      <c r="L138" s="402"/>
-      <c r="M138" s="402"/>
-      <c r="N138" s="402"/>
-      <c r="O138" s="403"/>
+      <c r="L138" s="431"/>
+      <c r="M138" s="431"/>
+      <c r="N138" s="431"/>
+      <c r="O138" s="432"/>
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25819,10 +25819,10 @@
       <c r="C139" s="262" t="s">
         <v>278</v>
       </c>
-      <c r="D139" s="374" t="s">
+      <c r="D139" s="365" t="s">
         <v>301</v>
       </c>
-      <c r="E139" s="375"/>
+      <c r="E139" s="366"/>
       <c r="F139" s="265"/>
       <c r="G139" s="265"/>
       <c r="H139" s="265"/>
@@ -25833,10 +25833,10 @@
         <v>20</v>
       </c>
       <c r="K139" s="265"/>
-      <c r="L139" s="404"/>
-      <c r="M139" s="405"/>
-      <c r="N139" s="405"/>
-      <c r="O139" s="406"/>
+      <c r="L139" s="441"/>
+      <c r="M139" s="442"/>
+      <c r="N139" s="442"/>
+      <c r="O139" s="443"/>
       <c r="P139" s="267"/>
     </row>
     <row r="140" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25847,10 +25847,10 @@
       <c r="C140" s="262" t="s">
         <v>279</v>
       </c>
-      <c r="D140" s="374" t="s">
+      <c r="D140" s="365" t="s">
         <v>302</v>
       </c>
-      <c r="E140" s="375"/>
+      <c r="E140" s="366"/>
       <c r="F140" s="265"/>
       <c r="G140" s="265"/>
       <c r="H140" s="265"/>
@@ -25859,12 +25859,12 @@
       </c>
       <c r="J140" s="265"/>
       <c r="K140" s="292"/>
-      <c r="L140" s="407" t="s">
+      <c r="L140" s="444" t="s">
         <v>292</v>
       </c>
-      <c r="M140" s="408"/>
-      <c r="N140" s="408"/>
-      <c r="O140" s="409"/>
+      <c r="M140" s="445"/>
+      <c r="N140" s="445"/>
+      <c r="O140" s="446"/>
       <c r="P140" s="267"/>
     </row>
     <row r="141" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25875,10 +25875,10 @@
       <c r="C141" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D141" s="385" t="s">
+      <c r="D141" s="379" t="s">
         <v>302</v>
       </c>
-      <c r="E141" s="386"/>
+      <c r="E141" s="380"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
@@ -25887,12 +25887,12 @@
       </c>
       <c r="J141" s="214"/>
       <c r="K141" s="241"/>
-      <c r="L141" s="399" t="s">
+      <c r="L141" s="425" t="s">
         <v>291</v>
       </c>
-      <c r="M141" s="400"/>
-      <c r="N141" s="400"/>
-      <c r="O141" s="401"/>
+      <c r="M141" s="426"/>
+      <c r="N141" s="426"/>
+      <c r="O141" s="427"/>
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25903,10 +25903,10 @@
       <c r="C142" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D142" s="385" t="s">
+      <c r="D142" s="379" t="s">
         <v>302</v>
       </c>
-      <c r="E142" s="386"/>
+      <c r="E142" s="380"/>
       <c r="F142" s="214"/>
       <c r="G142" s="214"/>
       <c r="H142" s="214"/>
@@ -25917,10 +25917,10 @@
         <v>128</v>
       </c>
       <c r="K142" s="241"/>
-      <c r="L142" s="399"/>
-      <c r="M142" s="400"/>
-      <c r="N142" s="400"/>
-      <c r="O142" s="401"/>
+      <c r="L142" s="425"/>
+      <c r="M142" s="426"/>
+      <c r="N142" s="426"/>
+      <c r="O142" s="427"/>
       <c r="P142" s="10"/>
     </row>
     <row r="143" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25931,10 +25931,10 @@
       <c r="C143" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D143" s="385" t="s">
+      <c r="D143" s="379" t="s">
         <v>303</v>
       </c>
-      <c r="E143" s="386"/>
+      <c r="E143" s="380"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
@@ -25945,12 +25945,12 @@
         <v>255</v>
       </c>
       <c r="K143" s="241"/>
-      <c r="L143" s="399" t="s">
+      <c r="L143" s="425" t="s">
         <v>293</v>
       </c>
-      <c r="M143" s="400"/>
-      <c r="N143" s="400"/>
-      <c r="O143" s="401"/>
+      <c r="M143" s="426"/>
+      <c r="N143" s="426"/>
+      <c r="O143" s="427"/>
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25961,10 +25961,10 @@
       <c r="C144" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D144" s="385" t="s">
+      <c r="D144" s="379" t="s">
         <v>304</v>
       </c>
-      <c r="E144" s="386"/>
+      <c r="E144" s="380"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
@@ -25975,12 +25975,12 @@
         <v>255</v>
       </c>
       <c r="K144" s="241"/>
-      <c r="L144" s="399" t="s">
+      <c r="L144" s="425" t="s">
         <v>294</v>
       </c>
-      <c r="M144" s="400"/>
-      <c r="N144" s="400"/>
-      <c r="O144" s="401"/>
+      <c r="M144" s="426"/>
+      <c r="N144" s="426"/>
+      <c r="O144" s="427"/>
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26017,10 +26017,10 @@
       <c r="C146" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D146" s="385" t="s">
+      <c r="D146" s="379" t="s">
         <v>305</v>
       </c>
-      <c r="E146" s="386"/>
+      <c r="E146" s="380"/>
       <c r="F146" s="214"/>
       <c r="G146" s="214"/>
       <c r="H146" s="214"/>
@@ -26029,12 +26029,12 @@
       </c>
       <c r="J146" s="214"/>
       <c r="K146" s="241"/>
-      <c r="L146" s="402" t="s">
+      <c r="L146" s="431" t="s">
         <v>295</v>
       </c>
-      <c r="M146" s="402"/>
-      <c r="N146" s="402"/>
-      <c r="O146" s="403"/>
+      <c r="M146" s="431"/>
+      <c r="N146" s="431"/>
+      <c r="O146" s="432"/>
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26045,10 +26045,10 @@
       <c r="C147" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D147" s="385" t="s">
+      <c r="D147" s="379" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="386"/>
+      <c r="E147" s="380"/>
       <c r="F147" s="214"/>
       <c r="G147" s="214"/>
       <c r="H147" s="214"/>
@@ -26057,12 +26057,12 @@
       </c>
       <c r="J147" s="214"/>
       <c r="K147" s="241"/>
-      <c r="L147" s="402" t="s">
+      <c r="L147" s="431" t="s">
         <v>352</v>
       </c>
-      <c r="M147" s="402"/>
-      <c r="N147" s="402"/>
-      <c r="O147" s="403"/>
+      <c r="M147" s="431"/>
+      <c r="N147" s="431"/>
+      <c r="O147" s="432"/>
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26073,10 +26073,10 @@
       <c r="C148" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D148" s="385" t="s">
+      <c r="D148" s="379" t="s">
         <v>306</v>
       </c>
-      <c r="E148" s="386"/>
+      <c r="E148" s="380"/>
       <c r="F148" s="214"/>
       <c r="G148" s="214"/>
       <c r="H148" s="214"/>
@@ -26085,12 +26085,12 @@
       </c>
       <c r="J148" s="214"/>
       <c r="K148" s="241"/>
-      <c r="L148" s="402" t="s">
+      <c r="L148" s="431" t="s">
         <v>348</v>
       </c>
-      <c r="M148" s="402"/>
-      <c r="N148" s="402"/>
-      <c r="O148" s="403"/>
+      <c r="M148" s="431"/>
+      <c r="N148" s="431"/>
+      <c r="O148" s="432"/>
       <c r="P148" s="10"/>
     </row>
     <row r="149" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26101,10 +26101,10 @@
       <c r="C149" s="236" t="s">
         <v>288</v>
       </c>
-      <c r="D149" s="385" t="s">
+      <c r="D149" s="379" t="s">
         <v>308</v>
       </c>
-      <c r="E149" s="386"/>
+      <c r="E149" s="380"/>
       <c r="F149" s="237"/>
       <c r="G149" s="237"/>
       <c r="H149" s="237"/>
@@ -26115,28 +26115,28 @@
         <v>255</v>
       </c>
       <c r="K149" s="242"/>
-      <c r="L149" s="402"/>
-      <c r="M149" s="402"/>
-      <c r="N149" s="402"/>
-      <c r="O149" s="403"/>
+      <c r="L149" s="431"/>
+      <c r="M149" s="431"/>
+      <c r="N149" s="431"/>
+      <c r="O149" s="432"/>
       <c r="P149" s="10"/>
     </row>
     <row r="150" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9"/>
       <c r="B150" s="29"/>
       <c r="C150" s="30"/>
-      <c r="D150" s="381"/>
-      <c r="E150" s="382"/>
+      <c r="D150" s="383"/>
+      <c r="E150" s="384"/>
       <c r="F150" s="215"/>
       <c r="G150" s="215"/>
       <c r="H150" s="215"/>
       <c r="I150" s="31"/>
       <c r="J150" s="215"/>
       <c r="K150" s="215"/>
-      <c r="L150" s="397"/>
-      <c r="M150" s="397"/>
-      <c r="N150" s="397"/>
-      <c r="O150" s="398"/>
+      <c r="L150" s="439"/>
+      <c r="M150" s="439"/>
+      <c r="N150" s="439"/>
+      <c r="O150" s="440"/>
       <c r="P150" s="10"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
@@ -26241,10 +26241,10 @@
       <c r="C156" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D156" s="391" t="s">
+      <c r="D156" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="392"/>
+      <c r="E156" s="388"/>
       <c r="F156" s="25" t="s">
         <v>31</v>
       </c>
@@ -26263,12 +26263,12 @@
       <c r="K156" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L156" s="393" t="s">
+      <c r="L156" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M156" s="393"/>
-      <c r="N156" s="393"/>
-      <c r="O156" s="394"/>
+      <c r="M156" s="389"/>
+      <c r="N156" s="389"/>
+      <c r="O156" s="390"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26279,10 +26279,10 @@
       <c r="C157" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D157" s="385" t="s">
+      <c r="D157" s="379" t="s">
         <v>313</v>
       </c>
-      <c r="E157" s="386"/>
+      <c r="E157" s="380"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
       <c r="H157" s="214" t="s">
@@ -26295,10 +26295,10 @@
         <v>255</v>
       </c>
       <c r="K157" s="214"/>
-      <c r="L157" s="376"/>
-      <c r="M157" s="376"/>
-      <c r="N157" s="376"/>
-      <c r="O157" s="377"/>
+      <c r="L157" s="381"/>
+      <c r="M157" s="381"/>
+      <c r="N157" s="381"/>
+      <c r="O157" s="382"/>
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26309,10 +26309,10 @@
       <c r="C158" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D158" s="385" t="s">
+      <c r="D158" s="379" t="s">
         <v>314</v>
       </c>
-      <c r="E158" s="386"/>
+      <c r="E158" s="380"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
       <c r="H158" s="214"/>
@@ -26323,10 +26323,10 @@
         <v>255</v>
       </c>
       <c r="K158" s="214"/>
-      <c r="L158" s="376"/>
-      <c r="M158" s="376"/>
-      <c r="N158" s="376"/>
-      <c r="O158" s="377"/>
+      <c r="L158" s="381"/>
+      <c r="M158" s="381"/>
+      <c r="N158" s="381"/>
+      <c r="O158" s="382"/>
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26351,10 +26351,10 @@
         <v>255</v>
       </c>
       <c r="K159" s="214"/>
-      <c r="L159" s="376"/>
-      <c r="M159" s="376"/>
-      <c r="N159" s="376"/>
-      <c r="O159" s="377"/>
+      <c r="L159" s="381"/>
+      <c r="M159" s="381"/>
+      <c r="N159" s="381"/>
+      <c r="O159" s="382"/>
       <c r="P159" s="10"/>
     </row>
     <row r="160" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26365,10 +26365,10 @@
       <c r="C160" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D160" s="385" t="s">
+      <c r="D160" s="379" t="s">
         <v>315</v>
       </c>
-      <c r="E160" s="386"/>
+      <c r="E160" s="380"/>
       <c r="F160" s="214"/>
       <c r="G160" s="214"/>
       <c r="H160" s="214" t="s">
@@ -26379,12 +26379,12 @@
       </c>
       <c r="J160" s="214"/>
       <c r="K160" s="214"/>
-      <c r="L160" s="376" t="s">
+      <c r="L160" s="381" t="s">
         <v>345</v>
       </c>
-      <c r="M160" s="376"/>
-      <c r="N160" s="376"/>
-      <c r="O160" s="377"/>
+      <c r="M160" s="381"/>
+      <c r="N160" s="381"/>
+      <c r="O160" s="382"/>
       <c r="P160" s="10"/>
     </row>
     <row r="161" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26395,10 +26395,10 @@
       <c r="C161" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D161" s="385" t="s">
+      <c r="D161" s="379" t="s">
         <v>317</v>
       </c>
-      <c r="E161" s="386"/>
+      <c r="E161" s="380"/>
       <c r="F161" s="214"/>
       <c r="G161" s="214"/>
       <c r="H161" s="214" t="s">
@@ -26411,30 +26411,30 @@
       <c r="K161" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L161" s="376" t="s">
+      <c r="L161" s="381" t="s">
         <v>268</v>
       </c>
-      <c r="M161" s="376"/>
-      <c r="N161" s="376"/>
-      <c r="O161" s="377"/>
+      <c r="M161" s="381"/>
+      <c r="N161" s="381"/>
+      <c r="O161" s="382"/>
       <c r="P161" s="10"/>
     </row>
     <row r="162" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9"/>
       <c r="B162" s="29"/>
       <c r="C162" s="30"/>
-      <c r="D162" s="381"/>
-      <c r="E162" s="382"/>
+      <c r="D162" s="383"/>
+      <c r="E162" s="384"/>
       <c r="F162" s="215"/>
       <c r="G162" s="215"/>
       <c r="H162" s="215"/>
       <c r="I162" s="31"/>
       <c r="J162" s="215"/>
       <c r="K162" s="215"/>
-      <c r="L162" s="383"/>
-      <c r="M162" s="383"/>
-      <c r="N162" s="383"/>
-      <c r="O162" s="384"/>
+      <c r="L162" s="385"/>
+      <c r="M162" s="385"/>
+      <c r="N162" s="385"/>
+      <c r="O162" s="386"/>
       <c r="P162" s="10"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
@@ -26521,10 +26521,10 @@
       <c r="C167" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D167" s="391" t="s">
+      <c r="D167" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="392"/>
+      <c r="E167" s="388"/>
       <c r="F167" s="25" t="s">
         <v>31</v>
       </c>
@@ -26543,12 +26543,12 @@
       <c r="K167" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L167" s="393" t="s">
+      <c r="L167" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M167" s="393"/>
-      <c r="N167" s="393"/>
-      <c r="O167" s="394"/>
+      <c r="M167" s="389"/>
+      <c r="N167" s="389"/>
+      <c r="O167" s="390"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26559,10 +26559,10 @@
       <c r="C168" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D168" s="385" t="s">
+      <c r="D168" s="379" t="s">
         <v>318</v>
       </c>
-      <c r="E168" s="386"/>
+      <c r="E168" s="380"/>
       <c r="F168" s="214"/>
       <c r="G168" s="214"/>
       <c r="H168" s="214" t="s">
@@ -26575,10 +26575,10 @@
         <v>255</v>
       </c>
       <c r="K168" s="214"/>
-      <c r="L168" s="376"/>
-      <c r="M168" s="376"/>
-      <c r="N168" s="376"/>
-      <c r="O168" s="377"/>
+      <c r="L168" s="381"/>
+      <c r="M168" s="381"/>
+      <c r="N168" s="381"/>
+      <c r="O168" s="382"/>
       <c r="P168" s="10"/>
     </row>
     <row r="169" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26589,10 +26589,10 @@
       <c r="C169" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D169" s="385" t="s">
+      <c r="D169" s="379" t="s">
         <v>319</v>
       </c>
-      <c r="E169" s="386"/>
+      <c r="E169" s="380"/>
       <c r="F169" s="214"/>
       <c r="G169" s="214"/>
       <c r="H169" s="214"/>
@@ -26603,10 +26603,10 @@
         <v>255</v>
       </c>
       <c r="K169" s="214"/>
-      <c r="L169" s="376"/>
-      <c r="M169" s="376"/>
-      <c r="N169" s="376"/>
-      <c r="O169" s="377"/>
+      <c r="L169" s="381"/>
+      <c r="M169" s="381"/>
+      <c r="N169" s="381"/>
+      <c r="O169" s="382"/>
       <c r="P169" s="10"/>
     </row>
     <row r="170" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26631,30 +26631,30 @@
       <c r="K170" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L170" s="376" t="s">
+      <c r="L170" s="381" t="s">
         <v>321</v>
       </c>
-      <c r="M170" s="376"/>
-      <c r="N170" s="376"/>
-      <c r="O170" s="377"/>
+      <c r="M170" s="381"/>
+      <c r="N170" s="381"/>
+      <c r="O170" s="382"/>
       <c r="P170" s="10"/>
     </row>
     <row r="171" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="9"/>
       <c r="B171" s="29"/>
       <c r="C171" s="30"/>
-      <c r="D171" s="381"/>
-      <c r="E171" s="382"/>
+      <c r="D171" s="383"/>
+      <c r="E171" s="384"/>
       <c r="F171" s="215"/>
       <c r="G171" s="215"/>
       <c r="H171" s="215"/>
       <c r="I171" s="31"/>
       <c r="J171" s="215"/>
       <c r="K171" s="215"/>
-      <c r="L171" s="383"/>
-      <c r="M171" s="383"/>
-      <c r="N171" s="383"/>
-      <c r="O171" s="384"/>
+      <c r="L171" s="385"/>
+      <c r="M171" s="385"/>
+      <c r="N171" s="385"/>
+      <c r="O171" s="386"/>
       <c r="P171" s="10"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
@@ -26741,10 +26741,10 @@
       <c r="C176" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="391" t="s">
+      <c r="D176" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E176" s="392"/>
+      <c r="E176" s="388"/>
       <c r="F176" s="25" t="s">
         <v>31</v>
       </c>
@@ -26763,12 +26763,12 @@
       <c r="K176" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L176" s="393" t="s">
+      <c r="L176" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M176" s="393"/>
-      <c r="N176" s="393"/>
-      <c r="O176" s="394"/>
+      <c r="M176" s="389"/>
+      <c r="N176" s="389"/>
+      <c r="O176" s="390"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26779,10 +26779,10 @@
       <c r="C177" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D177" s="385" t="s">
+      <c r="D177" s="379" t="s">
         <v>318</v>
       </c>
-      <c r="E177" s="386"/>
+      <c r="E177" s="380"/>
       <c r="F177" s="214"/>
       <c r="G177" s="214"/>
       <c r="H177" s="214" t="s">
@@ -26795,10 +26795,10 @@
         <v>255</v>
       </c>
       <c r="K177" s="214"/>
-      <c r="L177" s="376"/>
-      <c r="M177" s="376"/>
-      <c r="N177" s="376"/>
-      <c r="O177" s="377"/>
+      <c r="L177" s="381"/>
+      <c r="M177" s="381"/>
+      <c r="N177" s="381"/>
+      <c r="O177" s="382"/>
       <c r="P177" s="10"/>
     </row>
     <row r="178" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26809,10 +26809,10 @@
       <c r="C178" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D178" s="385" t="s">
+      <c r="D178" s="379" t="s">
         <v>319</v>
       </c>
-      <c r="E178" s="386"/>
+      <c r="E178" s="380"/>
       <c r="F178" s="214"/>
       <c r="G178" s="214"/>
       <c r="H178" s="214"/>
@@ -26823,10 +26823,10 @@
         <v>255</v>
       </c>
       <c r="K178" s="214"/>
-      <c r="L178" s="376"/>
-      <c r="M178" s="376"/>
-      <c r="N178" s="376"/>
-      <c r="O178" s="377"/>
+      <c r="L178" s="381"/>
+      <c r="M178" s="381"/>
+      <c r="N178" s="381"/>
+      <c r="O178" s="382"/>
       <c r="P178" s="10"/>
     </row>
     <row r="179" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26851,30 +26851,30 @@
       <c r="K179" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L179" s="376" t="s">
+      <c r="L179" s="381" t="s">
         <v>266</v>
       </c>
-      <c r="M179" s="376"/>
-      <c r="N179" s="376"/>
-      <c r="O179" s="377"/>
+      <c r="M179" s="381"/>
+      <c r="N179" s="381"/>
+      <c r="O179" s="382"/>
       <c r="P179" s="10"/>
     </row>
     <row r="180" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="9"/>
       <c r="B180" s="29"/>
       <c r="C180" s="30"/>
-      <c r="D180" s="381"/>
-      <c r="E180" s="382"/>
+      <c r="D180" s="383"/>
+      <c r="E180" s="384"/>
       <c r="F180" s="215"/>
       <c r="G180" s="215"/>
       <c r="H180" s="215"/>
       <c r="I180" s="31"/>
       <c r="J180" s="215"/>
       <c r="K180" s="215"/>
-      <c r="L180" s="383"/>
-      <c r="M180" s="383"/>
-      <c r="N180" s="383"/>
-      <c r="O180" s="384"/>
+      <c r="L180" s="385"/>
+      <c r="M180" s="385"/>
+      <c r="N180" s="385"/>
+      <c r="O180" s="386"/>
       <c r="P180" s="10"/>
     </row>
     <row r="181" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26961,10 +26961,10 @@
       <c r="C185" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D185" s="391" t="s">
+      <c r="D185" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E185" s="392"/>
+      <c r="E185" s="388"/>
       <c r="F185" s="25" t="s">
         <v>31</v>
       </c>
@@ -26983,12 +26983,12 @@
       <c r="K185" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L185" s="393" t="s">
+      <c r="L185" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M185" s="393"/>
-      <c r="N185" s="393"/>
-      <c r="O185" s="394"/>
+      <c r="M185" s="389"/>
+      <c r="N185" s="389"/>
+      <c r="O185" s="390"/>
       <c r="P185" s="10"/>
     </row>
     <row r="186" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26999,10 +26999,10 @@
       <c r="C186" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="D186" s="385" t="s">
+      <c r="D186" s="379" t="s">
         <v>326</v>
       </c>
-      <c r="E186" s="386"/>
+      <c r="E186" s="380"/>
       <c r="F186" s="214"/>
       <c r="G186" s="214"/>
       <c r="H186" s="214" t="s">
@@ -27015,10 +27015,10 @@
         <v>255</v>
       </c>
       <c r="K186" s="214"/>
-      <c r="L186" s="376"/>
-      <c r="M186" s="376"/>
-      <c r="N186" s="376"/>
-      <c r="O186" s="377"/>
+      <c r="L186" s="381"/>
+      <c r="M186" s="381"/>
+      <c r="N186" s="381"/>
+      <c r="O186" s="382"/>
       <c r="P186" s="10"/>
     </row>
     <row r="187" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27029,10 +27029,10 @@
       <c r="C187" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D187" s="385" t="s">
+      <c r="D187" s="379" t="s">
         <v>409</v>
       </c>
-      <c r="E187" s="386"/>
+      <c r="E187" s="380"/>
       <c r="F187" s="214"/>
       <c r="G187" s="214"/>
       <c r="H187" s="214"/>
@@ -27043,28 +27043,28 @@
         <v>255</v>
       </c>
       <c r="K187" s="214"/>
-      <c r="L187" s="376"/>
-      <c r="M187" s="376"/>
-      <c r="N187" s="376"/>
-      <c r="O187" s="377"/>
+      <c r="L187" s="381"/>
+      <c r="M187" s="381"/>
+      <c r="N187" s="381"/>
+      <c r="O187" s="382"/>
       <c r="P187" s="10"/>
     </row>
     <row r="188" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9"/>
       <c r="B188" s="29"/>
       <c r="C188" s="30"/>
-      <c r="D188" s="381"/>
-      <c r="E188" s="382"/>
+      <c r="D188" s="383"/>
+      <c r="E188" s="384"/>
       <c r="F188" s="215"/>
       <c r="G188" s="215"/>
       <c r="H188" s="215"/>
       <c r="I188" s="31"/>
       <c r="J188" s="215"/>
       <c r="K188" s="215"/>
-      <c r="L188" s="383"/>
-      <c r="M188" s="383"/>
-      <c r="N188" s="383"/>
-      <c r="O188" s="384"/>
+      <c r="L188" s="385"/>
+      <c r="M188" s="385"/>
+      <c r="N188" s="385"/>
+      <c r="O188" s="386"/>
       <c r="P188" s="10"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
@@ -27169,10 +27169,10 @@
       <c r="C194" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D194" s="391" t="s">
+      <c r="D194" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E194" s="392"/>
+      <c r="E194" s="388"/>
       <c r="F194" s="25" t="s">
         <v>31</v>
       </c>
@@ -27191,12 +27191,12 @@
       <c r="K194" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L194" s="393" t="s">
+      <c r="L194" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M194" s="393"/>
-      <c r="N194" s="393"/>
-      <c r="O194" s="394"/>
+      <c r="M194" s="389"/>
+      <c r="N194" s="389"/>
+      <c r="O194" s="390"/>
       <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27207,10 +27207,10 @@
       <c r="C195" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D195" s="385" t="s">
+      <c r="D195" s="379" t="s">
         <v>338</v>
       </c>
-      <c r="E195" s="386"/>
+      <c r="E195" s="380"/>
       <c r="F195" s="214"/>
       <c r="G195" s="214"/>
       <c r="H195" s="214" t="s">
@@ -27223,10 +27223,10 @@
         <v>255</v>
       </c>
       <c r="K195" s="214"/>
-      <c r="L195" s="376"/>
-      <c r="M195" s="376"/>
-      <c r="N195" s="376"/>
-      <c r="O195" s="377"/>
+      <c r="L195" s="381"/>
+      <c r="M195" s="381"/>
+      <c r="N195" s="381"/>
+      <c r="O195" s="382"/>
       <c r="P195" s="10"/>
     </row>
     <row r="196" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -27251,12 +27251,12 @@
       </c>
       <c r="J196" s="265"/>
       <c r="K196" s="265"/>
-      <c r="L196" s="368" t="s">
+      <c r="L196" s="367" t="s">
         <v>292</v>
       </c>
-      <c r="M196" s="368"/>
-      <c r="N196" s="368"/>
-      <c r="O196" s="369"/>
+      <c r="M196" s="367"/>
+      <c r="N196" s="367"/>
+      <c r="O196" s="368"/>
       <c r="P196" s="267"/>
     </row>
     <row r="197" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27267,10 +27267,10 @@
       <c r="C197" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="D197" s="385" t="s">
+      <c r="D197" s="379" t="s">
         <v>339</v>
       </c>
-      <c r="E197" s="386"/>
+      <c r="E197" s="380"/>
       <c r="F197" s="214"/>
       <c r="G197" s="214"/>
       <c r="H197" s="214" t="s">
@@ -27281,12 +27281,12 @@
       </c>
       <c r="J197" s="214"/>
       <c r="K197" s="214"/>
-      <c r="L197" s="376" t="s">
+      <c r="L197" s="381" t="s">
         <v>340</v>
       </c>
-      <c r="M197" s="376"/>
-      <c r="N197" s="376"/>
-      <c r="O197" s="377"/>
+      <c r="M197" s="381"/>
+      <c r="N197" s="381"/>
+      <c r="O197" s="382"/>
       <c r="P197" s="10"/>
     </row>
     <row r="198" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -27297,10 +27297,10 @@
       <c r="C198" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D198" s="413" t="s">
+      <c r="D198" s="394" t="s">
         <v>245</v>
       </c>
-      <c r="E198" s="414"/>
+      <c r="E198" s="395"/>
       <c r="F198" s="215"/>
       <c r="G198" s="215"/>
       <c r="H198" s="215"/>
@@ -27311,10 +27311,10 @@
         <v>255</v>
       </c>
       <c r="K198" s="215"/>
-      <c r="L198" s="383"/>
-      <c r="M198" s="383"/>
-      <c r="N198" s="383"/>
-      <c r="O198" s="384"/>
+      <c r="L198" s="385"/>
+      <c r="M198" s="385"/>
+      <c r="N198" s="385"/>
+      <c r="O198" s="386"/>
       <c r="P198" s="10"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
@@ -27401,10 +27401,10 @@
       <c r="C203" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D203" s="391" t="s">
+      <c r="D203" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E203" s="392"/>
+      <c r="E203" s="388"/>
       <c r="F203" s="25" t="s">
         <v>31</v>
       </c>
@@ -27423,12 +27423,12 @@
       <c r="K203" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L203" s="393" t="s">
+      <c r="L203" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M203" s="393"/>
-      <c r="N203" s="393"/>
-      <c r="O203" s="394"/>
+      <c r="M203" s="389"/>
+      <c r="N203" s="389"/>
+      <c r="O203" s="390"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27439,10 +27439,10 @@
       <c r="C204" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D204" s="385" t="s">
+      <c r="D204" s="379" t="s">
         <v>410</v>
       </c>
-      <c r="E204" s="386"/>
+      <c r="E204" s="380"/>
       <c r="F204" s="214"/>
       <c r="G204" s="214"/>
       <c r="H204" s="214" t="s">
@@ -27455,12 +27455,12 @@
         <v>255</v>
       </c>
       <c r="K204" s="214"/>
-      <c r="L204" s="376" t="s">
+      <c r="L204" s="381" t="s">
         <v>362</v>
       </c>
-      <c r="M204" s="376"/>
-      <c r="N204" s="376"/>
-      <c r="O204" s="377"/>
+      <c r="M204" s="381"/>
+      <c r="N204" s="381"/>
+      <c r="O204" s="382"/>
       <c r="P204" s="10"/>
     </row>
     <row r="205" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27471,10 +27471,10 @@
       <c r="C205" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="D205" s="385" t="s">
+      <c r="D205" s="379" t="s">
         <v>339</v>
       </c>
-      <c r="E205" s="386"/>
+      <c r="E205" s="380"/>
       <c r="F205" s="214"/>
       <c r="G205" s="214"/>
       <c r="H205" s="214" t="s">
@@ -27485,10 +27485,10 @@
       </c>
       <c r="J205" s="214"/>
       <c r="K205" s="214"/>
-      <c r="L205" s="376"/>
-      <c r="M205" s="376"/>
-      <c r="N205" s="376"/>
-      <c r="O205" s="377"/>
+      <c r="L205" s="381"/>
+      <c r="M205" s="381"/>
+      <c r="N205" s="381"/>
+      <c r="O205" s="382"/>
       <c r="P205" s="10"/>
     </row>
     <row r="206" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27513,28 +27513,28 @@
         <v>255</v>
       </c>
       <c r="K206" s="237"/>
-      <c r="L206" s="376"/>
-      <c r="M206" s="376"/>
-      <c r="N206" s="376"/>
-      <c r="O206" s="377"/>
+      <c r="L206" s="381"/>
+      <c r="M206" s="381"/>
+      <c r="N206" s="381"/>
+      <c r="O206" s="382"/>
       <c r="P206" s="10"/>
     </row>
     <row r="207" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9"/>
       <c r="B207" s="29"/>
       <c r="C207" s="30"/>
-      <c r="D207" s="381"/>
-      <c r="E207" s="382"/>
+      <c r="D207" s="383"/>
+      <c r="E207" s="384"/>
       <c r="F207" s="215"/>
       <c r="G207" s="215"/>
       <c r="H207" s="215"/>
       <c r="I207" s="31"/>
       <c r="J207" s="215"/>
       <c r="K207" s="215"/>
-      <c r="L207" s="383"/>
-      <c r="M207" s="383"/>
-      <c r="N207" s="383"/>
-      <c r="O207" s="384"/>
+      <c r="L207" s="385"/>
+      <c r="M207" s="385"/>
+      <c r="N207" s="385"/>
+      <c r="O207" s="386"/>
       <c r="P207" s="10"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
@@ -27621,10 +27621,10 @@
       <c r="C212" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D212" s="391" t="s">
+      <c r="D212" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E212" s="392"/>
+      <c r="E212" s="388"/>
       <c r="F212" s="25" t="s">
         <v>31</v>
       </c>
@@ -27643,12 +27643,12 @@
       <c r="K212" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L212" s="393" t="s">
+      <c r="L212" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M212" s="393"/>
-      <c r="N212" s="393"/>
-      <c r="O212" s="394"/>
+      <c r="M212" s="389"/>
+      <c r="N212" s="389"/>
+      <c r="O212" s="390"/>
       <c r="P212" s="10"/>
     </row>
     <row r="213" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27659,10 +27659,10 @@
       <c r="C213" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="D213" s="385" t="s">
+      <c r="D213" s="379" t="s">
         <v>412</v>
       </c>
-      <c r="E213" s="386"/>
+      <c r="E213" s="380"/>
       <c r="F213" s="214"/>
       <c r="G213" s="214"/>
       <c r="H213" s="214" t="s">
@@ -27675,12 +27675,12 @@
         <v>255</v>
       </c>
       <c r="K213" s="214"/>
-      <c r="L213" s="376" t="s">
+      <c r="L213" s="381" t="s">
         <v>347</v>
       </c>
-      <c r="M213" s="376"/>
-      <c r="N213" s="376"/>
-      <c r="O213" s="377"/>
+      <c r="M213" s="381"/>
+      <c r="N213" s="381"/>
+      <c r="O213" s="382"/>
       <c r="P213" s="10"/>
     </row>
     <row r="214" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27705,28 +27705,28 @@
         <v>255</v>
       </c>
       <c r="K214" s="237"/>
-      <c r="L214" s="376"/>
-      <c r="M214" s="376"/>
-      <c r="N214" s="376"/>
-      <c r="O214" s="377"/>
+      <c r="L214" s="381"/>
+      <c r="M214" s="381"/>
+      <c r="N214" s="381"/>
+      <c r="O214" s="382"/>
       <c r="P214" s="10"/>
     </row>
     <row r="215" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="9"/>
       <c r="B215" s="29"/>
       <c r="C215" s="30"/>
-      <c r="D215" s="381"/>
-      <c r="E215" s="382"/>
+      <c r="D215" s="383"/>
+      <c r="E215" s="384"/>
       <c r="F215" s="215"/>
       <c r="G215" s="215"/>
       <c r="H215" s="215"/>
       <c r="I215" s="31"/>
       <c r="J215" s="215"/>
       <c r="K215" s="215"/>
-      <c r="L215" s="383"/>
-      <c r="M215" s="383"/>
-      <c r="N215" s="383"/>
-      <c r="O215" s="384"/>
+      <c r="L215" s="385"/>
+      <c r="M215" s="385"/>
+      <c r="N215" s="385"/>
+      <c r="O215" s="386"/>
       <c r="P215" s="10"/>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
@@ -27813,10 +27813,10 @@
       <c r="C220" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D220" s="391" t="s">
+      <c r="D220" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E220" s="392"/>
+      <c r="E220" s="388"/>
       <c r="F220" s="25" t="s">
         <v>31</v>
       </c>
@@ -27835,12 +27835,12 @@
       <c r="K220" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L220" s="393" t="s">
+      <c r="L220" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M220" s="393"/>
-      <c r="N220" s="393"/>
-      <c r="O220" s="394"/>
+      <c r="M220" s="389"/>
+      <c r="N220" s="389"/>
+      <c r="O220" s="390"/>
       <c r="P220" s="10"/>
     </row>
     <row r="221" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27851,10 +27851,10 @@
       <c r="C221" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D221" s="385" t="s">
+      <c r="D221" s="379" t="s">
         <v>350</v>
       </c>
-      <c r="E221" s="386"/>
+      <c r="E221" s="380"/>
       <c r="F221" s="214"/>
       <c r="G221" s="214"/>
       <c r="H221" s="214" t="s">
@@ -27867,12 +27867,12 @@
         <v>255</v>
       </c>
       <c r="K221" s="214"/>
-      <c r="L221" s="376" t="s">
+      <c r="L221" s="381" t="s">
         <v>351</v>
       </c>
-      <c r="M221" s="376"/>
-      <c r="N221" s="376"/>
-      <c r="O221" s="377"/>
+      <c r="M221" s="381"/>
+      <c r="N221" s="381"/>
+      <c r="O221" s="382"/>
       <c r="P221" s="10"/>
     </row>
     <row r="222" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27897,28 +27897,28 @@
         <v>255</v>
       </c>
       <c r="K222" s="237"/>
-      <c r="L222" s="376"/>
-      <c r="M222" s="376"/>
-      <c r="N222" s="376"/>
-      <c r="O222" s="377"/>
+      <c r="L222" s="381"/>
+      <c r="M222" s="381"/>
+      <c r="N222" s="381"/>
+      <c r="O222" s="382"/>
       <c r="P222" s="10"/>
     </row>
     <row r="223" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="9"/>
       <c r="B223" s="29"/>
       <c r="C223" s="30"/>
-      <c r="D223" s="381"/>
-      <c r="E223" s="382"/>
+      <c r="D223" s="383"/>
+      <c r="E223" s="384"/>
       <c r="F223" s="215"/>
       <c r="G223" s="215"/>
       <c r="H223" s="215"/>
       <c r="I223" s="31"/>
       <c r="J223" s="215"/>
       <c r="K223" s="215"/>
-      <c r="L223" s="383"/>
-      <c r="M223" s="383"/>
-      <c r="N223" s="383"/>
-      <c r="O223" s="384"/>
+      <c r="L223" s="385"/>
+      <c r="M223" s="385"/>
+      <c r="N223" s="385"/>
+      <c r="O223" s="386"/>
       <c r="P223" s="10"/>
     </row>
     <row r="224" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28005,10 +28005,10 @@
       <c r="C228" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D228" s="391" t="s">
+      <c r="D228" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E228" s="392"/>
+      <c r="E228" s="388"/>
       <c r="F228" s="25" t="s">
         <v>31</v>
       </c>
@@ -28027,12 +28027,12 @@
       <c r="K228" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L228" s="393" t="s">
+      <c r="L228" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M228" s="393"/>
-      <c r="N228" s="393"/>
-      <c r="O228" s="394"/>
+      <c r="M228" s="389"/>
+      <c r="N228" s="389"/>
+      <c r="O228" s="390"/>
       <c r="P228" s="10"/>
     </row>
     <row r="229" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28043,10 +28043,10 @@
       <c r="C229" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="D229" s="385" t="s">
+      <c r="D229" s="379" t="s">
         <v>388</v>
       </c>
-      <c r="E229" s="386"/>
+      <c r="E229" s="380"/>
       <c r="F229" s="214"/>
       <c r="G229" s="214"/>
       <c r="H229" s="214" t="s">
@@ -28059,12 +28059,12 @@
         <v>255</v>
       </c>
       <c r="K229" s="214"/>
-      <c r="L229" s="376" t="s">
+      <c r="L229" s="381" t="s">
         <v>389</v>
       </c>
-      <c r="M229" s="376"/>
-      <c r="N229" s="376"/>
-      <c r="O229" s="377"/>
+      <c r="M229" s="381"/>
+      <c r="N229" s="381"/>
+      <c r="O229" s="382"/>
       <c r="P229" s="10"/>
     </row>
     <row r="230" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28089,28 +28089,28 @@
         <v>255</v>
       </c>
       <c r="K230" s="237"/>
-      <c r="L230" s="376"/>
-      <c r="M230" s="376"/>
-      <c r="N230" s="376"/>
-      <c r="O230" s="377"/>
+      <c r="L230" s="381"/>
+      <c r="M230" s="381"/>
+      <c r="N230" s="381"/>
+      <c r="O230" s="382"/>
       <c r="P230" s="10"/>
     </row>
     <row r="231" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="9"/>
       <c r="B231" s="29"/>
       <c r="C231" s="30"/>
-      <c r="D231" s="381"/>
-      <c r="E231" s="382"/>
+      <c r="D231" s="383"/>
+      <c r="E231" s="384"/>
       <c r="F231" s="215"/>
       <c r="G231" s="215"/>
       <c r="H231" s="215"/>
       <c r="I231" s="31"/>
       <c r="J231" s="215"/>
       <c r="K231" s="215"/>
-      <c r="L231" s="383"/>
-      <c r="M231" s="383"/>
-      <c r="N231" s="383"/>
-      <c r="O231" s="384"/>
+      <c r="L231" s="385"/>
+      <c r="M231" s="385"/>
+      <c r="N231" s="385"/>
+      <c r="O231" s="386"/>
       <c r="P231" s="10"/>
     </row>
     <row r="232" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28197,10 +28197,10 @@
       <c r="C236" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D236" s="391" t="s">
+      <c r="D236" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E236" s="392"/>
+      <c r="E236" s="388"/>
       <c r="F236" s="25" t="s">
         <v>31</v>
       </c>
@@ -28219,12 +28219,12 @@
       <c r="K236" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L236" s="393" t="s">
+      <c r="L236" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M236" s="393"/>
-      <c r="N236" s="393"/>
-      <c r="O236" s="394"/>
+      <c r="M236" s="389"/>
+      <c r="N236" s="389"/>
+      <c r="O236" s="390"/>
       <c r="P236" s="10"/>
     </row>
     <row r="237" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28235,10 +28235,10 @@
       <c r="C237" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="D237" s="385" t="s">
+      <c r="D237" s="379" t="s">
         <v>350</v>
       </c>
-      <c r="E237" s="386"/>
+      <c r="E237" s="380"/>
       <c r="F237" s="214"/>
       <c r="G237" s="214"/>
       <c r="H237" s="214" t="s">
@@ -28251,12 +28251,12 @@
         <v>255</v>
       </c>
       <c r="K237" s="214"/>
-      <c r="L237" s="376" t="s">
+      <c r="L237" s="381" t="s">
         <v>355</v>
       </c>
-      <c r="M237" s="376"/>
-      <c r="N237" s="376"/>
-      <c r="O237" s="377"/>
+      <c r="M237" s="381"/>
+      <c r="N237" s="381"/>
+      <c r="O237" s="382"/>
       <c r="P237" s="10"/>
     </row>
     <row r="238" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28281,28 +28281,28 @@
         <v>255</v>
       </c>
       <c r="K238" s="237"/>
-      <c r="L238" s="390"/>
-      <c r="M238" s="376"/>
-      <c r="N238" s="376"/>
-      <c r="O238" s="377"/>
+      <c r="L238" s="393"/>
+      <c r="M238" s="381"/>
+      <c r="N238" s="381"/>
+      <c r="O238" s="382"/>
       <c r="P238" s="10"/>
     </row>
     <row r="239" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="9"/>
       <c r="B239" s="29"/>
       <c r="C239" s="30"/>
-      <c r="D239" s="381"/>
-      <c r="E239" s="382"/>
+      <c r="D239" s="383"/>
+      <c r="E239" s="384"/>
       <c r="F239" s="215"/>
       <c r="G239" s="215"/>
       <c r="H239" s="215"/>
       <c r="I239" s="31"/>
       <c r="J239" s="215"/>
       <c r="K239" s="215"/>
-      <c r="L239" s="383"/>
-      <c r="M239" s="383"/>
-      <c r="N239" s="383"/>
-      <c r="O239" s="384"/>
+      <c r="L239" s="385"/>
+      <c r="M239" s="385"/>
+      <c r="N239" s="385"/>
+      <c r="O239" s="386"/>
       <c r="P239" s="10"/>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.2">
@@ -28389,10 +28389,10 @@
       <c r="C244" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D244" s="391" t="s">
+      <c r="D244" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E244" s="392"/>
+      <c r="E244" s="388"/>
       <c r="F244" s="25" t="s">
         <v>31</v>
       </c>
@@ -28411,12 +28411,12 @@
       <c r="K244" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L244" s="393" t="s">
+      <c r="L244" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M244" s="393"/>
-      <c r="N244" s="393"/>
-      <c r="O244" s="394"/>
+      <c r="M244" s="389"/>
+      <c r="N244" s="389"/>
+      <c r="O244" s="390"/>
       <c r="P244" s="10"/>
     </row>
     <row r="245" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -28427,10 +28427,10 @@
       <c r="C245" s="233" t="s">
         <v>357</v>
       </c>
-      <c r="D245" s="395" t="s">
+      <c r="D245" s="391" t="s">
         <v>226</v>
       </c>
-      <c r="E245" s="396"/>
+      <c r="E245" s="392"/>
       <c r="F245" s="214"/>
       <c r="G245" s="214"/>
       <c r="H245" s="214" t="s">
@@ -28443,12 +28443,12 @@
         <v>255</v>
       </c>
       <c r="K245" s="214"/>
-      <c r="L245" s="390" t="s">
+      <c r="L245" s="393" t="s">
         <v>415</v>
       </c>
-      <c r="M245" s="376"/>
-      <c r="N245" s="376"/>
-      <c r="O245" s="377"/>
+      <c r="M245" s="381"/>
+      <c r="N245" s="381"/>
+      <c r="O245" s="382"/>
       <c r="P245" s="10"/>
     </row>
     <row r="246" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28473,28 +28473,28 @@
         <v>255</v>
       </c>
       <c r="K246" s="237"/>
-      <c r="L246" s="390"/>
-      <c r="M246" s="376"/>
-      <c r="N246" s="376"/>
-      <c r="O246" s="377"/>
+      <c r="L246" s="393"/>
+      <c r="M246" s="381"/>
+      <c r="N246" s="381"/>
+      <c r="O246" s="382"/>
       <c r="P246" s="10"/>
     </row>
     <row r="247" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="9"/>
       <c r="B247" s="29"/>
       <c r="C247" s="30"/>
-      <c r="D247" s="381"/>
-      <c r="E247" s="382"/>
+      <c r="D247" s="383"/>
+      <c r="E247" s="384"/>
       <c r="F247" s="215"/>
       <c r="G247" s="215"/>
       <c r="H247" s="215"/>
       <c r="I247" s="31"/>
       <c r="J247" s="215"/>
       <c r="K247" s="215"/>
-      <c r="L247" s="383"/>
-      <c r="M247" s="383"/>
-      <c r="N247" s="383"/>
-      <c r="O247" s="384"/>
+      <c r="L247" s="385"/>
+      <c r="M247" s="385"/>
+      <c r="N247" s="385"/>
+      <c r="O247" s="386"/>
       <c r="P247" s="10"/>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.2">
@@ -28581,10 +28581,10 @@
       <c r="C252" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D252" s="391" t="s">
+      <c r="D252" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E252" s="392"/>
+      <c r="E252" s="388"/>
       <c r="F252" s="25" t="s">
         <v>31</v>
       </c>
@@ -28603,12 +28603,12 @@
       <c r="K252" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L252" s="393" t="s">
+      <c r="L252" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M252" s="393"/>
-      <c r="N252" s="393"/>
-      <c r="O252" s="394"/>
+      <c r="M252" s="389"/>
+      <c r="N252" s="389"/>
+      <c r="O252" s="390"/>
       <c r="P252" s="10"/>
     </row>
     <row r="253" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -28619,10 +28619,10 @@
       <c r="C253" s="233" t="s">
         <v>357</v>
       </c>
-      <c r="D253" s="395" t="s">
+      <c r="D253" s="391" t="s">
         <v>360</v>
       </c>
-      <c r="E253" s="396"/>
+      <c r="E253" s="392"/>
       <c r="F253" s="214"/>
       <c r="G253" s="214"/>
       <c r="H253" s="214" t="s">
@@ -28635,12 +28635,12 @@
         <v>255</v>
       </c>
       <c r="K253" s="214"/>
-      <c r="L253" s="390" t="s">
+      <c r="L253" s="393" t="s">
         <v>361</v>
       </c>
-      <c r="M253" s="376"/>
-      <c r="N253" s="376"/>
-      <c r="O253" s="377"/>
+      <c r="M253" s="381"/>
+      <c r="N253" s="381"/>
+      <c r="O253" s="382"/>
       <c r="P253" s="10"/>
     </row>
     <row r="254" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28665,28 +28665,28 @@
         <v>255</v>
       </c>
       <c r="K254" s="237"/>
-      <c r="L254" s="390"/>
-      <c r="M254" s="376"/>
-      <c r="N254" s="376"/>
-      <c r="O254" s="377"/>
+      <c r="L254" s="393"/>
+      <c r="M254" s="381"/>
+      <c r="N254" s="381"/>
+      <c r="O254" s="382"/>
       <c r="P254" s="10"/>
     </row>
     <row r="255" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="9"/>
       <c r="B255" s="29"/>
       <c r="C255" s="30"/>
-      <c r="D255" s="381"/>
-      <c r="E255" s="382"/>
+      <c r="D255" s="383"/>
+      <c r="E255" s="384"/>
       <c r="F255" s="215"/>
       <c r="G255" s="215"/>
       <c r="H255" s="215"/>
       <c r="I255" s="31"/>
       <c r="J255" s="215"/>
       <c r="K255" s="215"/>
-      <c r="L255" s="383"/>
-      <c r="M255" s="383"/>
-      <c r="N255" s="383"/>
-      <c r="O255" s="384"/>
+      <c r="L255" s="385"/>
+      <c r="M255" s="385"/>
+      <c r="N255" s="385"/>
+      <c r="O255" s="386"/>
       <c r="P255" s="10"/>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.2">
@@ -28775,10 +28775,10 @@
       <c r="C260" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D260" s="391" t="s">
+      <c r="D260" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E260" s="392"/>
+      <c r="E260" s="388"/>
       <c r="F260" s="25" t="s">
         <v>31</v>
       </c>
@@ -28797,12 +28797,12 @@
       <c r="K260" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L260" s="393" t="s">
+      <c r="L260" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M260" s="393"/>
-      <c r="N260" s="393"/>
-      <c r="O260" s="394"/>
+      <c r="M260" s="389"/>
+      <c r="N260" s="389"/>
+      <c r="O260" s="390"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28813,10 +28813,10 @@
       <c r="C261" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D261" s="385" t="s">
+      <c r="D261" s="379" t="s">
         <v>265</v>
       </c>
-      <c r="E261" s="386"/>
+      <c r="E261" s="380"/>
       <c r="F261" s="214"/>
       <c r="G261" s="214"/>
       <c r="H261" s="214" t="s">
@@ -28831,12 +28831,12 @@
       <c r="K261" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L261" s="376" t="s">
+      <c r="L261" s="381" t="s">
         <v>266</v>
       </c>
-      <c r="M261" s="376"/>
-      <c r="N261" s="376"/>
-      <c r="O261" s="377"/>
+      <c r="M261" s="381"/>
+      <c r="N261" s="381"/>
+      <c r="O261" s="382"/>
       <c r="P261" s="10"/>
     </row>
     <row r="262" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28847,10 +28847,10 @@
       <c r="C262" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D262" s="385" t="s">
+      <c r="D262" s="379" t="s">
         <v>376</v>
       </c>
-      <c r="E262" s="386"/>
+      <c r="E262" s="380"/>
       <c r="F262" s="214"/>
       <c r="G262" s="214"/>
       <c r="H262" s="214" t="s">
@@ -28863,10 +28863,10 @@
         <v>255</v>
       </c>
       <c r="K262" s="214"/>
-      <c r="L262" s="376"/>
-      <c r="M262" s="376"/>
-      <c r="N262" s="376"/>
-      <c r="O262" s="377"/>
+      <c r="L262" s="381"/>
+      <c r="M262" s="381"/>
+      <c r="N262" s="381"/>
+      <c r="O262" s="382"/>
       <c r="P262" s="10"/>
     </row>
     <row r="263" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28877,10 +28877,10 @@
       <c r="C263" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D263" s="385" t="s">
+      <c r="D263" s="379" t="s">
         <v>377</v>
       </c>
-      <c r="E263" s="386"/>
+      <c r="E263" s="380"/>
       <c r="F263" s="214"/>
       <c r="G263" s="214"/>
       <c r="H263" s="214"/>
@@ -28891,28 +28891,28 @@
         <v>255</v>
       </c>
       <c r="K263" s="214"/>
-      <c r="L263" s="376"/>
-      <c r="M263" s="376"/>
-      <c r="N263" s="376"/>
-      <c r="O263" s="377"/>
+      <c r="L263" s="381"/>
+      <c r="M263" s="381"/>
+      <c r="N263" s="381"/>
+      <c r="O263" s="382"/>
       <c r="P263" s="10"/>
     </row>
     <row r="264" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="9"/>
       <c r="B264" s="29"/>
       <c r="C264" s="30"/>
-      <c r="D264" s="381"/>
-      <c r="E264" s="382"/>
+      <c r="D264" s="383"/>
+      <c r="E264" s="384"/>
       <c r="F264" s="215"/>
       <c r="G264" s="215"/>
       <c r="H264" s="215"/>
       <c r="I264" s="31"/>
       <c r="J264" s="215"/>
       <c r="K264" s="215"/>
-      <c r="L264" s="383"/>
-      <c r="M264" s="383"/>
-      <c r="N264" s="383"/>
-      <c r="O264" s="384"/>
+      <c r="L264" s="385"/>
+      <c r="M264" s="385"/>
+      <c r="N264" s="385"/>
+      <c r="O264" s="386"/>
       <c r="P264" s="10"/>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.2">
@@ -29001,10 +29001,10 @@
       <c r="C269" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D269" s="391" t="s">
+      <c r="D269" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E269" s="392"/>
+      <c r="E269" s="388"/>
       <c r="F269" s="25" t="s">
         <v>31</v>
       </c>
@@ -29023,12 +29023,12 @@
       <c r="K269" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L269" s="393" t="s">
+      <c r="L269" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M269" s="393"/>
-      <c r="N269" s="393"/>
-      <c r="O269" s="394"/>
+      <c r="M269" s="389"/>
+      <c r="N269" s="389"/>
+      <c r="O269" s="390"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29039,10 +29039,10 @@
       <c r="C270" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D270" s="385" t="s">
+      <c r="D270" s="379" t="s">
         <v>379</v>
       </c>
-      <c r="E270" s="386"/>
+      <c r="E270" s="380"/>
       <c r="F270" s="214"/>
       <c r="G270" s="214"/>
       <c r="H270" s="214" t="s">
@@ -29055,10 +29055,10 @@
         <v>255</v>
       </c>
       <c r="K270" s="214"/>
-      <c r="L270" s="376"/>
-      <c r="M270" s="376"/>
-      <c r="N270" s="376"/>
-      <c r="O270" s="377"/>
+      <c r="L270" s="381"/>
+      <c r="M270" s="381"/>
+      <c r="N270" s="381"/>
+      <c r="O270" s="382"/>
       <c r="P270" s="10"/>
     </row>
     <row r="271" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29069,10 +29069,10 @@
       <c r="C271" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D271" s="385" t="s">
+      <c r="D271" s="379" t="s">
         <v>380</v>
       </c>
-      <c r="E271" s="386"/>
+      <c r="E271" s="380"/>
       <c r="F271" s="214"/>
       <c r="G271" s="214"/>
       <c r="H271" s="214"/>
@@ -29083,10 +29083,10 @@
         <v>255</v>
       </c>
       <c r="K271" s="214"/>
-      <c r="L271" s="376"/>
-      <c r="M271" s="376"/>
-      <c r="N271" s="376"/>
-      <c r="O271" s="377"/>
+      <c r="L271" s="381"/>
+      <c r="M271" s="381"/>
+      <c r="N271" s="381"/>
+      <c r="O271" s="382"/>
       <c r="P271" s="10"/>
     </row>
     <row r="272" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29109,30 +29109,30 @@
       </c>
       <c r="J272" s="214"/>
       <c r="K272" s="214"/>
-      <c r="L272" s="376" t="s">
+      <c r="L272" s="381" t="s">
         <v>414</v>
       </c>
-      <c r="M272" s="376"/>
-      <c r="N272" s="376"/>
-      <c r="O272" s="377"/>
+      <c r="M272" s="381"/>
+      <c r="N272" s="381"/>
+      <c r="O272" s="382"/>
       <c r="P272" s="10"/>
     </row>
     <row r="273" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="9"/>
       <c r="B273" s="29"/>
       <c r="C273" s="30"/>
-      <c r="D273" s="381"/>
-      <c r="E273" s="382"/>
+      <c r="D273" s="383"/>
+      <c r="E273" s="384"/>
       <c r="F273" s="215"/>
       <c r="G273" s="215"/>
       <c r="H273" s="215"/>
       <c r="I273" s="31"/>
       <c r="J273" s="215"/>
       <c r="K273" s="215"/>
-      <c r="L273" s="383"/>
-      <c r="M273" s="383"/>
-      <c r="N273" s="383"/>
-      <c r="O273" s="384"/>
+      <c r="L273" s="385"/>
+      <c r="M273" s="385"/>
+      <c r="N273" s="385"/>
+      <c r="O273" s="386"/>
       <c r="P273" s="10"/>
     </row>
     <row r="274" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -29221,10 +29221,10 @@
       <c r="C278" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D278" s="391" t="s">
+      <c r="D278" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E278" s="392"/>
+      <c r="E278" s="388"/>
       <c r="F278" s="25" t="s">
         <v>31</v>
       </c>
@@ -29243,12 +29243,12 @@
       <c r="K278" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L278" s="393" t="s">
+      <c r="L278" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M278" s="393"/>
-      <c r="N278" s="393"/>
-      <c r="O278" s="394"/>
+      <c r="M278" s="389"/>
+      <c r="N278" s="389"/>
+      <c r="O278" s="390"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29259,10 +29259,10 @@
       <c r="C279" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="D279" s="385" t="s">
+      <c r="D279" s="379" t="s">
         <v>384</v>
       </c>
-      <c r="E279" s="386"/>
+      <c r="E279" s="380"/>
       <c r="F279" s="214"/>
       <c r="G279" s="214"/>
       <c r="H279" s="214" t="s">
@@ -29273,12 +29273,12 @@
       </c>
       <c r="J279" s="214"/>
       <c r="K279" s="214"/>
-      <c r="L279" s="376" t="s">
+      <c r="L279" s="381" t="s">
         <v>385</v>
       </c>
-      <c r="M279" s="376"/>
-      <c r="N279" s="376"/>
-      <c r="O279" s="377"/>
+      <c r="M279" s="381"/>
+      <c r="N279" s="381"/>
+      <c r="O279" s="382"/>
       <c r="P279" s="10"/>
     </row>
     <row r="280" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29289,10 +29289,10 @@
       <c r="C280" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D280" s="385" t="s">
+      <c r="D280" s="379" t="s">
         <v>386</v>
       </c>
-      <c r="E280" s="386"/>
+      <c r="E280" s="380"/>
       <c r="F280" s="214"/>
       <c r="G280" s="214"/>
       <c r="H280" s="214" t="s">
@@ -29305,10 +29305,10 @@
         <v>255</v>
       </c>
       <c r="K280" s="214"/>
-      <c r="L280" s="376"/>
-      <c r="M280" s="376"/>
-      <c r="N280" s="376"/>
-      <c r="O280" s="377"/>
+      <c r="L280" s="381"/>
+      <c r="M280" s="381"/>
+      <c r="N280" s="381"/>
+      <c r="O280" s="382"/>
       <c r="P280" s="10"/>
     </row>
     <row r="281" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29319,10 +29319,10 @@
       <c r="C281" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D281" s="442" t="s">
+      <c r="D281" s="396" t="s">
         <v>377</v>
       </c>
-      <c r="E281" s="443"/>
+      <c r="E281" s="397"/>
       <c r="F281" s="214"/>
       <c r="G281" s="214"/>
       <c r="H281" s="214"/>
@@ -29333,10 +29333,10 @@
         <v>255</v>
       </c>
       <c r="K281" s="214"/>
-      <c r="L281" s="376"/>
-      <c r="M281" s="376"/>
-      <c r="N281" s="376"/>
-      <c r="O281" s="377"/>
+      <c r="L281" s="381"/>
+      <c r="M281" s="381"/>
+      <c r="N281" s="381"/>
+      <c r="O281" s="382"/>
       <c r="P281" s="10"/>
     </row>
     <row r="282" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -29347,10 +29347,10 @@
       <c r="C282" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D282" s="413" t="s">
+      <c r="D282" s="394" t="s">
         <v>413</v>
       </c>
-      <c r="E282" s="414"/>
+      <c r="E282" s="395"/>
       <c r="F282" s="215"/>
       <c r="G282" s="215"/>
       <c r="H282" s="215" t="s">
@@ -29363,12 +29363,12 @@
       <c r="K282" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="L282" s="383" t="s">
+      <c r="L282" s="385" t="s">
         <v>414</v>
       </c>
-      <c r="M282" s="383"/>
-      <c r="N282" s="383"/>
-      <c r="O282" s="384"/>
+      <c r="M282" s="385"/>
+      <c r="N282" s="385"/>
+      <c r="O282" s="386"/>
       <c r="P282" s="10"/>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.2">
@@ -29455,10 +29455,10 @@
       <c r="C287" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D287" s="391" t="s">
+      <c r="D287" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E287" s="392"/>
+      <c r="E287" s="388"/>
       <c r="F287" s="25" t="s">
         <v>31</v>
       </c>
@@ -29477,12 +29477,12 @@
       <c r="K287" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L287" s="393" t="s">
+      <c r="L287" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M287" s="393"/>
-      <c r="N287" s="393"/>
-      <c r="O287" s="394"/>
+      <c r="M287" s="389"/>
+      <c r="N287" s="389"/>
+      <c r="O287" s="390"/>
       <c r="P287" s="10"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29493,10 +29493,10 @@
       <c r="C288" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="D288" s="385" t="s">
+      <c r="D288" s="379" t="s">
         <v>401</v>
       </c>
-      <c r="E288" s="386"/>
+      <c r="E288" s="380"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214" t="s">
@@ -29509,10 +29509,10 @@
         <v>255</v>
       </c>
       <c r="K288" s="214"/>
-      <c r="L288" s="376"/>
-      <c r="M288" s="376"/>
-      <c r="N288" s="376"/>
-      <c r="O288" s="377"/>
+      <c r="L288" s="381"/>
+      <c r="M288" s="381"/>
+      <c r="N288" s="381"/>
+      <c r="O288" s="382"/>
       <c r="P288" s="10"/>
     </row>
     <row r="289" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29523,10 +29523,10 @@
       <c r="C289" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="D289" s="385" t="s">
+      <c r="D289" s="379" t="s">
         <v>394</v>
       </c>
-      <c r="E289" s="386"/>
+      <c r="E289" s="380"/>
       <c r="F289" s="214"/>
       <c r="G289" s="214"/>
       <c r="H289" s="214" t="s">
@@ -29539,12 +29539,12 @@
         <v>255</v>
       </c>
       <c r="K289" s="214"/>
-      <c r="L289" s="376" t="s">
+      <c r="L289" s="381" t="s">
         <v>393</v>
       </c>
-      <c r="M289" s="376"/>
-      <c r="N289" s="376"/>
-      <c r="O289" s="377"/>
+      <c r="M289" s="381"/>
+      <c r="N289" s="381"/>
+      <c r="O289" s="382"/>
       <c r="P289" s="10"/>
     </row>
     <row r="290" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29555,10 +29555,10 @@
       <c r="C290" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="D290" s="395" t="s">
+      <c r="D290" s="391" t="s">
         <v>400</v>
       </c>
-      <c r="E290" s="396"/>
+      <c r="E290" s="392"/>
       <c r="F290" s="214"/>
       <c r="G290" s="214"/>
       <c r="H290" s="214" t="s">
@@ -29571,10 +29571,10 @@
         <v>255</v>
       </c>
       <c r="K290" s="214"/>
-      <c r="L290" s="390"/>
-      <c r="M290" s="376"/>
-      <c r="N290" s="376"/>
-      <c r="O290" s="377"/>
+      <c r="L290" s="393"/>
+      <c r="M290" s="381"/>
+      <c r="N290" s="381"/>
+      <c r="O290" s="382"/>
       <c r="P290" s="10"/>
     </row>
     <row r="291" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29585,10 +29585,10 @@
       <c r="C291" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="D291" s="385" t="s">
+      <c r="D291" s="379" t="s">
         <v>399</v>
       </c>
-      <c r="E291" s="386"/>
+      <c r="E291" s="380"/>
       <c r="F291" s="214"/>
       <c r="G291" s="214"/>
       <c r="H291" s="214" t="s">
@@ -29599,12 +29599,12 @@
       </c>
       <c r="J291" s="214"/>
       <c r="K291" s="214"/>
-      <c r="L291" s="376" t="s">
+      <c r="L291" s="381" t="s">
         <v>252</v>
       </c>
-      <c r="M291" s="376"/>
-      <c r="N291" s="376"/>
-      <c r="O291" s="377"/>
+      <c r="M291" s="381"/>
+      <c r="N291" s="381"/>
+      <c r="O291" s="382"/>
       <c r="P291" s="10"/>
     </row>
     <row r="292" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29615,10 +29615,10 @@
       <c r="C292" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="D292" s="385" t="s">
+      <c r="D292" s="379" t="s">
         <v>398</v>
       </c>
-      <c r="E292" s="386"/>
+      <c r="E292" s="380"/>
       <c r="F292" s="214"/>
       <c r="G292" s="214"/>
       <c r="H292" s="214"/>
@@ -29629,30 +29629,30 @@
       <c r="K292" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L292" s="376" t="s">
+      <c r="L292" s="381" t="s">
         <v>268</v>
       </c>
-      <c r="M292" s="376"/>
-      <c r="N292" s="376"/>
-      <c r="O292" s="377"/>
+      <c r="M292" s="381"/>
+      <c r="N292" s="381"/>
+      <c r="O292" s="382"/>
       <c r="P292" s="10"/>
     </row>
     <row r="293" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="9"/>
       <c r="B293" s="29"/>
       <c r="C293" s="30"/>
-      <c r="D293" s="381"/>
-      <c r="E293" s="382"/>
+      <c r="D293" s="383"/>
+      <c r="E293" s="384"/>
       <c r="F293" s="215"/>
       <c r="G293" s="215"/>
       <c r="H293" s="215"/>
       <c r="I293" s="31"/>
       <c r="J293" s="215"/>
       <c r="K293" s="215"/>
-      <c r="L293" s="383"/>
-      <c r="M293" s="383"/>
-      <c r="N293" s="383"/>
-      <c r="O293" s="384"/>
+      <c r="L293" s="385"/>
+      <c r="M293" s="385"/>
+      <c r="N293" s="385"/>
+      <c r="O293" s="386"/>
       <c r="P293" s="10"/>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
@@ -29758,10 +29758,10 @@
       <c r="C300" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D300" s="391" t="s">
+      <c r="D300" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E300" s="392"/>
+      <c r="E300" s="388"/>
       <c r="F300" s="25" t="s">
         <v>31</v>
       </c>
@@ -29780,12 +29780,12 @@
       <c r="K300" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L300" s="393" t="s">
+      <c r="L300" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M300" s="393"/>
-      <c r="N300" s="393"/>
-      <c r="O300" s="394"/>
+      <c r="M300" s="389"/>
+      <c r="N300" s="389"/>
+      <c r="O300" s="390"/>
       <c r="P300" s="10"/>
     </row>
     <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29796,8 +29796,8 @@
       <c r="C301" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="D301" s="385"/>
-      <c r="E301" s="386"/>
+      <c r="D301" s="379"/>
+      <c r="E301" s="380"/>
       <c r="F301" s="214"/>
       <c r="G301" s="214"/>
       <c r="H301" s="214" t="s">
@@ -29810,10 +29810,10 @@
         <v>255</v>
       </c>
       <c r="K301" s="214"/>
-      <c r="L301" s="376"/>
-      <c r="M301" s="376"/>
-      <c r="N301" s="376"/>
-      <c r="O301" s="377"/>
+      <c r="L301" s="381"/>
+      <c r="M301" s="381"/>
+      <c r="N301" s="381"/>
+      <c r="O301" s="382"/>
       <c r="P301" s="10"/>
     </row>
     <row r="302" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29824,8 +29824,8 @@
       <c r="C302" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D302" s="385"/>
-      <c r="E302" s="386"/>
+      <c r="D302" s="379"/>
+      <c r="E302" s="380"/>
       <c r="F302" s="214"/>
       <c r="G302" s="214"/>
       <c r="H302" s="214" t="s">
@@ -29836,12 +29836,12 @@
       </c>
       <c r="J302" s="214"/>
       <c r="K302" s="214"/>
-      <c r="L302" s="376" t="s">
+      <c r="L302" s="381" t="s">
         <v>352</v>
       </c>
-      <c r="M302" s="376"/>
-      <c r="N302" s="376"/>
-      <c r="O302" s="377"/>
+      <c r="M302" s="381"/>
+      <c r="N302" s="381"/>
+      <c r="O302" s="382"/>
       <c r="P302" s="10"/>
     </row>
     <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29852,8 +29852,8 @@
       <c r="C303" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="D303" s="395"/>
-      <c r="E303" s="396"/>
+      <c r="D303" s="391"/>
+      <c r="E303" s="392"/>
       <c r="F303" s="214"/>
       <c r="G303" s="214"/>
       <c r="H303" s="214" t="s">
@@ -29864,12 +29864,12 @@
       </c>
       <c r="J303" s="214"/>
       <c r="K303" s="214"/>
-      <c r="L303" s="390" t="s">
+      <c r="L303" s="393" t="s">
         <v>348</v>
       </c>
-      <c r="M303" s="376"/>
-      <c r="N303" s="376"/>
-      <c r="O303" s="377"/>
+      <c r="M303" s="381"/>
+      <c r="N303" s="381"/>
+      <c r="O303" s="382"/>
       <c r="P303" s="10"/>
     </row>
     <row r="304" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29880,8 +29880,8 @@
       <c r="C304" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="D304" s="385"/>
-      <c r="E304" s="386"/>
+      <c r="D304" s="379"/>
+      <c r="E304" s="380"/>
       <c r="F304" s="214"/>
       <c r="G304" s="214"/>
       <c r="H304" s="214" t="s">
@@ -29892,10 +29892,10 @@
       </c>
       <c r="J304" s="214"/>
       <c r="K304" s="214"/>
-      <c r="L304" s="376"/>
-      <c r="M304" s="376"/>
-      <c r="N304" s="376"/>
-      <c r="O304" s="377"/>
+      <c r="L304" s="381"/>
+      <c r="M304" s="381"/>
+      <c r="N304" s="381"/>
+      <c r="O304" s="382"/>
       <c r="P304" s="10"/>
     </row>
     <row r="305" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29906,8 +29906,8 @@
       <c r="C305" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="D305" s="385"/>
-      <c r="E305" s="386"/>
+      <c r="D305" s="379"/>
+      <c r="E305" s="380"/>
       <c r="F305" s="214"/>
       <c r="G305" s="214"/>
       <c r="H305" s="214" t="s">
@@ -29918,10 +29918,10 @@
       </c>
       <c r="J305" s="214"/>
       <c r="K305" s="214"/>
-      <c r="L305" s="376"/>
-      <c r="M305" s="376"/>
-      <c r="N305" s="376"/>
-      <c r="O305" s="377"/>
+      <c r="L305" s="381"/>
+      <c r="M305" s="381"/>
+      <c r="N305" s="381"/>
+      <c r="O305" s="382"/>
       <c r="P305" s="10"/>
     </row>
     <row r="306" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29932,8 +29932,8 @@
       <c r="C306" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="D306" s="385"/>
-      <c r="E306" s="386"/>
+      <c r="D306" s="379"/>
+      <c r="E306" s="380"/>
       <c r="F306" s="214"/>
       <c r="G306" s="214"/>
       <c r="H306" s="214" t="s">
@@ -29946,10 +29946,10 @@
         <v>255</v>
       </c>
       <c r="K306" s="214"/>
-      <c r="L306" s="376"/>
-      <c r="M306" s="376"/>
-      <c r="N306" s="376"/>
-      <c r="O306" s="377"/>
+      <c r="L306" s="381"/>
+      <c r="M306" s="381"/>
+      <c r="N306" s="381"/>
+      <c r="O306" s="382"/>
       <c r="P306" s="10"/>
     </row>
     <row r="307" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29960,8 +29960,8 @@
       <c r="C307" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="D307" s="385"/>
-      <c r="E307" s="386"/>
+      <c r="D307" s="379"/>
+      <c r="E307" s="380"/>
       <c r="F307" s="214"/>
       <c r="G307" s="214"/>
       <c r="H307" s="214" t="s">
@@ -29972,30 +29972,30 @@
       </c>
       <c r="J307" s="214"/>
       <c r="K307" s="214"/>
-      <c r="L307" s="376" t="s">
+      <c r="L307" s="381" t="s">
         <v>422</v>
       </c>
-      <c r="M307" s="376"/>
-      <c r="N307" s="376"/>
-      <c r="O307" s="377"/>
+      <c r="M307" s="381"/>
+      <c r="N307" s="381"/>
+      <c r="O307" s="382"/>
       <c r="P307" s="10"/>
     </row>
     <row r="308" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="9"/>
       <c r="B308" s="29"/>
       <c r="C308" s="30"/>
-      <c r="D308" s="381"/>
-      <c r="E308" s="382"/>
+      <c r="D308" s="383"/>
+      <c r="E308" s="384"/>
       <c r="F308" s="215"/>
       <c r="G308" s="215"/>
       <c r="H308" s="215"/>
       <c r="I308" s="31"/>
       <c r="J308" s="215"/>
       <c r="K308" s="215"/>
-      <c r="L308" s="383"/>
-      <c r="M308" s="383"/>
-      <c r="N308" s="383"/>
-      <c r="O308" s="384"/>
+      <c r="L308" s="385"/>
+      <c r="M308" s="385"/>
+      <c r="N308" s="385"/>
+      <c r="O308" s="386"/>
       <c r="P308" s="10"/>
     </row>
     <row r="310" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30047,10 +30047,10 @@
       <c r="C313" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D313" s="391" t="s">
+      <c r="D313" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E313" s="392"/>
+      <c r="E313" s="388"/>
       <c r="F313" s="25" t="s">
         <v>31</v>
       </c>
@@ -30069,12 +30069,12 @@
       <c r="K313" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L313" s="393" t="s">
+      <c r="L313" s="389" t="s">
         <v>37</v>
       </c>
-      <c r="M313" s="393"/>
-      <c r="N313" s="393"/>
-      <c r="O313" s="394"/>
+      <c r="M313" s="389"/>
+      <c r="N313" s="389"/>
+      <c r="O313" s="390"/>
       <c r="P313" s="10"/>
     </row>
     <row r="314" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30085,8 +30085,8 @@
       <c r="C314" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D314" s="385"/>
-      <c r="E314" s="386"/>
+      <c r="D314" s="379"/>
+      <c r="E314" s="380"/>
       <c r="F314" s="214"/>
       <c r="G314" s="214"/>
       <c r="H314" s="214" t="s">
@@ -30099,12 +30099,12 @@
       <c r="K314" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L314" s="376" t="s">
+      <c r="L314" s="381" t="s">
         <v>424</v>
       </c>
-      <c r="M314" s="376"/>
-      <c r="N314" s="376"/>
-      <c r="O314" s="377"/>
+      <c r="M314" s="381"/>
+      <c r="N314" s="381"/>
+      <c r="O314" s="382"/>
       <c r="P314" s="10"/>
     </row>
     <row r="315" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30115,8 +30115,8 @@
       <c r="C315" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D315" s="385"/>
-      <c r="E315" s="386"/>
+      <c r="D315" s="379"/>
+      <c r="E315" s="380"/>
       <c r="F315" s="214"/>
       <c r="G315" s="214"/>
       <c r="H315" s="214" t="s">
@@ -30127,12 +30127,12 @@
       </c>
       <c r="J315" s="214"/>
       <c r="K315" s="214"/>
-      <c r="L315" s="376" t="s">
+      <c r="L315" s="381" t="s">
         <v>442</v>
       </c>
-      <c r="M315" s="376"/>
-      <c r="N315" s="376"/>
-      <c r="O315" s="377"/>
+      <c r="M315" s="381"/>
+      <c r="N315" s="381"/>
+      <c r="O315" s="382"/>
       <c r="P315" s="10"/>
     </row>
     <row r="316" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -30143,8 +30143,8 @@
       <c r="C316" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="D316" s="395"/>
-      <c r="E316" s="396"/>
+      <c r="D316" s="391"/>
+      <c r="E316" s="392"/>
       <c r="F316" s="214"/>
       <c r="G316" s="214"/>
       <c r="H316" s="214" t="s">
@@ -30157,10 +30157,10 @@
         <v>20</v>
       </c>
       <c r="K316" s="214"/>
-      <c r="L316" s="390"/>
-      <c r="M316" s="376"/>
-      <c r="N316" s="376"/>
-      <c r="O316" s="377"/>
+      <c r="L316" s="393"/>
+      <c r="M316" s="381"/>
+      <c r="N316" s="381"/>
+      <c r="O316" s="382"/>
       <c r="P316" s="10"/>
     </row>
     <row r="317" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30171,8 +30171,8 @@
       <c r="C317" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="D317" s="385"/>
-      <c r="E317" s="386"/>
+      <c r="D317" s="379"/>
+      <c r="E317" s="380"/>
       <c r="F317" s="214"/>
       <c r="G317" s="214"/>
       <c r="H317" s="214" t="s">
@@ -30183,10 +30183,10 @@
       </c>
       <c r="J317" s="214"/>
       <c r="K317" s="214"/>
-      <c r="L317" s="376"/>
-      <c r="M317" s="376"/>
-      <c r="N317" s="376"/>
-      <c r="O317" s="377"/>
+      <c r="L317" s="381"/>
+      <c r="M317" s="381"/>
+      <c r="N317" s="381"/>
+      <c r="O317" s="382"/>
       <c r="P317" s="10"/>
     </row>
     <row r="318" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30197,8 +30197,8 @@
       <c r="C318" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="D318" s="385"/>
-      <c r="E318" s="386"/>
+      <c r="D318" s="379"/>
+      <c r="E318" s="380"/>
       <c r="F318" s="214"/>
       <c r="G318" s="214"/>
       <c r="H318" s="214" t="s">
@@ -30211,28 +30211,28 @@
         <v>20</v>
       </c>
       <c r="K318" s="214"/>
-      <c r="L318" s="376"/>
-      <c r="M318" s="376"/>
-      <c r="N318" s="376"/>
-      <c r="O318" s="377"/>
+      <c r="L318" s="381"/>
+      <c r="M318" s="381"/>
+      <c r="N318" s="381"/>
+      <c r="O318" s="382"/>
       <c r="P318" s="10"/>
     </row>
     <row r="319" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="9"/>
       <c r="B319" s="29"/>
       <c r="C319" s="30"/>
-      <c r="D319" s="381"/>
-      <c r="E319" s="382"/>
+      <c r="D319" s="383"/>
+      <c r="E319" s="384"/>
       <c r="F319" s="215"/>
       <c r="G319" s="215"/>
       <c r="H319" s="215"/>
       <c r="I319" s="31"/>
       <c r="J319" s="215"/>
       <c r="K319" s="215"/>
-      <c r="L319" s="383"/>
-      <c r="M319" s="383"/>
-      <c r="N319" s="383"/>
-      <c r="O319" s="384"/>
+      <c r="L319" s="385"/>
+      <c r="M319" s="385"/>
+      <c r="N319" s="385"/>
+      <c r="O319" s="386"/>
       <c r="P319" s="10"/>
     </row>
     <row r="321" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30284,10 +30284,10 @@
       <c r="C324" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="D324" s="361" t="s">
+      <c r="D324" s="372" t="s">
         <v>30</v>
       </c>
-      <c r="E324" s="362"/>
+      <c r="E324" s="373"/>
       <c r="F324" s="276" t="s">
         <v>31</v>
       </c>
@@ -30306,12 +30306,12 @@
       <c r="K324" s="276" t="s">
         <v>36</v>
       </c>
-      <c r="L324" s="363" t="s">
+      <c r="L324" s="374" t="s">
         <v>37</v>
       </c>
-      <c r="M324" s="363"/>
-      <c r="N324" s="363"/>
-      <c r="O324" s="364"/>
+      <c r="M324" s="374"/>
+      <c r="N324" s="374"/>
+      <c r="O324" s="375"/>
       <c r="P324" s="267"/>
     </row>
     <row r="325" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -30322,10 +30322,10 @@
       <c r="C325" s="278" t="s">
         <v>430</v>
       </c>
-      <c r="D325" s="365" t="s">
+      <c r="D325" s="376" t="s">
         <v>431</v>
       </c>
-      <c r="E325" s="366"/>
+      <c r="E325" s="377"/>
       <c r="F325" s="265"/>
       <c r="G325" s="265"/>
       <c r="H325" s="265" t="s">
@@ -30338,12 +30338,12 @@
         <v>255</v>
       </c>
       <c r="K325" s="265"/>
-      <c r="L325" s="367" t="s">
+      <c r="L325" s="378" t="s">
         <v>432</v>
       </c>
-      <c r="M325" s="368"/>
-      <c r="N325" s="368"/>
-      <c r="O325" s="369"/>
+      <c r="M325" s="367"/>
+      <c r="N325" s="367"/>
+      <c r="O325" s="368"/>
       <c r="P325" s="267"/>
     </row>
     <row r="326" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -30368,28 +30368,28 @@
         <v>255</v>
       </c>
       <c r="K326" s="283"/>
-      <c r="L326" s="367"/>
-      <c r="M326" s="368"/>
-      <c r="N326" s="368"/>
-      <c r="O326" s="369"/>
+      <c r="L326" s="378"/>
+      <c r="M326" s="367"/>
+      <c r="N326" s="367"/>
+      <c r="O326" s="368"/>
       <c r="P326" s="267"/>
     </row>
     <row r="327" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="260"/>
       <c r="B327" s="284"/>
       <c r="C327" s="285"/>
-      <c r="D327" s="370"/>
-      <c r="E327" s="371"/>
+      <c r="D327" s="361"/>
+      <c r="E327" s="362"/>
       <c r="F327" s="286"/>
       <c r="G327" s="286"/>
       <c r="H327" s="286"/>
       <c r="I327" s="287"/>
       <c r="J327" s="286"/>
       <c r="K327" s="286"/>
-      <c r="L327" s="372"/>
-      <c r="M327" s="372"/>
-      <c r="N327" s="372"/>
-      <c r="O327" s="373"/>
+      <c r="L327" s="363"/>
+      <c r="M327" s="363"/>
+      <c r="N327" s="363"/>
+      <c r="O327" s="364"/>
       <c r="P327" s="267"/>
     </row>
     <row r="329" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30441,10 +30441,10 @@
       <c r="C332" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="D332" s="361" t="s">
+      <c r="D332" s="372" t="s">
         <v>30</v>
       </c>
-      <c r="E332" s="362"/>
+      <c r="E332" s="373"/>
       <c r="F332" s="276" t="s">
         <v>31</v>
       </c>
@@ -30463,12 +30463,12 @@
       <c r="K332" s="276" t="s">
         <v>36</v>
       </c>
-      <c r="L332" s="363" t="s">
+      <c r="L332" s="374" t="s">
         <v>37</v>
       </c>
-      <c r="M332" s="363"/>
-      <c r="N332" s="363"/>
-      <c r="O332" s="364"/>
+      <c r="M332" s="374"/>
+      <c r="N332" s="374"/>
+      <c r="O332" s="375"/>
       <c r="P332" s="267"/>
     </row>
     <row r="333" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -30479,10 +30479,10 @@
       <c r="C333" s="262" t="s">
         <v>444</v>
       </c>
-      <c r="D333" s="374" t="s">
+      <c r="D333" s="365" t="s">
         <v>218</v>
       </c>
-      <c r="E333" s="375"/>
+      <c r="E333" s="366"/>
       <c r="F333" s="265"/>
       <c r="G333" s="265"/>
       <c r="H333" s="265" t="s">
@@ -30495,10 +30495,10 @@
       <c r="K333" s="265" t="s">
         <v>191</v>
       </c>
-      <c r="L333" s="368"/>
-      <c r="M333" s="368"/>
-      <c r="N333" s="368"/>
-      <c r="O333" s="369"/>
+      <c r="L333" s="367"/>
+      <c r="M333" s="367"/>
+      <c r="N333" s="367"/>
+      <c r="O333" s="368"/>
       <c r="P333" s="267"/>
     </row>
     <row r="334" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -30509,10 +30509,10 @@
       <c r="C334" s="288" t="s">
         <v>445</v>
       </c>
-      <c r="D334" s="365" t="s">
+      <c r="D334" s="376" t="s">
         <v>446</v>
       </c>
-      <c r="E334" s="366"/>
+      <c r="E334" s="377"/>
       <c r="F334" s="265"/>
       <c r="G334" s="265"/>
       <c r="H334" s="265" t="s">
@@ -30523,32 +30523,382 @@
       </c>
       <c r="J334" s="265"/>
       <c r="K334" s="265"/>
-      <c r="L334" s="367"/>
-      <c r="M334" s="368"/>
-      <c r="N334" s="368"/>
-      <c r="O334" s="369"/>
+      <c r="L334" s="378"/>
+      <c r="M334" s="367"/>
+      <c r="N334" s="367"/>
+      <c r="O334" s="368"/>
       <c r="P334" s="267"/>
     </row>
     <row r="335" spans="1:16" s="268" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="260"/>
       <c r="B335" s="284"/>
       <c r="C335" s="285"/>
-      <c r="D335" s="370"/>
-      <c r="E335" s="371"/>
+      <c r="D335" s="361"/>
+      <c r="E335" s="362"/>
       <c r="F335" s="286"/>
       <c r="G335" s="286"/>
       <c r="H335" s="286"/>
       <c r="I335" s="287"/>
       <c r="J335" s="286"/>
       <c r="K335" s="286"/>
-      <c r="L335" s="372"/>
-      <c r="M335" s="372"/>
-      <c r="N335" s="372"/>
-      <c r="O335" s="373"/>
+      <c r="L335" s="363"/>
+      <c r="M335" s="363"/>
+      <c r="N335" s="363"/>
+      <c r="O335" s="364"/>
       <c r="P335" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="374">
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="L324:O324"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="L325:O325"/>
+    <mergeCell ref="L326:O326"/>
+    <mergeCell ref="D327:E327"/>
+    <mergeCell ref="L327:O327"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="L128:O128"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="L237:O237"/>
+    <mergeCell ref="L238:O238"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="L239:O239"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="L236:O236"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="L228:O228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="L229:O229"/>
+    <mergeCell ref="L230:O230"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="L231:O231"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="L252:O252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="L253:O253"/>
+    <mergeCell ref="L254:O254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="L255:O255"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="L150:O150"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L149:O149"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="L148:O148"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="L135:O135"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="L119:O119"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L71:O72"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O57"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="L160:O160"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L179:O179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="L180:O180"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="L171:O171"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="L176:O176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="L177:O177"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="L161:O161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="L156:O156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="L198:O198"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="L203:O203"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="L187:O187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="L188:O188"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="L185:O185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="L186:O186"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="L178:O178"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="L204:O204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="L205:O205"/>
+    <mergeCell ref="L214:O214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="L215:O215"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="L207:O207"/>
+    <mergeCell ref="L206:O206"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="L212:O212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="L213:O213"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="L260:O260"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="L261:O261"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="L262:O262"/>
+    <mergeCell ref="L263:O263"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="L264:O264"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="L269:O269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="L278:O278"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="L279:O279"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="L280:O280"/>
+    <mergeCell ref="L281:O281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="L282:O282"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="L292:O292"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="L293:O293"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="L287:O287"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="L288:O288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="L289:O289"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="L290:O290"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="L291:O291"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="L108:O108"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="L110:O110"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="L300:O300"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="L301:O301"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="L302:O302"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="L317:O317"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="L308:O308"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="L307:O307"/>
     <mergeCell ref="D335:E335"/>
     <mergeCell ref="L335:O335"/>
     <mergeCell ref="D107:E107"/>
@@ -30573,356 +30923,6 @@
     <mergeCell ref="D316:E316"/>
     <mergeCell ref="L316:O316"/>
     <mergeCell ref="D317:E317"/>
-    <mergeCell ref="L317:O317"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="L308:O308"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="L300:O300"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="L301:O301"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="L302:O302"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="L303:O303"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="L106:O106"/>
-    <mergeCell ref="L108:O108"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="L110:O110"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="L292:O292"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="L293:O293"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="L287:O287"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="L288:O288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="L289:O289"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="L290:O290"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="L291:O291"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="L278:O278"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="L279:O279"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="L280:O280"/>
-    <mergeCell ref="L281:O281"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="L282:O282"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="L269:O269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="L260:O260"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="L261:O261"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="L262:O262"/>
-    <mergeCell ref="L263:O263"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="L264:O264"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="L204:O204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="L205:O205"/>
-    <mergeCell ref="L214:O214"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="L215:O215"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="L207:O207"/>
-    <mergeCell ref="L206:O206"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="L212:O212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="L213:O213"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="L156:O156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="L198:O198"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="L203:O203"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="L187:O187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="L188:O188"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="L185:O185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="L186:O186"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="L178:O178"/>
-    <mergeCell ref="L179:O179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="L180:O180"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="L171:O171"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="L176:O176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="L177:O177"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="L162:O162"/>
-    <mergeCell ref="L161:O161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="L160:O160"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L71:O72"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L56:O57"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="L135:O135"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="L99:O99"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="L119:O119"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="L150:O150"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L149:O149"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="L148:O148"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="L252:O252"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="L253:O253"/>
-    <mergeCell ref="L254:O254"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="L255:O255"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="L236:O236"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="L228:O228"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="L229:O229"/>
-    <mergeCell ref="L230:O230"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="L231:O231"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="L324:O324"/>
-    <mergeCell ref="D325:E325"/>
-    <mergeCell ref="L325:O325"/>
-    <mergeCell ref="L326:O326"/>
-    <mergeCell ref="D327:E327"/>
-    <mergeCell ref="L327:O327"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="L130:O130"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="L128:O128"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="L237:O237"/>
-    <mergeCell ref="L238:O238"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="L239:O239"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30939,8 +30939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0901546-647D-314F-966F-D11091521896}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30997,7 +30997,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -31927,8 +31927,8 @@
   </sheetPr>
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31992,7 +31992,7 @@
       </c>
       <c r="N2" s="313">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="O2" s="314"/>
       <c r="P2" s="61"/>
@@ -32246,7 +32246,7 @@
       </c>
       <c r="M9" s="51">
         <f>SUM(M10:M23)/14</f>
-        <v>0.7607142857142859</v>
+        <v>0.76785714285714302</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="43"/>
@@ -32468,7 +32468,7 @@
         <v>-44579</v>
       </c>
       <c r="M15" s="137">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="43"/>
@@ -33193,7 +33193,7 @@
   <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33296,7 +33296,7 @@
       </c>
       <c r="AK2" s="313">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="AL2" s="314"/>
       <c r="AM2" s="61"/>
@@ -33813,7 +33813,7 @@
       </c>
       <c r="T2" s="313">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="U2" s="314"/>
     </row>
@@ -35226,7 +35226,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -40829,7 +40829,7 @@
       </c>
       <c r="S2" s="313">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="T2" s="314"/>
     </row>
@@ -47604,7 +47604,7 @@
       </c>
       <c r="T2" s="313">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="U2" s="314"/>
     </row>
@@ -49854,7 +49854,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44591.650340046297</v>
+        <v>44592.903359722222</v>
       </c>
       <c r="Q2" s="314"/>
     </row>

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab/02.Design Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/food_lab_doc/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02848AD1-03BC-7D48-A733-483F26427150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A66EE6-46E5-554C-B71F-B01C96F3A7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="1280" windowWidth="38160" windowHeight="19360" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17660" windowHeight="15760" firstSheet="1" activeTab="10" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="454">
   <si>
     <t>No</t>
   </si>
@@ -1842,7 +1842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2414,6 +2414,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2421,7 +2432,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3023,39 +3034,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3077,16 +3055,43 @@
     <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3100,6 +3105,24 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3119,8 +3142,53 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3128,25 +3196,44 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3184,99 +3271,24 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -20703,7 +20715,7 @@
       <c r="L64" s="294"/>
       <c r="M64" s="69">
         <f ca="1">NOW()</f>
-        <v>44592.903359722222</v>
+        <v>44662.727361805555</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20848,7 +20860,7 @@
       </c>
       <c r="P2" s="313">
         <f ca="1">NOW()</f>
-        <v>44592.903359722222</v>
+        <v>44662.727361805555</v>
       </c>
       <c r="Q2" s="314"/>
     </row>
@@ -22295,8 +22307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:P335"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S61" sqref="S61"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A290" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22359,7 +22371,7 @@
       </c>
       <c r="O2" s="313">
         <f ca="1">NOW()</f>
-        <v>44592.903359722222</v>
+        <v>44662.727361805555</v>
       </c>
       <c r="P2" s="314"/>
     </row>
@@ -22467,10 +22479,10 @@
       <c r="C8" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="412" t="s">
+      <c r="D8" s="436" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="413"/>
+      <c r="E8" s="437"/>
       <c r="F8" s="221" t="s">
         <v>31</v>
       </c>
@@ -22489,12 +22501,12 @@
       <c r="K8" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="414" t="s">
+      <c r="L8" s="438" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="414"/>
-      <c r="N8" s="414"/>
-      <c r="O8" s="415"/>
+      <c r="M8" s="438"/>
+      <c r="N8" s="438"/>
+      <c r="O8" s="439"/>
       <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22505,10 +22517,10 @@
       <c r="C9" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="404" t="s">
+      <c r="D9" s="428" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="405"/>
+      <c r="E9" s="429"/>
       <c r="F9" s="224" t="s">
         <v>191</v>
       </c>
@@ -22523,10 +22535,10 @@
       </c>
       <c r="J9" s="224"/>
       <c r="K9" s="224"/>
-      <c r="L9" s="406"/>
-      <c r="M9" s="406"/>
-      <c r="N9" s="406"/>
-      <c r="O9" s="407"/>
+      <c r="L9" s="430"/>
+      <c r="M9" s="430"/>
+      <c r="N9" s="430"/>
+      <c r="O9" s="431"/>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22537,10 +22549,10 @@
       <c r="C10" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="404" t="s">
+      <c r="D10" s="428" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="405"/>
+      <c r="E10" s="429"/>
       <c r="F10" s="224"/>
       <c r="G10" s="224"/>
       <c r="H10" s="224" t="s">
@@ -22551,12 +22563,12 @@
       </c>
       <c r="J10" s="224"/>
       <c r="K10" s="224"/>
-      <c r="L10" s="406" t="s">
+      <c r="L10" s="430" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="406"/>
-      <c r="N10" s="406"/>
-      <c r="O10" s="407"/>
+      <c r="M10" s="430"/>
+      <c r="N10" s="430"/>
+      <c r="O10" s="431"/>
       <c r="P10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22567,10 +22579,10 @@
       <c r="C11" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="404" t="s">
+      <c r="D11" s="428" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="405"/>
+      <c r="E11" s="429"/>
       <c r="F11" s="224"/>
       <c r="G11" s="224"/>
       <c r="H11" s="224" t="s">
@@ -22581,10 +22593,10 @@
       </c>
       <c r="J11" s="224"/>
       <c r="K11" s="224"/>
-      <c r="L11" s="406"/>
-      <c r="M11" s="406"/>
-      <c r="N11" s="406"/>
-      <c r="O11" s="407"/>
+      <c r="L11" s="430"/>
+      <c r="M11" s="430"/>
+      <c r="N11" s="430"/>
+      <c r="O11" s="431"/>
       <c r="P11" s="110"/>
     </row>
     <row r="12" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -22595,10 +22607,10 @@
       <c r="C12" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="408" t="s">
+      <c r="D12" s="432" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="409"/>
+      <c r="E12" s="433"/>
       <c r="F12" s="228"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
@@ -22607,10 +22619,10 @@
       </c>
       <c r="J12" s="228"/>
       <c r="K12" s="228"/>
-      <c r="L12" s="410"/>
-      <c r="M12" s="410"/>
-      <c r="N12" s="410"/>
-      <c r="O12" s="411"/>
+      <c r="L12" s="434"/>
+      <c r="M12" s="434"/>
+      <c r="N12" s="434"/>
+      <c r="O12" s="435"/>
       <c r="P12" s="110"/>
     </row>
     <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22697,10 +22709,10 @@
       <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="387" t="s">
+      <c r="D17" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="388"/>
+      <c r="E17" s="392"/>
       <c r="F17" s="25" t="s">
         <v>31</v>
       </c>
@@ -22719,12 +22731,12 @@
       <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="389" t="s">
+      <c r="L17" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="389"/>
-      <c r="N17" s="389"/>
-      <c r="O17" s="390"/>
+      <c r="M17" s="393"/>
+      <c r="N17" s="393"/>
+      <c r="O17" s="394"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22735,10 +22747,10 @@
       <c r="C18" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="379" t="s">
+      <c r="D18" s="385" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="380"/>
+      <c r="E18" s="386"/>
       <c r="F18" s="214"/>
       <c r="G18" s="214"/>
       <c r="H18" s="214" t="s">
@@ -22751,10 +22763,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="214"/>
-      <c r="L18" s="381"/>
-      <c r="M18" s="381"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="382"/>
+      <c r="L18" s="376"/>
+      <c r="M18" s="376"/>
+      <c r="N18" s="376"/>
+      <c r="O18" s="377"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22765,10 +22777,10 @@
       <c r="C19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="379" t="s">
+      <c r="D19" s="385" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="380"/>
+      <c r="E19" s="386"/>
       <c r="F19" s="214"/>
       <c r="G19" s="214"/>
       <c r="H19" s="214" t="s">
@@ -22781,10 +22793,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="214"/>
-      <c r="L19" s="381"/>
-      <c r="M19" s="381"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="382"/>
+      <c r="L19" s="376"/>
+      <c r="M19" s="376"/>
+      <c r="N19" s="376"/>
+      <c r="O19" s="377"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -22795,10 +22807,10 @@
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="391" t="s">
+      <c r="D20" s="395" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="392"/>
+      <c r="E20" s="396"/>
       <c r="F20" s="214"/>
       <c r="G20" s="214"/>
       <c r="H20" s="214" t="s">
@@ -22811,12 +22823,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="214"/>
-      <c r="L20" s="393" t="s">
+      <c r="L20" s="390" t="s">
         <v>205</v>
       </c>
-      <c r="M20" s="381"/>
-      <c r="N20" s="381"/>
-      <c r="O20" s="382"/>
+      <c r="M20" s="376"/>
+      <c r="N20" s="376"/>
+      <c r="O20" s="377"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22827,10 +22839,10 @@
       <c r="C21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="379" t="s">
+      <c r="D21" s="385" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="380"/>
+      <c r="E21" s="386"/>
       <c r="F21" s="214"/>
       <c r="G21" s="214"/>
       <c r="H21" s="214" t="s">
@@ -22841,12 +22853,12 @@
       </c>
       <c r="J21" s="214"/>
       <c r="K21" s="214"/>
-      <c r="L21" s="381" t="s">
+      <c r="L21" s="376" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="381"/>
-      <c r="N21" s="381"/>
-      <c r="O21" s="382"/>
+      <c r="M21" s="376"/>
+      <c r="N21" s="376"/>
+      <c r="O21" s="377"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -22857,10 +22869,10 @@
       <c r="C22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="379" t="s">
+      <c r="D22" s="385" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="380"/>
+      <c r="E22" s="386"/>
       <c r="F22" s="214"/>
       <c r="G22" s="214"/>
       <c r="H22" s="214"/>
@@ -22869,28 +22881,28 @@
       </c>
       <c r="J22" s="214"/>
       <c r="K22" s="214"/>
-      <c r="L22" s="381"/>
-      <c r="M22" s="381"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="382"/>
+      <c r="L22" s="376"/>
+      <c r="M22" s="376"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="377"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="383"/>
-      <c r="E23" s="384"/>
+      <c r="D23" s="381"/>
+      <c r="E23" s="382"/>
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
       <c r="I23" s="31"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="385"/>
-      <c r="M23" s="385"/>
-      <c r="N23" s="385"/>
-      <c r="O23" s="386"/>
+      <c r="L23" s="383"/>
+      <c r="M23" s="383"/>
+      <c r="N23" s="383"/>
+      <c r="O23" s="384"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -22995,10 +23007,10 @@
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="387" t="s">
+      <c r="D29" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="388"/>
+      <c r="E29" s="392"/>
       <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
@@ -23017,12 +23029,12 @@
       <c r="K29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="389" t="s">
+      <c r="L29" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="389"/>
-      <c r="N29" s="389"/>
-      <c r="O29" s="390"/>
+      <c r="M29" s="393"/>
+      <c r="N29" s="393"/>
+      <c r="O29" s="394"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23033,10 +23045,10 @@
       <c r="C30" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="379" t="s">
+      <c r="D30" s="385" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="380"/>
+      <c r="E30" s="386"/>
       <c r="F30" s="214"/>
       <c r="G30" s="214"/>
       <c r="H30" s="214" t="s">
@@ -23047,12 +23059,12 @@
       </c>
       <c r="J30" s="214"/>
       <c r="K30" s="214"/>
-      <c r="L30" s="381" t="s">
+      <c r="L30" s="376" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="381"/>
-      <c r="N30" s="381"/>
-      <c r="O30" s="382"/>
+      <c r="M30" s="376"/>
+      <c r="N30" s="376"/>
+      <c r="O30" s="377"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23063,10 +23075,10 @@
       <c r="C31" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="379" t="s">
+      <c r="D31" s="385" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="380"/>
+      <c r="E31" s="386"/>
       <c r="F31" s="214"/>
       <c r="G31" s="214"/>
       <c r="H31" s="214" t="s">
@@ -23077,82 +23089,82 @@
       </c>
       <c r="J31" s="214"/>
       <c r="K31" s="214"/>
-      <c r="L31" s="381"/>
-      <c r="M31" s="381"/>
-      <c r="N31" s="381"/>
-      <c r="O31" s="382"/>
+      <c r="L31" s="376"/>
+      <c r="M31" s="376"/>
+      <c r="N31" s="376"/>
+      <c r="O31" s="377"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="398"/>
-      <c r="E32" s="399"/>
+      <c r="D32" s="440"/>
+      <c r="E32" s="441"/>
       <c r="F32" s="214"/>
       <c r="G32" s="214"/>
       <c r="H32" s="214"/>
       <c r="I32" s="28"/>
       <c r="J32" s="214"/>
       <c r="K32" s="214"/>
-      <c r="L32" s="381"/>
-      <c r="M32" s="381"/>
-      <c r="N32" s="381"/>
-      <c r="O32" s="382"/>
+      <c r="L32" s="376"/>
+      <c r="M32" s="376"/>
+      <c r="N32" s="376"/>
+      <c r="O32" s="377"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="398"/>
-      <c r="E33" s="399"/>
+      <c r="D33" s="440"/>
+      <c r="E33" s="441"/>
       <c r="F33" s="214"/>
       <c r="G33" s="214"/>
       <c r="H33" s="214"/>
       <c r="I33" s="28"/>
       <c r="J33" s="214"/>
       <c r="K33" s="214"/>
-      <c r="L33" s="381"/>
-      <c r="M33" s="381"/>
-      <c r="N33" s="381"/>
-      <c r="O33" s="382"/>
+      <c r="L33" s="376"/>
+      <c r="M33" s="376"/>
+      <c r="N33" s="376"/>
+      <c r="O33" s="377"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="398"/>
-      <c r="E34" s="399"/>
+      <c r="D34" s="440"/>
+      <c r="E34" s="441"/>
       <c r="F34" s="214"/>
       <c r="G34" s="214"/>
       <c r="H34" s="214"/>
       <c r="I34" s="28"/>
       <c r="J34" s="214"/>
       <c r="K34" s="214"/>
-      <c r="L34" s="381"/>
-      <c r="M34" s="381"/>
-      <c r="N34" s="381"/>
-      <c r="O34" s="382"/>
+      <c r="L34" s="376"/>
+      <c r="M34" s="376"/>
+      <c r="N34" s="376"/>
+      <c r="O34" s="377"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="383"/>
-      <c r="E35" s="384"/>
+      <c r="D35" s="381"/>
+      <c r="E35" s="382"/>
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
       <c r="I35" s="31"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="385"/>
-      <c r="M35" s="385"/>
-      <c r="N35" s="385"/>
-      <c r="O35" s="386"/>
+      <c r="L35" s="383"/>
+      <c r="M35" s="383"/>
+      <c r="N35" s="383"/>
+      <c r="O35" s="384"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -23239,10 +23251,10 @@
       <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="387" t="s">
+      <c r="D40" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="388"/>
+      <c r="E40" s="392"/>
       <c r="F40" s="25" t="s">
         <v>31</v>
       </c>
@@ -23261,12 +23273,12 @@
       <c r="K40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="389" t="s">
+      <c r="L40" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="389"/>
-      <c r="N40" s="389"/>
-      <c r="O40" s="390"/>
+      <c r="M40" s="393"/>
+      <c r="N40" s="393"/>
+      <c r="O40" s="394"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23277,10 +23289,10 @@
       <c r="C41" s="257" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="400" t="s">
+      <c r="D41" s="426" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="401"/>
+      <c r="E41" s="427"/>
       <c r="F41" s="258"/>
       <c r="G41" s="258"/>
       <c r="H41" s="258" t="s">
@@ -23291,12 +23303,12 @@
       </c>
       <c r="J41" s="258"/>
       <c r="K41" s="258"/>
-      <c r="L41" s="402" t="s">
+      <c r="L41" s="424" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="402"/>
-      <c r="N41" s="402"/>
-      <c r="O41" s="403"/>
+      <c r="M41" s="424"/>
+      <c r="N41" s="424"/>
+      <c r="O41" s="425"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23307,10 +23319,10 @@
       <c r="C42" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="400" t="s">
+      <c r="D42" s="426" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="401"/>
+      <c r="E42" s="427"/>
       <c r="F42" s="258"/>
       <c r="G42" s="258"/>
       <c r="H42" s="258" t="s">
@@ -23321,10 +23333,10 @@
       </c>
       <c r="J42" s="258"/>
       <c r="K42" s="258"/>
-      <c r="L42" s="402"/>
-      <c r="M42" s="402"/>
-      <c r="N42" s="402"/>
-      <c r="O42" s="403"/>
+      <c r="L42" s="424"/>
+      <c r="M42" s="424"/>
+      <c r="N42" s="424"/>
+      <c r="O42" s="425"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23335,10 +23347,10 @@
       <c r="C43" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="379" t="s">
+      <c r="D43" s="385" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="380"/>
+      <c r="E43" s="386"/>
       <c r="F43" s="214"/>
       <c r="G43" s="214"/>
       <c r="H43" s="214" t="s">
@@ -23349,10 +23361,10 @@
       </c>
       <c r="J43" s="214"/>
       <c r="K43" s="214"/>
-      <c r="L43" s="381"/>
-      <c r="M43" s="381"/>
-      <c r="N43" s="381"/>
-      <c r="O43" s="382"/>
+      <c r="L43" s="376"/>
+      <c r="M43" s="376"/>
+      <c r="N43" s="376"/>
+      <c r="O43" s="377"/>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23363,10 +23375,10 @@
       <c r="C44" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="379" t="s">
+      <c r="D44" s="385" t="s">
         <v>224</v>
       </c>
-      <c r="E44" s="380"/>
+      <c r="E44" s="386"/>
       <c r="F44" s="214"/>
       <c r="G44" s="214"/>
       <c r="H44" s="214" t="s">
@@ -23377,10 +23389,10 @@
       </c>
       <c r="J44" s="214"/>
       <c r="K44" s="214"/>
-      <c r="L44" s="381"/>
-      <c r="M44" s="381"/>
-      <c r="N44" s="381"/>
-      <c r="O44" s="382"/>
+      <c r="L44" s="376"/>
+      <c r="M44" s="376"/>
+      <c r="N44" s="376"/>
+      <c r="O44" s="377"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23391,10 +23403,10 @@
       <c r="C45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="379" t="s">
+      <c r="D45" s="385" t="s">
         <v>225</v>
       </c>
-      <c r="E45" s="380"/>
+      <c r="E45" s="386"/>
       <c r="F45" s="214"/>
       <c r="G45" s="214"/>
       <c r="H45" s="214" t="s">
@@ -23407,12 +23419,12 @@
       <c r="K45" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="381" t="s">
+      <c r="L45" s="376" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="381"/>
-      <c r="N45" s="381"/>
-      <c r="O45" s="382"/>
+      <c r="M45" s="376"/>
+      <c r="N45" s="376"/>
+      <c r="O45" s="377"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23437,28 +23449,28 @@
       </c>
       <c r="J46" s="237"/>
       <c r="K46" s="237"/>
-      <c r="L46" s="381"/>
-      <c r="M46" s="381"/>
-      <c r="N46" s="381"/>
-      <c r="O46" s="382"/>
+      <c r="L46" s="376"/>
+      <c r="M46" s="376"/>
+      <c r="N46" s="376"/>
+      <c r="O46" s="377"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="383"/>
-      <c r="E47" s="384"/>
+      <c r="D47" s="381"/>
+      <c r="E47" s="382"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
       <c r="H47" s="215"/>
       <c r="I47" s="31"/>
       <c r="J47" s="215"/>
       <c r="K47" s="215"/>
-      <c r="L47" s="385"/>
-      <c r="M47" s="385"/>
-      <c r="N47" s="385"/>
-      <c r="O47" s="386"/>
+      <c r="L47" s="383"/>
+      <c r="M47" s="383"/>
+      <c r="N47" s="383"/>
+      <c r="O47" s="384"/>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -23545,10 +23557,10 @@
       <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="387" t="s">
+      <c r="D52" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="388"/>
+      <c r="E52" s="392"/>
       <c r="F52" s="25" t="s">
         <v>31</v>
       </c>
@@ -23567,12 +23579,12 @@
       <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="389" t="s">
+      <c r="L52" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="389"/>
-      <c r="N52" s="389"/>
-      <c r="O52" s="390"/>
+      <c r="M52" s="393"/>
+      <c r="N52" s="393"/>
+      <c r="O52" s="394"/>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23583,10 +23595,10 @@
       <c r="C53" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="379" t="s">
+      <c r="D53" s="385" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="380"/>
+      <c r="E53" s="386"/>
       <c r="F53" s="214"/>
       <c r="G53" s="214"/>
       <c r="H53" s="214" t="s">
@@ -23599,12 +23611,12 @@
       <c r="K53" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="381" t="s">
+      <c r="L53" s="376" t="s">
         <v>327</v>
       </c>
-      <c r="M53" s="381"/>
-      <c r="N53" s="381"/>
-      <c r="O53" s="382"/>
+      <c r="M53" s="376"/>
+      <c r="N53" s="376"/>
+      <c r="O53" s="377"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23629,12 +23641,12 @@
       </c>
       <c r="J54" s="214"/>
       <c r="K54" s="214"/>
-      <c r="L54" s="419" t="s">
+      <c r="L54" s="378" t="s">
         <v>244</v>
       </c>
-      <c r="M54" s="420"/>
-      <c r="N54" s="420"/>
-      <c r="O54" s="421"/>
+      <c r="M54" s="379"/>
+      <c r="N54" s="379"/>
+      <c r="O54" s="380"/>
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23659,12 +23671,12 @@
       </c>
       <c r="J55" s="214"/>
       <c r="K55" s="214"/>
-      <c r="L55" s="425" t="s">
+      <c r="L55" s="399" t="s">
         <v>291</v>
       </c>
-      <c r="M55" s="426"/>
-      <c r="N55" s="426"/>
-      <c r="O55" s="427"/>
+      <c r="M55" s="400"/>
+      <c r="N55" s="400"/>
+      <c r="O55" s="401"/>
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23687,12 +23699,12 @@
       </c>
       <c r="J56" s="214"/>
       <c r="K56" s="214"/>
-      <c r="L56" s="416" t="s">
+      <c r="L56" s="418" t="s">
         <v>241</v>
       </c>
-      <c r="M56" s="417"/>
-      <c r="N56" s="417"/>
-      <c r="O56" s="418"/>
+      <c r="M56" s="419"/>
+      <c r="N56" s="419"/>
+      <c r="O56" s="420"/>
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23715,10 +23727,10 @@
       </c>
       <c r="J57" s="214"/>
       <c r="K57" s="214"/>
-      <c r="L57" s="422"/>
-      <c r="M57" s="423"/>
-      <c r="N57" s="423"/>
-      <c r="O57" s="424"/>
+      <c r="L57" s="421"/>
+      <c r="M57" s="422"/>
+      <c r="N57" s="422"/>
+      <c r="O57" s="423"/>
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -23729,10 +23741,10 @@
       <c r="C58" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="391" t="s">
+      <c r="D58" s="395" t="s">
         <v>226</v>
       </c>
-      <c r="E58" s="392"/>
+      <c r="E58" s="396"/>
       <c r="F58" s="214"/>
       <c r="G58" s="214"/>
       <c r="H58" s="214" t="s">
@@ -23743,12 +23755,12 @@
       </c>
       <c r="J58" s="214"/>
       <c r="K58" s="214"/>
-      <c r="L58" s="393" t="s">
+      <c r="L58" s="390" t="s">
         <v>407</v>
       </c>
-      <c r="M58" s="381"/>
-      <c r="N58" s="381"/>
-      <c r="O58" s="382"/>
+      <c r="M58" s="376"/>
+      <c r="N58" s="376"/>
+      <c r="O58" s="377"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -23759,10 +23771,10 @@
       <c r="C59" s="262" t="s">
         <v>435</v>
       </c>
-      <c r="D59" s="365" t="s">
+      <c r="D59" s="374" t="s">
         <v>437</v>
       </c>
-      <c r="E59" s="366"/>
+      <c r="E59" s="375"/>
       <c r="F59" s="265"/>
       <c r="G59" s="265"/>
       <c r="H59" s="265" t="s">
@@ -23773,10 +23785,10 @@
       </c>
       <c r="J59" s="265"/>
       <c r="K59" s="265"/>
-      <c r="L59" s="367"/>
-      <c r="M59" s="367"/>
-      <c r="N59" s="367"/>
-      <c r="O59" s="368"/>
+      <c r="L59" s="368"/>
+      <c r="M59" s="368"/>
+      <c r="N59" s="368"/>
+      <c r="O59" s="369"/>
       <c r="P59" s="267"/>
     </row>
     <row r="60" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -23787,10 +23799,10 @@
       <c r="C60" s="262" t="s">
         <v>436</v>
       </c>
-      <c r="D60" s="365" t="s">
+      <c r="D60" s="374" t="s">
         <v>438</v>
       </c>
-      <c r="E60" s="366"/>
+      <c r="E60" s="375"/>
       <c r="F60" s="265"/>
       <c r="G60" s="265"/>
       <c r="H60" s="265" t="s">
@@ -23801,10 +23813,10 @@
       </c>
       <c r="J60" s="265"/>
       <c r="K60" s="265"/>
-      <c r="L60" s="367"/>
-      <c r="M60" s="367"/>
-      <c r="N60" s="367"/>
-      <c r="O60" s="368"/>
+      <c r="L60" s="368"/>
+      <c r="M60" s="368"/>
+      <c r="N60" s="368"/>
+      <c r="O60" s="369"/>
       <c r="P60" s="267"/>
     </row>
     <row r="61" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23815,10 +23827,10 @@
       <c r="C61" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="379" t="s">
+      <c r="D61" s="385" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="380"/>
+      <c r="E61" s="386"/>
       <c r="F61" s="214"/>
       <c r="G61" s="214"/>
       <c r="H61" s="214" t="s">
@@ -23831,30 +23843,30 @@
       <c r="K61" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L61" s="381" t="s">
+      <c r="L61" s="376" t="s">
         <v>268</v>
       </c>
-      <c r="M61" s="381"/>
-      <c r="N61" s="381"/>
-      <c r="O61" s="382"/>
+      <c r="M61" s="376"/>
+      <c r="N61" s="376"/>
+      <c r="O61" s="377"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="29"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="383"/>
-      <c r="E62" s="384"/>
+      <c r="D62" s="381"/>
+      <c r="E62" s="382"/>
       <c r="F62" s="215"/>
       <c r="G62" s="215"/>
       <c r="H62" s="215"/>
       <c r="I62" s="31"/>
       <c r="J62" s="215"/>
       <c r="K62" s="215"/>
-      <c r="L62" s="385"/>
-      <c r="M62" s="385"/>
-      <c r="N62" s="385"/>
-      <c r="O62" s="386"/>
+      <c r="L62" s="383"/>
+      <c r="M62" s="383"/>
+      <c r="N62" s="383"/>
+      <c r="O62" s="384"/>
       <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -23941,10 +23953,10 @@
       <c r="C67" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="387" t="s">
+      <c r="D67" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="388"/>
+      <c r="E67" s="392"/>
       <c r="F67" s="25" t="s">
         <v>31</v>
       </c>
@@ -23963,12 +23975,12 @@
       <c r="K67" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L67" s="389" t="s">
+      <c r="L67" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M67" s="389"/>
-      <c r="N67" s="389"/>
-      <c r="O67" s="390"/>
+      <c r="M67" s="393"/>
+      <c r="N67" s="393"/>
+      <c r="O67" s="394"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -23979,10 +23991,10 @@
       <c r="C68" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D68" s="379" t="s">
+      <c r="D68" s="385" t="s">
         <v>265</v>
       </c>
-      <c r="E68" s="380"/>
+      <c r="E68" s="386"/>
       <c r="F68" s="214"/>
       <c r="G68" s="214"/>
       <c r="H68" s="214" t="s">
@@ -23995,12 +24007,12 @@
       <c r="K68" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L68" s="381" t="s">
+      <c r="L68" s="376" t="s">
         <v>266</v>
       </c>
-      <c r="M68" s="381"/>
-      <c r="N68" s="381"/>
-      <c r="O68" s="382"/>
+      <c r="M68" s="376"/>
+      <c r="N68" s="376"/>
+      <c r="O68" s="377"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24011,10 +24023,10 @@
       <c r="C69" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="379" t="s">
+      <c r="D69" s="385" t="s">
         <v>246</v>
       </c>
-      <c r="E69" s="380"/>
+      <c r="E69" s="386"/>
       <c r="F69" s="214"/>
       <c r="G69" s="214"/>
       <c r="H69" s="214" t="s">
@@ -24025,10 +24037,10 @@
       </c>
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
-      <c r="L69" s="381"/>
-      <c r="M69" s="381"/>
-      <c r="N69" s="381"/>
-      <c r="O69" s="382"/>
+      <c r="L69" s="376"/>
+      <c r="M69" s="376"/>
+      <c r="N69" s="376"/>
+      <c r="O69" s="377"/>
       <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24039,10 +24051,10 @@
       <c r="C70" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="379" t="s">
+      <c r="D70" s="385" t="s">
         <v>247</v>
       </c>
-      <c r="E70" s="380"/>
+      <c r="E70" s="386"/>
       <c r="F70" s="214"/>
       <c r="G70" s="214"/>
       <c r="H70" s="214" t="s">
@@ -24053,10 +24065,10 @@
       </c>
       <c r="J70" s="214"/>
       <c r="K70" s="214"/>
-      <c r="L70" s="381"/>
-      <c r="M70" s="381"/>
-      <c r="N70" s="381"/>
-      <c r="O70" s="382"/>
+      <c r="L70" s="376"/>
+      <c r="M70" s="376"/>
+      <c r="N70" s="376"/>
+      <c r="O70" s="377"/>
       <c r="P70" s="10"/>
     </row>
     <row r="71" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24079,12 +24091,12 @@
       </c>
       <c r="J71" s="214"/>
       <c r="K71" s="214"/>
-      <c r="L71" s="416" t="s">
+      <c r="L71" s="418" t="s">
         <v>241</v>
       </c>
-      <c r="M71" s="417"/>
-      <c r="N71" s="417"/>
-      <c r="O71" s="418"/>
+      <c r="M71" s="419"/>
+      <c r="N71" s="419"/>
+      <c r="O71" s="420"/>
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24107,10 +24119,10 @@
       </c>
       <c r="J72" s="214"/>
       <c r="K72" s="214"/>
-      <c r="L72" s="422"/>
-      <c r="M72" s="423"/>
-      <c r="N72" s="423"/>
-      <c r="O72" s="424"/>
+      <c r="L72" s="421"/>
+      <c r="M72" s="422"/>
+      <c r="N72" s="422"/>
+      <c r="O72" s="423"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24121,10 +24133,10 @@
       <c r="C73" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="D73" s="379" t="s">
+      <c r="D73" s="385" t="s">
         <v>248</v>
       </c>
-      <c r="E73" s="380"/>
+      <c r="E73" s="386"/>
       <c r="F73" s="214"/>
       <c r="G73" s="214"/>
       <c r="H73" s="214"/>
@@ -24135,28 +24147,28 @@
         <v>255</v>
       </c>
       <c r="K73" s="214"/>
-      <c r="L73" s="393"/>
-      <c r="M73" s="381"/>
-      <c r="N73" s="381"/>
-      <c r="O73" s="382"/>
+      <c r="L73" s="390"/>
+      <c r="M73" s="376"/>
+      <c r="N73" s="376"/>
+      <c r="O73" s="377"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="29"/>
       <c r="C74" s="30"/>
-      <c r="D74" s="383"/>
-      <c r="E74" s="384"/>
+      <c r="D74" s="381"/>
+      <c r="E74" s="382"/>
       <c r="F74" s="215"/>
       <c r="G74" s="215"/>
       <c r="H74" s="215"/>
       <c r="I74" s="31"/>
       <c r="J74" s="215"/>
       <c r="K74" s="215"/>
-      <c r="L74" s="385"/>
-      <c r="M74" s="385"/>
-      <c r="N74" s="385"/>
-      <c r="O74" s="386"/>
+      <c r="L74" s="383"/>
+      <c r="M74" s="383"/>
+      <c r="N74" s="383"/>
+      <c r="O74" s="384"/>
       <c r="P74" s="10"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -24243,10 +24255,10 @@
       <c r="C79" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="387" t="s">
+      <c r="D79" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="388"/>
+      <c r="E79" s="392"/>
       <c r="F79" s="25" t="s">
         <v>31</v>
       </c>
@@ -24265,12 +24277,12 @@
       <c r="K79" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L79" s="389" t="s">
+      <c r="L79" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M79" s="389"/>
-      <c r="N79" s="389"/>
-      <c r="O79" s="390"/>
+      <c r="M79" s="393"/>
+      <c r="N79" s="393"/>
+      <c r="O79" s="394"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24281,10 +24293,10 @@
       <c r="C80" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D80" s="379" t="s">
+      <c r="D80" s="385" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="380"/>
+      <c r="E80" s="386"/>
       <c r="F80" s="214"/>
       <c r="G80" s="214"/>
       <c r="H80" s="214" t="s">
@@ -24297,12 +24309,12 @@
       <c r="K80" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L80" s="381" t="s">
+      <c r="L80" s="376" t="s">
         <v>327</v>
       </c>
-      <c r="M80" s="381"/>
-      <c r="N80" s="381"/>
-      <c r="O80" s="382"/>
+      <c r="M80" s="376"/>
+      <c r="N80" s="376"/>
+      <c r="O80" s="377"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24313,10 +24325,10 @@
       <c r="C81" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D81" s="379" t="s">
+      <c r="D81" s="385" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="380"/>
+      <c r="E81" s="386"/>
       <c r="F81" s="214"/>
       <c r="G81" s="214"/>
       <c r="H81" s="214" t="s">
@@ -24327,10 +24339,10 @@
       </c>
       <c r="J81" s="214"/>
       <c r="K81" s="214"/>
-      <c r="L81" s="381"/>
-      <c r="M81" s="381"/>
-      <c r="N81" s="381"/>
-      <c r="O81" s="382"/>
+      <c r="L81" s="376"/>
+      <c r="M81" s="376"/>
+      <c r="N81" s="376"/>
+      <c r="O81" s="377"/>
       <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24341,10 +24353,10 @@
       <c r="C82" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D82" s="379" t="s">
+      <c r="D82" s="385" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="380"/>
+      <c r="E82" s="386"/>
       <c r="F82" s="214"/>
       <c r="G82" s="214"/>
       <c r="H82" s="214" t="s">
@@ -24357,12 +24369,12 @@
       <c r="K82" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L82" s="416" t="s">
+      <c r="L82" s="418" t="s">
         <v>408</v>
       </c>
-      <c r="M82" s="417"/>
-      <c r="N82" s="417"/>
-      <c r="O82" s="418"/>
+      <c r="M82" s="419"/>
+      <c r="N82" s="419"/>
+      <c r="O82" s="420"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24373,10 +24385,10 @@
       <c r="C83" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D83" s="379" t="s">
+      <c r="D83" s="385" t="s">
         <v>259</v>
       </c>
-      <c r="E83" s="380"/>
+      <c r="E83" s="386"/>
       <c r="F83" s="214"/>
       <c r="G83" s="214"/>
       <c r="H83" s="214" t="s">
@@ -24387,10 +24399,10 @@
       </c>
       <c r="J83" s="214"/>
       <c r="K83" s="241"/>
-      <c r="L83" s="381"/>
-      <c r="M83" s="381"/>
-      <c r="N83" s="381"/>
-      <c r="O83" s="382"/>
+      <c r="L83" s="376"/>
+      <c r="M83" s="376"/>
+      <c r="N83" s="376"/>
+      <c r="O83" s="377"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24401,10 +24413,10 @@
       <c r="C84" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="379" t="s">
+      <c r="D84" s="385" t="s">
         <v>260</v>
       </c>
-      <c r="E84" s="380"/>
+      <c r="E84" s="386"/>
       <c r="F84" s="214"/>
       <c r="G84" s="214"/>
       <c r="H84" s="214" t="s">
@@ -24415,12 +24427,12 @@
       </c>
       <c r="J84" s="214"/>
       <c r="K84" s="241"/>
-      <c r="L84" s="381" t="s">
+      <c r="L84" s="376" t="s">
         <v>358</v>
       </c>
-      <c r="M84" s="381"/>
-      <c r="N84" s="381"/>
-      <c r="O84" s="382"/>
+      <c r="M84" s="376"/>
+      <c r="N84" s="376"/>
+      <c r="O84" s="377"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24431,10 +24443,10 @@
       <c r="C85" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="379" t="s">
+      <c r="D85" s="385" t="s">
         <v>261</v>
       </c>
-      <c r="E85" s="380"/>
+      <c r="E85" s="386"/>
       <c r="F85" s="214"/>
       <c r="G85" s="214"/>
       <c r="H85" s="214" t="s">
@@ -24445,12 +24457,12 @@
       </c>
       <c r="J85" s="214"/>
       <c r="K85" s="241"/>
-      <c r="L85" s="381" t="s">
+      <c r="L85" s="376" t="s">
         <v>252</v>
       </c>
-      <c r="M85" s="381"/>
-      <c r="N85" s="381"/>
-      <c r="O85" s="382"/>
+      <c r="M85" s="376"/>
+      <c r="N85" s="376"/>
+      <c r="O85" s="377"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24461,10 +24473,10 @@
       <c r="C86" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="D86" s="379" t="s">
+      <c r="D86" s="385" t="s">
         <v>262</v>
       </c>
-      <c r="E86" s="380"/>
+      <c r="E86" s="386"/>
       <c r="F86" s="214"/>
       <c r="G86" s="214"/>
       <c r="H86" s="214" t="s">
@@ -24477,48 +24489,48 @@
       <c r="K86" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L86" s="428" t="s">
+      <c r="L86" s="415" t="s">
         <v>268</v>
       </c>
-      <c r="M86" s="429"/>
-      <c r="N86" s="429"/>
-      <c r="O86" s="430"/>
+      <c r="M86" s="416"/>
+      <c r="N86" s="416"/>
+      <c r="O86" s="417"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
-      <c r="D87" s="379"/>
-      <c r="E87" s="380"/>
+      <c r="D87" s="385"/>
+      <c r="E87" s="386"/>
       <c r="F87" s="214"/>
       <c r="G87" s="214"/>
       <c r="H87" s="214"/>
       <c r="I87" s="28"/>
       <c r="J87" s="214"/>
       <c r="K87" s="214"/>
-      <c r="L87" s="381"/>
-      <c r="M87" s="381"/>
-      <c r="N87" s="381"/>
-      <c r="O87" s="382"/>
+      <c r="L87" s="376"/>
+      <c r="M87" s="376"/>
+      <c r="N87" s="376"/>
+      <c r="O87" s="377"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="29"/>
       <c r="C88" s="30"/>
-      <c r="D88" s="383"/>
-      <c r="E88" s="384"/>
+      <c r="D88" s="381"/>
+      <c r="E88" s="382"/>
       <c r="F88" s="215"/>
       <c r="G88" s="215"/>
       <c r="H88" s="215"/>
       <c r="I88" s="31"/>
       <c r="J88" s="215"/>
       <c r="K88" s="215"/>
-      <c r="L88" s="385"/>
-      <c r="M88" s="385"/>
-      <c r="N88" s="385"/>
-      <c r="O88" s="386"/>
+      <c r="L88" s="383"/>
+      <c r="M88" s="383"/>
+      <c r="N88" s="383"/>
+      <c r="O88" s="384"/>
       <c r="P88" s="10"/>
     </row>
     <row r="89" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24605,10 +24617,10 @@
       <c r="C93" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="387" t="s">
+      <c r="D93" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="388"/>
+      <c r="E93" s="392"/>
       <c r="F93" s="25" t="s">
         <v>31</v>
       </c>
@@ -24627,12 +24639,12 @@
       <c r="K93" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L93" s="389" t="s">
+      <c r="L93" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M93" s="389"/>
-      <c r="N93" s="389"/>
-      <c r="O93" s="390"/>
+      <c r="M93" s="393"/>
+      <c r="N93" s="393"/>
+      <c r="O93" s="394"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24643,10 +24655,10 @@
       <c r="C94" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D94" s="379" t="s">
+      <c r="D94" s="385" t="s">
         <v>267</v>
       </c>
-      <c r="E94" s="380"/>
+      <c r="E94" s="386"/>
       <c r="F94" s="214"/>
       <c r="G94" s="214"/>
       <c r="H94" s="214" t="s">
@@ -24659,12 +24671,12 @@
       <c r="K94" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L94" s="381" t="s">
+      <c r="L94" s="376" t="s">
         <v>263</v>
       </c>
-      <c r="M94" s="381"/>
-      <c r="N94" s="381"/>
-      <c r="O94" s="382"/>
+      <c r="M94" s="376"/>
+      <c r="N94" s="376"/>
+      <c r="O94" s="377"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24675,10 +24687,10 @@
       <c r="C95" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D95" s="379" t="s">
+      <c r="D95" s="385" t="s">
         <v>262</v>
       </c>
-      <c r="E95" s="380"/>
+      <c r="E95" s="386"/>
       <c r="F95" s="214"/>
       <c r="G95" s="214"/>
       <c r="H95" s="214" t="s">
@@ -24691,12 +24703,12 @@
       <c r="K95" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L95" s="428" t="s">
+      <c r="L95" s="415" t="s">
         <v>268</v>
       </c>
-      <c r="M95" s="429"/>
-      <c r="N95" s="429"/>
-      <c r="O95" s="430"/>
+      <c r="M95" s="416"/>
+      <c r="N95" s="416"/>
+      <c r="O95" s="417"/>
       <c r="P95" s="10"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24707,10 +24719,10 @@
       <c r="C96" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D96" s="379" t="s">
+      <c r="D96" s="385" t="s">
         <v>269</v>
       </c>
-      <c r="E96" s="380"/>
+      <c r="E96" s="386"/>
       <c r="F96" s="214"/>
       <c r="G96" s="214"/>
       <c r="H96" s="214" t="s">
@@ -24721,10 +24733,10 @@
       </c>
       <c r="J96" s="214"/>
       <c r="K96" s="214"/>
-      <c r="L96" s="416"/>
-      <c r="M96" s="417"/>
-      <c r="N96" s="417"/>
-      <c r="O96" s="418"/>
+      <c r="L96" s="418"/>
+      <c r="M96" s="419"/>
+      <c r="N96" s="419"/>
+      <c r="O96" s="420"/>
       <c r="P96" s="10"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24735,10 +24747,10 @@
       <c r="C97" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D97" s="379" t="s">
+      <c r="D97" s="385" t="s">
         <v>270</v>
       </c>
-      <c r="E97" s="380"/>
+      <c r="E97" s="386"/>
       <c r="F97" s="214"/>
       <c r="G97" s="214"/>
       <c r="H97" s="214" t="s">
@@ -24749,10 +24761,10 @@
       </c>
       <c r="J97" s="214"/>
       <c r="K97" s="241"/>
-      <c r="L97" s="381"/>
-      <c r="M97" s="381"/>
-      <c r="N97" s="381"/>
-      <c r="O97" s="382"/>
+      <c r="L97" s="376"/>
+      <c r="M97" s="376"/>
+      <c r="N97" s="376"/>
+      <c r="O97" s="377"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24763,10 +24775,10 @@
       <c r="C98" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D98" s="379" t="s">
+      <c r="D98" s="385" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="380"/>
+      <c r="E98" s="386"/>
       <c r="F98" s="214"/>
       <c r="G98" s="214"/>
       <c r="H98" s="214"/>
@@ -24777,28 +24789,28 @@
         <v>255</v>
       </c>
       <c r="K98" s="241"/>
-      <c r="L98" s="381"/>
-      <c r="M98" s="381"/>
-      <c r="N98" s="381"/>
-      <c r="O98" s="382"/>
+      <c r="L98" s="376"/>
+      <c r="M98" s="376"/>
+      <c r="N98" s="376"/>
+      <c r="O98" s="377"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="29"/>
       <c r="C99" s="30"/>
-      <c r="D99" s="394"/>
-      <c r="E99" s="395"/>
+      <c r="D99" s="413"/>
+      <c r="E99" s="414"/>
       <c r="F99" s="215"/>
       <c r="G99" s="215"/>
       <c r="H99" s="215"/>
       <c r="I99" s="31"/>
       <c r="J99" s="215"/>
       <c r="K99" s="215"/>
-      <c r="L99" s="385"/>
-      <c r="M99" s="385"/>
-      <c r="N99" s="385"/>
-      <c r="O99" s="386"/>
+      <c r="L99" s="383"/>
+      <c r="M99" s="383"/>
+      <c r="N99" s="383"/>
+      <c r="O99" s="384"/>
       <c r="P99" s="10"/>
     </row>
     <row r="100" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24885,10 +24897,10 @@
       <c r="C104" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="387" t="s">
+      <c r="D104" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E104" s="388"/>
+      <c r="E104" s="392"/>
       <c r="F104" s="25" t="s">
         <v>31</v>
       </c>
@@ -24907,12 +24919,12 @@
       <c r="K104" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L104" s="389" t="s">
+      <c r="L104" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M104" s="389"/>
-      <c r="N104" s="389"/>
-      <c r="O104" s="390"/>
+      <c r="M104" s="393"/>
+      <c r="N104" s="393"/>
+      <c r="O104" s="394"/>
       <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -24923,10 +24935,10 @@
       <c r="C105" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D105" s="379" t="s">
+      <c r="D105" s="385" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="380"/>
+      <c r="E105" s="386"/>
       <c r="F105" s="214"/>
       <c r="G105" s="214"/>
       <c r="H105" s="214" t="s">
@@ -24939,12 +24951,12 @@
       <c r="K105" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L105" s="381" t="s">
+      <c r="L105" s="376" t="s">
         <v>327</v>
       </c>
-      <c r="M105" s="381"/>
-      <c r="N105" s="381"/>
-      <c r="O105" s="382"/>
+      <c r="M105" s="376"/>
+      <c r="N105" s="376"/>
+      <c r="O105" s="377"/>
       <c r="P105" s="10"/>
     </row>
     <row r="106" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -24955,10 +24967,10 @@
       <c r="C106" s="262" t="s">
         <v>450</v>
       </c>
-      <c r="D106" s="365" t="s">
+      <c r="D106" s="374" t="s">
         <v>452</v>
       </c>
-      <c r="E106" s="366"/>
+      <c r="E106" s="375"/>
       <c r="F106" s="265"/>
       <c r="G106" s="265"/>
       <c r="H106" s="265" t="s">
@@ -24969,10 +24981,10 @@
       </c>
       <c r="J106" s="265"/>
       <c r="K106" s="265"/>
-      <c r="L106" s="367"/>
-      <c r="M106" s="367"/>
-      <c r="N106" s="367"/>
-      <c r="O106" s="368"/>
+      <c r="L106" s="368"/>
+      <c r="M106" s="368"/>
+      <c r="N106" s="368"/>
+      <c r="O106" s="369"/>
       <c r="P106" s="267"/>
     </row>
     <row r="107" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -24983,10 +24995,10 @@
       <c r="C107" s="262" t="s">
         <v>451</v>
       </c>
-      <c r="D107" s="365" t="s">
+      <c r="D107" s="374" t="s">
         <v>404</v>
       </c>
-      <c r="E107" s="366"/>
+      <c r="E107" s="375"/>
       <c r="F107" s="265"/>
       <c r="G107" s="265"/>
       <c r="H107" s="265" t="s">
@@ -24997,10 +25009,10 @@
       </c>
       <c r="J107" s="265"/>
       <c r="K107" s="265"/>
-      <c r="L107" s="367"/>
-      <c r="M107" s="367"/>
-      <c r="N107" s="367"/>
-      <c r="O107" s="368"/>
+      <c r="L107" s="368"/>
+      <c r="M107" s="368"/>
+      <c r="N107" s="368"/>
+      <c r="O107" s="369"/>
       <c r="P107" s="267"/>
     </row>
     <row r="108" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25025,12 +25037,12 @@
       </c>
       <c r="J108" s="283"/>
       <c r="K108" s="283"/>
-      <c r="L108" s="369" t="s">
+      <c r="L108" s="444" t="s">
         <v>268</v>
       </c>
-      <c r="M108" s="370"/>
-      <c r="N108" s="370"/>
-      <c r="O108" s="371"/>
+      <c r="M108" s="445"/>
+      <c r="N108" s="445"/>
+      <c r="O108" s="446"/>
       <c r="P108" s="267"/>
     </row>
     <row r="109" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25053,10 +25065,10 @@
       </c>
       <c r="J109" s="283"/>
       <c r="K109" s="283"/>
-      <c r="L109" s="369"/>
-      <c r="M109" s="370"/>
-      <c r="N109" s="370"/>
-      <c r="O109" s="371"/>
+      <c r="L109" s="444"/>
+      <c r="M109" s="445"/>
+      <c r="N109" s="445"/>
+      <c r="O109" s="446"/>
       <c r="P109" s="267"/>
     </row>
     <row r="110" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25067,20 +25079,20 @@
       <c r="C110" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="D110" s="383"/>
-      <c r="E110" s="384"/>
+      <c r="D110" s="381"/>
+      <c r="E110" s="382"/>
       <c r="F110" s="215"/>
       <c r="G110" s="215"/>
       <c r="H110" s="215"/>
       <c r="I110" s="31"/>
       <c r="J110" s="215"/>
       <c r="K110" s="215"/>
-      <c r="L110" s="385" t="s">
+      <c r="L110" s="383" t="s">
         <v>448</v>
       </c>
-      <c r="M110" s="385"/>
-      <c r="N110" s="385"/>
-      <c r="O110" s="386"/>
+      <c r="M110" s="383"/>
+      <c r="N110" s="383"/>
+      <c r="O110" s="384"/>
       <c r="P110" s="10"/>
     </row>
     <row r="111" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25167,10 +25179,10 @@
       <c r="C115" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D115" s="387" t="s">
+      <c r="D115" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="388"/>
+      <c r="E115" s="392"/>
       <c r="F115" s="25" t="s">
         <v>31</v>
       </c>
@@ -25189,12 +25201,12 @@
       <c r="K115" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L115" s="389" t="s">
+      <c r="L115" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M115" s="389"/>
-      <c r="N115" s="389"/>
-      <c r="O115" s="390"/>
+      <c r="M115" s="393"/>
+      <c r="N115" s="393"/>
+      <c r="O115" s="394"/>
       <c r="P115" s="10"/>
     </row>
     <row r="116" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25205,10 +25217,10 @@
       <c r="C116" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D116" s="379" t="s">
+      <c r="D116" s="385" t="s">
         <v>267</v>
       </c>
-      <c r="E116" s="380"/>
+      <c r="E116" s="386"/>
       <c r="F116" s="214"/>
       <c r="G116" s="214"/>
       <c r="H116" s="214" t="s">
@@ -25221,12 +25233,12 @@
       <c r="K116" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L116" s="381" t="s">
+      <c r="L116" s="376" t="s">
         <v>263</v>
       </c>
-      <c r="M116" s="381"/>
-      <c r="N116" s="381"/>
-      <c r="O116" s="382"/>
+      <c r="M116" s="376"/>
+      <c r="N116" s="376"/>
+      <c r="O116" s="377"/>
       <c r="P116" s="10"/>
     </row>
     <row r="117" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25237,10 +25249,10 @@
       <c r="C117" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D117" s="379" t="s">
+      <c r="D117" s="385" t="s">
         <v>243</v>
       </c>
-      <c r="E117" s="380"/>
+      <c r="E117" s="386"/>
       <c r="F117" s="214"/>
       <c r="G117" s="214"/>
       <c r="H117" s="214" t="s">
@@ -25251,12 +25263,12 @@
       </c>
       <c r="J117" s="214"/>
       <c r="K117" s="214"/>
-      <c r="L117" s="381" t="s">
+      <c r="L117" s="376" t="s">
         <v>344</v>
       </c>
-      <c r="M117" s="381"/>
-      <c r="N117" s="381"/>
-      <c r="O117" s="382"/>
+      <c r="M117" s="376"/>
+      <c r="N117" s="376"/>
+      <c r="O117" s="377"/>
       <c r="P117" s="10"/>
     </row>
     <row r="118" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25281,28 +25293,28 @@
       </c>
       <c r="J118" s="237"/>
       <c r="K118" s="237"/>
-      <c r="L118" s="436"/>
-      <c r="M118" s="437"/>
-      <c r="N118" s="437"/>
-      <c r="O118" s="438"/>
+      <c r="L118" s="387"/>
+      <c r="M118" s="388"/>
+      <c r="N118" s="388"/>
+      <c r="O118" s="389"/>
       <c r="P118" s="10"/>
     </row>
     <row r="119" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9"/>
       <c r="B119" s="29"/>
       <c r="C119" s="30"/>
-      <c r="D119" s="383"/>
-      <c r="E119" s="384"/>
+      <c r="D119" s="381"/>
+      <c r="E119" s="382"/>
       <c r="F119" s="215"/>
       <c r="G119" s="215"/>
       <c r="H119" s="215"/>
       <c r="I119" s="31"/>
       <c r="J119" s="215"/>
       <c r="K119" s="215"/>
-      <c r="L119" s="385"/>
-      <c r="M119" s="385"/>
-      <c r="N119" s="385"/>
-      <c r="O119" s="386"/>
+      <c r="L119" s="383"/>
+      <c r="M119" s="383"/>
+      <c r="N119" s="383"/>
+      <c r="O119" s="384"/>
       <c r="P119" s="10"/>
     </row>
     <row r="120" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -25371,10 +25383,10 @@
       <c r="C123" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="387" t="s">
+      <c r="D123" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="388"/>
+      <c r="E123" s="392"/>
       <c r="F123" s="25" t="s">
         <v>31</v>
       </c>
@@ -25393,12 +25405,12 @@
       <c r="K123" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L123" s="389" t="s">
+      <c r="L123" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M123" s="389"/>
-      <c r="N123" s="389"/>
-      <c r="O123" s="390"/>
+      <c r="M123" s="393"/>
+      <c r="N123" s="393"/>
+      <c r="O123" s="394"/>
       <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25409,10 +25421,10 @@
       <c r="C124" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D124" s="379" t="s">
+      <c r="D124" s="385" t="s">
         <v>300</v>
       </c>
-      <c r="E124" s="380"/>
+      <c r="E124" s="386"/>
       <c r="F124" s="214" t="s">
         <v>191</v>
       </c>
@@ -25427,10 +25439,10 @@
         <v>128</v>
       </c>
       <c r="K124" s="214"/>
-      <c r="L124" s="428"/>
-      <c r="M124" s="429"/>
-      <c r="N124" s="429"/>
-      <c r="O124" s="430"/>
+      <c r="L124" s="415"/>
+      <c r="M124" s="416"/>
+      <c r="N124" s="416"/>
+      <c r="O124" s="417"/>
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25441,10 +25453,10 @@
       <c r="C125" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D125" s="379" t="s">
+      <c r="D125" s="385" t="s">
         <v>185</v>
       </c>
-      <c r="E125" s="380"/>
+      <c r="E125" s="386"/>
       <c r="F125" s="214"/>
       <c r="G125" s="214"/>
       <c r="H125" s="214" t="s">
@@ -25459,10 +25471,10 @@
       <c r="K125" s="214">
         <v>128</v>
       </c>
-      <c r="L125" s="381"/>
-      <c r="M125" s="381"/>
-      <c r="N125" s="381"/>
-      <c r="O125" s="382"/>
+      <c r="L125" s="376"/>
+      <c r="M125" s="376"/>
+      <c r="N125" s="376"/>
+      <c r="O125" s="377"/>
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25487,12 +25499,12 @@
       </c>
       <c r="J126" s="237"/>
       <c r="K126" s="237"/>
-      <c r="L126" s="419" t="s">
+      <c r="L126" s="378" t="s">
         <v>365</v>
       </c>
-      <c r="M126" s="420"/>
-      <c r="N126" s="420"/>
-      <c r="O126" s="421"/>
+      <c r="M126" s="379"/>
+      <c r="N126" s="379"/>
+      <c r="O126" s="380"/>
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25519,12 +25531,12 @@
         <v>128</v>
       </c>
       <c r="K127" s="237"/>
-      <c r="L127" s="419" t="s">
+      <c r="L127" s="378" t="s">
         <v>367</v>
       </c>
-      <c r="M127" s="420"/>
-      <c r="N127" s="420"/>
-      <c r="O127" s="421"/>
+      <c r="M127" s="379"/>
+      <c r="N127" s="379"/>
+      <c r="O127" s="380"/>
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25535,10 +25547,10 @@
       <c r="C128" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D128" s="379" t="s">
+      <c r="D128" s="385" t="s">
         <v>218</v>
       </c>
-      <c r="E128" s="380"/>
+      <c r="E128" s="386"/>
       <c r="F128" s="214"/>
       <c r="G128" s="214"/>
       <c r="H128" s="214" t="s">
@@ -25551,12 +25563,12 @@
       <c r="K128" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L128" s="381" t="s">
+      <c r="L128" s="376" t="s">
         <v>327</v>
       </c>
-      <c r="M128" s="381"/>
-      <c r="N128" s="381"/>
-      <c r="O128" s="382"/>
+      <c r="M128" s="376"/>
+      <c r="N128" s="376"/>
+      <c r="O128" s="377"/>
       <c r="P128" s="10"/>
     </row>
     <row r="129" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25581,28 +25593,28 @@
       </c>
       <c r="J129" s="237"/>
       <c r="K129" s="237"/>
-      <c r="L129" s="436"/>
-      <c r="M129" s="437"/>
-      <c r="N129" s="437"/>
-      <c r="O129" s="438"/>
+      <c r="L129" s="387"/>
+      <c r="M129" s="388"/>
+      <c r="N129" s="388"/>
+      <c r="O129" s="389"/>
       <c r="P129" s="10"/>
     </row>
     <row r="130" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="29"/>
       <c r="C130" s="30"/>
-      <c r="D130" s="383"/>
-      <c r="E130" s="384"/>
+      <c r="D130" s="381"/>
+      <c r="E130" s="382"/>
       <c r="F130" s="215"/>
       <c r="G130" s="215"/>
       <c r="H130" s="215"/>
       <c r="I130" s="31"/>
       <c r="J130" s="215"/>
       <c r="K130" s="215"/>
-      <c r="L130" s="385"/>
-      <c r="M130" s="385"/>
-      <c r="N130" s="385"/>
-      <c r="O130" s="386"/>
+      <c r="L130" s="383"/>
+      <c r="M130" s="383"/>
+      <c r="N130" s="383"/>
+      <c r="O130" s="384"/>
       <c r="P130" s="10"/>
     </row>
     <row r="131" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25689,10 +25701,10 @@
       <c r="C135" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D135" s="387" t="s">
+      <c r="D135" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E135" s="388"/>
+      <c r="E135" s="392"/>
       <c r="F135" s="25" t="s">
         <v>31</v>
       </c>
@@ -25711,12 +25723,12 @@
       <c r="K135" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L135" s="389" t="s">
+      <c r="L135" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M135" s="389"/>
-      <c r="N135" s="389"/>
-      <c r="O135" s="390"/>
+      <c r="M135" s="393"/>
+      <c r="N135" s="393"/>
+      <c r="O135" s="394"/>
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" ht="257" customHeight="1" x14ac:dyDescent="0.2">
@@ -25727,10 +25739,10 @@
       <c r="C136" s="233" t="s">
         <v>289</v>
       </c>
-      <c r="D136" s="391" t="s">
+      <c r="D136" s="395" t="s">
         <v>297</v>
       </c>
-      <c r="E136" s="392"/>
+      <c r="E136" s="396"/>
       <c r="F136" s="214" t="s">
         <v>191</v>
       </c>
@@ -25745,12 +25757,12 @@
         <v>12</v>
       </c>
       <c r="K136" s="214"/>
-      <c r="L136" s="433" t="s">
+      <c r="L136" s="410" t="s">
         <v>290</v>
       </c>
-      <c r="M136" s="434"/>
-      <c r="N136" s="434"/>
-      <c r="O136" s="435"/>
+      <c r="M136" s="411"/>
+      <c r="N136" s="411"/>
+      <c r="O136" s="412"/>
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25761,10 +25773,10 @@
       <c r="C137" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D137" s="379" t="s">
+      <c r="D137" s="385" t="s">
         <v>298</v>
       </c>
-      <c r="E137" s="380"/>
+      <c r="E137" s="386"/>
       <c r="F137" s="214"/>
       <c r="G137" s="214"/>
       <c r="H137" s="214"/>
@@ -25775,10 +25787,10 @@
         <v>255</v>
       </c>
       <c r="K137" s="214"/>
-      <c r="L137" s="431"/>
-      <c r="M137" s="431"/>
-      <c r="N137" s="431"/>
-      <c r="O137" s="432"/>
+      <c r="L137" s="402"/>
+      <c r="M137" s="402"/>
+      <c r="N137" s="402"/>
+      <c r="O137" s="403"/>
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25789,10 +25801,10 @@
       <c r="C138" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D138" s="379" t="s">
+      <c r="D138" s="385" t="s">
         <v>299</v>
       </c>
-      <c r="E138" s="380"/>
+      <c r="E138" s="386"/>
       <c r="F138" s="214"/>
       <c r="G138" s="214"/>
       <c r="H138" s="214" t="s">
@@ -25805,10 +25817,10 @@
         <v>30</v>
       </c>
       <c r="K138" s="214"/>
-      <c r="L138" s="431"/>
-      <c r="M138" s="431"/>
-      <c r="N138" s="431"/>
-      <c r="O138" s="432"/>
+      <c r="L138" s="402"/>
+      <c r="M138" s="402"/>
+      <c r="N138" s="402"/>
+      <c r="O138" s="403"/>
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25819,10 +25831,10 @@
       <c r="C139" s="262" t="s">
         <v>278</v>
       </c>
-      <c r="D139" s="365" t="s">
+      <c r="D139" s="374" t="s">
         <v>301</v>
       </c>
-      <c r="E139" s="366"/>
+      <c r="E139" s="375"/>
       <c r="F139" s="265"/>
       <c r="G139" s="265"/>
       <c r="H139" s="265"/>
@@ -25833,10 +25845,10 @@
         <v>20</v>
       </c>
       <c r="K139" s="265"/>
-      <c r="L139" s="441"/>
-      <c r="M139" s="442"/>
-      <c r="N139" s="442"/>
-      <c r="O139" s="443"/>
+      <c r="L139" s="404"/>
+      <c r="M139" s="405"/>
+      <c r="N139" s="405"/>
+      <c r="O139" s="406"/>
       <c r="P139" s="267"/>
     </row>
     <row r="140" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -25847,10 +25859,10 @@
       <c r="C140" s="262" t="s">
         <v>279</v>
       </c>
-      <c r="D140" s="365" t="s">
+      <c r="D140" s="374" t="s">
         <v>302</v>
       </c>
-      <c r="E140" s="366"/>
+      <c r="E140" s="375"/>
       <c r="F140" s="265"/>
       <c r="G140" s="265"/>
       <c r="H140" s="265"/>
@@ -25859,12 +25871,12 @@
       </c>
       <c r="J140" s="265"/>
       <c r="K140" s="292"/>
-      <c r="L140" s="444" t="s">
+      <c r="L140" s="407" t="s">
         <v>292</v>
       </c>
-      <c r="M140" s="445"/>
-      <c r="N140" s="445"/>
-      <c r="O140" s="446"/>
+      <c r="M140" s="408"/>
+      <c r="N140" s="408"/>
+      <c r="O140" s="409"/>
       <c r="P140" s="267"/>
     </row>
     <row r="141" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25875,10 +25887,10 @@
       <c r="C141" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D141" s="379" t="s">
+      <c r="D141" s="385" t="s">
         <v>302</v>
       </c>
-      <c r="E141" s="380"/>
+      <c r="E141" s="386"/>
       <c r="F141" s="214"/>
       <c r="G141" s="214"/>
       <c r="H141" s="214"/>
@@ -25887,12 +25899,12 @@
       </c>
       <c r="J141" s="214"/>
       <c r="K141" s="241"/>
-      <c r="L141" s="425" t="s">
+      <c r="L141" s="399" t="s">
         <v>291</v>
       </c>
-      <c r="M141" s="426"/>
-      <c r="N141" s="426"/>
-      <c r="O141" s="427"/>
+      <c r="M141" s="400"/>
+      <c r="N141" s="400"/>
+      <c r="O141" s="401"/>
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25903,10 +25915,10 @@
       <c r="C142" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D142" s="379" t="s">
+      <c r="D142" s="385" t="s">
         <v>302</v>
       </c>
-      <c r="E142" s="380"/>
+      <c r="E142" s="386"/>
       <c r="F142" s="214"/>
       <c r="G142" s="214"/>
       <c r="H142" s="214"/>
@@ -25917,10 +25929,10 @@
         <v>128</v>
       </c>
       <c r="K142" s="241"/>
-      <c r="L142" s="425"/>
-      <c r="M142" s="426"/>
-      <c r="N142" s="426"/>
-      <c r="O142" s="427"/>
+      <c r="L142" s="399"/>
+      <c r="M142" s="400"/>
+      <c r="N142" s="400"/>
+      <c r="O142" s="401"/>
       <c r="P142" s="10"/>
     </row>
     <row r="143" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25931,10 +25943,10 @@
       <c r="C143" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D143" s="379" t="s">
+      <c r="D143" s="385" t="s">
         <v>303</v>
       </c>
-      <c r="E143" s="380"/>
+      <c r="E143" s="386"/>
       <c r="F143" s="214"/>
       <c r="G143" s="214"/>
       <c r="H143" s="214"/>
@@ -25945,12 +25957,12 @@
         <v>255</v>
       </c>
       <c r="K143" s="241"/>
-      <c r="L143" s="425" t="s">
+      <c r="L143" s="399" t="s">
         <v>293</v>
       </c>
-      <c r="M143" s="426"/>
-      <c r="N143" s="426"/>
-      <c r="O143" s="427"/>
+      <c r="M143" s="400"/>
+      <c r="N143" s="400"/>
+      <c r="O143" s="401"/>
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -25961,10 +25973,10 @@
       <c r="C144" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D144" s="379" t="s">
+      <c r="D144" s="385" t="s">
         <v>304</v>
       </c>
-      <c r="E144" s="380"/>
+      <c r="E144" s="386"/>
       <c r="F144" s="214"/>
       <c r="G144" s="214"/>
       <c r="H144" s="214"/>
@@ -25975,12 +25987,12 @@
         <v>255</v>
       </c>
       <c r="K144" s="241"/>
-      <c r="L144" s="425" t="s">
+      <c r="L144" s="399" t="s">
         <v>294</v>
       </c>
-      <c r="M144" s="426"/>
-      <c r="N144" s="426"/>
-      <c r="O144" s="427"/>
+      <c r="M144" s="400"/>
+      <c r="N144" s="400"/>
+      <c r="O144" s="401"/>
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26017,10 +26029,10 @@
       <c r="C146" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D146" s="379" t="s">
+      <c r="D146" s="385" t="s">
         <v>305</v>
       </c>
-      <c r="E146" s="380"/>
+      <c r="E146" s="386"/>
       <c r="F146" s="214"/>
       <c r="G146" s="214"/>
       <c r="H146" s="214"/>
@@ -26029,12 +26041,12 @@
       </c>
       <c r="J146" s="214"/>
       <c r="K146" s="241"/>
-      <c r="L146" s="431" t="s">
+      <c r="L146" s="402" t="s">
         <v>295</v>
       </c>
-      <c r="M146" s="431"/>
-      <c r="N146" s="431"/>
-      <c r="O146" s="432"/>
+      <c r="M146" s="402"/>
+      <c r="N146" s="402"/>
+      <c r="O146" s="403"/>
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26045,10 +26057,10 @@
       <c r="C147" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D147" s="379" t="s">
+      <c r="D147" s="385" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="380"/>
+      <c r="E147" s="386"/>
       <c r="F147" s="214"/>
       <c r="G147" s="214"/>
       <c r="H147" s="214"/>
@@ -26057,12 +26069,12 @@
       </c>
       <c r="J147" s="214"/>
       <c r="K147" s="241"/>
-      <c r="L147" s="431" t="s">
+      <c r="L147" s="402" t="s">
         <v>352</v>
       </c>
-      <c r="M147" s="431"/>
-      <c r="N147" s="431"/>
-      <c r="O147" s="432"/>
+      <c r="M147" s="402"/>
+      <c r="N147" s="402"/>
+      <c r="O147" s="403"/>
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26073,10 +26085,10 @@
       <c r="C148" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D148" s="379" t="s">
+      <c r="D148" s="385" t="s">
         <v>306</v>
       </c>
-      <c r="E148" s="380"/>
+      <c r="E148" s="386"/>
       <c r="F148" s="214"/>
       <c r="G148" s="214"/>
       <c r="H148" s="214"/>
@@ -26085,12 +26097,12 @@
       </c>
       <c r="J148" s="214"/>
       <c r="K148" s="241"/>
-      <c r="L148" s="431" t="s">
+      <c r="L148" s="402" t="s">
         <v>348</v>
       </c>
-      <c r="M148" s="431"/>
-      <c r="N148" s="431"/>
-      <c r="O148" s="432"/>
+      <c r="M148" s="402"/>
+      <c r="N148" s="402"/>
+      <c r="O148" s="403"/>
       <c r="P148" s="10"/>
     </row>
     <row r="149" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26101,10 +26113,10 @@
       <c r="C149" s="236" t="s">
         <v>288</v>
       </c>
-      <c r="D149" s="379" t="s">
+      <c r="D149" s="385" t="s">
         <v>308</v>
       </c>
-      <c r="E149" s="380"/>
+      <c r="E149" s="386"/>
       <c r="F149" s="237"/>
       <c r="G149" s="237"/>
       <c r="H149" s="237"/>
@@ -26115,28 +26127,28 @@
         <v>255</v>
       </c>
       <c r="K149" s="242"/>
-      <c r="L149" s="431"/>
-      <c r="M149" s="431"/>
-      <c r="N149" s="431"/>
-      <c r="O149" s="432"/>
+      <c r="L149" s="402"/>
+      <c r="M149" s="402"/>
+      <c r="N149" s="402"/>
+      <c r="O149" s="403"/>
       <c r="P149" s="10"/>
     </row>
     <row r="150" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9"/>
       <c r="B150" s="29"/>
       <c r="C150" s="30"/>
-      <c r="D150" s="383"/>
-      <c r="E150" s="384"/>
+      <c r="D150" s="381"/>
+      <c r="E150" s="382"/>
       <c r="F150" s="215"/>
       <c r="G150" s="215"/>
       <c r="H150" s="215"/>
       <c r="I150" s="31"/>
       <c r="J150" s="215"/>
       <c r="K150" s="215"/>
-      <c r="L150" s="439"/>
-      <c r="M150" s="439"/>
-      <c r="N150" s="439"/>
-      <c r="O150" s="440"/>
+      <c r="L150" s="397"/>
+      <c r="M150" s="397"/>
+      <c r="N150" s="397"/>
+      <c r="O150" s="398"/>
       <c r="P150" s="10"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
@@ -26241,10 +26253,10 @@
       <c r="C156" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D156" s="387" t="s">
+      <c r="D156" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="388"/>
+      <c r="E156" s="392"/>
       <c r="F156" s="25" t="s">
         <v>31</v>
       </c>
@@ -26263,12 +26275,12 @@
       <c r="K156" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L156" s="389" t="s">
+      <c r="L156" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M156" s="389"/>
-      <c r="N156" s="389"/>
-      <c r="O156" s="390"/>
+      <c r="M156" s="393"/>
+      <c r="N156" s="393"/>
+      <c r="O156" s="394"/>
       <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26279,10 +26291,10 @@
       <c r="C157" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D157" s="379" t="s">
+      <c r="D157" s="385" t="s">
         <v>313</v>
       </c>
-      <c r="E157" s="380"/>
+      <c r="E157" s="386"/>
       <c r="F157" s="214"/>
       <c r="G157" s="214"/>
       <c r="H157" s="214" t="s">
@@ -26295,10 +26307,10 @@
         <v>255</v>
       </c>
       <c r="K157" s="214"/>
-      <c r="L157" s="381"/>
-      <c r="M157" s="381"/>
-      <c r="N157" s="381"/>
-      <c r="O157" s="382"/>
+      <c r="L157" s="376"/>
+      <c r="M157" s="376"/>
+      <c r="N157" s="376"/>
+      <c r="O157" s="377"/>
       <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26309,10 +26321,10 @@
       <c r="C158" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D158" s="379" t="s">
+      <c r="D158" s="385" t="s">
         <v>314</v>
       </c>
-      <c r="E158" s="380"/>
+      <c r="E158" s="386"/>
       <c r="F158" s="214"/>
       <c r="G158" s="214"/>
       <c r="H158" s="214"/>
@@ -26323,10 +26335,10 @@
         <v>255</v>
       </c>
       <c r="K158" s="214"/>
-      <c r="L158" s="381"/>
-      <c r="M158" s="381"/>
-      <c r="N158" s="381"/>
-      <c r="O158" s="382"/>
+      <c r="L158" s="376"/>
+      <c r="M158" s="376"/>
+      <c r="N158" s="376"/>
+      <c r="O158" s="377"/>
       <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26351,10 +26363,10 @@
         <v>255</v>
       </c>
       <c r="K159" s="214"/>
-      <c r="L159" s="381"/>
-      <c r="M159" s="381"/>
-      <c r="N159" s="381"/>
-      <c r="O159" s="382"/>
+      <c r="L159" s="376"/>
+      <c r="M159" s="376"/>
+      <c r="N159" s="376"/>
+      <c r="O159" s="377"/>
       <c r="P159" s="10"/>
     </row>
     <row r="160" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26365,10 +26377,10 @@
       <c r="C160" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D160" s="379" t="s">
+      <c r="D160" s="385" t="s">
         <v>315</v>
       </c>
-      <c r="E160" s="380"/>
+      <c r="E160" s="386"/>
       <c r="F160" s="214"/>
       <c r="G160" s="214"/>
       <c r="H160" s="214" t="s">
@@ -26379,12 +26391,12 @@
       </c>
       <c r="J160" s="214"/>
       <c r="K160" s="214"/>
-      <c r="L160" s="381" t="s">
+      <c r="L160" s="376" t="s">
         <v>345</v>
       </c>
-      <c r="M160" s="381"/>
-      <c r="N160" s="381"/>
-      <c r="O160" s="382"/>
+      <c r="M160" s="376"/>
+      <c r="N160" s="376"/>
+      <c r="O160" s="377"/>
       <c r="P160" s="10"/>
     </row>
     <row r="161" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26395,10 +26407,10 @@
       <c r="C161" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D161" s="379" t="s">
+      <c r="D161" s="385" t="s">
         <v>317</v>
       </c>
-      <c r="E161" s="380"/>
+      <c r="E161" s="386"/>
       <c r="F161" s="214"/>
       <c r="G161" s="214"/>
       <c r="H161" s="214" t="s">
@@ -26411,30 +26423,30 @@
       <c r="K161" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L161" s="381" t="s">
+      <c r="L161" s="376" t="s">
         <v>268</v>
       </c>
-      <c r="M161" s="381"/>
-      <c r="N161" s="381"/>
-      <c r="O161" s="382"/>
+      <c r="M161" s="376"/>
+      <c r="N161" s="376"/>
+      <c r="O161" s="377"/>
       <c r="P161" s="10"/>
     </row>
     <row r="162" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9"/>
       <c r="B162" s="29"/>
       <c r="C162" s="30"/>
-      <c r="D162" s="383"/>
-      <c r="E162" s="384"/>
+      <c r="D162" s="381"/>
+      <c r="E162" s="382"/>
       <c r="F162" s="215"/>
       <c r="G162" s="215"/>
       <c r="H162" s="215"/>
       <c r="I162" s="31"/>
       <c r="J162" s="215"/>
       <c r="K162" s="215"/>
-      <c r="L162" s="385"/>
-      <c r="M162" s="385"/>
-      <c r="N162" s="385"/>
-      <c r="O162" s="386"/>
+      <c r="L162" s="383"/>
+      <c r="M162" s="383"/>
+      <c r="N162" s="383"/>
+      <c r="O162" s="384"/>
       <c r="P162" s="10"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
@@ -26521,10 +26533,10 @@
       <c r="C167" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D167" s="387" t="s">
+      <c r="D167" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="388"/>
+      <c r="E167" s="392"/>
       <c r="F167" s="25" t="s">
         <v>31</v>
       </c>
@@ -26543,12 +26555,12 @@
       <c r="K167" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L167" s="389" t="s">
+      <c r="L167" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M167" s="389"/>
-      <c r="N167" s="389"/>
-      <c r="O167" s="390"/>
+      <c r="M167" s="393"/>
+      <c r="N167" s="393"/>
+      <c r="O167" s="394"/>
       <c r="P167" s="10"/>
     </row>
     <row r="168" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26559,10 +26571,10 @@
       <c r="C168" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D168" s="379" t="s">
+      <c r="D168" s="385" t="s">
         <v>318</v>
       </c>
-      <c r="E168" s="380"/>
+      <c r="E168" s="386"/>
       <c r="F168" s="214"/>
       <c r="G168" s="214"/>
       <c r="H168" s="214" t="s">
@@ -26575,10 +26587,10 @@
         <v>255</v>
       </c>
       <c r="K168" s="214"/>
-      <c r="L168" s="381"/>
-      <c r="M168" s="381"/>
-      <c r="N168" s="381"/>
-      <c r="O168" s="382"/>
+      <c r="L168" s="376"/>
+      <c r="M168" s="376"/>
+      <c r="N168" s="376"/>
+      <c r="O168" s="377"/>
       <c r="P168" s="10"/>
     </row>
     <row r="169" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26589,10 +26601,10 @@
       <c r="C169" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D169" s="379" t="s">
+      <c r="D169" s="385" t="s">
         <v>319</v>
       </c>
-      <c r="E169" s="380"/>
+      <c r="E169" s="386"/>
       <c r="F169" s="214"/>
       <c r="G169" s="214"/>
       <c r="H169" s="214"/>
@@ -26603,10 +26615,10 @@
         <v>255</v>
       </c>
       <c r="K169" s="214"/>
-      <c r="L169" s="381"/>
-      <c r="M169" s="381"/>
-      <c r="N169" s="381"/>
-      <c r="O169" s="382"/>
+      <c r="L169" s="376"/>
+      <c r="M169" s="376"/>
+      <c r="N169" s="376"/>
+      <c r="O169" s="377"/>
       <c r="P169" s="10"/>
     </row>
     <row r="170" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26631,30 +26643,30 @@
       <c r="K170" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L170" s="381" t="s">
+      <c r="L170" s="376" t="s">
         <v>321</v>
       </c>
-      <c r="M170" s="381"/>
-      <c r="N170" s="381"/>
-      <c r="O170" s="382"/>
+      <c r="M170" s="376"/>
+      <c r="N170" s="376"/>
+      <c r="O170" s="377"/>
       <c r="P170" s="10"/>
     </row>
     <row r="171" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="9"/>
       <c r="B171" s="29"/>
       <c r="C171" s="30"/>
-      <c r="D171" s="383"/>
-      <c r="E171" s="384"/>
+      <c r="D171" s="381"/>
+      <c r="E171" s="382"/>
       <c r="F171" s="215"/>
       <c r="G171" s="215"/>
       <c r="H171" s="215"/>
       <c r="I171" s="31"/>
       <c r="J171" s="215"/>
       <c r="K171" s="215"/>
-      <c r="L171" s="385"/>
-      <c r="M171" s="385"/>
-      <c r="N171" s="385"/>
-      <c r="O171" s="386"/>
+      <c r="L171" s="383"/>
+      <c r="M171" s="383"/>
+      <c r="N171" s="383"/>
+      <c r="O171" s="384"/>
       <c r="P171" s="10"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
@@ -26741,10 +26753,10 @@
       <c r="C176" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="387" t="s">
+      <c r="D176" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E176" s="388"/>
+      <c r="E176" s="392"/>
       <c r="F176" s="25" t="s">
         <v>31</v>
       </c>
@@ -26763,12 +26775,12 @@
       <c r="K176" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L176" s="389" t="s">
+      <c r="L176" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M176" s="389"/>
-      <c r="N176" s="389"/>
-      <c r="O176" s="390"/>
+      <c r="M176" s="393"/>
+      <c r="N176" s="393"/>
+      <c r="O176" s="394"/>
       <c r="P176" s="10"/>
     </row>
     <row r="177" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26779,10 +26791,10 @@
       <c r="C177" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D177" s="379" t="s">
+      <c r="D177" s="385" t="s">
         <v>318</v>
       </c>
-      <c r="E177" s="380"/>
+      <c r="E177" s="386"/>
       <c r="F177" s="214"/>
       <c r="G177" s="214"/>
       <c r="H177" s="214" t="s">
@@ -26795,10 +26807,10 @@
         <v>255</v>
       </c>
       <c r="K177" s="214"/>
-      <c r="L177" s="381"/>
-      <c r="M177" s="381"/>
-      <c r="N177" s="381"/>
-      <c r="O177" s="382"/>
+      <c r="L177" s="376"/>
+      <c r="M177" s="376"/>
+      <c r="N177" s="376"/>
+      <c r="O177" s="377"/>
       <c r="P177" s="10"/>
     </row>
     <row r="178" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26809,10 +26821,10 @@
       <c r="C178" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D178" s="379" t="s">
+      <c r="D178" s="385" t="s">
         <v>319</v>
       </c>
-      <c r="E178" s="380"/>
+      <c r="E178" s="386"/>
       <c r="F178" s="214"/>
       <c r="G178" s="214"/>
       <c r="H178" s="214"/>
@@ -26823,10 +26835,10 @@
         <v>255</v>
       </c>
       <c r="K178" s="214"/>
-      <c r="L178" s="381"/>
-      <c r="M178" s="381"/>
-      <c r="N178" s="381"/>
-      <c r="O178" s="382"/>
+      <c r="L178" s="376"/>
+      <c r="M178" s="376"/>
+      <c r="N178" s="376"/>
+      <c r="O178" s="377"/>
       <c r="P178" s="10"/>
     </row>
     <row r="179" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26851,30 +26863,30 @@
       <c r="K179" s="254" t="s">
         <v>191</v>
       </c>
-      <c r="L179" s="381" t="s">
+      <c r="L179" s="376" t="s">
         <v>266</v>
       </c>
-      <c r="M179" s="381"/>
-      <c r="N179" s="381"/>
-      <c r="O179" s="382"/>
+      <c r="M179" s="376"/>
+      <c r="N179" s="376"/>
+      <c r="O179" s="377"/>
       <c r="P179" s="10"/>
     </row>
     <row r="180" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="9"/>
       <c r="B180" s="29"/>
       <c r="C180" s="30"/>
-      <c r="D180" s="383"/>
-      <c r="E180" s="384"/>
+      <c r="D180" s="381"/>
+      <c r="E180" s="382"/>
       <c r="F180" s="215"/>
       <c r="G180" s="215"/>
       <c r="H180" s="215"/>
       <c r="I180" s="31"/>
       <c r="J180" s="215"/>
       <c r="K180" s="215"/>
-      <c r="L180" s="385"/>
-      <c r="M180" s="385"/>
-      <c r="N180" s="385"/>
-      <c r="O180" s="386"/>
+      <c r="L180" s="383"/>
+      <c r="M180" s="383"/>
+      <c r="N180" s="383"/>
+      <c r="O180" s="384"/>
       <c r="P180" s="10"/>
     </row>
     <row r="181" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -26961,10 +26973,10 @@
       <c r="C185" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D185" s="387" t="s">
+      <c r="D185" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E185" s="388"/>
+      <c r="E185" s="392"/>
       <c r="F185" s="25" t="s">
         <v>31</v>
       </c>
@@ -26983,12 +26995,12 @@
       <c r="K185" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L185" s="389" t="s">
+      <c r="L185" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M185" s="389"/>
-      <c r="N185" s="389"/>
-      <c r="O185" s="390"/>
+      <c r="M185" s="393"/>
+      <c r="N185" s="393"/>
+      <c r="O185" s="394"/>
       <c r="P185" s="10"/>
     </row>
     <row r="186" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -26999,10 +27011,10 @@
       <c r="C186" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="D186" s="379" t="s">
+      <c r="D186" s="385" t="s">
         <v>326</v>
       </c>
-      <c r="E186" s="380"/>
+      <c r="E186" s="386"/>
       <c r="F186" s="214"/>
       <c r="G186" s="214"/>
       <c r="H186" s="214" t="s">
@@ -27015,10 +27027,10 @@
         <v>255</v>
       </c>
       <c r="K186" s="214"/>
-      <c r="L186" s="381"/>
-      <c r="M186" s="381"/>
-      <c r="N186" s="381"/>
-      <c r="O186" s="382"/>
+      <c r="L186" s="376"/>
+      <c r="M186" s="376"/>
+      <c r="N186" s="376"/>
+      <c r="O186" s="377"/>
       <c r="P186" s="10"/>
     </row>
     <row r="187" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27029,10 +27041,10 @@
       <c r="C187" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D187" s="379" t="s">
+      <c r="D187" s="385" t="s">
         <v>409</v>
       </c>
-      <c r="E187" s="380"/>
+      <c r="E187" s="386"/>
       <c r="F187" s="214"/>
       <c r="G187" s="214"/>
       <c r="H187" s="214"/>
@@ -27043,28 +27055,28 @@
         <v>255</v>
       </c>
       <c r="K187" s="214"/>
-      <c r="L187" s="381"/>
-      <c r="M187" s="381"/>
-      <c r="N187" s="381"/>
-      <c r="O187" s="382"/>
+      <c r="L187" s="376"/>
+      <c r="M187" s="376"/>
+      <c r="N187" s="376"/>
+      <c r="O187" s="377"/>
       <c r="P187" s="10"/>
     </row>
     <row r="188" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9"/>
       <c r="B188" s="29"/>
       <c r="C188" s="30"/>
-      <c r="D188" s="383"/>
-      <c r="E188" s="384"/>
+      <c r="D188" s="381"/>
+      <c r="E188" s="382"/>
       <c r="F188" s="215"/>
       <c r="G188" s="215"/>
       <c r="H188" s="215"/>
       <c r="I188" s="31"/>
       <c r="J188" s="215"/>
       <c r="K188" s="215"/>
-      <c r="L188" s="385"/>
-      <c r="M188" s="385"/>
-      <c r="N188" s="385"/>
-      <c r="O188" s="386"/>
+      <c r="L188" s="383"/>
+      <c r="M188" s="383"/>
+      <c r="N188" s="383"/>
+      <c r="O188" s="384"/>
       <c r="P188" s="10"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
@@ -27169,10 +27181,10 @@
       <c r="C194" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D194" s="387" t="s">
+      <c r="D194" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E194" s="388"/>
+      <c r="E194" s="392"/>
       <c r="F194" s="25" t="s">
         <v>31</v>
       </c>
@@ -27191,12 +27203,12 @@
       <c r="K194" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L194" s="389" t="s">
+      <c r="L194" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M194" s="389"/>
-      <c r="N194" s="389"/>
-      <c r="O194" s="390"/>
+      <c r="M194" s="393"/>
+      <c r="N194" s="393"/>
+      <c r="O194" s="394"/>
       <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27207,10 +27219,10 @@
       <c r="C195" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D195" s="379" t="s">
+      <c r="D195" s="385" t="s">
         <v>338</v>
       </c>
-      <c r="E195" s="380"/>
+      <c r="E195" s="386"/>
       <c r="F195" s="214"/>
       <c r="G195" s="214"/>
       <c r="H195" s="214" t="s">
@@ -27223,10 +27235,10 @@
         <v>255</v>
       </c>
       <c r="K195" s="214"/>
-      <c r="L195" s="381"/>
-      <c r="M195" s="381"/>
-      <c r="N195" s="381"/>
-      <c r="O195" s="382"/>
+      <c r="L195" s="376"/>
+      <c r="M195" s="376"/>
+      <c r="N195" s="376"/>
+      <c r="O195" s="377"/>
       <c r="P195" s="10"/>
     </row>
     <row r="196" spans="1:16" s="268" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -27251,12 +27263,12 @@
       </c>
       <c r="J196" s="265"/>
       <c r="K196" s="265"/>
-      <c r="L196" s="367" t="s">
+      <c r="L196" s="368" t="s">
         <v>292</v>
       </c>
-      <c r="M196" s="367"/>
-      <c r="N196" s="367"/>
-      <c r="O196" s="368"/>
+      <c r="M196" s="368"/>
+      <c r="N196" s="368"/>
+      <c r="O196" s="369"/>
       <c r="P196" s="267"/>
     </row>
     <row r="197" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27267,10 +27279,10 @@
       <c r="C197" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="D197" s="379" t="s">
+      <c r="D197" s="385" t="s">
         <v>339</v>
       </c>
-      <c r="E197" s="380"/>
+      <c r="E197" s="386"/>
       <c r="F197" s="214"/>
       <c r="G197" s="214"/>
       <c r="H197" s="214" t="s">
@@ -27281,12 +27293,12 @@
       </c>
       <c r="J197" s="214"/>
       <c r="K197" s="214"/>
-      <c r="L197" s="381" t="s">
+      <c r="L197" s="376" t="s">
         <v>340</v>
       </c>
-      <c r="M197" s="381"/>
-      <c r="N197" s="381"/>
-      <c r="O197" s="382"/>
+      <c r="M197" s="376"/>
+      <c r="N197" s="376"/>
+      <c r="O197" s="377"/>
       <c r="P197" s="10"/>
     </row>
     <row r="198" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -27297,10 +27309,10 @@
       <c r="C198" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D198" s="394" t="s">
+      <c r="D198" s="413" t="s">
         <v>245</v>
       </c>
-      <c r="E198" s="395"/>
+      <c r="E198" s="414"/>
       <c r="F198" s="215"/>
       <c r="G198" s="215"/>
       <c r="H198" s="215"/>
@@ -27311,10 +27323,10 @@
         <v>255</v>
       </c>
       <c r="K198" s="215"/>
-      <c r="L198" s="385"/>
-      <c r="M198" s="385"/>
-      <c r="N198" s="385"/>
-      <c r="O198" s="386"/>
+      <c r="L198" s="383"/>
+      <c r="M198" s="383"/>
+      <c r="N198" s="383"/>
+      <c r="O198" s="384"/>
       <c r="P198" s="10"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
@@ -27401,10 +27413,10 @@
       <c r="C203" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D203" s="387" t="s">
+      <c r="D203" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E203" s="388"/>
+      <c r="E203" s="392"/>
       <c r="F203" s="25" t="s">
         <v>31</v>
       </c>
@@ -27423,12 +27435,12 @@
       <c r="K203" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L203" s="389" t="s">
+      <c r="L203" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M203" s="389"/>
-      <c r="N203" s="389"/>
-      <c r="O203" s="390"/>
+      <c r="M203" s="393"/>
+      <c r="N203" s="393"/>
+      <c r="O203" s="394"/>
       <c r="P203" s="10"/>
     </row>
     <row r="204" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27439,10 +27451,10 @@
       <c r="C204" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D204" s="379" t="s">
+      <c r="D204" s="385" t="s">
         <v>410</v>
       </c>
-      <c r="E204" s="380"/>
+      <c r="E204" s="386"/>
       <c r="F204" s="214"/>
       <c r="G204" s="214"/>
       <c r="H204" s="214" t="s">
@@ -27455,12 +27467,12 @@
         <v>255</v>
       </c>
       <c r="K204" s="214"/>
-      <c r="L204" s="381" t="s">
+      <c r="L204" s="376" t="s">
         <v>362</v>
       </c>
-      <c r="M204" s="381"/>
-      <c r="N204" s="381"/>
-      <c r="O204" s="382"/>
+      <c r="M204" s="376"/>
+      <c r="N204" s="376"/>
+      <c r="O204" s="377"/>
       <c r="P204" s="10"/>
     </row>
     <row r="205" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27471,10 +27483,10 @@
       <c r="C205" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="D205" s="379" t="s">
+      <c r="D205" s="385" t="s">
         <v>339</v>
       </c>
-      <c r="E205" s="380"/>
+      <c r="E205" s="386"/>
       <c r="F205" s="214"/>
       <c r="G205" s="214"/>
       <c r="H205" s="214" t="s">
@@ -27485,10 +27497,10 @@
       </c>
       <c r="J205" s="214"/>
       <c r="K205" s="214"/>
-      <c r="L205" s="381"/>
-      <c r="M205" s="381"/>
-      <c r="N205" s="381"/>
-      <c r="O205" s="382"/>
+      <c r="L205" s="376"/>
+      <c r="M205" s="376"/>
+      <c r="N205" s="376"/>
+      <c r="O205" s="377"/>
       <c r="P205" s="10"/>
     </row>
     <row r="206" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27513,28 +27525,28 @@
         <v>255</v>
       </c>
       <c r="K206" s="237"/>
-      <c r="L206" s="381"/>
-      <c r="M206" s="381"/>
-      <c r="N206" s="381"/>
-      <c r="O206" s="382"/>
+      <c r="L206" s="376"/>
+      <c r="M206" s="376"/>
+      <c r="N206" s="376"/>
+      <c r="O206" s="377"/>
       <c r="P206" s="10"/>
     </row>
     <row r="207" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9"/>
       <c r="B207" s="29"/>
       <c r="C207" s="30"/>
-      <c r="D207" s="383"/>
-      <c r="E207" s="384"/>
+      <c r="D207" s="381"/>
+      <c r="E207" s="382"/>
       <c r="F207" s="215"/>
       <c r="G207" s="215"/>
       <c r="H207" s="215"/>
       <c r="I207" s="31"/>
       <c r="J207" s="215"/>
       <c r="K207" s="215"/>
-      <c r="L207" s="385"/>
-      <c r="M207" s="385"/>
-      <c r="N207" s="385"/>
-      <c r="O207" s="386"/>
+      <c r="L207" s="383"/>
+      <c r="M207" s="383"/>
+      <c r="N207" s="383"/>
+      <c r="O207" s="384"/>
       <c r="P207" s="10"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
@@ -27621,10 +27633,10 @@
       <c r="C212" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D212" s="387" t="s">
+      <c r="D212" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E212" s="388"/>
+      <c r="E212" s="392"/>
       <c r="F212" s="25" t="s">
         <v>31</v>
       </c>
@@ -27643,12 +27655,12 @@
       <c r="K212" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L212" s="389" t="s">
+      <c r="L212" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M212" s="389"/>
-      <c r="N212" s="389"/>
-      <c r="O212" s="390"/>
+      <c r="M212" s="393"/>
+      <c r="N212" s="393"/>
+      <c r="O212" s="394"/>
       <c r="P212" s="10"/>
     </row>
     <row r="213" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27659,10 +27671,10 @@
       <c r="C213" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="D213" s="379" t="s">
+      <c r="D213" s="385" t="s">
         <v>412</v>
       </c>
-      <c r="E213" s="380"/>
+      <c r="E213" s="386"/>
       <c r="F213" s="214"/>
       <c r="G213" s="214"/>
       <c r="H213" s="214" t="s">
@@ -27675,12 +27687,12 @@
         <v>255</v>
       </c>
       <c r="K213" s="214"/>
-      <c r="L213" s="381" t="s">
+      <c r="L213" s="376" t="s">
         <v>347</v>
       </c>
-      <c r="M213" s="381"/>
-      <c r="N213" s="381"/>
-      <c r="O213" s="382"/>
+      <c r="M213" s="376"/>
+      <c r="N213" s="376"/>
+      <c r="O213" s="377"/>
       <c r="P213" s="10"/>
     </row>
     <row r="214" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27705,28 +27717,28 @@
         <v>255</v>
       </c>
       <c r="K214" s="237"/>
-      <c r="L214" s="381"/>
-      <c r="M214" s="381"/>
-      <c r="N214" s="381"/>
-      <c r="O214" s="382"/>
+      <c r="L214" s="376"/>
+      <c r="M214" s="376"/>
+      <c r="N214" s="376"/>
+      <c r="O214" s="377"/>
       <c r="P214" s="10"/>
     </row>
     <row r="215" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="9"/>
       <c r="B215" s="29"/>
       <c r="C215" s="30"/>
-      <c r="D215" s="383"/>
-      <c r="E215" s="384"/>
+      <c r="D215" s="381"/>
+      <c r="E215" s="382"/>
       <c r="F215" s="215"/>
       <c r="G215" s="215"/>
       <c r="H215" s="215"/>
       <c r="I215" s="31"/>
       <c r="J215" s="215"/>
       <c r="K215" s="215"/>
-      <c r="L215" s="385"/>
-      <c r="M215" s="385"/>
-      <c r="N215" s="385"/>
-      <c r="O215" s="386"/>
+      <c r="L215" s="383"/>
+      <c r="M215" s="383"/>
+      <c r="N215" s="383"/>
+      <c r="O215" s="384"/>
       <c r="P215" s="10"/>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
@@ -27813,10 +27825,10 @@
       <c r="C220" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D220" s="387" t="s">
+      <c r="D220" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E220" s="388"/>
+      <c r="E220" s="392"/>
       <c r="F220" s="25" t="s">
         <v>31</v>
       </c>
@@ -27835,12 +27847,12 @@
       <c r="K220" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L220" s="389" t="s">
+      <c r="L220" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M220" s="389"/>
-      <c r="N220" s="389"/>
-      <c r="O220" s="390"/>
+      <c r="M220" s="393"/>
+      <c r="N220" s="393"/>
+      <c r="O220" s="394"/>
       <c r="P220" s="10"/>
     </row>
     <row r="221" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27851,10 +27863,10 @@
       <c r="C221" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D221" s="379" t="s">
+      <c r="D221" s="385" t="s">
         <v>350</v>
       </c>
-      <c r="E221" s="380"/>
+      <c r="E221" s="386"/>
       <c r="F221" s="214"/>
       <c r="G221" s="214"/>
       <c r="H221" s="214" t="s">
@@ -27867,12 +27879,12 @@
         <v>255</v>
       </c>
       <c r="K221" s="214"/>
-      <c r="L221" s="381" t="s">
+      <c r="L221" s="376" t="s">
         <v>351</v>
       </c>
-      <c r="M221" s="381"/>
-      <c r="N221" s="381"/>
-      <c r="O221" s="382"/>
+      <c r="M221" s="376"/>
+      <c r="N221" s="376"/>
+      <c r="O221" s="377"/>
       <c r="P221" s="10"/>
     </row>
     <row r="222" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -27897,28 +27909,28 @@
         <v>255</v>
       </c>
       <c r="K222" s="237"/>
-      <c r="L222" s="381"/>
-      <c r="M222" s="381"/>
-      <c r="N222" s="381"/>
-      <c r="O222" s="382"/>
+      <c r="L222" s="376"/>
+      <c r="M222" s="376"/>
+      <c r="N222" s="376"/>
+      <c r="O222" s="377"/>
       <c r="P222" s="10"/>
     </row>
     <row r="223" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="9"/>
       <c r="B223" s="29"/>
       <c r="C223" s="30"/>
-      <c r="D223" s="383"/>
-      <c r="E223" s="384"/>
+      <c r="D223" s="381"/>
+      <c r="E223" s="382"/>
       <c r="F223" s="215"/>
       <c r="G223" s="215"/>
       <c r="H223" s="215"/>
       <c r="I223" s="31"/>
       <c r="J223" s="215"/>
       <c r="K223" s="215"/>
-      <c r="L223" s="385"/>
-      <c r="M223" s="385"/>
-      <c r="N223" s="385"/>
-      <c r="O223" s="386"/>
+      <c r="L223" s="383"/>
+      <c r="M223" s="383"/>
+      <c r="N223" s="383"/>
+      <c r="O223" s="384"/>
       <c r="P223" s="10"/>
     </row>
     <row r="224" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28005,10 +28017,10 @@
       <c r="C228" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D228" s="387" t="s">
+      <c r="D228" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E228" s="388"/>
+      <c r="E228" s="392"/>
       <c r="F228" s="25" t="s">
         <v>31</v>
       </c>
@@ -28027,12 +28039,12 @@
       <c r="K228" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L228" s="389" t="s">
+      <c r="L228" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M228" s="389"/>
-      <c r="N228" s="389"/>
-      <c r="O228" s="390"/>
+      <c r="M228" s="393"/>
+      <c r="N228" s="393"/>
+      <c r="O228" s="394"/>
       <c r="P228" s="10"/>
     </row>
     <row r="229" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28043,10 +28055,10 @@
       <c r="C229" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="D229" s="379" t="s">
+      <c r="D229" s="385" t="s">
         <v>388</v>
       </c>
-      <c r="E229" s="380"/>
+      <c r="E229" s="386"/>
       <c r="F229" s="214"/>
       <c r="G229" s="214"/>
       <c r="H229" s="214" t="s">
@@ -28059,12 +28071,12 @@
         <v>255</v>
       </c>
       <c r="K229" s="214"/>
-      <c r="L229" s="381" t="s">
+      <c r="L229" s="376" t="s">
         <v>389</v>
       </c>
-      <c r="M229" s="381"/>
-      <c r="N229" s="381"/>
-      <c r="O229" s="382"/>
+      <c r="M229" s="376"/>
+      <c r="N229" s="376"/>
+      <c r="O229" s="377"/>
       <c r="P229" s="10"/>
     </row>
     <row r="230" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28089,28 +28101,28 @@
         <v>255</v>
       </c>
       <c r="K230" s="237"/>
-      <c r="L230" s="381"/>
-      <c r="M230" s="381"/>
-      <c r="N230" s="381"/>
-      <c r="O230" s="382"/>
+      <c r="L230" s="376"/>
+      <c r="M230" s="376"/>
+      <c r="N230" s="376"/>
+      <c r="O230" s="377"/>
       <c r="P230" s="10"/>
     </row>
     <row r="231" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="9"/>
       <c r="B231" s="29"/>
       <c r="C231" s="30"/>
-      <c r="D231" s="383"/>
-      <c r="E231" s="384"/>
+      <c r="D231" s="381"/>
+      <c r="E231" s="382"/>
       <c r="F231" s="215"/>
       <c r="G231" s="215"/>
       <c r="H231" s="215"/>
       <c r="I231" s="31"/>
       <c r="J231" s="215"/>
       <c r="K231" s="215"/>
-      <c r="L231" s="385"/>
-      <c r="M231" s="385"/>
-      <c r="N231" s="385"/>
-      <c r="O231" s="386"/>
+      <c r="L231" s="383"/>
+      <c r="M231" s="383"/>
+      <c r="N231" s="383"/>
+      <c r="O231" s="384"/>
       <c r="P231" s="10"/>
     </row>
     <row r="232" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28197,10 +28209,10 @@
       <c r="C236" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D236" s="387" t="s">
+      <c r="D236" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E236" s="388"/>
+      <c r="E236" s="392"/>
       <c r="F236" s="25" t="s">
         <v>31</v>
       </c>
@@ -28219,12 +28231,12 @@
       <c r="K236" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L236" s="389" t="s">
+      <c r="L236" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M236" s="389"/>
-      <c r="N236" s="389"/>
-      <c r="O236" s="390"/>
+      <c r="M236" s="393"/>
+      <c r="N236" s="393"/>
+      <c r="O236" s="394"/>
       <c r="P236" s="10"/>
     </row>
     <row r="237" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28235,10 +28247,10 @@
       <c r="C237" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="D237" s="379" t="s">
+      <c r="D237" s="385" t="s">
         <v>350</v>
       </c>
-      <c r="E237" s="380"/>
+      <c r="E237" s="386"/>
       <c r="F237" s="214"/>
       <c r="G237" s="214"/>
       <c r="H237" s="214" t="s">
@@ -28251,12 +28263,12 @@
         <v>255</v>
       </c>
       <c r="K237" s="214"/>
-      <c r="L237" s="381" t="s">
+      <c r="L237" s="376" t="s">
         <v>355</v>
       </c>
-      <c r="M237" s="381"/>
-      <c r="N237" s="381"/>
-      <c r="O237" s="382"/>
+      <c r="M237" s="376"/>
+      <c r="N237" s="376"/>
+      <c r="O237" s="377"/>
       <c r="P237" s="10"/>
     </row>
     <row r="238" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28281,28 +28293,28 @@
         <v>255</v>
       </c>
       <c r="K238" s="237"/>
-      <c r="L238" s="393"/>
-      <c r="M238" s="381"/>
-      <c r="N238" s="381"/>
-      <c r="O238" s="382"/>
+      <c r="L238" s="390"/>
+      <c r="M238" s="376"/>
+      <c r="N238" s="376"/>
+      <c r="O238" s="377"/>
       <c r="P238" s="10"/>
     </row>
     <row r="239" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="9"/>
       <c r="B239" s="29"/>
       <c r="C239" s="30"/>
-      <c r="D239" s="383"/>
-      <c r="E239" s="384"/>
+      <c r="D239" s="381"/>
+      <c r="E239" s="382"/>
       <c r="F239" s="215"/>
       <c r="G239" s="215"/>
       <c r="H239" s="215"/>
       <c r="I239" s="31"/>
       <c r="J239" s="215"/>
       <c r="K239" s="215"/>
-      <c r="L239" s="385"/>
-      <c r="M239" s="385"/>
-      <c r="N239" s="385"/>
-      <c r="O239" s="386"/>
+      <c r="L239" s="383"/>
+      <c r="M239" s="383"/>
+      <c r="N239" s="383"/>
+      <c r="O239" s="384"/>
       <c r="P239" s="10"/>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.2">
@@ -28389,10 +28401,10 @@
       <c r="C244" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D244" s="387" t="s">
+      <c r="D244" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E244" s="388"/>
+      <c r="E244" s="392"/>
       <c r="F244" s="25" t="s">
         <v>31</v>
       </c>
@@ -28411,12 +28423,12 @@
       <c r="K244" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L244" s="389" t="s">
+      <c r="L244" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M244" s="389"/>
-      <c r="N244" s="389"/>
-      <c r="O244" s="390"/>
+      <c r="M244" s="393"/>
+      <c r="N244" s="393"/>
+      <c r="O244" s="394"/>
       <c r="P244" s="10"/>
     </row>
     <row r="245" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -28427,10 +28439,10 @@
       <c r="C245" s="233" t="s">
         <v>357</v>
       </c>
-      <c r="D245" s="391" t="s">
+      <c r="D245" s="395" t="s">
         <v>226</v>
       </c>
-      <c r="E245" s="392"/>
+      <c r="E245" s="396"/>
       <c r="F245" s="214"/>
       <c r="G245" s="214"/>
       <c r="H245" s="214" t="s">
@@ -28443,12 +28455,12 @@
         <v>255</v>
       </c>
       <c r="K245" s="214"/>
-      <c r="L245" s="393" t="s">
+      <c r="L245" s="390" t="s">
         <v>415</v>
       </c>
-      <c r="M245" s="381"/>
-      <c r="N245" s="381"/>
-      <c r="O245" s="382"/>
+      <c r="M245" s="376"/>
+      <c r="N245" s="376"/>
+      <c r="O245" s="377"/>
       <c r="P245" s="10"/>
     </row>
     <row r="246" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28473,28 +28485,28 @@
         <v>255</v>
       </c>
       <c r="K246" s="237"/>
-      <c r="L246" s="393"/>
-      <c r="M246" s="381"/>
-      <c r="N246" s="381"/>
-      <c r="O246" s="382"/>
+      <c r="L246" s="390"/>
+      <c r="M246" s="376"/>
+      <c r="N246" s="376"/>
+      <c r="O246" s="377"/>
       <c r="P246" s="10"/>
     </row>
     <row r="247" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="9"/>
       <c r="B247" s="29"/>
       <c r="C247" s="30"/>
-      <c r="D247" s="383"/>
-      <c r="E247" s="384"/>
+      <c r="D247" s="381"/>
+      <c r="E247" s="382"/>
       <c r="F247" s="215"/>
       <c r="G247" s="215"/>
       <c r="H247" s="215"/>
       <c r="I247" s="31"/>
       <c r="J247" s="215"/>
       <c r="K247" s="215"/>
-      <c r="L247" s="385"/>
-      <c r="M247" s="385"/>
-      <c r="N247" s="385"/>
-      <c r="O247" s="386"/>
+      <c r="L247" s="383"/>
+      <c r="M247" s="383"/>
+      <c r="N247" s="383"/>
+      <c r="O247" s="384"/>
       <c r="P247" s="10"/>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.2">
@@ -28581,10 +28593,10 @@
       <c r="C252" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D252" s="387" t="s">
+      <c r="D252" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E252" s="388"/>
+      <c r="E252" s="392"/>
       <c r="F252" s="25" t="s">
         <v>31</v>
       </c>
@@ -28603,12 +28615,12 @@
       <c r="K252" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L252" s="389" t="s">
+      <c r="L252" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M252" s="389"/>
-      <c r="N252" s="389"/>
-      <c r="O252" s="390"/>
+      <c r="M252" s="393"/>
+      <c r="N252" s="393"/>
+      <c r="O252" s="394"/>
       <c r="P252" s="10"/>
     </row>
     <row r="253" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -28619,10 +28631,10 @@
       <c r="C253" s="233" t="s">
         <v>357</v>
       </c>
-      <c r="D253" s="391" t="s">
+      <c r="D253" s="395" t="s">
         <v>360</v>
       </c>
-      <c r="E253" s="392"/>
+      <c r="E253" s="396"/>
       <c r="F253" s="214"/>
       <c r="G253" s="214"/>
       <c r="H253" s="214" t="s">
@@ -28635,12 +28647,12 @@
         <v>255</v>
       </c>
       <c r="K253" s="214"/>
-      <c r="L253" s="393" t="s">
+      <c r="L253" s="390" t="s">
         <v>361</v>
       </c>
-      <c r="M253" s="381"/>
-      <c r="N253" s="381"/>
-      <c r="O253" s="382"/>
+      <c r="M253" s="376"/>
+      <c r="N253" s="376"/>
+      <c r="O253" s="377"/>
       <c r="P253" s="10"/>
     </row>
     <row r="254" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28665,28 +28677,28 @@
         <v>255</v>
       </c>
       <c r="K254" s="237"/>
-      <c r="L254" s="393"/>
-      <c r="M254" s="381"/>
-      <c r="N254" s="381"/>
-      <c r="O254" s="382"/>
+      <c r="L254" s="390"/>
+      <c r="M254" s="376"/>
+      <c r="N254" s="376"/>
+      <c r="O254" s="377"/>
       <c r="P254" s="10"/>
     </row>
     <row r="255" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="9"/>
       <c r="B255" s="29"/>
       <c r="C255" s="30"/>
-      <c r="D255" s="383"/>
-      <c r="E255" s="384"/>
+      <c r="D255" s="381"/>
+      <c r="E255" s="382"/>
       <c r="F255" s="215"/>
       <c r="G255" s="215"/>
       <c r="H255" s="215"/>
       <c r="I255" s="31"/>
       <c r="J255" s="215"/>
       <c r="K255" s="215"/>
-      <c r="L255" s="385"/>
-      <c r="M255" s="385"/>
-      <c r="N255" s="385"/>
-      <c r="O255" s="386"/>
+      <c r="L255" s="383"/>
+      <c r="M255" s="383"/>
+      <c r="N255" s="383"/>
+      <c r="O255" s="384"/>
       <c r="P255" s="10"/>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.2">
@@ -28775,10 +28787,10 @@
       <c r="C260" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D260" s="387" t="s">
+      <c r="D260" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E260" s="388"/>
+      <c r="E260" s="392"/>
       <c r="F260" s="25" t="s">
         <v>31</v>
       </c>
@@ -28797,12 +28809,12 @@
       <c r="K260" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L260" s="389" t="s">
+      <c r="L260" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M260" s="389"/>
-      <c r="N260" s="389"/>
-      <c r="O260" s="390"/>
+      <c r="M260" s="393"/>
+      <c r="N260" s="393"/>
+      <c r="O260" s="394"/>
       <c r="P260" s="10"/>
     </row>
     <row r="261" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28813,10 +28825,10 @@
       <c r="C261" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D261" s="379" t="s">
+      <c r="D261" s="385" t="s">
         <v>265</v>
       </c>
-      <c r="E261" s="380"/>
+      <c r="E261" s="386"/>
       <c r="F261" s="214"/>
       <c r="G261" s="214"/>
       <c r="H261" s="214" t="s">
@@ -28831,12 +28843,12 @@
       <c r="K261" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L261" s="381" t="s">
+      <c r="L261" s="376" t="s">
         <v>266</v>
       </c>
-      <c r="M261" s="381"/>
-      <c r="N261" s="381"/>
-      <c r="O261" s="382"/>
+      <c r="M261" s="376"/>
+      <c r="N261" s="376"/>
+      <c r="O261" s="377"/>
       <c r="P261" s="10"/>
     </row>
     <row r="262" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28847,10 +28859,10 @@
       <c r="C262" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D262" s="379" t="s">
+      <c r="D262" s="385" t="s">
         <v>376</v>
       </c>
-      <c r="E262" s="380"/>
+      <c r="E262" s="386"/>
       <c r="F262" s="214"/>
       <c r="G262" s="214"/>
       <c r="H262" s="214" t="s">
@@ -28863,10 +28875,10 @@
         <v>255</v>
       </c>
       <c r="K262" s="214"/>
-      <c r="L262" s="381"/>
-      <c r="M262" s="381"/>
-      <c r="N262" s="381"/>
-      <c r="O262" s="382"/>
+      <c r="L262" s="376"/>
+      <c r="M262" s="376"/>
+      <c r="N262" s="376"/>
+      <c r="O262" s="377"/>
       <c r="P262" s="10"/>
     </row>
     <row r="263" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -28877,10 +28889,10 @@
       <c r="C263" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D263" s="379" t="s">
+      <c r="D263" s="385" t="s">
         <v>377</v>
       </c>
-      <c r="E263" s="380"/>
+      <c r="E263" s="386"/>
       <c r="F263" s="214"/>
       <c r="G263" s="214"/>
       <c r="H263" s="214"/>
@@ -28891,34 +28903,36 @@
         <v>255</v>
       </c>
       <c r="K263" s="214"/>
-      <c r="L263" s="381"/>
-      <c r="M263" s="381"/>
-      <c r="N263" s="381"/>
-      <c r="O263" s="382"/>
+      <c r="L263" s="376"/>
+      <c r="M263" s="376"/>
+      <c r="N263" s="376"/>
+      <c r="O263" s="377"/>
       <c r="P263" s="10"/>
     </row>
     <row r="264" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="9"/>
       <c r="B264" s="29"/>
-      <c r="C264" s="30"/>
-      <c r="D264" s="383"/>
-      <c r="E264" s="384"/>
+      <c r="C264" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D264" s="381"/>
+      <c r="E264" s="382"/>
       <c r="F264" s="215"/>
       <c r="G264" s="215"/>
       <c r="H264" s="215"/>
       <c r="I264" s="31"/>
       <c r="J264" s="215"/>
       <c r="K264" s="215"/>
-      <c r="L264" s="385"/>
-      <c r="M264" s="385"/>
-      <c r="N264" s="385"/>
-      <c r="O264" s="386"/>
+      <c r="L264" s="383"/>
+      <c r="M264" s="383"/>
+      <c r="N264" s="383"/>
+      <c r="O264" s="384"/>
       <c r="P264" s="10"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A265" s="9"/>
       <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
+      <c r="C265" s="447"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
@@ -29001,10 +29015,10 @@
       <c r="C269" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D269" s="387" t="s">
+      <c r="D269" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E269" s="388"/>
+      <c r="E269" s="392"/>
       <c r="F269" s="25" t="s">
         <v>31</v>
       </c>
@@ -29023,12 +29037,12 @@
       <c r="K269" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L269" s="389" t="s">
+      <c r="L269" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M269" s="389"/>
-      <c r="N269" s="389"/>
-      <c r="O269" s="390"/>
+      <c r="M269" s="393"/>
+      <c r="N269" s="393"/>
+      <c r="O269" s="394"/>
       <c r="P269" s="10"/>
     </row>
     <row r="270" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29039,10 +29053,10 @@
       <c r="C270" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D270" s="379" t="s">
+      <c r="D270" s="385" t="s">
         <v>379</v>
       </c>
-      <c r="E270" s="380"/>
+      <c r="E270" s="386"/>
       <c r="F270" s="214"/>
       <c r="G270" s="214"/>
       <c r="H270" s="214" t="s">
@@ -29055,10 +29069,10 @@
         <v>255</v>
       </c>
       <c r="K270" s="214"/>
-      <c r="L270" s="381"/>
-      <c r="M270" s="381"/>
-      <c r="N270" s="381"/>
-      <c r="O270" s="382"/>
+      <c r="L270" s="376"/>
+      <c r="M270" s="376"/>
+      <c r="N270" s="376"/>
+      <c r="O270" s="377"/>
       <c r="P270" s="10"/>
     </row>
     <row r="271" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29069,10 +29083,10 @@
       <c r="C271" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D271" s="379" t="s">
+      <c r="D271" s="385" t="s">
         <v>380</v>
       </c>
-      <c r="E271" s="380"/>
+      <c r="E271" s="386"/>
       <c r="F271" s="214"/>
       <c r="G271" s="214"/>
       <c r="H271" s="214"/>
@@ -29083,10 +29097,10 @@
         <v>255</v>
       </c>
       <c r="K271" s="214"/>
-      <c r="L271" s="381"/>
-      <c r="M271" s="381"/>
-      <c r="N271" s="381"/>
-      <c r="O271" s="382"/>
+      <c r="L271" s="376"/>
+      <c r="M271" s="376"/>
+      <c r="N271" s="376"/>
+      <c r="O271" s="377"/>
       <c r="P271" s="10"/>
     </row>
     <row r="272" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29109,30 +29123,30 @@
       </c>
       <c r="J272" s="214"/>
       <c r="K272" s="214"/>
-      <c r="L272" s="381" t="s">
+      <c r="L272" s="376" t="s">
         <v>414</v>
       </c>
-      <c r="M272" s="381"/>
-      <c r="N272" s="381"/>
-      <c r="O272" s="382"/>
+      <c r="M272" s="376"/>
+      <c r="N272" s="376"/>
+      <c r="O272" s="377"/>
       <c r="P272" s="10"/>
     </row>
     <row r="273" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="9"/>
       <c r="B273" s="29"/>
       <c r="C273" s="30"/>
-      <c r="D273" s="383"/>
-      <c r="E273" s="384"/>
+      <c r="D273" s="381"/>
+      <c r="E273" s="382"/>
       <c r="F273" s="215"/>
       <c r="G273" s="215"/>
       <c r="H273" s="215"/>
       <c r="I273" s="31"/>
       <c r="J273" s="215"/>
       <c r="K273" s="215"/>
-      <c r="L273" s="385"/>
-      <c r="M273" s="385"/>
-      <c r="N273" s="385"/>
-      <c r="O273" s="386"/>
+      <c r="L273" s="383"/>
+      <c r="M273" s="383"/>
+      <c r="N273" s="383"/>
+      <c r="O273" s="384"/>
       <c r="P273" s="10"/>
     </row>
     <row r="274" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -29221,10 +29235,10 @@
       <c r="C278" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D278" s="387" t="s">
+      <c r="D278" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E278" s="388"/>
+      <c r="E278" s="392"/>
       <c r="F278" s="25" t="s">
         <v>31</v>
       </c>
@@ -29243,12 +29257,12 @@
       <c r="K278" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L278" s="389" t="s">
+      <c r="L278" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M278" s="389"/>
-      <c r="N278" s="389"/>
-      <c r="O278" s="390"/>
+      <c r="M278" s="393"/>
+      <c r="N278" s="393"/>
+      <c r="O278" s="394"/>
       <c r="P278" s="10"/>
     </row>
     <row r="279" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29259,10 +29273,10 @@
       <c r="C279" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="D279" s="379" t="s">
+      <c r="D279" s="385" t="s">
         <v>384</v>
       </c>
-      <c r="E279" s="380"/>
+      <c r="E279" s="386"/>
       <c r="F279" s="214"/>
       <c r="G279" s="214"/>
       <c r="H279" s="214" t="s">
@@ -29273,12 +29287,12 @@
       </c>
       <c r="J279" s="214"/>
       <c r="K279" s="214"/>
-      <c r="L279" s="381" t="s">
+      <c r="L279" s="376" t="s">
         <v>385</v>
       </c>
-      <c r="M279" s="381"/>
-      <c r="N279" s="381"/>
-      <c r="O279" s="382"/>
+      <c r="M279" s="376"/>
+      <c r="N279" s="376"/>
+      <c r="O279" s="377"/>
       <c r="P279" s="10"/>
     </row>
     <row r="280" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29289,10 +29303,10 @@
       <c r="C280" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D280" s="379" t="s">
+      <c r="D280" s="385" t="s">
         <v>386</v>
       </c>
-      <c r="E280" s="380"/>
+      <c r="E280" s="386"/>
       <c r="F280" s="214"/>
       <c r="G280" s="214"/>
       <c r="H280" s="214" t="s">
@@ -29305,10 +29319,10 @@
         <v>255</v>
       </c>
       <c r="K280" s="214"/>
-      <c r="L280" s="381"/>
-      <c r="M280" s="381"/>
-      <c r="N280" s="381"/>
-      <c r="O280" s="382"/>
+      <c r="L280" s="376"/>
+      <c r="M280" s="376"/>
+      <c r="N280" s="376"/>
+      <c r="O280" s="377"/>
       <c r="P280" s="10"/>
     </row>
     <row r="281" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29319,10 +29333,10 @@
       <c r="C281" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D281" s="396" t="s">
+      <c r="D281" s="442" t="s">
         <v>377</v>
       </c>
-      <c r="E281" s="397"/>
+      <c r="E281" s="443"/>
       <c r="F281" s="214"/>
       <c r="G281" s="214"/>
       <c r="H281" s="214"/>
@@ -29333,10 +29347,10 @@
         <v>255</v>
       </c>
       <c r="K281" s="214"/>
-      <c r="L281" s="381"/>
-      <c r="M281" s="381"/>
-      <c r="N281" s="381"/>
-      <c r="O281" s="382"/>
+      <c r="L281" s="376"/>
+      <c r="M281" s="376"/>
+      <c r="N281" s="376"/>
+      <c r="O281" s="377"/>
       <c r="P281" s="10"/>
     </row>
     <row r="282" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -29347,10 +29361,10 @@
       <c r="C282" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D282" s="394" t="s">
+      <c r="D282" s="413" t="s">
         <v>413</v>
       </c>
-      <c r="E282" s="395"/>
+      <c r="E282" s="414"/>
       <c r="F282" s="215"/>
       <c r="G282" s="215"/>
       <c r="H282" s="215" t="s">
@@ -29363,12 +29377,12 @@
       <c r="K282" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="L282" s="385" t="s">
+      <c r="L282" s="383" t="s">
         <v>414</v>
       </c>
-      <c r="M282" s="385"/>
-      <c r="N282" s="385"/>
-      <c r="O282" s="386"/>
+      <c r="M282" s="383"/>
+      <c r="N282" s="383"/>
+      <c r="O282" s="384"/>
       <c r="P282" s="10"/>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.2">
@@ -29455,10 +29469,10 @@
       <c r="C287" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D287" s="387" t="s">
+      <c r="D287" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E287" s="388"/>
+      <c r="E287" s="392"/>
       <c r="F287" s="25" t="s">
         <v>31</v>
       </c>
@@ -29477,12 +29491,12 @@
       <c r="K287" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L287" s="389" t="s">
+      <c r="L287" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M287" s="389"/>
-      <c r="N287" s="389"/>
-      <c r="O287" s="390"/>
+      <c r="M287" s="393"/>
+      <c r="N287" s="393"/>
+      <c r="O287" s="394"/>
       <c r="P287" s="10"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29493,10 +29507,10 @@
       <c r="C288" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="D288" s="379" t="s">
+      <c r="D288" s="385" t="s">
         <v>401</v>
       </c>
-      <c r="E288" s="380"/>
+      <c r="E288" s="386"/>
       <c r="F288" s="214"/>
       <c r="G288" s="214"/>
       <c r="H288" s="214" t="s">
@@ -29509,10 +29523,10 @@
         <v>255</v>
       </c>
       <c r="K288" s="214"/>
-      <c r="L288" s="381"/>
-      <c r="M288" s="381"/>
-      <c r="N288" s="381"/>
-      <c r="O288" s="382"/>
+      <c r="L288" s="376"/>
+      <c r="M288" s="376"/>
+      <c r="N288" s="376"/>
+      <c r="O288" s="377"/>
       <c r="P288" s="10"/>
     </row>
     <row r="289" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29523,10 +29537,10 @@
       <c r="C289" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="D289" s="379" t="s">
+      <c r="D289" s="385" t="s">
         <v>394</v>
       </c>
-      <c r="E289" s="380"/>
+      <c r="E289" s="386"/>
       <c r="F289" s="214"/>
       <c r="G289" s="214"/>
       <c r="H289" s="214" t="s">
@@ -29539,12 +29553,12 @@
         <v>255</v>
       </c>
       <c r="K289" s="214"/>
-      <c r="L289" s="381" t="s">
+      <c r="L289" s="376" t="s">
         <v>393</v>
       </c>
-      <c r="M289" s="381"/>
-      <c r="N289" s="381"/>
-      <c r="O289" s="382"/>
+      <c r="M289" s="376"/>
+      <c r="N289" s="376"/>
+      <c r="O289" s="377"/>
       <c r="P289" s="10"/>
     </row>
     <row r="290" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29555,10 +29569,10 @@
       <c r="C290" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="D290" s="391" t="s">
+      <c r="D290" s="395" t="s">
         <v>400</v>
       </c>
-      <c r="E290" s="392"/>
+      <c r="E290" s="396"/>
       <c r="F290" s="214"/>
       <c r="G290" s="214"/>
       <c r="H290" s="214" t="s">
@@ -29571,10 +29585,10 @@
         <v>255</v>
       </c>
       <c r="K290" s="214"/>
-      <c r="L290" s="393"/>
-      <c r="M290" s="381"/>
-      <c r="N290" s="381"/>
-      <c r="O290" s="382"/>
+      <c r="L290" s="390"/>
+      <c r="M290" s="376"/>
+      <c r="N290" s="376"/>
+      <c r="O290" s="377"/>
       <c r="P290" s="10"/>
     </row>
     <row r="291" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29585,10 +29599,10 @@
       <c r="C291" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="D291" s="379" t="s">
+      <c r="D291" s="385" t="s">
         <v>399</v>
       </c>
-      <c r="E291" s="380"/>
+      <c r="E291" s="386"/>
       <c r="F291" s="214"/>
       <c r="G291" s="214"/>
       <c r="H291" s="214" t="s">
@@ -29599,12 +29613,12 @@
       </c>
       <c r="J291" s="214"/>
       <c r="K291" s="214"/>
-      <c r="L291" s="381" t="s">
+      <c r="L291" s="376" t="s">
         <v>252</v>
       </c>
-      <c r="M291" s="381"/>
-      <c r="N291" s="381"/>
-      <c r="O291" s="382"/>
+      <c r="M291" s="376"/>
+      <c r="N291" s="376"/>
+      <c r="O291" s="377"/>
       <c r="P291" s="10"/>
     </row>
     <row r="292" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29615,10 +29629,10 @@
       <c r="C292" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="D292" s="379" t="s">
+      <c r="D292" s="385" t="s">
         <v>398</v>
       </c>
-      <c r="E292" s="380"/>
+      <c r="E292" s="386"/>
       <c r="F292" s="214"/>
       <c r="G292" s="214"/>
       <c r="H292" s="214"/>
@@ -29629,30 +29643,30 @@
       <c r="K292" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L292" s="381" t="s">
+      <c r="L292" s="376" t="s">
         <v>268</v>
       </c>
-      <c r="M292" s="381"/>
-      <c r="N292" s="381"/>
-      <c r="O292" s="382"/>
+      <c r="M292" s="376"/>
+      <c r="N292" s="376"/>
+      <c r="O292" s="377"/>
       <c r="P292" s="10"/>
     </row>
     <row r="293" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="9"/>
       <c r="B293" s="29"/>
       <c r="C293" s="30"/>
-      <c r="D293" s="383"/>
-      <c r="E293" s="384"/>
+      <c r="D293" s="381"/>
+      <c r="E293" s="382"/>
       <c r="F293" s="215"/>
       <c r="G293" s="215"/>
       <c r="H293" s="215"/>
       <c r="I293" s="31"/>
       <c r="J293" s="215"/>
       <c r="K293" s="215"/>
-      <c r="L293" s="385"/>
-      <c r="M293" s="385"/>
-      <c r="N293" s="385"/>
-      <c r="O293" s="386"/>
+      <c r="L293" s="383"/>
+      <c r="M293" s="383"/>
+      <c r="N293" s="383"/>
+      <c r="O293" s="384"/>
       <c r="P293" s="10"/>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
@@ -29758,10 +29772,10 @@
       <c r="C300" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D300" s="387" t="s">
+      <c r="D300" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E300" s="388"/>
+      <c r="E300" s="392"/>
       <c r="F300" s="25" t="s">
         <v>31</v>
       </c>
@@ -29780,12 +29794,12 @@
       <c r="K300" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L300" s="389" t="s">
+      <c r="L300" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M300" s="389"/>
-      <c r="N300" s="389"/>
-      <c r="O300" s="390"/>
+      <c r="M300" s="393"/>
+      <c r="N300" s="393"/>
+      <c r="O300" s="394"/>
       <c r="P300" s="10"/>
     </row>
     <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29796,8 +29810,8 @@
       <c r="C301" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="D301" s="379"/>
-      <c r="E301" s="380"/>
+      <c r="D301" s="385"/>
+      <c r="E301" s="386"/>
       <c r="F301" s="214"/>
       <c r="G301" s="214"/>
       <c r="H301" s="214" t="s">
@@ -29810,10 +29824,10 @@
         <v>255</v>
       </c>
       <c r="K301" s="214"/>
-      <c r="L301" s="381"/>
-      <c r="M301" s="381"/>
-      <c r="N301" s="381"/>
-      <c r="O301" s="382"/>
+      <c r="L301" s="376"/>
+      <c r="M301" s="376"/>
+      <c r="N301" s="376"/>
+      <c r="O301" s="377"/>
       <c r="P301" s="10"/>
     </row>
     <row r="302" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29824,8 +29838,8 @@
       <c r="C302" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D302" s="379"/>
-      <c r="E302" s="380"/>
+      <c r="D302" s="385"/>
+      <c r="E302" s="386"/>
       <c r="F302" s="214"/>
       <c r="G302" s="214"/>
       <c r="H302" s="214" t="s">
@@ -29836,12 +29850,12 @@
       </c>
       <c r="J302" s="214"/>
       <c r="K302" s="214"/>
-      <c r="L302" s="381" t="s">
+      <c r="L302" s="376" t="s">
         <v>352</v>
       </c>
-      <c r="M302" s="381"/>
-      <c r="N302" s="381"/>
-      <c r="O302" s="382"/>
+      <c r="M302" s="376"/>
+      <c r="N302" s="376"/>
+      <c r="O302" s="377"/>
       <c r="P302" s="10"/>
     </row>
     <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -29852,8 +29866,8 @@
       <c r="C303" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="D303" s="391"/>
-      <c r="E303" s="392"/>
+      <c r="D303" s="395"/>
+      <c r="E303" s="396"/>
       <c r="F303" s="214"/>
       <c r="G303" s="214"/>
       <c r="H303" s="214" t="s">
@@ -29864,12 +29878,12 @@
       </c>
       <c r="J303" s="214"/>
       <c r="K303" s="214"/>
-      <c r="L303" s="393" t="s">
+      <c r="L303" s="390" t="s">
         <v>348</v>
       </c>
-      <c r="M303" s="381"/>
-      <c r="N303" s="381"/>
-      <c r="O303" s="382"/>
+      <c r="M303" s="376"/>
+      <c r="N303" s="376"/>
+      <c r="O303" s="377"/>
       <c r="P303" s="10"/>
     </row>
     <row r="304" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29880,8 +29894,8 @@
       <c r="C304" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="D304" s="379"/>
-      <c r="E304" s="380"/>
+      <c r="D304" s="385"/>
+      <c r="E304" s="386"/>
       <c r="F304" s="214"/>
       <c r="G304" s="214"/>
       <c r="H304" s="214" t="s">
@@ -29892,10 +29906,10 @@
       </c>
       <c r="J304" s="214"/>
       <c r="K304" s="214"/>
-      <c r="L304" s="381"/>
-      <c r="M304" s="381"/>
-      <c r="N304" s="381"/>
-      <c r="O304" s="382"/>
+      <c r="L304" s="376"/>
+      <c r="M304" s="376"/>
+      <c r="N304" s="376"/>
+      <c r="O304" s="377"/>
       <c r="P304" s="10"/>
     </row>
     <row r="305" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29906,8 +29920,8 @@
       <c r="C305" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="D305" s="379"/>
-      <c r="E305" s="380"/>
+      <c r="D305" s="385"/>
+      <c r="E305" s="386"/>
       <c r="F305" s="214"/>
       <c r="G305" s="214"/>
       <c r="H305" s="214" t="s">
@@ -29918,10 +29932,10 @@
       </c>
       <c r="J305" s="214"/>
       <c r="K305" s="214"/>
-      <c r="L305" s="381"/>
-      <c r="M305" s="381"/>
-      <c r="N305" s="381"/>
-      <c r="O305" s="382"/>
+      <c r="L305" s="376"/>
+      <c r="M305" s="376"/>
+      <c r="N305" s="376"/>
+      <c r="O305" s="377"/>
       <c r="P305" s="10"/>
     </row>
     <row r="306" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29932,8 +29946,8 @@
       <c r="C306" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="D306" s="379"/>
-      <c r="E306" s="380"/>
+      <c r="D306" s="385"/>
+      <c r="E306" s="386"/>
       <c r="F306" s="214"/>
       <c r="G306" s="214"/>
       <c r="H306" s="214" t="s">
@@ -29946,10 +29960,10 @@
         <v>255</v>
       </c>
       <c r="K306" s="214"/>
-      <c r="L306" s="381"/>
-      <c r="M306" s="381"/>
-      <c r="N306" s="381"/>
-      <c r="O306" s="382"/>
+      <c r="L306" s="376"/>
+      <c r="M306" s="376"/>
+      <c r="N306" s="376"/>
+      <c r="O306" s="377"/>
       <c r="P306" s="10"/>
     </row>
     <row r="307" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -29960,8 +29974,8 @@
       <c r="C307" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="D307" s="379"/>
-      <c r="E307" s="380"/>
+      <c r="D307" s="385"/>
+      <c r="E307" s="386"/>
       <c r="F307" s="214"/>
       <c r="G307" s="214"/>
       <c r="H307" s="214" t="s">
@@ -29972,30 +29986,30 @@
       </c>
       <c r="J307" s="214"/>
       <c r="K307" s="214"/>
-      <c r="L307" s="381" t="s">
+      <c r="L307" s="376" t="s">
         <v>422</v>
       </c>
-      <c r="M307" s="381"/>
-      <c r="N307" s="381"/>
-      <c r="O307" s="382"/>
+      <c r="M307" s="376"/>
+      <c r="N307" s="376"/>
+      <c r="O307" s="377"/>
       <c r="P307" s="10"/>
     </row>
     <row r="308" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="9"/>
       <c r="B308" s="29"/>
       <c r="C308" s="30"/>
-      <c r="D308" s="383"/>
-      <c r="E308" s="384"/>
+      <c r="D308" s="381"/>
+      <c r="E308" s="382"/>
       <c r="F308" s="215"/>
       <c r="G308" s="215"/>
       <c r="H308" s="215"/>
       <c r="I308" s="31"/>
       <c r="J308" s="215"/>
       <c r="K308" s="215"/>
-      <c r="L308" s="385"/>
-      <c r="M308" s="385"/>
-      <c r="N308" s="385"/>
-      <c r="O308" s="386"/>
+      <c r="L308" s="383"/>
+      <c r="M308" s="383"/>
+      <c r="N308" s="383"/>
+      <c r="O308" s="384"/>
       <c r="P308" s="10"/>
     </row>
     <row r="310" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30047,10 +30061,10 @@
       <c r="C313" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D313" s="387" t="s">
+      <c r="D313" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="E313" s="388"/>
+      <c r="E313" s="392"/>
       <c r="F313" s="25" t="s">
         <v>31</v>
       </c>
@@ -30069,12 +30083,12 @@
       <c r="K313" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L313" s="389" t="s">
+      <c r="L313" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="M313" s="389"/>
-      <c r="N313" s="389"/>
-      <c r="O313" s="390"/>
+      <c r="M313" s="393"/>
+      <c r="N313" s="393"/>
+      <c r="O313" s="394"/>
       <c r="P313" s="10"/>
     </row>
     <row r="314" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30085,8 +30099,8 @@
       <c r="C314" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D314" s="379"/>
-      <c r="E314" s="380"/>
+      <c r="D314" s="385"/>
+      <c r="E314" s="386"/>
       <c r="F314" s="214"/>
       <c r="G314" s="214"/>
       <c r="H314" s="214" t="s">
@@ -30099,12 +30113,12 @@
       <c r="K314" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="L314" s="381" t="s">
+      <c r="L314" s="376" t="s">
         <v>424</v>
       </c>
-      <c r="M314" s="381"/>
-      <c r="N314" s="381"/>
-      <c r="O314" s="382"/>
+      <c r="M314" s="376"/>
+      <c r="N314" s="376"/>
+      <c r="O314" s="377"/>
       <c r="P314" s="10"/>
     </row>
     <row r="315" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30115,8 +30129,8 @@
       <c r="C315" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D315" s="379"/>
-      <c r="E315" s="380"/>
+      <c r="D315" s="385"/>
+      <c r="E315" s="386"/>
       <c r="F315" s="214"/>
       <c r="G315" s="214"/>
       <c r="H315" s="214" t="s">
@@ -30127,12 +30141,12 @@
       </c>
       <c r="J315" s="214"/>
       <c r="K315" s="214"/>
-      <c r="L315" s="381" t="s">
+      <c r="L315" s="376" t="s">
         <v>442</v>
       </c>
-      <c r="M315" s="381"/>
-      <c r="N315" s="381"/>
-      <c r="O315" s="382"/>
+      <c r="M315" s="376"/>
+      <c r="N315" s="376"/>
+      <c r="O315" s="377"/>
       <c r="P315" s="10"/>
     </row>
     <row r="316" spans="1:16" ht="24" x14ac:dyDescent="0.2">
@@ -30143,8 +30157,8 @@
       <c r="C316" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="D316" s="391"/>
-      <c r="E316" s="392"/>
+      <c r="D316" s="395"/>
+      <c r="E316" s="396"/>
       <c r="F316" s="214"/>
       <c r="G316" s="214"/>
       <c r="H316" s="214" t="s">
@@ -30157,10 +30171,10 @@
         <v>20</v>
       </c>
       <c r="K316" s="214"/>
-      <c r="L316" s="393"/>
-      <c r="M316" s="381"/>
-      <c r="N316" s="381"/>
-      <c r="O316" s="382"/>
+      <c r="L316" s="390"/>
+      <c r="M316" s="376"/>
+      <c r="N316" s="376"/>
+      <c r="O316" s="377"/>
       <c r="P316" s="10"/>
     </row>
     <row r="317" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30171,8 +30185,8 @@
       <c r="C317" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="D317" s="379"/>
-      <c r="E317" s="380"/>
+      <c r="D317" s="385"/>
+      <c r="E317" s="386"/>
       <c r="F317" s="214"/>
       <c r="G317" s="214"/>
       <c r="H317" s="214" t="s">
@@ -30183,10 +30197,10 @@
       </c>
       <c r="J317" s="214"/>
       <c r="K317" s="214"/>
-      <c r="L317" s="381"/>
-      <c r="M317" s="381"/>
-      <c r="N317" s="381"/>
-      <c r="O317" s="382"/>
+      <c r="L317" s="376"/>
+      <c r="M317" s="376"/>
+      <c r="N317" s="376"/>
+      <c r="O317" s="377"/>
       <c r="P317" s="10"/>
     </row>
     <row r="318" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -30197,8 +30211,8 @@
       <c r="C318" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="D318" s="379"/>
-      <c r="E318" s="380"/>
+      <c r="D318" s="385"/>
+      <c r="E318" s="386"/>
       <c r="F318" s="214"/>
       <c r="G318" s="214"/>
       <c r="H318" s="214" t="s">
@@ -30211,28 +30225,28 @@
         <v>20</v>
       </c>
       <c r="K318" s="214"/>
-      <c r="L318" s="381"/>
-      <c r="M318" s="381"/>
-      <c r="N318" s="381"/>
-      <c r="O318" s="382"/>
+      <c r="L318" s="376"/>
+      <c r="M318" s="376"/>
+      <c r="N318" s="376"/>
+      <c r="O318" s="377"/>
       <c r="P318" s="10"/>
     </row>
     <row r="319" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="9"/>
       <c r="B319" s="29"/>
       <c r="C319" s="30"/>
-      <c r="D319" s="383"/>
-      <c r="E319" s="384"/>
+      <c r="D319" s="381"/>
+      <c r="E319" s="382"/>
       <c r="F319" s="215"/>
       <c r="G319" s="215"/>
       <c r="H319" s="215"/>
       <c r="I319" s="31"/>
       <c r="J319" s="215"/>
       <c r="K319" s="215"/>
-      <c r="L319" s="385"/>
-      <c r="M319" s="385"/>
-      <c r="N319" s="385"/>
-      <c r="O319" s="386"/>
+      <c r="L319" s="383"/>
+      <c r="M319" s="383"/>
+      <c r="N319" s="383"/>
+      <c r="O319" s="384"/>
       <c r="P319" s="10"/>
     </row>
     <row r="321" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -30284,10 +30298,10 @@
       <c r="C324" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="D324" s="372" t="s">
+      <c r="D324" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="E324" s="373"/>
+      <c r="E324" s="3